--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="合成確率" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,28 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="メイリオ"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +61,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,64 +431,444 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>台番号</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>累計スタート</t>
+          <t>2024/10/21</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>BB回数</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>RB回数</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>ART回数</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>最大持玉</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>BB確率</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>RB確率</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>ART確率</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>合成確率</t>
-        </is>
+    </row>
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>137.2</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>150.7</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>185.3</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>148.8</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>173.8</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>137.3</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>151.7</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>115.1</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>141.3</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>180.1</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>163.7</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>155.6</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>160.8</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1">
+      <c r="A22" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1">
+      <c r="A23" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1">
+      <c r="A24" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>218.4</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1">
+      <c r="A25" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>157.8</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1">
+      <c r="A26" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>125.8</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="A27" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>174.4</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>160.8</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>142.1</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>139.3</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>127.8</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>223.1</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>182.4</v>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>147.6</v>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>142.4</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>136.1</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>137.6</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>149.1</v>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1">
+      <c r="A46" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>155.8</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1">
+      <c r="A47" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1">
+      <c r="A48" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>170.6</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1">
+      <c r="A49" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1">
+      <c r="A50" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1">
+      <c r="A51" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>193.3</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1">
+      <c r="A52" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>175.1</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>113.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:AQ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,47 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="12" customWidth="1" min="17" max="17"/>
+    <col width="12" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="12" customWidth="1" min="22" max="22"/>
+    <col width="12" customWidth="1" min="23" max="23"/>
+    <col width="12" customWidth="1" min="24" max="24"/>
+    <col width="12" customWidth="1" min="25" max="25"/>
+    <col width="12" customWidth="1" min="26" max="26"/>
+    <col width="12" customWidth="1" min="27" max="27"/>
+    <col width="12" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="12" customWidth="1" min="30" max="30"/>
+    <col width="12" customWidth="1" min="31" max="31"/>
+    <col width="12" customWidth="1" min="32" max="32"/>
+    <col width="12" customWidth="1" min="33" max="33"/>
+    <col width="12" customWidth="1" min="34" max="34"/>
+    <col width="12" customWidth="1" min="35" max="35"/>
+    <col width="12" customWidth="1" min="36" max="36"/>
+    <col width="12" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="38" max="38"/>
+    <col width="12" customWidth="1" min="39" max="39"/>
+    <col width="12" customWidth="1" min="40" max="40"/>
+    <col width="12" customWidth="1" min="41" max="41"/>
+    <col width="12" customWidth="1" min="42" max="42"/>
+    <col width="12" customWidth="1" min="43" max="43"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -451,6 +492,211 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>2024/09/09</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/10</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/11</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/13</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/14</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/15</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/16</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/17</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/18</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/20</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/21</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/22</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/23</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/24</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/25</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/26</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/27</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/28</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/29</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2024/09/30</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/01</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/02</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/03</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/04</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/05</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/06</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/09</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/11</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/12</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/13</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/14</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/15</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/16</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/18</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/19</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/20</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
           <t>2024/10/21</t>
         </is>
       </c>
@@ -459,7 +705,130 @@
       <c r="A2" s="1" t="n">
         <v>478</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="1" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>159.7</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="Y2" s="1" t="n">
+        <v>172.7</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="AP2" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="AQ2" s="2" t="n">
         <v>114</v>
       </c>
     </row>
@@ -467,7 +836,130 @@
       <c r="A3" s="1" t="n">
         <v>479</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="1" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>273.3</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>164.1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>250.3</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>215.4</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>151.7</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>119.5</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>306.4</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="AO3" s="3" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="AQ3" s="3" t="n">
         <v>132.5</v>
       </c>
     </row>
@@ -475,7 +967,130 @@
       <c r="A4" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="1" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>197.3</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>170.2</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>243.8</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
+        <v>110.7</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="AL4" s="2" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>218.2</v>
+      </c>
+      <c r="AO4" s="3" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="AP4" s="1" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="AQ4" s="3" t="n">
         <v>137.2</v>
       </c>
     </row>
@@ -483,7 +1098,130 @@
       <c r="A5" s="1" t="n">
         <v>481</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="1" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>159.7</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>226.4</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>121.2</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>107.3</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="X5" s="3" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="Y5" s="3" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="Z5" s="3" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>201.9</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>173.1</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="AJ5" s="3" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="AK5" s="3" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="AL5" s="3" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="AM5" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="AP5" s="1" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="AQ5" s="3" t="n">
         <v>137.6</v>
       </c>
     </row>
@@ -492,6 +1230,129 @@
         <v>482</v>
       </c>
       <c r="B6" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>130.1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>183.6</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>247.7</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>185.9</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="V6" s="2" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>193.9</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>170.2</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>201.6</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>192.1</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="AG6" s="3" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="AJ6" s="3" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="AK6" s="3" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="AL6" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>257.6</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="AP6" s="1" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="AQ6" s="1" t="n">
         <v>150.7</v>
       </c>
     </row>
@@ -499,7 +1360,130 @@
       <c r="A7" s="1" t="n">
         <v>483</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="3" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>201.9</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>334.6</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="T7" s="2" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="V7" s="2" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>158.1</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>161.1</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>234.3</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="AK7" s="3" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="AO7" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="AP7" s="1" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="AQ7" s="1" t="n">
         <v>185.3</v>
       </c>
     </row>
@@ -507,7 +1491,130 @@
       <c r="A8" s="1" t="n">
         <v>484</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="3" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>137.6</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>173.7</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>168.8</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="V8" s="2" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>288.3</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>198.6</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="AB8" s="3" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="AC8" s="3" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>151.2</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="AO8" s="3" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="AP8" s="1" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="AQ8" s="1" t="n">
         <v>148.8</v>
       </c>
     </row>
@@ -515,7 +1622,130 @@
       <c r="A9" s="1" t="n">
         <v>485</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="3" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>215.6</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>211.7</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>159.3</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>168.8</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>164.4</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="AO9" s="1" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="AP9" s="1" t="n">
+        <v>247.2</v>
+      </c>
+      <c r="AQ9" s="1" t="n">
         <v>159</v>
       </c>
     </row>
@@ -524,6 +1754,129 @@
         <v>486</v>
       </c>
       <c r="B10" s="1" t="n">
+        <v>282.4</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>179.4</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>340.3</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>161.6</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="S10" s="2" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>178.7</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>151.7</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="AE10" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="AG10" s="1" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="AH10" s="1" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="AJ10" s="2" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="AK10" s="1" t="n">
+        <v>151.7</v>
+      </c>
+      <c r="AL10" s="1" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="AM10" s="3" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="AN10" s="3" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="AO10" s="1" t="n">
+        <v>215.1</v>
+      </c>
+      <c r="AP10" s="1" t="n">
+        <v>178.6</v>
+      </c>
+      <c r="AQ10" s="1" t="n">
         <v>173.8</v>
       </c>
     </row>
@@ -531,7 +1884,130 @@
       <c r="A11" s="1" t="n">
         <v>487</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="1" t="n">
+        <v>165.3</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>201.7</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>204.9</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>167.8</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>161.3</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>197.8</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AC11" s="1" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="AD11" s="2" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="AE11" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="AF11" s="1" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="AG11" s="1" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="AH11" s="1" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="AJ11" s="1" t="n">
+        <v>299.8</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="AL11" s="1" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="AN11" s="1" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="AP11" s="1" t="n">
+        <v>173.2</v>
+      </c>
+      <c r="AQ11" s="3" t="n">
         <v>137.3</v>
       </c>
     </row>
@@ -540,6 +2016,129 @@
         <v>488</v>
       </c>
       <c r="B12" s="1" t="n">
+        <v>180.6</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>220.2</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>245.1</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>208.4</v>
+      </c>
+      <c r="S12" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="X12" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="AC12" s="3" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AD12" s="1" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="AE12" s="1" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="AF12" s="3" t="n">
+        <v>139</v>
+      </c>
+      <c r="AG12" s="1" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="AH12" s="1" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="AJ12" s="3" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="AK12" s="1" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="AM12" s="1" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="AN12" s="3" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="AO12" s="1" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="AP12" s="2" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="AQ12" s="1" t="n">
         <v>151.7</v>
       </c>
     </row>
@@ -547,7 +2146,130 @@
       <c r="A13" s="1" t="n">
         <v>489</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="1" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>170.1</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>122.4</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>143.3</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="R13" s="3" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>198.4</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="V13" s="3" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>202.4</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>165.1</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="Z13" s="3" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="AA13" s="2" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="AD13" s="3" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="AE13" s="1" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="AF13" s="3" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="AG13" s="2" t="n">
+        <v>121.2</v>
+      </c>
+      <c r="AH13" s="1" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="AK13" s="1" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="AL13" s="2" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="AM13" s="3" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="AN13" s="1" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="AO13" s="1" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="AP13" s="1" t="n">
+        <v>305.6</v>
+      </c>
+      <c r="AQ13" s="2" t="n">
         <v>115.1</v>
       </c>
     </row>
@@ -556,6 +2278,129 @@
         <v>490</v>
       </c>
       <c r="B14" s="1" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>180.4</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>266.1</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="P14" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="R14" s="3" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>220.4</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>121.8</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>182.1</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="AA14" s="3" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="AB14" s="3" t="n">
+        <v>133.3</v>
+      </c>
+      <c r="AC14" s="2" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <v>245.3</v>
+      </c>
+      <c r="AF14" s="1" t="n">
+        <v>169.9</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="AH14" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="AK14" s="1" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="AL14" s="3" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="AM14" s="2" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="AO14" s="1" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="AP14" s="1" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="AQ14" s="1" t="n">
         <v>182.5</v>
       </c>
     </row>
@@ -564,6 +2409,129 @@
         <v>491</v>
       </c>
       <c r="B15" s="1" t="n">
+        <v>304.3</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>260.4</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="L15" s="1" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="P15" s="2" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="Q15" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>228.7</v>
+      </c>
+      <c r="Y15" s="3" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="AB15" s="3" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="AD15" s="1" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="AE15" s="1" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="AH15" s="1" t="n">
+        <v>172.2</v>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>158.7</v>
+      </c>
+      <c r="AK15" s="1" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="AM15" s="3" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>260.1</v>
+      </c>
+      <c r="AO15" s="2" t="n">
+        <v>116.2</v>
+      </c>
+      <c r="AP15" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="AQ15" s="1" t="n">
         <v>141.3</v>
       </c>
     </row>
@@ -572,6 +2540,129 @@
         <v>492</v>
       </c>
       <c r="B16" s="1" t="n">
+        <v>178.7</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>114.9</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="Q16" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="R16" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>266.4</v>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>160.6</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="AD16" s="1" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="AE16" s="3" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="AF16" s="2" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="AG16" s="3" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="AH16" s="1" t="n">
+        <v>217.4</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="AJ16" s="1" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="AK16" s="1" t="n">
+        <v>237.3</v>
+      </c>
+      <c r="AL16" s="1" t="n">
+        <v>249.3</v>
+      </c>
+      <c r="AM16" s="1" t="n">
+        <v>164.3</v>
+      </c>
+      <c r="AN16" s="1" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="AO16" s="1" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="AP16" s="1" t="n">
+        <v>155.7</v>
+      </c>
+      <c r="AQ16" s="1" t="n">
         <v>180.1</v>
       </c>
     </row>
@@ -579,7 +2670,130 @@
       <c r="A17" s="1" t="n">
         <v>493</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="2" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>137.6</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>173.1</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>207.9</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="Q17" s="3" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>172.6</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="V17" s="1" t="n">
+        <v>163.6</v>
+      </c>
+      <c r="W17" s="3" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="X17" s="2" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="Y17" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>226.4</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AB17" s="1" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD17" s="2" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="AE17" s="2" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="AF17" s="1" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="AG17" s="1" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="AI17" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="AJ17" s="1" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="AK17" s="1" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="AL17" s="1" t="n">
+        <v>172.6</v>
+      </c>
+      <c r="AM17" s="1" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="AN17" s="1" t="n">
+        <v>338.3</v>
+      </c>
+      <c r="AO17" s="1" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="AP17" s="1" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="AQ17" s="1" t="n">
         <v>159.6</v>
       </c>
     </row>
@@ -587,7 +2801,130 @@
       <c r="A18" s="1" t="n">
         <v>494</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="3" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>121.2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>190.2</v>
+      </c>
+      <c r="Q18" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>179.8</v>
+      </c>
+      <c r="V18" s="1" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="X18" s="1" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="Y18" s="1" t="n">
+        <v>239.7</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="AA18" s="1" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="AC18" s="1" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="AD18" s="3" t="n">
+        <v>127.9</v>
+      </c>
+      <c r="AE18" s="1" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="AH18" s="1" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="AI18" s="1" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="AJ18" s="2" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="AK18" s="1" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="AL18" s="1" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="AM18" s="2" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="AN18" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="AO18" s="1" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="AP18" s="3" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="AQ18" s="1" t="n">
         <v>163.7</v>
       </c>
     </row>
@@ -596,6 +2933,129 @@
         <v>495</v>
       </c>
       <c r="B19" s="1" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>212.6</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>243.3</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="J19" s="3" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>159.3</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="Q19" s="3" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>153.3</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>201.4</v>
+      </c>
+      <c r="V19" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="X19" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="Y19" s="1" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="AA19" s="2" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="AB19" s="3" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="AC19" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="AD19" s="3" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="AE19" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="AF19" s="1" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="AG19" s="1" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="AH19" s="1" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="AI19" s="2" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="AJ19" s="1" t="n">
+        <v>173.8</v>
+      </c>
+      <c r="AK19" s="1" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="AL19" s="1" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="AM19" s="1" t="n">
+        <v>241.7</v>
+      </c>
+      <c r="AN19" s="1" t="n">
+        <v>181.6</v>
+      </c>
+      <c r="AO19" s="1" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="AP19" s="1" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="AQ19" s="1" t="n">
         <v>162.5</v>
       </c>
     </row>
@@ -604,6 +3064,129 @@
         <v>496</v>
       </c>
       <c r="B20" s="1" t="n">
+        <v>171.4</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>153.3</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>238.6</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="Q20" s="2" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="S20" s="2" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="T20" s="2" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="Y20" s="3" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <v>190.4</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="AD20" s="1" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="AE20" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="AF20" s="1" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="AI20" s="2" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="AJ20" s="3" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="AK20" s="1" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="AL20" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="AM20" s="1" t="n">
+        <v>161.8</v>
+      </c>
+      <c r="AN20" s="3" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="AO20" s="1" t="n">
+        <v>202.4</v>
+      </c>
+      <c r="AP20" s="1" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="AQ20" s="1" t="n">
         <v>155.6</v>
       </c>
     </row>
@@ -611,7 +3194,130 @@
       <c r="A21" s="1" t="n">
         <v>497</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="3" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>173.8</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>170.4</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="P21" s="2" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>159.3</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>189.3</v>
+      </c>
+      <c r="V21" s="3" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <v>203.6</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <v>202.6</v>
+      </c>
+      <c r="AB21" s="1" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <v>177.6</v>
+      </c>
+      <c r="AD21" s="3" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="AF21" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="AG21" s="1" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="AH21" s="1" t="n">
+        <v>151.2</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="AJ21" s="3" t="n">
+        <v>126.2</v>
+      </c>
+      <c r="AK21" s="1" t="n">
+        <v>170.1</v>
+      </c>
+      <c r="AL21" s="1" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="AM21" s="1" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="AN21" s="1" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="AO21" s="3" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="AP21" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="AQ21" s="1" t="n">
         <v>160.8</v>
       </c>
     </row>
@@ -619,7 +3325,130 @@
       <c r="A22" s="1" t="n">
         <v>498</v>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="2" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>185.7</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>215.3</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>208.6</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>229.1</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="Q22" s="3" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>174.4</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="V22" s="3" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="Z22" s="1" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="AA22" s="1" t="n">
+        <v>213.2</v>
+      </c>
+      <c r="AB22" s="3" t="n">
+        <v>134.8</v>
+      </c>
+      <c r="AC22" s="1" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="AD22" s="1" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="AE22" s="1" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="AF22" s="1" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="AG22" s="1" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="AH22" s="3" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="AI22" s="1" t="n">
+        <v>172.6</v>
+      </c>
+      <c r="AJ22" s="1" t="n">
+        <v>178.7</v>
+      </c>
+      <c r="AK22" s="1" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="AL22" s="1" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="AM22" s="1" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="AN22" s="1" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="AO22" s="1" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="AP22" s="1" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="AQ22" s="3" t="n">
         <v>135.1</v>
       </c>
     </row>
@@ -628,6 +3457,129 @@
         <v>499</v>
       </c>
       <c r="B23" s="1" t="n">
+        <v>172.4</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>175.9</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>151.2</v>
+      </c>
+      <c r="R23" s="2" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="S23" s="3" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>202.4</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>201.3</v>
+      </c>
+      <c r="V23" s="2" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="W23" s="1" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="X23" s="1" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="Y23" s="1" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="Z23" s="1" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="AA23" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="AB23" s="3" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="AC23" s="1" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="AD23" s="1" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="AE23" s="1" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="AF23" s="1" t="n">
+        <v>197.3</v>
+      </c>
+      <c r="AG23" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="AH23" s="1" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="AI23" s="1" t="n">
+        <v>150.7</v>
+      </c>
+      <c r="AJ23" s="3" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="AK23" s="2" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="AL23" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="AM23" s="1" t="n">
+        <v>338.7</v>
+      </c>
+      <c r="AN23" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="AO23" s="3" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="AP23" s="3" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AQ23" s="1" t="n">
         <v>159</v>
       </c>
     </row>
@@ -636,6 +3588,129 @@
         <v>500</v>
       </c>
       <c r="B24" s="1" t="n">
+        <v>194.6</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>150.7</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>131.4</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="L24" s="3" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>193.8</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="V24" s="2" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="W24" s="1" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="Y24" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="Z24" s="1" t="n">
+        <v>168.1</v>
+      </c>
+      <c r="AA24" s="1" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="AB24" s="3" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="AC24" s="1" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="AD24" s="1" t="n">
+        <v>413.5</v>
+      </c>
+      <c r="AE24" s="1" t="n">
+        <v>178.8</v>
+      </c>
+      <c r="AF24" s="3" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="AG24" s="1" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="AH24" s="1" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="AI24" s="1" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="AJ24" s="1" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="AK24" s="1" t="n">
+        <v>299.3</v>
+      </c>
+      <c r="AL24" s="3" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="AM24" s="3" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="AN24" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="AO24" s="1" t="n">
+        <v>170.8</v>
+      </c>
+      <c r="AP24" s="1" t="n">
+        <v>173.2</v>
+      </c>
+      <c r="AQ24" s="1" t="n">
         <v>218.4</v>
       </c>
     </row>
@@ -644,6 +3719,129 @@
         <v>501</v>
       </c>
       <c r="B25" s="1" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>238.6</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>206.6</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="M25" s="3" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>171.6</v>
+      </c>
+      <c r="Q25" s="3" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="S25" s="2" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="T25" s="3" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="V25" s="3" t="n">
+        <v>125.9</v>
+      </c>
+      <c r="W25" s="3" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <v>150.7</v>
+      </c>
+      <c r="Y25" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="Z25" s="1" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="AA25" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB25" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="AC25" s="3" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="AD25" s="1" t="n">
+        <v>158.1</v>
+      </c>
+      <c r="AE25" s="1" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="AF25" s="1" t="n">
+        <v>228.9</v>
+      </c>
+      <c r="AG25" s="1" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="AH25" s="1" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="AI25" s="1" t="n">
+        <v>164.1</v>
+      </c>
+      <c r="AJ25" s="1" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="AK25" s="1" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="AL25" s="2" t="n">
+        <v>107.9</v>
+      </c>
+      <c r="AM25" s="2" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="AN25" s="3" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="AO25" s="1" t="n">
+        <v>216.9</v>
+      </c>
+      <c r="AP25" s="1" t="n">
+        <v>272.6</v>
+      </c>
+      <c r="AQ25" s="1" t="n">
         <v>157.8</v>
       </c>
     </row>
@@ -651,7 +3849,130 @@
       <c r="A26" s="1" t="n">
         <v>502</v>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="1" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>111.7</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="K26" s="3" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>198.3</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>173.6</v>
+      </c>
+      <c r="Q26" s="2" t="n">
+        <v>111.4</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="S26" s="2" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="T26" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="U26" s="3" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="W26" s="2" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="Y26" s="1" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <v>239.8</v>
+      </c>
+      <c r="AA26" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="AB26" s="1" t="n">
+        <v>168.3</v>
+      </c>
+      <c r="AC26" s="2" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="AD26" s="1" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="AE26" s="1" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="AF26" s="1" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="AG26" s="1" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="AH26" s="3" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>171.8</v>
+      </c>
+      <c r="AJ26" s="1" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="AK26" s="1" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="AL26" s="1" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="AM26" s="1" t="n">
+        <v>284.9</v>
+      </c>
+      <c r="AN26" s="1" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="AO26" s="3" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="AP26" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="AQ26" s="3" t="n">
         <v>125.8</v>
       </c>
     </row>
@@ -660,6 +3981,129 @@
         <v>503</v>
       </c>
       <c r="B27" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>222.7</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="J27" s="3" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="L27" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="M27" s="3" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="Q27" s="3" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="R27" s="3" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="S27" s="3" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="W27" s="2" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="Y27" s="1" t="n">
+        <v>167.4</v>
+      </c>
+      <c r="Z27" s="1" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="AB27" s="3" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="AC27" s="3" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="AD27" s="3" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="AE27" s="1" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="AF27" s="1" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="AG27" s="1" t="n">
+        <v>218.7</v>
+      </c>
+      <c r="AH27" s="3" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="AI27" s="3" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="AJ27" s="1" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="AK27" s="3" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="AL27" s="1" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="AM27" s="1" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="AN27" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="AO27" s="2" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="AP27" s="1" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="AQ27" s="1" t="n">
         <v>176</v>
       </c>
     </row>
@@ -667,7 +4111,130 @@
       <c r="A28" s="1" t="n">
         <v>504</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>322.5</v>
+      </c>
+      <c r="Q28" s="3" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>112.3</v>
+      </c>
+      <c r="T28" s="3" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>191.4</v>
+      </c>
+      <c r="W28" s="3" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="Y28" s="1" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="Z28" s="3" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="AA28" s="1" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="AB28" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="AC28" s="2" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="AD28" s="3" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="AE28" s="1" t="n">
+        <v>197.7</v>
+      </c>
+      <c r="AF28" s="1" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="AG28" s="2" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="AH28" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AI28" s="1" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="AJ28" s="2" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="AK28" s="1" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="AL28" s="2" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="AM28" s="1" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="AN28" s="1" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="AO28" s="1" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="AP28" s="1" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="AQ28" s="1" t="n">
         <v>152</v>
       </c>
     </row>
@@ -676,6 +4243,129 @@
         <v>505</v>
       </c>
       <c r="B29" s="1" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>213.6</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>189.4</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>200.7</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>154.5</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>222.4</v>
+      </c>
+      <c r="M29" s="2" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>183.9</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>219.8</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>208.9</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="W29" s="1" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="X29" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="Y29" s="3" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="Z29" s="2" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="AA29" s="3" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="AB29" s="1" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="AC29" s="2" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="AD29" s="1" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="AE29" s="3" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="AF29" s="1" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="AG29" s="2" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="AH29" s="1" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="AI29" s="1" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="AJ29" s="1" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="AK29" s="1" t="n">
+        <v>422.8</v>
+      </c>
+      <c r="AL29" s="1" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="AM29" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="AN29" s="1" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="AO29" s="1" t="n">
+        <v>199.1</v>
+      </c>
+      <c r="AP29" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="AQ29" s="1" t="n">
         <v>174.4</v>
       </c>
     </row>
@@ -684,6 +4374,129 @@
         <v>506</v>
       </c>
       <c r="B30" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>127.1</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>151.7</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>202.9</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>224.1</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="Q30" s="3" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="R30" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>154.7</v>
+      </c>
+      <c r="U30" s="3" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>178.8</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="AA30" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="AB30" s="1" t="n">
+        <v>225.9</v>
+      </c>
+      <c r="AC30" s="3" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="AD30" s="3" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="AE30" s="1" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="AF30" s="2" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="AG30" s="3" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="AH30" s="1" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="AI30" s="1" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="AJ30" s="1" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="AK30" s="2" t="n">
+        <v>123.3</v>
+      </c>
+      <c r="AL30" s="1" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="AM30" s="1" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="AN30" s="1" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="AO30" s="1" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="AP30" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="AQ30" s="1" t="n">
         <v>160.8</v>
       </c>
     </row>
@@ -691,7 +4504,130 @@
       <c r="A31" s="1" t="n">
         <v>507</v>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="1" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>150.7</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="L31" s="3" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="R31" s="3" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>173.8</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>201.9</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>203.8</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>173.8</v>
+      </c>
+      <c r="Y31" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="Z31" s="1" t="n">
+        <v>158.1</v>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="AB31" s="3" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="AC31" s="2" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>265.2</v>
+      </c>
+      <c r="AE31" s="1" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="AF31" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="AG31" s="1" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="AH31" s="1" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="AI31" s="1" t="n">
+        <v>178.7</v>
+      </c>
+      <c r="AJ31" s="1" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="AK31" s="1" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="AL31" s="1" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="AM31" s="1" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="AN31" s="1" t="n">
+        <v>165.3</v>
+      </c>
+      <c r="AO31" s="1" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="AP31" s="1" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="AQ31" s="3" t="n">
         <v>135</v>
       </c>
     </row>
@@ -700,6 +4636,129 @@
         <v>508</v>
       </c>
       <c r="B32" s="1" t="n">
+        <v>245.7</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>160.6</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>244.7</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>211.1</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="T32" s="3" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="W32" s="1" t="n">
+        <v>169.1</v>
+      </c>
+      <c r="X32" s="3" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="Y32" s="3" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="Z32" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="AA32" s="3" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="AB32" s="1" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="AC32" s="3" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="AD32" s="1" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="AE32" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="AF32" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="AG32" s="1" t="n">
+        <v>314.5</v>
+      </c>
+      <c r="AH32" s="1" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="AI32" s="1" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="AJ32" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="AK32" s="3" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="AL32" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="AM32" s="1" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="AN32" s="1" t="n">
+        <v>205.2</v>
+      </c>
+      <c r="AO32" s="1" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="AP32" s="1" t="n">
+        <v>217.1</v>
+      </c>
+      <c r="AQ32" s="1" t="n">
         <v>142.1</v>
       </c>
     </row>
@@ -707,7 +4766,130 @@
       <c r="A33" s="1" t="n">
         <v>509</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="3" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>201.3</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>173.8</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>173.4</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="Q33" s="2" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="R33" s="3" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="S33" s="3" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="V33" s="3" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="W33" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="Y33" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="Z33" s="1" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>215.8</v>
+      </c>
+      <c r="AC33" s="1" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="AD33" s="2" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="AE33" s="1" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="AF33" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="AG33" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="AH33" s="1" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="AI33" s="3" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="AJ33" s="1" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="AK33" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="AL33" s="1" t="n">
+        <v>211.2</v>
+      </c>
+      <c r="AM33" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="AN33" s="3" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="AO33" s="1" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="AP33" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="AQ33" s="1" t="n">
         <v>153.6</v>
       </c>
     </row>
@@ -715,7 +4897,130 @@
       <c r="A34" s="1" t="n">
         <v>510</v>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>178.6</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>202.3</v>
+      </c>
+      <c r="M34" s="2" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>191.8</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="T34" s="3" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="V34" s="2" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="Y34" s="1" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="Z34" s="1" t="n">
+        <v>232.8</v>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="AB34" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="AC34" s="3" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="AD34" s="1" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="AE34" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="AF34" s="1" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="AG34" s="1" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="AH34" s="2" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="AI34" s="1" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="AJ34" s="1" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="AK34" s="3" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="AL34" s="3" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="AM34" s="2" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="AN34" s="1" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="AO34" s="2" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="AP34" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="AQ34" s="3" t="n">
         <v>139.3</v>
       </c>
     </row>
@@ -723,7 +5028,130 @@
       <c r="A35" s="1" t="n">
         <v>511</v>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="2" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>165.1</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>203.3</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>218.2</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>191.6</v>
+      </c>
+      <c r="M35" s="3" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="O35" s="3" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>148.8</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>202.3</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>179.1</v>
+      </c>
+      <c r="W35" s="3" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>153.3</v>
+      </c>
+      <c r="Y35" s="1" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="Z35" s="2" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="AA35" s="3" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="AB35" s="1" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="AC35" s="3" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="AE35" s="1" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="AF35" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="AG35" s="3" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="AH35" s="3" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="AI35" s="2" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="AJ35" s="1" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="AK35" s="1" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="AL35" s="1" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="AM35" s="3" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="AN35" s="1" t="n">
+        <v>153.2</v>
+      </c>
+      <c r="AO35" s="1" t="n">
+        <v>168.9</v>
+      </c>
+      <c r="AP35" s="1" t="n">
+        <v>165.2</v>
+      </c>
+      <c r="AQ35" s="3" t="n">
         <v>127.8</v>
       </c>
     </row>
@@ -732,6 +5160,129 @@
         <v>512</v>
       </c>
       <c r="B36" s="1" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="K36" s="3" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>161.1</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="Q36" s="2" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="T36" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="V36" s="3" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>294.8</v>
+      </c>
+      <c r="X36" s="3" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="Y36" s="1" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="Z36" s="1" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="AA36" s="1" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="AB36" s="1" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="AC36" s="3" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="AD36" s="1" t="n">
+        <v>171.2</v>
+      </c>
+      <c r="AE36" s="1" t="n">
+        <v>195.1</v>
+      </c>
+      <c r="AF36" s="1" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="AG36" s="3" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="AH36" s="3" t="n">
+        <v>126.1</v>
+      </c>
+      <c r="AI36" s="2" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="AJ36" s="1" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="AK36" s="1" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="AL36" s="2" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="AM36" s="1" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="AN36" s="1" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="AO36" s="1" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="AP36" s="1" t="n">
+        <v>233.2</v>
+      </c>
+      <c r="AQ36" s="1" t="n">
         <v>223.1</v>
       </c>
     </row>
@@ -739,7 +5290,130 @@
       <c r="A37" s="1" t="n">
         <v>513</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="1" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>170.8</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>137.3</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="L37" s="3" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>172.9</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>178.8</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="U37" s="2" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="V37" s="2" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="X37" s="2" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="Y37" s="1" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="Z37" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA37" s="3" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="AB37" s="3" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="AC37" s="1" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="AD37" s="1" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="AE37" s="3" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="AF37" s="3" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="AG37" s="1" t="n">
+        <v>161.6</v>
+      </c>
+      <c r="AH37" s="1" t="n">
+        <v>168.1</v>
+      </c>
+      <c r="AI37" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="AJ37" s="1" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="AK37" s="3" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="AL37" s="2" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="AM37" s="1" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="AN37" s="1" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="AO37" s="1" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="AP37" s="1" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="AQ37" s="2" t="n">
         <v>118</v>
       </c>
     </row>
@@ -748,6 +5422,129 @@
         <v>514</v>
       </c>
       <c r="B38" s="1" t="n">
+        <v>163.6</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>239.8</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>162.7</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>172.2</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>168.8</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="L38" s="3" t="n">
+        <v>138</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="Q38" s="3" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="S38" s="3" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="T38" s="3" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="V38" s="3" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="W38" s="1" t="n">
+        <v>214.2</v>
+      </c>
+      <c r="X38" s="3" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="Y38" s="1" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="Z38" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="AA38" s="1" t="n">
+        <v>151.2</v>
+      </c>
+      <c r="AB38" s="1" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="AC38" s="1" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="AD38" s="3" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="AE38" s="3" t="n">
+        <v>126.2</v>
+      </c>
+      <c r="AF38" s="2" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="AG38" s="3" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="AH38" s="3" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="AI38" s="3" t="n">
+        <v>134.1</v>
+      </c>
+      <c r="AJ38" s="2" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="AK38" s="1" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="AL38" s="1" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="AM38" s="1" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="AN38" s="1" t="n">
+        <v>233.3</v>
+      </c>
+      <c r="AO38" s="3" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="AP38" s="1" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="AQ38" s="1" t="n">
         <v>182.4</v>
       </c>
     </row>
@@ -756,6 +5553,129 @@
         <v>515</v>
       </c>
       <c r="B39" s="1" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="M39" s="3" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>318.9</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="U39" s="1" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="V39" s="1" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="W39" s="1" t="n">
+        <v>174.7</v>
+      </c>
+      <c r="X39" s="1" t="n">
+        <v>151.9</v>
+      </c>
+      <c r="Y39" s="1" t="n">
+        <v>154.7</v>
+      </c>
+      <c r="Z39" s="1" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="AA39" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="AB39" s="1" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="AC39" s="1" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="AD39" s="3" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="AE39" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="AF39" s="1" t="n">
+        <v>172.6</v>
+      </c>
+      <c r="AG39" s="3" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="AH39" s="3" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="AI39" s="1" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="AJ39" s="1" t="n">
+        <v>189.7</v>
+      </c>
+      <c r="AK39" s="1" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="AL39" s="3" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="AM39" s="2" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="AN39" s="1" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="AO39" s="1" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="AP39" s="1" t="n">
+        <v>170.1</v>
+      </c>
+      <c r="AQ39" s="1" t="n">
         <v>147.6</v>
       </c>
     </row>
@@ -763,7 +5683,130 @@
       <c r="A40" s="1" t="n">
         <v>516</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>178.6</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>111.3</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="N40" s="3" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>173.1</v>
+      </c>
+      <c r="P40" s="1" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="R40" s="3" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="S40" s="3" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="V40" s="3" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="W40" s="1" t="n">
+        <v>313.9</v>
+      </c>
+      <c r="X40" s="3" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="Y40" s="1" t="n">
+        <v>276.7</v>
+      </c>
+      <c r="Z40" s="1" t="n">
+        <v>174.3</v>
+      </c>
+      <c r="AA40" s="3" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="AB40" s="1" t="n">
+        <v>166.7</v>
+      </c>
+      <c r="AC40" s="1" t="n">
+        <v>151.2</v>
+      </c>
+      <c r="AD40" s="1" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="AE40" s="1" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="AF40" s="3" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="AG40" s="1" t="n">
+        <v>227.2</v>
+      </c>
+      <c r="AH40" s="3" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="AI40" s="1" t="n">
+        <v>160.8</v>
+      </c>
+      <c r="AJ40" s="1" t="n">
+        <v>237.9</v>
+      </c>
+      <c r="AK40" s="1" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="AL40" s="1" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="AM40" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="AN40" s="1" t="n">
+        <v>339.3</v>
+      </c>
+      <c r="AO40" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="AP40" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="AQ40" s="1" t="n">
         <v>142.4</v>
       </c>
     </row>
@@ -771,7 +5814,130 @@
       <c r="A41" s="1" t="n">
         <v>517</v>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="2" t="n">
+        <v>122.6</v>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>191.3</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>171.3</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>212.2</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>111.3</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="Q41" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="R41" s="3" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="S41" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="U41" s="1" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="V41" s="2" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="W41" s="1" t="n">
+        <v>219.4</v>
+      </c>
+      <c r="X41" s="1" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="Y41" s="1" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="Z41" s="1" t="n">
+        <v>236.6</v>
+      </c>
+      <c r="AA41" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="AB41" s="3" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="AC41" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="AD41" s="1" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="AE41" s="3" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="AF41" s="1" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="AG41" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="AH41" s="3" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="AI41" s="1" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="AJ41" s="1" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="AK41" s="3" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="AL41" s="1" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="AM41" s="1" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="AN41" s="1" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="AO41" s="1" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="AP41" s="1" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="AQ41" s="3" t="n">
         <v>136.1</v>
       </c>
     </row>
@@ -779,7 +5945,130 @@
       <c r="A42" s="1" t="n">
         <v>524</v>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="1" t="n">
+        <v>154.9</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>166.4</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>123.7</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="K42" s="3" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="N42" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="P42" s="3" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="R42" s="3" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>174.6</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="U42" s="1" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="V42" s="1" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="W42" s="1" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="X42" s="1" t="n">
+        <v>173.6</v>
+      </c>
+      <c r="Y42" s="1" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="Z42" s="2" t="n">
+        <v>121.2</v>
+      </c>
+      <c r="AA42" s="3" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="AB42" s="3" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="AC42" s="1" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="AD42" s="3" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="AE42" s="1" t="n">
+        <v>178.3</v>
+      </c>
+      <c r="AF42" s="3" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="AG42" s="1" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="AH42" s="1" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="AI42" s="1" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="AJ42" s="1" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="AK42" s="1" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="AL42" s="1" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="AM42" s="2" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="AN42" s="1" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="AO42" s="1" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="AP42" s="3" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="AQ42" s="3" t="n">
         <v>137.6</v>
       </c>
     </row>
@@ -788,6 +6077,129 @@
         <v>525</v>
       </c>
       <c r="B43" s="1" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>342.7</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>198.1</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>245.7</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>176.4</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <v>126.3</v>
+      </c>
+      <c r="M43" s="2" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>175.6</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="S43" s="2" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="U43" s="1" t="n">
+        <v>205.3</v>
+      </c>
+      <c r="V43" s="3" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="W43" s="1" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="X43" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="Y43" s="1" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="Z43" s="3" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="AA43" s="1" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="AB43" s="1" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="AC43" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="AD43" s="1" t="n">
+        <v>181.2</v>
+      </c>
+      <c r="AE43" s="1" t="n">
+        <v>174.8</v>
+      </c>
+      <c r="AF43" s="1" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="AG43" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="AH43" s="3" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="AI43" s="1" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="AJ43" s="1" t="n">
+        <v>176.9</v>
+      </c>
+      <c r="AK43" s="1" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="AL43" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="AM43" s="1" t="n">
+        <v>235.3</v>
+      </c>
+      <c r="AN43" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="AO43" s="3" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="AP43" s="1" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="AQ43" s="1" t="n">
         <v>149.1</v>
       </c>
     </row>
@@ -795,7 +6207,130 @@
       <c r="A44" s="1" t="n">
         <v>526</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="3" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="P44" s="3" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="R44" s="3" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="S44" s="3" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="T44" s="2" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="U44" s="3" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="W44" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="X44" s="1" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="Y44" s="1" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="Z44" s="1" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="AA44" s="3" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="AB44" s="1" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="AC44" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="AD44" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="AE44" s="1" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="AF44" s="3" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="AG44" s="1" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="AH44" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="AI44" s="1" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="AJ44" s="1" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="AK44" s="1" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="AL44" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="AM44" s="1" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="AN44" s="1" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="AO44" s="1" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="AP44" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="AQ44" s="2" t="n">
         <v>114</v>
       </c>
     </row>
@@ -804,6 +6339,129 @@
         <v>527</v>
       </c>
       <c r="B45" s="1" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="C45" s="3" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>138.3</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="N45" s="3" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="P45" s="1" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="S45" s="3" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="T45" s="1" t="n">
+        <v>167.1</v>
+      </c>
+      <c r="U45" s="3" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="V45" s="3" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="W45" s="3" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="X45" s="1" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="Y45" s="1" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="Z45" s="1" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="AA45" s="3" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="AB45" s="3" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="AC45" s="1" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="AD45" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="AE45" s="1" t="n">
+        <v>396.3</v>
+      </c>
+      <c r="AF45" s="3" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="AG45" s="1" t="n">
+        <v>208.7</v>
+      </c>
+      <c r="AH45" s="1" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="AI45" s="1" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="AJ45" s="2" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="AK45" s="1" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="AL45" s="1" t="n">
+        <v>179.2</v>
+      </c>
+      <c r="AM45" s="1" t="n">
+        <v>212.8</v>
+      </c>
+      <c r="AN45" s="1" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="AO45" s="3" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="AP45" s="3" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="AQ45" s="1" t="n">
         <v>161.6</v>
       </c>
     </row>
@@ -812,6 +6470,129 @@
         <v>528</v>
       </c>
       <c r="B46" s="1" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>310.3</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="L46" s="3" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="O46" s="3" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="P46" s="3" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="Q46" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="S46" s="2" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="T46" s="3" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="U46" s="1" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="V46" s="3" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="W46" s="2" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="X46" s="1" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="Y46" s="1" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="Z46" s="3" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="AA46" s="2" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="AB46" s="1" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="AC46" s="1" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="AD46" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="AE46" s="3" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="AF46" s="3" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="AG46" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="AH46" s="3" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="AI46" s="1" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="AJ46" s="1" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="AK46" s="1" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="AL46" s="1" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="AM46" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="AN46" s="1" t="n">
+        <v>194.1</v>
+      </c>
+      <c r="AO46" s="1" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="AP46" s="1" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="AQ46" s="1" t="n">
         <v>155.8</v>
       </c>
     </row>
@@ -820,6 +6601,129 @@
         <v>529</v>
       </c>
       <c r="B47" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>157.7</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="P47" s="3" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="Q47" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="R47" s="1" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="S47" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="T47" s="2" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="U47" s="3" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="V47" s="1" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="W47" s="3" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="X47" s="1" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="Y47" s="1" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="Z47" s="1" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="AA47" s="1" t="n">
+        <v>208.3</v>
+      </c>
+      <c r="AB47" s="3" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="AC47" s="1" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="AD47" s="1" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="AE47" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF47" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="AG47" s="3" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="AH47" s="1" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="AI47" s="1" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="AJ47" s="1" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="AK47" s="1" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="AL47" s="3" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="AM47" s="1" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="AN47" s="1" t="n">
+        <v>179.3</v>
+      </c>
+      <c r="AO47" s="1" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="AP47" s="1" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="AQ47" s="3" t="n">
         <v>128</v>
       </c>
     </row>
@@ -828,6 +6732,129 @@
         <v>530</v>
       </c>
       <c r="B48" s="1" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>173.2</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="J48" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="M48" s="1" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="N48" s="3" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="Q48" s="3" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="S48" s="1" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="T48" s="1" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="U48" s="1" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="V48" s="1" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="W48" s="1" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="X48" s="1" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="Y48" s="2" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="Z48" s="2" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="AA48" s="1" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="AB48" s="2" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="AC48" s="2" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="AD48" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="AE48" s="1" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="AF48" s="1" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="AG48" s="1" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="AH48" s="1" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="AI48" s="2" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="AJ48" s="1" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="AK48" s="1" t="n">
+        <v>164.1</v>
+      </c>
+      <c r="AL48" s="2" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="AM48" s="1" t="n">
+        <v>175.3</v>
+      </c>
+      <c r="AN48" s="3" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="AO48" s="1" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="AP48" s="1" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="AQ48" s="1" t="n">
         <v>170.6</v>
       </c>
     </row>
@@ -836,6 +6863,129 @@
         <v>531</v>
       </c>
       <c r="B49" s="1" t="n">
+        <v>190.1</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="M49" s="3" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="N49" s="3" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="Q49" s="2" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="R49" s="2" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="S49" s="1" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="T49" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="U49" s="1" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="V49" s="3" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="W49" s="1" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="X49" s="1" t="n">
+        <v>166.6</v>
+      </c>
+      <c r="Y49" s="1" t="n">
+        <v>171.4</v>
+      </c>
+      <c r="Z49" s="3" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="AA49" s="1" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="AB49" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="AC49" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="AD49" s="1" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="AE49" s="1" t="n">
+        <v>254.4</v>
+      </c>
+      <c r="AF49" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="AG49" s="2" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="AH49" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="AI49" s="1" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="AJ49" s="1" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="AK49" s="1" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="AL49" s="1" t="n">
+        <v>167.2</v>
+      </c>
+      <c r="AM49" s="3" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="AN49" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="AO49" s="2" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="AP49" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="AQ49" s="1" t="n">
         <v>177.4</v>
       </c>
     </row>
@@ -844,6 +6994,129 @@
         <v>532</v>
       </c>
       <c r="B50" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>161.1</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <v>157.6</v>
+      </c>
+      <c r="M50" s="1" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="O50" s="1" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="R50" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="S50" s="1" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="T50" s="1" t="n">
+        <v>204.6</v>
+      </c>
+      <c r="U50" s="1" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="V50" s="3" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="W50" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="X50" s="1" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="Y50" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="Z50" s="1" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="AA50" s="3" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="AB50" s="1" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="AC50" s="1" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="AD50" s="3" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="AE50" s="1" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="AF50" s="1" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="AG50" s="1" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="AH50" s="3" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="AI50" s="1" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="AJ50" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="AK50" s="1" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="AL50" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="AM50" s="1" t="n">
+        <v>245.1</v>
+      </c>
+      <c r="AN50" s="3" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="AO50" s="1" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="AP50" s="3" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="AQ50" s="1" t="n">
         <v>169.6</v>
       </c>
     </row>
@@ -851,7 +7124,130 @@
       <c r="A51" s="1" t="n">
         <v>533</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="3" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="C51" s="3" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <v>172.7</v>
+      </c>
+      <c r="M51" s="1" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="O51" s="1" t="n">
+        <v>158.1</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>219.6</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>290.9</v>
+      </c>
+      <c r="S51" s="2" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="T51" s="1" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="U51" s="1" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="V51" s="1" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="W51" s="1" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="X51" s="1" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="Y51" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="Z51" s="1" t="n">
+        <v>167.8</v>
+      </c>
+      <c r="AA51" s="2" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="AB51" s="1" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="AC51" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="AD51" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="AE51" s="3" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="AF51" s="1" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="AG51" s="1" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="AH51" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="AI51" s="1" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="AJ51" s="1" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="AK51" s="3" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="AL51" s="1" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="AM51" s="1" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="AN51" s="3" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="AO51" s="1" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="AP51" s="1" t="n">
+        <v>165.1</v>
+      </c>
+      <c r="AQ51" s="1" t="n">
         <v>193.3</v>
       </c>
     </row>
@@ -860,6 +7256,129 @@
         <v>534</v>
       </c>
       <c r="B52" s="1" t="n">
+        <v>191.1</v>
+      </c>
+      <c r="C52" s="3" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>125.1</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>223.9</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="M52" s="1" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="O52" s="3" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>169.3</v>
+      </c>
+      <c r="Q52" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="S52" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="T52" s="1" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="U52" s="1" t="n">
+        <v>173.7</v>
+      </c>
+      <c r="V52" s="1" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="W52" s="3" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="X52" s="1" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="Y52" s="1" t="n">
+        <v>374.2</v>
+      </c>
+      <c r="Z52" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA52" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="AB52" s="2" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="AC52" s="1" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="AD52" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="AE52" s="2" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="AF52" s="1" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="AG52" s="1" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="AH52" s="1" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="AI52" s="1" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="AJ52" s="3" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="AK52" s="1" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="AL52" s="1" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="AM52" s="1" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="AN52" s="1" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="AO52" s="1" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="AP52" s="1" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="AQ52" s="1" t="n">
         <v>175.1</v>
       </c>
     </row>
@@ -867,7 +7386,130 @@
       <c r="A53" s="1" t="n">
         <v>535</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="1" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="C53" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>215.9</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="J53" s="3" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L53" s="3" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="M53" s="3" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="N53" s="3" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="O53" s="1" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="P53" s="3" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="R53" s="3" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="S53" s="3" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="T53" s="3" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="U53" s="1" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="V53" s="3" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="W53" s="1" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="X53" s="1" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="Y53" s="3" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="Z53" s="1" t="n">
+        <v>206.9</v>
+      </c>
+      <c r="AA53" s="1" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="AB53" s="2" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="AC53" s="1" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="AD53" s="1" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="AE53" s="3" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="AF53" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="AG53" s="1" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="AH53" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="AI53" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ53" s="1" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="AK53" s="2" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="AL53" s="3" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="AM53" s="2" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="AN53" s="1" t="n">
+        <v>276.8</v>
+      </c>
+      <c r="AO53" s="1" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="AP53" s="1" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="AQ53" s="2" t="n">
         <v>113.5</v>
       </c>
     </row>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ53"/>
+  <dimension ref="A1:AR53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,7 @@
     <col width="12" customWidth="1" min="41" max="41"/>
     <col width="12" customWidth="1" min="42" max="42"/>
     <col width="12" customWidth="1" min="43" max="43"/>
+    <col width="12" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -700,6 +701,11 @@
           <t>2024/10/21</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -831,6 +837,9 @@
       <c r="AQ2" s="2" t="n">
         <v>114</v>
       </c>
+      <c r="AR2" s="1" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -962,6 +971,9 @@
       <c r="AQ3" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="AR3" s="1" t="n">
+        <v>212.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1093,6 +1105,9 @@
       <c r="AQ4" s="3" t="n">
         <v>137.2</v>
       </c>
+      <c r="AR4" s="1" t="n">
+        <v>165.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1224,6 +1239,9 @@
       <c r="AQ5" s="3" t="n">
         <v>137.6</v>
       </c>
+      <c r="AR5" s="1" t="n">
+        <v>172.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1355,6 +1373,9 @@
       <c r="AQ6" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="AR6" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1486,6 +1507,9 @@
       <c r="AQ7" s="1" t="n">
         <v>185.3</v>
       </c>
+      <c r="AR7" s="1" t="n">
+        <v>162.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1617,6 +1641,9 @@
       <c r="AQ8" s="1" t="n">
         <v>148.8</v>
       </c>
+      <c r="AR8" s="1" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1748,6 +1775,9 @@
       <c r="AQ9" s="1" t="n">
         <v>159</v>
       </c>
+      <c r="AR9" s="3" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -1879,6 +1909,9 @@
       <c r="AQ10" s="1" t="n">
         <v>173.8</v>
       </c>
+      <c r="AR10" s="1" t="n">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2010,6 +2043,9 @@
       <c r="AQ11" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="AR11" s="1" t="n">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2141,6 +2177,9 @@
       <c r="AQ12" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="AR12" s="1" t="n">
+        <v>207.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2272,6 +2311,9 @@
       <c r="AQ13" s="2" t="n">
         <v>115.1</v>
       </c>
+      <c r="AR13" s="1" t="n">
+        <v>176.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2403,6 +2445,9 @@
       <c r="AQ14" s="1" t="n">
         <v>182.5</v>
       </c>
+      <c r="AR14" s="1" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2534,6 +2579,9 @@
       <c r="AQ15" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="AR15" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -2665,6 +2713,9 @@
       <c r="AQ16" s="1" t="n">
         <v>180.1</v>
       </c>
+      <c r="AR16" s="1" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -2796,6 +2847,9 @@
       <c r="AQ17" s="1" t="n">
         <v>159.6</v>
       </c>
+      <c r="AR17" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -2927,6 +2981,9 @@
       <c r="AQ18" s="1" t="n">
         <v>163.7</v>
       </c>
+      <c r="AR18" s="2" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3058,6 +3115,9 @@
       <c r="AQ19" s="1" t="n">
         <v>162.5</v>
       </c>
+      <c r="AR19" s="1" t="n">
+        <v>211.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3189,6 +3249,9 @@
       <c r="AQ20" s="1" t="n">
         <v>155.6</v>
       </c>
+      <c r="AR20" s="1" t="n">
+        <v>153.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3320,6 +3383,9 @@
       <c r="AQ21" s="1" t="n">
         <v>160.8</v>
       </c>
+      <c r="AR21" s="3" t="n">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -3451,6 +3517,9 @@
       <c r="AQ22" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="AR22" s="1" t="n">
+        <v>172.1</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -3582,6 +3651,9 @@
       <c r="AQ23" s="1" t="n">
         <v>159</v>
       </c>
+      <c r="AR23" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -3713,6 +3785,9 @@
       <c r="AQ24" s="1" t="n">
         <v>218.4</v>
       </c>
+      <c r="AR24" s="1" t="n">
+        <v>216.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -3844,6 +3919,9 @@
       <c r="AQ25" s="1" t="n">
         <v>157.8</v>
       </c>
+      <c r="AR25" s="1" t="n">
+        <v>195.9</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -3975,6 +4053,9 @@
       <c r="AQ26" s="3" t="n">
         <v>125.8</v>
       </c>
+      <c r="AR26" s="2" t="n">
+        <v>122.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4106,6 +4187,9 @@
       <c r="AQ27" s="1" t="n">
         <v>176</v>
       </c>
+      <c r="AR27" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -4237,6 +4321,9 @@
       <c r="AQ28" s="1" t="n">
         <v>152</v>
       </c>
+      <c r="AR28" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -4368,6 +4455,9 @@
       <c r="AQ29" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="AR29" s="1" t="n">
+        <v>156.7</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -4499,6 +4589,9 @@
       <c r="AQ30" s="1" t="n">
         <v>160.8</v>
       </c>
+      <c r="AR30" s="1" t="n">
+        <v>157.6</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -4630,6 +4723,9 @@
       <c r="AQ31" s="3" t="n">
         <v>135</v>
       </c>
+      <c r="AR31" s="1" t="n">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -4761,6 +4857,9 @@
       <c r="AQ32" s="1" t="n">
         <v>142.1</v>
       </c>
+      <c r="AR32" s="1" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -4892,6 +4991,9 @@
       <c r="AQ33" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="AR33" s="1" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -5023,6 +5125,9 @@
       <c r="AQ34" s="3" t="n">
         <v>139.3</v>
       </c>
+      <c r="AR34" s="1" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -5154,6 +5259,9 @@
       <c r="AQ35" s="3" t="n">
         <v>127.8</v>
       </c>
+      <c r="AR35" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -5285,6 +5393,9 @@
       <c r="AQ36" s="1" t="n">
         <v>223.1</v>
       </c>
+      <c r="AR36" s="3" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -5416,6 +5527,9 @@
       <c r="AQ37" s="2" t="n">
         <v>118</v>
       </c>
+      <c r="AR37" s="1" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -5547,6 +5661,9 @@
       <c r="AQ38" s="1" t="n">
         <v>182.4</v>
       </c>
+      <c r="AR38" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -5678,6 +5795,9 @@
       <c r="AQ39" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="AR39" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -5809,6 +5929,9 @@
       <c r="AQ40" s="1" t="n">
         <v>142.4</v>
       </c>
+      <c r="AR40" s="1" t="n">
+        <v>269.6</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -5940,6 +6063,9 @@
       <c r="AQ41" s="3" t="n">
         <v>136.1</v>
       </c>
+      <c r="AR41" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -6071,6 +6197,9 @@
       <c r="AQ42" s="3" t="n">
         <v>137.6</v>
       </c>
+      <c r="AR42" s="1" t="n">
+        <v>263.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -6202,6 +6331,9 @@
       <c r="AQ43" s="1" t="n">
         <v>149.1</v>
       </c>
+      <c r="AR43" s="1" t="n">
+        <v>221.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -6333,6 +6465,9 @@
       <c r="AQ44" s="2" t="n">
         <v>114</v>
       </c>
+      <c r="AR44" s="1" t="n">
+        <v>177.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -6464,6 +6599,9 @@
       <c r="AQ45" s="1" t="n">
         <v>161.6</v>
       </c>
+      <c r="AR45" s="2" t="n">
+        <v>118.4</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -6595,6 +6733,9 @@
       <c r="AQ46" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="AR46" s="1" t="n">
+        <v>248.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -6726,6 +6867,9 @@
       <c r="AQ47" s="3" t="n">
         <v>128</v>
       </c>
+      <c r="AR47" s="1" t="n">
+        <v>171.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -6857,6 +7001,9 @@
       <c r="AQ48" s="1" t="n">
         <v>170.6</v>
       </c>
+      <c r="AR48" s="3" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -6988,6 +7135,9 @@
       <c r="AQ49" s="1" t="n">
         <v>177.4</v>
       </c>
+      <c r="AR49" s="1" t="n">
+        <v>163.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -7119,6 +7269,9 @@
       <c r="AQ50" s="1" t="n">
         <v>169.6</v>
       </c>
+      <c r="AR50" s="1" t="n">
+        <v>172.1</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -7250,6 +7403,9 @@
       <c r="AQ51" s="1" t="n">
         <v>193.3</v>
       </c>
+      <c r="AR51" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -7381,6 +7537,9 @@
       <c r="AQ52" s="1" t="n">
         <v>175.1</v>
       </c>
+      <c r="AR52" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -7511,6 +7670,9 @@
       </c>
       <c r="AQ53" s="2" t="n">
         <v>113.5</v>
+      </c>
+      <c r="AR53" s="1" t="n">
+        <v>145.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR53"/>
+  <dimension ref="A1:AS53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,7 @@
     <col width="12" customWidth="1" min="42" max="42"/>
     <col width="12" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
+    <col width="12" customWidth="1" min="45" max="45"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -706,6 +707,11 @@
           <t>2024/10/22</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/23</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -840,6 +846,9 @@
       <c r="AR2" s="1" t="n">
         <v>168.5</v>
       </c>
+      <c r="AS2" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -974,6 +983,9 @@
       <c r="AR3" s="1" t="n">
         <v>212.5</v>
       </c>
+      <c r="AS3" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1108,6 +1120,9 @@
       <c r="AR4" s="1" t="n">
         <v>165.5</v>
       </c>
+      <c r="AS4" s="1" t="n">
+        <v>213.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1242,6 +1257,9 @@
       <c r="AR5" s="1" t="n">
         <v>172.6</v>
       </c>
+      <c r="AS5" s="1" t="n">
+        <v>177.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1376,6 +1394,9 @@
       <c r="AR6" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="AS6" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1510,6 +1531,9 @@
       <c r="AR7" s="1" t="n">
         <v>162.5</v>
       </c>
+      <c r="AS7" s="1" t="n">
+        <v>189.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1644,6 +1668,9 @@
       <c r="AR8" s="1" t="n">
         <v>145.1</v>
       </c>
+      <c r="AS8" s="1" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1778,6 +1805,9 @@
       <c r="AR9" s="3" t="n">
         <v>136.1</v>
       </c>
+      <c r="AS9" s="2" t="n">
+        <v>116.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -1912,6 +1942,9 @@
       <c r="AR10" s="1" t="n">
         <v>158.4</v>
       </c>
+      <c r="AS10" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2046,6 +2079,9 @@
       <c r="AR11" s="1" t="n">
         <v>158.4</v>
       </c>
+      <c r="AS11" s="1" t="n">
+        <v>154.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2180,6 +2216,9 @@
       <c r="AR12" s="1" t="n">
         <v>207.8</v>
       </c>
+      <c r="AS12" s="1" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2314,6 +2353,9 @@
       <c r="AR13" s="1" t="n">
         <v>176.2</v>
       </c>
+      <c r="AS13" s="2" t="n">
+        <v>115.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2448,6 +2490,9 @@
       <c r="AR14" s="1" t="n">
         <v>156.6</v>
       </c>
+      <c r="AS14" s="1" t="n">
+        <v>290.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2582,6 +2627,9 @@
       <c r="AR15" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="AS15" s="2" t="n">
+        <v>109.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -2716,6 +2764,9 @@
       <c r="AR16" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="AS16" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -2850,6 +2901,9 @@
       <c r="AR17" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="AS17" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -2984,6 +3038,9 @@
       <c r="AR18" s="2" t="n">
         <v>120.5</v>
       </c>
+      <c r="AS18" s="1" t="n">
+        <v>164.4</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3118,6 +3175,9 @@
       <c r="AR19" s="1" t="n">
         <v>211.7</v>
       </c>
+      <c r="AS19" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3252,6 +3312,9 @@
       <c r="AR20" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="AS20" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3386,6 +3449,9 @@
       <c r="AR21" s="3" t="n">
         <v>130.8</v>
       </c>
+      <c r="AS21" s="1" t="n">
+        <v>177.9</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -3520,6 +3586,9 @@
       <c r="AR22" s="1" t="n">
         <v>172.1</v>
       </c>
+      <c r="AS22" s="1" t="n">
+        <v>178.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -3654,6 +3723,9 @@
       <c r="AR23" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="AS23" s="1" t="n">
+        <v>193.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -3788,6 +3860,9 @@
       <c r="AR24" s="1" t="n">
         <v>216.4</v>
       </c>
+      <c r="AS24" s="1" t="n">
+        <v>144.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -3922,6 +3997,9 @@
       <c r="AR25" s="1" t="n">
         <v>195.9</v>
       </c>
+      <c r="AS25" s="1" t="n">
+        <v>165.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4056,6 +4134,9 @@
       <c r="AR26" s="2" t="n">
         <v>122.6</v>
       </c>
+      <c r="AS26" s="1" t="n">
+        <v>177.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4190,6 +4271,9 @@
       <c r="AR27" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="AS27" s="1" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -4324,6 +4408,9 @@
       <c r="AR28" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="AS28" s="3" t="n">
+        <v>133.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -4458,6 +4545,9 @@
       <c r="AR29" s="1" t="n">
         <v>156.7</v>
       </c>
+      <c r="AS29" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -4592,6 +4682,9 @@
       <c r="AR30" s="1" t="n">
         <v>157.6</v>
       </c>
+      <c r="AS30" s="3" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -4726,6 +4819,9 @@
       <c r="AR31" s="1" t="n">
         <v>152.4</v>
       </c>
+      <c r="AS31" s="1" t="n">
+        <v>344.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -4860,6 +4956,9 @@
       <c r="AR32" s="1" t="n">
         <v>149.1</v>
       </c>
+      <c r="AS32" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -4994,6 +5093,9 @@
       <c r="AR33" s="1" t="n">
         <v>162.4</v>
       </c>
+      <c r="AS33" s="1" t="n">
+        <v>283.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -5128,6 +5230,9 @@
       <c r="AR34" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="AS34" s="2" t="n">
+        <v>120.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -5262,6 +5367,9 @@
       <c r="AR35" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="AS35" s="1" t="n">
+        <v>184.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -5396,6 +5504,9 @@
       <c r="AR36" s="3" t="n">
         <v>135.7</v>
       </c>
+      <c r="AS36" s="3" t="n">
+        <v>134.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -5530,6 +5641,9 @@
       <c r="AR37" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="AS37" s="1" t="n">
+        <v>143.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -5664,6 +5778,9 @@
       <c r="AR38" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="AS38" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -5798,6 +5915,9 @@
       <c r="AR39" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="AS39" s="1" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -5932,6 +6052,9 @@
       <c r="AR40" s="1" t="n">
         <v>269.6</v>
       </c>
+      <c r="AS40" s="1" t="n">
+        <v>206.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -6066,6 +6189,9 @@
       <c r="AR41" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="AS41" s="1" t="n">
+        <v>150.3</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -6200,6 +6326,9 @@
       <c r="AR42" s="1" t="n">
         <v>263.4</v>
       </c>
+      <c r="AS42" s="1" t="n">
+        <v>180.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -6334,6 +6463,9 @@
       <c r="AR43" s="1" t="n">
         <v>221.8</v>
       </c>
+      <c r="AS43" s="1" t="n">
+        <v>158.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -6468,6 +6600,9 @@
       <c r="AR44" s="1" t="n">
         <v>177.4</v>
       </c>
+      <c r="AS44" s="1" t="n">
+        <v>166.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -6602,6 +6737,9 @@
       <c r="AR45" s="2" t="n">
         <v>118.4</v>
       </c>
+      <c r="AS45" s="3" t="n">
+        <v>130.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -6736,6 +6874,9 @@
       <c r="AR46" s="1" t="n">
         <v>248.4</v>
       </c>
+      <c r="AS46" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -6870,6 +7011,9 @@
       <c r="AR47" s="1" t="n">
         <v>171.2</v>
       </c>
+      <c r="AS47" s="3" t="n">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -7004,6 +7148,9 @@
       <c r="AR48" s="3" t="n">
         <v>139.5</v>
       </c>
+      <c r="AS48" s="1" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -7138,6 +7285,9 @@
       <c r="AR49" s="1" t="n">
         <v>163.6</v>
       </c>
+      <c r="AS49" s="3" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -7272,6 +7422,9 @@
       <c r="AR50" s="1" t="n">
         <v>172.1</v>
       </c>
+      <c r="AS50" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -7406,6 +7559,9 @@
       <c r="AR51" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="AS51" s="1" t="n">
+        <v>166.2</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -7540,6 +7696,9 @@
       <c r="AR52" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="AS52" s="3" t="n">
+        <v>138.1</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -7673,6 +7832,9 @@
       </c>
       <c r="AR53" s="1" t="n">
         <v>145.7</v>
+      </c>
+      <c r="AS53" s="1" t="n">
+        <v>149.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS53"/>
+  <dimension ref="A1:AT53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,7 @@
     <col width="12" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
     <col width="12" customWidth="1" min="45" max="45"/>
+    <col width="12" customWidth="1" min="46" max="46"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -712,6 +713,11 @@
           <t>2024/10/23</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/24</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -849,6 +855,9 @@
       <c r="AS2" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="AT2" s="1" t="n">
+        <v>211.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -986,6 +995,9 @@
       <c r="AS3" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="AT3" s="3" t="n">
+        <v>129.2</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1123,6 +1135,9 @@
       <c r="AS4" s="1" t="n">
         <v>213.8</v>
       </c>
+      <c r="AT4" s="1" t="n">
+        <v>163.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1260,6 +1275,9 @@
       <c r="AS5" s="1" t="n">
         <v>177.8</v>
       </c>
+      <c r="AT5" s="2" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1397,6 +1415,9 @@
       <c r="AS6" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="AT6" s="1" t="n">
+        <v>148.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1534,6 +1555,9 @@
       <c r="AS7" s="1" t="n">
         <v>189.2</v>
       </c>
+      <c r="AT7" s="1" t="n">
+        <v>153.3</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1671,6 +1695,9 @@
       <c r="AS8" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="AT8" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1808,6 +1835,9 @@
       <c r="AS9" s="2" t="n">
         <v>116.8</v>
       </c>
+      <c r="AT9" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -1945,6 +1975,9 @@
       <c r="AS10" s="1" t="n">
         <v>153.4</v>
       </c>
+      <c r="AT10" s="1" t="n">
+        <v>329.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2082,6 +2115,9 @@
       <c r="AS11" s="1" t="n">
         <v>154.8</v>
       </c>
+      <c r="AT11" s="2" t="n">
+        <v>124.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2219,6 +2255,9 @@
       <c r="AS12" s="1" t="n">
         <v>168</v>
       </c>
+      <c r="AT12" s="3" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2356,6 +2395,9 @@
       <c r="AS13" s="2" t="n">
         <v>115.6</v>
       </c>
+      <c r="AT13" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2493,6 +2535,9 @@
       <c r="AS14" s="1" t="n">
         <v>290.6</v>
       </c>
+      <c r="AT14" s="1" t="n">
+        <v>246.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2630,6 +2675,9 @@
       <c r="AS15" s="2" t="n">
         <v>109.4</v>
       </c>
+      <c r="AT15" s="3" t="n">
+        <v>129.7</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -2767,6 +2815,9 @@
       <c r="AS16" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="AT16" s="1" t="n">
+        <v>169.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -2904,6 +2955,9 @@
       <c r="AS17" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="AT17" s="1" t="n">
+        <v>192.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3041,6 +3095,9 @@
       <c r="AS18" s="1" t="n">
         <v>164.4</v>
       </c>
+      <c r="AT18" s="1" t="n">
+        <v>297.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3178,6 +3235,9 @@
       <c r="AS19" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="AT19" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3315,6 +3375,9 @@
       <c r="AS20" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="AT20" s="1" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3452,6 +3515,9 @@
       <c r="AS21" s="1" t="n">
         <v>177.9</v>
       </c>
+      <c r="AT21" s="1" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -3589,6 +3655,9 @@
       <c r="AS22" s="1" t="n">
         <v>178.9</v>
       </c>
+      <c r="AT22" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -3726,6 +3795,9 @@
       <c r="AS23" s="1" t="n">
         <v>193.1</v>
       </c>
+      <c r="AT23" s="1" t="n">
+        <v>250.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -3863,6 +3935,9 @@
       <c r="AS24" s="1" t="n">
         <v>144.5</v>
       </c>
+      <c r="AT24" s="3" t="n">
+        <v>125.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4000,6 +4075,9 @@
       <c r="AS25" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="AT25" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4137,6 +4215,9 @@
       <c r="AS26" s="1" t="n">
         <v>177.5</v>
       </c>
+      <c r="AT26" s="1" t="n">
+        <v>201.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4274,6 +4355,9 @@
       <c r="AS27" s="1" t="n">
         <v>149.1</v>
       </c>
+      <c r="AT27" s="3" t="n">
+        <v>129.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -4411,6 +4495,9 @@
       <c r="AS28" s="3" t="n">
         <v>133.8</v>
       </c>
+      <c r="AT28" s="3" t="n">
+        <v>134.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -4548,6 +4635,9 @@
       <c r="AS29" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="AT29" s="1" t="n">
+        <v>296.2</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -4685,6 +4775,9 @@
       <c r="AS30" s="3" t="n">
         <v>128.4</v>
       </c>
+      <c r="AT30" s="2" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -4822,6 +4915,9 @@
       <c r="AS31" s="1" t="n">
         <v>344.4</v>
       </c>
+      <c r="AT31" s="1" t="n">
+        <v>193.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -4959,6 +5055,9 @@
       <c r="AS32" s="1" t="n">
         <v>156.8</v>
       </c>
+      <c r="AT32" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -5096,6 +5195,9 @@
       <c r="AS33" s="1" t="n">
         <v>283.4</v>
       </c>
+      <c r="AT33" s="3" t="n">
+        <v>126.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -5233,6 +5335,9 @@
       <c r="AS34" s="2" t="n">
         <v>120.8</v>
       </c>
+      <c r="AT34" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -5370,6 +5475,9 @@
       <c r="AS35" s="1" t="n">
         <v>184.2</v>
       </c>
+      <c r="AT35" s="1" t="n">
+        <v>194.8</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -5507,6 +5615,9 @@
       <c r="AS36" s="3" t="n">
         <v>134.6</v>
       </c>
+      <c r="AT36" s="1" t="n">
+        <v>140.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -5644,6 +5755,9 @@
       <c r="AS37" s="1" t="n">
         <v>143.9</v>
       </c>
+      <c r="AT37" s="1" t="n">
+        <v>195.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -5781,6 +5895,9 @@
       <c r="AS38" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="AT38" s="1" t="n">
+        <v>181.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -5918,6 +6035,9 @@
       <c r="AS39" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="AT39" s="1" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -6055,6 +6175,9 @@
       <c r="AS40" s="1" t="n">
         <v>206.4</v>
       </c>
+      <c r="AT40" s="2" t="n">
+        <v>122.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -6192,6 +6315,9 @@
       <c r="AS41" s="1" t="n">
         <v>150.3</v>
       </c>
+      <c r="AT41" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -6329,6 +6455,9 @@
       <c r="AS42" s="1" t="n">
         <v>180.6</v>
       </c>
+      <c r="AT42" s="1" t="n">
+        <v>159.1</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -6466,6 +6595,9 @@
       <c r="AS43" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="AT43" s="3" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -6603,6 +6735,9 @@
       <c r="AS44" s="1" t="n">
         <v>166.2</v>
       </c>
+      <c r="AT44" s="1" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -6740,6 +6875,9 @@
       <c r="AS45" s="3" t="n">
         <v>130.2</v>
       </c>
+      <c r="AT45" s="1" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -6877,6 +7015,9 @@
       <c r="AS46" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="AT46" s="1" t="n">
+        <v>204.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -7014,6 +7155,9 @@
       <c r="AS47" s="3" t="n">
         <v>133.7</v>
       </c>
+      <c r="AT47" s="3" t="n">
+        <v>133.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -7151,6 +7295,9 @@
       <c r="AS48" s="1" t="n">
         <v>167</v>
       </c>
+      <c r="AT48" s="1" t="n">
+        <v>140.5</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -7288,6 +7435,9 @@
       <c r="AS49" s="3" t="n">
         <v>135</v>
       </c>
+      <c r="AT49" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -7425,6 +7575,9 @@
       <c r="AS50" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="AT50" s="1" t="n">
+        <v>179.6</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -7562,6 +7715,9 @@
       <c r="AS51" s="1" t="n">
         <v>166.2</v>
       </c>
+      <c r="AT51" s="1" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -7699,6 +7855,9 @@
       <c r="AS52" s="3" t="n">
         <v>138.1</v>
       </c>
+      <c r="AT52" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -7835,6 +7994,9 @@
       </c>
       <c r="AS53" s="1" t="n">
         <v>149.4</v>
+      </c>
+      <c r="AT53" s="1" t="n">
+        <v>352.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT53"/>
+  <dimension ref="A1:AU53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,7 @@
     <col width="12" customWidth="1" min="44" max="44"/>
     <col width="12" customWidth="1" min="45" max="45"/>
     <col width="12" customWidth="1" min="46" max="46"/>
+    <col width="12" customWidth="1" min="47" max="47"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -718,6 +719,11 @@
           <t>2024/10/24</t>
         </is>
       </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/25</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -858,6 +864,9 @@
       <c r="AT2" s="1" t="n">
         <v>211.8</v>
       </c>
+      <c r="AU2" s="3" t="n">
+        <v>128.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -998,6 +1007,9 @@
       <c r="AT3" s="3" t="n">
         <v>129.2</v>
       </c>
+      <c r="AU3" s="3" t="n">
+        <v>130.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1138,6 +1150,9 @@
       <c r="AT4" s="1" t="n">
         <v>163.2</v>
       </c>
+      <c r="AU4" s="2" t="n">
+        <v>122.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1278,6 +1293,9 @@
       <c r="AT5" s="2" t="n">
         <v>124.2</v>
       </c>
+      <c r="AU5" s="1" t="n">
+        <v>235.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1418,6 +1436,9 @@
       <c r="AT6" s="1" t="n">
         <v>148.8</v>
       </c>
+      <c r="AU6" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1558,6 +1579,9 @@
       <c r="AT7" s="1" t="n">
         <v>153.3</v>
       </c>
+      <c r="AU7" s="1" t="n">
+        <v>221.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1698,6 +1722,9 @@
       <c r="AT8" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="AU8" s="1" t="n">
+        <v>182.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1838,6 +1865,9 @@
       <c r="AT9" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="AU9" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -1978,6 +2008,9 @@
       <c r="AT10" s="1" t="n">
         <v>329.6</v>
       </c>
+      <c r="AU10" s="1" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2118,6 +2151,9 @@
       <c r="AT11" s="2" t="n">
         <v>124.9</v>
       </c>
+      <c r="AU11" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2258,6 +2294,9 @@
       <c r="AT12" s="3" t="n">
         <v>136.7</v>
       </c>
+      <c r="AU12" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2398,6 +2437,9 @@
       <c r="AT13" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="AU13" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2538,6 +2580,9 @@
       <c r="AT14" s="1" t="n">
         <v>246.4</v>
       </c>
+      <c r="AU14" s="2" t="n">
+        <v>109.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2678,6 +2723,9 @@
       <c r="AT15" s="3" t="n">
         <v>129.7</v>
       </c>
+      <c r="AU15" s="1" t="n">
+        <v>179.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -2818,6 +2866,9 @@
       <c r="AT16" s="1" t="n">
         <v>169.3</v>
       </c>
+      <c r="AU16" s="1" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -2958,6 +3009,9 @@
       <c r="AT17" s="1" t="n">
         <v>192.3</v>
       </c>
+      <c r="AU17" s="1" t="n">
+        <v>165.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3098,6 +3152,9 @@
       <c r="AT18" s="1" t="n">
         <v>297.6</v>
       </c>
+      <c r="AU18" s="1" t="n">
+        <v>236.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3238,6 +3295,9 @@
       <c r="AT19" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="AU19" s="1" t="n">
+        <v>215.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3378,6 +3438,9 @@
       <c r="AT20" s="1" t="n">
         <v>187.4</v>
       </c>
+      <c r="AU20" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3518,6 +3581,9 @@
       <c r="AT21" s="1" t="n">
         <v>164.3</v>
       </c>
+      <c r="AU21" s="1" t="n">
+        <v>148.9</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -3658,6 +3724,9 @@
       <c r="AT22" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="AU22" s="2" t="n">
+        <v>118.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -3798,6 +3867,9 @@
       <c r="AT23" s="1" t="n">
         <v>250.9</v>
       </c>
+      <c r="AU23" s="3" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -3938,6 +4010,9 @@
       <c r="AT24" s="3" t="n">
         <v>125.2</v>
       </c>
+      <c r="AU24" s="1" t="n">
+        <v>206.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4078,6 +4153,9 @@
       <c r="AT25" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="AU25" s="2" t="n">
+        <v>106.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4218,6 +4296,9 @@
       <c r="AT26" s="1" t="n">
         <v>201.3</v>
       </c>
+      <c r="AU26" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4358,6 +4439,9 @@
       <c r="AT27" s="3" t="n">
         <v>129.6</v>
       </c>
+      <c r="AU27" s="2" t="n">
+        <v>119.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -4498,6 +4582,9 @@
       <c r="AT28" s="3" t="n">
         <v>134.7</v>
       </c>
+      <c r="AU28" s="1" t="n">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -4638,6 +4725,9 @@
       <c r="AT29" s="1" t="n">
         <v>296.2</v>
       </c>
+      <c r="AU29" s="3" t="n">
+        <v>130.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -4778,6 +4868,9 @@
       <c r="AT30" s="2" t="n">
         <v>123</v>
       </c>
+      <c r="AU30" s="1" t="n">
+        <v>181.2</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -4918,6 +5011,9 @@
       <c r="AT31" s="1" t="n">
         <v>193.9</v>
       </c>
+      <c r="AU31" s="1" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -5058,6 +5154,9 @@
       <c r="AT32" s="3" t="n">
         <v>136</v>
       </c>
+      <c r="AU32" s="2" t="n">
+        <v>115.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -5198,6 +5297,9 @@
       <c r="AT33" s="3" t="n">
         <v>126.3</v>
       </c>
+      <c r="AU33" s="1" t="n">
+        <v>234.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -5338,6 +5440,9 @@
       <c r="AT34" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="AU34" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -5478,6 +5583,9 @@
       <c r="AT35" s="1" t="n">
         <v>194.8</v>
       </c>
+      <c r="AU35" s="2" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -5618,6 +5726,9 @@
       <c r="AT36" s="1" t="n">
         <v>140.4</v>
       </c>
+      <c r="AU36" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -5758,6 +5869,9 @@
       <c r="AT37" s="1" t="n">
         <v>195.4</v>
       </c>
+      <c r="AU37" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -5898,6 +6012,9 @@
       <c r="AT38" s="1" t="n">
         <v>181.2</v>
       </c>
+      <c r="AU38" s="1" t="n">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -6038,6 +6155,9 @@
       <c r="AT39" s="1" t="n">
         <v>156.1</v>
       </c>
+      <c r="AU39" s="1" t="n">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -6178,6 +6298,9 @@
       <c r="AT40" s="2" t="n">
         <v>122.3</v>
       </c>
+      <c r="AU40" s="3" t="n">
+        <v>126.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -6318,6 +6441,9 @@
       <c r="AT41" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="AU41" s="1" t="n">
+        <v>194.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -6458,6 +6584,9 @@
       <c r="AT42" s="1" t="n">
         <v>159.1</v>
       </c>
+      <c r="AU42" s="1" t="n">
+        <v>171.5</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -6598,6 +6727,9 @@
       <c r="AT43" s="3" t="n">
         <v>137.9</v>
       </c>
+      <c r="AU43" s="1" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -6738,6 +6870,9 @@
       <c r="AT44" s="1" t="n">
         <v>151.8</v>
       </c>
+      <c r="AU44" s="1" t="n">
+        <v>209.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -6878,6 +7013,9 @@
       <c r="AT45" s="1" t="n">
         <v>147</v>
       </c>
+      <c r="AU45" s="1" t="n">
+        <v>182.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -7018,6 +7156,9 @@
       <c r="AT46" s="1" t="n">
         <v>204.8</v>
       </c>
+      <c r="AU46" s="2" t="n">
+        <v>124.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -7158,6 +7299,9 @@
       <c r="AT47" s="3" t="n">
         <v>133.8</v>
       </c>
+      <c r="AU47" s="1" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -7298,6 +7442,9 @@
       <c r="AT48" s="1" t="n">
         <v>140.5</v>
       </c>
+      <c r="AU48" s="2" t="n">
+        <v>118.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -7438,6 +7585,9 @@
       <c r="AT49" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="AU49" s="1" t="n">
+        <v>258.9</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -7578,6 +7728,9 @@
       <c r="AT50" s="1" t="n">
         <v>179.6</v>
       </c>
+      <c r="AU50" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -7718,6 +7871,9 @@
       <c r="AT51" s="1" t="n">
         <v>150.6</v>
       </c>
+      <c r="AU51" s="2" t="n">
+        <v>120.7</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -7858,6 +8014,9 @@
       <c r="AT52" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="AU52" s="1" t="n">
+        <v>178.3</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -7997,6 +8156,9 @@
       </c>
       <c r="AT53" s="1" t="n">
         <v>352.7</v>
+      </c>
+      <c r="AU53" s="3" t="n">
+        <v>133.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU53"/>
+  <dimension ref="A1:AV53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,7 @@
     <col width="12" customWidth="1" min="45" max="45"/>
     <col width="12" customWidth="1" min="46" max="46"/>
     <col width="12" customWidth="1" min="47" max="47"/>
+    <col width="12" customWidth="1" min="48" max="48"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -724,6 +725,11 @@
           <t>2024/10/25</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/26</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -867,6 +873,9 @@
       <c r="AU2" s="3" t="n">
         <v>128.2</v>
       </c>
+      <c r="AV2" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1010,6 +1019,9 @@
       <c r="AU3" s="3" t="n">
         <v>130.4</v>
       </c>
+      <c r="AV3" s="1" t="n">
+        <v>183.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1153,6 +1165,9 @@
       <c r="AU4" s="2" t="n">
         <v>122.1</v>
       </c>
+      <c r="AV4" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1296,6 +1311,9 @@
       <c r="AU5" s="1" t="n">
         <v>235.3</v>
       </c>
+      <c r="AV5" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1439,6 +1457,9 @@
       <c r="AU6" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="AV6" s="1" t="n">
+        <v>195.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1582,6 +1603,9 @@
       <c r="AU7" s="1" t="n">
         <v>221.6</v>
       </c>
+      <c r="AV7" s="1" t="n">
+        <v>182.3</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1725,6 +1749,9 @@
       <c r="AU8" s="1" t="n">
         <v>182.3</v>
       </c>
+      <c r="AV8" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1868,6 +1895,9 @@
       <c r="AU9" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="AV9" s="1" t="n">
+        <v>283.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2011,6 +2041,9 @@
       <c r="AU10" s="1" t="n">
         <v>171</v>
       </c>
+      <c r="AV10" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2154,6 +2187,9 @@
       <c r="AU11" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="AV11" s="3" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2297,6 +2333,9 @@
       <c r="AU12" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="AV12" s="1" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2440,6 +2479,9 @@
       <c r="AU13" s="2" t="n">
         <v>121.8</v>
       </c>
+      <c r="AV13" s="1" t="n">
+        <v>202.1</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2583,6 +2625,9 @@
       <c r="AU14" s="2" t="n">
         <v>109.9</v>
       </c>
+      <c r="AV14" s="1" t="n">
+        <v>151.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2726,6 +2771,9 @@
       <c r="AU15" s="1" t="n">
         <v>179.8</v>
       </c>
+      <c r="AV15" s="1" t="n">
+        <v>146.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -2869,6 +2917,9 @@
       <c r="AU16" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="AV16" s="1" t="n">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3012,6 +3063,9 @@
       <c r="AU17" s="1" t="n">
         <v>165.5</v>
       </c>
+      <c r="AV17" s="1" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3155,6 +3209,9 @@
       <c r="AU18" s="1" t="n">
         <v>236.8</v>
       </c>
+      <c r="AV18" s="1" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3298,6 +3355,9 @@
       <c r="AU19" s="1" t="n">
         <v>215.7</v>
       </c>
+      <c r="AV19" s="1" t="n">
+        <v>143.2</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3441,6 +3501,9 @@
       <c r="AU20" s="1" t="n">
         <v>145.9</v>
       </c>
+      <c r="AV20" s="1" t="n">
+        <v>165.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3584,6 +3647,9 @@
       <c r="AU21" s="1" t="n">
         <v>148.9</v>
       </c>
+      <c r="AV21" s="1" t="n">
+        <v>159.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -3727,6 +3793,9 @@
       <c r="AU22" s="2" t="n">
         <v>118.9</v>
       </c>
+      <c r="AV22" s="1" t="n">
+        <v>181.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -3870,6 +3939,9 @@
       <c r="AU23" s="3" t="n">
         <v>133.6</v>
       </c>
+      <c r="AV23" s="2" t="n">
+        <v>116.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4013,6 +4085,9 @@
       <c r="AU24" s="1" t="n">
         <v>206.8</v>
       </c>
+      <c r="AV24" s="1" t="n">
+        <v>205.3</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4156,6 +4231,9 @@
       <c r="AU25" s="2" t="n">
         <v>106.8</v>
       </c>
+      <c r="AV25" s="1" t="n">
+        <v>166.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4299,6 +4377,9 @@
       <c r="AU26" s="1" t="n">
         <v>153.4</v>
       </c>
+      <c r="AV26" s="1" t="n">
+        <v>171.7</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4442,6 +4523,9 @@
       <c r="AU27" s="2" t="n">
         <v>119.3</v>
       </c>
+      <c r="AV27" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -4585,6 +4669,9 @@
       <c r="AU28" s="1" t="n">
         <v>163.1</v>
       </c>
+      <c r="AV28" s="3" t="n">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -4728,6 +4815,9 @@
       <c r="AU29" s="3" t="n">
         <v>130.4</v>
       </c>
+      <c r="AV29" s="3" t="n">
+        <v>134.2</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -4871,6 +4961,9 @@
       <c r="AU30" s="1" t="n">
         <v>181.2</v>
       </c>
+      <c r="AV30" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5014,6 +5107,9 @@
       <c r="AU31" s="1" t="n">
         <v>187.5</v>
       </c>
+      <c r="AV31" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -5157,6 +5253,9 @@
       <c r="AU32" s="2" t="n">
         <v>115.9</v>
       </c>
+      <c r="AV32" s="3" t="n">
+        <v>131.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -5300,6 +5399,9 @@
       <c r="AU33" s="1" t="n">
         <v>234.4</v>
       </c>
+      <c r="AV33" s="1" t="n">
+        <v>252.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -5443,6 +5545,9 @@
       <c r="AU34" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="AV34" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -5586,6 +5691,9 @@
       <c r="AU35" s="2" t="n">
         <v>118</v>
       </c>
+      <c r="AV35" s="1" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -5729,6 +5837,9 @@
       <c r="AU36" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="AV36" s="1" t="n">
+        <v>154.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -5872,6 +5983,9 @@
       <c r="AU37" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="AV37" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -6015,6 +6129,9 @@
       <c r="AU38" s="1" t="n">
         <v>186.1</v>
       </c>
+      <c r="AV38" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -6158,6 +6275,9 @@
       <c r="AU39" s="1" t="n">
         <v>150.4</v>
       </c>
+      <c r="AV39" s="1" t="n">
+        <v>161.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -6301,6 +6421,9 @@
       <c r="AU40" s="3" t="n">
         <v>126.3</v>
       </c>
+      <c r="AV40" s="1" t="n">
+        <v>182.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -6444,6 +6567,9 @@
       <c r="AU41" s="1" t="n">
         <v>194.6</v>
       </c>
+      <c r="AV41" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -6587,6 +6713,9 @@
       <c r="AU42" s="1" t="n">
         <v>171.5</v>
       </c>
+      <c r="AV42" s="1" t="n">
+        <v>157.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -6730,6 +6859,9 @@
       <c r="AU43" s="1" t="n">
         <v>168</v>
       </c>
+      <c r="AV43" s="1" t="n">
+        <v>200.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -6873,6 +7005,9 @@
       <c r="AU44" s="1" t="n">
         <v>209.8</v>
       </c>
+      <c r="AV44" s="2" t="n">
+        <v>120.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -7016,6 +7151,9 @@
       <c r="AU45" s="1" t="n">
         <v>182.2</v>
       </c>
+      <c r="AV45" s="1" t="n">
+        <v>146.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -7159,6 +7297,9 @@
       <c r="AU46" s="2" t="n">
         <v>124.3</v>
       </c>
+      <c r="AV46" s="1" t="n">
+        <v>171.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -7302,6 +7443,9 @@
       <c r="AU47" s="1" t="n">
         <v>182</v>
       </c>
+      <c r="AV47" s="1" t="n">
+        <v>342.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -7445,6 +7589,9 @@
       <c r="AU48" s="2" t="n">
         <v>118.8</v>
       </c>
+      <c r="AV48" s="1" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -7588,6 +7735,9 @@
       <c r="AU49" s="1" t="n">
         <v>258.9</v>
       </c>
+      <c r="AV49" s="3" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -7731,6 +7881,9 @@
       <c r="AU50" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="AV50" s="1" t="n">
+        <v>147.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -7874,6 +8027,9 @@
       <c r="AU51" s="2" t="n">
         <v>120.7</v>
       </c>
+      <c r="AV51" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -8017,6 +8173,9 @@
       <c r="AU52" s="1" t="n">
         <v>178.3</v>
       </c>
+      <c r="AV52" s="1" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -8159,6 +8318,9 @@
       </c>
       <c r="AU53" s="3" t="n">
         <v>133.7</v>
+      </c>
+      <c r="AV53" s="1" t="n">
+        <v>172.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV53"/>
+  <dimension ref="A1:AW53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,7 @@
     <col width="12" customWidth="1" min="46" max="46"/>
     <col width="12" customWidth="1" min="47" max="47"/>
     <col width="12" customWidth="1" min="48" max="48"/>
+    <col width="12" customWidth="1" min="49" max="49"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -730,6 +731,11 @@
           <t>2024/10/26</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/27</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -876,6 +882,9 @@
       <c r="AV2" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="AW2" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1022,6 +1031,9 @@
       <c r="AV3" s="1" t="n">
         <v>183.5</v>
       </c>
+      <c r="AW3" s="1" t="n">
+        <v>168.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1168,6 +1180,9 @@
       <c r="AV4" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="AW4" s="1" t="n">
+        <v>161.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1314,6 +1329,9 @@
       <c r="AV5" s="1" t="n">
         <v>146.7</v>
       </c>
+      <c r="AW5" s="2" t="n">
+        <v>119.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1460,6 +1478,9 @@
       <c r="AV6" s="1" t="n">
         <v>195.3</v>
       </c>
+      <c r="AW6" s="1" t="n">
+        <v>158.6</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1606,6 +1627,9 @@
       <c r="AV7" s="1" t="n">
         <v>182.3</v>
       </c>
+      <c r="AW7" s="1" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1752,6 +1776,9 @@
       <c r="AV8" s="3" t="n">
         <v>135.8</v>
       </c>
+      <c r="AW8" s="3" t="n">
+        <v>138.7</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1898,6 +1925,9 @@
       <c r="AV9" s="1" t="n">
         <v>283.6</v>
       </c>
+      <c r="AW9" s="2" t="n">
+        <v>112.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2044,6 +2074,9 @@
       <c r="AV10" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="AW10" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2190,6 +2223,9 @@
       <c r="AV11" s="3" t="n">
         <v>139</v>
       </c>
+      <c r="AW11" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2336,6 +2372,9 @@
       <c r="AV12" s="1" t="n">
         <v>268</v>
       </c>
+      <c r="AW12" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2482,6 +2521,9 @@
       <c r="AV13" s="1" t="n">
         <v>202.1</v>
       </c>
+      <c r="AW13" s="1" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2628,6 +2670,9 @@
       <c r="AV14" s="1" t="n">
         <v>151.9</v>
       </c>
+      <c r="AW14" s="3" t="n">
+        <v>125.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2774,6 +2819,9 @@
       <c r="AV15" s="1" t="n">
         <v>146.1</v>
       </c>
+      <c r="AW15" s="3" t="n">
+        <v>129.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -2920,6 +2968,9 @@
       <c r="AV16" s="1" t="n">
         <v>144.2</v>
       </c>
+      <c r="AW16" s="2" t="n">
+        <v>107.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3066,6 +3117,9 @@
       <c r="AV17" s="1" t="n">
         <v>188.5</v>
       </c>
+      <c r="AW17" s="1" t="n">
+        <v>218.9</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3212,6 +3266,9 @@
       <c r="AV18" s="1" t="n">
         <v>162.4</v>
       </c>
+      <c r="AW18" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3358,6 +3415,9 @@
       <c r="AV19" s="1" t="n">
         <v>143.2</v>
       </c>
+      <c r="AW19" s="3" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3504,6 +3564,9 @@
       <c r="AV20" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="AW20" s="1" t="n">
+        <v>164.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3650,6 +3713,9 @@
       <c r="AV21" s="1" t="n">
         <v>159.6</v>
       </c>
+      <c r="AW21" s="1" t="n">
+        <v>169.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -3796,6 +3862,9 @@
       <c r="AV22" s="1" t="n">
         <v>181.5</v>
       </c>
+      <c r="AW22" s="1" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -3942,6 +4011,9 @@
       <c r="AV23" s="2" t="n">
         <v>116.9</v>
       </c>
+      <c r="AW23" s="1" t="n">
+        <v>156.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4088,6 +4160,9 @@
       <c r="AV24" s="1" t="n">
         <v>205.3</v>
       </c>
+      <c r="AW24" s="1" t="n">
+        <v>171.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4234,6 +4309,9 @@
       <c r="AV25" s="1" t="n">
         <v>166.7</v>
       </c>
+      <c r="AW25" s="3" t="n">
+        <v>125.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4380,6 +4458,9 @@
       <c r="AV26" s="1" t="n">
         <v>171.7</v>
       </c>
+      <c r="AW26" s="2" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4526,6 +4607,9 @@
       <c r="AV27" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="AW27" s="1" t="n">
+        <v>185.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -4672,6 +4756,9 @@
       <c r="AV28" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="AW28" s="2" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -4818,6 +4905,9 @@
       <c r="AV29" s="3" t="n">
         <v>134.2</v>
       </c>
+      <c r="AW29" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -4964,6 +5054,9 @@
       <c r="AV30" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="AW30" s="1" t="n">
+        <v>157.3</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5110,6 +5203,9 @@
       <c r="AV31" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="AW31" s="1" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -5256,6 +5352,9 @@
       <c r="AV32" s="3" t="n">
         <v>131.3</v>
       </c>
+      <c r="AW32" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -5402,6 +5501,9 @@
       <c r="AV33" s="1" t="n">
         <v>252.6</v>
       </c>
+      <c r="AW33" s="1" t="n">
+        <v>165.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -5548,6 +5650,9 @@
       <c r="AV34" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="AW34" s="1" t="n">
+        <v>162.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -5694,6 +5799,9 @@
       <c r="AV35" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="AW35" s="1" t="n">
+        <v>159.6</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -5840,6 +5948,9 @@
       <c r="AV36" s="1" t="n">
         <v>154.8</v>
       </c>
+      <c r="AW36" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -5986,6 +6097,9 @@
       <c r="AV37" s="3" t="n">
         <v>135.8</v>
       </c>
+      <c r="AW37" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -6132,6 +6246,9 @@
       <c r="AV38" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="AW38" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -6278,6 +6395,9 @@
       <c r="AV39" s="1" t="n">
         <v>161.5</v>
       </c>
+      <c r="AW39" s="3" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -6424,6 +6544,9 @@
       <c r="AV40" s="1" t="n">
         <v>182.7</v>
       </c>
+      <c r="AW40" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -6570,6 +6693,9 @@
       <c r="AV41" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="AW41" s="1" t="n">
+        <v>153.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -6716,6 +6842,9 @@
       <c r="AV42" s="1" t="n">
         <v>157.6</v>
       </c>
+      <c r="AW42" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -6862,6 +6991,9 @@
       <c r="AV43" s="1" t="n">
         <v>200.1</v>
       </c>
+      <c r="AW43" s="1" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -7008,6 +7140,9 @@
       <c r="AV44" s="2" t="n">
         <v>120.1</v>
       </c>
+      <c r="AW44" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -7154,6 +7289,9 @@
       <c r="AV45" s="1" t="n">
         <v>146.2</v>
       </c>
+      <c r="AW45" s="1" t="n">
+        <v>179.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -7300,6 +7438,9 @@
       <c r="AV46" s="1" t="n">
         <v>171.7</v>
       </c>
+      <c r="AW46" s="1" t="n">
+        <v>190.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -7446,6 +7587,9 @@
       <c r="AV47" s="1" t="n">
         <v>342.4</v>
       </c>
+      <c r="AW47" s="1" t="n">
+        <v>149.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -7592,6 +7736,9 @@
       <c r="AV48" s="1" t="n">
         <v>188.1</v>
       </c>
+      <c r="AW48" s="1" t="n">
+        <v>148.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -7738,6 +7885,9 @@
       <c r="AV49" s="3" t="n">
         <v>136.4</v>
       </c>
+      <c r="AW49" s="3" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -7884,6 +8034,9 @@
       <c r="AV50" s="1" t="n">
         <v>147.3</v>
       </c>
+      <c r="AW50" s="3" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -8030,6 +8183,9 @@
       <c r="AV51" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="AW51" s="1" t="n">
+        <v>175.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -8176,6 +8332,9 @@
       <c r="AV52" s="1" t="n">
         <v>156.1</v>
       </c>
+      <c r="AW52" s="1" t="n">
+        <v>174.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -8321,6 +8480,9 @@
       </c>
       <c r="AV53" s="1" t="n">
         <v>172.1</v>
+      </c>
+      <c r="AW53" s="2" t="n">
+        <v>123.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW53"/>
+  <dimension ref="A1:AX53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,6 +488,7 @@
     <col width="12" customWidth="1" min="47" max="47"/>
     <col width="12" customWidth="1" min="48" max="48"/>
     <col width="12" customWidth="1" min="49" max="49"/>
+    <col width="12" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -736,6 +737,11 @@
           <t>2024/10/27</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/28</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -885,6 +891,9 @@
       <c r="AW2" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="AX2" s="1" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1034,6 +1043,9 @@
       <c r="AW3" s="1" t="n">
         <v>168.8</v>
       </c>
+      <c r="AX3" s="1" t="n">
+        <v>223.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1183,6 +1195,9 @@
       <c r="AW4" s="1" t="n">
         <v>161.1</v>
       </c>
+      <c r="AX4" s="1" t="n">
+        <v>264.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1332,6 +1347,9 @@
       <c r="AW5" s="2" t="n">
         <v>119.6</v>
       </c>
+      <c r="AX5" s="2" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1481,6 +1499,9 @@
       <c r="AW6" s="1" t="n">
         <v>158.6</v>
       </c>
+      <c r="AX6" s="1" t="n">
+        <v>227.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1630,6 +1651,9 @@
       <c r="AW7" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="AX7" s="1" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1779,6 +1803,9 @@
       <c r="AW8" s="3" t="n">
         <v>138.7</v>
       </c>
+      <c r="AX8" s="1" t="n">
+        <v>268.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1928,6 +1955,9 @@
       <c r="AW9" s="2" t="n">
         <v>112.3</v>
       </c>
+      <c r="AX9" s="2" t="n">
+        <v>118.4</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2077,6 +2107,9 @@
       <c r="AW10" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="AX10" s="2" t="n">
+        <v>124.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2226,6 +2259,9 @@
       <c r="AW11" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="AX11" s="3" t="n">
+        <v>136.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2375,6 +2411,9 @@
       <c r="AW12" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="AX12" s="1" t="n">
+        <v>168.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2524,6 +2563,9 @@
       <c r="AW13" s="1" t="n">
         <v>225</v>
       </c>
+      <c r="AX13" s="1" t="n">
+        <v>155.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2673,6 +2715,9 @@
       <c r="AW14" s="3" t="n">
         <v>125.6</v>
       </c>
+      <c r="AX14" s="2" t="n">
+        <v>123.3</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2822,6 +2867,9 @@
       <c r="AW15" s="3" t="n">
         <v>129.2</v>
       </c>
+      <c r="AX15" s="1" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -2971,6 +3019,9 @@
       <c r="AW16" s="2" t="n">
         <v>107.1</v>
       </c>
+      <c r="AX16" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3120,6 +3171,9 @@
       <c r="AW17" s="1" t="n">
         <v>218.9</v>
       </c>
+      <c r="AX17" s="1" t="n">
+        <v>184.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3269,6 +3323,9 @@
       <c r="AW18" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="AX18" s="1" t="n">
+        <v>147.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3418,6 +3475,9 @@
       <c r="AW19" s="3" t="n">
         <v>128.5</v>
       </c>
+      <c r="AX19" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3567,6 +3627,9 @@
       <c r="AW20" s="1" t="n">
         <v>164.5</v>
       </c>
+      <c r="AX20" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3716,6 +3779,9 @@
       <c r="AW21" s="1" t="n">
         <v>169.1</v>
       </c>
+      <c r="AX21" s="1" t="n">
+        <v>162.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -3865,6 +3931,9 @@
       <c r="AW22" s="1" t="n">
         <v>143.1</v>
       </c>
+      <c r="AX22" s="1" t="n">
+        <v>182.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4014,6 +4083,9 @@
       <c r="AW23" s="1" t="n">
         <v>156.7</v>
       </c>
+      <c r="AX23" s="1" t="n">
+        <v>153.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4163,6 +4235,9 @@
       <c r="AW24" s="1" t="n">
         <v>171.9</v>
       </c>
+      <c r="AX24" s="2" t="n">
+        <v>123.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4312,6 +4387,9 @@
       <c r="AW25" s="3" t="n">
         <v>125.6</v>
       </c>
+      <c r="AX25" s="2" t="n">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4461,6 +4539,9 @@
       <c r="AW26" s="2" t="n">
         <v>119.7</v>
       </c>
+      <c r="AX26" s="3" t="n">
+        <v>134.7</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4610,6 +4691,9 @@
       <c r="AW27" s="1" t="n">
         <v>185.9</v>
       </c>
+      <c r="AX27" s="3" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -4759,6 +4843,9 @@
       <c r="AW28" s="2" t="n">
         <v>121</v>
       </c>
+      <c r="AX28" s="1" t="n">
+        <v>197.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -4908,6 +4995,9 @@
       <c r="AW29" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="AX29" s="2" t="n">
+        <v>122.2</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5057,6 +5147,9 @@
       <c r="AW30" s="1" t="n">
         <v>157.3</v>
       </c>
+      <c r="AX30" s="1" t="n">
+        <v>158.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5206,6 +5299,9 @@
       <c r="AW31" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="AX31" s="1" t="n">
+        <v>184.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -5355,6 +5451,9 @@
       <c r="AW32" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="AX32" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -5504,6 +5603,9 @@
       <c r="AW33" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="AX33" s="3" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -5653,6 +5755,9 @@
       <c r="AW34" s="1" t="n">
         <v>162.3</v>
       </c>
+      <c r="AX34" s="3" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -5802,6 +5907,9 @@
       <c r="AW35" s="1" t="n">
         <v>159.6</v>
       </c>
+      <c r="AX35" s="1" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -5951,6 +6059,9 @@
       <c r="AW36" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="AX36" s="1" t="n">
+        <v>177.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -6100,6 +6211,9 @@
       <c r="AW37" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="AX37" s="1" t="n">
+        <v>142.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -6249,6 +6363,9 @@
       <c r="AW38" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="AX38" s="3" t="n">
+        <v>134.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -6398,6 +6515,9 @@
       <c r="AW39" s="3" t="n">
         <v>128.4</v>
       </c>
+      <c r="AX39" s="1" t="n">
+        <v>300.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -6547,6 +6667,9 @@
       <c r="AW40" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="AX40" s="1" t="n">
+        <v>157.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -6696,6 +6819,9 @@
       <c r="AW41" s="1" t="n">
         <v>153.8</v>
       </c>
+      <c r="AX41" s="1" t="n">
+        <v>148.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -6845,6 +6971,9 @@
       <c r="AW42" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="AX42" s="2" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -6994,6 +7123,9 @@
       <c r="AW43" s="1" t="n">
         <v>182</v>
       </c>
+      <c r="AX43" s="1" t="n">
+        <v>184.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -7143,6 +7275,9 @@
       <c r="AW44" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="AX44" s="3" t="n">
+        <v>129.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -7292,6 +7427,9 @@
       <c r="AW45" s="1" t="n">
         <v>179.9</v>
       </c>
+      <c r="AX45" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -7441,6 +7579,9 @@
       <c r="AW46" s="1" t="n">
         <v>190.5</v>
       </c>
+      <c r="AX46" s="3" t="n">
+        <v>127.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -7590,6 +7731,9 @@
       <c r="AW47" s="1" t="n">
         <v>149.4</v>
       </c>
+      <c r="AX47" s="3" t="n">
+        <v>127.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -7739,6 +7883,9 @@
       <c r="AW48" s="1" t="n">
         <v>148.7</v>
       </c>
+      <c r="AX48" s="1" t="n">
+        <v>177.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -7888,6 +8035,9 @@
       <c r="AW49" s="3" t="n">
         <v>132.4</v>
       </c>
+      <c r="AX49" s="1" t="n">
+        <v>214.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -8037,6 +8187,9 @@
       <c r="AW50" s="3" t="n">
         <v>129.5</v>
       </c>
+      <c r="AX50" s="1" t="n">
+        <v>150.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -8186,6 +8339,9 @@
       <c r="AW51" s="1" t="n">
         <v>175.1</v>
       </c>
+      <c r="AX51" s="1" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -8335,6 +8491,9 @@
       <c r="AW52" s="1" t="n">
         <v>174.2</v>
       </c>
+      <c r="AX52" s="1" t="n">
+        <v>168.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -8483,6 +8642,9 @@
       </c>
       <c r="AW53" s="2" t="n">
         <v>123.5</v>
+      </c>
+      <c r="AX53" s="1" t="n">
+        <v>201.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX53"/>
+  <dimension ref="A1:AY53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,7 @@
     <col width="12" customWidth="1" min="48" max="48"/>
     <col width="12" customWidth="1" min="49" max="49"/>
     <col width="12" customWidth="1" min="50" max="50"/>
+    <col width="12" customWidth="1" min="51" max="51"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -742,6 +743,11 @@
           <t>2024/10/28</t>
         </is>
       </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/29</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -894,6 +900,9 @@
       <c r="AX2" s="1" t="n">
         <v>188</v>
       </c>
+      <c r="AY2" s="2" t="n">
+        <v>120.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1046,6 +1055,9 @@
       <c r="AX3" s="1" t="n">
         <v>223.3</v>
       </c>
+      <c r="AY3" s="1" t="n">
+        <v>198.2</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1198,6 +1210,9 @@
       <c r="AX4" s="1" t="n">
         <v>264.5</v>
       </c>
+      <c r="AY4" s="1" t="n">
+        <v>197.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1350,6 +1365,9 @@
       <c r="AX5" s="2" t="n">
         <v>112</v>
       </c>
+      <c r="AY5" s="2" t="n">
+        <v>111.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1502,6 +1520,9 @@
       <c r="AX6" s="1" t="n">
         <v>227.4</v>
       </c>
+      <c r="AY6" s="2" t="n">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1654,6 +1675,9 @@
       <c r="AX7" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="AY7" s="1" t="n">
+        <v>164.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1806,6 +1830,9 @@
       <c r="AX8" s="1" t="n">
         <v>268.8</v>
       </c>
+      <c r="AY8" s="1" t="n">
+        <v>181.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1958,6 +1985,9 @@
       <c r="AX9" s="2" t="n">
         <v>118.4</v>
       </c>
+      <c r="AY9" s="1" t="n">
+        <v>238.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2110,6 +2140,9 @@
       <c r="AX10" s="2" t="n">
         <v>124.6</v>
       </c>
+      <c r="AY10" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2262,6 +2295,9 @@
       <c r="AX11" s="3" t="n">
         <v>136.6</v>
       </c>
+      <c r="AY11" s="1" t="n">
+        <v>162.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2414,6 +2450,9 @@
       <c r="AX12" s="1" t="n">
         <v>168.8</v>
       </c>
+      <c r="AY12" s="1" t="n">
+        <v>169.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2566,6 +2605,9 @@
       <c r="AX13" s="1" t="n">
         <v>155.7</v>
       </c>
+      <c r="AY13" s="1" t="n">
+        <v>168.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2718,6 +2760,9 @@
       <c r="AX14" s="2" t="n">
         <v>123.3</v>
       </c>
+      <c r="AY14" s="1" t="n">
+        <v>191.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2870,6 +2915,9 @@
       <c r="AX15" s="1" t="n">
         <v>196</v>
       </c>
+      <c r="AY15" s="1" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3022,6 +3070,9 @@
       <c r="AX16" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="AY16" s="1" t="n">
+        <v>144.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3174,6 +3225,9 @@
       <c r="AX17" s="1" t="n">
         <v>184.8</v>
       </c>
+      <c r="AY17" s="2" t="n">
+        <v>109.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3326,6 +3380,9 @@
       <c r="AX18" s="1" t="n">
         <v>147.8</v>
       </c>
+      <c r="AY18" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3478,6 +3535,9 @@
       <c r="AX19" s="1" t="n">
         <v>148.5</v>
       </c>
+      <c r="AY19" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3630,6 +3690,9 @@
       <c r="AX20" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="AY20" s="1" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3782,6 +3845,9 @@
       <c r="AX21" s="1" t="n">
         <v>162.2</v>
       </c>
+      <c r="AY21" s="3" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -3934,6 +4000,9 @@
       <c r="AX22" s="1" t="n">
         <v>182.9</v>
       </c>
+      <c r="AY22" s="1" t="n">
+        <v>152.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4086,6 +4155,9 @@
       <c r="AX23" s="1" t="n">
         <v>153.3</v>
       </c>
+      <c r="AY23" s="1" t="n">
+        <v>152.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4238,6 +4310,9 @@
       <c r="AX24" s="2" t="n">
         <v>123.8</v>
       </c>
+      <c r="AY24" s="1" t="n">
+        <v>140.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4390,6 +4465,9 @@
       <c r="AX25" s="2" t="n">
         <v>117.2</v>
       </c>
+      <c r="AY25" s="1" t="n">
+        <v>209.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4542,6 +4620,9 @@
       <c r="AX26" s="3" t="n">
         <v>134.7</v>
       </c>
+      <c r="AY26" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4694,6 +4775,9 @@
       <c r="AX27" s="3" t="n">
         <v>136.4</v>
       </c>
+      <c r="AY27" s="1" t="n">
+        <v>218.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -4846,6 +4930,9 @@
       <c r="AX28" s="1" t="n">
         <v>197.6</v>
       </c>
+      <c r="AY28" s="1" t="n">
+        <v>167.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -4998,6 +5085,9 @@
       <c r="AX29" s="2" t="n">
         <v>122.2</v>
       </c>
+      <c r="AY29" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5150,6 +5240,9 @@
       <c r="AX30" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="AY30" s="2" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5302,6 +5395,9 @@
       <c r="AX31" s="1" t="n">
         <v>184.9</v>
       </c>
+      <c r="AY31" s="1" t="n">
+        <v>191.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -5454,6 +5550,9 @@
       <c r="AX32" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="AY32" s="1" t="n">
+        <v>290.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -5606,6 +5705,9 @@
       <c r="AX33" s="3" t="n">
         <v>125.9</v>
       </c>
+      <c r="AY33" s="1" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -5758,6 +5860,9 @@
       <c r="AX34" s="3" t="n">
         <v>125.9</v>
       </c>
+      <c r="AY34" s="1" t="n">
+        <v>322.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -5910,6 +6015,9 @@
       <c r="AX35" s="1" t="n">
         <v>209</v>
       </c>
+      <c r="AY35" s="1" t="n">
+        <v>206.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -6062,6 +6170,9 @@
       <c r="AX36" s="1" t="n">
         <v>177.1</v>
       </c>
+      <c r="AY36" s="3" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -6214,6 +6325,9 @@
       <c r="AX37" s="1" t="n">
         <v>142.4</v>
       </c>
+      <c r="AY37" s="2" t="n">
+        <v>120.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -6366,6 +6480,9 @@
       <c r="AX38" s="3" t="n">
         <v>134.2</v>
       </c>
+      <c r="AY38" s="1" t="n">
+        <v>148.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -6518,6 +6635,9 @@
       <c r="AX39" s="1" t="n">
         <v>300.2</v>
       </c>
+      <c r="AY39" s="1" t="n">
+        <v>202.8</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -6670,6 +6790,9 @@
       <c r="AX40" s="1" t="n">
         <v>157.5</v>
       </c>
+      <c r="AY40" s="1" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -6822,6 +6945,9 @@
       <c r="AX41" s="1" t="n">
         <v>148.7</v>
       </c>
+      <c r="AY41" s="2" t="n">
+        <v>118.2</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -6974,6 +7100,9 @@
       <c r="AX42" s="2" t="n">
         <v>124.2</v>
       </c>
+      <c r="AY42" s="1" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -7126,6 +7255,9 @@
       <c r="AX43" s="1" t="n">
         <v>184.9</v>
       </c>
+      <c r="AY43" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -7278,6 +7410,9 @@
       <c r="AX44" s="3" t="n">
         <v>129.7</v>
       </c>
+      <c r="AY44" s="2" t="n">
+        <v>114.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -7430,6 +7565,9 @@
       <c r="AX45" s="1" t="n">
         <v>148.5</v>
       </c>
+      <c r="AY45" s="1" t="n">
+        <v>172.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -7582,6 +7720,9 @@
       <c r="AX46" s="3" t="n">
         <v>127.5</v>
       </c>
+      <c r="AY46" s="1" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -7734,6 +7875,9 @@
       <c r="AX47" s="3" t="n">
         <v>127.9</v>
       </c>
+      <c r="AY47" s="1" t="n">
+        <v>143.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -7886,6 +8030,9 @@
       <c r="AX48" s="1" t="n">
         <v>177.8</v>
       </c>
+      <c r="AY48" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -8038,6 +8185,9 @@
       <c r="AX49" s="1" t="n">
         <v>214.1</v>
       </c>
+      <c r="AY49" s="2" t="n">
+        <v>116.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -8190,6 +8340,9 @@
       <c r="AX50" s="1" t="n">
         <v>150.2</v>
       </c>
+      <c r="AY50" s="1" t="n">
+        <v>203.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -8342,6 +8495,9 @@
       <c r="AX51" s="1" t="n">
         <v>147</v>
       </c>
+      <c r="AY51" s="1" t="n">
+        <v>171.3</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -8494,6 +8650,9 @@
       <c r="AX52" s="1" t="n">
         <v>168.2</v>
       </c>
+      <c r="AY52" s="1" t="n">
+        <v>190.9</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -8645,6 +8804,9 @@
       </c>
       <c r="AX53" s="1" t="n">
         <v>201.7</v>
+      </c>
+      <c r="AY53" s="2" t="n">
+        <v>117.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY53"/>
+  <dimension ref="A1:AZ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,7 @@
     <col width="12" customWidth="1" min="49" max="49"/>
     <col width="12" customWidth="1" min="50" max="50"/>
     <col width="12" customWidth="1" min="51" max="51"/>
+    <col width="12" customWidth="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -748,6 +749,11 @@
           <t>2024/10/29</t>
         </is>
       </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/30</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -903,6 +909,9 @@
       <c r="AY2" s="2" t="n">
         <v>120.2</v>
       </c>
+      <c r="AZ2" s="2" t="n">
+        <v>115.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1058,6 +1067,9 @@
       <c r="AY3" s="1" t="n">
         <v>198.2</v>
       </c>
+      <c r="AZ3" s="3" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1213,6 +1225,9 @@
       <c r="AY4" s="1" t="n">
         <v>197.5</v>
       </c>
+      <c r="AZ4" s="3" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1368,6 +1383,9 @@
       <c r="AY5" s="2" t="n">
         <v>111.5</v>
       </c>
+      <c r="AZ5" s="1" t="n">
+        <v>148.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1523,6 +1541,9 @@
       <c r="AY6" s="2" t="n">
         <v>117.2</v>
       </c>
+      <c r="AZ6" s="1" t="n">
+        <v>157.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1678,6 +1699,9 @@
       <c r="AY7" s="1" t="n">
         <v>164.4</v>
       </c>
+      <c r="AZ7" s="1" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1833,6 +1857,9 @@
       <c r="AY8" s="1" t="n">
         <v>181.3</v>
       </c>
+      <c r="AZ8" s="3" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -1988,6 +2015,9 @@
       <c r="AY9" s="1" t="n">
         <v>238.2</v>
       </c>
+      <c r="AZ9" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2143,6 +2173,9 @@
       <c r="AY10" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="AZ10" s="1" t="n">
+        <v>175.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2298,6 +2331,9 @@
       <c r="AY11" s="1" t="n">
         <v>162.2</v>
       </c>
+      <c r="AZ11" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2453,6 +2489,9 @@
       <c r="AY12" s="1" t="n">
         <v>169.7</v>
       </c>
+      <c r="AZ12" s="1" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2608,6 +2647,9 @@
       <c r="AY13" s="1" t="n">
         <v>168.7</v>
       </c>
+      <c r="AZ13" s="2" t="n">
+        <v>120.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2763,6 +2805,9 @@
       <c r="AY14" s="1" t="n">
         <v>191.5</v>
       </c>
+      <c r="AZ14" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2918,6 +2963,9 @@
       <c r="AY15" s="1" t="n">
         <v>187.1</v>
       </c>
+      <c r="AZ15" s="1" t="n">
+        <v>148.9</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3073,6 +3121,9 @@
       <c r="AY16" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="AZ16" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3228,6 +3279,9 @@
       <c r="AY17" s="2" t="n">
         <v>109.1</v>
       </c>
+      <c r="AZ17" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3383,6 +3437,9 @@
       <c r="AY18" s="1" t="n">
         <v>156.8</v>
       </c>
+      <c r="AZ18" s="1" t="n">
+        <v>157.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3538,6 +3595,9 @@
       <c r="AY19" s="1" t="n">
         <v>158.9</v>
       </c>
+      <c r="AZ19" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3693,6 +3753,9 @@
       <c r="AY20" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="AZ20" s="1" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3848,6 +3911,9 @@
       <c r="AY21" s="3" t="n">
         <v>130.3</v>
       </c>
+      <c r="AZ21" s="1" t="n">
+        <v>154.5</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4003,6 +4069,9 @@
       <c r="AY22" s="1" t="n">
         <v>152.3</v>
       </c>
+      <c r="AZ22" s="1" t="n">
+        <v>180.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4158,6 +4227,9 @@
       <c r="AY23" s="1" t="n">
         <v>152.9</v>
       </c>
+      <c r="AZ23" s="1" t="n">
+        <v>198.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4313,6 +4385,9 @@
       <c r="AY24" s="1" t="n">
         <v>140.4</v>
       </c>
+      <c r="AZ24" s="1" t="n">
+        <v>190.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4468,6 +4543,9 @@
       <c r="AY25" s="1" t="n">
         <v>209.5</v>
       </c>
+      <c r="AZ25" s="1" t="n">
+        <v>189.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4623,6 +4701,9 @@
       <c r="AY26" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="AZ26" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4778,6 +4859,9 @@
       <c r="AY27" s="1" t="n">
         <v>218.3</v>
       </c>
+      <c r="AZ27" s="1" t="n">
+        <v>179.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -4933,6 +5017,9 @@
       <c r="AY28" s="1" t="n">
         <v>167.8</v>
       </c>
+      <c r="AZ28" s="2" t="n">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5088,6 +5175,9 @@
       <c r="AY29" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="AZ29" s="1" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5243,6 +5333,9 @@
       <c r="AY30" s="2" t="n">
         <v>124.2</v>
       </c>
+      <c r="AZ30" s="1" t="n">
+        <v>171.2</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5398,6 +5491,9 @@
       <c r="AY31" s="1" t="n">
         <v>191.4</v>
       </c>
+      <c r="AZ31" s="1" t="n">
+        <v>161.8</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -5553,6 +5649,9 @@
       <c r="AY32" s="1" t="n">
         <v>290.5</v>
       </c>
+      <c r="AZ32" s="1" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -5708,6 +5807,9 @@
       <c r="AY33" s="1" t="n">
         <v>150.6</v>
       </c>
+      <c r="AZ33" s="1" t="n">
+        <v>156.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -5863,6 +5965,9 @@
       <c r="AY34" s="1" t="n">
         <v>322.8</v>
       </c>
+      <c r="AZ34" s="3" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -6018,6 +6123,9 @@
       <c r="AY35" s="1" t="n">
         <v>206.9</v>
       </c>
+      <c r="AZ35" s="1" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -6173,6 +6281,9 @@
       <c r="AY36" s="3" t="n">
         <v>128.5</v>
       </c>
+      <c r="AZ36" s="2" t="n">
+        <v>123.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -6328,6 +6439,9 @@
       <c r="AY37" s="2" t="n">
         <v>120.7</v>
       </c>
+      <c r="AZ37" s="1" t="n">
+        <v>155.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -6483,6 +6597,9 @@
       <c r="AY38" s="1" t="n">
         <v>148.6</v>
       </c>
+      <c r="AZ38" s="1" t="n">
+        <v>193.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -6638,6 +6755,9 @@
       <c r="AY39" s="1" t="n">
         <v>202.8</v>
       </c>
+      <c r="AZ39" s="1" t="n">
+        <v>172.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -6793,6 +6913,9 @@
       <c r="AY40" s="1" t="n">
         <v>143.1</v>
       </c>
+      <c r="AZ40" s="3" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -6948,6 +7071,9 @@
       <c r="AY41" s="2" t="n">
         <v>118.2</v>
       </c>
+      <c r="AZ41" s="2" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -7103,6 +7229,9 @@
       <c r="AY42" s="1" t="n">
         <v>185</v>
       </c>
+      <c r="AZ42" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -7258,6 +7387,9 @@
       <c r="AY43" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="AZ43" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -7413,6 +7545,9 @@
       <c r="AY44" s="2" t="n">
         <v>114.2</v>
       </c>
+      <c r="AZ44" s="1" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -7568,6 +7703,9 @@
       <c r="AY45" s="1" t="n">
         <v>172.5</v>
       </c>
+      <c r="AZ45" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -7723,6 +7861,9 @@
       <c r="AY46" s="1" t="n">
         <v>155.3</v>
       </c>
+      <c r="AZ46" s="1" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -7878,6 +8019,9 @@
       <c r="AY47" s="1" t="n">
         <v>143.4</v>
       </c>
+      <c r="AZ47" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -8033,6 +8177,9 @@
       <c r="AY48" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="AZ48" s="1" t="n">
+        <v>241.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -8188,6 +8335,9 @@
       <c r="AY49" s="2" t="n">
         <v>116.4</v>
       </c>
+      <c r="AZ49" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -8343,6 +8493,9 @@
       <c r="AY50" s="1" t="n">
         <v>203.2</v>
       </c>
+      <c r="AZ50" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -8498,6 +8651,9 @@
       <c r="AY51" s="1" t="n">
         <v>171.3</v>
       </c>
+      <c r="AZ51" s="1" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -8653,6 +8809,9 @@
       <c r="AY52" s="1" t="n">
         <v>190.9</v>
       </c>
+      <c r="AZ52" s="1" t="n">
+        <v>170.5</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -8807,6 +8966,9 @@
       </c>
       <c r="AY53" s="2" t="n">
         <v>117.4</v>
+      </c>
+      <c r="AZ53" s="1" t="n">
+        <v>216.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ53"/>
+  <dimension ref="A1:BA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,7 @@
     <col width="12" customWidth="1" min="50" max="50"/>
     <col width="12" customWidth="1" min="51" max="51"/>
     <col width="12" customWidth="1" min="52" max="52"/>
+    <col width="12" customWidth="1" min="53" max="53"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -754,6 +755,11 @@
           <t>2024/10/30</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2024/10/31</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -912,6 +918,9 @@
       <c r="AZ2" s="2" t="n">
         <v>115.1</v>
       </c>
+      <c r="BA2" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1070,6 +1079,9 @@
       <c r="AZ3" s="3" t="n">
         <v>128.4</v>
       </c>
+      <c r="BA3" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1228,6 +1240,9 @@
       <c r="AZ4" s="3" t="n">
         <v>130</v>
       </c>
+      <c r="BA4" s="3" t="n">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1386,6 +1401,9 @@
       <c r="AZ5" s="1" t="n">
         <v>148.8</v>
       </c>
+      <c r="BA5" s="1" t="n">
+        <v>172.1</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1544,6 +1562,9 @@
       <c r="AZ6" s="1" t="n">
         <v>157.9</v>
       </c>
+      <c r="BA6" s="1" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1702,6 +1723,9 @@
       <c r="AZ7" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="BA7" s="1" t="n">
+        <v>173.8</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1860,6 +1884,9 @@
       <c r="AZ8" s="3" t="n">
         <v>129.8</v>
       </c>
+      <c r="BA8" s="3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2018,6 +2045,9 @@
       <c r="AZ9" s="1" t="n">
         <v>146.7</v>
       </c>
+      <c r="BA9" s="2" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2176,6 +2206,9 @@
       <c r="AZ10" s="1" t="n">
         <v>175.8</v>
       </c>
+      <c r="BA10" s="2" t="n">
+        <v>112.7</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2334,6 +2367,9 @@
       <c r="AZ11" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="BA11" s="1" t="n">
+        <v>181.5</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2492,6 +2528,9 @@
       <c r="AZ12" s="1" t="n">
         <v>258</v>
       </c>
+      <c r="BA12" s="2" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2650,6 +2689,9 @@
       <c r="AZ13" s="2" t="n">
         <v>120.2</v>
       </c>
+      <c r="BA13" s="2" t="n">
+        <v>124.1</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2808,6 +2850,9 @@
       <c r="AZ14" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="BA14" s="1" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -2966,6 +3011,9 @@
       <c r="AZ15" s="1" t="n">
         <v>148.9</v>
       </c>
+      <c r="BA15" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3124,6 +3172,9 @@
       <c r="AZ16" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="BA16" s="1" t="n">
+        <v>216.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3282,6 +3333,9 @@
       <c r="AZ17" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="BA17" s="1" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3440,6 +3494,9 @@
       <c r="AZ18" s="1" t="n">
         <v>157.6</v>
       </c>
+      <c r="BA18" s="2" t="n">
+        <v>120.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3598,6 +3655,9 @@
       <c r="AZ19" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="BA19" s="3" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3756,6 +3816,9 @@
       <c r="AZ20" s="1" t="n">
         <v>181</v>
       </c>
+      <c r="BA20" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3914,6 +3977,9 @@
       <c r="AZ21" s="1" t="n">
         <v>154.5</v>
       </c>
+      <c r="BA21" s="1" t="n">
+        <v>183.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4072,6 +4138,9 @@
       <c r="AZ22" s="1" t="n">
         <v>180.5</v>
       </c>
+      <c r="BA22" s="3" t="n">
+        <v>139.6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4230,6 +4299,9 @@
       <c r="AZ23" s="1" t="n">
         <v>198.7</v>
       </c>
+      <c r="BA23" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4388,6 +4460,9 @@
       <c r="AZ24" s="1" t="n">
         <v>190.9</v>
       </c>
+      <c r="BA24" s="2" t="n">
+        <v>122.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4546,6 +4621,9 @@
       <c r="AZ25" s="1" t="n">
         <v>189.5</v>
       </c>
+      <c r="BA25" s="1" t="n">
+        <v>183.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4704,6 +4782,9 @@
       <c r="AZ26" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="BA26" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4862,6 +4943,9 @@
       <c r="AZ27" s="1" t="n">
         <v>179.6</v>
       </c>
+      <c r="BA27" s="1" t="n">
+        <v>181.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5020,6 +5104,9 @@
       <c r="AZ28" s="2" t="n">
         <v>119.1</v>
       </c>
+      <c r="BA28" s="1" t="n">
+        <v>157.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5178,6 +5265,9 @@
       <c r="AZ29" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="BA29" s="3" t="n">
+        <v>125.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5336,6 +5426,9 @@
       <c r="AZ30" s="1" t="n">
         <v>171.2</v>
       </c>
+      <c r="BA30" s="2" t="n">
+        <v>116.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5494,6 +5587,9 @@
       <c r="AZ31" s="1" t="n">
         <v>161.8</v>
       </c>
+      <c r="BA31" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -5652,6 +5748,9 @@
       <c r="AZ32" s="1" t="n">
         <v>187.6</v>
       </c>
+      <c r="BA32" s="1" t="n">
+        <v>213.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -5810,6 +5909,9 @@
       <c r="AZ33" s="1" t="n">
         <v>156.9</v>
       </c>
+      <c r="BA33" s="1" t="n">
+        <v>154.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -5968,6 +6070,9 @@
       <c r="AZ34" s="3" t="n">
         <v>128.8</v>
       </c>
+      <c r="BA34" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -6126,6 +6231,9 @@
       <c r="AZ35" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="BA35" s="3" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -6284,6 +6392,9 @@
       <c r="AZ36" s="2" t="n">
         <v>123.1</v>
       </c>
+      <c r="BA36" s="1" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -6442,6 +6553,9 @@
       <c r="AZ37" s="1" t="n">
         <v>155.9</v>
       </c>
+      <c r="BA37" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -6600,6 +6714,9 @@
       <c r="AZ38" s="1" t="n">
         <v>193.3</v>
       </c>
+      <c r="BA38" s="2" t="n">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -6758,6 +6875,9 @@
       <c r="AZ39" s="1" t="n">
         <v>172.1</v>
       </c>
+      <c r="BA39" s="1" t="n">
+        <v>226.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -6916,6 +7036,9 @@
       <c r="AZ40" s="3" t="n">
         <v>137.9</v>
       </c>
+      <c r="BA40" s="1" t="n">
+        <v>233.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -7074,6 +7197,9 @@
       <c r="AZ41" s="2" t="n">
         <v>115</v>
       </c>
+      <c r="BA41" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -7232,6 +7358,9 @@
       <c r="AZ42" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="BA42" s="1" t="n">
+        <v>149.3</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -7390,6 +7519,9 @@
       <c r="AZ43" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="BA43" s="2" t="n">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -7548,6 +7680,9 @@
       <c r="AZ44" s="1" t="n">
         <v>156.6</v>
       </c>
+      <c r="BA44" s="1" t="n">
+        <v>183.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -7706,6 +7841,9 @@
       <c r="AZ45" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="BA45" s="1" t="n">
+        <v>328.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -7864,6 +8002,9 @@
       <c r="AZ46" s="1" t="n">
         <v>184</v>
       </c>
+      <c r="BA46" s="1" t="n">
+        <v>165.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -8022,6 +8163,9 @@
       <c r="AZ47" s="1" t="n">
         <v>145.9</v>
       </c>
+      <c r="BA47" s="2" t="n">
+        <v>120.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -8180,6 +8324,9 @@
       <c r="AZ48" s="1" t="n">
         <v>241.1</v>
       </c>
+      <c r="BA48" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -8338,6 +8485,9 @@
       <c r="AZ49" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="BA49" s="1" t="n">
+        <v>147.9</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -8496,6 +8646,9 @@
       <c r="AZ50" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="BA50" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -8654,6 +8807,9 @@
       <c r="AZ51" s="1" t="n">
         <v>188.4</v>
       </c>
+      <c r="BA51" s="2" t="n">
+        <v>116.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -8812,6 +8968,9 @@
       <c r="AZ52" s="1" t="n">
         <v>170.5</v>
       </c>
+      <c r="BA52" s="1" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -8969,6 +9128,9 @@
       </c>
       <c r="AZ53" s="1" t="n">
         <v>216.8</v>
+      </c>
+      <c r="BA53" s="1" t="n">
+        <v>157.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA53"/>
+  <dimension ref="A1:BB53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,7 @@
     <col width="12" customWidth="1" min="51" max="51"/>
     <col width="12" customWidth="1" min="52" max="52"/>
     <col width="12" customWidth="1" min="53" max="53"/>
+    <col width="12" customWidth="1" min="54" max="54"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -760,6 +761,11 @@
           <t>2024/10/31</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/01</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -921,6 +927,9 @@
       <c r="BA2" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="BB2" s="1" t="n">
+        <v>180.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1082,6 +1091,9 @@
       <c r="BA3" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="BB3" s="3" t="n">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1243,6 +1255,9 @@
       <c r="BA4" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="BB4" s="3" t="n">
+        <v>139.7</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1404,6 +1419,9 @@
       <c r="BA5" s="1" t="n">
         <v>172.1</v>
       </c>
+      <c r="BB5" s="1" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1565,6 +1583,9 @@
       <c r="BA6" s="1" t="n">
         <v>142.7</v>
       </c>
+      <c r="BB6" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1726,6 +1747,9 @@
       <c r="BA7" s="1" t="n">
         <v>173.8</v>
       </c>
+      <c r="BB7" s="2" t="n">
+        <v>120.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1887,6 +1911,9 @@
       <c r="BA8" s="3" t="n">
         <v>137</v>
       </c>
+      <c r="BB8" s="1" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2048,6 +2075,9 @@
       <c r="BA9" s="2" t="n">
         <v>120</v>
       </c>
+      <c r="BB9" s="1" t="n">
+        <v>181.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2209,6 +2239,9 @@
       <c r="BA10" s="2" t="n">
         <v>112.7</v>
       </c>
+      <c r="BB10" s="1" t="n">
+        <v>174.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2370,6 +2403,9 @@
       <c r="BA11" s="1" t="n">
         <v>181.5</v>
       </c>
+      <c r="BB11" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2531,6 +2567,9 @@
       <c r="BA12" s="2" t="n">
         <v>121.2</v>
       </c>
+      <c r="BB12" s="1" t="n">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2692,6 +2731,9 @@
       <c r="BA13" s="2" t="n">
         <v>124.1</v>
       </c>
+      <c r="BB13" s="2" t="n">
+        <v>109.8</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2853,6 +2895,9 @@
       <c r="BA14" s="1" t="n">
         <v>187.4</v>
       </c>
+      <c r="BB14" s="2" t="n">
+        <v>124.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3014,6 +3059,9 @@
       <c r="BA15" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="BB15" s="1" t="n">
+        <v>252.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3175,6 +3223,9 @@
       <c r="BA16" s="1" t="n">
         <v>216.6</v>
       </c>
+      <c r="BB16" s="1" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3336,6 +3387,9 @@
       <c r="BA17" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="BB17" s="1" t="n">
+        <v>174.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3497,6 +3551,9 @@
       <c r="BA18" s="2" t="n">
         <v>120.6</v>
       </c>
+      <c r="BB18" s="1" t="n">
+        <v>204.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3658,6 +3715,9 @@
       <c r="BA19" s="3" t="n">
         <v>135.9</v>
       </c>
+      <c r="BB19" s="1" t="n">
+        <v>202.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3819,6 +3879,9 @@
       <c r="BA20" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="BB20" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -3980,6 +4043,9 @@
       <c r="BA21" s="1" t="n">
         <v>183.6</v>
       </c>
+      <c r="BB21" s="3" t="n">
+        <v>130.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4141,6 +4207,9 @@
       <c r="BA22" s="3" t="n">
         <v>139.6</v>
       </c>
+      <c r="BB22" s="1" t="n">
+        <v>195.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4302,6 +4371,9 @@
       <c r="BA23" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="BB23" s="1" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4463,6 +4535,9 @@
       <c r="BA24" s="2" t="n">
         <v>122.2</v>
       </c>
+      <c r="BB24" s="1" t="n">
+        <v>211.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4624,6 +4699,9 @@
       <c r="BA25" s="1" t="n">
         <v>183.8</v>
       </c>
+      <c r="BB25" s="1" t="n">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4785,6 +4863,9 @@
       <c r="BA26" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="BB26" s="1" t="n">
+        <v>235.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -4946,6 +5027,9 @@
       <c r="BA27" s="1" t="n">
         <v>181.1</v>
       </c>
+      <c r="BB27" s="2" t="n">
+        <v>117.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5107,6 +5191,9 @@
       <c r="BA28" s="1" t="n">
         <v>157.1</v>
       </c>
+      <c r="BB28" s="1" t="n">
+        <v>175.5</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5268,6 +5355,9 @@
       <c r="BA29" s="3" t="n">
         <v>125.5</v>
       </c>
+      <c r="BB29" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5429,6 +5519,9 @@
       <c r="BA30" s="2" t="n">
         <v>116.4</v>
       </c>
+      <c r="BB30" s="1" t="n">
+        <v>179.2</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5590,6 +5683,9 @@
       <c r="BA31" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="BB31" s="3" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -5751,6 +5847,9 @@
       <c r="BA32" s="1" t="n">
         <v>213.5</v>
       </c>
+      <c r="BB32" s="1" t="n">
+        <v>192.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -5912,6 +6011,9 @@
       <c r="BA33" s="1" t="n">
         <v>154.9</v>
       </c>
+      <c r="BB33" s="2" t="n">
+        <v>123.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -6073,6 +6175,9 @@
       <c r="BA34" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="BB34" s="1" t="n">
+        <v>212.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -6234,6 +6339,9 @@
       <c r="BA35" s="3" t="n">
         <v>139.5</v>
       </c>
+      <c r="BB35" s="1" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -6395,6 +6503,9 @@
       <c r="BA36" s="1" t="n">
         <v>156</v>
       </c>
+      <c r="BB36" s="1" t="n">
+        <v>186.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -6556,6 +6667,9 @@
       <c r="BA37" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="BB37" s="1" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -6717,6 +6831,9 @@
       <c r="BA38" s="2" t="n">
         <v>119.1</v>
       </c>
+      <c r="BB38" s="1" t="n">
+        <v>147.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -6878,6 +6995,9 @@
       <c r="BA39" s="1" t="n">
         <v>226.5</v>
       </c>
+      <c r="BB39" s="1" t="n">
+        <v>212.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -7039,6 +7159,9 @@
       <c r="BA40" s="1" t="n">
         <v>233.7</v>
       </c>
+      <c r="BB40" s="2" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -7200,6 +7323,9 @@
       <c r="BA41" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="BB41" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -7361,6 +7487,9 @@
       <c r="BA42" s="1" t="n">
         <v>149.3</v>
       </c>
+      <c r="BB42" s="1" t="n">
+        <v>194.5</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -7522,6 +7651,9 @@
       <c r="BA43" s="2" t="n">
         <v>119.1</v>
       </c>
+      <c r="BB43" s="1" t="n">
+        <v>226.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -7683,6 +7815,9 @@
       <c r="BA44" s="1" t="n">
         <v>183.2</v>
       </c>
+      <c r="BB44" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -7844,6 +7979,9 @@
       <c r="BA45" s="1" t="n">
         <v>328.5</v>
       </c>
+      <c r="BB45" s="2" t="n">
+        <v>119.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -8005,6 +8143,9 @@
       <c r="BA46" s="1" t="n">
         <v>165.5</v>
       </c>
+      <c r="BB46" s="1" t="n">
+        <v>180.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -8166,6 +8307,9 @@
       <c r="BA47" s="2" t="n">
         <v>120.2</v>
       </c>
+      <c r="BB47" s="2" t="n">
+        <v>116.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -8327,6 +8471,9 @@
       <c r="BA48" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="BB48" s="1" t="n">
+        <v>199.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -8488,6 +8635,9 @@
       <c r="BA49" s="1" t="n">
         <v>147.9</v>
       </c>
+      <c r="BB49" s="1" t="n">
+        <v>224.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -8649,6 +8799,9 @@
       <c r="BA50" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="BB50" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -8810,6 +8963,9 @@
       <c r="BA51" s="2" t="n">
         <v>116.1</v>
       </c>
+      <c r="BB51" s="1" t="n">
+        <v>172.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -8971,6 +9127,9 @@
       <c r="BA52" s="1" t="n">
         <v>161.4</v>
       </c>
+      <c r="BB52" s="3" t="n">
+        <v>137.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -9131,6 +9290,9 @@
       </c>
       <c r="BA53" s="1" t="n">
         <v>157.2</v>
+      </c>
+      <c r="BB53" s="3" t="n">
+        <v>131.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB53"/>
+  <dimension ref="A1:BC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,7 @@
     <col width="12" customWidth="1" min="52" max="52"/>
     <col width="12" customWidth="1" min="53" max="53"/>
     <col width="12" customWidth="1" min="54" max="54"/>
+    <col width="12" customWidth="1" min="55" max="55"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -766,6 +767,11 @@
           <t>2024/11/01</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/02</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -930,6 +936,9 @@
       <c r="BB2" s="1" t="n">
         <v>180.8</v>
       </c>
+      <c r="BC2" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1094,6 +1103,9 @@
       <c r="BB3" s="3" t="n">
         <v>125.3</v>
       </c>
+      <c r="BC3" s="1" t="n">
+        <v>195.2</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1258,6 +1270,9 @@
       <c r="BB4" s="3" t="n">
         <v>139.7</v>
       </c>
+      <c r="BC4" s="2" t="n">
+        <v>115.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1422,6 +1437,9 @@
       <c r="BB5" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="BC5" s="1" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1586,6 +1604,9 @@
       <c r="BB6" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="BC6" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1750,6 +1771,9 @@
       <c r="BB7" s="2" t="n">
         <v>120.7</v>
       </c>
+      <c r="BC7" s="1" t="n">
+        <v>178.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1914,6 +1938,9 @@
       <c r="BB8" s="1" t="n">
         <v>186.3</v>
       </c>
+      <c r="BC8" s="1" t="n">
+        <v>171.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2078,6 +2105,9 @@
       <c r="BB9" s="1" t="n">
         <v>181.6</v>
       </c>
+      <c r="BC9" s="3" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2242,6 +2272,9 @@
       <c r="BB10" s="1" t="n">
         <v>174.3</v>
       </c>
+      <c r="BC10" s="1" t="n">
+        <v>196.5</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2406,6 +2439,9 @@
       <c r="BB11" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="BC11" s="1" t="n">
+        <v>168.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2570,6 +2606,9 @@
       <c r="BB12" s="1" t="n">
         <v>163.1</v>
       </c>
+      <c r="BC12" s="1" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2734,6 +2773,9 @@
       <c r="BB13" s="2" t="n">
         <v>109.8</v>
       </c>
+      <c r="BC13" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2898,6 +2940,9 @@
       <c r="BB14" s="2" t="n">
         <v>124.4</v>
       </c>
+      <c r="BC14" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3062,6 +3107,9 @@
       <c r="BB15" s="1" t="n">
         <v>252.4</v>
       </c>
+      <c r="BC15" s="1" t="n">
+        <v>149.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3226,6 +3274,9 @@
       <c r="BB16" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="BC16" s="1" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3390,6 +3441,9 @@
       <c r="BB17" s="1" t="n">
         <v>174.3</v>
       </c>
+      <c r="BC17" s="2" t="n">
+        <v>117.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3554,6 +3608,9 @@
       <c r="BB18" s="1" t="n">
         <v>204.3</v>
       </c>
+      <c r="BC18" s="1" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3718,6 +3775,9 @@
       <c r="BB19" s="1" t="n">
         <v>202.7</v>
       </c>
+      <c r="BC19" s="1" t="n">
+        <v>168.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3882,6 +3942,9 @@
       <c r="BB20" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="BC20" s="1" t="n">
+        <v>146.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4046,6 +4109,9 @@
       <c r="BB21" s="3" t="n">
         <v>130.2</v>
       </c>
+      <c r="BC21" s="1" t="n">
+        <v>200.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4210,6 +4276,9 @@
       <c r="BB22" s="1" t="n">
         <v>195.4</v>
       </c>
+      <c r="BC22" s="1" t="n">
+        <v>205.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4374,6 +4443,9 @@
       <c r="BB23" s="1" t="n">
         <v>170</v>
       </c>
+      <c r="BC23" s="3" t="n">
+        <v>135.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4538,6 +4610,9 @@
       <c r="BB24" s="1" t="n">
         <v>211.9</v>
       </c>
+      <c r="BC24" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4702,6 +4777,9 @@
       <c r="BB25" s="1" t="n">
         <v>166.3</v>
       </c>
+      <c r="BC25" s="1" t="n">
+        <v>160.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4866,6 +4944,9 @@
       <c r="BB26" s="1" t="n">
         <v>235.3</v>
       </c>
+      <c r="BC26" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5030,6 +5111,9 @@
       <c r="BB27" s="2" t="n">
         <v>117.3</v>
       </c>
+      <c r="BC27" s="1" t="n">
+        <v>150.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5194,6 +5278,9 @@
       <c r="BB28" s="1" t="n">
         <v>175.5</v>
       </c>
+      <c r="BC28" s="3" t="n">
+        <v>131.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5358,6 +5445,9 @@
       <c r="BB29" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="BC29" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5522,6 +5612,9 @@
       <c r="BB30" s="1" t="n">
         <v>179.2</v>
       </c>
+      <c r="BC30" s="1" t="n">
+        <v>235.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5686,6 +5779,9 @@
       <c r="BB31" s="3" t="n">
         <v>139</v>
       </c>
+      <c r="BC31" s="1" t="n">
+        <v>222.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -5850,6 +5946,9 @@
       <c r="BB32" s="1" t="n">
         <v>192.2</v>
       </c>
+      <c r="BC32" s="1" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -6014,6 +6113,9 @@
       <c r="BB33" s="2" t="n">
         <v>123.6</v>
       </c>
+      <c r="BC33" s="2" t="n">
+        <v>110.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -6178,6 +6280,9 @@
       <c r="BB34" s="1" t="n">
         <v>212.1</v>
       </c>
+      <c r="BC34" s="3" t="n">
+        <v>134.4</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -6342,6 +6447,9 @@
       <c r="BB35" s="1" t="n">
         <v>177</v>
       </c>
+      <c r="BC35" s="1" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -6506,6 +6614,9 @@
       <c r="BB36" s="1" t="n">
         <v>186.4</v>
       </c>
+      <c r="BC36" s="1" t="n">
+        <v>171.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -6670,6 +6781,9 @@
       <c r="BB37" s="1" t="n">
         <v>169</v>
       </c>
+      <c r="BC37" s="3" t="n">
+        <v>132.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -6834,6 +6948,9 @@
       <c r="BB38" s="1" t="n">
         <v>147.8</v>
       </c>
+      <c r="BC38" s="1" t="n">
+        <v>182.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -6998,6 +7115,9 @@
       <c r="BB39" s="1" t="n">
         <v>212.1</v>
       </c>
+      <c r="BC39" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -7162,6 +7282,9 @@
       <c r="BB40" s="2" t="n">
         <v>123</v>
       </c>
+      <c r="BC40" s="1" t="n">
+        <v>205.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -7326,6 +7449,9 @@
       <c r="BB41" s="1" t="n">
         <v>143.3</v>
       </c>
+      <c r="BC41" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -7490,6 +7616,9 @@
       <c r="BB42" s="1" t="n">
         <v>194.5</v>
       </c>
+      <c r="BC42" s="1" t="n">
+        <v>158.8</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -7654,6 +7783,9 @@
       <c r="BB43" s="1" t="n">
         <v>226.9</v>
       </c>
+      <c r="BC43" s="1" t="n">
+        <v>226.7</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -7818,6 +7950,9 @@
       <c r="BB44" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="BC44" s="2" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -7982,6 +8117,9 @@
       <c r="BB45" s="2" t="n">
         <v>119.9</v>
       </c>
+      <c r="BC45" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -8146,6 +8284,9 @@
       <c r="BB46" s="1" t="n">
         <v>180.2</v>
       </c>
+      <c r="BC46" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -8310,6 +8451,9 @@
       <c r="BB47" s="2" t="n">
         <v>116.9</v>
       </c>
+      <c r="BC47" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -8474,6 +8618,9 @@
       <c r="BB48" s="1" t="n">
         <v>199.9</v>
       </c>
+      <c r="BC48" s="1" t="n">
+        <v>156.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -8638,6 +8785,9 @@
       <c r="BB49" s="1" t="n">
         <v>224.2</v>
       </c>
+      <c r="BC49" s="3" t="n">
+        <v>139.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -8802,6 +8952,9 @@
       <c r="BB50" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="BC50" s="3" t="n">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -8966,6 +9119,9 @@
       <c r="BB51" s="1" t="n">
         <v>172.4</v>
       </c>
+      <c r="BC51" s="1" t="n">
+        <v>209.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -9130,6 +9286,9 @@
       <c r="BB52" s="3" t="n">
         <v>137.2</v>
       </c>
+      <c r="BC52" s="1" t="n">
+        <v>175.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -9293,6 +9452,9 @@
       </c>
       <c r="BB53" s="3" t="n">
         <v>131.8</v>
+      </c>
+      <c r="BC53" s="3" t="n">
+        <v>126.6</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC53"/>
+  <dimension ref="A1:BD53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,7 @@
     <col width="12" customWidth="1" min="53" max="53"/>
     <col width="12" customWidth="1" min="54" max="54"/>
     <col width="12" customWidth="1" min="55" max="55"/>
+    <col width="12" customWidth="1" min="56" max="56"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -772,6 +773,11 @@
           <t>2024/11/02</t>
         </is>
       </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/03</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -939,6 +945,9 @@
       <c r="BC2" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="BD2" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1106,6 +1115,9 @@
       <c r="BC3" s="1" t="n">
         <v>195.2</v>
       </c>
+      <c r="BD3" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1273,6 +1285,9 @@
       <c r="BC4" s="2" t="n">
         <v>115.1</v>
       </c>
+      <c r="BD4" s="1" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1440,6 +1455,9 @@
       <c r="BC5" s="1" t="n">
         <v>186</v>
       </c>
+      <c r="BD5" s="1" t="n">
+        <v>217.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1607,6 +1625,9 @@
       <c r="BC6" s="3" t="n">
         <v>135.8</v>
       </c>
+      <c r="BD6" s="1" t="n">
+        <v>155.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1774,6 +1795,9 @@
       <c r="BC7" s="1" t="n">
         <v>178.5</v>
       </c>
+      <c r="BD7" s="1" t="n">
+        <v>179.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1941,6 +1965,9 @@
       <c r="BC8" s="1" t="n">
         <v>171.8</v>
       </c>
+      <c r="BD8" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2108,6 +2135,9 @@
       <c r="BC9" s="3" t="n">
         <v>134</v>
       </c>
+      <c r="BD9" s="1" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2275,6 +2305,9 @@
       <c r="BC10" s="1" t="n">
         <v>196.5</v>
       </c>
+      <c r="BD10" s="3" t="n">
+        <v>135.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2442,6 +2475,9 @@
       <c r="BC11" s="1" t="n">
         <v>168.6</v>
       </c>
+      <c r="BD11" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2609,6 +2645,9 @@
       <c r="BC12" s="1" t="n">
         <v>183</v>
       </c>
+      <c r="BD12" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2776,6 +2815,9 @@
       <c r="BC13" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="BD13" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2943,6 +2985,9 @@
       <c r="BC14" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="BD14" s="1" t="n">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3110,6 +3155,9 @@
       <c r="BC15" s="1" t="n">
         <v>149.4</v>
       </c>
+      <c r="BD15" s="1" t="n">
+        <v>154.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3277,6 +3325,9 @@
       <c r="BC16" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="BD16" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3444,6 +3495,9 @@
       <c r="BC17" s="2" t="n">
         <v>117.4</v>
       </c>
+      <c r="BD17" s="2" t="n">
+        <v>105.6</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3611,6 +3665,9 @@
       <c r="BC18" s="1" t="n">
         <v>172</v>
       </c>
+      <c r="BD18" s="2" t="n">
+        <v>123.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3778,6 +3835,9 @@
       <c r="BC19" s="1" t="n">
         <v>168.6</v>
       </c>
+      <c r="BD19" s="1" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -3945,6 +4005,9 @@
       <c r="BC20" s="1" t="n">
         <v>146.5</v>
       </c>
+      <c r="BD20" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4112,6 +4175,9 @@
       <c r="BC21" s="1" t="n">
         <v>200.1</v>
       </c>
+      <c r="BD21" s="1" t="n">
+        <v>141.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4279,6 +4345,9 @@
       <c r="BC22" s="1" t="n">
         <v>205.9</v>
       </c>
+      <c r="BD22" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4446,6 +4515,9 @@
       <c r="BC23" s="3" t="n">
         <v>135.3</v>
       </c>
+      <c r="BD23" s="1" t="n">
+        <v>156.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4613,6 +4685,9 @@
       <c r="BC24" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="BD24" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4780,6 +4855,9 @@
       <c r="BC25" s="1" t="n">
         <v>160.6</v>
       </c>
+      <c r="BD25" s="3" t="n">
+        <v>132.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -4947,6 +5025,9 @@
       <c r="BC26" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="BD26" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5114,6 +5195,9 @@
       <c r="BC27" s="1" t="n">
         <v>150.3</v>
       </c>
+      <c r="BD27" s="1" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5281,6 +5365,9 @@
       <c r="BC28" s="3" t="n">
         <v>131.7</v>
       </c>
+      <c r="BD28" s="1" t="n">
+        <v>195.5</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5448,6 +5535,9 @@
       <c r="BC29" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="BD29" s="1" t="n">
+        <v>258.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5615,6 +5705,9 @@
       <c r="BC30" s="1" t="n">
         <v>235.4</v>
       </c>
+      <c r="BD30" s="1" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5782,6 +5875,9 @@
       <c r="BC31" s="1" t="n">
         <v>222.6</v>
       </c>
+      <c r="BD31" s="1" t="n">
+        <v>194.8</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -5949,6 +6045,9 @@
       <c r="BC32" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="BD32" s="1" t="n">
+        <v>144.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -6116,6 +6215,9 @@
       <c r="BC33" s="2" t="n">
         <v>110.1</v>
       </c>
+      <c r="BD33" s="1" t="n">
+        <v>216.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -6283,6 +6385,9 @@
       <c r="BC34" s="3" t="n">
         <v>134.4</v>
       </c>
+      <c r="BD34" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -6450,6 +6555,9 @@
       <c r="BC35" s="1" t="n">
         <v>143</v>
       </c>
+      <c r="BD35" s="1" t="n">
+        <v>173.6</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -6617,6 +6725,9 @@
       <c r="BC36" s="1" t="n">
         <v>171.1</v>
       </c>
+      <c r="BD36" s="1" t="n">
+        <v>159.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -6784,6 +6895,9 @@
       <c r="BC37" s="3" t="n">
         <v>132.8</v>
       </c>
+      <c r="BD37" s="3" t="n">
+        <v>131.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -6951,6 +7065,9 @@
       <c r="BC38" s="1" t="n">
         <v>182.7</v>
       </c>
+      <c r="BD38" s="2" t="n">
+        <v>122.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -7118,6 +7235,9 @@
       <c r="BC39" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="BD39" s="1" t="n">
+        <v>183.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -7285,6 +7405,9 @@
       <c r="BC40" s="1" t="n">
         <v>205.2</v>
       </c>
+      <c r="BD40" s="1" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -7452,6 +7575,9 @@
       <c r="BC41" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="BD41" s="1" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -7619,6 +7745,9 @@
       <c r="BC42" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="BD42" s="2" t="n">
+        <v>119.3</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -7786,6 +7915,9 @@
       <c r="BC43" s="1" t="n">
         <v>226.7</v>
       </c>
+      <c r="BD43" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -7953,6 +8085,9 @@
       <c r="BC44" s="2" t="n">
         <v>113.1</v>
       </c>
+      <c r="BD44" s="1" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -8120,6 +8255,9 @@
       <c r="BC45" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="BD45" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -8287,6 +8425,9 @@
       <c r="BC46" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="BD46" s="3" t="n">
+        <v>139.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -8454,6 +8595,9 @@
       <c r="BC47" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="BD47" s="1" t="n">
+        <v>181.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -8621,6 +8765,9 @@
       <c r="BC48" s="1" t="n">
         <v>156.3</v>
       </c>
+      <c r="BD48" s="1" t="n">
+        <v>162.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -8788,6 +8935,9 @@
       <c r="BC49" s="3" t="n">
         <v>139.3</v>
       </c>
+      <c r="BD49" s="1" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -8955,6 +9105,9 @@
       <c r="BC50" s="3" t="n">
         <v>130.8</v>
       </c>
+      <c r="BD50" s="1" t="n">
+        <v>170.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -9122,6 +9275,9 @@
       <c r="BC51" s="1" t="n">
         <v>209.4</v>
       </c>
+      <c r="BD51" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -9289,6 +9445,9 @@
       <c r="BC52" s="1" t="n">
         <v>175.4</v>
       </c>
+      <c r="BD52" s="1" t="n">
+        <v>167.3</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -9455,6 +9614,9 @@
       </c>
       <c r="BC53" s="3" t="n">
         <v>126.6</v>
+      </c>
+      <c r="BD53" s="1" t="n">
+        <v>146.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD53"/>
+  <dimension ref="A1:BE53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,7 @@
     <col width="12" customWidth="1" min="54" max="54"/>
     <col width="12" customWidth="1" min="55" max="55"/>
     <col width="12" customWidth="1" min="56" max="56"/>
+    <col width="12" customWidth="1" min="57" max="57"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -778,6 +779,11 @@
           <t>2024/11/03</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/04</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -948,6 +954,9 @@
       <c r="BD2" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="BE2" s="3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1118,6 +1127,9 @@
       <c r="BD3" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="BE3" s="2" t="n">
+        <v>115.7</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1288,6 +1300,9 @@
       <c r="BD4" s="1" t="n">
         <v>218</v>
       </c>
+      <c r="BE4" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1458,6 +1473,9 @@
       <c r="BD5" s="1" t="n">
         <v>217.4</v>
       </c>
+      <c r="BE5" s="1" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1628,6 +1646,9 @@
       <c r="BD6" s="1" t="n">
         <v>155.5</v>
       </c>
+      <c r="BE6" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1798,6 +1819,9 @@
       <c r="BD7" s="1" t="n">
         <v>179.4</v>
       </c>
+      <c r="BE7" s="1" t="n">
+        <v>167.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1968,6 +1992,9 @@
       <c r="BD8" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="BE8" s="1" t="n">
+        <v>171.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2138,6 +2165,9 @@
       <c r="BD9" s="1" t="n">
         <v>152.2</v>
       </c>
+      <c r="BE9" s="1" t="n">
+        <v>149.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2308,6 +2338,9 @@
       <c r="BD10" s="3" t="n">
         <v>135.3</v>
       </c>
+      <c r="BE10" s="2" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2478,6 +2511,9 @@
       <c r="BD11" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="BE11" s="1" t="n">
+        <v>161.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2648,6 +2684,9 @@
       <c r="BD12" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="BE12" s="1" t="n">
+        <v>191.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2818,6 +2857,9 @@
       <c r="BD13" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="BE13" s="1" t="n">
+        <v>212.4</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -2988,6 +3030,9 @@
       <c r="BD14" s="1" t="n">
         <v>179.5</v>
       </c>
+      <c r="BE14" s="1" t="n">
+        <v>166.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3158,6 +3203,9 @@
       <c r="BD15" s="1" t="n">
         <v>154.8</v>
       </c>
+      <c r="BE15" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3328,6 +3376,9 @@
       <c r="BD16" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="BE16" s="1" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3498,6 +3549,9 @@
       <c r="BD17" s="2" t="n">
         <v>105.6</v>
       </c>
+      <c r="BE17" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3668,6 +3722,9 @@
       <c r="BD18" s="2" t="n">
         <v>123.3</v>
       </c>
+      <c r="BE18" s="1" t="n">
+        <v>184.1</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3838,6 +3895,9 @@
       <c r="BD19" s="1" t="n">
         <v>183</v>
       </c>
+      <c r="BE19" s="1" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4008,6 +4068,9 @@
       <c r="BD20" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="BE20" s="3" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4178,6 +4241,9 @@
       <c r="BD21" s="1" t="n">
         <v>141.6</v>
       </c>
+      <c r="BE21" s="1" t="n">
+        <v>168.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4348,6 +4414,9 @@
       <c r="BD22" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="BE22" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4518,6 +4587,9 @@
       <c r="BD23" s="1" t="n">
         <v>156.3</v>
       </c>
+      <c r="BE23" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4688,6 +4760,9 @@
       <c r="BD24" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="BE24" s="1" t="n">
+        <v>163.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4858,6 +4933,9 @@
       <c r="BD25" s="3" t="n">
         <v>132.7</v>
       </c>
+      <c r="BE25" s="1" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5028,6 +5106,9 @@
       <c r="BD26" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="BE26" s="1" t="n">
+        <v>147.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5198,6 +5279,9 @@
       <c r="BD27" s="1" t="n">
         <v>188.7</v>
       </c>
+      <c r="BE27" s="1" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5368,6 +5452,9 @@
       <c r="BD28" s="1" t="n">
         <v>195.5</v>
       </c>
+      <c r="BE28" s="3" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5538,6 +5625,9 @@
       <c r="BD29" s="1" t="n">
         <v>258.9</v>
       </c>
+      <c r="BE29" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5708,6 +5798,9 @@
       <c r="BD30" s="1" t="n">
         <v>140.8</v>
       </c>
+      <c r="BE30" s="1" t="n">
+        <v>150.3</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5878,6 +5971,9 @@
       <c r="BD31" s="1" t="n">
         <v>194.8</v>
       </c>
+      <c r="BE31" s="1" t="n">
+        <v>190.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -6048,6 +6144,9 @@
       <c r="BD32" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="BE32" s="1" t="n">
+        <v>176.7</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -6218,6 +6317,9 @@
       <c r="BD33" s="1" t="n">
         <v>216.3</v>
       </c>
+      <c r="BE33" s="1" t="n">
+        <v>195.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -6388,6 +6490,9 @@
       <c r="BD34" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="BE34" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -6558,6 +6663,9 @@
       <c r="BD35" s="1" t="n">
         <v>173.6</v>
       </c>
+      <c r="BE35" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -6728,6 +6836,9 @@
       <c r="BD36" s="1" t="n">
         <v>159.4</v>
       </c>
+      <c r="BE36" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -6898,6 +7009,9 @@
       <c r="BD37" s="3" t="n">
         <v>131.3</v>
       </c>
+      <c r="BE37" s="1" t="n">
+        <v>149.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -7068,6 +7182,9 @@
       <c r="BD38" s="2" t="n">
         <v>122.7</v>
       </c>
+      <c r="BE38" s="1" t="n">
+        <v>154.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -7238,6 +7355,9 @@
       <c r="BD39" s="1" t="n">
         <v>183.2</v>
       </c>
+      <c r="BE39" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -7408,6 +7528,9 @@
       <c r="BD40" s="1" t="n">
         <v>152.2</v>
       </c>
+      <c r="BE40" s="3" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -7578,6 +7701,9 @@
       <c r="BD41" s="1" t="n">
         <v>189.1</v>
       </c>
+      <c r="BE41" s="2" t="n">
+        <v>119.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -7748,6 +7874,9 @@
       <c r="BD42" s="2" t="n">
         <v>119.3</v>
       </c>
+      <c r="BE42" s="1" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -7918,6 +8047,9 @@
       <c r="BD43" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="BE43" s="1" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -8088,6 +8220,9 @@
       <c r="BD44" s="1" t="n">
         <v>153.9</v>
       </c>
+      <c r="BE44" s="1" t="n">
+        <v>143.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -8258,6 +8393,9 @@
       <c r="BD45" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="BE45" s="1" t="n">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -8428,6 +8566,9 @@
       <c r="BD46" s="3" t="n">
         <v>139.3</v>
       </c>
+      <c r="BE46" s="1" t="n">
+        <v>395.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -8598,6 +8739,9 @@
       <c r="BD47" s="1" t="n">
         <v>181.4</v>
       </c>
+      <c r="BE47" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -8768,6 +8912,9 @@
       <c r="BD48" s="1" t="n">
         <v>162.3</v>
       </c>
+      <c r="BE48" s="1" t="n">
+        <v>170.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -8938,6 +9085,9 @@
       <c r="BD49" s="1" t="n">
         <v>149.1</v>
       </c>
+      <c r="BE49" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -9108,6 +9258,9 @@
       <c r="BD50" s="1" t="n">
         <v>170.2</v>
       </c>
+      <c r="BE50" s="1" t="n">
+        <v>146.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -9278,6 +9431,9 @@
       <c r="BD51" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="BE51" s="1" t="n">
+        <v>209.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -9448,6 +9604,9 @@
       <c r="BD52" s="1" t="n">
         <v>167.3</v>
       </c>
+      <c r="BE52" s="1" t="n">
+        <v>182.9</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -9617,6 +9776,9 @@
       </c>
       <c r="BD53" s="1" t="n">
         <v>146.9</v>
+      </c>
+      <c r="BE53" s="1" t="n">
+        <v>175.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BE53"/>
+  <dimension ref="A1:BF53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,6 +496,7 @@
     <col width="12" customWidth="1" min="55" max="55"/>
     <col width="12" customWidth="1" min="56" max="56"/>
     <col width="12" customWidth="1" min="57" max="57"/>
+    <col width="12" customWidth="1" min="58" max="58"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -784,6 +785,11 @@
           <t>2024/11/04</t>
         </is>
       </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/06</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -957,6 +963,9 @@
       <c r="BE2" s="3" t="n">
         <v>126</v>
       </c>
+      <c r="BF2" s="1" t="n">
+        <v>189.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1130,6 +1139,9 @@
       <c r="BE3" s="2" t="n">
         <v>115.7</v>
       </c>
+      <c r="BF3" s="1" t="n">
+        <v>205.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1303,6 +1315,9 @@
       <c r="BE4" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="BF4" s="1" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1476,6 +1491,9 @@
       <c r="BE5" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="BF5" s="3" t="n">
+        <v>136.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1649,6 +1667,9 @@
       <c r="BE6" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="BF6" s="1" t="n">
+        <v>140.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1822,6 +1843,9 @@
       <c r="BE7" s="1" t="n">
         <v>167.4</v>
       </c>
+      <c r="BF7" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -1995,6 +2019,9 @@
       <c r="BE8" s="1" t="n">
         <v>171.9</v>
       </c>
+      <c r="BF8" s="1" t="n">
+        <v>149.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2168,6 +2195,9 @@
       <c r="BE9" s="1" t="n">
         <v>149.7</v>
       </c>
+      <c r="BF9" s="1" t="n">
+        <v>157.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2341,6 +2371,9 @@
       <c r="BE10" s="2" t="n">
         <v>113.1</v>
       </c>
+      <c r="BF10" s="2" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2514,6 +2547,9 @@
       <c r="BE11" s="1" t="n">
         <v>161.3</v>
       </c>
+      <c r="BF11" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2687,6 +2723,9 @@
       <c r="BE12" s="1" t="n">
         <v>191.7</v>
       </c>
+      <c r="BF12" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2860,6 +2899,9 @@
       <c r="BE13" s="1" t="n">
         <v>212.4</v>
       </c>
+      <c r="BF13" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3033,6 +3075,9 @@
       <c r="BE14" s="1" t="n">
         <v>166.1</v>
       </c>
+      <c r="BF14" s="2" t="n">
+        <v>119.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3206,6 +3251,9 @@
       <c r="BE15" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="BF15" s="3" t="n">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3379,6 +3427,9 @@
       <c r="BE16" s="1" t="n">
         <v>156.1</v>
       </c>
+      <c r="BF16" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3552,6 +3603,9 @@
       <c r="BE17" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="BF17" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3725,6 +3779,9 @@
       <c r="BE18" s="1" t="n">
         <v>184.1</v>
       </c>
+      <c r="BF18" s="1" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3898,6 +3955,9 @@
       <c r="BE19" s="1" t="n">
         <v>212</v>
       </c>
+      <c r="BF19" s="2" t="n">
+        <v>115.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4071,6 +4131,9 @@
       <c r="BE20" s="3" t="n">
         <v>130</v>
       </c>
+      <c r="BF20" s="1" t="n">
+        <v>180.1</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4244,6 +4307,9 @@
       <c r="BE21" s="1" t="n">
         <v>168.7</v>
       </c>
+      <c r="BF21" s="1" t="n">
+        <v>158.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4417,6 +4483,9 @@
       <c r="BE22" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="BF22" s="2" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4590,6 +4659,9 @@
       <c r="BE23" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="BF23" s="1" t="n">
+        <v>168.4</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4763,6 +4835,9 @@
       <c r="BE24" s="1" t="n">
         <v>163.9</v>
       </c>
+      <c r="BF24" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -4936,6 +5011,9 @@
       <c r="BE25" s="1" t="n">
         <v>187.7</v>
       </c>
+      <c r="BF25" s="1" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5109,6 +5187,9 @@
       <c r="BE26" s="1" t="n">
         <v>147.3</v>
       </c>
+      <c r="BF26" s="2" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5282,6 +5363,9 @@
       <c r="BE27" s="1" t="n">
         <v>187.5</v>
       </c>
+      <c r="BF27" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5455,6 +5539,9 @@
       <c r="BE28" s="3" t="n">
         <v>132.2</v>
       </c>
+      <c r="BF28" s="2" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5628,6 +5715,9 @@
       <c r="BE29" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="BF29" s="1" t="n">
+        <v>205.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5801,6 +5891,9 @@
       <c r="BE30" s="1" t="n">
         <v>150.3</v>
       </c>
+      <c r="BF30" s="2" t="n">
+        <v>124.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -5974,6 +6067,9 @@
       <c r="BE31" s="1" t="n">
         <v>190.3</v>
       </c>
+      <c r="BF31" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -6147,6 +6243,9 @@
       <c r="BE32" s="1" t="n">
         <v>176.7</v>
       </c>
+      <c r="BF32" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -6320,6 +6419,9 @@
       <c r="BE33" s="1" t="n">
         <v>195.9</v>
       </c>
+      <c r="BF33" s="3" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -6493,6 +6595,9 @@
       <c r="BE34" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="BF34" s="1" t="n">
+        <v>165.4</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -6666,6 +6771,9 @@
       <c r="BE35" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="BF35" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -6839,6 +6947,9 @@
       <c r="BE36" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="BF36" s="3" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -7012,6 +7123,9 @@
       <c r="BE37" s="1" t="n">
         <v>149.7</v>
       </c>
+      <c r="BF37" s="1" t="n">
+        <v>167.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -7185,6 +7299,9 @@
       <c r="BE38" s="1" t="n">
         <v>154.5</v>
       </c>
+      <c r="BF38" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -7358,6 +7475,9 @@
       <c r="BE39" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="BF39" s="3" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -7531,6 +7651,9 @@
       <c r="BE40" s="3" t="n">
         <v>136.4</v>
       </c>
+      <c r="BF40" s="1" t="n">
+        <v>159.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -7704,6 +7827,9 @@
       <c r="BE41" s="2" t="n">
         <v>119.4</v>
       </c>
+      <c r="BF41" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -7877,6 +8003,9 @@
       <c r="BE42" s="1" t="n">
         <v>142.7</v>
       </c>
+      <c r="BF42" s="1" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -8050,6 +8179,9 @@
       <c r="BE43" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="BF43" s="2" t="n">
+        <v>118.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -8223,6 +8355,9 @@
       <c r="BE44" s="1" t="n">
         <v>143.4</v>
       </c>
+      <c r="BF44" s="1" t="n">
+        <v>168.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -8396,6 +8531,9 @@
       <c r="BE45" s="1" t="n">
         <v>142.1</v>
       </c>
+      <c r="BF45" s="2" t="n">
+        <v>103.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -8569,6 +8707,9 @@
       <c r="BE46" s="1" t="n">
         <v>395.4</v>
       </c>
+      <c r="BF46" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -8742,6 +8883,9 @@
       <c r="BE47" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="BF47" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -8915,6 +9059,9 @@
       <c r="BE48" s="1" t="n">
         <v>170.3</v>
       </c>
+      <c r="BF48" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -9088,6 +9235,9 @@
       <c r="BE49" s="3" t="n">
         <v>136</v>
       </c>
+      <c r="BF49" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -9261,6 +9411,9 @@
       <c r="BE50" s="1" t="n">
         <v>146.9</v>
       </c>
+      <c r="BF50" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -9434,6 +9587,9 @@
       <c r="BE51" s="1" t="n">
         <v>209.4</v>
       </c>
+      <c r="BF51" s="2" t="n">
+        <v>108.6</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -9607,6 +9763,9 @@
       <c r="BE52" s="1" t="n">
         <v>182.9</v>
       </c>
+      <c r="BF52" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -9779,6 +9938,9 @@
       </c>
       <c r="BE53" s="1" t="n">
         <v>175.1</v>
+      </c>
+      <c r="BF53" s="1" t="n">
+        <v>155.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF53"/>
+  <dimension ref="A1:BG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,7 @@
     <col width="12" customWidth="1" min="56" max="56"/>
     <col width="12" customWidth="1" min="57" max="57"/>
     <col width="12" customWidth="1" min="58" max="58"/>
+    <col width="12" customWidth="1" min="59" max="59"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -787,6 +788,11 @@
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
+          <t>2024/11/05</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
           <t>2024/11/06</t>
         </is>
       </c>
@@ -966,6 +972,9 @@
       <c r="BF2" s="1" t="n">
         <v>189.6</v>
       </c>
+      <c r="BG2" s="1" t="n">
+        <v>189.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1142,6 +1151,9 @@
       <c r="BF3" s="1" t="n">
         <v>205.9</v>
       </c>
+      <c r="BG3" s="1" t="n">
+        <v>205.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1318,6 +1330,9 @@
       <c r="BF4" s="1" t="n">
         <v>164.3</v>
       </c>
+      <c r="BG4" s="1" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1494,6 +1509,9 @@
       <c r="BF5" s="3" t="n">
         <v>136.3</v>
       </c>
+      <c r="BG5" s="3" t="n">
+        <v>136.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1670,6 +1688,9 @@
       <c r="BF6" s="1" t="n">
         <v>140.4</v>
       </c>
+      <c r="BG6" s="1" t="n">
+        <v>140.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1846,6 +1867,9 @@
       <c r="BF7" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="BG7" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2022,6 +2046,9 @@
       <c r="BF8" s="1" t="n">
         <v>149.4</v>
       </c>
+      <c r="BG8" s="1" t="n">
+        <v>149.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2198,6 +2225,9 @@
       <c r="BF9" s="1" t="n">
         <v>157.3</v>
       </c>
+      <c r="BG9" s="1" t="n">
+        <v>157.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2374,6 +2404,9 @@
       <c r="BF10" s="2" t="n">
         <v>121</v>
       </c>
+      <c r="BG10" s="2" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2550,6 +2583,9 @@
       <c r="BF11" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="BG11" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2726,6 +2762,9 @@
       <c r="BF12" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="BG12" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2902,6 +2941,9 @@
       <c r="BF13" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="BG13" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3078,6 +3120,9 @@
       <c r="BF14" s="2" t="n">
         <v>119.6</v>
       </c>
+      <c r="BG14" s="2" t="n">
+        <v>119.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3254,6 +3299,9 @@
       <c r="BF15" s="3" t="n">
         <v>133.7</v>
       </c>
+      <c r="BG15" s="3" t="n">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3430,6 +3478,9 @@
       <c r="BF16" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="BG16" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3606,6 +3657,9 @@
       <c r="BF17" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="BG17" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3782,6 +3836,9 @@
       <c r="BF18" s="1" t="n">
         <v>142.5</v>
       </c>
+      <c r="BG18" s="1" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -3958,6 +4015,9 @@
       <c r="BF19" s="2" t="n">
         <v>115.7</v>
       </c>
+      <c r="BG19" s="2" t="n">
+        <v>115.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4134,6 +4194,9 @@
       <c r="BF20" s="1" t="n">
         <v>180.1</v>
       </c>
+      <c r="BG20" s="1" t="n">
+        <v>180.1</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4310,6 +4373,9 @@
       <c r="BF21" s="1" t="n">
         <v>158.1</v>
       </c>
+      <c r="BG21" s="1" t="n">
+        <v>158.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4486,6 +4552,9 @@
       <c r="BF22" s="2" t="n">
         <v>121.2</v>
       </c>
+      <c r="BG22" s="2" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4662,6 +4731,9 @@
       <c r="BF23" s="1" t="n">
         <v>168.4</v>
       </c>
+      <c r="BG23" s="1" t="n">
+        <v>168.4</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4838,6 +4910,9 @@
       <c r="BF24" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="BG24" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5014,6 +5089,9 @@
       <c r="BF25" s="1" t="n">
         <v>140.8</v>
       </c>
+      <c r="BG25" s="1" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5190,6 +5268,9 @@
       <c r="BF26" s="2" t="n">
         <v>124.5</v>
       </c>
+      <c r="BG26" s="2" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5366,6 +5447,9 @@
       <c r="BF27" s="1" t="n">
         <v>153.4</v>
       </c>
+      <c r="BG27" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5542,6 +5626,9 @@
       <c r="BF28" s="2" t="n">
         <v>117</v>
       </c>
+      <c r="BG28" s="2" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5718,6 +5805,9 @@
       <c r="BF29" s="1" t="n">
         <v>205.1</v>
       </c>
+      <c r="BG29" s="1" t="n">
+        <v>205.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5894,6 +5984,9 @@
       <c r="BF30" s="2" t="n">
         <v>124.7</v>
       </c>
+      <c r="BG30" s="2" t="n">
+        <v>124.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -6070,6 +6163,9 @@
       <c r="BF31" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="BG31" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -6246,6 +6342,9 @@
       <c r="BF32" s="1" t="n">
         <v>148.5</v>
       </c>
+      <c r="BG32" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -6422,6 +6521,9 @@
       <c r="BF33" s="3" t="n">
         <v>130.5</v>
       </c>
+      <c r="BG33" s="3" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -6598,6 +6700,9 @@
       <c r="BF34" s="1" t="n">
         <v>165.4</v>
       </c>
+      <c r="BG34" s="1" t="n">
+        <v>165.4</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -6774,6 +6879,9 @@
       <c r="BF35" s="1" t="n">
         <v>146.7</v>
       </c>
+      <c r="BG35" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -6950,6 +7058,9 @@
       <c r="BF36" s="3" t="n">
         <v>135.7</v>
       </c>
+      <c r="BG36" s="3" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -7126,6 +7237,9 @@
       <c r="BF37" s="1" t="n">
         <v>167.4</v>
       </c>
+      <c r="BG37" s="1" t="n">
+        <v>167.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -7302,6 +7416,9 @@
       <c r="BF38" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="BG38" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -7478,6 +7595,9 @@
       <c r="BF39" s="3" t="n">
         <v>133.3</v>
       </c>
+      <c r="BG39" s="3" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -7654,6 +7774,9 @@
       <c r="BF40" s="1" t="n">
         <v>159.5</v>
       </c>
+      <c r="BG40" s="1" t="n">
+        <v>159.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -7830,6 +7953,9 @@
       <c r="BF41" s="3" t="n">
         <v>136</v>
       </c>
+      <c r="BG41" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -8006,6 +8132,9 @@
       <c r="BF42" s="1" t="n">
         <v>199</v>
       </c>
+      <c r="BG42" s="1" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -8182,6 +8311,9 @@
       <c r="BF43" s="2" t="n">
         <v>118.9</v>
       </c>
+      <c r="BG43" s="2" t="n">
+        <v>118.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -8358,6 +8490,9 @@
       <c r="BF44" s="1" t="n">
         <v>168.8</v>
       </c>
+      <c r="BG44" s="1" t="n">
+        <v>168.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -8534,6 +8669,9 @@
       <c r="BF45" s="2" t="n">
         <v>103.1</v>
       </c>
+      <c r="BG45" s="2" t="n">
+        <v>103.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -8710,6 +8848,9 @@
       <c r="BF46" s="3" t="n">
         <v>127.6</v>
       </c>
+      <c r="BG46" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -8886,6 +9027,9 @@
       <c r="BF47" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="BG47" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -9062,6 +9206,9 @@
       <c r="BF48" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="BG48" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -9238,6 +9385,9 @@
       <c r="BF49" s="3" t="n">
         <v>127.6</v>
       </c>
+      <c r="BG49" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -9414,6 +9564,9 @@
       <c r="BF50" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="BG50" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -9590,6 +9743,9 @@
       <c r="BF51" s="2" t="n">
         <v>108.6</v>
       </c>
+      <c r="BG51" s="2" t="n">
+        <v>108.6</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -9766,6 +9922,9 @@
       <c r="BF52" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="BG52" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -9940,6 +10099,9 @@
         <v>175.1</v>
       </c>
       <c r="BF53" s="1" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="BG53" s="1" t="n">
         <v>155.9</v>
       </c>
     </row>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -972,8 +972,8 @@
       <c r="BF2" s="1" t="n">
         <v>189.6</v>
       </c>
-      <c r="BG2" s="1" t="n">
-        <v>189.6</v>
+      <c r="BG2" s="3" t="n">
+        <v>139.4</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -1152,7 +1152,7 @@
         <v>205.9</v>
       </c>
       <c r="BG3" s="1" t="n">
-        <v>205.9</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -1330,8 +1330,8 @@
       <c r="BF4" s="1" t="n">
         <v>164.3</v>
       </c>
-      <c r="BG4" s="1" t="n">
-        <v>164.3</v>
+      <c r="BG4" s="2" t="n">
+        <v>118.8</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -1509,8 +1509,8 @@
       <c r="BF5" s="3" t="n">
         <v>136.3</v>
       </c>
-      <c r="BG5" s="3" t="n">
-        <v>136.3</v>
+      <c r="BG5" s="2" t="n">
+        <v>111.4</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -1689,7 +1689,7 @@
         <v>140.4</v>
       </c>
       <c r="BG6" s="1" t="n">
-        <v>140.4</v>
+        <v>255.5</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -1867,8 +1867,8 @@
       <c r="BF7" s="3" t="n">
         <v>135.2</v>
       </c>
-      <c r="BG7" s="3" t="n">
-        <v>135.2</v>
+      <c r="BG7" s="1" t="n">
+        <v>142.9</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -2046,8 +2046,8 @@
       <c r="BF8" s="1" t="n">
         <v>149.4</v>
       </c>
-      <c r="BG8" s="1" t="n">
-        <v>149.4</v>
+      <c r="BG8" s="3" t="n">
+        <v>126.8</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -2226,7 +2226,7 @@
         <v>157.3</v>
       </c>
       <c r="BG9" s="1" t="n">
-        <v>157.3</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -2404,8 +2404,8 @@
       <c r="BF10" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="BG10" s="2" t="n">
-        <v>121</v>
+      <c r="BG10" s="1" t="n">
+        <v>148.7</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -2583,8 +2583,8 @@
       <c r="BF11" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="BG11" s="1" t="n">
-        <v>144</v>
+      <c r="BG11" s="3" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -2763,7 +2763,7 @@
         <v>156.5</v>
       </c>
       <c r="BG12" s="1" t="n">
-        <v>156.5</v>
+        <v>207.2</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -2942,7 +2942,7 @@
         <v>160.7</v>
       </c>
       <c r="BG13" s="1" t="n">
-        <v>160.7</v>
+        <v>162.4</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -3120,8 +3120,8 @@
       <c r="BF14" s="2" t="n">
         <v>119.6</v>
       </c>
-      <c r="BG14" s="2" t="n">
-        <v>119.6</v>
+      <c r="BG14" s="1" t="n">
+        <v>163.1</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -3299,8 +3299,8 @@
       <c r="BF15" s="3" t="n">
         <v>133.7</v>
       </c>
-      <c r="BG15" s="3" t="n">
-        <v>133.7</v>
+      <c r="BG15" s="1" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -3479,7 +3479,7 @@
         <v>149.9</v>
       </c>
       <c r="BG16" s="1" t="n">
-        <v>149.9</v>
+        <v>296.6</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -3658,7 +3658,7 @@
         <v>165.7</v>
       </c>
       <c r="BG17" s="1" t="n">
-        <v>165.7</v>
+        <v>176.6</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -3837,7 +3837,7 @@
         <v>142.5</v>
       </c>
       <c r="BG18" s="1" t="n">
-        <v>142.5</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -4015,8 +4015,8 @@
       <c r="BF19" s="2" t="n">
         <v>115.7</v>
       </c>
-      <c r="BG19" s="2" t="n">
-        <v>115.7</v>
+      <c r="BG19" s="1" t="n">
+        <v>154.2</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -4195,7 +4195,7 @@
         <v>180.1</v>
       </c>
       <c r="BG20" s="1" t="n">
-        <v>180.1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -4374,7 +4374,7 @@
         <v>158.1</v>
       </c>
       <c r="BG21" s="1" t="n">
-        <v>158.1</v>
+        <v>165.5</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -4552,8 +4552,8 @@
       <c r="BF22" s="2" t="n">
         <v>121.2</v>
       </c>
-      <c r="BG22" s="2" t="n">
-        <v>121.2</v>
+      <c r="BG22" s="3" t="n">
+        <v>128.3</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -4731,8 +4731,8 @@
       <c r="BF23" s="1" t="n">
         <v>168.4</v>
       </c>
-      <c r="BG23" s="1" t="n">
-        <v>168.4</v>
+      <c r="BG23" s="2" t="n">
+        <v>121.4</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -4911,7 +4911,7 @@
         <v>145.3</v>
       </c>
       <c r="BG24" s="1" t="n">
-        <v>145.3</v>
+        <v>160.4</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -5090,7 +5090,7 @@
         <v>140.8</v>
       </c>
       <c r="BG25" s="1" t="n">
-        <v>140.8</v>
+        <v>146.1</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -5268,8 +5268,8 @@
       <c r="BF26" s="2" t="n">
         <v>124.5</v>
       </c>
-      <c r="BG26" s="2" t="n">
-        <v>124.5</v>
+      <c r="BG26" s="3" t="n">
+        <v>139.2</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -5448,7 +5448,7 @@
         <v>153.4</v>
       </c>
       <c r="BG27" s="1" t="n">
-        <v>153.4</v>
+        <v>260.7</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -5626,8 +5626,8 @@
       <c r="BF28" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="BG28" s="2" t="n">
-        <v>117</v>
+      <c r="BG28" s="1" t="n">
+        <v>228.3</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -5806,7 +5806,7 @@
         <v>205.1</v>
       </c>
       <c r="BG29" s="1" t="n">
-        <v>205.1</v>
+        <v>141.2</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -5984,8 +5984,8 @@
       <c r="BF30" s="2" t="n">
         <v>124.7</v>
       </c>
-      <c r="BG30" s="2" t="n">
-        <v>124.7</v>
+      <c r="BG30" s="1" t="n">
+        <v>145.3</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -6164,7 +6164,7 @@
         <v>156.5</v>
       </c>
       <c r="BG31" s="1" t="n">
-        <v>156.5</v>
+        <v>173.9</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -6343,7 +6343,7 @@
         <v>148.5</v>
       </c>
       <c r="BG32" s="1" t="n">
-        <v>148.5</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -6521,8 +6521,8 @@
       <c r="BF33" s="3" t="n">
         <v>130.5</v>
       </c>
-      <c r="BG33" s="3" t="n">
-        <v>130.5</v>
+      <c r="BG33" s="1" t="n">
+        <v>155.2</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -6701,7 +6701,7 @@
         <v>165.4</v>
       </c>
       <c r="BG34" s="1" t="n">
-        <v>165.4</v>
+        <v>240.8</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -6880,7 +6880,7 @@
         <v>146.7</v>
       </c>
       <c r="BG35" s="1" t="n">
-        <v>146.7</v>
+        <v>142.6</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -7059,7 +7059,7 @@
         <v>135.7</v>
       </c>
       <c r="BG36" s="3" t="n">
-        <v>135.7</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -7238,7 +7238,7 @@
         <v>167.4</v>
       </c>
       <c r="BG37" s="1" t="n">
-        <v>167.4</v>
+        <v>163.7</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -7416,8 +7416,8 @@
       <c r="BF38" s="3" t="n">
         <v>127.3</v>
       </c>
-      <c r="BG38" s="3" t="n">
-        <v>127.3</v>
+      <c r="BG38" s="1" t="n">
+        <v>143.8</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -7596,7 +7596,7 @@
         <v>133.3</v>
       </c>
       <c r="BG39" s="3" t="n">
-        <v>133.3</v>
+        <v>130.2</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -7775,7 +7775,7 @@
         <v>159.5</v>
       </c>
       <c r="BG40" s="1" t="n">
-        <v>159.5</v>
+        <v>243.6</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -7953,8 +7953,8 @@
       <c r="BF41" s="3" t="n">
         <v>136</v>
       </c>
-      <c r="BG41" s="3" t="n">
-        <v>136</v>
+      <c r="BG41" s="1" t="n">
+        <v>197.9</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -8133,7 +8133,7 @@
         <v>199</v>
       </c>
       <c r="BG42" s="1" t="n">
-        <v>199</v>
+        <v>160.1</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -8311,8 +8311,8 @@
       <c r="BF43" s="2" t="n">
         <v>118.9</v>
       </c>
-      <c r="BG43" s="2" t="n">
-        <v>118.9</v>
+      <c r="BG43" s="1" t="n">
+        <v>153.6</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -8491,7 +8491,7 @@
         <v>168.8</v>
       </c>
       <c r="BG44" s="1" t="n">
-        <v>168.8</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -8669,8 +8669,8 @@
       <c r="BF45" s="2" t="n">
         <v>103.1</v>
       </c>
-      <c r="BG45" s="2" t="n">
-        <v>103.1</v>
+      <c r="BG45" s="1" t="n">
+        <v>144.5</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -8848,8 +8848,8 @@
       <c r="BF46" s="3" t="n">
         <v>127.6</v>
       </c>
-      <c r="BG46" s="3" t="n">
-        <v>127.6</v>
+      <c r="BG46" s="1" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -9028,7 +9028,7 @@
         <v>151.1</v>
       </c>
       <c r="BG47" s="1" t="n">
-        <v>151.1</v>
+        <v>238.9</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -9207,7 +9207,7 @@
         <v>154.4</v>
       </c>
       <c r="BG48" s="1" t="n">
-        <v>154.4</v>
+        <v>151.3</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -9385,8 +9385,8 @@
       <c r="BF49" s="3" t="n">
         <v>127.6</v>
       </c>
-      <c r="BG49" s="3" t="n">
-        <v>127.6</v>
+      <c r="BG49" s="1" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -9565,7 +9565,7 @@
         <v>150.9</v>
       </c>
       <c r="BG50" s="1" t="n">
-        <v>150.9</v>
+        <v>153.5</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -9743,8 +9743,8 @@
       <c r="BF51" s="2" t="n">
         <v>108.6</v>
       </c>
-      <c r="BG51" s="2" t="n">
-        <v>108.6</v>
+      <c r="BG51" s="1" t="n">
+        <v>161.1</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
@@ -9922,8 +9922,8 @@
       <c r="BF52" s="3" t="n">
         <v>138.8</v>
       </c>
-      <c r="BG52" s="3" t="n">
-        <v>138.8</v>
+      <c r="BG52" s="1" t="n">
+        <v>199.2</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
@@ -10102,7 +10102,7 @@
         <v>155.9</v>
       </c>
       <c r="BG53" s="1" t="n">
-        <v>155.9</v>
+        <v>164.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG53"/>
+  <dimension ref="A1:BH53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,7 @@
     <col width="12" customWidth="1" min="57" max="57"/>
     <col width="12" customWidth="1" min="58" max="58"/>
     <col width="12" customWidth="1" min="59" max="59"/>
+    <col width="12" customWidth="1" min="60" max="60"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -796,6 +797,11 @@
           <t>2024/11/06</t>
         </is>
       </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/07</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -975,6 +981,9 @@
       <c r="BG2" s="3" t="n">
         <v>139.4</v>
       </c>
+      <c r="BH2" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1154,6 +1163,9 @@
       <c r="BG3" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="BH3" s="2" t="n">
+        <v>110.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1333,6 +1345,9 @@
       <c r="BG4" s="2" t="n">
         <v>118.8</v>
       </c>
+      <c r="BH4" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1512,6 +1527,9 @@
       <c r="BG5" s="2" t="n">
         <v>111.4</v>
       </c>
+      <c r="BH5" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1691,6 +1709,9 @@
       <c r="BG6" s="1" t="n">
         <v>255.5</v>
       </c>
+      <c r="BH6" s="1" t="n">
+        <v>176.6</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1870,6 +1891,9 @@
       <c r="BG7" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="BH7" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2049,6 +2073,9 @@
       <c r="BG8" s="3" t="n">
         <v>126.8</v>
       </c>
+      <c r="BH8" s="2" t="n">
+        <v>115.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2228,6 +2255,9 @@
       <c r="BG9" s="1" t="n">
         <v>273</v>
       </c>
+      <c r="BH9" s="1" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2407,6 +2437,9 @@
       <c r="BG10" s="1" t="n">
         <v>148.7</v>
       </c>
+      <c r="BH10" s="2" t="n">
+        <v>106.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2586,6 +2619,9 @@
       <c r="BG11" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="BH11" s="2" t="n">
+        <v>122.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2765,6 +2801,9 @@
       <c r="BG12" s="1" t="n">
         <v>207.2</v>
       </c>
+      <c r="BH12" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2944,6 +2983,9 @@
       <c r="BG13" s="1" t="n">
         <v>162.4</v>
       </c>
+      <c r="BH13" s="3" t="n">
+        <v>130.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3123,6 +3165,9 @@
       <c r="BG14" s="1" t="n">
         <v>163.1</v>
       </c>
+      <c r="BH14" s="2" t="n">
+        <v>119.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3302,6 +3347,9 @@
       <c r="BG15" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="BH15" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3481,6 +3529,9 @@
       <c r="BG16" s="1" t="n">
         <v>296.6</v>
       </c>
+      <c r="BH16" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3660,6 +3711,9 @@
       <c r="BG17" s="1" t="n">
         <v>176.6</v>
       </c>
+      <c r="BH17" s="1" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3839,6 +3893,9 @@
       <c r="BG18" s="1" t="n">
         <v>145.5</v>
       </c>
+      <c r="BH18" s="1" t="n">
+        <v>193.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4018,6 +4075,9 @@
       <c r="BG19" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="BH19" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4197,6 +4257,9 @@
       <c r="BG20" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="BH20" s="2" t="n">
+        <v>123.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4376,6 +4439,9 @@
       <c r="BG21" s="1" t="n">
         <v>165.5</v>
       </c>
+      <c r="BH21" s="1" t="n">
+        <v>159.5</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4555,6 +4621,9 @@
       <c r="BG22" s="3" t="n">
         <v>128.3</v>
       </c>
+      <c r="BH22" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4734,6 +4803,9 @@
       <c r="BG23" s="2" t="n">
         <v>121.4</v>
       </c>
+      <c r="BH23" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4913,6 +4985,9 @@
       <c r="BG24" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="BH24" s="1" t="n">
+        <v>181.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5092,6 +5167,9 @@
       <c r="BG25" s="1" t="n">
         <v>146.1</v>
       </c>
+      <c r="BH25" s="1" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5271,6 +5349,9 @@
       <c r="BG26" s="3" t="n">
         <v>139.2</v>
       </c>
+      <c r="BH26" s="3" t="n">
+        <v>130.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5450,6 +5531,9 @@
       <c r="BG27" s="1" t="n">
         <v>260.7</v>
       </c>
+      <c r="BH27" s="2" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5629,6 +5713,9 @@
       <c r="BG28" s="1" t="n">
         <v>228.3</v>
       </c>
+      <c r="BH28" s="3" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5808,6 +5895,9 @@
       <c r="BG29" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="BH29" s="1" t="n">
+        <v>200.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -5987,6 +6077,9 @@
       <c r="BG30" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="BH30" s="1" t="n">
+        <v>183.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -6166,6 +6259,9 @@
       <c r="BG31" s="1" t="n">
         <v>173.9</v>
       </c>
+      <c r="BH31" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -6345,6 +6441,9 @@
       <c r="BG32" s="1" t="n">
         <v>195</v>
       </c>
+      <c r="BH32" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -6524,6 +6623,9 @@
       <c r="BG33" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="BH33" s="3" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -6703,6 +6805,9 @@
       <c r="BG34" s="1" t="n">
         <v>240.8</v>
       </c>
+      <c r="BH34" s="3" t="n">
+        <v>133.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -6882,6 +6987,9 @@
       <c r="BG35" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="BH35" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -7061,6 +7169,9 @@
       <c r="BG36" s="3" t="n">
         <v>127.4</v>
       </c>
+      <c r="BH36" s="3" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -7240,6 +7351,9 @@
       <c r="BG37" s="1" t="n">
         <v>163.7</v>
       </c>
+      <c r="BH37" s="1" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -7419,6 +7533,9 @@
       <c r="BG38" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="BH38" s="1" t="n">
+        <v>154.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -7598,6 +7715,9 @@
       <c r="BG39" s="3" t="n">
         <v>130.2</v>
       </c>
+      <c r="BH39" s="3" t="n">
+        <v>125.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -7777,6 +7897,9 @@
       <c r="BG40" s="1" t="n">
         <v>243.6</v>
       </c>
+      <c r="BH40" s="2" t="n">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -7956,6 +8079,9 @@
       <c r="BG41" s="1" t="n">
         <v>197.9</v>
       </c>
+      <c r="BH41" s="1" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -8135,6 +8261,9 @@
       <c r="BG42" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="BH42" s="2" t="n">
+        <v>105.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -8314,6 +8443,9 @@
       <c r="BG43" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="BH43" s="1" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -8493,6 +8625,9 @@
       <c r="BG44" s="1" t="n">
         <v>161</v>
       </c>
+      <c r="BH44" s="3" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -8672,6 +8807,9 @@
       <c r="BG45" s="1" t="n">
         <v>144.5</v>
       </c>
+      <c r="BH45" s="1" t="n">
+        <v>158.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -8851,6 +8989,9 @@
       <c r="BG46" s="1" t="n">
         <v>159</v>
       </c>
+      <c r="BH46" s="3" t="n">
+        <v>132.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -9030,6 +9171,9 @@
       <c r="BG47" s="1" t="n">
         <v>238.9</v>
       </c>
+      <c r="BH47" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -9209,6 +9353,9 @@
       <c r="BG48" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="BH48" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -9388,6 +9535,9 @@
       <c r="BG49" s="1" t="n">
         <v>223</v>
       </c>
+      <c r="BH49" s="3" t="n">
+        <v>134.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -9567,6 +9717,9 @@
       <c r="BG50" s="1" t="n">
         <v>153.5</v>
       </c>
+      <c r="BH50" s="2" t="n">
+        <v>105.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -9746,6 +9899,9 @@
       <c r="BG51" s="1" t="n">
         <v>161.1</v>
       </c>
+      <c r="BH51" s="1" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -9925,6 +10081,9 @@
       <c r="BG52" s="1" t="n">
         <v>199.2</v>
       </c>
+      <c r="BH52" s="1" t="n">
+        <v>151.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -10103,6 +10262,9 @@
       </c>
       <c r="BG53" s="1" t="n">
         <v>164.9</v>
+      </c>
+      <c r="BH53" s="3" t="n">
+        <v>125.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH53"/>
+  <dimension ref="A1:BI53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,7 @@
     <col width="12" customWidth="1" min="58" max="58"/>
     <col width="12" customWidth="1" min="59" max="59"/>
     <col width="12" customWidth="1" min="60" max="60"/>
+    <col width="12" customWidth="1" min="61" max="61"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -802,6 +803,11 @@
           <t>2024/11/07</t>
         </is>
       </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/08</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -984,6 +990,9 @@
       <c r="BH2" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="BI2" s="1" t="n">
+        <v>153.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1166,6 +1175,9 @@
       <c r="BH3" s="2" t="n">
         <v>110.9</v>
       </c>
+      <c r="BI3" s="1" t="n">
+        <v>179.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1348,6 +1360,9 @@
       <c r="BH4" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="BI4" s="1" t="n">
+        <v>216.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1530,6 +1545,9 @@
       <c r="BH5" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="BI5" s="1" t="n">
+        <v>165.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1712,6 +1730,9 @@
       <c r="BH6" s="1" t="n">
         <v>176.6</v>
       </c>
+      <c r="BI6" s="1" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1894,6 +1915,9 @@
       <c r="BH7" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="BI7" s="3" t="n">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2076,6 +2100,9 @@
       <c r="BH8" s="2" t="n">
         <v>115.9</v>
       </c>
+      <c r="BI8" s="1" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2258,6 +2285,9 @@
       <c r="BH9" s="1" t="n">
         <v>190</v>
       </c>
+      <c r="BI9" s="1" t="n">
+        <v>155.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2440,6 +2470,9 @@
       <c r="BH10" s="2" t="n">
         <v>106.8</v>
       </c>
+      <c r="BI10" s="1" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2622,6 +2655,9 @@
       <c r="BH11" s="2" t="n">
         <v>122.2</v>
       </c>
+      <c r="BI11" s="1" t="n">
+        <v>166.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2804,6 +2840,9 @@
       <c r="BH12" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="BI12" s="1" t="n">
+        <v>147.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -2986,6 +3025,9 @@
       <c r="BH13" s="3" t="n">
         <v>130.6</v>
       </c>
+      <c r="BI13" s="1" t="n">
+        <v>454</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3168,6 +3210,9 @@
       <c r="BH14" s="2" t="n">
         <v>119.4</v>
       </c>
+      <c r="BI14" s="1" t="n">
+        <v>176.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3350,6 +3395,9 @@
       <c r="BH15" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="BI15" s="3" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3532,6 +3580,9 @@
       <c r="BH16" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="BI16" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3714,6 +3765,9 @@
       <c r="BH17" s="1" t="n">
         <v>181</v>
       </c>
+      <c r="BI17" s="2" t="n">
+        <v>122.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3896,6 +3950,9 @@
       <c r="BH18" s="1" t="n">
         <v>193.3</v>
       </c>
+      <c r="BI18" s="1" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4078,6 +4135,9 @@
       <c r="BH19" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="BI19" s="1" t="n">
+        <v>154.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4260,6 +4320,9 @@
       <c r="BH20" s="2" t="n">
         <v>123.3</v>
       </c>
+      <c r="BI20" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4442,6 +4505,9 @@
       <c r="BH21" s="1" t="n">
         <v>159.5</v>
       </c>
+      <c r="BI21" s="1" t="n">
+        <v>174.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4624,6 +4690,9 @@
       <c r="BH22" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="BI22" s="1" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4806,6 +4875,9 @@
       <c r="BH23" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="BI23" s="1" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -4988,6 +5060,9 @@
       <c r="BH24" s="1" t="n">
         <v>181.2</v>
       </c>
+      <c r="BI24" s="1" t="n">
+        <v>178.1</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5170,6 +5245,9 @@
       <c r="BH25" s="1" t="n">
         <v>150.6</v>
       </c>
+      <c r="BI25" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5352,6 +5430,9 @@
       <c r="BH26" s="3" t="n">
         <v>130.4</v>
       </c>
+      <c r="BI26" s="1" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5534,6 +5615,9 @@
       <c r="BH27" s="2" t="n">
         <v>114</v>
       </c>
+      <c r="BI27" s="1" t="n">
+        <v>193.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5716,6 +5800,9 @@
       <c r="BH28" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="BI28" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5898,6 +5985,9 @@
       <c r="BH29" s="1" t="n">
         <v>200.6</v>
       </c>
+      <c r="BI29" s="1" t="n">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -6080,6 +6170,9 @@
       <c r="BH30" s="1" t="n">
         <v>183.5</v>
       </c>
+      <c r="BI30" s="1" t="n">
+        <v>181.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -6262,6 +6355,9 @@
       <c r="BH31" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="BI31" s="1" t="n">
+        <v>161.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -6444,6 +6540,9 @@
       <c r="BH32" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="BI32" s="2" t="n">
+        <v>108.6</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -6626,6 +6725,9 @@
       <c r="BH33" s="3" t="n">
         <v>135.9</v>
       </c>
+      <c r="BI33" s="1" t="n">
+        <v>156.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -6808,6 +6910,9 @@
       <c r="BH34" s="3" t="n">
         <v>133.8</v>
       </c>
+      <c r="BI34" s="2" t="n">
+        <v>105.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -6990,6 +7095,9 @@
       <c r="BH35" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="BI35" s="1" t="n">
+        <v>178.7</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -7172,6 +7280,9 @@
       <c r="BH36" s="3" t="n">
         <v>134</v>
       </c>
+      <c r="BI36" s="3" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -7354,6 +7465,9 @@
       <c r="BH37" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="BI37" s="2" t="n">
+        <v>117.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -7536,6 +7650,9 @@
       <c r="BH38" s="1" t="n">
         <v>154.9</v>
       </c>
+      <c r="BI38" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -7718,6 +7835,9 @@
       <c r="BH39" s="3" t="n">
         <v>125.2</v>
       </c>
+      <c r="BI39" s="1" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -7900,6 +8020,9 @@
       <c r="BH40" s="2" t="n">
         <v>119.1</v>
       </c>
+      <c r="BI40" s="1" t="n">
+        <v>219.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -8082,6 +8205,9 @@
       <c r="BH41" s="1" t="n">
         <v>163.8</v>
       </c>
+      <c r="BI41" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -8264,6 +8390,9 @@
       <c r="BH42" s="2" t="n">
         <v>105.2</v>
       </c>
+      <c r="BI42" s="1" t="n">
+        <v>182.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -8446,6 +8575,9 @@
       <c r="BH43" s="1" t="n">
         <v>140.3</v>
       </c>
+      <c r="BI43" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -8628,6 +8760,9 @@
       <c r="BH44" s="3" t="n">
         <v>125</v>
       </c>
+      <c r="BI44" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -8810,6 +8945,9 @@
       <c r="BH45" s="1" t="n">
         <v>158.5</v>
       </c>
+      <c r="BI45" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -8992,6 +9130,9 @@
       <c r="BH46" s="3" t="n">
         <v>132.1</v>
       </c>
+      <c r="BI46" s="1" t="n">
+        <v>176.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -9174,6 +9315,9 @@
       <c r="BH47" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="BI47" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -9356,6 +9500,9 @@
       <c r="BH48" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="BI48" s="1" t="n">
+        <v>211.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -9538,6 +9685,9 @@
       <c r="BH49" s="3" t="n">
         <v>134.6</v>
       </c>
+      <c r="BI49" s="1" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -9720,6 +9870,9 @@
       <c r="BH50" s="2" t="n">
         <v>105.7</v>
       </c>
+      <c r="BI50" s="1" t="n">
+        <v>147.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -9902,6 +10055,9 @@
       <c r="BH51" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="BI51" s="3" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -10084,6 +10240,9 @@
       <c r="BH52" s="1" t="n">
         <v>151.4</v>
       </c>
+      <c r="BI52" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -10265,6 +10424,9 @@
       </c>
       <c r="BH53" s="3" t="n">
         <v>125.8</v>
+      </c>
+      <c r="BI53" s="1" t="n">
+        <v>165.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI53"/>
+  <dimension ref="A1:BJ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,7 @@
     <col width="12" customWidth="1" min="59" max="59"/>
     <col width="12" customWidth="1" min="60" max="60"/>
     <col width="12" customWidth="1" min="61" max="61"/>
+    <col width="12" customWidth="1" min="62" max="62"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -808,6 +809,11 @@
           <t>2024/11/08</t>
         </is>
       </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/09</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -993,6 +999,9 @@
       <c r="BI2" s="1" t="n">
         <v>153.8</v>
       </c>
+      <c r="BJ2" s="3" t="n">
+        <v>138.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1178,6 +1187,9 @@
       <c r="BI3" s="1" t="n">
         <v>179.8</v>
       </c>
+      <c r="BJ3" s="1" t="n">
+        <v>165.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1363,6 +1375,9 @@
       <c r="BI4" s="1" t="n">
         <v>216.1</v>
       </c>
+      <c r="BJ4" s="2" t="n">
+        <v>122.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1548,6 +1563,9 @@
       <c r="BI5" s="1" t="n">
         <v>165.8</v>
       </c>
+      <c r="BJ5" s="1" t="n">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1733,6 +1751,9 @@
       <c r="BI6" s="1" t="n">
         <v>331</v>
       </c>
+      <c r="BJ6" s="1" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1918,6 +1939,9 @@
       <c r="BI7" s="3" t="n">
         <v>128.6</v>
       </c>
+      <c r="BJ7" s="1" t="n">
+        <v>160.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2103,6 +2127,9 @@
       <c r="BI8" s="1" t="n">
         <v>156.6</v>
       </c>
+      <c r="BJ8" s="1" t="n">
+        <v>281.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2288,6 +2315,9 @@
       <c r="BI9" s="1" t="n">
         <v>155.6</v>
       </c>
+      <c r="BJ9" s="1" t="n">
+        <v>172.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2473,6 +2503,9 @@
       <c r="BI10" s="1" t="n">
         <v>143.1</v>
       </c>
+      <c r="BJ10" s="1" t="n">
+        <v>190.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2658,6 +2691,9 @@
       <c r="BI11" s="1" t="n">
         <v>166.8</v>
       </c>
+      <c r="BJ11" s="2" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2843,6 +2879,9 @@
       <c r="BI12" s="1" t="n">
         <v>147.3</v>
       </c>
+      <c r="BJ12" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3028,6 +3067,9 @@
       <c r="BI13" s="1" t="n">
         <v>454</v>
       </c>
+      <c r="BJ13" s="3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3213,6 +3255,9 @@
       <c r="BI14" s="1" t="n">
         <v>176.4</v>
       </c>
+      <c r="BJ14" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3398,6 +3443,9 @@
       <c r="BI15" s="3" t="n">
         <v>129.5</v>
       </c>
+      <c r="BJ15" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3583,6 +3631,9 @@
       <c r="BI16" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="BJ16" s="3" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3768,6 +3819,9 @@
       <c r="BI17" s="2" t="n">
         <v>122.3</v>
       </c>
+      <c r="BJ17" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -3953,6 +4007,9 @@
       <c r="BI18" s="1" t="n">
         <v>239</v>
       </c>
+      <c r="BJ18" s="1" t="n">
+        <v>144.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4138,6 +4195,9 @@
       <c r="BI19" s="1" t="n">
         <v>154.6</v>
       </c>
+      <c r="BJ19" s="1" t="n">
+        <v>284</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4323,6 +4383,9 @@
       <c r="BI20" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="BJ20" s="1" t="n">
+        <v>217.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4508,6 +4571,9 @@
       <c r="BI21" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="BJ21" s="1" t="n">
+        <v>176.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4693,6 +4759,9 @@
       <c r="BI22" s="1" t="n">
         <v>156.1</v>
       </c>
+      <c r="BJ22" s="1" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4878,6 +4947,9 @@
       <c r="BI23" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="BJ23" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5063,6 +5135,9 @@
       <c r="BI24" s="1" t="n">
         <v>178.1</v>
       </c>
+      <c r="BJ24" s="1" t="n">
+        <v>230.1</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5248,6 +5323,9 @@
       <c r="BI25" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="BJ25" s="1" t="n">
+        <v>180.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5433,6 +5511,9 @@
       <c r="BI26" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="BJ26" s="1" t="n">
+        <v>143.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5618,6 +5699,9 @@
       <c r="BI27" s="1" t="n">
         <v>193.5</v>
       </c>
+      <c r="BJ27" s="1" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5803,6 +5887,9 @@
       <c r="BI28" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="BJ28" s="1" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -5988,6 +6075,9 @@
       <c r="BI29" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="BJ29" s="1" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -6173,6 +6263,9 @@
       <c r="BI30" s="1" t="n">
         <v>181.1</v>
       </c>
+      <c r="BJ30" s="1" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -6358,6 +6451,9 @@
       <c r="BI31" s="1" t="n">
         <v>161.5</v>
       </c>
+      <c r="BJ31" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -6543,6 +6639,9 @@
       <c r="BI32" s="2" t="n">
         <v>108.6</v>
       </c>
+      <c r="BJ32" s="1" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -6728,6 +6827,9 @@
       <c r="BI33" s="1" t="n">
         <v>156.3</v>
       </c>
+      <c r="BJ33" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -6913,6 +7015,9 @@
       <c r="BI34" s="2" t="n">
         <v>105.3</v>
       </c>
+      <c r="BJ34" s="1" t="n">
+        <v>153.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -7098,6 +7203,9 @@
       <c r="BI35" s="1" t="n">
         <v>178.7</v>
       </c>
+      <c r="BJ35" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -7283,6 +7391,9 @@
       <c r="BI36" s="3" t="n">
         <v>129.5</v>
       </c>
+      <c r="BJ36" s="1" t="n">
+        <v>202.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -7468,6 +7579,9 @@
       <c r="BI37" s="2" t="n">
         <v>117.8</v>
       </c>
+      <c r="BJ37" s="2" t="n">
+        <v>113.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -7653,6 +7767,9 @@
       <c r="BI38" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="BJ38" s="1" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -7838,6 +7955,9 @@
       <c r="BI39" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="BJ39" s="1" t="n">
+        <v>174.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -8023,6 +8143,9 @@
       <c r="BI40" s="1" t="n">
         <v>219.2</v>
       </c>
+      <c r="BJ40" s="1" t="n">
+        <v>159.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -8208,6 +8331,9 @@
       <c r="BI41" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="BJ41" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -8393,6 +8519,9 @@
       <c r="BI42" s="1" t="n">
         <v>182.4</v>
       </c>
+      <c r="BJ42" s="1" t="n">
+        <v>172.5</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -8578,6 +8707,9 @@
       <c r="BI43" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="BJ43" s="1" t="n">
+        <v>192.3</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -8763,6 +8895,9 @@
       <c r="BI44" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="BJ44" s="1" t="n">
+        <v>195.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -8948,6 +9083,9 @@
       <c r="BI45" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="BJ45" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -9133,6 +9271,9 @@
       <c r="BI46" s="1" t="n">
         <v>176.6</v>
       </c>
+      <c r="BJ46" s="1" t="n">
+        <v>173.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -9318,6 +9459,9 @@
       <c r="BI47" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="BJ47" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -9503,6 +9647,9 @@
       <c r="BI48" s="1" t="n">
         <v>211.1</v>
       </c>
+      <c r="BJ48" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -9688,6 +9835,9 @@
       <c r="BI49" s="1" t="n">
         <v>225</v>
       </c>
+      <c r="BJ49" s="1" t="n">
+        <v>175.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -9873,6 +10023,9 @@
       <c r="BI50" s="1" t="n">
         <v>147.3</v>
       </c>
+      <c r="BJ50" s="2" t="n">
+        <v>113.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -10058,6 +10211,9 @@
       <c r="BI51" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="BJ51" s="2" t="n">
+        <v>122.9</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -10243,6 +10399,9 @@
       <c r="BI52" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="BJ52" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -10427,6 +10586,9 @@
       </c>
       <c r="BI53" s="1" t="n">
         <v>165.7</v>
+      </c>
+      <c r="BJ53" s="1" t="n">
+        <v>144.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ53"/>
+  <dimension ref="A1:BK53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,7 @@
     <col width="12" customWidth="1" min="60" max="60"/>
     <col width="12" customWidth="1" min="61" max="61"/>
     <col width="12" customWidth="1" min="62" max="62"/>
+    <col width="12" customWidth="1" min="63" max="63"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -814,6 +815,11 @@
           <t>2024/11/09</t>
         </is>
       </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/10</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1002,6 +1008,9 @@
       <c r="BJ2" s="3" t="n">
         <v>138.2</v>
       </c>
+      <c r="BK2" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1190,6 +1199,9 @@
       <c r="BJ3" s="1" t="n">
         <v>165.9</v>
       </c>
+      <c r="BK3" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1378,6 +1390,9 @@
       <c r="BJ4" s="2" t="n">
         <v>122.1</v>
       </c>
+      <c r="BK4" s="1" t="n">
+        <v>171.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1566,6 +1581,9 @@
       <c r="BJ5" s="1" t="n">
         <v>152.4</v>
       </c>
+      <c r="BK5" s="1" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1754,6 +1772,9 @@
       <c r="BJ6" s="1" t="n">
         <v>155.3</v>
       </c>
+      <c r="BK6" s="1" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1942,6 +1963,9 @@
       <c r="BJ7" s="1" t="n">
         <v>160.2</v>
       </c>
+      <c r="BK7" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2130,6 +2154,9 @@
       <c r="BJ8" s="1" t="n">
         <v>281.5</v>
       </c>
+      <c r="BK8" s="2" t="n">
+        <v>113.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2318,6 +2345,9 @@
       <c r="BJ9" s="1" t="n">
         <v>172.3</v>
       </c>
+      <c r="BK9" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2506,6 +2536,9 @@
       <c r="BJ10" s="1" t="n">
         <v>190.2</v>
       </c>
+      <c r="BK10" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2694,6 +2727,9 @@
       <c r="BJ11" s="2" t="n">
         <v>123.4</v>
       </c>
+      <c r="BK11" s="1" t="n">
+        <v>145.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2882,6 +2918,9 @@
       <c r="BJ12" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="BK12" s="2" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3070,6 +3109,9 @@
       <c r="BJ13" s="3" t="n">
         <v>126</v>
       </c>
+      <c r="BK13" s="3" t="n">
+        <v>136.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3258,6 +3300,9 @@
       <c r="BJ14" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="BK14" s="1" t="n">
+        <v>174.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3446,6 +3491,9 @@
       <c r="BJ15" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="BK15" s="2" t="n">
+        <v>114.9</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3634,6 +3682,9 @@
       <c r="BJ16" s="3" t="n">
         <v>135.7</v>
       </c>
+      <c r="BK16" s="1" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3822,6 +3873,9 @@
       <c r="BJ17" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="BK17" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4010,6 +4064,9 @@
       <c r="BJ18" s="1" t="n">
         <v>144.5</v>
       </c>
+      <c r="BK18" s="1" t="n">
+        <v>146.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4198,6 +4255,9 @@
       <c r="BJ19" s="1" t="n">
         <v>284</v>
       </c>
+      <c r="BK19" s="1" t="n">
+        <v>152.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4386,6 +4446,9 @@
       <c r="BJ20" s="1" t="n">
         <v>217.7</v>
       </c>
+      <c r="BK20" s="1" t="n">
+        <v>231.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4574,6 +4637,9 @@
       <c r="BJ21" s="1" t="n">
         <v>176.3</v>
       </c>
+      <c r="BK21" s="3" t="n">
+        <v>125.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4762,6 +4828,9 @@
       <c r="BJ22" s="1" t="n">
         <v>140.8</v>
       </c>
+      <c r="BK22" s="1" t="n">
+        <v>182.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -4950,6 +5019,9 @@
       <c r="BJ23" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="BK23" s="1" t="n">
+        <v>152.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5138,6 +5210,9 @@
       <c r="BJ24" s="1" t="n">
         <v>230.1</v>
       </c>
+      <c r="BK24" s="3" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5326,6 +5401,9 @@
       <c r="BJ25" s="1" t="n">
         <v>180.6</v>
       </c>
+      <c r="BK25" s="2" t="n">
+        <v>122.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5514,6 +5592,9 @@
       <c r="BJ26" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="BK26" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5702,6 +5783,9 @@
       <c r="BJ27" s="1" t="n">
         <v>165</v>
       </c>
+      <c r="BK27" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5890,6 +5974,9 @@
       <c r="BJ28" s="1" t="n">
         <v>141.9</v>
       </c>
+      <c r="BK28" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6078,6 +6165,9 @@
       <c r="BJ29" s="1" t="n">
         <v>174</v>
       </c>
+      <c r="BK29" s="2" t="n">
+        <v>120.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -6266,6 +6356,9 @@
       <c r="BJ30" s="1" t="n">
         <v>161.4</v>
       </c>
+      <c r="BK30" s="3" t="n">
+        <v>132.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -6454,6 +6547,9 @@
       <c r="BJ31" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="BK31" s="1" t="n">
+        <v>150.2</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -6642,6 +6738,9 @@
       <c r="BJ32" s="1" t="n">
         <v>204</v>
       </c>
+      <c r="BK32" s="3" t="n">
+        <v>125.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -6830,6 +6929,9 @@
       <c r="BJ33" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="BK33" s="1" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -7018,6 +7120,9 @@
       <c r="BJ34" s="1" t="n">
         <v>153.7</v>
       </c>
+      <c r="BK34" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -7206,6 +7311,9 @@
       <c r="BJ35" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="BK35" s="1" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -7394,6 +7502,9 @@
       <c r="BJ36" s="1" t="n">
         <v>202.1</v>
       </c>
+      <c r="BK36" s="2" t="n">
+        <v>112.9</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -7582,6 +7693,9 @@
       <c r="BJ37" s="2" t="n">
         <v>113.8</v>
       </c>
+      <c r="BK37" s="1" t="n">
+        <v>196.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -7770,6 +7884,9 @@
       <c r="BJ38" s="1" t="n">
         <v>214</v>
       </c>
+      <c r="BK38" s="1" t="n">
+        <v>166.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -7958,6 +8075,9 @@
       <c r="BJ39" s="1" t="n">
         <v>174.6</v>
       </c>
+      <c r="BK39" s="3" t="n">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -8146,6 +8266,9 @@
       <c r="BJ40" s="1" t="n">
         <v>159.9</v>
       </c>
+      <c r="BK40" s="2" t="n">
+        <v>110.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -8334,6 +8457,9 @@
       <c r="BJ41" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="BK41" s="3" t="n">
+        <v>139.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -8522,6 +8648,9 @@
       <c r="BJ42" s="1" t="n">
         <v>172.5</v>
       </c>
+      <c r="BK42" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -8710,6 +8839,9 @@
       <c r="BJ43" s="1" t="n">
         <v>192.3</v>
       </c>
+      <c r="BK43" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -8898,6 +9030,9 @@
       <c r="BJ44" s="1" t="n">
         <v>195.6</v>
       </c>
+      <c r="BK44" s="1" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -9086,6 +9221,9 @@
       <c r="BJ45" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="BK45" s="2" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -9274,6 +9412,9 @@
       <c r="BJ46" s="1" t="n">
         <v>173.3</v>
       </c>
+      <c r="BK46" s="1" t="n">
+        <v>165.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -9462,6 +9603,9 @@
       <c r="BJ47" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="BK47" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -9650,6 +9794,9 @@
       <c r="BJ48" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="BK48" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -9838,6 +9985,9 @@
       <c r="BJ49" s="1" t="n">
         <v>175.4</v>
       </c>
+      <c r="BK49" s="1" t="n">
+        <v>183.5</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -10026,6 +10176,9 @@
       <c r="BJ50" s="2" t="n">
         <v>113.2</v>
       </c>
+      <c r="BK50" s="1" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -10214,6 +10367,9 @@
       <c r="BJ51" s="2" t="n">
         <v>122.9</v>
       </c>
+      <c r="BK51" s="1" t="n">
+        <v>146.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -10402,6 +10558,9 @@
       <c r="BJ52" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="BK52" s="3" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -10589,6 +10748,9 @@
       </c>
       <c r="BJ53" s="1" t="n">
         <v>144.1</v>
+      </c>
+      <c r="BK53" s="3" t="n">
+        <v>132.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK53"/>
+  <dimension ref="A1:BL53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,7 @@
     <col width="12" customWidth="1" min="61" max="61"/>
     <col width="12" customWidth="1" min="62" max="62"/>
     <col width="12" customWidth="1" min="63" max="63"/>
+    <col width="12" customWidth="1" min="64" max="64"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -820,6 +821,11 @@
           <t>2024/11/10</t>
         </is>
       </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/11</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1011,6 +1017,9 @@
       <c r="BK2" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="BL2" s="1" t="n">
+        <v>213.5</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1202,6 +1211,9 @@
       <c r="BK3" s="2" t="n">
         <v>121.8</v>
       </c>
+      <c r="BL3" s="1" t="n">
+        <v>144.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1393,6 +1405,9 @@
       <c r="BK4" s="1" t="n">
         <v>171.1</v>
       </c>
+      <c r="BL4" s="1" t="n">
+        <v>141.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1584,6 +1599,9 @@
       <c r="BK5" s="1" t="n">
         <v>143.1</v>
       </c>
+      <c r="BL5" s="3" t="n">
+        <v>131.7</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1775,6 +1793,9 @@
       <c r="BK6" s="1" t="n">
         <v>145.1</v>
       </c>
+      <c r="BL6" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1966,6 +1987,9 @@
       <c r="BK7" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="BL7" s="1" t="n">
+        <v>148.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2157,6 +2181,9 @@
       <c r="BK8" s="2" t="n">
         <v>113.8</v>
       </c>
+      <c r="BL8" s="1" t="n">
+        <v>140.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2348,6 +2375,9 @@
       <c r="BK9" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="BL9" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2539,6 +2569,9 @@
       <c r="BK10" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="BL10" s="3" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2730,6 +2763,9 @@
       <c r="BK11" s="1" t="n">
         <v>145.2</v>
       </c>
+      <c r="BL11" s="1" t="n">
+        <v>162.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2921,6 +2957,9 @@
       <c r="BK12" s="2" t="n">
         <v>115</v>
       </c>
+      <c r="BL12" s="2" t="n">
+        <v>123.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3112,6 +3151,9 @@
       <c r="BK13" s="3" t="n">
         <v>136.3</v>
       </c>
+      <c r="BL13" s="3" t="n">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3303,6 +3345,9 @@
       <c r="BK14" s="1" t="n">
         <v>174.2</v>
       </c>
+      <c r="BL14" s="1" t="n">
+        <v>143.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3494,6 +3539,9 @@
       <c r="BK15" s="2" t="n">
         <v>114.9</v>
       </c>
+      <c r="BL15" s="1" t="n">
+        <v>202.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3685,6 +3733,9 @@
       <c r="BK16" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="BL16" s="1" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3876,6 +3927,9 @@
       <c r="BK17" s="3" t="n">
         <v>135.8</v>
       </c>
+      <c r="BL17" s="1" t="n">
+        <v>180.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4067,6 +4121,9 @@
       <c r="BK18" s="1" t="n">
         <v>146.3</v>
       </c>
+      <c r="BL18" s="1" t="n">
+        <v>214.4</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4258,6 +4315,9 @@
       <c r="BK19" s="1" t="n">
         <v>152.6</v>
       </c>
+      <c r="BL19" s="2" t="n">
+        <v>117.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4449,6 +4509,9 @@
       <c r="BK20" s="1" t="n">
         <v>231.5</v>
       </c>
+      <c r="BL20" s="1" t="n">
+        <v>162.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4640,6 +4703,9 @@
       <c r="BK21" s="3" t="n">
         <v>125.7</v>
       </c>
+      <c r="BL21" s="1" t="n">
+        <v>164.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4831,6 +4897,9 @@
       <c r="BK22" s="1" t="n">
         <v>182.3</v>
       </c>
+      <c r="BL22" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5022,6 +5091,9 @@
       <c r="BK23" s="1" t="n">
         <v>152.3</v>
       </c>
+      <c r="BL23" s="1" t="n">
+        <v>164.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5213,6 +5285,9 @@
       <c r="BK24" s="3" t="n">
         <v>133</v>
       </c>
+      <c r="BL24" s="1" t="n">
+        <v>190.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5404,6 +5479,9 @@
       <c r="BK25" s="2" t="n">
         <v>122.5</v>
       </c>
+      <c r="BL25" s="1" t="n">
+        <v>197.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5595,6 +5673,9 @@
       <c r="BK26" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="BL26" s="1" t="n">
+        <v>164.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5786,6 +5867,9 @@
       <c r="BK27" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="BL27" s="1" t="n">
+        <v>174.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -5977,6 +6061,9 @@
       <c r="BK28" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="BL28" s="1" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6168,6 +6255,9 @@
       <c r="BK29" s="2" t="n">
         <v>120.4</v>
       </c>
+      <c r="BL29" s="1" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -6359,6 +6449,9 @@
       <c r="BK30" s="3" t="n">
         <v>132.1</v>
       </c>
+      <c r="BL30" s="3" t="n">
+        <v>129.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -6550,6 +6643,9 @@
       <c r="BK31" s="1" t="n">
         <v>150.2</v>
       </c>
+      <c r="BL31" s="1" t="n">
+        <v>179.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -6741,6 +6837,9 @@
       <c r="BK32" s="3" t="n">
         <v>125.4</v>
       </c>
+      <c r="BL32" s="3" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -6932,6 +7031,9 @@
       <c r="BK33" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="BL33" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -7123,6 +7225,9 @@
       <c r="BK34" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="BL34" s="1" t="n">
+        <v>239.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -7314,6 +7419,9 @@
       <c r="BK35" s="1" t="n">
         <v>189</v>
       </c>
+      <c r="BL35" s="1" t="n">
+        <v>185.6</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -7505,6 +7613,9 @@
       <c r="BK36" s="2" t="n">
         <v>112.9</v>
       </c>
+      <c r="BL36" s="1" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -7696,6 +7807,9 @@
       <c r="BK37" s="1" t="n">
         <v>196.9</v>
       </c>
+      <c r="BL37" s="1" t="n">
+        <v>174.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -7887,6 +8001,9 @@
       <c r="BK38" s="1" t="n">
         <v>166.9</v>
       </c>
+      <c r="BL38" s="3" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -8078,6 +8195,9 @@
       <c r="BK39" s="3" t="n">
         <v>135.6</v>
       </c>
+      <c r="BL39" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -8269,6 +8389,9 @@
       <c r="BK40" s="2" t="n">
         <v>110.1</v>
       </c>
+      <c r="BL40" s="1" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -8460,6 +8583,9 @@
       <c r="BK41" s="3" t="n">
         <v>139.7</v>
       </c>
+      <c r="BL41" s="1" t="n">
+        <v>157.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -8651,6 +8777,9 @@
       <c r="BK42" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="BL42" s="1" t="n">
+        <v>169.5</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -8842,6 +8971,9 @@
       <c r="BK43" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="BL43" s="2" t="n">
+        <v>120.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -9033,6 +9165,9 @@
       <c r="BK44" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="BL44" s="1" t="n">
+        <v>158.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -9224,6 +9359,9 @@
       <c r="BK45" s="2" t="n">
         <v>116</v>
       </c>
+      <c r="BL45" s="1" t="n">
+        <v>208.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -9415,6 +9553,9 @@
       <c r="BK46" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="BL46" s="1" t="n">
+        <v>176.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -9606,6 +9747,9 @@
       <c r="BK47" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="BL47" s="1" t="n">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -9797,6 +9941,9 @@
       <c r="BK48" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="BL48" s="1" t="n">
+        <v>146.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -9988,6 +10135,9 @@
       <c r="BK49" s="1" t="n">
         <v>183.5</v>
       </c>
+      <c r="BL49" s="1" t="n">
+        <v>146.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -10179,6 +10329,9 @@
       <c r="BK50" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="BL50" s="1" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -10370,6 +10523,9 @@
       <c r="BK51" s="1" t="n">
         <v>146.5</v>
       </c>
+      <c r="BL51" s="3" t="n">
+        <v>133.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -10561,6 +10717,9 @@
       <c r="BK52" s="3" t="n">
         <v>129.9</v>
       </c>
+      <c r="BL52" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -10751,6 +10910,9 @@
       </c>
       <c r="BK53" s="3" t="n">
         <v>132.7</v>
+      </c>
+      <c r="BL53" s="1" t="n">
+        <v>199.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BL53"/>
+  <dimension ref="A1:BM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,7 @@
     <col width="12" customWidth="1" min="62" max="62"/>
     <col width="12" customWidth="1" min="63" max="63"/>
     <col width="12" customWidth="1" min="64" max="64"/>
+    <col width="12" customWidth="1" min="65" max="65"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -826,6 +827,11 @@
           <t>2024/11/11</t>
         </is>
       </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/12</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1020,6 +1026,9 @@
       <c r="BL2" s="1" t="n">
         <v>213.5</v>
       </c>
+      <c r="BM2" s="2" t="n">
+        <v>124.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1214,6 +1223,9 @@
       <c r="BL3" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="BM3" s="1" t="n">
+        <v>172.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1408,6 +1420,9 @@
       <c r="BL4" s="1" t="n">
         <v>141.5</v>
       </c>
+      <c r="BM4" s="1" t="n">
+        <v>242.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1602,6 +1617,9 @@
       <c r="BL5" s="3" t="n">
         <v>131.7</v>
       </c>
+      <c r="BM5" s="1" t="n">
+        <v>156.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1796,6 +1814,9 @@
       <c r="BL6" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="BM6" s="2" t="n">
+        <v>123.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -1990,6 +2011,9 @@
       <c r="BL7" s="1" t="n">
         <v>148.6</v>
       </c>
+      <c r="BM7" s="1" t="n">
+        <v>627</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2184,6 +2208,9 @@
       <c r="BL8" s="1" t="n">
         <v>140.5</v>
       </c>
+      <c r="BM8" s="1" t="n">
+        <v>163.7</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2378,6 +2405,9 @@
       <c r="BL9" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="BM9" s="1" t="n">
+        <v>213.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2572,6 +2602,9 @@
       <c r="BL10" s="3" t="n">
         <v>134.8</v>
       </c>
+      <c r="BM10" s="1" t="n">
+        <v>186.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2766,6 +2799,9 @@
       <c r="BL11" s="1" t="n">
         <v>162.6</v>
       </c>
+      <c r="BM11" s="1" t="n">
+        <v>303.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2960,6 +2996,9 @@
       <c r="BL12" s="2" t="n">
         <v>123.7</v>
       </c>
+      <c r="BM12" s="1" t="n">
+        <v>158.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3154,6 +3193,9 @@
       <c r="BL13" s="3" t="n">
         <v>125.3</v>
       </c>
+      <c r="BM13" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3348,6 +3390,9 @@
       <c r="BL14" s="1" t="n">
         <v>143.9</v>
       </c>
+      <c r="BM14" s="2" t="n">
+        <v>107.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3542,6 +3587,9 @@
       <c r="BL15" s="1" t="n">
         <v>202.8</v>
       </c>
+      <c r="BM15" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3736,6 +3784,9 @@
       <c r="BL16" s="1" t="n">
         <v>153.9</v>
       </c>
+      <c r="BM16" s="2" t="n">
+        <v>117.8</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3930,6 +3981,9 @@
       <c r="BL17" s="1" t="n">
         <v>180.7</v>
       </c>
+      <c r="BM17" s="2" t="n">
+        <v>111.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4124,6 +4178,9 @@
       <c r="BL18" s="1" t="n">
         <v>214.4</v>
       </c>
+      <c r="BM18" s="1" t="n">
+        <v>151.4</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4318,6 +4375,9 @@
       <c r="BL19" s="2" t="n">
         <v>117.5</v>
       </c>
+      <c r="BM19" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4512,6 +4572,9 @@
       <c r="BL20" s="1" t="n">
         <v>162.6</v>
       </c>
+      <c r="BM20" s="3" t="n">
+        <v>136.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4706,6 +4769,9 @@
       <c r="BL21" s="1" t="n">
         <v>164.7</v>
       </c>
+      <c r="BM21" s="2" t="n">
+        <v>121.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4900,6 +4966,9 @@
       <c r="BL22" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="BM22" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5094,6 +5163,9 @@
       <c r="BL23" s="1" t="n">
         <v>164.8</v>
       </c>
+      <c r="BM23" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5288,6 +5360,9 @@
       <c r="BL24" s="1" t="n">
         <v>190.8</v>
       </c>
+      <c r="BM24" s="1" t="n">
+        <v>168.1</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5482,6 +5557,9 @@
       <c r="BL25" s="1" t="n">
         <v>197.2</v>
       </c>
+      <c r="BM25" s="3" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5676,6 +5754,9 @@
       <c r="BL26" s="1" t="n">
         <v>164.4</v>
       </c>
+      <c r="BM26" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5870,6 +5951,9 @@
       <c r="BL27" s="1" t="n">
         <v>174.1</v>
       </c>
+      <c r="BM27" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6064,6 +6148,9 @@
       <c r="BL28" s="1" t="n">
         <v>187.8</v>
       </c>
+      <c r="BM28" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6258,6 +6345,9 @@
       <c r="BL29" s="1" t="n">
         <v>185.5</v>
       </c>
+      <c r="BM29" s="1" t="n">
+        <v>179.8</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -6452,6 +6542,9 @@
       <c r="BL30" s="3" t="n">
         <v>129.7</v>
       </c>
+      <c r="BM30" s="1" t="n">
+        <v>207.3</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -6646,6 +6739,9 @@
       <c r="BL31" s="1" t="n">
         <v>179.9</v>
       </c>
+      <c r="BM31" s="1" t="n">
+        <v>180.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -6840,6 +6936,9 @@
       <c r="BL32" s="3" t="n">
         <v>128</v>
       </c>
+      <c r="BM32" s="3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -7034,6 +7133,9 @@
       <c r="BL33" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="BM33" s="1" t="n">
+        <v>144.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -7228,6 +7330,9 @@
       <c r="BL34" s="1" t="n">
         <v>239.8</v>
       </c>
+      <c r="BM34" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -7422,6 +7527,9 @@
       <c r="BL35" s="1" t="n">
         <v>185.6</v>
       </c>
+      <c r="BM35" s="3" t="n">
+        <v>126.3</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -7616,6 +7724,9 @@
       <c r="BL36" s="1" t="n">
         <v>159</v>
       </c>
+      <c r="BM36" s="1" t="n">
+        <v>183.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -7810,6 +7921,9 @@
       <c r="BL37" s="1" t="n">
         <v>174.1</v>
       </c>
+      <c r="BM37" s="3" t="n">
+        <v>138.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -8004,6 +8118,9 @@
       <c r="BL38" s="3" t="n">
         <v>133.9</v>
       </c>
+      <c r="BM38" s="1" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -8198,6 +8315,9 @@
       <c r="BL39" s="1" t="n">
         <v>146.6</v>
       </c>
+      <c r="BM39" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -8392,6 +8512,9 @@
       <c r="BL40" s="1" t="n">
         <v>209</v>
       </c>
+      <c r="BM40" s="2" t="n">
+        <v>122.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -8586,6 +8709,9 @@
       <c r="BL41" s="1" t="n">
         <v>157.4</v>
       </c>
+      <c r="BM41" s="3" t="n">
+        <v>126.2</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -8780,6 +8906,9 @@
       <c r="BL42" s="1" t="n">
         <v>169.5</v>
       </c>
+      <c r="BM42" s="1" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -8974,6 +9103,9 @@
       <c r="BL43" s="2" t="n">
         <v>120.9</v>
       </c>
+      <c r="BM43" s="1" t="n">
+        <v>181.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -9168,6 +9300,9 @@
       <c r="BL44" s="1" t="n">
         <v>158.5</v>
       </c>
+      <c r="BM44" s="2" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -9362,6 +9497,9 @@
       <c r="BL45" s="1" t="n">
         <v>208.8</v>
       </c>
+      <c r="BM45" s="1" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -9556,6 +9694,9 @@
       <c r="BL46" s="1" t="n">
         <v>176.6</v>
       </c>
+      <c r="BM46" s="1" t="n">
+        <v>172.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -9750,6 +9891,9 @@
       <c r="BL47" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="BM47" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -9944,6 +10088,9 @@
       <c r="BL48" s="1" t="n">
         <v>146.3</v>
       </c>
+      <c r="BM48" s="1" t="n">
+        <v>153.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -10138,6 +10285,9 @@
       <c r="BL49" s="1" t="n">
         <v>146.2</v>
       </c>
+      <c r="BM49" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -10332,6 +10482,9 @@
       <c r="BL50" s="1" t="n">
         <v>212</v>
       </c>
+      <c r="BM50" s="3" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -10526,6 +10679,9 @@
       <c r="BL51" s="3" t="n">
         <v>133.5</v>
       </c>
+      <c r="BM51" s="1" t="n">
+        <v>238.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -10720,6 +10876,9 @@
       <c r="BL52" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="BM52" s="1" t="n">
+        <v>211.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -10913,6 +11072,9 @@
       </c>
       <c r="BL53" s="1" t="n">
         <v>199.2</v>
+      </c>
+      <c r="BM53" s="1" t="n">
+        <v>224.3</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM53"/>
+  <dimension ref="A1:BN53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,7 @@
     <col width="12" customWidth="1" min="63" max="63"/>
     <col width="12" customWidth="1" min="64" max="64"/>
     <col width="12" customWidth="1" min="65" max="65"/>
+    <col width="12" customWidth="1" min="66" max="66"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -832,6 +833,11 @@
           <t>2024/11/12</t>
         </is>
       </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/13</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1029,6 +1035,9 @@
       <c r="BM2" s="2" t="n">
         <v>124.1</v>
       </c>
+      <c r="BN2" s="3" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1226,6 +1235,9 @@
       <c r="BM3" s="1" t="n">
         <v>172.4</v>
       </c>
+      <c r="BN3" s="1" t="n">
+        <v>171.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1423,6 +1435,9 @@
       <c r="BM4" s="1" t="n">
         <v>242.8</v>
       </c>
+      <c r="BN4" s="1" t="n">
+        <v>230.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1620,6 +1635,9 @@
       <c r="BM5" s="1" t="n">
         <v>156.3</v>
       </c>
+      <c r="BN5" s="1" t="n">
+        <v>166.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1817,6 +1835,9 @@
       <c r="BM6" s="2" t="n">
         <v>123.9</v>
       </c>
+      <c r="BN6" s="1" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2014,6 +2035,9 @@
       <c r="BM7" s="1" t="n">
         <v>627</v>
       </c>
+      <c r="BN7" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2211,6 +2235,9 @@
       <c r="BM8" s="1" t="n">
         <v>163.7</v>
       </c>
+      <c r="BN8" s="3" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2408,6 +2435,9 @@
       <c r="BM9" s="1" t="n">
         <v>213.6</v>
       </c>
+      <c r="BN9" s="2" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2605,6 +2635,9 @@
       <c r="BM10" s="1" t="n">
         <v>186.2</v>
       </c>
+      <c r="BN10" s="3" t="n">
+        <v>131.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2802,6 +2835,9 @@
       <c r="BM11" s="1" t="n">
         <v>303.6</v>
       </c>
+      <c r="BN11" s="3" t="n">
+        <v>130.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -2999,6 +3035,9 @@
       <c r="BM12" s="1" t="n">
         <v>158.7</v>
       </c>
+      <c r="BN12" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3196,6 +3235,9 @@
       <c r="BM13" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="BN13" s="1" t="n">
+        <v>183.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3393,6 +3435,9 @@
       <c r="BM14" s="2" t="n">
         <v>107.4</v>
       </c>
+      <c r="BN14" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3590,6 +3635,9 @@
       <c r="BM15" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="BN15" s="1" t="n">
+        <v>195.7</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3787,6 +3835,9 @@
       <c r="BM16" s="2" t="n">
         <v>117.8</v>
       </c>
+      <c r="BN16" s="1" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -3984,6 +4035,9 @@
       <c r="BM17" s="2" t="n">
         <v>111.7</v>
       </c>
+      <c r="BN17" s="2" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4181,6 +4235,9 @@
       <c r="BM18" s="1" t="n">
         <v>151.4</v>
       </c>
+      <c r="BN18" s="2" t="n">
+        <v>107.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4378,6 +4435,9 @@
       <c r="BM19" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="BN19" s="1" t="n">
+        <v>209.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4575,6 +4635,9 @@
       <c r="BM20" s="3" t="n">
         <v>136.9</v>
       </c>
+      <c r="BN20" s="1" t="n">
+        <v>196.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4772,6 +4835,9 @@
       <c r="BM21" s="2" t="n">
         <v>121.3</v>
       </c>
+      <c r="BN21" s="1" t="n">
+        <v>178.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -4969,6 +5035,9 @@
       <c r="BM22" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="BN22" s="3" t="n">
+        <v>131.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5166,6 +5235,9 @@
       <c r="BM23" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="BN23" s="1" t="n">
+        <v>225.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5363,6 +5435,9 @@
       <c r="BM24" s="1" t="n">
         <v>168.1</v>
       </c>
+      <c r="BN24" s="1" t="n">
+        <v>147.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5560,6 +5635,9 @@
       <c r="BM25" s="3" t="n">
         <v>130</v>
       </c>
+      <c r="BN25" s="3" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5757,6 +5835,9 @@
       <c r="BM26" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="BN26" s="3" t="n">
+        <v>134.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -5954,6 +6035,9 @@
       <c r="BM27" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="BN27" s="1" t="n">
+        <v>250.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6151,6 +6235,9 @@
       <c r="BM28" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="BN28" s="1" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6348,6 +6435,9 @@
       <c r="BM29" s="1" t="n">
         <v>179.8</v>
       </c>
+      <c r="BN29" s="3" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -6545,6 +6635,9 @@
       <c r="BM30" s="1" t="n">
         <v>207.3</v>
       </c>
+      <c r="BN30" s="3" t="n">
+        <v>130.2</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -6742,6 +6835,9 @@
       <c r="BM31" s="1" t="n">
         <v>180.4</v>
       </c>
+      <c r="BN31" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -6939,6 +7035,9 @@
       <c r="BM32" s="3" t="n">
         <v>137</v>
       </c>
+      <c r="BN32" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -7136,6 +7235,9 @@
       <c r="BM33" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="BN33" s="1" t="n">
+        <v>160.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -7333,6 +7435,9 @@
       <c r="BM34" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="BN34" s="1" t="n">
+        <v>281.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -7530,6 +7635,9 @@
       <c r="BM35" s="3" t="n">
         <v>126.3</v>
       </c>
+      <c r="BN35" s="2" t="n">
+        <v>124.7</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -7727,6 +7835,9 @@
       <c r="BM36" s="1" t="n">
         <v>183.2</v>
       </c>
+      <c r="BN36" s="1" t="n">
+        <v>196.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -7924,6 +8035,9 @@
       <c r="BM37" s="3" t="n">
         <v>138.7</v>
       </c>
+      <c r="BN37" s="1" t="n">
+        <v>194.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -8121,6 +8235,9 @@
       <c r="BM38" s="1" t="n">
         <v>147</v>
       </c>
+      <c r="BN38" s="2" t="n">
+        <v>120.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -8318,6 +8435,9 @@
       <c r="BM39" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="BN39" s="3" t="n">
+        <v>125.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -8515,6 +8635,9 @@
       <c r="BM40" s="2" t="n">
         <v>122.1</v>
       </c>
+      <c r="BN40" s="2" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -8712,6 +8835,9 @@
       <c r="BM41" s="3" t="n">
         <v>126.2</v>
       </c>
+      <c r="BN41" s="1" t="n">
+        <v>152.3</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -8909,6 +9035,9 @@
       <c r="BM42" s="1" t="n">
         <v>274</v>
       </c>
+      <c r="BN42" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -9106,6 +9235,9 @@
       <c r="BM43" s="1" t="n">
         <v>181.1</v>
       </c>
+      <c r="BN43" s="1" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -9303,6 +9435,9 @@
       <c r="BM44" s="2" t="n">
         <v>119.7</v>
       </c>
+      <c r="BN44" s="2" t="n">
+        <v>122.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -9500,6 +9635,9 @@
       <c r="BM45" s="1" t="n">
         <v>182</v>
       </c>
+      <c r="BN45" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -9697,6 +9835,9 @@
       <c r="BM46" s="1" t="n">
         <v>172.3</v>
       </c>
+      <c r="BN46" s="1" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -9894,6 +10035,9 @@
       <c r="BM47" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="BN47" s="1" t="n">
+        <v>266.5</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -10091,6 +10235,9 @@
       <c r="BM48" s="1" t="n">
         <v>153.7</v>
       </c>
+      <c r="BN48" s="1" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -10288,6 +10435,9 @@
       <c r="BM49" s="1" t="n">
         <v>146.6</v>
       </c>
+      <c r="BN49" s="1" t="n">
+        <v>265.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -10485,6 +10635,9 @@
       <c r="BM50" s="3" t="n">
         <v>133.6</v>
       </c>
+      <c r="BN50" s="1" t="n">
+        <v>161.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -10682,6 +10835,9 @@
       <c r="BM51" s="1" t="n">
         <v>238.4</v>
       </c>
+      <c r="BN51" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -10879,6 +11035,9 @@
       <c r="BM52" s="1" t="n">
         <v>211.4</v>
       </c>
+      <c r="BN52" s="1" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -11075,6 +11234,9 @@
       </c>
       <c r="BM53" s="1" t="n">
         <v>224.3</v>
+      </c>
+      <c r="BN53" s="3" t="n">
+        <v>133.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN53"/>
+  <dimension ref="A1:BO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,7 @@
     <col width="12" customWidth="1" min="64" max="64"/>
     <col width="12" customWidth="1" min="65" max="65"/>
     <col width="12" customWidth="1" min="66" max="66"/>
+    <col width="12" customWidth="1" min="67" max="67"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -838,6 +839,11 @@
           <t>2024/11/13</t>
         </is>
       </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/14</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1038,6 +1044,9 @@
       <c r="BN2" s="3" t="n">
         <v>136.7</v>
       </c>
+      <c r="BO2" s="1" t="n">
+        <v>172.5</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1238,6 +1247,9 @@
       <c r="BN3" s="1" t="n">
         <v>171.5</v>
       </c>
+      <c r="BO3" s="1" t="n">
+        <v>160.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1438,6 +1450,9 @@
       <c r="BN4" s="1" t="n">
         <v>230.1</v>
       </c>
+      <c r="BO4" s="2" t="n">
+        <v>117.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1638,6 +1653,9 @@
       <c r="BN5" s="1" t="n">
         <v>166.8</v>
       </c>
+      <c r="BO5" s="1" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1838,6 +1856,9 @@
       <c r="BN6" s="1" t="n">
         <v>338</v>
       </c>
+      <c r="BO6" s="2" t="n">
+        <v>118.6</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2038,6 +2059,9 @@
       <c r="BN7" s="3" t="n">
         <v>129</v>
       </c>
+      <c r="BO7" s="1" t="n">
+        <v>175.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2238,6 +2262,9 @@
       <c r="BN8" s="3" t="n">
         <v>125.9</v>
       </c>
+      <c r="BO8" s="2" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2438,6 +2465,9 @@
       <c r="BN9" s="2" t="n">
         <v>121.2</v>
       </c>
+      <c r="BO9" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2638,6 +2668,9 @@
       <c r="BN10" s="3" t="n">
         <v>131.3</v>
       </c>
+      <c r="BO10" s="1" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2838,6 +2871,9 @@
       <c r="BN11" s="3" t="n">
         <v>130.9</v>
       </c>
+      <c r="BO11" s="1" t="n">
+        <v>153.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3038,6 +3074,9 @@
       <c r="BN12" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="BO12" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3238,6 +3277,9 @@
       <c r="BN13" s="1" t="n">
         <v>183.9</v>
       </c>
+      <c r="BO13" s="1" t="n">
+        <v>158.8</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3438,6 +3480,9 @@
       <c r="BN14" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="BO14" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3638,6 +3683,9 @@
       <c r="BN15" s="1" t="n">
         <v>195.7</v>
       </c>
+      <c r="BO15" s="1" t="n">
+        <v>221.5</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3838,6 +3886,9 @@
       <c r="BN16" s="1" t="n">
         <v>150.6</v>
       </c>
+      <c r="BO16" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4038,6 +4089,9 @@
       <c r="BN17" s="2" t="n">
         <v>121</v>
       </c>
+      <c r="BO17" s="1" t="n">
+        <v>169.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4238,6 +4292,9 @@
       <c r="BN18" s="2" t="n">
         <v>107.3</v>
       </c>
+      <c r="BO18" s="1" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4438,6 +4495,9 @@
       <c r="BN19" s="1" t="n">
         <v>209.8</v>
       </c>
+      <c r="BO19" s="1" t="n">
+        <v>211.1</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4638,6 +4698,9 @@
       <c r="BN20" s="1" t="n">
         <v>196.3</v>
       </c>
+      <c r="BO20" s="2" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4838,6 +4901,9 @@
       <c r="BN21" s="1" t="n">
         <v>178.1</v>
       </c>
+      <c r="BO21" s="2" t="n">
+        <v>122.9</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5038,6 +5104,9 @@
       <c r="BN22" s="3" t="n">
         <v>131.9</v>
       </c>
+      <c r="BO22" s="3" t="n">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5238,6 +5307,9 @@
       <c r="BN23" s="1" t="n">
         <v>225.3</v>
       </c>
+      <c r="BO23" s="1" t="n">
+        <v>159.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5438,6 +5510,9 @@
       <c r="BN24" s="1" t="n">
         <v>147.9</v>
       </c>
+      <c r="BO24" s="2" t="n">
+        <v>109.1</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5638,6 +5713,9 @@
       <c r="BN25" s="3" t="n">
         <v>130.7</v>
       </c>
+      <c r="BO25" s="1" t="n">
+        <v>176.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5838,6 +5916,9 @@
       <c r="BN26" s="3" t="n">
         <v>134.4</v>
       </c>
+      <c r="BO26" s="1" t="n">
+        <v>212.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6038,6 +6119,9 @@
       <c r="BN27" s="1" t="n">
         <v>250.5</v>
       </c>
+      <c r="BO27" s="1" t="n">
+        <v>208.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6238,6 +6322,9 @@
       <c r="BN28" s="1" t="n">
         <v>172</v>
       </c>
+      <c r="BO28" s="1" t="n">
+        <v>196.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6438,6 +6525,9 @@
       <c r="BN29" s="3" t="n">
         <v>131.2</v>
       </c>
+      <c r="BO29" s="1" t="n">
+        <v>154.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -6638,6 +6728,9 @@
       <c r="BN30" s="3" t="n">
         <v>130.2</v>
       </c>
+      <c r="BO30" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -6838,6 +6931,9 @@
       <c r="BN31" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="BO31" s="1" t="n">
+        <v>190.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -7038,6 +7134,9 @@
       <c r="BN32" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="BO32" s="3" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -7238,6 +7337,9 @@
       <c r="BN33" s="1" t="n">
         <v>160.5</v>
       </c>
+      <c r="BO33" s="1" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -7438,6 +7540,9 @@
       <c r="BN34" s="1" t="n">
         <v>281.3</v>
       </c>
+      <c r="BO34" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -7638,6 +7743,9 @@
       <c r="BN35" s="2" t="n">
         <v>124.7</v>
       </c>
+      <c r="BO35" s="1" t="n">
+        <v>279.3</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -7838,6 +7946,9 @@
       <c r="BN36" s="1" t="n">
         <v>196.4</v>
       </c>
+      <c r="BO36" s="3" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -8038,6 +8149,9 @@
       <c r="BN37" s="1" t="n">
         <v>194.1</v>
       </c>
+      <c r="BO37" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -8238,6 +8352,9 @@
       <c r="BN38" s="2" t="n">
         <v>120.6</v>
       </c>
+      <c r="BO38" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -8438,6 +8555,9 @@
       <c r="BN39" s="3" t="n">
         <v>125.4</v>
       </c>
+      <c r="BO39" s="1" t="n">
+        <v>206.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -8638,6 +8758,9 @@
       <c r="BN40" s="2" t="n">
         <v>119.7</v>
       </c>
+      <c r="BO40" s="1" t="n">
+        <v>180.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -8838,6 +8961,9 @@
       <c r="BN41" s="1" t="n">
         <v>152.3</v>
       </c>
+      <c r="BO41" s="1" t="n">
+        <v>174.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -9038,6 +9164,9 @@
       <c r="BN42" s="1" t="n">
         <v>146.6</v>
       </c>
+      <c r="BO42" s="1" t="n">
+        <v>157.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -9238,6 +9367,9 @@
       <c r="BN43" s="1" t="n">
         <v>245</v>
       </c>
+      <c r="BO43" s="1" t="n">
+        <v>241.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -9438,6 +9570,9 @@
       <c r="BN44" s="2" t="n">
         <v>122.8</v>
       </c>
+      <c r="BO44" s="1" t="n">
+        <v>246.9</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -9638,6 +9773,9 @@
       <c r="BN45" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="BO45" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -9838,6 +9976,9 @@
       <c r="BN46" s="1" t="n">
         <v>141.9</v>
       </c>
+      <c r="BO46" s="1" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -10038,6 +10179,9 @@
       <c r="BN47" s="1" t="n">
         <v>266.5</v>
       </c>
+      <c r="BO47" s="1" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -10238,6 +10382,9 @@
       <c r="BN48" s="1" t="n">
         <v>187.6</v>
       </c>
+      <c r="BO48" s="2" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -10438,6 +10585,9 @@
       <c r="BN49" s="1" t="n">
         <v>265.8</v>
       </c>
+      <c r="BO49" s="1" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -10638,6 +10788,9 @@
       <c r="BN50" s="1" t="n">
         <v>161.2</v>
       </c>
+      <c r="BO50" s="1" t="n">
+        <v>181.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -10838,6 +10991,9 @@
       <c r="BN51" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="BO51" s="1" t="n">
+        <v>146.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -11038,6 +11194,9 @@
       <c r="BN52" s="1" t="n">
         <v>174</v>
       </c>
+      <c r="BO52" s="3" t="n">
+        <v>135.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -11237,6 +11396,9 @@
       </c>
       <c r="BN53" s="3" t="n">
         <v>133.8</v>
+      </c>
+      <c r="BO53" s="1" t="n">
+        <v>232.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO53"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,7 @@
     <col width="12" customWidth="1" min="65" max="65"/>
     <col width="12" customWidth="1" min="66" max="66"/>
     <col width="12" customWidth="1" min="67" max="67"/>
+    <col width="12" customWidth="1" min="68" max="68"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -844,6 +845,11 @@
           <t>2024/11/14</t>
         </is>
       </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/15</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1047,6 +1053,9 @@
       <c r="BO2" s="1" t="n">
         <v>172.5</v>
       </c>
+      <c r="BP2" s="1" t="n">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1250,6 +1259,9 @@
       <c r="BO3" s="1" t="n">
         <v>160.5</v>
       </c>
+      <c r="BP3" s="1" t="n">
+        <v>148.7</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1453,6 +1465,9 @@
       <c r="BO4" s="2" t="n">
         <v>117.8</v>
       </c>
+      <c r="BP4" s="1" t="n">
+        <v>191.4</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1656,6 +1671,9 @@
       <c r="BO5" s="1" t="n">
         <v>172</v>
       </c>
+      <c r="BP5" s="1" t="n">
+        <v>146.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1859,6 +1877,9 @@
       <c r="BO6" s="2" t="n">
         <v>118.6</v>
       </c>
+      <c r="BP6" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2062,6 +2083,9 @@
       <c r="BO7" s="1" t="n">
         <v>175.5</v>
       </c>
+      <c r="BP7" s="1" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2265,6 +2289,9 @@
       <c r="BO8" s="2" t="n">
         <v>124</v>
       </c>
+      <c r="BP8" s="1" t="n">
+        <v>165.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2468,6 +2495,9 @@
       <c r="BO9" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="BP9" s="3" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2671,6 +2701,9 @@
       <c r="BO10" s="1" t="n">
         <v>143.1</v>
       </c>
+      <c r="BP10" s="2" t="n">
+        <v>122.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2874,6 +2907,9 @@
       <c r="BO11" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="BP11" s="1" t="n">
+        <v>143.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3077,6 +3113,9 @@
       <c r="BO12" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="BP12" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3280,6 +3319,9 @@
       <c r="BO13" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="BP13" s="1" t="n">
+        <v>233.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3483,6 +3525,9 @@
       <c r="BO14" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="BP14" s="1" t="n">
+        <v>149.7</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3686,6 +3731,9 @@
       <c r="BO15" s="1" t="n">
         <v>221.5</v>
       </c>
+      <c r="BP15" s="2" t="n">
+        <v>118.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3889,6 +3937,9 @@
       <c r="BO16" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="BP16" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4092,6 +4143,9 @@
       <c r="BO17" s="1" t="n">
         <v>169.7</v>
       </c>
+      <c r="BP17" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4295,6 +4349,9 @@
       <c r="BO18" s="1" t="n">
         <v>176</v>
       </c>
+      <c r="BP18" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4498,6 +4555,9 @@
       <c r="BO19" s="1" t="n">
         <v>211.1</v>
       </c>
+      <c r="BP19" s="1" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4701,6 +4761,9 @@
       <c r="BO20" s="2" t="n">
         <v>115</v>
       </c>
+      <c r="BP20" s="1" t="n">
+        <v>164.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4904,6 +4967,9 @@
       <c r="BO21" s="2" t="n">
         <v>122.9</v>
       </c>
+      <c r="BP21" s="1" t="n">
+        <v>166.9</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5107,6 +5173,9 @@
       <c r="BO22" s="3" t="n">
         <v>135.6</v>
       </c>
+      <c r="BP22" s="2" t="n">
+        <v>117.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5310,6 +5379,9 @@
       <c r="BO23" s="1" t="n">
         <v>159.1</v>
       </c>
+      <c r="BP23" s="3" t="n">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5513,6 +5585,9 @@
       <c r="BO24" s="2" t="n">
         <v>109.1</v>
       </c>
+      <c r="BP24" s="1" t="n">
+        <v>163.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5716,6 +5791,9 @@
       <c r="BO25" s="1" t="n">
         <v>176.8</v>
       </c>
+      <c r="BP25" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -5919,6 +5997,9 @@
       <c r="BO26" s="1" t="n">
         <v>212.6</v>
       </c>
+      <c r="BP26" s="1" t="n">
+        <v>141.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6122,6 +6203,9 @@
       <c r="BO27" s="1" t="n">
         <v>208.3</v>
       </c>
+      <c r="BP27" s="1" t="n">
+        <v>155.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6325,6 +6409,9 @@
       <c r="BO28" s="1" t="n">
         <v>196.8</v>
       </c>
+      <c r="BP28" s="1" t="n">
+        <v>153.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6528,6 +6615,9 @@
       <c r="BO29" s="1" t="n">
         <v>154.6</v>
       </c>
+      <c r="BP29" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -6731,6 +6821,9 @@
       <c r="BO30" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="BP30" s="1" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -6934,6 +7027,9 @@
       <c r="BO31" s="1" t="n">
         <v>190.1</v>
       </c>
+      <c r="BP31" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -7137,6 +7233,9 @@
       <c r="BO32" s="3" t="n">
         <v>128.8</v>
       </c>
+      <c r="BP32" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -7340,6 +7439,9 @@
       <c r="BO33" s="1" t="n">
         <v>263</v>
       </c>
+      <c r="BP33" s="2" t="n">
+        <v>120.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -7543,6 +7645,9 @@
       <c r="BO34" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="BP34" s="1" t="n">
+        <v>192.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -7746,6 +7851,9 @@
       <c r="BO35" s="1" t="n">
         <v>279.3</v>
       </c>
+      <c r="BP35" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -7949,6 +8057,9 @@
       <c r="BO36" s="3" t="n">
         <v>127.8</v>
       </c>
+      <c r="BP36" s="1" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -8152,6 +8263,9 @@
       <c r="BO37" s="1" t="n">
         <v>145.9</v>
       </c>
+      <c r="BP37" s="1" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -8355,6 +8469,9 @@
       <c r="BO38" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="BP38" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -8558,6 +8675,9 @@
       <c r="BO39" s="1" t="n">
         <v>206.3</v>
       </c>
+      <c r="BP39" s="3" t="n">
+        <v>134.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -8761,6 +8881,9 @@
       <c r="BO40" s="1" t="n">
         <v>180.1</v>
       </c>
+      <c r="BP40" s="2" t="n">
+        <v>121.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -8964,6 +9087,9 @@
       <c r="BO41" s="1" t="n">
         <v>174.6</v>
       </c>
+      <c r="BP41" s="1" t="n">
+        <v>182.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -9167,6 +9293,9 @@
       <c r="BO42" s="1" t="n">
         <v>157.6</v>
       </c>
+      <c r="BP42" s="1" t="n">
+        <v>202.1</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -9370,6 +9499,9 @@
       <c r="BO43" s="1" t="n">
         <v>241.1</v>
       </c>
+      <c r="BP43" s="1" t="n">
+        <v>164.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -9573,6 +9705,9 @@
       <c r="BO44" s="1" t="n">
         <v>246.9</v>
       </c>
+      <c r="BP44" s="1" t="n">
+        <v>146.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -9776,6 +9911,9 @@
       <c r="BO45" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="BP45" s="2" t="n">
+        <v>114.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -9979,6 +10117,9 @@
       <c r="BO46" s="1" t="n">
         <v>239</v>
       </c>
+      <c r="BP46" s="1" t="n">
+        <v>159.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -10182,6 +10323,9 @@
       <c r="BO47" s="1" t="n">
         <v>212</v>
       </c>
+      <c r="BP47" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -10385,6 +10529,9 @@
       <c r="BO48" s="2" t="n">
         <v>123</v>
       </c>
+      <c r="BP48" s="1" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -10588,6 +10735,9 @@
       <c r="BO49" s="1" t="n">
         <v>171</v>
       </c>
+      <c r="BP49" s="1" t="n">
+        <v>164.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -10791,6 +10941,9 @@
       <c r="BO50" s="1" t="n">
         <v>181.9</v>
       </c>
+      <c r="BP50" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -10994,6 +11147,9 @@
       <c r="BO51" s="1" t="n">
         <v>146.5</v>
       </c>
+      <c r="BP51" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -11197,6 +11353,9 @@
       <c r="BO52" s="3" t="n">
         <v>135.4</v>
       </c>
+      <c r="BP52" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -11399,6 +11558,9 @@
       </c>
       <c r="BO53" s="1" t="n">
         <v>232.5</v>
+      </c>
+      <c r="BP53" s="3" t="n">
+        <v>125.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BQ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,7 @@
     <col width="12" customWidth="1" min="66" max="66"/>
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
+    <col width="12" customWidth="1" min="69" max="69"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -850,6 +851,11 @@
           <t>2024/11/15</t>
         </is>
       </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/16</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1056,6 +1062,9 @@
       <c r="BP2" s="1" t="n">
         <v>163.1</v>
       </c>
+      <c r="BQ2" s="1" t="n">
+        <v>150.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1262,6 +1271,9 @@
       <c r="BP3" s="1" t="n">
         <v>148.7</v>
       </c>
+      <c r="BQ3" s="1" t="n">
+        <v>179.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1468,6 +1480,9 @@
       <c r="BP4" s="1" t="n">
         <v>191.4</v>
       </c>
+      <c r="BQ4" s="1" t="n">
+        <v>175.7</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1674,6 +1689,9 @@
       <c r="BP5" s="1" t="n">
         <v>146.5</v>
       </c>
+      <c r="BQ5" s="1" t="n">
+        <v>202.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1880,6 +1898,9 @@
       <c r="BP6" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="BQ6" s="1" t="n">
+        <v>178.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2086,6 +2107,9 @@
       <c r="BP7" s="1" t="n">
         <v>142.5</v>
       </c>
+      <c r="BQ7" s="3" t="n">
+        <v>127.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2292,6 +2316,9 @@
       <c r="BP8" s="1" t="n">
         <v>165.8</v>
       </c>
+      <c r="BQ8" s="1" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2498,6 +2525,9 @@
       <c r="BP9" s="3" t="n">
         <v>137.9</v>
       </c>
+      <c r="BQ9" s="1" t="n">
+        <v>147.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2704,6 +2734,9 @@
       <c r="BP10" s="2" t="n">
         <v>122.1</v>
       </c>
+      <c r="BQ10" s="1" t="n">
+        <v>170.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2910,6 +2943,9 @@
       <c r="BP11" s="1" t="n">
         <v>143.4</v>
       </c>
+      <c r="BQ11" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3116,6 +3152,9 @@
       <c r="BP12" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="BQ12" s="1" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3322,6 +3361,9 @@
       <c r="BP13" s="1" t="n">
         <v>233.5</v>
       </c>
+      <c r="BQ13" s="1" t="n">
+        <v>166.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3528,6 +3570,9 @@
       <c r="BP14" s="1" t="n">
         <v>149.7</v>
       </c>
+      <c r="BQ14" s="2" t="n">
+        <v>114.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3734,6 +3779,9 @@
       <c r="BP15" s="2" t="n">
         <v>118.6</v>
       </c>
+      <c r="BQ15" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3940,6 +3988,9 @@
       <c r="BP16" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="BQ16" s="1" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4146,6 +4197,9 @@
       <c r="BP17" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="BQ17" s="3" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4352,6 +4406,9 @@
       <c r="BP18" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="BQ18" s="3" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4558,6 +4615,9 @@
       <c r="BP19" s="1" t="n">
         <v>185.5</v>
       </c>
+      <c r="BQ19" s="1" t="n">
+        <v>184.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4764,6 +4824,9 @@
       <c r="BP20" s="1" t="n">
         <v>164.4</v>
       </c>
+      <c r="BQ20" s="3" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -4970,6 +5033,9 @@
       <c r="BP21" s="1" t="n">
         <v>166.9</v>
       </c>
+      <c r="BQ21" s="1" t="n">
+        <v>173.5</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5176,6 +5242,9 @@
       <c r="BP22" s="2" t="n">
         <v>117.8</v>
       </c>
+      <c r="BQ22" s="1" t="n">
+        <v>175.6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5382,6 +5451,9 @@
       <c r="BP23" s="3" t="n">
         <v>130.8</v>
       </c>
+      <c r="BQ23" s="3" t="n">
+        <v>130.2</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5588,6 +5660,9 @@
       <c r="BP24" s="1" t="n">
         <v>163.5</v>
       </c>
+      <c r="BQ24" s="1" t="n">
+        <v>185.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5794,6 +5869,9 @@
       <c r="BP25" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="BQ25" s="1" t="n">
+        <v>269</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6000,6 +6078,9 @@
       <c r="BP26" s="1" t="n">
         <v>141.6</v>
       </c>
+      <c r="BQ26" s="1" t="n">
+        <v>193.9</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6206,6 +6287,9 @@
       <c r="BP27" s="1" t="n">
         <v>155.9</v>
       </c>
+      <c r="BQ27" s="1" t="n">
+        <v>160.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6412,6 +6496,9 @@
       <c r="BP28" s="1" t="n">
         <v>153.1</v>
       </c>
+      <c r="BQ28" s="1" t="n">
+        <v>157.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6618,6 +6705,9 @@
       <c r="BP29" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="BQ29" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -6824,6 +6914,9 @@
       <c r="BP30" s="1" t="n">
         <v>145.1</v>
       </c>
+      <c r="BQ30" s="3" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7030,6 +7123,9 @@
       <c r="BP31" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="BQ31" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -7236,6 +7332,9 @@
       <c r="BP32" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="BQ32" s="2" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -7442,6 +7541,9 @@
       <c r="BP33" s="2" t="n">
         <v>120.6</v>
       </c>
+      <c r="BQ33" s="3" t="n">
+        <v>132.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -7648,6 +7750,9 @@
       <c r="BP34" s="1" t="n">
         <v>192.1</v>
       </c>
+      <c r="BQ34" s="3" t="n">
+        <v>131.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -7854,6 +7959,9 @@
       <c r="BP35" s="1" t="n">
         <v>153.4</v>
       </c>
+      <c r="BQ35" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -8060,6 +8168,9 @@
       <c r="BP36" s="1" t="n">
         <v>149.1</v>
       </c>
+      <c r="BQ36" s="1" t="n">
+        <v>145.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -8266,6 +8377,9 @@
       <c r="BP37" s="1" t="n">
         <v>209</v>
       </c>
+      <c r="BQ37" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -8472,6 +8586,9 @@
       <c r="BP38" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="BQ38" s="1" t="n">
+        <v>150.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -8678,6 +8795,9 @@
       <c r="BP39" s="3" t="n">
         <v>134.3</v>
       </c>
+      <c r="BQ39" s="1" t="n">
+        <v>142.8</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -8884,6 +9004,9 @@
       <c r="BP40" s="2" t="n">
         <v>121.9</v>
       </c>
+      <c r="BQ40" s="1" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -9090,6 +9213,9 @@
       <c r="BP41" s="1" t="n">
         <v>182.8</v>
       </c>
+      <c r="BQ41" s="1" t="n">
+        <v>197.2</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -9296,6 +9422,9 @@
       <c r="BP42" s="1" t="n">
         <v>202.1</v>
       </c>
+      <c r="BQ42" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -9502,6 +9631,9 @@
       <c r="BP43" s="1" t="n">
         <v>164.8</v>
       </c>
+      <c r="BQ43" s="1" t="n">
+        <v>203.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -9708,6 +9840,9 @@
       <c r="BP44" s="1" t="n">
         <v>146.5</v>
       </c>
+      <c r="BQ44" s="1" t="n">
+        <v>215.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -9914,6 +10049,9 @@
       <c r="BP45" s="2" t="n">
         <v>114.5</v>
       </c>
+      <c r="BQ45" s="1" t="n">
+        <v>202.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -10120,6 +10258,9 @@
       <c r="BP46" s="1" t="n">
         <v>159.6</v>
       </c>
+      <c r="BQ46" s="1" t="n">
+        <v>244.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -10326,6 +10467,9 @@
       <c r="BP47" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="BQ47" s="3" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -10532,6 +10676,9 @@
       <c r="BP48" s="1" t="n">
         <v>147</v>
       </c>
+      <c r="BQ48" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -10738,6 +10885,9 @@
       <c r="BP49" s="1" t="n">
         <v>164.8</v>
       </c>
+      <c r="BQ49" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -10944,6 +11094,9 @@
       <c r="BP50" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="BQ50" s="1" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -11150,6 +11303,9 @@
       <c r="BP51" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="BQ51" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -11356,6 +11512,9 @@
       <c r="BP52" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="BQ52" s="1" t="n">
+        <v>168.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -11561,6 +11720,9 @@
       </c>
       <c r="BP53" s="3" t="n">
         <v>125.8</v>
+      </c>
+      <c r="BQ53" s="1" t="n">
+        <v>156.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ53"/>
+  <dimension ref="A1:BR53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,7 @@
     <col width="12" customWidth="1" min="67" max="67"/>
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
+    <col width="12" customWidth="1" min="70" max="70"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -856,6 +857,11 @@
           <t>2024/11/16</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/17</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1065,6 +1071,9 @@
       <c r="BQ2" s="1" t="n">
         <v>150.3</v>
       </c>
+      <c r="BR2" s="3" t="n">
+        <v>129.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1274,6 +1283,9 @@
       <c r="BQ3" s="1" t="n">
         <v>179.3</v>
       </c>
+      <c r="BR3" s="3" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1483,6 +1495,9 @@
       <c r="BQ4" s="1" t="n">
         <v>175.7</v>
       </c>
+      <c r="BR4" s="3" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1692,6 +1707,9 @@
       <c r="BQ5" s="1" t="n">
         <v>202.3</v>
       </c>
+      <c r="BR5" s="1" t="n">
+        <v>169.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1901,6 +1919,9 @@
       <c r="BQ6" s="1" t="n">
         <v>178.1</v>
       </c>
+      <c r="BR6" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2110,6 +2131,9 @@
       <c r="BQ7" s="3" t="n">
         <v>127.5</v>
       </c>
+      <c r="BR7" s="1" t="n">
+        <v>144.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2319,6 +2343,9 @@
       <c r="BQ8" s="1" t="n">
         <v>185</v>
       </c>
+      <c r="BR8" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2528,6 +2555,9 @@
       <c r="BQ9" s="1" t="n">
         <v>147.8</v>
       </c>
+      <c r="BR9" s="2" t="n">
+        <v>117.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2737,6 +2767,9 @@
       <c r="BQ10" s="1" t="n">
         <v>170.6</v>
       </c>
+      <c r="BR10" s="1" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2946,6 +2979,9 @@
       <c r="BQ11" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="BR11" s="3" t="n">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3155,6 +3191,9 @@
       <c r="BQ12" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="BR12" s="2" t="n">
+        <v>105.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3364,6 +3403,9 @@
       <c r="BQ13" s="1" t="n">
         <v>166.6</v>
       </c>
+      <c r="BR13" s="3" t="n">
+        <v>133.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3573,6 +3615,9 @@
       <c r="BQ14" s="2" t="n">
         <v>114.4</v>
       </c>
+      <c r="BR14" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3782,6 +3827,9 @@
       <c r="BQ15" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="BR15" s="3" t="n">
+        <v>137.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -3991,6 +4039,9 @@
       <c r="BQ16" s="1" t="n">
         <v>168.5</v>
       </c>
+      <c r="BR16" s="2" t="n">
+        <v>116.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4200,6 +4251,9 @@
       <c r="BQ17" s="3" t="n">
         <v>134.8</v>
       </c>
+      <c r="BR17" s="1" t="n">
+        <v>159.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4409,6 +4463,9 @@
       <c r="BQ18" s="3" t="n">
         <v>128</v>
       </c>
+      <c r="BR18" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4618,6 +4675,9 @@
       <c r="BQ19" s="1" t="n">
         <v>184.6</v>
       </c>
+      <c r="BR19" s="3" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4827,6 +4887,9 @@
       <c r="BQ20" s="3" t="n">
         <v>135</v>
       </c>
+      <c r="BR20" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5036,6 +5099,9 @@
       <c r="BQ21" s="1" t="n">
         <v>173.5</v>
       </c>
+      <c r="BR21" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5245,6 +5311,9 @@
       <c r="BQ22" s="1" t="n">
         <v>175.6</v>
       </c>
+      <c r="BR22" s="1" t="n">
+        <v>168.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5454,6 +5523,9 @@
       <c r="BQ23" s="3" t="n">
         <v>130.2</v>
       </c>
+      <c r="BR23" s="1" t="n">
+        <v>182.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5663,6 +5735,9 @@
       <c r="BQ24" s="1" t="n">
         <v>185.2</v>
       </c>
+      <c r="BR24" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5872,6 +5947,9 @@
       <c r="BQ25" s="1" t="n">
         <v>269</v>
       </c>
+      <c r="BR25" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6081,6 +6159,9 @@
       <c r="BQ26" s="1" t="n">
         <v>193.9</v>
       </c>
+      <c r="BR26" s="3" t="n">
+        <v>134.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6290,6 +6371,9 @@
       <c r="BQ27" s="1" t="n">
         <v>160.6</v>
       </c>
+      <c r="BR27" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6499,6 +6583,9 @@
       <c r="BQ28" s="1" t="n">
         <v>157.6</v>
       </c>
+      <c r="BR28" s="2" t="n">
+        <v>121.5</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6708,6 +6795,9 @@
       <c r="BQ29" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="BR29" s="1" t="n">
+        <v>143.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -6917,6 +7007,9 @@
       <c r="BQ30" s="3" t="n">
         <v>127.1</v>
       </c>
+      <c r="BR30" s="3" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7126,6 +7219,9 @@
       <c r="BQ31" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="BR31" s="2" t="n">
+        <v>108.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -7335,6 +7431,9 @@
       <c r="BQ32" s="2" t="n">
         <v>124.2</v>
       </c>
+      <c r="BR32" s="2" t="n">
+        <v>103.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -7544,6 +7643,9 @@
       <c r="BQ33" s="3" t="n">
         <v>132.8</v>
       </c>
+      <c r="BR33" s="1" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -7753,6 +7855,9 @@
       <c r="BQ34" s="3" t="n">
         <v>131.3</v>
       </c>
+      <c r="BR34" s="1" t="n">
+        <v>167.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -7962,6 +8067,9 @@
       <c r="BQ35" s="1" t="n">
         <v>149.2</v>
       </c>
+      <c r="BR35" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -8171,6 +8279,9 @@
       <c r="BQ36" s="1" t="n">
         <v>145.8</v>
       </c>
+      <c r="BR36" s="1" t="n">
+        <v>167.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -8380,6 +8491,9 @@
       <c r="BQ37" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="BR37" s="3" t="n">
+        <v>125.5</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -8589,6 +8703,9 @@
       <c r="BQ38" s="1" t="n">
         <v>150.2</v>
       </c>
+      <c r="BR38" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -8798,6 +8915,9 @@
       <c r="BQ39" s="1" t="n">
         <v>142.8</v>
       </c>
+      <c r="BR39" s="3" t="n">
+        <v>131.9</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -9007,6 +9127,9 @@
       <c r="BQ40" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="BR40" s="1" t="n">
+        <v>180.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -9216,6 +9339,9 @@
       <c r="BQ41" s="1" t="n">
         <v>197.2</v>
       </c>
+      <c r="BR41" s="1" t="n">
+        <v>203.2</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -9425,6 +9551,9 @@
       <c r="BQ42" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="BR42" s="1" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -9634,6 +9763,9 @@
       <c r="BQ43" s="1" t="n">
         <v>203.1</v>
       </c>
+      <c r="BR43" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -9843,6 +9975,9 @@
       <c r="BQ44" s="1" t="n">
         <v>215.6</v>
       </c>
+      <c r="BR44" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -10052,6 +10187,9 @@
       <c r="BQ45" s="1" t="n">
         <v>202.1</v>
       </c>
+      <c r="BR45" s="1" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -10261,6 +10399,9 @@
       <c r="BQ46" s="1" t="n">
         <v>244.2</v>
       </c>
+      <c r="BR46" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -10470,6 +10611,9 @@
       <c r="BQ47" s="3" t="n">
         <v>136.1</v>
       </c>
+      <c r="BR47" s="1" t="n">
+        <v>190.6</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -10679,6 +10823,9 @@
       <c r="BQ48" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="BR48" s="3" t="n">
+        <v>138.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -10888,6 +11035,9 @@
       <c r="BQ49" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="BR49" s="1" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -11097,6 +11247,9 @@
       <c r="BQ50" s="1" t="n">
         <v>166</v>
       </c>
+      <c r="BR50" s="3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -11306,6 +11459,9 @@
       <c r="BQ51" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="BR51" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -11515,6 +11671,9 @@
       <c r="BQ52" s="1" t="n">
         <v>168.7</v>
       </c>
+      <c r="BR52" s="1" t="n">
+        <v>183.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -11723,6 +11882,9 @@
       </c>
       <c r="BQ53" s="1" t="n">
         <v>156.9</v>
+      </c>
+      <c r="BR53" s="2" t="n">
+        <v>113.3</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR53"/>
+  <dimension ref="A1:BS53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,7 @@
     <col width="12" customWidth="1" min="68" max="68"/>
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
+    <col width="12" customWidth="1" min="71" max="71"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -862,6 +863,11 @@
           <t>2024/11/17</t>
         </is>
       </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1074,6 +1080,9 @@
       <c r="BR2" s="3" t="n">
         <v>129.6</v>
       </c>
+      <c r="BS2" s="2" t="n">
+        <v>120.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1286,6 +1295,9 @@
       <c r="BR3" s="3" t="n">
         <v>139.1</v>
       </c>
+      <c r="BS3" s="1" t="n">
+        <v>175.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1498,6 +1510,9 @@
       <c r="BR4" s="3" t="n">
         <v>133.3</v>
       </c>
+      <c r="BS4" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1710,6 +1725,9 @@
       <c r="BR5" s="1" t="n">
         <v>169.4</v>
       </c>
+      <c r="BS5" s="1" t="n">
+        <v>153.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1922,6 +1940,9 @@
       <c r="BR6" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="BS6" s="1" t="n">
+        <v>195.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2134,6 +2155,9 @@
       <c r="BR7" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="BS7" s="3" t="n">
+        <v>134.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2346,6 +2370,9 @@
       <c r="BR8" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="BS8" s="3" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2558,6 +2585,9 @@
       <c r="BR9" s="2" t="n">
         <v>117.6</v>
       </c>
+      <c r="BS9" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2770,6 +2800,9 @@
       <c r="BR10" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="BS10" s="1" t="n">
+        <v>149.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -2982,6 +3015,9 @@
       <c r="BR11" s="3" t="n">
         <v>129.4</v>
       </c>
+      <c r="BS11" s="1" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3194,6 +3230,9 @@
       <c r="BR12" s="2" t="n">
         <v>105.2</v>
       </c>
+      <c r="BS12" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3406,6 +3445,9 @@
       <c r="BR13" s="3" t="n">
         <v>133.5</v>
       </c>
+      <c r="BS13" s="1" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3618,6 +3660,9 @@
       <c r="BR14" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="BS14" s="1" t="n">
+        <v>329.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3830,6 +3875,9 @@
       <c r="BR15" s="3" t="n">
         <v>137.6</v>
       </c>
+      <c r="BS15" s="3" t="n">
+        <v>125.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4042,6 +4090,9 @@
       <c r="BR16" s="2" t="n">
         <v>116.6</v>
       </c>
+      <c r="BS16" s="1" t="n">
+        <v>212.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4254,6 +4305,9 @@
       <c r="BR17" s="1" t="n">
         <v>159.3</v>
       </c>
+      <c r="BS17" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4466,6 +4520,9 @@
       <c r="BR18" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="BS18" s="1" t="n">
+        <v>230.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4678,6 +4735,9 @@
       <c r="BR19" s="3" t="n">
         <v>129.9</v>
       </c>
+      <c r="BS19" s="1" t="n">
+        <v>149.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4890,6 +4950,9 @@
       <c r="BR20" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="BS20" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5102,6 +5165,9 @@
       <c r="BR21" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="BS21" s="1" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5314,6 +5380,9 @@
       <c r="BR22" s="1" t="n">
         <v>168.7</v>
       </c>
+      <c r="BS22" s="1" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5526,6 +5595,9 @@
       <c r="BR23" s="1" t="n">
         <v>182.5</v>
       </c>
+      <c r="BS23" s="1" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5738,6 +5810,9 @@
       <c r="BR24" s="3" t="n">
         <v>136</v>
       </c>
+      <c r="BS24" s="2" t="n">
+        <v>123.3</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -5950,6 +6025,9 @@
       <c r="BR25" s="2" t="n">
         <v>121.8</v>
       </c>
+      <c r="BS25" s="1" t="n">
+        <v>161.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6162,6 +6240,9 @@
       <c r="BR26" s="3" t="n">
         <v>134.4</v>
       </c>
+      <c r="BS26" s="1" t="n">
+        <v>143.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6374,6 +6455,9 @@
       <c r="BR27" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="BS27" s="1" t="n">
+        <v>162.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6586,6 +6670,9 @@
       <c r="BR28" s="2" t="n">
         <v>121.5</v>
       </c>
+      <c r="BS28" s="2" t="n">
+        <v>116.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6798,6 +6885,9 @@
       <c r="BR29" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="BS29" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7010,6 +7100,9 @@
       <c r="BR30" s="3" t="n">
         <v>139.1</v>
       </c>
+      <c r="BS30" s="1" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7222,6 +7315,9 @@
       <c r="BR31" s="2" t="n">
         <v>108.1</v>
       </c>
+      <c r="BS31" s="1" t="n">
+        <v>150.2</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -7434,6 +7530,9 @@
       <c r="BR32" s="2" t="n">
         <v>103.3</v>
       </c>
+      <c r="BS32" s="1" t="n">
+        <v>205.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -7646,6 +7745,9 @@
       <c r="BR33" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="BS33" s="1" t="n">
+        <v>161.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -7858,6 +7960,9 @@
       <c r="BR34" s="1" t="n">
         <v>167.5</v>
       </c>
+      <c r="BS34" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -8070,6 +8175,9 @@
       <c r="BR35" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="BS35" s="1" t="n">
+        <v>231.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -8282,6 +8390,9 @@
       <c r="BR36" s="1" t="n">
         <v>167.7</v>
       </c>
+      <c r="BS36" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -8494,6 +8605,9 @@
       <c r="BR37" s="3" t="n">
         <v>125.5</v>
       </c>
+      <c r="BS37" s="1" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -8706,6 +8820,9 @@
       <c r="BR38" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="BS38" s="1" t="n">
+        <v>158.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -8918,6 +9035,9 @@
       <c r="BR39" s="3" t="n">
         <v>131.9</v>
       </c>
+      <c r="BS39" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -9130,6 +9250,9 @@
       <c r="BR40" s="1" t="n">
         <v>180.5</v>
       </c>
+      <c r="BS40" s="1" t="n">
+        <v>209.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -9342,6 +9465,9 @@
       <c r="BR41" s="1" t="n">
         <v>203.2</v>
       </c>
+      <c r="BS41" s="1" t="n">
+        <v>165.5</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -9554,6 +9680,9 @@
       <c r="BR42" s="1" t="n">
         <v>181</v>
       </c>
+      <c r="BS42" s="1" t="n">
+        <v>174.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -9766,6 +9895,9 @@
       <c r="BR43" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="BS43" s="1" t="n">
+        <v>230.3</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -9978,6 +10110,9 @@
       <c r="BR44" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="BS44" s="1" t="n">
+        <v>179.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -10190,6 +10325,9 @@
       <c r="BR45" s="1" t="n">
         <v>143</v>
       </c>
+      <c r="BS45" s="2" t="n">
+        <v>120.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -10402,6 +10540,9 @@
       <c r="BR46" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="BS46" s="1" t="n">
+        <v>148.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -10614,6 +10755,9 @@
       <c r="BR47" s="1" t="n">
         <v>190.6</v>
       </c>
+      <c r="BS47" s="1" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -10826,6 +10970,9 @@
       <c r="BR48" s="3" t="n">
         <v>138.1</v>
       </c>
+      <c r="BS48" s="1" t="n">
+        <v>192.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -11038,6 +11185,9 @@
       <c r="BR49" s="1" t="n">
         <v>153.9</v>
       </c>
+      <c r="BS49" s="1" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -11250,6 +11400,9 @@
       <c r="BR50" s="3" t="n">
         <v>137</v>
       </c>
+      <c r="BS50" s="1" t="n">
+        <v>143.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -11462,6 +11615,9 @@
       <c r="BR51" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="BS51" s="1" t="n">
+        <v>287.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -11674,6 +11830,9 @@
       <c r="BR52" s="1" t="n">
         <v>183.7</v>
       </c>
+      <c r="BS52" s="1" t="n">
+        <v>162.9</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -11885,6 +12044,9 @@
       </c>
       <c r="BR53" s="2" t="n">
         <v>113.3</v>
+      </c>
+      <c r="BS53" s="1" t="n">
+        <v>175.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS53"/>
+  <dimension ref="A1:BT53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,7 @@
     <col width="12" customWidth="1" min="69" max="69"/>
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
+    <col width="12" customWidth="1" min="72" max="72"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -868,6 +869,11 @@
           <t>2024/11/18</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/19</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1083,6 +1089,9 @@
       <c r="BS2" s="2" t="n">
         <v>120.1</v>
       </c>
+      <c r="BT2" s="1" t="n">
+        <v>205.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1298,6 +1307,9 @@
       <c r="BS3" s="1" t="n">
         <v>175.8</v>
       </c>
+      <c r="BT3" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1513,6 +1525,9 @@
       <c r="BS4" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="BT4" s="1" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1728,6 +1743,9 @@
       <c r="BS5" s="1" t="n">
         <v>153.8</v>
       </c>
+      <c r="BT5" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1943,6 +1961,9 @@
       <c r="BS6" s="1" t="n">
         <v>195.2</v>
       </c>
+      <c r="BT6" s="3" t="n">
+        <v>131.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2158,6 +2179,9 @@
       <c r="BS7" s="3" t="n">
         <v>134.1</v>
       </c>
+      <c r="BT7" s="1" t="n">
+        <v>190.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2373,6 +2397,9 @@
       <c r="BS8" s="3" t="n">
         <v>139.5</v>
       </c>
+      <c r="BT8" s="1" t="n">
+        <v>178.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2588,6 +2615,9 @@
       <c r="BS9" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="BT9" s="1" t="n">
+        <v>332.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2803,6 +2833,9 @@
       <c r="BS10" s="1" t="n">
         <v>149.3</v>
       </c>
+      <c r="BT10" s="1" t="n">
+        <v>261.7</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3018,6 +3051,9 @@
       <c r="BS11" s="1" t="n">
         <v>142.7</v>
       </c>
+      <c r="BT11" s="1" t="n">
+        <v>165.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3233,6 +3269,9 @@
       <c r="BS12" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="BT12" s="1" t="n">
+        <v>146.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3448,6 +3487,9 @@
       <c r="BS13" s="1" t="n">
         <v>141</v>
       </c>
+      <c r="BT13" s="1" t="n">
+        <v>237.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3663,6 +3705,9 @@
       <c r="BS14" s="1" t="n">
         <v>329.9</v>
       </c>
+      <c r="BT14" s="1" t="n">
+        <v>161.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3878,6 +3923,9 @@
       <c r="BS15" s="3" t="n">
         <v>125.2</v>
       </c>
+      <c r="BT15" s="1" t="n">
+        <v>202.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4093,6 +4141,9 @@
       <c r="BS16" s="1" t="n">
         <v>212.9</v>
       </c>
+      <c r="BT16" s="3" t="n">
+        <v>136.2</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4308,6 +4359,9 @@
       <c r="BS17" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="BT17" s="1" t="n">
+        <v>167.9</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4523,6 +4577,9 @@
       <c r="BS18" s="1" t="n">
         <v>230.6</v>
       </c>
+      <c r="BT18" s="1" t="n">
+        <v>178.4</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4738,6 +4795,9 @@
       <c r="BS19" s="1" t="n">
         <v>149.7</v>
       </c>
+      <c r="BT19" s="2" t="n">
+        <v>105.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -4953,6 +5013,9 @@
       <c r="BS20" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="BT20" s="1" t="n">
+        <v>191.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5168,6 +5231,9 @@
       <c r="BS21" s="1" t="n">
         <v>172</v>
       </c>
+      <c r="BT21" s="1" t="n">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5383,6 +5449,9 @@
       <c r="BS22" s="1" t="n">
         <v>202</v>
       </c>
+      <c r="BT22" s="1" t="n">
+        <v>197.1</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5598,6 +5667,9 @@
       <c r="BS23" s="1" t="n">
         <v>164.3</v>
       </c>
+      <c r="BT23" s="1" t="n">
+        <v>157.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5813,6 +5885,9 @@
       <c r="BS24" s="2" t="n">
         <v>123.3</v>
       </c>
+      <c r="BT24" s="1" t="n">
+        <v>170.3</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6028,6 +6103,9 @@
       <c r="BS25" s="1" t="n">
         <v>161.8</v>
       </c>
+      <c r="BT25" s="3" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6243,6 +6321,9 @@
       <c r="BS26" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="BT26" s="3" t="n">
+        <v>134.7</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6458,6 +6539,9 @@
       <c r="BS27" s="1" t="n">
         <v>162.6</v>
       </c>
+      <c r="BT27" s="1" t="n">
+        <v>182.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6673,6 +6757,9 @@
       <c r="BS28" s="2" t="n">
         <v>116.9</v>
       </c>
+      <c r="BT28" s="1" t="n">
+        <v>153.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6888,6 +6975,9 @@
       <c r="BS29" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="BT29" s="1" t="n">
+        <v>169.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7103,6 +7193,9 @@
       <c r="BS30" s="1" t="n">
         <v>141</v>
       </c>
+      <c r="BT30" s="1" t="n">
+        <v>202.2</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7318,6 +7411,9 @@
       <c r="BS31" s="1" t="n">
         <v>150.2</v>
       </c>
+      <c r="BT31" s="1" t="n">
+        <v>166.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -7533,6 +7629,9 @@
       <c r="BS32" s="1" t="n">
         <v>205.3</v>
       </c>
+      <c r="BT32" s="2" t="n">
+        <v>103.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -7748,6 +7847,9 @@
       <c r="BS33" s="1" t="n">
         <v>161.9</v>
       </c>
+      <c r="BT33" s="1" t="n">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -7963,6 +8065,9 @@
       <c r="BS34" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="BT34" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -8178,6 +8283,9 @@
       <c r="BS35" s="1" t="n">
         <v>231.5</v>
       </c>
+      <c r="BT35" s="1" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -8393,6 +8501,9 @@
       <c r="BS36" s="3" t="n">
         <v>129</v>
       </c>
+      <c r="BT36" s="1" t="n">
+        <v>184.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -8608,6 +8719,9 @@
       <c r="BS37" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="BT37" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -8823,6 +8937,9 @@
       <c r="BS38" s="1" t="n">
         <v>158.5</v>
       </c>
+      <c r="BT38" s="1" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -9038,6 +9155,9 @@
       <c r="BS39" s="1" t="n">
         <v>153.4</v>
       </c>
+      <c r="BT39" s="1" t="n">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -9253,6 +9373,9 @@
       <c r="BS40" s="1" t="n">
         <v>209.1</v>
       </c>
+      <c r="BT40" s="1" t="n">
+        <v>184.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -9468,6 +9591,9 @@
       <c r="BS41" s="1" t="n">
         <v>165.5</v>
       </c>
+      <c r="BT41" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -9683,6 +9809,9 @@
       <c r="BS42" s="1" t="n">
         <v>174.6</v>
       </c>
+      <c r="BT42" s="1" t="n">
+        <v>228.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -9898,6 +10027,9 @@
       <c r="BS43" s="1" t="n">
         <v>230.3</v>
       </c>
+      <c r="BT43" s="1" t="n">
+        <v>217.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -10113,6 +10245,9 @@
       <c r="BS44" s="1" t="n">
         <v>179.7</v>
       </c>
+      <c r="BT44" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -10328,6 +10463,9 @@
       <c r="BS45" s="2" t="n">
         <v>120.1</v>
       </c>
+      <c r="BT45" s="2" t="n">
+        <v>123.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -10543,6 +10681,9 @@
       <c r="BS46" s="1" t="n">
         <v>148.7</v>
       </c>
+      <c r="BT46" s="1" t="n">
+        <v>197.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -10758,6 +10899,9 @@
       <c r="BS47" s="1" t="n">
         <v>181</v>
       </c>
+      <c r="BT47" s="3" t="n">
+        <v>138.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -10973,6 +11117,9 @@
       <c r="BS48" s="1" t="n">
         <v>192.2</v>
       </c>
+      <c r="BT48" s="1" t="n">
+        <v>170.6</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -11188,6 +11335,9 @@
       <c r="BS49" s="1" t="n">
         <v>156.6</v>
       </c>
+      <c r="BT49" s="1" t="n">
+        <v>264.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -11403,6 +11553,9 @@
       <c r="BS50" s="1" t="n">
         <v>143.9</v>
       </c>
+      <c r="BT50" s="2" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -11618,6 +11771,9 @@
       <c r="BS51" s="1" t="n">
         <v>287.4</v>
       </c>
+      <c r="BT51" s="1" t="n">
+        <v>165.6</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -11833,6 +11989,9 @@
       <c r="BS52" s="1" t="n">
         <v>162.9</v>
       </c>
+      <c r="BT52" s="3" t="n">
+        <v>133.8</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -12047,6 +12206,9 @@
       </c>
       <c r="BS53" s="1" t="n">
         <v>175.8</v>
+      </c>
+      <c r="BT53" s="1" t="n">
+        <v>144.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BT53"/>
+  <dimension ref="A1:BU53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,7 @@
     <col width="12" customWidth="1" min="70" max="70"/>
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
+    <col width="12" customWidth="1" min="73" max="73"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -874,6 +875,11 @@
           <t>2024/11/19</t>
         </is>
       </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/20</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1092,6 +1098,9 @@
       <c r="BT2" s="1" t="n">
         <v>205.2</v>
       </c>
+      <c r="BU2" s="1" t="n">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1310,6 +1319,9 @@
       <c r="BT3" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="BU3" s="1" t="n">
+        <v>176.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1528,6 +1540,9 @@
       <c r="BT4" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="BU4" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1746,6 +1761,9 @@
       <c r="BT5" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="BU5" s="1" t="n">
+        <v>202.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1964,6 +1982,9 @@
       <c r="BT6" s="3" t="n">
         <v>131.9</v>
       </c>
+      <c r="BU6" s="1" t="n">
+        <v>202.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2182,6 +2203,9 @@
       <c r="BT7" s="1" t="n">
         <v>190.6</v>
       </c>
+      <c r="BU7" s="3" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2400,6 +2424,9 @@
       <c r="BT8" s="1" t="n">
         <v>178.6</v>
       </c>
+      <c r="BU8" s="2" t="n">
+        <v>123.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2618,6 +2645,9 @@
       <c r="BT9" s="1" t="n">
         <v>332.6</v>
       </c>
+      <c r="BU9" s="1" t="n">
+        <v>145.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2836,6 +2866,9 @@
       <c r="BT10" s="1" t="n">
         <v>261.7</v>
       </c>
+      <c r="BU10" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3054,6 +3087,9 @@
       <c r="BT11" s="1" t="n">
         <v>165.9</v>
       </c>
+      <c r="BU11" s="1" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3272,6 +3308,9 @@
       <c r="BT12" s="1" t="n">
         <v>146.3</v>
       </c>
+      <c r="BU12" s="1" t="n">
+        <v>171.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3490,6 +3529,9 @@
       <c r="BT13" s="1" t="n">
         <v>237.3</v>
       </c>
+      <c r="BU13" s="3" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3708,6 +3750,9 @@
       <c r="BT14" s="1" t="n">
         <v>161.2</v>
       </c>
+      <c r="BU14" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3926,6 +3971,9 @@
       <c r="BT15" s="1" t="n">
         <v>202.8</v>
       </c>
+      <c r="BU15" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4144,6 +4192,9 @@
       <c r="BT16" s="3" t="n">
         <v>136.2</v>
       </c>
+      <c r="BU16" s="1" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4362,6 +4413,9 @@
       <c r="BT17" s="1" t="n">
         <v>167.9</v>
       </c>
+      <c r="BU17" s="1" t="n">
+        <v>174.2</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4580,6 +4634,9 @@
       <c r="BT18" s="1" t="n">
         <v>178.4</v>
       </c>
+      <c r="BU18" s="1" t="n">
+        <v>168.1</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4798,6 +4855,9 @@
       <c r="BT19" s="2" t="n">
         <v>105.4</v>
       </c>
+      <c r="BU19" s="1" t="n">
+        <v>185.1</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5016,6 +5076,9 @@
       <c r="BT20" s="1" t="n">
         <v>191.9</v>
       </c>
+      <c r="BU20" s="1" t="n">
+        <v>255.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5234,6 +5297,9 @@
       <c r="BT21" s="1" t="n">
         <v>144.2</v>
       </c>
+      <c r="BU21" s="1" t="n">
+        <v>161.5</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5452,6 +5518,9 @@
       <c r="BT22" s="1" t="n">
         <v>197.1</v>
       </c>
+      <c r="BU22" s="1" t="n">
+        <v>140.2</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5670,6 +5739,9 @@
       <c r="BT23" s="1" t="n">
         <v>157.5</v>
       </c>
+      <c r="BU23" s="1" t="n">
+        <v>153.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5888,6 +5960,9 @@
       <c r="BT24" s="1" t="n">
         <v>170.3</v>
       </c>
+      <c r="BU24" s="1" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6106,6 +6181,9 @@
       <c r="BT25" s="3" t="n">
         <v>125</v>
       </c>
+      <c r="BU25" s="1" t="n">
+        <v>191.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6324,6 +6402,9 @@
       <c r="BT26" s="3" t="n">
         <v>134.7</v>
       </c>
+      <c r="BU26" s="1" t="n">
+        <v>176.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6542,6 +6623,9 @@
       <c r="BT27" s="1" t="n">
         <v>182.2</v>
       </c>
+      <c r="BU27" s="1" t="n">
+        <v>174.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6760,6 +6844,9 @@
       <c r="BT28" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="BU28" s="1" t="n">
+        <v>175.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -6978,6 +7065,9 @@
       <c r="BT29" s="1" t="n">
         <v>169.4</v>
       </c>
+      <c r="BU29" s="1" t="n">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7196,6 +7286,9 @@
       <c r="BT30" s="1" t="n">
         <v>202.2</v>
       </c>
+      <c r="BU30" s="1" t="n">
+        <v>190.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7414,6 +7507,9 @@
       <c r="BT31" s="1" t="n">
         <v>166.9</v>
       </c>
+      <c r="BU31" s="1" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -7632,6 +7728,9 @@
       <c r="BT32" s="2" t="n">
         <v>103.8</v>
       </c>
+      <c r="BU32" s="2" t="n">
+        <v>123.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -7850,6 +7949,9 @@
       <c r="BT33" s="1" t="n">
         <v>166.3</v>
       </c>
+      <c r="BU33" s="1" t="n">
+        <v>184.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -8068,6 +8170,9 @@
       <c r="BT34" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="BU34" s="1" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -8286,6 +8391,9 @@
       <c r="BT35" s="1" t="n">
         <v>190</v>
       </c>
+      <c r="BU35" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -8504,6 +8612,9 @@
       <c r="BT36" s="1" t="n">
         <v>184.6</v>
       </c>
+      <c r="BU36" s="1" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -8722,6 +8833,9 @@
       <c r="BT37" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="BU37" s="1" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -8940,6 +9054,9 @@
       <c r="BT38" s="1" t="n">
         <v>152.2</v>
       </c>
+      <c r="BU38" s="3" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -9158,6 +9275,9 @@
       <c r="BT39" s="1" t="n">
         <v>163.1</v>
       </c>
+      <c r="BU39" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -9376,6 +9496,9 @@
       <c r="BT40" s="1" t="n">
         <v>184.4</v>
       </c>
+      <c r="BU40" s="3" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -9594,6 +9717,9 @@
       <c r="BT41" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="BU41" s="1" t="n">
+        <v>156.3</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -9812,6 +9938,9 @@
       <c r="BT42" s="1" t="n">
         <v>228.6</v>
       </c>
+      <c r="BU42" s="3" t="n">
+        <v>134.7</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -10030,6 +10159,9 @@
       <c r="BT43" s="1" t="n">
         <v>217.2</v>
       </c>
+      <c r="BU43" s="3" t="n">
+        <v>134.6</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -10248,6 +10380,9 @@
       <c r="BT44" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="BU44" s="1" t="n">
+        <v>147.9</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -10466,6 +10601,9 @@
       <c r="BT45" s="2" t="n">
         <v>123.9</v>
       </c>
+      <c r="BU45" s="1" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -10684,6 +10822,9 @@
       <c r="BT46" s="1" t="n">
         <v>197.1</v>
       </c>
+      <c r="BU46" s="1" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -10902,6 +11043,9 @@
       <c r="BT47" s="3" t="n">
         <v>138.7</v>
       </c>
+      <c r="BU47" s="1" t="n">
+        <v>172.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -11120,6 +11264,9 @@
       <c r="BT48" s="1" t="n">
         <v>170.6</v>
       </c>
+      <c r="BU48" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -11338,6 +11485,9 @@
       <c r="BT49" s="1" t="n">
         <v>264.3</v>
       </c>
+      <c r="BU49" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -11556,6 +11706,9 @@
       <c r="BT50" s="2" t="n">
         <v>117</v>
       </c>
+      <c r="BU50" s="3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -11774,6 +11927,9 @@
       <c r="BT51" s="1" t="n">
         <v>165.6</v>
       </c>
+      <c r="BU51" s="1" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -11992,6 +12148,9 @@
       <c r="BT52" s="3" t="n">
         <v>133.8</v>
       </c>
+      <c r="BU52" s="1" t="n">
+        <v>169.5</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -12209,6 +12368,9 @@
       </c>
       <c r="BT53" s="1" t="n">
         <v>144.4</v>
+      </c>
+      <c r="BU53" s="1" t="n">
+        <v>173.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU53"/>
+  <dimension ref="A1:BV53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,7 @@
     <col width="12" customWidth="1" min="71" max="71"/>
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
+    <col width="12" customWidth="1" min="74" max="74"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -880,6 +881,11 @@
           <t>2024/11/20</t>
         </is>
       </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1101,6 +1107,9 @@
       <c r="BU2" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="BV2" s="1" t="n">
+        <v>203.5</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1322,6 +1331,9 @@
       <c r="BU3" s="1" t="n">
         <v>176.3</v>
       </c>
+      <c r="BV3" s="3" t="n">
+        <v>128.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1543,6 +1555,9 @@
       <c r="BU4" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="BV4" s="1" t="n">
+        <v>199.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1764,6 +1779,9 @@
       <c r="BU5" s="1" t="n">
         <v>202.6</v>
       </c>
+      <c r="BV5" s="3" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -1985,6 +2003,9 @@
       <c r="BU6" s="1" t="n">
         <v>202.8</v>
       </c>
+      <c r="BV6" s="3" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2206,6 +2227,9 @@
       <c r="BU7" s="3" t="n">
         <v>130.3</v>
       </c>
+      <c r="BV7" s="1" t="n">
+        <v>345.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2427,6 +2451,9 @@
       <c r="BU8" s="2" t="n">
         <v>123.2</v>
       </c>
+      <c r="BV8" s="1" t="n">
+        <v>303.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2648,6 +2675,9 @@
       <c r="BU9" s="1" t="n">
         <v>145.8</v>
       </c>
+      <c r="BV9" s="1" t="n">
+        <v>183.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2869,6 +2899,9 @@
       <c r="BU10" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="BV10" s="1" t="n">
+        <v>194.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3090,6 +3123,9 @@
       <c r="BU11" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="BV11" s="2" t="n">
+        <v>124.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3311,6 +3347,9 @@
       <c r="BU12" s="1" t="n">
         <v>171.3</v>
       </c>
+      <c r="BV12" s="1" t="n">
+        <v>141.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3532,6 +3571,9 @@
       <c r="BU13" s="3" t="n">
         <v>136.4</v>
       </c>
+      <c r="BV13" s="1" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3753,6 +3795,9 @@
       <c r="BU14" s="3" t="n">
         <v>127.6</v>
       </c>
+      <c r="BV14" s="1" t="n">
+        <v>277.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -3974,6 +4019,9 @@
       <c r="BU15" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="BV15" s="3" t="n">
+        <v>136.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4195,6 +4243,9 @@
       <c r="BU16" s="1" t="n">
         <v>142.5</v>
       </c>
+      <c r="BV16" s="1" t="n">
+        <v>141.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4416,6 +4467,9 @@
       <c r="BU17" s="1" t="n">
         <v>174.2</v>
       </c>
+      <c r="BV17" s="1" t="n">
+        <v>154.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4637,6 +4691,9 @@
       <c r="BU18" s="1" t="n">
         <v>168.1</v>
       </c>
+      <c r="BV18" s="1" t="n">
+        <v>167.1</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4858,6 +4915,9 @@
       <c r="BU19" s="1" t="n">
         <v>185.1</v>
       </c>
+      <c r="BV19" s="1" t="n">
+        <v>211.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5079,6 +5139,9 @@
       <c r="BU20" s="1" t="n">
         <v>255.7</v>
       </c>
+      <c r="BV20" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5300,6 +5363,9 @@
       <c r="BU21" s="1" t="n">
         <v>161.5</v>
       </c>
+      <c r="BV21" s="1" t="n">
+        <v>223.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5521,6 +5587,9 @@
       <c r="BU22" s="1" t="n">
         <v>140.2</v>
       </c>
+      <c r="BV22" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5742,6 +5811,9 @@
       <c r="BU23" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="BV23" s="3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -5963,6 +6035,9 @@
       <c r="BU24" s="1" t="n">
         <v>145</v>
       </c>
+      <c r="BV24" s="1" t="n">
+        <v>170.3</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6184,6 +6259,9 @@
       <c r="BU25" s="1" t="n">
         <v>191.5</v>
       </c>
+      <c r="BV25" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6405,6 +6483,9 @@
       <c r="BU26" s="1" t="n">
         <v>176.3</v>
       </c>
+      <c r="BV26" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6626,6 +6707,9 @@
       <c r="BU27" s="1" t="n">
         <v>174.2</v>
       </c>
+      <c r="BV27" s="1" t="n">
+        <v>185.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6847,6 +6931,9 @@
       <c r="BU28" s="1" t="n">
         <v>175.6</v>
       </c>
+      <c r="BV28" s="1" t="n">
+        <v>151.4</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7068,6 +7155,9 @@
       <c r="BU29" s="1" t="n">
         <v>167.6</v>
       </c>
+      <c r="BV29" s="1" t="n">
+        <v>183.8</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7289,6 +7379,9 @@
       <c r="BU30" s="1" t="n">
         <v>190.1</v>
       </c>
+      <c r="BV30" s="1" t="n">
+        <v>213.2</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7510,6 +7603,9 @@
       <c r="BU31" s="1" t="n">
         <v>187.7</v>
       </c>
+      <c r="BV31" s="3" t="n">
+        <v>128.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -7731,6 +7827,9 @@
       <c r="BU32" s="2" t="n">
         <v>123.9</v>
       </c>
+      <c r="BV32" s="3" t="n">
+        <v>126.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -7952,6 +8051,9 @@
       <c r="BU33" s="1" t="n">
         <v>184.2</v>
       </c>
+      <c r="BV33" s="1" t="n">
+        <v>204.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -8173,6 +8275,9 @@
       <c r="BU34" s="1" t="n">
         <v>216</v>
       </c>
+      <c r="BV34" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -8394,6 +8499,9 @@
       <c r="BU35" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="BV35" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -8615,6 +8723,9 @@
       <c r="BU36" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="BV36" s="1" t="n">
+        <v>179.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -8836,6 +8947,9 @@
       <c r="BU37" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="BV37" s="1" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -9057,6 +9171,9 @@
       <c r="BU38" s="3" t="n">
         <v>136.7</v>
       </c>
+      <c r="BV38" s="1" t="n">
+        <v>223.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -9278,6 +9395,9 @@
       <c r="BU39" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="BV39" s="1" t="n">
+        <v>197.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -9499,6 +9619,9 @@
       <c r="BU40" s="3" t="n">
         <v>132.2</v>
       </c>
+      <c r="BV40" s="1" t="n">
+        <v>184.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -9720,6 +9843,9 @@
       <c r="BU41" s="1" t="n">
         <v>156.3</v>
       </c>
+      <c r="BV41" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -9941,6 +10067,9 @@
       <c r="BU42" s="3" t="n">
         <v>134.7</v>
       </c>
+      <c r="BV42" s="1" t="n">
+        <v>179.1</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -10162,6 +10291,9 @@
       <c r="BU43" s="3" t="n">
         <v>134.6</v>
       </c>
+      <c r="BV43" s="1" t="n">
+        <v>148.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -10383,6 +10515,9 @@
       <c r="BU44" s="1" t="n">
         <v>147.9</v>
       </c>
+      <c r="BV44" s="2" t="n">
+        <v>107.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -10604,6 +10739,9 @@
       <c r="BU45" s="1" t="n">
         <v>206</v>
       </c>
+      <c r="BV45" s="1" t="n">
+        <v>156.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -10825,6 +10963,9 @@
       <c r="BU46" s="1" t="n">
         <v>170</v>
       </c>
+      <c r="BV46" s="1" t="n">
+        <v>170.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -11046,6 +11187,9 @@
       <c r="BU47" s="1" t="n">
         <v>172.1</v>
       </c>
+      <c r="BV47" s="1" t="n">
+        <v>184.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -11267,6 +11411,9 @@
       <c r="BU48" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="BV48" s="1" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -11488,6 +11635,9 @@
       <c r="BU49" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="BV49" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -11709,6 +11859,9 @@
       <c r="BU50" s="3" t="n">
         <v>137</v>
       </c>
+      <c r="BV50" s="1" t="n">
+        <v>198.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -11930,6 +12083,9 @@
       <c r="BU51" s="1" t="n">
         <v>190</v>
       </c>
+      <c r="BV51" s="1" t="n">
+        <v>157.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -12151,6 +12307,9 @@
       <c r="BU52" s="1" t="n">
         <v>169.5</v>
       </c>
+      <c r="BV52" s="1" t="n">
+        <v>199.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -12371,6 +12530,9 @@
       </c>
       <c r="BU53" s="1" t="n">
         <v>173.1</v>
+      </c>
+      <c r="BV53" s="3" t="n">
+        <v>136.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV53"/>
+  <dimension ref="A1:BW53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,7 @@
     <col width="12" customWidth="1" min="72" max="72"/>
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
+    <col width="12" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -886,6 +887,11 @@
           <t>2024/11/21</t>
         </is>
       </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/22</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1110,6 +1116,9 @@
       <c r="BV2" s="1" t="n">
         <v>203.5</v>
       </c>
+      <c r="BW2" s="3" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1334,6 +1343,9 @@
       <c r="BV3" s="3" t="n">
         <v>128.1</v>
       </c>
+      <c r="BW3" s="3" t="n">
+        <v>132.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1558,6 +1570,9 @@
       <c r="BV4" s="1" t="n">
         <v>199.5</v>
       </c>
+      <c r="BW4" s="1" t="n">
+        <v>163.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1782,6 +1797,9 @@
       <c r="BV5" s="3" t="n">
         <v>125.9</v>
       </c>
+      <c r="BW5" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2006,6 +2024,9 @@
       <c r="BV6" s="3" t="n">
         <v>138</v>
       </c>
+      <c r="BW6" s="1" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2230,6 +2251,9 @@
       <c r="BV7" s="1" t="n">
         <v>345.2</v>
       </c>
+      <c r="BW7" s="1" t="n">
+        <v>323</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2454,6 +2478,9 @@
       <c r="BV8" s="1" t="n">
         <v>303.6</v>
       </c>
+      <c r="BW8" s="1" t="n">
+        <v>167.7</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2678,6 +2705,9 @@
       <c r="BV9" s="1" t="n">
         <v>183.6</v>
       </c>
+      <c r="BW9" s="1" t="n">
+        <v>242.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2902,6 +2932,9 @@
       <c r="BV10" s="1" t="n">
         <v>194.4</v>
       </c>
+      <c r="BW10" s="1" t="n">
+        <v>151.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3126,6 +3159,9 @@
       <c r="BV11" s="2" t="n">
         <v>124.3</v>
       </c>
+      <c r="BW11" s="3" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3350,6 +3386,9 @@
       <c r="BV12" s="1" t="n">
         <v>141.5</v>
       </c>
+      <c r="BW12" s="1" t="n">
+        <v>161.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3574,6 +3613,9 @@
       <c r="BV13" s="1" t="n">
         <v>163.8</v>
       </c>
+      <c r="BW13" s="1" t="n">
+        <v>172.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3798,6 +3840,9 @@
       <c r="BV14" s="1" t="n">
         <v>277.5</v>
       </c>
+      <c r="BW14" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4022,6 +4067,9 @@
       <c r="BV15" s="3" t="n">
         <v>136.6</v>
       </c>
+      <c r="BW15" s="1" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4246,6 +4294,9 @@
       <c r="BV16" s="1" t="n">
         <v>141.5</v>
       </c>
+      <c r="BW16" s="1" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4470,6 +4521,9 @@
       <c r="BV17" s="1" t="n">
         <v>154.7</v>
       </c>
+      <c r="BW17" s="2" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4694,6 +4748,9 @@
       <c r="BV18" s="1" t="n">
         <v>167.1</v>
       </c>
+      <c r="BW18" s="1" t="n">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4918,6 +4975,9 @@
       <c r="BV19" s="1" t="n">
         <v>211.7</v>
       </c>
+      <c r="BW19" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5142,6 +5202,9 @@
       <c r="BV20" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="BW20" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5366,6 +5429,9 @@
       <c r="BV21" s="1" t="n">
         <v>223.3</v>
       </c>
+      <c r="BW21" s="1" t="n">
+        <v>154.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5590,6 +5656,9 @@
       <c r="BV22" s="2" t="n">
         <v>121.8</v>
       </c>
+      <c r="BW22" s="3" t="n">
+        <v>131.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5814,6 +5883,9 @@
       <c r="BV23" s="3" t="n">
         <v>137</v>
       </c>
+      <c r="BW23" s="1" t="n">
+        <v>165.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6038,6 +6110,9 @@
       <c r="BV24" s="1" t="n">
         <v>170.3</v>
       </c>
+      <c r="BW24" s="1" t="n">
+        <v>241.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6262,6 +6337,9 @@
       <c r="BV25" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="BW25" s="1" t="n">
+        <v>153.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6486,6 +6564,9 @@
       <c r="BV26" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="BW26" s="1" t="n">
+        <v>243.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6710,6 +6791,9 @@
       <c r="BV27" s="1" t="n">
         <v>185.4</v>
       </c>
+      <c r="BW27" s="1" t="n">
+        <v>271.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -6934,6 +7018,9 @@
       <c r="BV28" s="1" t="n">
         <v>151.4</v>
       </c>
+      <c r="BW28" s="1" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7158,6 +7245,9 @@
       <c r="BV29" s="1" t="n">
         <v>183.8</v>
       </c>
+      <c r="BW29" s="1" t="n">
+        <v>250.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7382,6 +7472,9 @@
       <c r="BV30" s="1" t="n">
         <v>213.2</v>
       </c>
+      <c r="BW30" s="1" t="n">
+        <v>159.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7606,6 +7699,9 @@
       <c r="BV31" s="3" t="n">
         <v>128.1</v>
       </c>
+      <c r="BW31" s="1" t="n">
+        <v>151.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -7830,6 +7926,9 @@
       <c r="BV32" s="3" t="n">
         <v>126.2</v>
       </c>
+      <c r="BW32" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -8054,6 +8153,9 @@
       <c r="BV33" s="1" t="n">
         <v>204.4</v>
       </c>
+      <c r="BW33" s="2" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -8278,6 +8380,9 @@
       <c r="BV34" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="BW34" s="1" t="n">
+        <v>177.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -8502,6 +8607,9 @@
       <c r="BV35" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="BW35" s="1" t="n">
+        <v>148.6</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -8726,6 +8834,9 @@
       <c r="BV36" s="1" t="n">
         <v>179.1</v>
       </c>
+      <c r="BW36" s="2" t="n">
+        <v>114.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -8950,6 +9061,9 @@
       <c r="BV37" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="BW37" s="1" t="n">
+        <v>332.6</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -9174,6 +9288,9 @@
       <c r="BV38" s="1" t="n">
         <v>223.9</v>
       </c>
+      <c r="BW38" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -9398,6 +9515,9 @@
       <c r="BV39" s="1" t="n">
         <v>197.2</v>
       </c>
+      <c r="BW39" s="3" t="n">
+        <v>125.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -9622,6 +9742,9 @@
       <c r="BV40" s="1" t="n">
         <v>184.2</v>
       </c>
+      <c r="BW40" s="1" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -9846,6 +9969,9 @@
       <c r="BV41" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="BW41" s="1" t="n">
+        <v>173.5</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -10070,6 +10196,9 @@
       <c r="BV42" s="1" t="n">
         <v>179.1</v>
       </c>
+      <c r="BW42" s="1" t="n">
+        <v>171.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -10294,6 +10423,9 @@
       <c r="BV43" s="1" t="n">
         <v>148.1</v>
       </c>
+      <c r="BW43" s="1" t="n">
+        <v>140.5</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -10518,6 +10650,9 @@
       <c r="BV44" s="2" t="n">
         <v>107.7</v>
       </c>
+      <c r="BW44" s="1" t="n">
+        <v>219.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -10742,6 +10877,9 @@
       <c r="BV45" s="1" t="n">
         <v>156.7</v>
       </c>
+      <c r="BW45" s="1" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -10966,6 +11104,9 @@
       <c r="BV46" s="1" t="n">
         <v>170.3</v>
       </c>
+      <c r="BW46" s="1" t="n">
+        <v>158.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -11190,6 +11331,9 @@
       <c r="BV47" s="1" t="n">
         <v>184.7</v>
       </c>
+      <c r="BW47" s="1" t="n">
+        <v>249.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -11414,6 +11558,9 @@
       <c r="BV48" s="1" t="n">
         <v>189.1</v>
       </c>
+      <c r="BW48" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -11638,6 +11785,9 @@
       <c r="BV49" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="BW49" s="1" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -11862,6 +12012,9 @@
       <c r="BV50" s="1" t="n">
         <v>198.9</v>
       </c>
+      <c r="BW50" s="2" t="n">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -12086,6 +12239,9 @@
       <c r="BV51" s="1" t="n">
         <v>157.1</v>
       </c>
+      <c r="BW51" s="3" t="n">
+        <v>129.6</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -12310,6 +12466,9 @@
       <c r="BV52" s="1" t="n">
         <v>199.7</v>
       </c>
+      <c r="BW52" s="3" t="n">
+        <v>129.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -12533,6 +12692,9 @@
       </c>
       <c r="BV53" s="3" t="n">
         <v>136.7</v>
+      </c>
+      <c r="BW53" s="1" t="n">
+        <v>178.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW53"/>
+  <dimension ref="A1:BX53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,7 @@
     <col width="12" customWidth="1" min="73" max="73"/>
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
+    <col width="12" customWidth="1" min="76" max="76"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -892,6 +893,11 @@
           <t>2024/11/22</t>
         </is>
       </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/23</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1119,6 +1125,9 @@
       <c r="BW2" s="3" t="n">
         <v>126.5</v>
       </c>
+      <c r="BX2" s="1" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1346,6 +1355,9 @@
       <c r="BW3" s="3" t="n">
         <v>132.1</v>
       </c>
+      <c r="BX3" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1573,6 +1585,9 @@
       <c r="BW4" s="1" t="n">
         <v>163.5</v>
       </c>
+      <c r="BX4" s="1" t="n">
+        <v>162.9</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1800,6 +1815,9 @@
       <c r="BW5" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="BX5" s="1" t="n">
+        <v>181.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2027,6 +2045,9 @@
       <c r="BW6" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="BX6" s="3" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2254,6 +2275,9 @@
       <c r="BW7" s="1" t="n">
         <v>323</v>
       </c>
+      <c r="BX7" s="1" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2481,6 +2505,9 @@
       <c r="BW8" s="1" t="n">
         <v>167.7</v>
       </c>
+      <c r="BX8" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2708,6 +2735,9 @@
       <c r="BW9" s="1" t="n">
         <v>242.1</v>
       </c>
+      <c r="BX9" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2935,6 +2965,9 @@
       <c r="BW10" s="1" t="n">
         <v>151.6</v>
       </c>
+      <c r="BX10" s="1" t="n">
+        <v>149.7</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3162,6 +3195,9 @@
       <c r="BW11" s="3" t="n">
         <v>131.2</v>
       </c>
+      <c r="BX11" s="1" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3389,6 +3425,9 @@
       <c r="BW12" s="1" t="n">
         <v>161.7</v>
       </c>
+      <c r="BX12" s="1" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3616,6 +3655,9 @@
       <c r="BW13" s="1" t="n">
         <v>172.7</v>
       </c>
+      <c r="BX13" s="3" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3843,6 +3885,9 @@
       <c r="BW14" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="BX14" s="1" t="n">
+        <v>415.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4070,6 +4115,9 @@
       <c r="BW15" s="1" t="n">
         <v>141.9</v>
       </c>
+      <c r="BX15" s="3" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4297,6 +4345,9 @@
       <c r="BW16" s="1" t="n">
         <v>190</v>
       </c>
+      <c r="BX16" s="3" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4524,6 +4575,9 @@
       <c r="BW17" s="2" t="n">
         <v>122</v>
       </c>
+      <c r="BX17" s="1" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4751,6 +4805,9 @@
       <c r="BW18" s="1" t="n">
         <v>144.2</v>
       </c>
+      <c r="BX18" s="1" t="n">
+        <v>141.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -4978,6 +5035,9 @@
       <c r="BW19" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="BX19" s="1" t="n">
+        <v>173.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5205,6 +5265,9 @@
       <c r="BW20" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="BX20" s="1" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5432,6 +5495,9 @@
       <c r="BW21" s="1" t="n">
         <v>154.1</v>
       </c>
+      <c r="BX21" s="1" t="n">
+        <v>194.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5659,6 +5725,9 @@
       <c r="BW22" s="3" t="n">
         <v>131.7</v>
       </c>
+      <c r="BX22" s="1" t="n">
+        <v>154.6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5886,6 +5955,9 @@
       <c r="BW23" s="1" t="n">
         <v>165.9</v>
       </c>
+      <c r="BX23" s="1" t="n">
+        <v>164.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6113,6 +6185,9 @@
       <c r="BW24" s="1" t="n">
         <v>241.7</v>
       </c>
+      <c r="BX24" s="3" t="n">
+        <v>135.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6340,6 +6415,9 @@
       <c r="BW25" s="1" t="n">
         <v>153.7</v>
       </c>
+      <c r="BX25" s="1" t="n">
+        <v>213.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6567,6 +6645,9 @@
       <c r="BW26" s="1" t="n">
         <v>243.1</v>
       </c>
+      <c r="BX26" s="2" t="n">
+        <v>124.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6794,6 +6875,9 @@
       <c r="BW27" s="1" t="n">
         <v>271.1</v>
       </c>
+      <c r="BX27" s="1" t="n">
+        <v>173.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7021,6 +7105,9 @@
       <c r="BW28" s="1" t="n">
         <v>143.1</v>
       </c>
+      <c r="BX28" s="1" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7248,6 +7335,9 @@
       <c r="BW29" s="1" t="n">
         <v>250.4</v>
       </c>
+      <c r="BX29" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7475,6 +7565,9 @@
       <c r="BW30" s="1" t="n">
         <v>159.7</v>
       </c>
+      <c r="BX30" s="3" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7702,6 +7795,9 @@
       <c r="BW31" s="1" t="n">
         <v>151.9</v>
       </c>
+      <c r="BX31" s="1" t="n">
+        <v>165.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -7929,6 +8025,9 @@
       <c r="BW32" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="BX32" s="1" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -8156,6 +8255,9 @@
       <c r="BW33" s="2" t="n">
         <v>112.6</v>
       </c>
+      <c r="BX33" s="1" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -8383,6 +8485,9 @@
       <c r="BW34" s="1" t="n">
         <v>177.5</v>
       </c>
+      <c r="BX34" s="1" t="n">
+        <v>195.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -8610,6 +8715,9 @@
       <c r="BW35" s="1" t="n">
         <v>148.6</v>
       </c>
+      <c r="BX35" s="2" t="n">
+        <v>118.6</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -8837,6 +8945,9 @@
       <c r="BW36" s="2" t="n">
         <v>114.6</v>
       </c>
+      <c r="BX36" s="1" t="n">
+        <v>206.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -9064,6 +9175,9 @@
       <c r="BW37" s="1" t="n">
         <v>332.6</v>
       </c>
+      <c r="BX37" s="1" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -9291,6 +9405,9 @@
       <c r="BW38" s="2" t="n">
         <v>121.8</v>
       </c>
+      <c r="BX38" s="3" t="n">
+        <v>134.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -9518,6 +9635,9 @@
       <c r="BW39" s="3" t="n">
         <v>125.6</v>
       </c>
+      <c r="BX39" s="3" t="n">
+        <v>129.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -9745,6 +9865,9 @@
       <c r="BW40" s="1" t="n">
         <v>156.1</v>
       </c>
+      <c r="BX40" s="1" t="n">
+        <v>222.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -9972,6 +10095,9 @@
       <c r="BW41" s="1" t="n">
         <v>173.5</v>
       </c>
+      <c r="BX41" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -10199,6 +10325,9 @@
       <c r="BW42" s="1" t="n">
         <v>171.9</v>
       </c>
+      <c r="BX42" s="1" t="n">
+        <v>145.7</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -10426,6 +10555,9 @@
       <c r="BW43" s="1" t="n">
         <v>140.5</v>
       </c>
+      <c r="BX43" s="1" t="n">
+        <v>235.6</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -10653,6 +10785,9 @@
       <c r="BW44" s="1" t="n">
         <v>219.5</v>
       </c>
+      <c r="BX44" s="1" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -10880,6 +11015,9 @@
       <c r="BW45" s="1" t="n">
         <v>142.5</v>
       </c>
+      <c r="BX45" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -11107,6 +11245,9 @@
       <c r="BW46" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="BX46" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -11334,6 +11475,9 @@
       <c r="BW47" s="1" t="n">
         <v>249.8</v>
       </c>
+      <c r="BX47" s="1" t="n">
+        <v>174.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -11561,6 +11705,9 @@
       <c r="BW48" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="BX48" s="2" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -11788,6 +11935,9 @@
       <c r="BW49" s="1" t="n">
         <v>221</v>
       </c>
+      <c r="BX49" s="3" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -12015,6 +12165,9 @@
       <c r="BW50" s="2" t="n">
         <v>117.2</v>
       </c>
+      <c r="BX50" s="1" t="n">
+        <v>165.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -12242,6 +12395,9 @@
       <c r="BW51" s="3" t="n">
         <v>129.6</v>
       </c>
+      <c r="BX51" s="1" t="n">
+        <v>156.9</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -12469,6 +12625,9 @@
       <c r="BW52" s="3" t="n">
         <v>129.2</v>
       </c>
+      <c r="BX52" s="1" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -12695,6 +12854,9 @@
       </c>
       <c r="BW53" s="1" t="n">
         <v>178.4</v>
+      </c>
+      <c r="BX53" s="3" t="n">
+        <v>125.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX53"/>
+  <dimension ref="A1:BY53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,7 @@
     <col width="12" customWidth="1" min="74" max="74"/>
     <col width="12" customWidth="1" min="75" max="75"/>
     <col width="12" customWidth="1" min="76" max="76"/>
+    <col width="12" customWidth="1" min="77" max="77"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -898,6 +899,11 @@
           <t>2024/11/23</t>
         </is>
       </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/24</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1128,6 +1134,9 @@
       <c r="BX2" s="1" t="n">
         <v>171</v>
       </c>
+      <c r="BY2" s="1" t="n">
+        <v>207.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1358,6 +1367,9 @@
       <c r="BX3" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="BY3" s="2" t="n">
+        <v>120.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1588,6 +1600,9 @@
       <c r="BX4" s="1" t="n">
         <v>162.9</v>
       </c>
+      <c r="BY4" s="1" t="n">
+        <v>165.4</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1818,6 +1833,9 @@
       <c r="BX5" s="1" t="n">
         <v>181.5</v>
       </c>
+      <c r="BY5" s="1" t="n">
+        <v>218.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2048,6 +2066,9 @@
       <c r="BX6" s="3" t="n">
         <v>134.9</v>
       </c>
+      <c r="BY6" s="1" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2278,6 +2299,9 @@
       <c r="BX7" s="1" t="n">
         <v>210</v>
       </c>
+      <c r="BY7" s="1" t="n">
+        <v>142.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2508,6 +2532,9 @@
       <c r="BX8" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="BY8" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2738,6 +2765,9 @@
       <c r="BX9" s="1" t="n">
         <v>156.8</v>
       </c>
+      <c r="BY9" s="3" t="n">
+        <v>130.9</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -2968,6 +2998,9 @@
       <c r="BX10" s="1" t="n">
         <v>149.7</v>
       </c>
+      <c r="BY10" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3198,6 +3231,9 @@
       <c r="BX11" s="1" t="n">
         <v>163.8</v>
       </c>
+      <c r="BY11" s="1" t="n">
+        <v>201.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3428,6 +3464,9 @@
       <c r="BX12" s="1" t="n">
         <v>152.2</v>
       </c>
+      <c r="BY12" s="1" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3658,6 +3697,9 @@
       <c r="BX13" s="3" t="n">
         <v>133.9</v>
       </c>
+      <c r="BY13" s="1" t="n">
+        <v>175.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3888,6 +3930,9 @@
       <c r="BX14" s="1" t="n">
         <v>415.6</v>
       </c>
+      <c r="BY14" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4118,6 +4163,9 @@
       <c r="BX15" s="3" t="n">
         <v>130</v>
       </c>
+      <c r="BY15" s="1" t="n">
+        <v>196.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4348,6 +4396,9 @@
       <c r="BX16" s="3" t="n">
         <v>132</v>
       </c>
+      <c r="BY16" s="2" t="n">
+        <v>124.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4578,6 +4629,9 @@
       <c r="BX17" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="BY17" s="1" t="n">
+        <v>207.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4808,6 +4862,9 @@
       <c r="BX18" s="1" t="n">
         <v>141.6</v>
       </c>
+      <c r="BY18" s="1" t="n">
+        <v>170.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5038,6 +5095,9 @@
       <c r="BX19" s="1" t="n">
         <v>173.6</v>
       </c>
+      <c r="BY19" s="2" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5268,6 +5328,9 @@
       <c r="BX20" s="1" t="n">
         <v>162</v>
       </c>
+      <c r="BY20" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5498,6 +5561,9 @@
       <c r="BX21" s="1" t="n">
         <v>194.7</v>
       </c>
+      <c r="BY21" s="1" t="n">
+        <v>215.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5728,6 +5794,9 @@
       <c r="BX22" s="1" t="n">
         <v>154.6</v>
       </c>
+      <c r="BY22" s="3" t="n">
+        <v>125.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -5958,6 +6027,9 @@
       <c r="BX23" s="1" t="n">
         <v>164.7</v>
       </c>
+      <c r="BY23" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6188,6 +6260,9 @@
       <c r="BX24" s="3" t="n">
         <v>135.5</v>
       </c>
+      <c r="BY24" s="3" t="n">
+        <v>128.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6418,6 +6493,9 @@
       <c r="BX25" s="1" t="n">
         <v>213.6</v>
       </c>
+      <c r="BY25" s="2" t="n">
+        <v>124.9</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6648,6 +6726,9 @@
       <c r="BX26" s="2" t="n">
         <v>124.1</v>
       </c>
+      <c r="BY26" s="1" t="n">
+        <v>164.2</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6878,6 +6959,9 @@
       <c r="BX27" s="1" t="n">
         <v>173.8</v>
       </c>
+      <c r="BY27" s="1" t="n">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7108,6 +7192,9 @@
       <c r="BX28" s="1" t="n">
         <v>188</v>
       </c>
+      <c r="BY28" s="1" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7338,6 +7425,9 @@
       <c r="BX29" s="1" t="n">
         <v>146.6</v>
       </c>
+      <c r="BY29" s="1" t="n">
+        <v>237.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7568,6 +7658,9 @@
       <c r="BX30" s="3" t="n">
         <v>132.4</v>
       </c>
+      <c r="BY30" s="1" t="n">
+        <v>175.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7798,6 +7891,9 @@
       <c r="BX31" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="BY31" s="1" t="n">
+        <v>175.2</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -8028,6 +8124,9 @@
       <c r="BX32" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="BY32" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -8258,6 +8357,9 @@
       <c r="BX33" s="1" t="n">
         <v>156.6</v>
       </c>
+      <c r="BY33" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -8488,6 +8590,9 @@
       <c r="BX34" s="1" t="n">
         <v>195.5</v>
       </c>
+      <c r="BY34" s="1" t="n">
+        <v>156.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -8718,6 +8823,9 @@
       <c r="BX35" s="2" t="n">
         <v>118.6</v>
       </c>
+      <c r="BY35" s="2" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -8948,6 +9056,9 @@
       <c r="BX36" s="1" t="n">
         <v>206.1</v>
       </c>
+      <c r="BY36" s="1" t="n">
+        <v>181.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -9178,6 +9289,9 @@
       <c r="BX37" s="1" t="n">
         <v>141.9</v>
       </c>
+      <c r="BY37" s="1" t="n">
+        <v>168.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -9408,6 +9522,9 @@
       <c r="BX38" s="3" t="n">
         <v>134.7</v>
       </c>
+      <c r="BY38" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -9638,6 +9755,9 @@
       <c r="BX39" s="3" t="n">
         <v>129.3</v>
       </c>
+      <c r="BY39" s="1" t="n">
+        <v>185.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -9868,6 +9988,9 @@
       <c r="BX40" s="1" t="n">
         <v>222.8</v>
       </c>
+      <c r="BY40" s="1" t="n">
+        <v>232.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -10098,6 +10221,9 @@
       <c r="BX41" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="BY41" s="3" t="n">
+        <v>136.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -10328,6 +10454,9 @@
       <c r="BX42" s="1" t="n">
         <v>145.7</v>
       </c>
+      <c r="BY42" s="1" t="n">
+        <v>151.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -10558,6 +10687,9 @@
       <c r="BX43" s="1" t="n">
         <v>235.6</v>
       </c>
+      <c r="BY43" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -10788,6 +10920,9 @@
       <c r="BX44" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="BY44" s="3" t="n">
+        <v>139.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -11018,6 +11153,9 @@
       <c r="BX45" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="BY45" s="1" t="n">
+        <v>180.3</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -11248,6 +11386,9 @@
       <c r="BX46" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="BY46" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -11478,6 +11619,9 @@
       <c r="BX47" s="1" t="n">
         <v>174.8</v>
       </c>
+      <c r="BY47" s="1" t="n">
+        <v>164.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -11708,6 +11852,9 @@
       <c r="BX48" s="2" t="n">
         <v>120.5</v>
       </c>
+      <c r="BY48" s="1" t="n">
+        <v>181.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -11938,6 +12085,9 @@
       <c r="BX49" s="3" t="n">
         <v>132.2</v>
       </c>
+      <c r="BY49" s="1" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -12168,6 +12318,9 @@
       <c r="BX50" s="1" t="n">
         <v>165.9</v>
       </c>
+      <c r="BY50" s="2" t="n">
+        <v>111.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -12398,6 +12551,9 @@
       <c r="BX51" s="1" t="n">
         <v>156.9</v>
       </c>
+      <c r="BY51" s="3" t="n">
+        <v>139.2</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -12628,6 +12784,9 @@
       <c r="BX52" s="1" t="n">
         <v>152.2</v>
       </c>
+      <c r="BY52" s="2" t="n">
+        <v>122.9</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -12857,6 +13016,9 @@
       </c>
       <c r="BX53" s="3" t="n">
         <v>125.8</v>
+      </c>
+      <c r="BY53" s="1" t="n">
+        <v>159.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BY53"/>
+  <dimension ref="A1:BZ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +516,7 @@
     <col width="12" customWidth="1" min="75" max="75"/>
     <col width="12" customWidth="1" min="76" max="76"/>
     <col width="12" customWidth="1" min="77" max="77"/>
+    <col width="12" customWidth="1" min="78" max="78"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -904,6 +905,11 @@
           <t>2024/11/24</t>
         </is>
       </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/25</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1137,6 +1143,9 @@
       <c r="BY2" s="1" t="n">
         <v>207.1</v>
       </c>
+      <c r="BZ2" s="2" t="n">
+        <v>103.4</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1370,6 +1379,9 @@
       <c r="BY3" s="2" t="n">
         <v>120.9</v>
       </c>
+      <c r="BZ3" s="3" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1603,6 +1615,9 @@
       <c r="BY4" s="1" t="n">
         <v>165.4</v>
       </c>
+      <c r="BZ4" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1836,6 +1851,9 @@
       <c r="BY5" s="1" t="n">
         <v>218.6</v>
       </c>
+      <c r="BZ5" s="1" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2069,6 +2087,9 @@
       <c r="BY6" s="1" t="n">
         <v>180</v>
       </c>
+      <c r="BZ6" s="1" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2302,6 +2323,9 @@
       <c r="BY7" s="1" t="n">
         <v>142.4</v>
       </c>
+      <c r="BZ7" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2535,6 +2559,9 @@
       <c r="BY8" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="BZ8" s="1" t="n">
+        <v>158.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2768,6 +2795,9 @@
       <c r="BY9" s="3" t="n">
         <v>130.9</v>
       </c>
+      <c r="BZ9" s="1" t="n">
+        <v>159.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3001,6 +3031,9 @@
       <c r="BY10" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="BZ10" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3234,6 +3267,9 @@
       <c r="BY11" s="1" t="n">
         <v>201.3</v>
       </c>
+      <c r="BZ11" s="1" t="n">
+        <v>313.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3467,6 +3503,9 @@
       <c r="BY12" s="1" t="n">
         <v>163.8</v>
       </c>
+      <c r="BZ12" s="1" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3700,6 +3739,9 @@
       <c r="BY13" s="1" t="n">
         <v>175.2</v>
       </c>
+      <c r="BZ13" s="2" t="n">
+        <v>117.1</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3933,6 +3975,9 @@
       <c r="BY14" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="BZ14" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4166,6 +4211,9 @@
       <c r="BY15" s="1" t="n">
         <v>196.2</v>
       </c>
+      <c r="BZ15" s="1" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4399,6 +4447,9 @@
       <c r="BY16" s="2" t="n">
         <v>124.3</v>
       </c>
+      <c r="BZ16" s="2" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4632,6 +4683,9 @@
       <c r="BY17" s="1" t="n">
         <v>207.1</v>
       </c>
+      <c r="BZ17" s="3" t="n">
+        <v>130.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4865,6 +4919,9 @@
       <c r="BY18" s="1" t="n">
         <v>170.9</v>
       </c>
+      <c r="BZ18" s="1" t="n">
+        <v>290.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5098,6 +5155,9 @@
       <c r="BY19" s="2" t="n">
         <v>123.4</v>
       </c>
+      <c r="BZ19" s="2" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5331,6 +5391,9 @@
       <c r="BY20" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="BZ20" s="1" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5564,6 +5627,9 @@
       <c r="BY21" s="1" t="n">
         <v>215.3</v>
       </c>
+      <c r="BZ21" s="2" t="n">
+        <v>120.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5797,6 +5863,9 @@
       <c r="BY22" s="3" t="n">
         <v>125.8</v>
       </c>
+      <c r="BZ22" s="3" t="n">
+        <v>134.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6030,6 +6099,9 @@
       <c r="BY23" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="BZ23" s="1" t="n">
+        <v>179.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6263,6 +6335,9 @@
       <c r="BY24" s="3" t="n">
         <v>128.9</v>
       </c>
+      <c r="BZ24" s="1" t="n">
+        <v>167.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6496,6 +6571,9 @@
       <c r="BY25" s="2" t="n">
         <v>124.9</v>
       </c>
+      <c r="BZ25" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6729,6 +6807,9 @@
       <c r="BY26" s="1" t="n">
         <v>164.2</v>
       </c>
+      <c r="BZ26" s="1" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -6962,6 +7043,9 @@
       <c r="BY27" s="1" t="n">
         <v>186.1</v>
       </c>
+      <c r="BZ27" s="1" t="n">
+        <v>180.7</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7195,6 +7279,9 @@
       <c r="BY28" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="BZ28" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7428,6 +7515,9 @@
       <c r="BY29" s="1" t="n">
         <v>237.6</v>
       </c>
+      <c r="BZ29" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7661,6 +7751,9 @@
       <c r="BY30" s="1" t="n">
         <v>175.4</v>
       </c>
+      <c r="BZ30" s="1" t="n">
+        <v>155.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7894,6 +7987,9 @@
       <c r="BY31" s="1" t="n">
         <v>175.2</v>
       </c>
+      <c r="BZ31" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -8127,6 +8223,9 @@
       <c r="BY32" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="BZ32" s="1" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -8360,6 +8459,9 @@
       <c r="BY33" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="BZ33" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -8593,6 +8695,9 @@
       <c r="BY34" s="1" t="n">
         <v>156.2</v>
       </c>
+      <c r="BZ34" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -8826,6 +8931,9 @@
       <c r="BY35" s="2" t="n">
         <v>113</v>
       </c>
+      <c r="BZ35" s="1" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -9059,6 +9167,9 @@
       <c r="BY36" s="1" t="n">
         <v>181.1</v>
       </c>
+      <c r="BZ36" s="1" t="n">
+        <v>141.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -9292,6 +9403,9 @@
       <c r="BY37" s="1" t="n">
         <v>168.9</v>
       </c>
+      <c r="BZ37" s="2" t="n">
+        <v>119.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -9525,6 +9639,9 @@
       <c r="BY38" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="BZ38" s="1" t="n">
+        <v>193.4</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -9758,6 +9875,9 @@
       <c r="BY39" s="1" t="n">
         <v>185.1</v>
       </c>
+      <c r="BZ39" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -9991,6 +10111,9 @@
       <c r="BY40" s="1" t="n">
         <v>232.8</v>
       </c>
+      <c r="BZ40" s="3" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -10224,6 +10347,9 @@
       <c r="BY41" s="3" t="n">
         <v>136.6</v>
       </c>
+      <c r="BZ41" s="3" t="n">
+        <v>135.5</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -10457,6 +10583,9 @@
       <c r="BY42" s="1" t="n">
         <v>151.6</v>
       </c>
+      <c r="BZ42" s="3" t="n">
+        <v>134.7</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -10690,6 +10819,9 @@
       <c r="BY43" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="BZ43" s="1" t="n">
+        <v>220.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -10923,6 +11055,9 @@
       <c r="BY44" s="3" t="n">
         <v>139.6</v>
       </c>
+      <c r="BZ44" s="2" t="n">
+        <v>118.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -11156,6 +11291,9 @@
       <c r="BY45" s="1" t="n">
         <v>180.3</v>
       </c>
+      <c r="BZ45" s="1" t="n">
+        <v>232.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -11389,6 +11527,9 @@
       <c r="BY46" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="BZ46" s="1" t="n">
+        <v>175.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -11622,6 +11763,9 @@
       <c r="BY47" s="1" t="n">
         <v>164.2</v>
       </c>
+      <c r="BZ47" s="1" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -11855,6 +11999,9 @@
       <c r="BY48" s="1" t="n">
         <v>181.7</v>
       </c>
+      <c r="BZ48" s="3" t="n">
+        <v>133.5</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -12088,6 +12235,9 @@
       <c r="BY49" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="BZ49" s="2" t="n">
+        <v>114.7</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -12321,6 +12471,9 @@
       <c r="BY50" s="2" t="n">
         <v>111.8</v>
       </c>
+      <c r="BZ50" s="1" t="n">
+        <v>163.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -12554,6 +12707,9 @@
       <c r="BY51" s="3" t="n">
         <v>139.2</v>
       </c>
+      <c r="BZ51" s="3" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -12787,6 +12943,9 @@
       <c r="BY52" s="2" t="n">
         <v>122.9</v>
       </c>
+      <c r="BZ52" s="1" t="n">
+        <v>174.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -13019,6 +13178,9 @@
       </c>
       <c r="BY53" s="1" t="n">
         <v>159.9</v>
+      </c>
+      <c r="BZ53" s="2" t="n">
+        <v>95.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ53"/>
+  <dimension ref="A1:CA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,7 @@
     <col width="12" customWidth="1" min="76" max="76"/>
     <col width="12" customWidth="1" min="77" max="77"/>
     <col width="12" customWidth="1" min="78" max="78"/>
+    <col width="12" customWidth="1" min="79" max="79"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -910,6 +911,11 @@
           <t>2024/11/25</t>
         </is>
       </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/26</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1146,6 +1152,9 @@
       <c r="BZ2" s="2" t="n">
         <v>103.4</v>
       </c>
+      <c r="CA2" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1382,6 +1391,9 @@
       <c r="BZ3" s="3" t="n">
         <v>130.3</v>
       </c>
+      <c r="CA3" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1618,6 +1630,9 @@
       <c r="BZ4" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="CA4" s="1" t="n">
+        <v>231.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1854,6 +1869,9 @@
       <c r="BZ5" s="1" t="n">
         <v>177</v>
       </c>
+      <c r="CA5" s="2" t="n">
+        <v>107.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2090,6 +2108,9 @@
       <c r="BZ6" s="1" t="n">
         <v>151.8</v>
       </c>
+      <c r="CA6" s="1" t="n">
+        <v>172.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2326,6 +2347,9 @@
       <c r="BZ7" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="CA7" s="1" t="n">
+        <v>166.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2562,6 +2586,9 @@
       <c r="BZ8" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="CA8" s="1" t="n">
+        <v>220.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2798,6 +2825,9 @@
       <c r="BZ9" s="1" t="n">
         <v>159.3</v>
       </c>
+      <c r="CA9" s="2" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3034,6 +3064,9 @@
       <c r="BZ10" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="CA10" s="3" t="n">
+        <v>139.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3270,6 +3303,9 @@
       <c r="BZ11" s="1" t="n">
         <v>313.9</v>
       </c>
+      <c r="CA11" s="1" t="n">
+        <v>179.1</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3506,6 +3542,9 @@
       <c r="BZ12" s="1" t="n">
         <v>162.4</v>
       </c>
+      <c r="CA12" s="3" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3742,6 +3781,9 @@
       <c r="BZ13" s="2" t="n">
         <v>117.1</v>
       </c>
+      <c r="CA13" s="1" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -3978,6 +4020,9 @@
       <c r="BZ14" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="CA14" s="3" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4214,6 +4259,9 @@
       <c r="BZ15" s="1" t="n">
         <v>156.1</v>
       </c>
+      <c r="CA15" s="1" t="n">
+        <v>152.9</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4450,6 +4498,9 @@
       <c r="BZ16" s="2" t="n">
         <v>121.6</v>
       </c>
+      <c r="CA16" s="3" t="n">
+        <v>127.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4686,6 +4737,9 @@
       <c r="BZ17" s="3" t="n">
         <v>130.1</v>
       </c>
+      <c r="CA17" s="1" t="n">
+        <v>176.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4922,6 +4976,9 @@
       <c r="BZ18" s="1" t="n">
         <v>290.9</v>
       </c>
+      <c r="CA18" s="3" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5158,6 +5215,9 @@
       <c r="BZ19" s="2" t="n">
         <v>114.3</v>
       </c>
+      <c r="CA19" s="1" t="n">
+        <v>170.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5394,6 +5454,9 @@
       <c r="BZ20" s="1" t="n">
         <v>187.7</v>
       </c>
+      <c r="CA20" s="3" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5630,6 +5693,9 @@
       <c r="BZ21" s="2" t="n">
         <v>120.1</v>
       </c>
+      <c r="CA21" s="1" t="n">
+        <v>263.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5866,6 +5932,9 @@
       <c r="BZ22" s="3" t="n">
         <v>134.3</v>
       </c>
+      <c r="CA22" s="1" t="n">
+        <v>234.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6102,6 +6171,9 @@
       <c r="BZ23" s="1" t="n">
         <v>179.8</v>
       </c>
+      <c r="CA23" s="1" t="n">
+        <v>151.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6338,6 +6410,9 @@
       <c r="BZ24" s="1" t="n">
         <v>167.4</v>
       </c>
+      <c r="CA24" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6574,6 +6649,9 @@
       <c r="BZ25" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="CA25" s="1" t="n">
+        <v>207.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6810,6 +6888,9 @@
       <c r="BZ26" s="1" t="n">
         <v>147</v>
       </c>
+      <c r="CA26" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7046,6 +7127,9 @@
       <c r="BZ27" s="1" t="n">
         <v>180.7</v>
       </c>
+      <c r="CA27" s="3" t="n">
+        <v>128.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7282,6 +7366,9 @@
       <c r="BZ28" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="CA28" s="1" t="n">
+        <v>203.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7518,6 +7605,9 @@
       <c r="BZ29" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="CA29" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7754,6 +7844,9 @@
       <c r="BZ30" s="1" t="n">
         <v>155.5</v>
       </c>
+      <c r="CA30" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -7990,6 +8083,9 @@
       <c r="BZ31" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="CA31" s="1" t="n">
+        <v>301.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -8226,6 +8322,9 @@
       <c r="BZ32" s="1" t="n">
         <v>150.6</v>
       </c>
+      <c r="CA32" s="1" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -8462,6 +8561,9 @@
       <c r="BZ33" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="CA33" s="1" t="n">
+        <v>208.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -8698,6 +8800,9 @@
       <c r="BZ34" s="1" t="n">
         <v>146.6</v>
       </c>
+      <c r="CA34" s="1" t="n">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -8934,6 +9039,9 @@
       <c r="BZ35" s="1" t="n">
         <v>141.9</v>
       </c>
+      <c r="CA35" s="3" t="n">
+        <v>135.3</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -9170,6 +9278,9 @@
       <c r="BZ36" s="1" t="n">
         <v>141.6</v>
       </c>
+      <c r="CA36" s="1" t="n">
+        <v>166.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -9406,6 +9517,9 @@
       <c r="BZ37" s="2" t="n">
         <v>119.4</v>
       </c>
+      <c r="CA37" s="1" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -9642,6 +9756,9 @@
       <c r="BZ38" s="1" t="n">
         <v>193.4</v>
       </c>
+      <c r="CA38" s="1" t="n">
+        <v>171.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -9878,6 +9995,9 @@
       <c r="BZ39" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="CA39" s="1" t="n">
+        <v>174.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -10114,6 +10234,9 @@
       <c r="BZ40" s="3" t="n">
         <v>132.4</v>
       </c>
+      <c r="CA40" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -10350,6 +10473,9 @@
       <c r="BZ41" s="3" t="n">
         <v>135.5</v>
       </c>
+      <c r="CA41" s="1" t="n">
+        <v>242.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -10586,6 +10712,9 @@
       <c r="BZ42" s="3" t="n">
         <v>134.7</v>
       </c>
+      <c r="CA42" s="1" t="n">
+        <v>171.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -10822,6 +10951,9 @@
       <c r="BZ43" s="1" t="n">
         <v>220.8</v>
       </c>
+      <c r="CA43" s="1" t="n">
+        <v>186.6</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -11058,6 +11190,9 @@
       <c r="BZ44" s="2" t="n">
         <v>118.7</v>
       </c>
+      <c r="CA44" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -11294,6 +11429,9 @@
       <c r="BZ45" s="1" t="n">
         <v>232.6</v>
       </c>
+      <c r="CA45" s="1" t="n">
+        <v>252.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -11530,6 +11668,9 @@
       <c r="BZ46" s="1" t="n">
         <v>175.4</v>
       </c>
+      <c r="CA46" s="1" t="n">
+        <v>149.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -11766,6 +11907,9 @@
       <c r="BZ47" s="1" t="n">
         <v>156</v>
       </c>
+      <c r="CA47" s="1" t="n">
+        <v>184.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -12002,6 +12146,9 @@
       <c r="BZ48" s="3" t="n">
         <v>133.5</v>
       </c>
+      <c r="CA48" s="1" t="n">
+        <v>168.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -12238,6 +12385,9 @@
       <c r="BZ49" s="2" t="n">
         <v>114.7</v>
       </c>
+      <c r="CA49" s="1" t="n">
+        <v>353.7</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -12474,6 +12624,9 @@
       <c r="BZ50" s="1" t="n">
         <v>163.7</v>
       </c>
+      <c r="CA50" s="3" t="n">
+        <v>131.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -12710,6 +12863,9 @@
       <c r="BZ51" s="3" t="n">
         <v>136.7</v>
       </c>
+      <c r="CA51" s="1" t="n">
+        <v>199.2</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -12946,6 +13102,9 @@
       <c r="BZ52" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="CA52" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -13181,6 +13340,9 @@
       </c>
       <c r="BZ53" s="2" t="n">
         <v>95.8</v>
+      </c>
+      <c r="CA53" s="1" t="n">
+        <v>167.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CA53"/>
+  <dimension ref="A1:CB53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,7 @@
     <col width="12" customWidth="1" min="77" max="77"/>
     <col width="12" customWidth="1" min="78" max="78"/>
     <col width="12" customWidth="1" min="79" max="79"/>
+    <col width="12" customWidth="1" min="80" max="80"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -916,6 +917,11 @@
           <t>2024/11/26</t>
         </is>
       </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/27</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1155,6 +1161,9 @@
       <c r="CA2" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="CB2" s="1" t="n">
+        <v>161.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1394,6 +1403,9 @@
       <c r="CA3" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="CB3" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1633,6 +1645,9 @@
       <c r="CA4" s="1" t="n">
         <v>231.3</v>
       </c>
+      <c r="CB4" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1872,6 +1887,9 @@
       <c r="CA5" s="2" t="n">
         <v>107.4</v>
       </c>
+      <c r="CB5" s="1" t="n">
+        <v>282.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2111,6 +2129,9 @@
       <c r="CA6" s="1" t="n">
         <v>172.7</v>
       </c>
+      <c r="CB6" s="3" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2350,6 +2371,9 @@
       <c r="CA7" s="1" t="n">
         <v>166.2</v>
       </c>
+      <c r="CB7" s="1" t="n">
+        <v>276.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2589,6 +2613,9 @@
       <c r="CA8" s="1" t="n">
         <v>220.2</v>
       </c>
+      <c r="CB8" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2828,6 +2855,9 @@
       <c r="CA9" s="2" t="n">
         <v>124.5</v>
       </c>
+      <c r="CB9" s="3" t="n">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3067,6 +3097,9 @@
       <c r="CA10" s="3" t="n">
         <v>139.2</v>
       </c>
+      <c r="CB10" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3306,6 +3339,9 @@
       <c r="CA11" s="1" t="n">
         <v>179.1</v>
       </c>
+      <c r="CB11" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3545,6 +3581,9 @@
       <c r="CA12" s="3" t="n">
         <v>134</v>
       </c>
+      <c r="CB12" s="1" t="n">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3784,6 +3823,9 @@
       <c r="CA13" s="1" t="n">
         <v>188.8</v>
       </c>
+      <c r="CB13" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4023,6 +4065,9 @@
       <c r="CA14" s="3" t="n">
         <v>134.8</v>
       </c>
+      <c r="CB14" s="1" t="n">
+        <v>158.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4262,6 +4307,9 @@
       <c r="CA15" s="1" t="n">
         <v>152.9</v>
       </c>
+      <c r="CB15" s="3" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4501,6 +4549,9 @@
       <c r="CA16" s="3" t="n">
         <v>127.9</v>
       </c>
+      <c r="CB16" s="3" t="n">
+        <v>126.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4740,6 +4791,9 @@
       <c r="CA17" s="1" t="n">
         <v>176.3</v>
       </c>
+      <c r="CB17" s="1" t="n">
+        <v>194.2</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -4979,6 +5033,9 @@
       <c r="CA18" s="3" t="n">
         <v>133.4</v>
       </c>
+      <c r="CB18" s="1" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5218,6 +5275,9 @@
       <c r="CA19" s="1" t="n">
         <v>170.4</v>
       </c>
+      <c r="CB19" s="1" t="n">
+        <v>152.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5457,6 +5517,9 @@
       <c r="CA20" s="3" t="n">
         <v>134</v>
       </c>
+      <c r="CB20" s="2" t="n">
+        <v>123.8</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5696,6 +5759,9 @@
       <c r="CA21" s="1" t="n">
         <v>263.6</v>
       </c>
+      <c r="CB21" s="1" t="n">
+        <v>266.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -5935,6 +6001,9 @@
       <c r="CA22" s="1" t="n">
         <v>234.3</v>
       </c>
+      <c r="CB22" s="3" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6174,6 +6243,9 @@
       <c r="CA23" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="CB23" s="1" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6413,6 +6485,9 @@
       <c r="CA24" s="2" t="n">
         <v>121.8</v>
       </c>
+      <c r="CB24" s="2" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6652,6 +6727,9 @@
       <c r="CA25" s="1" t="n">
         <v>207.5</v>
       </c>
+      <c r="CB25" s="1" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6891,6 +6969,9 @@
       <c r="CA26" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="CB26" s="1" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7130,6 +7211,9 @@
       <c r="CA27" s="3" t="n">
         <v>128.3</v>
       </c>
+      <c r="CB27" s="3" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7369,6 +7453,9 @@
       <c r="CA28" s="1" t="n">
         <v>203.7</v>
       </c>
+      <c r="CB28" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7608,6 +7695,9 @@
       <c r="CA29" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="CB29" s="1" t="n">
+        <v>179.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7847,6 +7937,9 @@
       <c r="CA30" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="CB30" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -8086,6 +8179,9 @@
       <c r="CA31" s="1" t="n">
         <v>301.3</v>
       </c>
+      <c r="CB31" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -8325,6 +8421,9 @@
       <c r="CA32" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="CB32" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -8564,6 +8663,9 @@
       <c r="CA33" s="1" t="n">
         <v>208.4</v>
       </c>
+      <c r="CB33" s="3" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -8803,6 +8905,9 @@
       <c r="CA34" s="1" t="n">
         <v>144.2</v>
       </c>
+      <c r="CB34" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -9042,6 +9147,9 @@
       <c r="CA35" s="3" t="n">
         <v>135.3</v>
       </c>
+      <c r="CB35" s="1" t="n">
+        <v>142.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -9281,6 +9389,9 @@
       <c r="CA36" s="1" t="n">
         <v>166.7</v>
       </c>
+      <c r="CB36" s="1" t="n">
+        <v>166.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -9520,6 +9631,9 @@
       <c r="CA37" s="1" t="n">
         <v>188.9</v>
       </c>
+      <c r="CB37" s="2" t="n">
+        <v>120.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -9759,6 +9873,9 @@
       <c r="CA38" s="1" t="n">
         <v>171.5</v>
       </c>
+      <c r="CB38" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -9998,6 +10115,9 @@
       <c r="CA39" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="CB39" s="1" t="n">
+        <v>212.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -10237,6 +10357,9 @@
       <c r="CA40" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="CB40" s="3" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -10476,6 +10599,9 @@
       <c r="CA41" s="1" t="n">
         <v>242.7</v>
       </c>
+      <c r="CB41" s="2" t="n">
+        <v>112.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -10715,6 +10841,9 @@
       <c r="CA42" s="1" t="n">
         <v>171.2</v>
       </c>
+      <c r="CB42" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -10954,6 +11083,9 @@
       <c r="CA43" s="1" t="n">
         <v>186.6</v>
       </c>
+      <c r="CB43" s="3" t="n">
+        <v>134.5</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -11193,6 +11325,9 @@
       <c r="CA44" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="CB44" s="1" t="n">
+        <v>141.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -11432,6 +11567,9 @@
       <c r="CA45" s="1" t="n">
         <v>252.6</v>
       </c>
+      <c r="CB45" s="3" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -11671,6 +11809,9 @@
       <c r="CA46" s="1" t="n">
         <v>149.3</v>
       </c>
+      <c r="CB46" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -11910,6 +12051,9 @@
       <c r="CA47" s="1" t="n">
         <v>184.4</v>
       </c>
+      <c r="CB47" s="1" t="n">
+        <v>158.6</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -12149,6 +12293,9 @@
       <c r="CA48" s="1" t="n">
         <v>168.7</v>
       </c>
+      <c r="CB48" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -12388,6 +12535,9 @@
       <c r="CA49" s="1" t="n">
         <v>353.7</v>
       </c>
+      <c r="CB49" s="1" t="n">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -12627,6 +12777,9 @@
       <c r="CA50" s="3" t="n">
         <v>131.9</v>
       </c>
+      <c r="CB50" s="1" t="n">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -12866,6 +13019,9 @@
       <c r="CA51" s="1" t="n">
         <v>199.2</v>
       </c>
+      <c r="CB51" s="3" t="n">
+        <v>134.6</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -13105,6 +13261,9 @@
       <c r="CA52" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="CB52" s="1" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -13343,6 +13502,9 @@
       </c>
       <c r="CA53" s="1" t="n">
         <v>167.7</v>
+      </c>
+      <c r="CB53" s="1" t="n">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CB53"/>
+  <dimension ref="A1:CC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,7 @@
     <col width="12" customWidth="1" min="78" max="78"/>
     <col width="12" customWidth="1" min="79" max="79"/>
     <col width="12" customWidth="1" min="80" max="80"/>
+    <col width="12" customWidth="1" min="81" max="81"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -922,6 +923,11 @@
           <t>2024/11/27</t>
         </is>
       </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/28</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1164,6 +1170,9 @@
       <c r="CB2" s="1" t="n">
         <v>161.1</v>
       </c>
+      <c r="CC2" s="1" t="n">
+        <v>198.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1406,6 +1415,9 @@
       <c r="CB3" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="CC3" s="3" t="n">
+        <v>137.2</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1648,6 +1660,9 @@
       <c r="CB4" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="CC4" s="1" t="n">
+        <v>231.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1890,6 +1905,9 @@
       <c r="CB5" s="1" t="n">
         <v>282.9</v>
       </c>
+      <c r="CC5" s="1" t="n">
+        <v>184.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2132,6 +2150,9 @@
       <c r="CB6" s="3" t="n">
         <v>128.8</v>
       </c>
+      <c r="CC6" s="1" t="n">
+        <v>202.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2374,6 +2395,9 @@
       <c r="CB7" s="1" t="n">
         <v>276.2</v>
       </c>
+      <c r="CC7" s="1" t="n">
+        <v>209.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2616,6 +2640,9 @@
       <c r="CB8" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="CC8" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2858,6 +2885,9 @@
       <c r="CB9" s="3" t="n">
         <v>129.4</v>
       </c>
+      <c r="CC9" s="1" t="n">
+        <v>174.4</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3100,6 +3130,9 @@
       <c r="CB10" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="CC10" s="1" t="n">
+        <v>184.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3342,6 +3375,9 @@
       <c r="CB11" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="CC11" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3584,6 +3620,9 @@
       <c r="CB12" s="1" t="n">
         <v>142.1</v>
       </c>
+      <c r="CC12" s="1" t="n">
+        <v>203.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3826,6 +3865,9 @@
       <c r="CB13" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="CC13" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4068,6 +4110,9 @@
       <c r="CB14" s="1" t="n">
         <v>158.1</v>
       </c>
+      <c r="CC14" s="1" t="n">
+        <v>140.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4310,6 +4355,9 @@
       <c r="CB15" s="3" t="n">
         <v>139.5</v>
       </c>
+      <c r="CC15" s="1" t="n">
+        <v>225.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4552,6 +4600,9 @@
       <c r="CB16" s="3" t="n">
         <v>126.1</v>
       </c>
+      <c r="CC16" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4794,6 +4845,9 @@
       <c r="CB17" s="1" t="n">
         <v>194.2</v>
       </c>
+      <c r="CC17" s="1" t="n">
+        <v>190.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5036,6 +5090,9 @@
       <c r="CB18" s="1" t="n">
         <v>165</v>
       </c>
+      <c r="CC18" s="1" t="n">
+        <v>182.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5278,6 +5335,9 @@
       <c r="CB19" s="1" t="n">
         <v>152.9</v>
       </c>
+      <c r="CC19" s="3" t="n">
+        <v>138.2</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5520,6 +5580,9 @@
       <c r="CB20" s="2" t="n">
         <v>123.8</v>
       </c>
+      <c r="CC20" s="1" t="n">
+        <v>162.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5762,6 +5825,9 @@
       <c r="CB21" s="1" t="n">
         <v>266.8</v>
       </c>
+      <c r="CC21" s="1" t="n">
+        <v>168.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6004,6 +6070,9 @@
       <c r="CB22" s="3" t="n">
         <v>134</v>
       </c>
+      <c r="CC22" s="3" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6246,6 +6315,9 @@
       <c r="CB23" s="1" t="n">
         <v>164</v>
       </c>
+      <c r="CC23" s="3" t="n">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6488,6 +6560,9 @@
       <c r="CB24" s="2" t="n">
         <v>121.2</v>
       </c>
+      <c r="CC24" s="3" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6730,6 +6805,9 @@
       <c r="CB25" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="CC25" s="1" t="n">
+        <v>174.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -6972,6 +7050,9 @@
       <c r="CB26" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="CC26" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7214,6 +7295,9 @@
       <c r="CB27" s="3" t="n">
         <v>136.1</v>
       </c>
+      <c r="CC27" s="1" t="n">
+        <v>186.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7456,6 +7540,9 @@
       <c r="CB28" s="3" t="n">
         <v>136</v>
       </c>
+      <c r="CC28" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7698,6 +7785,9 @@
       <c r="CB29" s="1" t="n">
         <v>179.3</v>
       </c>
+      <c r="CC29" s="1" t="n">
+        <v>161.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -7940,6 +8030,9 @@
       <c r="CB30" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="CC30" s="3" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -8182,6 +8275,9 @@
       <c r="CB31" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="CC31" s="1" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -8424,6 +8520,9 @@
       <c r="CB32" s="1" t="n">
         <v>156.8</v>
       </c>
+      <c r="CC32" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -8666,6 +8765,9 @@
       <c r="CB33" s="3" t="n">
         <v>129.9</v>
       </c>
+      <c r="CC33" s="1" t="n">
+        <v>148.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -8908,6 +9010,9 @@
       <c r="CB34" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="CC34" s="1" t="n">
+        <v>365.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -9150,6 +9255,9 @@
       <c r="CB35" s="1" t="n">
         <v>142.4</v>
       </c>
+      <c r="CC35" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -9392,6 +9500,9 @@
       <c r="CB36" s="1" t="n">
         <v>166.2</v>
       </c>
+      <c r="CC36" s="1" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -9634,6 +9745,9 @@
       <c r="CB37" s="2" t="n">
         <v>120.8</v>
       </c>
+      <c r="CC37" s="1" t="n">
+        <v>264.5</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -9876,6 +9990,9 @@
       <c r="CB38" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="CC38" s="3" t="n">
+        <v>137.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -10118,6 +10235,9 @@
       <c r="CB39" s="1" t="n">
         <v>212.3</v>
       </c>
+      <c r="CC39" s="1" t="n">
+        <v>239.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -10360,6 +10480,9 @@
       <c r="CB40" s="3" t="n">
         <v>139.1</v>
       </c>
+      <c r="CC40" s="1" t="n">
+        <v>157.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -10602,6 +10725,9 @@
       <c r="CB41" s="2" t="n">
         <v>112.8</v>
       </c>
+      <c r="CC41" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -10844,6 +10970,9 @@
       <c r="CB42" s="1" t="n">
         <v>158.9</v>
       </c>
+      <c r="CC42" s="1" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -11086,6 +11215,9 @@
       <c r="CB43" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="CC43" s="1" t="n">
+        <v>154.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -11328,6 +11460,9 @@
       <c r="CB44" s="1" t="n">
         <v>141.4</v>
       </c>
+      <c r="CC44" s="1" t="n">
+        <v>162.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -11570,6 +11705,9 @@
       <c r="CB45" s="3" t="n">
         <v>136.4</v>
       </c>
+      <c r="CC45" s="3" t="n">
+        <v>134.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -11812,6 +11950,9 @@
       <c r="CB46" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="CC46" s="1" t="n">
+        <v>165.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -12054,6 +12195,9 @@
       <c r="CB47" s="1" t="n">
         <v>158.6</v>
       </c>
+      <c r="CC47" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -12296,6 +12440,9 @@
       <c r="CB48" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="CC48" s="3" t="n">
+        <v>136.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -12538,6 +12685,9 @@
       <c r="CB49" s="1" t="n">
         <v>186.1</v>
       </c>
+      <c r="CC49" s="1" t="n">
+        <v>177.9</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -12780,6 +12930,9 @@
       <c r="CB50" s="1" t="n">
         <v>140.7</v>
       </c>
+      <c r="CC50" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -13022,6 +13175,9 @@
       <c r="CB51" s="3" t="n">
         <v>134.6</v>
       </c>
+      <c r="CC51" s="1" t="n">
+        <v>194.9</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -13264,6 +13420,9 @@
       <c r="CB52" s="1" t="n">
         <v>207</v>
       </c>
+      <c r="CC52" s="1" t="n">
+        <v>166.8</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -13505,6 +13664,9 @@
       </c>
       <c r="CB53" s="1" t="n">
         <v>160</v>
+      </c>
+      <c r="CC53" s="1" t="n">
+        <v>152.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC53"/>
+  <dimension ref="A1:CD53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,7 @@
     <col width="12" customWidth="1" min="79" max="79"/>
     <col width="12" customWidth="1" min="80" max="80"/>
     <col width="12" customWidth="1" min="81" max="81"/>
+    <col width="12" customWidth="1" min="82" max="82"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -928,6 +929,11 @@
           <t>2024/11/28</t>
         </is>
       </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/29</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1173,6 +1179,9 @@
       <c r="CC2" s="1" t="n">
         <v>198.9</v>
       </c>
+      <c r="CD2" s="1" t="n">
+        <v>208.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1418,6 +1427,9 @@
       <c r="CC3" s="3" t="n">
         <v>137.2</v>
       </c>
+      <c r="CD3" s="1" t="n">
+        <v>154.6</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1663,6 +1675,9 @@
       <c r="CC4" s="1" t="n">
         <v>231.8</v>
       </c>
+      <c r="CD4" s="1" t="n">
+        <v>161.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1908,6 +1923,9 @@
       <c r="CC5" s="1" t="n">
         <v>184.3</v>
       </c>
+      <c r="CD5" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2153,6 +2171,9 @@
       <c r="CC6" s="1" t="n">
         <v>202.1</v>
       </c>
+      <c r="CD6" s="3" t="n">
+        <v>134.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2398,6 +2419,9 @@
       <c r="CC7" s="1" t="n">
         <v>209.6</v>
       </c>
+      <c r="CD7" s="1" t="n">
+        <v>306.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2643,6 +2667,9 @@
       <c r="CC8" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="CD8" s="1" t="n">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2888,6 +2915,9 @@
       <c r="CC9" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="CD9" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3133,6 +3163,9 @@
       <c r="CC10" s="1" t="n">
         <v>184.1</v>
       </c>
+      <c r="CD10" s="3" t="n">
+        <v>131.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3378,6 +3411,9 @@
       <c r="CC11" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="CD11" s="1" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3623,6 +3659,9 @@
       <c r="CC12" s="1" t="n">
         <v>203.7</v>
       </c>
+      <c r="CD12" s="1" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3868,6 +3907,9 @@
       <c r="CC13" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="CD13" s="3" t="n">
+        <v>134.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4113,6 +4155,9 @@
       <c r="CC14" s="1" t="n">
         <v>140.5</v>
       </c>
+      <c r="CD14" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4358,6 +4403,9 @@
       <c r="CC15" s="1" t="n">
         <v>225.8</v>
       </c>
+      <c r="CD15" s="1" t="n">
+        <v>186.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4603,6 +4651,9 @@
       <c r="CC16" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="CD16" s="1" t="n">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4848,6 +4899,9 @@
       <c r="CC17" s="1" t="n">
         <v>190.3</v>
       </c>
+      <c r="CD17" s="2" t="n">
+        <v>124.6</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5093,6 +5147,9 @@
       <c r="CC18" s="1" t="n">
         <v>182.6</v>
       </c>
+      <c r="CD18" s="1" t="n">
+        <v>173.2</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5338,6 +5395,9 @@
       <c r="CC19" s="3" t="n">
         <v>138.2</v>
       </c>
+      <c r="CD19" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5583,6 +5643,9 @@
       <c r="CC20" s="1" t="n">
         <v>162.5</v>
       </c>
+      <c r="CD20" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5828,6 +5891,9 @@
       <c r="CC21" s="1" t="n">
         <v>168.7</v>
       </c>
+      <c r="CD21" s="3" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6073,6 +6139,9 @@
       <c r="CC22" s="3" t="n">
         <v>127.2</v>
       </c>
+      <c r="CD22" s="1" t="n">
+        <v>166.6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6318,6 +6387,9 @@
       <c r="CC23" s="3" t="n">
         <v>128.6</v>
       </c>
+      <c r="CD23" s="1" t="n">
+        <v>165.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6563,6 +6635,9 @@
       <c r="CC24" s="3" t="n">
         <v>129.9</v>
       </c>
+      <c r="CD24" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6808,6 +6883,9 @@
       <c r="CC25" s="1" t="n">
         <v>174.8</v>
       </c>
+      <c r="CD25" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7053,6 +7131,9 @@
       <c r="CC26" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="CD26" s="1" t="n">
+        <v>178.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7298,6 +7379,9 @@
       <c r="CC27" s="1" t="n">
         <v>186.2</v>
       </c>
+      <c r="CD27" s="1" t="n">
+        <v>159.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7543,6 +7627,9 @@
       <c r="CC28" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="CD28" s="3" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7788,6 +7875,9 @@
       <c r="CC29" s="1" t="n">
         <v>161.6</v>
       </c>
+      <c r="CD29" s="3" t="n">
+        <v>133.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8033,6 +8123,9 @@
       <c r="CC30" s="3" t="n">
         <v>128.8</v>
       </c>
+      <c r="CD30" s="2" t="n">
+        <v>113.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -8278,6 +8371,9 @@
       <c r="CC31" s="1" t="n">
         <v>188</v>
       </c>
+      <c r="CD31" s="2" t="n">
+        <v>124.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -8523,6 +8619,9 @@
       <c r="CC32" s="1" t="n">
         <v>158.9</v>
       </c>
+      <c r="CD32" s="1" t="n">
+        <v>166.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -8768,6 +8867,9 @@
       <c r="CC33" s="1" t="n">
         <v>148.1</v>
       </c>
+      <c r="CD33" s="1" t="n">
+        <v>211.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -9013,6 +9115,9 @@
       <c r="CC34" s="1" t="n">
         <v>365.3</v>
       </c>
+      <c r="CD34" s="3" t="n">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -9258,6 +9363,9 @@
       <c r="CC35" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="CD35" s="3" t="n">
+        <v>127.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -9503,6 +9611,9 @@
       <c r="CC36" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="CD36" s="1" t="n">
+        <v>146.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -9748,6 +9859,9 @@
       <c r="CC37" s="1" t="n">
         <v>264.5</v>
       </c>
+      <c r="CD37" s="2" t="n">
+        <v>107.6</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -9993,6 +10107,9 @@
       <c r="CC38" s="3" t="n">
         <v>137.8</v>
       </c>
+      <c r="CD38" s="1" t="n">
+        <v>181.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -10238,6 +10355,9 @@
       <c r="CC39" s="1" t="n">
         <v>239.7</v>
       </c>
+      <c r="CD39" s="1" t="n">
+        <v>191.8</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -10483,6 +10603,9 @@
       <c r="CC40" s="1" t="n">
         <v>157.7</v>
       </c>
+      <c r="CD40" s="3" t="n">
+        <v>125.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -10728,6 +10851,9 @@
       <c r="CC41" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="CD41" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -10973,6 +11099,9 @@
       <c r="CC42" s="1" t="n">
         <v>187.7</v>
       </c>
+      <c r="CD42" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -11218,6 +11347,9 @@
       <c r="CC43" s="1" t="n">
         <v>154.8</v>
       </c>
+      <c r="CD43" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -11463,6 +11595,9 @@
       <c r="CC44" s="1" t="n">
         <v>162.8</v>
       </c>
+      <c r="CD44" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -11708,6 +11843,9 @@
       <c r="CC45" s="3" t="n">
         <v>134.7</v>
       </c>
+      <c r="CD45" s="1" t="n">
+        <v>207.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -11953,6 +12091,9 @@
       <c r="CC46" s="1" t="n">
         <v>165.4</v>
       </c>
+      <c r="CD46" s="3" t="n">
+        <v>129.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -12198,6 +12339,9 @@
       <c r="CC47" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="CD47" s="1" t="n">
+        <v>195.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -12443,6 +12587,9 @@
       <c r="CC48" s="3" t="n">
         <v>136.3</v>
       </c>
+      <c r="CD48" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -12688,6 +12835,9 @@
       <c r="CC49" s="1" t="n">
         <v>177.9</v>
       </c>
+      <c r="CD49" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -12933,6 +13083,9 @@
       <c r="CC50" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="CD50" s="1" t="n">
+        <v>153.5</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -13178,6 +13331,9 @@
       <c r="CC51" s="1" t="n">
         <v>194.9</v>
       </c>
+      <c r="CD51" s="1" t="n">
+        <v>215.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -13423,6 +13579,9 @@
       <c r="CC52" s="1" t="n">
         <v>166.8</v>
       </c>
+      <c r="CD52" s="2" t="n">
+        <v>119.9</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -13667,6 +13826,9 @@
       </c>
       <c r="CC53" s="1" t="n">
         <v>152.7</v>
+      </c>
+      <c r="CD53" s="1" t="n">
+        <v>141.3</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD53"/>
+  <dimension ref="A1:CE53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,7 @@
     <col width="12" customWidth="1" min="80" max="80"/>
     <col width="12" customWidth="1" min="81" max="81"/>
     <col width="12" customWidth="1" min="82" max="82"/>
+    <col width="12" customWidth="1" min="83" max="83"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -934,6 +935,11 @@
           <t>2024/11/29</t>
         </is>
       </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2024/11/30</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1182,6 +1188,9 @@
       <c r="CD2" s="1" t="n">
         <v>208.8</v>
       </c>
+      <c r="CE2" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1430,6 +1439,9 @@
       <c r="CD3" s="1" t="n">
         <v>154.6</v>
       </c>
+      <c r="CE3" s="1" t="n">
+        <v>163.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1678,6 +1690,9 @@
       <c r="CD4" s="1" t="n">
         <v>161.3</v>
       </c>
+      <c r="CE4" s="1" t="n">
+        <v>199.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1926,6 +1941,9 @@
       <c r="CD5" s="1" t="n">
         <v>149.2</v>
       </c>
+      <c r="CE5" s="3" t="n">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2174,6 +2192,9 @@
       <c r="CD6" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="CE6" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2422,6 +2443,9 @@
       <c r="CD7" s="1" t="n">
         <v>306.9</v>
       </c>
+      <c r="CE7" s="1" t="n">
+        <v>173.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2670,6 +2694,9 @@
       <c r="CD8" s="1" t="n">
         <v>147.5</v>
       </c>
+      <c r="CE8" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2918,6 +2945,9 @@
       <c r="CD9" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="CE9" s="2" t="n">
+        <v>117.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3166,6 +3196,9 @@
       <c r="CD10" s="3" t="n">
         <v>131.4</v>
       </c>
+      <c r="CE10" s="2" t="n">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3414,6 +3447,9 @@
       <c r="CD11" s="1" t="n">
         <v>168</v>
       </c>
+      <c r="CE11" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3662,6 +3698,9 @@
       <c r="CD12" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="CE12" s="2" t="n">
+        <v>121.4</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3910,6 +3949,9 @@
       <c r="CD13" s="3" t="n">
         <v>134.2</v>
       </c>
+      <c r="CE13" s="3" t="n">
+        <v>130.4</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4158,6 +4200,9 @@
       <c r="CD14" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="CE14" s="1" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4406,6 +4451,9 @@
       <c r="CD15" s="1" t="n">
         <v>186.2</v>
       </c>
+      <c r="CE15" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4654,6 +4702,9 @@
       <c r="CD16" s="1" t="n">
         <v>144.2</v>
       </c>
+      <c r="CE16" s="2" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4902,6 +4953,9 @@
       <c r="CD17" s="2" t="n">
         <v>124.6</v>
       </c>
+      <c r="CE17" s="3" t="n">
+        <v>126.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5150,6 +5204,9 @@
       <c r="CD18" s="1" t="n">
         <v>173.2</v>
       </c>
+      <c r="CE18" s="1" t="n">
+        <v>161.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5398,6 +5455,9 @@
       <c r="CD19" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="CE19" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5646,6 +5706,9 @@
       <c r="CD20" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="CE20" s="3" t="n">
+        <v>137.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5894,6 +5957,9 @@
       <c r="CD21" s="3" t="n">
         <v>133</v>
       </c>
+      <c r="CE21" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6142,6 +6208,9 @@
       <c r="CD22" s="1" t="n">
         <v>166.6</v>
       </c>
+      <c r="CE22" s="1" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6390,6 +6459,9 @@
       <c r="CD23" s="1" t="n">
         <v>165.6</v>
       </c>
+      <c r="CE23" s="2" t="n">
+        <v>122.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6638,6 +6710,9 @@
       <c r="CD24" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="CE24" s="1" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6886,6 +6961,9 @@
       <c r="CD25" s="1" t="n">
         <v>148.5</v>
       </c>
+      <c r="CE25" s="2" t="n">
+        <v>109.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7134,6 +7212,9 @@
       <c r="CD26" s="1" t="n">
         <v>178.1</v>
       </c>
+      <c r="CE26" s="1" t="n">
+        <v>169.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7382,6 +7463,9 @@
       <c r="CD27" s="1" t="n">
         <v>159.3</v>
       </c>
+      <c r="CE27" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7630,6 +7714,9 @@
       <c r="CD28" s="3" t="n">
         <v>134</v>
       </c>
+      <c r="CE28" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7878,6 +7965,9 @@
       <c r="CD29" s="3" t="n">
         <v>133.5</v>
       </c>
+      <c r="CE29" s="1" t="n">
+        <v>161.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8126,6 +8216,9 @@
       <c r="CD30" s="2" t="n">
         <v>113.5</v>
       </c>
+      <c r="CE30" s="3" t="n">
+        <v>139.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -8374,6 +8467,9 @@
       <c r="CD31" s="2" t="n">
         <v>124.6</v>
       </c>
+      <c r="CE31" s="3" t="n">
+        <v>126.2</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -8622,6 +8718,9 @@
       <c r="CD32" s="1" t="n">
         <v>166.9</v>
       </c>
+      <c r="CE32" s="1" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -8870,6 +8969,9 @@
       <c r="CD33" s="1" t="n">
         <v>211.5</v>
       </c>
+      <c r="CE33" s="2" t="n">
+        <v>118.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -9118,6 +9220,9 @@
       <c r="CD34" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="CE34" s="3" t="n">
+        <v>125.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -9366,6 +9471,9 @@
       <c r="CD35" s="3" t="n">
         <v>127.9</v>
       </c>
+      <c r="CE35" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -9614,6 +9722,9 @@
       <c r="CD36" s="1" t="n">
         <v>146.1</v>
       </c>
+      <c r="CE36" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -9862,6 +9973,9 @@
       <c r="CD37" s="2" t="n">
         <v>107.6</v>
       </c>
+      <c r="CE37" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -10110,6 +10224,9 @@
       <c r="CD38" s="1" t="n">
         <v>181.7</v>
       </c>
+      <c r="CE38" s="1" t="n">
+        <v>172.4</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -10358,6 +10475,9 @@
       <c r="CD39" s="1" t="n">
         <v>191.8</v>
       </c>
+      <c r="CE39" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -10606,6 +10726,9 @@
       <c r="CD40" s="3" t="n">
         <v>125.7</v>
       </c>
+      <c r="CE40" s="1" t="n">
+        <v>179.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -10854,6 +10977,9 @@
       <c r="CD41" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="CE41" s="1" t="n">
+        <v>157.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -11102,6 +11228,9 @@
       <c r="CD42" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="CE42" s="1" t="n">
+        <v>164.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -11350,6 +11479,9 @@
       <c r="CD43" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="CE43" s="1" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -11598,6 +11730,9 @@
       <c r="CD44" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="CE44" s="3" t="n">
+        <v>132.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -11846,6 +11981,9 @@
       <c r="CD45" s="1" t="n">
         <v>207.7</v>
       </c>
+      <c r="CE45" s="3" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -12094,6 +12232,9 @@
       <c r="CD46" s="3" t="n">
         <v>129.3</v>
       </c>
+      <c r="CE46" s="1" t="n">
+        <v>170.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -12342,6 +12483,9 @@
       <c r="CD47" s="1" t="n">
         <v>195.2</v>
       </c>
+      <c r="CE47" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -12590,6 +12734,9 @@
       <c r="CD48" s="3" t="n">
         <v>127.6</v>
       </c>
+      <c r="CE48" s="2" t="n">
+        <v>120.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -12838,6 +12985,9 @@
       <c r="CD49" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="CE49" s="1" t="n">
+        <v>178.9</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -13086,6 +13236,9 @@
       <c r="CD50" s="1" t="n">
         <v>153.5</v>
       </c>
+      <c r="CE50" s="3" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -13334,6 +13487,9 @@
       <c r="CD51" s="1" t="n">
         <v>215.5</v>
       </c>
+      <c r="CE51" s="1" t="n">
+        <v>182.3</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -13582,6 +13738,9 @@
       <c r="CD52" s="2" t="n">
         <v>119.9</v>
       </c>
+      <c r="CE52" s="1" t="n">
+        <v>141.6</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -13829,6 +13988,9 @@
       </c>
       <c r="CD53" s="1" t="n">
         <v>141.3</v>
+      </c>
+      <c r="CE53" s="1" t="n">
+        <v>167.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE53"/>
+  <dimension ref="A1:CF53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,7 @@
     <col width="12" customWidth="1" min="81" max="81"/>
     <col width="12" customWidth="1" min="82" max="82"/>
     <col width="12" customWidth="1" min="83" max="83"/>
+    <col width="12" customWidth="1" min="84" max="84"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -940,6 +941,11 @@
           <t>2024/11/30</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/01</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1191,6 +1197,9 @@
       <c r="CE2" s="3" t="n">
         <v>129</v>
       </c>
+      <c r="CF2" s="1" t="n">
+        <v>175.5</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1442,6 +1451,9 @@
       <c r="CE3" s="1" t="n">
         <v>163.9</v>
       </c>
+      <c r="CF3" s="1" t="n">
+        <v>213.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1693,6 +1705,9 @@
       <c r="CE4" s="1" t="n">
         <v>199.6</v>
       </c>
+      <c r="CF4" s="1" t="n">
+        <v>153.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1944,6 +1959,9 @@
       <c r="CE5" s="3" t="n">
         <v>135.6</v>
       </c>
+      <c r="CF5" s="1" t="n">
+        <v>172.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2195,6 +2213,9 @@
       <c r="CE6" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="CF6" s="2" t="n">
+        <v>118.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2446,6 +2467,9 @@
       <c r="CE7" s="1" t="n">
         <v>173.6</v>
       </c>
+      <c r="CF7" s="2" t="n">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2697,6 +2721,9 @@
       <c r="CE8" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="CF8" s="1" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2948,6 +2975,9 @@
       <c r="CE9" s="2" t="n">
         <v>117.7</v>
       </c>
+      <c r="CF9" s="1" t="n">
+        <v>211.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3199,6 +3229,9 @@
       <c r="CE10" s="2" t="n">
         <v>113.7</v>
       </c>
+      <c r="CF10" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3450,6 +3483,9 @@
       <c r="CE11" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="CF11" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3701,6 +3737,9 @@
       <c r="CE12" s="2" t="n">
         <v>121.4</v>
       </c>
+      <c r="CF12" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3952,6 +3991,9 @@
       <c r="CE13" s="3" t="n">
         <v>130.4</v>
       </c>
+      <c r="CF13" s="1" t="n">
+        <v>192.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4203,6 +4245,9 @@
       <c r="CE14" s="1" t="n">
         <v>151.8</v>
       </c>
+      <c r="CF14" s="2" t="n">
+        <v>124.7</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4454,6 +4499,9 @@
       <c r="CE15" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="CF15" s="1" t="n">
+        <v>172.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4705,6 +4753,9 @@
       <c r="CE16" s="2" t="n">
         <v>115</v>
       </c>
+      <c r="CF16" s="1" t="n">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -4956,6 +5007,9 @@
       <c r="CE17" s="3" t="n">
         <v>126.8</v>
       </c>
+      <c r="CF17" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5207,6 +5261,9 @@
       <c r="CE18" s="1" t="n">
         <v>161.5</v>
       </c>
+      <c r="CF18" s="3" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5458,6 +5515,9 @@
       <c r="CE19" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="CF19" s="1" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5709,6 +5769,9 @@
       <c r="CE20" s="3" t="n">
         <v>137.5</v>
       </c>
+      <c r="CF20" s="3" t="n">
+        <v>131.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -5960,6 +6023,9 @@
       <c r="CE21" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="CF21" s="1" t="n">
+        <v>183.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6211,6 +6277,9 @@
       <c r="CE22" s="1" t="n">
         <v>231</v>
       </c>
+      <c r="CF22" s="3" t="n">
+        <v>126.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6462,6 +6531,9 @@
       <c r="CE23" s="2" t="n">
         <v>122.9</v>
       </c>
+      <c r="CF23" s="1" t="n">
+        <v>159.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6713,6 +6785,9 @@
       <c r="CE24" s="1" t="n">
         <v>173</v>
       </c>
+      <c r="CF24" s="1" t="n">
+        <v>180.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -6964,6 +7039,9 @@
       <c r="CE25" s="2" t="n">
         <v>109.8</v>
       </c>
+      <c r="CF25" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7215,6 +7293,9 @@
       <c r="CE26" s="1" t="n">
         <v>169.5</v>
       </c>
+      <c r="CF26" s="3" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7466,6 +7547,9 @@
       <c r="CE27" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="CF27" s="1" t="n">
+        <v>205.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7717,6 +7801,9 @@
       <c r="CE28" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="CF28" s="1" t="n">
+        <v>157.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -7968,6 +8055,9 @@
       <c r="CE29" s="1" t="n">
         <v>161.3</v>
       </c>
+      <c r="CF29" s="1" t="n">
+        <v>154.8</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8219,6 +8309,9 @@
       <c r="CE30" s="3" t="n">
         <v>139.4</v>
       </c>
+      <c r="CF30" s="1" t="n">
+        <v>164.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -8470,6 +8563,9 @@
       <c r="CE31" s="3" t="n">
         <v>126.2</v>
       </c>
+      <c r="CF31" s="3" t="n">
+        <v>130.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -8721,6 +8817,9 @@
       <c r="CE32" s="1" t="n">
         <v>210</v>
       </c>
+      <c r="CF32" s="1" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -8972,6 +9071,9 @@
       <c r="CE33" s="2" t="n">
         <v>118.3</v>
       </c>
+      <c r="CF33" s="1" t="n">
+        <v>168.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -9223,6 +9325,9 @@
       <c r="CE34" s="3" t="n">
         <v>125.5</v>
       </c>
+      <c r="CF34" s="1" t="n">
+        <v>171.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -9474,6 +9579,9 @@
       <c r="CE35" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="CF35" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -9725,6 +9833,9 @@
       <c r="CE36" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="CF36" s="1" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -9976,6 +10087,9 @@
       <c r="CE37" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="CF37" s="3" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -10227,6 +10341,9 @@
       <c r="CE38" s="1" t="n">
         <v>172.4</v>
       </c>
+      <c r="CF38" s="1" t="n">
+        <v>160.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -10478,6 +10595,9 @@
       <c r="CE39" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="CF39" s="1" t="n">
+        <v>158.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -10729,6 +10849,9 @@
       <c r="CE40" s="1" t="n">
         <v>179.2</v>
       </c>
+      <c r="CF40" s="2" t="n">
+        <v>113.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -10980,6 +11103,9 @@
       <c r="CE41" s="1" t="n">
         <v>157.4</v>
       </c>
+      <c r="CF41" s="1" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -11231,6 +11357,9 @@
       <c r="CE42" s="1" t="n">
         <v>164.6</v>
       </c>
+      <c r="CF42" s="1" t="n">
+        <v>142.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -11482,6 +11611,9 @@
       <c r="CE43" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="CF43" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -11733,6 +11865,9 @@
       <c r="CE44" s="3" t="n">
         <v>132.1</v>
       </c>
+      <c r="CF44" s="1" t="n">
+        <v>173.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -11984,6 +12119,9 @@
       <c r="CE45" s="3" t="n">
         <v>133</v>
       </c>
+      <c r="CF45" s="1" t="n">
+        <v>224.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -12235,6 +12373,9 @@
       <c r="CE46" s="1" t="n">
         <v>170.6</v>
       </c>
+      <c r="CF46" s="1" t="n">
+        <v>167.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -12486,6 +12627,9 @@
       <c r="CE47" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="CF47" s="1" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -12737,6 +12881,9 @@
       <c r="CE48" s="2" t="n">
         <v>120.9</v>
       </c>
+      <c r="CF48" s="1" t="n">
+        <v>196.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -12988,6 +13135,9 @@
       <c r="CE49" s="1" t="n">
         <v>178.9</v>
       </c>
+      <c r="CF49" s="3" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -13239,6 +13389,9 @@
       <c r="CE50" s="3" t="n">
         <v>126.5</v>
       </c>
+      <c r="CF50" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -13490,6 +13643,9 @@
       <c r="CE51" s="1" t="n">
         <v>182.3</v>
       </c>
+      <c r="CF51" s="1" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -13741,6 +13897,9 @@
       <c r="CE52" s="1" t="n">
         <v>141.6</v>
       </c>
+      <c r="CF52" s="1" t="n">
+        <v>159.1</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -13991,6 +14150,9 @@
       </c>
       <c r="CE53" s="1" t="n">
         <v>167.9</v>
+      </c>
+      <c r="CF53" s="3" t="n">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CF53"/>
+  <dimension ref="A1:CG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,7 @@
     <col width="12" customWidth="1" min="82" max="82"/>
     <col width="12" customWidth="1" min="83" max="83"/>
     <col width="12" customWidth="1" min="84" max="84"/>
+    <col width="12" customWidth="1" min="85" max="85"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -946,6 +947,11 @@
           <t>2024/12/01</t>
         </is>
       </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/02</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1200,6 +1206,9 @@
       <c r="CF2" s="1" t="n">
         <v>175.5</v>
       </c>
+      <c r="CG2" s="1" t="n">
+        <v>193.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1454,6 +1463,9 @@
       <c r="CF3" s="1" t="n">
         <v>213.5</v>
       </c>
+      <c r="CG3" s="1" t="n">
+        <v>183.2</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1708,6 +1720,9 @@
       <c r="CF4" s="1" t="n">
         <v>153.5</v>
       </c>
+      <c r="CG4" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1962,6 +1977,9 @@
       <c r="CF5" s="1" t="n">
         <v>172.2</v>
       </c>
+      <c r="CG5" s="3" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2216,6 +2234,9 @@
       <c r="CF6" s="2" t="n">
         <v>118.7</v>
       </c>
+      <c r="CG6" s="1" t="n">
+        <v>156.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2470,6 +2491,9 @@
       <c r="CF7" s="2" t="n">
         <v>119.1</v>
       </c>
+      <c r="CG7" s="1" t="n">
+        <v>208.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2724,6 +2748,9 @@
       <c r="CF8" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="CG8" s="1" t="n">
+        <v>159.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -2978,6 +3005,9 @@
       <c r="CF9" s="1" t="n">
         <v>211.7</v>
       </c>
+      <c r="CG9" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3232,6 +3262,9 @@
       <c r="CF10" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="CG10" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3486,6 +3519,9 @@
       <c r="CF11" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="CG11" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3740,6 +3776,9 @@
       <c r="CF12" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="CG12" s="1" t="n">
+        <v>191.9</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -3994,6 +4033,9 @@
       <c r="CF13" s="1" t="n">
         <v>192.6</v>
       </c>
+      <c r="CG13" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4248,6 +4290,9 @@
       <c r="CF14" s="2" t="n">
         <v>124.7</v>
       </c>
+      <c r="CG14" s="1" t="n">
+        <v>200.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4502,6 +4547,9 @@
       <c r="CF15" s="1" t="n">
         <v>172.2</v>
       </c>
+      <c r="CG15" s="1" t="n">
+        <v>203.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4756,6 +4804,9 @@
       <c r="CF16" s="1" t="n">
         <v>166.3</v>
       </c>
+      <c r="CG16" s="3" t="n">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5010,6 +5061,9 @@
       <c r="CF17" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="CG17" s="1" t="n">
+        <v>146.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5264,6 +5318,9 @@
       <c r="CF18" s="3" t="n">
         <v>127.8</v>
       </c>
+      <c r="CG18" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5518,6 +5575,9 @@
       <c r="CF19" s="1" t="n">
         <v>156</v>
       </c>
+      <c r="CG19" s="1" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5772,6 +5832,9 @@
       <c r="CF20" s="3" t="n">
         <v>131.4</v>
       </c>
+      <c r="CG20" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6026,6 +6089,9 @@
       <c r="CF21" s="1" t="n">
         <v>183.7</v>
       </c>
+      <c r="CG21" s="1" t="n">
+        <v>199.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6280,6 +6346,9 @@
       <c r="CF22" s="3" t="n">
         <v>126.9</v>
       </c>
+      <c r="CG22" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6534,6 +6603,9 @@
       <c r="CF23" s="1" t="n">
         <v>159.7</v>
       </c>
+      <c r="CG23" s="1" t="n">
+        <v>253.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6788,6 +6860,9 @@
       <c r="CF24" s="1" t="n">
         <v>180.5</v>
       </c>
+      <c r="CG24" s="1" t="n">
+        <v>153.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7042,6 +7117,9 @@
       <c r="CF25" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="CG25" s="1" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7296,6 +7374,9 @@
       <c r="CF26" s="3" t="n">
         <v>134.9</v>
       </c>
+      <c r="CG26" s="1" t="n">
+        <v>149.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7550,6 +7631,9 @@
       <c r="CF27" s="1" t="n">
         <v>205.8</v>
       </c>
+      <c r="CG27" s="1" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7804,6 +7888,9 @@
       <c r="CF28" s="1" t="n">
         <v>157.9</v>
       </c>
+      <c r="CG28" s="3" t="n">
+        <v>126.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8058,6 +8145,9 @@
       <c r="CF29" s="1" t="n">
         <v>154.8</v>
       </c>
+      <c r="CG29" s="3" t="n">
+        <v>126.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8312,6 +8402,9 @@
       <c r="CF30" s="1" t="n">
         <v>164.1</v>
       </c>
+      <c r="CG30" s="1" t="n">
+        <v>160.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -8566,6 +8659,9 @@
       <c r="CF31" s="3" t="n">
         <v>130.6</v>
       </c>
+      <c r="CG31" s="1" t="n">
+        <v>265.8</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -8820,6 +8916,9 @@
       <c r="CF32" s="1" t="n">
         <v>168.5</v>
       </c>
+      <c r="CG32" s="1" t="n">
+        <v>189.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -9074,6 +9173,9 @@
       <c r="CF33" s="1" t="n">
         <v>168.1</v>
       </c>
+      <c r="CG33" s="1" t="n">
+        <v>173.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -9328,6 +9430,9 @@
       <c r="CF34" s="1" t="n">
         <v>171.9</v>
       </c>
+      <c r="CG34" s="3" t="n">
+        <v>139.4</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -9582,6 +9687,9 @@
       <c r="CF35" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="CG35" s="1" t="n">
+        <v>173.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -9836,6 +9944,9 @@
       <c r="CF36" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="CG36" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -10090,6 +10201,9 @@
       <c r="CF37" s="3" t="n">
         <v>139.1</v>
       </c>
+      <c r="CG37" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -10344,6 +10458,9 @@
       <c r="CF38" s="1" t="n">
         <v>160.8</v>
       </c>
+      <c r="CG38" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -10598,6 +10715,9 @@
       <c r="CF39" s="1" t="n">
         <v>158.6</v>
       </c>
+      <c r="CG39" s="2" t="n">
+        <v>111.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -10852,6 +10972,9 @@
       <c r="CF40" s="2" t="n">
         <v>113.5</v>
       </c>
+      <c r="CG40" s="1" t="n">
+        <v>170.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -11106,6 +11229,9 @@
       <c r="CF41" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="CG41" s="1" t="n">
+        <v>170.5</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -11360,6 +11486,9 @@
       <c r="CF42" s="1" t="n">
         <v>142.4</v>
       </c>
+      <c r="CG42" s="1" t="n">
+        <v>243.3</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -11614,6 +11743,9 @@
       <c r="CF43" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="CG43" s="3" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -11868,6 +12000,9 @@
       <c r="CF44" s="1" t="n">
         <v>173.5</v>
       </c>
+      <c r="CG44" s="1" t="n">
+        <v>217.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -12122,6 +12257,9 @@
       <c r="CF45" s="1" t="n">
         <v>224.6</v>
       </c>
+      <c r="CG45" s="3" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -12376,6 +12514,9 @@
       <c r="CF46" s="1" t="n">
         <v>167.3</v>
       </c>
+      <c r="CG46" s="1" t="n">
+        <v>238.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -12630,6 +12771,9 @@
       <c r="CF47" s="1" t="n">
         <v>209</v>
       </c>
+      <c r="CG47" s="1" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -12884,6 +13028,9 @@
       <c r="CF48" s="1" t="n">
         <v>196.1</v>
       </c>
+      <c r="CG48" s="1" t="n">
+        <v>219.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -13138,6 +13285,9 @@
       <c r="CF49" s="3" t="n">
         <v>134</v>
       </c>
+      <c r="CG49" s="3" t="n">
+        <v>125.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -13392,6 +13542,9 @@
       <c r="CF50" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="CG50" s="1" t="n">
+        <v>440.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -13646,6 +13799,9 @@
       <c r="CF51" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="CG51" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -13900,6 +14056,9 @@
       <c r="CF52" s="1" t="n">
         <v>159.1</v>
       </c>
+      <c r="CG52" s="3" t="n">
+        <v>137.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -14153,6 +14312,9 @@
       </c>
       <c r="CF53" s="3" t="n">
         <v>126</v>
+      </c>
+      <c r="CG53" s="1" t="n">
+        <v>144.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG53"/>
+  <dimension ref="A1:CH53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,7 @@
     <col width="12" customWidth="1" min="83" max="83"/>
     <col width="12" customWidth="1" min="84" max="84"/>
     <col width="12" customWidth="1" min="85" max="85"/>
+    <col width="12" customWidth="1" min="86" max="86"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -952,6 +953,11 @@
           <t>2024/12/02</t>
         </is>
       </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/03</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1209,6 +1215,9 @@
       <c r="CG2" s="1" t="n">
         <v>193.1</v>
       </c>
+      <c r="CH2" s="2" t="n">
+        <v>120.4</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1466,6 +1475,9 @@
       <c r="CG3" s="1" t="n">
         <v>183.2</v>
       </c>
+      <c r="CH3" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1723,6 +1735,9 @@
       <c r="CG4" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="CH4" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1980,6 +1995,9 @@
       <c r="CG5" s="3" t="n">
         <v>126.5</v>
       </c>
+      <c r="CH5" s="1" t="n">
+        <v>278.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2237,6 +2255,9 @@
       <c r="CG6" s="1" t="n">
         <v>156.9</v>
       </c>
+      <c r="CH6" s="1" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2494,6 +2515,9 @@
       <c r="CG7" s="1" t="n">
         <v>208.9</v>
       </c>
+      <c r="CH7" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2751,6 +2775,9 @@
       <c r="CG8" s="1" t="n">
         <v>159.5</v>
       </c>
+      <c r="CH8" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3008,6 +3035,9 @@
       <c r="CG9" s="1" t="n">
         <v>156.8</v>
       </c>
+      <c r="CH9" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3265,6 +3295,9 @@
       <c r="CG10" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="CH10" s="1" t="n">
+        <v>226.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3522,6 +3555,9 @@
       <c r="CG11" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="CH11" s="1" t="n">
+        <v>174.7</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3779,6 +3815,9 @@
       <c r="CG12" s="1" t="n">
         <v>191.9</v>
       </c>
+      <c r="CH12" s="1" t="n">
+        <v>141.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4036,6 +4075,9 @@
       <c r="CG13" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="CH13" s="1" t="n">
+        <v>173.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4293,6 +4335,9 @@
       <c r="CG14" s="1" t="n">
         <v>200.4</v>
       </c>
+      <c r="CH14" s="1" t="n">
+        <v>195.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4550,6 +4595,9 @@
       <c r="CG15" s="1" t="n">
         <v>203.2</v>
       </c>
+      <c r="CH15" s="1" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4807,6 +4855,9 @@
       <c r="CG16" s="3" t="n">
         <v>128.6</v>
       </c>
+      <c r="CH16" s="1" t="n">
+        <v>180.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5064,6 +5115,9 @@
       <c r="CG17" s="1" t="n">
         <v>146.1</v>
       </c>
+      <c r="CH17" s="1" t="n">
+        <v>153.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5321,6 +5375,9 @@
       <c r="CG18" s="1" t="n">
         <v>146.6</v>
       </c>
+      <c r="CH18" s="1" t="n">
+        <v>142.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5578,6 +5635,9 @@
       <c r="CG19" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="CH19" s="1" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5835,6 +5895,9 @@
       <c r="CG20" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="CH20" s="1" t="n">
+        <v>196.2</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6092,6 +6155,9 @@
       <c r="CG21" s="1" t="n">
         <v>199.2</v>
       </c>
+      <c r="CH21" s="3" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6349,6 +6415,9 @@
       <c r="CG22" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="CH22" s="3" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6606,6 +6675,9 @@
       <c r="CG23" s="1" t="n">
         <v>253.1</v>
       </c>
+      <c r="CH23" s="1" t="n">
+        <v>189.2</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6863,6 +6935,9 @@
       <c r="CG24" s="1" t="n">
         <v>153.2</v>
       </c>
+      <c r="CH24" s="3" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7120,6 +7195,9 @@
       <c r="CG25" s="1" t="n">
         <v>295</v>
       </c>
+      <c r="CH25" s="1" t="n">
+        <v>214.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7377,6 +7455,9 @@
       <c r="CG26" s="1" t="n">
         <v>149.3</v>
       </c>
+      <c r="CH26" s="1" t="n">
+        <v>225.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7634,6 +7715,9 @@
       <c r="CG27" s="1" t="n">
         <v>150.1</v>
       </c>
+      <c r="CH27" s="3" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7891,6 +7975,9 @@
       <c r="CG28" s="3" t="n">
         <v>126.9</v>
       </c>
+      <c r="CH28" s="1" t="n">
+        <v>353.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8148,6 +8235,9 @@
       <c r="CG29" s="3" t="n">
         <v>126.9</v>
       </c>
+      <c r="CH29" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8405,6 +8495,9 @@
       <c r="CG30" s="1" t="n">
         <v>160.9</v>
       </c>
+      <c r="CH30" s="1" t="n">
+        <v>206.6</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -8662,6 +8755,9 @@
       <c r="CG31" s="1" t="n">
         <v>265.8</v>
       </c>
+      <c r="CH31" s="1" t="n">
+        <v>204.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -8919,6 +9015,9 @@
       <c r="CG32" s="1" t="n">
         <v>189.8</v>
       </c>
+      <c r="CH32" s="3" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -9176,6 +9275,9 @@
       <c r="CG33" s="1" t="n">
         <v>173.6</v>
       </c>
+      <c r="CH33" s="1" t="n">
+        <v>148.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -9433,6 +9535,9 @@
       <c r="CG34" s="3" t="n">
         <v>139.4</v>
       </c>
+      <c r="CH34" s="1" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -9690,6 +9795,9 @@
       <c r="CG35" s="1" t="n">
         <v>173.1</v>
       </c>
+      <c r="CH35" s="1" t="n">
+        <v>266.3</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -9947,6 +10055,9 @@
       <c r="CG36" s="1" t="n">
         <v>156.8</v>
       </c>
+      <c r="CH36" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -10204,6 +10315,9 @@
       <c r="CG37" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="CH37" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -10461,6 +10575,9 @@
       <c r="CG38" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="CH38" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -10718,6 +10835,9 @@
       <c r="CG39" s="2" t="n">
         <v>111.2</v>
       </c>
+      <c r="CH39" s="1" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -10975,6 +11095,9 @@
       <c r="CG40" s="1" t="n">
         <v>170.5</v>
       </c>
+      <c r="CH40" s="1" t="n">
+        <v>151.6</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -11232,6 +11355,9 @@
       <c r="CG41" s="1" t="n">
         <v>170.5</v>
       </c>
+      <c r="CH41" s="1" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -11489,6 +11615,9 @@
       <c r="CG42" s="1" t="n">
         <v>243.3</v>
       </c>
+      <c r="CH42" s="2" t="n">
+        <v>123.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -11746,6 +11875,9 @@
       <c r="CG43" s="3" t="n">
         <v>135.9</v>
       </c>
+      <c r="CH43" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -12003,6 +12135,9 @@
       <c r="CG44" s="1" t="n">
         <v>217.8</v>
       </c>
+      <c r="CH44" s="1" t="n">
+        <v>233.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -12260,6 +12395,9 @@
       <c r="CG45" s="3" t="n">
         <v>127.2</v>
       </c>
+      <c r="CH45" s="1" t="n">
+        <v>178.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -12517,6 +12655,9 @@
       <c r="CG46" s="1" t="n">
         <v>238.4</v>
       </c>
+      <c r="CH46" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -12774,6 +12915,9 @@
       <c r="CG47" s="1" t="n">
         <v>163.8</v>
       </c>
+      <c r="CH47" s="1" t="n">
+        <v>162.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -13031,6 +13175,9 @@
       <c r="CG48" s="1" t="n">
         <v>219.1</v>
       </c>
+      <c r="CH48" s="1" t="n">
+        <v>196.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -13288,6 +13435,9 @@
       <c r="CG49" s="3" t="n">
         <v>125.6</v>
       </c>
+      <c r="CH49" s="1" t="n">
+        <v>190.7</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -13545,6 +13695,9 @@
       <c r="CG50" s="1" t="n">
         <v>440.8</v>
       </c>
+      <c r="CH50" s="1" t="n">
+        <v>150.5</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -13802,6 +13955,9 @@
       <c r="CG51" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="CH51" s="2" t="n">
+        <v>118.6</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -14059,6 +14215,9 @@
       <c r="CG52" s="3" t="n">
         <v>137.4</v>
       </c>
+      <c r="CH52" s="3" t="n">
+        <v>134.3</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -14315,6 +14474,9 @@
       </c>
       <c r="CG53" s="1" t="n">
         <v>144.2</v>
+      </c>
+      <c r="CH53" s="1" t="n">
+        <v>156.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CH53"/>
+  <dimension ref="A1:CI53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,7 @@
     <col width="12" customWidth="1" min="84" max="84"/>
     <col width="12" customWidth="1" min="85" max="85"/>
     <col width="12" customWidth="1" min="86" max="86"/>
+    <col width="12" customWidth="1" min="87" max="87"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -958,6 +959,11 @@
           <t>2024/12/03</t>
         </is>
       </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/04</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1218,6 +1224,9 @@
       <c r="CH2" s="2" t="n">
         <v>120.4</v>
       </c>
+      <c r="CI2" s="3" t="n">
+        <v>136.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1478,6 +1487,9 @@
       <c r="CH3" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="CI3" s="2" t="n">
+        <v>118.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1738,6 +1750,9 @@
       <c r="CH4" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="CI4" s="3" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -1998,6 +2013,9 @@
       <c r="CH5" s="1" t="n">
         <v>278.2</v>
       </c>
+      <c r="CI5" s="2" t="n">
+        <v>121.7</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2258,6 +2276,9 @@
       <c r="CH6" s="1" t="n">
         <v>211</v>
       </c>
+      <c r="CI6" s="1" t="n">
+        <v>199.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2518,6 +2539,9 @@
       <c r="CH7" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="CI7" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2778,6 +2802,9 @@
       <c r="CH8" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="CI8" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3038,6 +3065,9 @@
       <c r="CH9" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="CI9" s="1" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3298,6 +3328,9 @@
       <c r="CH10" s="1" t="n">
         <v>226.2</v>
       </c>
+      <c r="CI10" s="3" t="n">
+        <v>131.7</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3558,6 +3591,9 @@
       <c r="CH11" s="1" t="n">
         <v>174.7</v>
       </c>
+      <c r="CI11" s="1" t="n">
+        <v>156.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3818,6 +3854,9 @@
       <c r="CH12" s="1" t="n">
         <v>141.6</v>
       </c>
+      <c r="CI12" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4078,6 +4117,9 @@
       <c r="CH13" s="1" t="n">
         <v>173.3</v>
       </c>
+      <c r="CI13" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4338,6 +4380,9 @@
       <c r="CH14" s="1" t="n">
         <v>195.2</v>
       </c>
+      <c r="CI14" s="2" t="n">
+        <v>117.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4598,6 +4643,9 @@
       <c r="CH15" s="1" t="n">
         <v>140.8</v>
       </c>
+      <c r="CI15" s="1" t="n">
+        <v>191.3</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4858,6 +4906,9 @@
       <c r="CH16" s="1" t="n">
         <v>180.9</v>
       </c>
+      <c r="CI16" s="1" t="n">
+        <v>173.8</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5118,6 +5169,9 @@
       <c r="CH17" s="1" t="n">
         <v>153.8</v>
       </c>
+      <c r="CI17" s="1" t="n">
+        <v>167.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5378,6 +5432,9 @@
       <c r="CH18" s="1" t="n">
         <v>142.8</v>
       </c>
+      <c r="CI18" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5638,6 +5695,9 @@
       <c r="CH19" s="1" t="n">
         <v>188.9</v>
       </c>
+      <c r="CI19" s="3" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5898,6 +5958,9 @@
       <c r="CH20" s="1" t="n">
         <v>196.2</v>
       </c>
+      <c r="CI20" s="1" t="n">
+        <v>160.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6158,6 +6221,9 @@
       <c r="CH21" s="3" t="n">
         <v>128.5</v>
       </c>
+      <c r="CI21" s="3" t="n">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6418,6 +6484,9 @@
       <c r="CH22" s="3" t="n">
         <v>139</v>
       </c>
+      <c r="CI22" s="1" t="n">
+        <v>241.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6678,6 +6747,9 @@
       <c r="CH23" s="1" t="n">
         <v>189.2</v>
       </c>
+      <c r="CI23" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -6938,6 +7010,9 @@
       <c r="CH24" s="3" t="n">
         <v>133.9</v>
       </c>
+      <c r="CI24" s="3" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7198,6 +7273,9 @@
       <c r="CH25" s="1" t="n">
         <v>214.6</v>
       </c>
+      <c r="CI25" s="1" t="n">
+        <v>174.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7458,6 +7536,9 @@
       <c r="CH26" s="1" t="n">
         <v>225.4</v>
       </c>
+      <c r="CI26" s="1" t="n">
+        <v>218.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7718,6 +7799,9 @@
       <c r="CH27" s="3" t="n">
         <v>139</v>
       </c>
+      <c r="CI27" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -7978,6 +8062,9 @@
       <c r="CH28" s="1" t="n">
         <v>353.6</v>
       </c>
+      <c r="CI28" s="1" t="n">
+        <v>180.2</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8238,6 +8325,9 @@
       <c r="CH29" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="CI29" s="1" t="n">
+        <v>227.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8498,6 +8588,9 @@
       <c r="CH30" s="1" t="n">
         <v>206.6</v>
       </c>
+      <c r="CI30" s="1" t="n">
+        <v>337</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -8758,6 +8851,9 @@
       <c r="CH31" s="1" t="n">
         <v>204.1</v>
       </c>
+      <c r="CI31" s="1" t="n">
+        <v>166.7</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -9018,6 +9114,9 @@
       <c r="CH32" s="3" t="n">
         <v>125.9</v>
       </c>
+      <c r="CI32" s="3" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -9278,6 +9377,9 @@
       <c r="CH33" s="1" t="n">
         <v>148.9</v>
       </c>
+      <c r="CI33" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -9538,6 +9640,9 @@
       <c r="CH34" s="1" t="n">
         <v>187.2</v>
       </c>
+      <c r="CI34" s="1" t="n">
+        <v>246.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -9798,6 +9903,9 @@
       <c r="CH35" s="1" t="n">
         <v>266.3</v>
       </c>
+      <c r="CI35" s="2" t="n">
+        <v>124.8</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -10058,6 +10166,9 @@
       <c r="CH36" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="CI36" s="1" t="n">
+        <v>143.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -10318,6 +10429,9 @@
       <c r="CH37" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="CI37" s="1" t="n">
+        <v>428.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -10578,6 +10692,9 @@
       <c r="CH38" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="CI38" s="1" t="n">
+        <v>173.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -10838,6 +10955,9 @@
       <c r="CH39" s="1" t="n">
         <v>143.1</v>
       </c>
+      <c r="CI39" s="1" t="n">
+        <v>157.9</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -11098,6 +11218,9 @@
       <c r="CH40" s="1" t="n">
         <v>151.6</v>
       </c>
+      <c r="CI40" s="1" t="n">
+        <v>192.6</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -11358,6 +11481,9 @@
       <c r="CH41" s="1" t="n">
         <v>161.4</v>
       </c>
+      <c r="CI41" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -11618,6 +11744,9 @@
       <c r="CH42" s="2" t="n">
         <v>123.6</v>
       </c>
+      <c r="CI42" s="3" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -11878,6 +12007,9 @@
       <c r="CH43" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="CI43" s="1" t="n">
+        <v>157.7</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -12138,6 +12270,9 @@
       <c r="CH44" s="1" t="n">
         <v>233.8</v>
       </c>
+      <c r="CI44" s="3" t="n">
+        <v>136.9</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -12398,6 +12533,9 @@
       <c r="CH45" s="1" t="n">
         <v>178.5</v>
       </c>
+      <c r="CI45" s="1" t="n">
+        <v>258.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -12658,6 +12796,9 @@
       <c r="CH46" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="CI46" s="1" t="n">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -12918,6 +13059,9 @@
       <c r="CH47" s="1" t="n">
         <v>162.2</v>
       </c>
+      <c r="CI47" s="3" t="n">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -13178,6 +13322,9 @@
       <c r="CH48" s="1" t="n">
         <v>196.1</v>
       </c>
+      <c r="CI48" s="1" t="n">
+        <v>201.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -13438,6 +13585,9 @@
       <c r="CH49" s="1" t="n">
         <v>190.7</v>
       </c>
+      <c r="CI49" s="1" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -13698,6 +13848,9 @@
       <c r="CH50" s="1" t="n">
         <v>150.5</v>
       </c>
+      <c r="CI50" s="1" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -13958,6 +14111,9 @@
       <c r="CH51" s="2" t="n">
         <v>118.6</v>
       </c>
+      <c r="CI51" s="1" t="n">
+        <v>196.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -14218,6 +14374,9 @@
       <c r="CH52" s="3" t="n">
         <v>134.3</v>
       </c>
+      <c r="CI52" s="1" t="n">
+        <v>146.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -14477,6 +14636,9 @@
       </c>
       <c r="CH53" s="1" t="n">
         <v>156.9</v>
+      </c>
+      <c r="CI53" s="1" t="n">
+        <v>164.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI53"/>
+  <dimension ref="A1:CJ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,7 @@
     <col width="12" customWidth="1" min="85" max="85"/>
     <col width="12" customWidth="1" min="86" max="86"/>
     <col width="12" customWidth="1" min="87" max="87"/>
+    <col width="12" customWidth="1" min="88" max="88"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -964,6 +965,11 @@
           <t>2024/12/04</t>
         </is>
       </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/05</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1227,6 +1233,9 @@
       <c r="CI2" s="3" t="n">
         <v>136.3</v>
       </c>
+      <c r="CJ2" s="3" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1490,6 +1499,9 @@
       <c r="CI3" s="2" t="n">
         <v>118.5</v>
       </c>
+      <c r="CJ3" s="1" t="n">
+        <v>217.6</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1753,6 +1765,9 @@
       <c r="CI4" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="CJ4" s="3" t="n">
+        <v>136.9</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2016,6 +2031,9 @@
       <c r="CI5" s="2" t="n">
         <v>121.7</v>
       </c>
+      <c r="CJ5" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2279,6 +2297,9 @@
       <c r="CI6" s="1" t="n">
         <v>199.4</v>
       </c>
+      <c r="CJ6" s="2" t="n">
+        <v>113.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2542,6 +2563,9 @@
       <c r="CI7" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="CJ7" s="1" t="n">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2805,6 +2829,9 @@
       <c r="CI8" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="CJ8" s="2" t="n">
+        <v>109.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3068,6 +3095,9 @@
       <c r="CI9" s="1" t="n">
         <v>188.5</v>
       </c>
+      <c r="CJ9" s="1" t="n">
+        <v>212.5</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3331,6 +3361,9 @@
       <c r="CI10" s="3" t="n">
         <v>131.7</v>
       </c>
+      <c r="CJ10" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3594,6 +3627,9 @@
       <c r="CI11" s="1" t="n">
         <v>156.9</v>
       </c>
+      <c r="CJ11" s="2" t="n">
+        <v>123.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3857,6 +3893,9 @@
       <c r="CI12" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="CJ12" s="2" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4120,6 +4159,9 @@
       <c r="CI13" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="CJ13" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4383,6 +4425,9 @@
       <c r="CI14" s="2" t="n">
         <v>117.5</v>
       </c>
+      <c r="CJ14" s="2" t="n">
+        <v>124.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4646,6 +4691,9 @@
       <c r="CI15" s="1" t="n">
         <v>191.3</v>
       </c>
+      <c r="CJ15" s="1" t="n">
+        <v>161.9</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4909,6 +4957,9 @@
       <c r="CI16" s="1" t="n">
         <v>173.8</v>
       </c>
+      <c r="CJ16" s="1" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5172,6 +5223,9 @@
       <c r="CI17" s="1" t="n">
         <v>167.5</v>
       </c>
+      <c r="CJ17" s="1" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5435,6 +5489,9 @@
       <c r="CI18" s="1" t="n">
         <v>146.6</v>
       </c>
+      <c r="CJ18" s="1" t="n">
+        <v>154.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5698,6 +5755,9 @@
       <c r="CI19" s="3" t="n">
         <v>133.4</v>
       </c>
+      <c r="CJ19" s="1" t="n">
+        <v>161.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -5961,6 +6021,9 @@
       <c r="CI20" s="1" t="n">
         <v>160.3</v>
       </c>
+      <c r="CJ20" s="1" t="n">
+        <v>148.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6224,6 +6287,9 @@
       <c r="CI21" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="CJ21" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6487,6 +6553,9 @@
       <c r="CI22" s="1" t="n">
         <v>241.3</v>
       </c>
+      <c r="CJ22" s="1" t="n">
+        <v>154.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6750,6 +6819,9 @@
       <c r="CI23" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="CJ23" s="1" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7013,6 +7085,9 @@
       <c r="CI24" s="3" t="n">
         <v>136.7</v>
       </c>
+      <c r="CJ24" s="2" t="n">
+        <v>114.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7276,6 +7351,9 @@
       <c r="CI25" s="1" t="n">
         <v>174.6</v>
       </c>
+      <c r="CJ25" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7539,6 +7617,9 @@
       <c r="CI26" s="1" t="n">
         <v>218.5</v>
       </c>
+      <c r="CJ26" s="1" t="n">
+        <v>146.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7802,6 +7883,9 @@
       <c r="CI27" s="3" t="n">
         <v>135.8</v>
       </c>
+      <c r="CJ27" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8065,6 +8149,9 @@
       <c r="CI28" s="1" t="n">
         <v>180.2</v>
       </c>
+      <c r="CJ28" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8328,6 +8415,9 @@
       <c r="CI29" s="1" t="n">
         <v>227.1</v>
       </c>
+      <c r="CJ29" s="1" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8591,6 +8681,9 @@
       <c r="CI30" s="1" t="n">
         <v>337</v>
       </c>
+      <c r="CJ30" s="1" t="n">
+        <v>151.3</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -8854,6 +8947,9 @@
       <c r="CI31" s="1" t="n">
         <v>166.7</v>
       </c>
+      <c r="CJ31" s="1" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -9117,6 +9213,9 @@
       <c r="CI32" s="3" t="n">
         <v>129.8</v>
       </c>
+      <c r="CJ32" s="2" t="n">
+        <v>122.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -9380,6 +9479,9 @@
       <c r="CI33" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="CJ33" s="1" t="n">
+        <v>143.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -9643,6 +9745,9 @@
       <c r="CI34" s="1" t="n">
         <v>246.5</v>
       </c>
+      <c r="CJ34" s="1" t="n">
+        <v>155.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -9906,6 +10011,9 @@
       <c r="CI35" s="2" t="n">
         <v>124.8</v>
       </c>
+      <c r="CJ35" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -10169,6 +10277,9 @@
       <c r="CI36" s="1" t="n">
         <v>143.2</v>
       </c>
+      <c r="CJ36" s="2" t="n">
+        <v>118.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -10432,6 +10543,9 @@
       <c r="CI37" s="1" t="n">
         <v>428.3</v>
       </c>
+      <c r="CJ37" s="1" t="n">
+        <v>178.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -10695,6 +10809,9 @@
       <c r="CI38" s="1" t="n">
         <v>173.1</v>
       </c>
+      <c r="CJ38" s="3" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -10958,6 +11075,9 @@
       <c r="CI39" s="1" t="n">
         <v>157.9</v>
       </c>
+      <c r="CJ39" s="1" t="n">
+        <v>162.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -11221,6 +11341,9 @@
       <c r="CI40" s="1" t="n">
         <v>192.6</v>
       </c>
+      <c r="CJ40" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -11484,6 +11607,9 @@
       <c r="CI41" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="CJ41" s="3" t="n">
+        <v>134.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -11747,6 +11873,9 @@
       <c r="CI42" s="3" t="n">
         <v>134.8</v>
       </c>
+      <c r="CJ42" s="1" t="n">
+        <v>171.1</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -12010,6 +12139,9 @@
       <c r="CI43" s="1" t="n">
         <v>157.7</v>
       </c>
+      <c r="CJ43" s="1" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -12273,6 +12405,9 @@
       <c r="CI44" s="3" t="n">
         <v>136.9</v>
       </c>
+      <c r="CJ44" s="3" t="n">
+        <v>128.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -12536,6 +12671,9 @@
       <c r="CI45" s="1" t="n">
         <v>258.8</v>
       </c>
+      <c r="CJ45" s="1" t="n">
+        <v>170.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -12799,6 +12937,9 @@
       <c r="CI46" s="1" t="n">
         <v>147.5</v>
       </c>
+      <c r="CJ46" s="1" t="n">
+        <v>207.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -13062,6 +13203,9 @@
       <c r="CI47" s="3" t="n">
         <v>128.6</v>
       </c>
+      <c r="CJ47" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -13325,6 +13469,9 @@
       <c r="CI48" s="1" t="n">
         <v>201.8</v>
       </c>
+      <c r="CJ48" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -13588,6 +13735,9 @@
       <c r="CI49" s="1" t="n">
         <v>205</v>
       </c>
+      <c r="CJ49" s="1" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -13851,6 +14001,9 @@
       <c r="CI50" s="1" t="n">
         <v>240</v>
       </c>
+      <c r="CJ50" s="1" t="n">
+        <v>169.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -14114,6 +14267,9 @@
       <c r="CI51" s="1" t="n">
         <v>196.4</v>
       </c>
+      <c r="CJ51" s="2" t="n">
+        <v>120.3</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -14377,6 +14533,9 @@
       <c r="CI52" s="1" t="n">
         <v>146.2</v>
       </c>
+      <c r="CJ52" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -14639,6 +14798,9 @@
       </c>
       <c r="CI53" s="1" t="n">
         <v>164.8</v>
+      </c>
+      <c r="CJ53" s="2" t="n">
+        <v>112.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CJ53"/>
+  <dimension ref="A1:CK53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,7 @@
     <col width="12" customWidth="1" min="86" max="86"/>
     <col width="12" customWidth="1" min="87" max="87"/>
     <col width="12" customWidth="1" min="88" max="88"/>
+    <col width="12" customWidth="1" min="89" max="89"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -970,6 +971,11 @@
           <t>2024/12/05</t>
         </is>
       </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/06</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1236,6 +1242,9 @@
       <c r="CJ2" s="3" t="n">
         <v>134.8</v>
       </c>
+      <c r="CK2" s="1" t="n">
+        <v>152.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1502,6 +1511,9 @@
       <c r="CJ3" s="1" t="n">
         <v>217.6</v>
       </c>
+      <c r="CK3" s="1" t="n">
+        <v>177.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1768,6 +1780,9 @@
       <c r="CJ4" s="3" t="n">
         <v>136.9</v>
       </c>
+      <c r="CK4" s="1" t="n">
+        <v>153.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2034,6 +2049,9 @@
       <c r="CJ5" s="1" t="n">
         <v>143.3</v>
       </c>
+      <c r="CK5" s="1" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2300,6 +2318,9 @@
       <c r="CJ6" s="2" t="n">
         <v>113.5</v>
       </c>
+      <c r="CK6" s="3" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2566,6 +2587,9 @@
       <c r="CJ7" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="CK7" s="1" t="n">
+        <v>191.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2832,6 +2856,9 @@
       <c r="CJ8" s="2" t="n">
         <v>109.6</v>
       </c>
+      <c r="CK8" s="3" t="n">
+        <v>136.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3098,6 +3125,9 @@
       <c r="CJ9" s="1" t="n">
         <v>212.5</v>
       </c>
+      <c r="CK9" s="1" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3364,6 +3394,9 @@
       <c r="CJ10" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="CK10" s="1" t="n">
+        <v>163.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3630,6 +3663,9 @@
       <c r="CJ11" s="2" t="n">
         <v>123.3</v>
       </c>
+      <c r="CK11" s="1" t="n">
+        <v>480.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3896,6 +3932,9 @@
       <c r="CJ12" s="2" t="n">
         <v>119</v>
       </c>
+      <c r="CK12" s="1" t="n">
+        <v>166.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4162,6 +4201,9 @@
       <c r="CJ13" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="CK13" s="1" t="n">
+        <v>154.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4428,6 +4470,9 @@
       <c r="CJ14" s="2" t="n">
         <v>124.9</v>
       </c>
+      <c r="CK14" s="2" t="n">
+        <v>123.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4694,6 +4739,9 @@
       <c r="CJ15" s="1" t="n">
         <v>161.9</v>
       </c>
+      <c r="CK15" s="3" t="n">
+        <v>136.5</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -4960,6 +5008,9 @@
       <c r="CJ16" s="1" t="n">
         <v>173</v>
       </c>
+      <c r="CK16" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5226,6 +5277,9 @@
       <c r="CJ17" s="1" t="n">
         <v>141</v>
       </c>
+      <c r="CK17" s="1" t="n">
+        <v>236.6</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5492,6 +5546,9 @@
       <c r="CJ18" s="1" t="n">
         <v>154.9</v>
       </c>
+      <c r="CK18" s="2" t="n">
+        <v>106.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5758,6 +5815,9 @@
       <c r="CJ19" s="1" t="n">
         <v>161.5</v>
       </c>
+      <c r="CK19" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6024,6 +6084,9 @@
       <c r="CJ20" s="1" t="n">
         <v>148.6</v>
       </c>
+      <c r="CK20" s="1" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6290,6 +6353,9 @@
       <c r="CJ21" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="CK21" s="1" t="n">
+        <v>156.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6556,6 +6622,9 @@
       <c r="CJ22" s="1" t="n">
         <v>154.7</v>
       </c>
+      <c r="CK22" s="1" t="n">
+        <v>158.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6822,6 +6891,9 @@
       <c r="CJ23" s="1" t="n">
         <v>188.7</v>
       </c>
+      <c r="CK23" s="1" t="n">
+        <v>224.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7088,6 +7160,9 @@
       <c r="CJ24" s="2" t="n">
         <v>114.8</v>
       </c>
+      <c r="CK24" s="1" t="n">
+        <v>147.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7354,6 +7429,9 @@
       <c r="CJ25" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="CK25" s="1" t="n">
+        <v>189.4</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7620,6 +7698,9 @@
       <c r="CJ26" s="1" t="n">
         <v>146.3</v>
       </c>
+      <c r="CK26" s="1" t="n">
+        <v>162.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7886,6 +7967,9 @@
       <c r="CJ27" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="CK27" s="1" t="n">
+        <v>261.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8152,6 +8236,9 @@
       <c r="CJ28" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="CK28" s="1" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8418,6 +8505,9 @@
       <c r="CJ29" s="1" t="n">
         <v>150.1</v>
       </c>
+      <c r="CK29" s="2" t="n">
+        <v>108.7</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8684,6 +8774,9 @@
       <c r="CJ30" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="CK30" s="1" t="n">
+        <v>164.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -8950,6 +9043,9 @@
       <c r="CJ31" s="1" t="n">
         <v>140.3</v>
       </c>
+      <c r="CK31" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -9216,6 +9312,9 @@
       <c r="CJ32" s="2" t="n">
         <v>122.3</v>
       </c>
+      <c r="CK32" s="1" t="n">
+        <v>209.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -9482,6 +9581,9 @@
       <c r="CJ33" s="1" t="n">
         <v>143.4</v>
       </c>
+      <c r="CK33" s="1" t="n">
+        <v>158.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -9748,6 +9850,9 @@
       <c r="CJ34" s="1" t="n">
         <v>155.9</v>
       </c>
+      <c r="CK34" s="2" t="n">
+        <v>118.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -10014,6 +10119,9 @@
       <c r="CJ35" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="CK35" s="1" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -10280,6 +10388,9 @@
       <c r="CJ36" s="2" t="n">
         <v>118.8</v>
       </c>
+      <c r="CK36" s="2" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -10546,6 +10657,9 @@
       <c r="CJ37" s="1" t="n">
         <v>178.7</v>
       </c>
+      <c r="CK37" s="1" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -10812,6 +10926,9 @@
       <c r="CJ38" s="3" t="n">
         <v>130.5</v>
       </c>
+      <c r="CK38" s="1" t="n">
+        <v>168.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -11078,6 +11195,9 @@
       <c r="CJ39" s="1" t="n">
         <v>162.7</v>
       </c>
+      <c r="CK39" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -11344,6 +11464,9 @@
       <c r="CJ40" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="CK40" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -11610,6 +11733,9 @@
       <c r="CJ41" s="3" t="n">
         <v>134.4</v>
       </c>
+      <c r="CK41" s="1" t="n">
+        <v>170.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -11876,6 +12002,9 @@
       <c r="CJ42" s="1" t="n">
         <v>171.1</v>
       </c>
+      <c r="CK42" s="1" t="n">
+        <v>240.5</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -12142,6 +12271,9 @@
       <c r="CJ43" s="1" t="n">
         <v>156</v>
       </c>
+      <c r="CK43" s="3" t="n">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -12408,6 +12540,9 @@
       <c r="CJ44" s="3" t="n">
         <v>128.1</v>
       </c>
+      <c r="CK44" s="3" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -12674,6 +12809,9 @@
       <c r="CJ45" s="1" t="n">
         <v>170.6</v>
       </c>
+      <c r="CK45" s="3" t="n">
+        <v>128.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -12940,6 +13078,9 @@
       <c r="CJ46" s="1" t="n">
         <v>207.1</v>
       </c>
+      <c r="CK46" s="1" t="n">
+        <v>207.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -13206,6 +13347,9 @@
       <c r="CJ47" s="1" t="n">
         <v>158.9</v>
       </c>
+      <c r="CK47" s="1" t="n">
+        <v>174.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -13472,6 +13616,9 @@
       <c r="CJ48" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="CK48" s="1" t="n">
+        <v>251.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -13738,6 +13885,9 @@
       <c r="CJ49" s="1" t="n">
         <v>152.2</v>
       </c>
+      <c r="CK49" s="1" t="n">
+        <v>164.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -14004,6 +14154,9 @@
       <c r="CJ50" s="1" t="n">
         <v>169.7</v>
       </c>
+      <c r="CK50" s="1" t="n">
+        <v>179.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -14270,6 +14423,9 @@
       <c r="CJ51" s="2" t="n">
         <v>120.3</v>
       </c>
+      <c r="CK51" s="3" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -14536,6 +14692,9 @@
       <c r="CJ52" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="CK52" s="1" t="n">
+        <v>153.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -14801,6 +14960,9 @@
       </c>
       <c r="CJ53" s="2" t="n">
         <v>112.4</v>
+      </c>
+      <c r="CK53" s="1" t="n">
+        <v>157.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CK53"/>
+  <dimension ref="A1:CL53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +528,7 @@
     <col width="12" customWidth="1" min="87" max="87"/>
     <col width="12" customWidth="1" min="88" max="88"/>
     <col width="12" customWidth="1" min="89" max="89"/>
+    <col width="12" customWidth="1" min="90" max="90"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -976,6 +977,11 @@
           <t>2024/12/06</t>
         </is>
       </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/07</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1245,6 +1251,9 @@
       <c r="CK2" s="1" t="n">
         <v>152.3</v>
       </c>
+      <c r="CL2" s="1" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1514,6 +1523,9 @@
       <c r="CK3" s="1" t="n">
         <v>177.1</v>
       </c>
+      <c r="CL3" s="3" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1783,6 +1795,9 @@
       <c r="CK4" s="1" t="n">
         <v>153.3</v>
       </c>
+      <c r="CL4" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2052,6 +2067,9 @@
       <c r="CK5" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="CL5" s="3" t="n">
+        <v>133.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2321,6 +2339,9 @@
       <c r="CK6" s="3" t="n">
         <v>127.2</v>
       </c>
+      <c r="CL6" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2590,6 +2611,9 @@
       <c r="CK7" s="1" t="n">
         <v>191.7</v>
       </c>
+      <c r="CL7" s="2" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2859,6 +2883,9 @@
       <c r="CK8" s="3" t="n">
         <v>136.9</v>
       </c>
+      <c r="CL8" s="1" t="n">
+        <v>155.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3128,6 +3155,9 @@
       <c r="CK9" s="1" t="n">
         <v>143.1</v>
       </c>
+      <c r="CL9" s="1" t="n">
+        <v>178.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3397,6 +3427,9 @@
       <c r="CK10" s="1" t="n">
         <v>163.2</v>
       </c>
+      <c r="CL10" s="1" t="n">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3666,6 +3699,9 @@
       <c r="CK11" s="1" t="n">
         <v>480.3</v>
       </c>
+      <c r="CL11" s="3" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3935,6 +3971,9 @@
       <c r="CK12" s="1" t="n">
         <v>166.8</v>
       </c>
+      <c r="CL12" s="1" t="n">
+        <v>174.4</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4204,6 +4243,9 @@
       <c r="CK13" s="1" t="n">
         <v>154.5</v>
       </c>
+      <c r="CL13" s="1" t="n">
+        <v>165.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4473,6 +4515,9 @@
       <c r="CK14" s="2" t="n">
         <v>123.9</v>
       </c>
+      <c r="CL14" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4742,6 +4787,9 @@
       <c r="CK15" s="3" t="n">
         <v>136.5</v>
       </c>
+      <c r="CL15" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5011,6 +5059,9 @@
       <c r="CK16" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="CL16" s="1" t="n">
+        <v>190.2</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5280,6 +5331,9 @@
       <c r="CK17" s="1" t="n">
         <v>236.6</v>
       </c>
+      <c r="CL17" s="1" t="n">
+        <v>141.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5549,6 +5603,9 @@
       <c r="CK18" s="2" t="n">
         <v>106.5</v>
       </c>
+      <c r="CL18" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5818,6 +5875,9 @@
       <c r="CK19" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="CL19" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6087,6 +6147,9 @@
       <c r="CK20" s="1" t="n">
         <v>201</v>
       </c>
+      <c r="CL20" s="1" t="n">
+        <v>159.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6356,6 +6419,9 @@
       <c r="CK21" s="1" t="n">
         <v>156.7</v>
       </c>
+      <c r="CL21" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6625,6 +6691,9 @@
       <c r="CK22" s="1" t="n">
         <v>158.5</v>
       </c>
+      <c r="CL22" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6894,6 +6963,9 @@
       <c r="CK23" s="1" t="n">
         <v>224.1</v>
       </c>
+      <c r="CL23" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7163,6 +7235,9 @@
       <c r="CK24" s="1" t="n">
         <v>147.9</v>
       </c>
+      <c r="CL24" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7432,6 +7507,9 @@
       <c r="CK25" s="1" t="n">
         <v>189.4</v>
       </c>
+      <c r="CL25" s="3" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7701,6 +7779,9 @@
       <c r="CK26" s="1" t="n">
         <v>162.5</v>
       </c>
+      <c r="CL26" s="1" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -7970,6 +8051,9 @@
       <c r="CK27" s="1" t="n">
         <v>261.3</v>
       </c>
+      <c r="CL27" s="1" t="n">
+        <v>149.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8239,6 +8323,9 @@
       <c r="CK28" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="CL28" s="2" t="n">
+        <v>119.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8508,6 +8595,9 @@
       <c r="CK29" s="2" t="n">
         <v>108.7</v>
       </c>
+      <c r="CL29" s="3" t="n">
+        <v>139.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8777,6 +8867,9 @@
       <c r="CK30" s="1" t="n">
         <v>164.5</v>
       </c>
+      <c r="CL30" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -9046,6 +9139,9 @@
       <c r="CK31" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="CL31" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -9315,6 +9411,9 @@
       <c r="CK32" s="1" t="n">
         <v>209.3</v>
       </c>
+      <c r="CL32" s="2" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -9584,6 +9683,9 @@
       <c r="CK33" s="1" t="n">
         <v>158.2</v>
       </c>
+      <c r="CL33" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -9853,6 +9955,9 @@
       <c r="CK34" s="2" t="n">
         <v>118.2</v>
       </c>
+      <c r="CL34" s="1" t="n">
+        <v>163.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -10122,6 +10227,9 @@
       <c r="CK35" s="1" t="n">
         <v>247</v>
       </c>
+      <c r="CL35" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -10391,6 +10499,9 @@
       <c r="CK36" s="2" t="n">
         <v>113</v>
       </c>
+      <c r="CL36" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -10660,6 +10771,9 @@
       <c r="CK37" s="1" t="n">
         <v>249</v>
       </c>
+      <c r="CL37" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -10929,6 +11043,9 @@
       <c r="CK38" s="1" t="n">
         <v>168.9</v>
       </c>
+      <c r="CL38" s="1" t="n">
+        <v>151.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -11198,6 +11315,9 @@
       <c r="CK39" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="CL39" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -11467,6 +11587,9 @@
       <c r="CK40" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="CL40" s="3" t="n">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -11736,6 +11859,9 @@
       <c r="CK41" s="1" t="n">
         <v>170.4</v>
       </c>
+      <c r="CL41" s="1" t="n">
+        <v>157.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -12005,6 +12131,9 @@
       <c r="CK42" s="1" t="n">
         <v>240.5</v>
       </c>
+      <c r="CL42" s="1" t="n">
+        <v>178.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -12274,6 +12403,9 @@
       <c r="CK43" s="3" t="n">
         <v>138.5</v>
       </c>
+      <c r="CL43" s="1" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -12543,6 +12675,9 @@
       <c r="CK44" s="3" t="n">
         <v>128.4</v>
       </c>
+      <c r="CL44" s="1" t="n">
+        <v>144.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -12812,6 +12947,9 @@
       <c r="CK45" s="3" t="n">
         <v>128.9</v>
       </c>
+      <c r="CL45" s="1" t="n">
+        <v>145.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -13081,6 +13219,9 @@
       <c r="CK46" s="1" t="n">
         <v>207.4</v>
       </c>
+      <c r="CL46" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -13350,6 +13491,9 @@
       <c r="CK47" s="1" t="n">
         <v>174.1</v>
       </c>
+      <c r="CL47" s="2" t="n">
+        <v>123.5</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -13619,6 +13763,9 @@
       <c r="CK48" s="1" t="n">
         <v>251.2</v>
       </c>
+      <c r="CL48" s="1" t="n">
+        <v>174.6</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -13888,6 +14035,9 @@
       <c r="CK49" s="1" t="n">
         <v>164.8</v>
       </c>
+      <c r="CL49" s="1" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -14157,6 +14307,9 @@
       <c r="CK50" s="1" t="n">
         <v>179.3</v>
       </c>
+      <c r="CL50" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -14426,6 +14579,9 @@
       <c r="CK51" s="3" t="n">
         <v>125</v>
       </c>
+      <c r="CL51" s="1" t="n">
+        <v>225.3</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -14695,6 +14851,9 @@
       <c r="CK52" s="1" t="n">
         <v>153.7</v>
       </c>
+      <c r="CL52" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -14963,6 +15122,9 @@
       </c>
       <c r="CK53" s="1" t="n">
         <v>157.5</v>
+      </c>
+      <c r="CL53" s="1" t="n">
+        <v>144.6</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL53"/>
+  <dimension ref="A1:CM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,7 @@
     <col width="12" customWidth="1" min="88" max="88"/>
     <col width="12" customWidth="1" min="89" max="89"/>
     <col width="12" customWidth="1" min="90" max="90"/>
+    <col width="12" customWidth="1" min="91" max="91"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -982,6 +983,11 @@
           <t>2024/12/07</t>
         </is>
       </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/08</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1254,6 +1260,9 @@
       <c r="CL2" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="CM2" s="1" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1526,6 +1535,9 @@
       <c r="CL3" s="3" t="n">
         <v>128</v>
       </c>
+      <c r="CM3" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1798,6 +1810,9 @@
       <c r="CL4" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="CM4" s="1" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2070,6 +2085,9 @@
       <c r="CL5" s="3" t="n">
         <v>133.8</v>
       </c>
+      <c r="CM5" s="1" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2342,6 +2360,9 @@
       <c r="CL6" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="CM6" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2614,6 +2635,9 @@
       <c r="CL7" s="2" t="n">
         <v>112</v>
       </c>
+      <c r="CM7" s="2" t="n">
+        <v>95.90000000000001</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2886,6 +2910,9 @@
       <c r="CL8" s="1" t="n">
         <v>155.6</v>
       </c>
+      <c r="CM8" s="1" t="n">
+        <v>177.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3158,6 +3185,9 @@
       <c r="CL9" s="1" t="n">
         <v>178.3</v>
       </c>
+      <c r="CM9" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3430,6 +3460,9 @@
       <c r="CL10" s="1" t="n">
         <v>158.4</v>
       </c>
+      <c r="CM10" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3702,6 +3735,9 @@
       <c r="CL11" s="3" t="n">
         <v>129.8</v>
       </c>
+      <c r="CM11" s="1" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -3974,6 +4010,9 @@
       <c r="CL12" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="CM12" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4246,6 +4285,9 @@
       <c r="CL13" s="1" t="n">
         <v>165.9</v>
       </c>
+      <c r="CM13" s="1" t="n">
+        <v>176.8</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4518,6 +4560,9 @@
       <c r="CL14" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="CM14" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4790,6 +4835,9 @@
       <c r="CL15" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="CM15" s="1" t="n">
+        <v>166.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5062,6 +5110,9 @@
       <c r="CL16" s="1" t="n">
         <v>190.2</v>
       </c>
+      <c r="CM16" s="3" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5334,6 +5385,9 @@
       <c r="CL17" s="1" t="n">
         <v>141.5</v>
       </c>
+      <c r="CM17" s="1" t="n">
+        <v>225.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5606,6 +5660,9 @@
       <c r="CL18" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="CM18" s="1" t="n">
+        <v>146.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5878,6 +5935,9 @@
       <c r="CL19" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="CM19" s="2" t="n">
+        <v>121.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6150,6 +6210,9 @@
       <c r="CL20" s="1" t="n">
         <v>159.9</v>
       </c>
+      <c r="CM20" s="1" t="n">
+        <v>146.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6422,6 +6485,9 @@
       <c r="CL21" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="CM21" s="1" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6694,6 +6760,9 @@
       <c r="CL22" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="CM22" s="1" t="n">
+        <v>180.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -6966,6 +7035,9 @@
       <c r="CL23" s="3" t="n">
         <v>127.6</v>
       </c>
+      <c r="CM23" s="1" t="n">
+        <v>140.2</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7238,6 +7310,9 @@
       <c r="CL24" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="CM24" s="1" t="n">
+        <v>195.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7510,6 +7585,9 @@
       <c r="CL25" s="3" t="n">
         <v>126.6</v>
       </c>
+      <c r="CM25" s="2" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7782,6 +7860,9 @@
       <c r="CL26" s="1" t="n">
         <v>145</v>
       </c>
+      <c r="CM26" s="3" t="n">
+        <v>126.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8054,6 +8135,9 @@
       <c r="CL27" s="1" t="n">
         <v>149.4</v>
       </c>
+      <c r="CM27" s="1" t="n">
+        <v>300.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8326,6 +8410,9 @@
       <c r="CL28" s="2" t="n">
         <v>119.6</v>
       </c>
+      <c r="CM28" s="1" t="n">
+        <v>168.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8598,6 +8685,9 @@
       <c r="CL29" s="3" t="n">
         <v>139.6</v>
       </c>
+      <c r="CM29" s="1" t="n">
+        <v>173.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8870,6 +8960,9 @@
       <c r="CL30" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="CM30" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -9142,6 +9235,9 @@
       <c r="CL31" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="CM31" s="1" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -9414,6 +9510,9 @@
       <c r="CL32" s="2" t="n">
         <v>123.4</v>
       </c>
+      <c r="CM32" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -9686,6 +9785,9 @@
       <c r="CL33" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="CM33" s="1" t="n">
+        <v>194.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -9958,6 +10060,9 @@
       <c r="CL34" s="1" t="n">
         <v>163.9</v>
       </c>
+      <c r="CM34" s="1" t="n">
+        <v>175.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -10230,6 +10335,9 @@
       <c r="CL35" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="CM35" s="1" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -10502,6 +10610,9 @@
       <c r="CL36" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="CM36" s="1" t="n">
+        <v>174.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -10774,6 +10885,9 @@
       <c r="CL37" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="CM37" s="1" t="n">
+        <v>174.5</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -11046,6 +11160,9 @@
       <c r="CL38" s="1" t="n">
         <v>151.6</v>
       </c>
+      <c r="CM38" s="1" t="n">
+        <v>145.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -11318,6 +11435,9 @@
       <c r="CL39" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="CM39" s="1" t="n">
+        <v>198.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -11590,6 +11710,9 @@
       <c r="CL40" s="3" t="n">
         <v>129.4</v>
       </c>
+      <c r="CM40" s="1" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -11862,6 +11985,9 @@
       <c r="CL41" s="1" t="n">
         <v>157.4</v>
       </c>
+      <c r="CM41" s="2" t="n">
+        <v>116.5</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -12134,6 +12260,9 @@
       <c r="CL42" s="1" t="n">
         <v>178.6</v>
       </c>
+      <c r="CM42" s="1" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -12406,6 +12535,9 @@
       <c r="CL43" s="1" t="n">
         <v>186</v>
       </c>
+      <c r="CM43" s="1" t="n">
+        <v>158.5</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -12678,6 +12810,9 @@
       <c r="CL44" s="1" t="n">
         <v>144.5</v>
       </c>
+      <c r="CM44" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -12950,6 +13085,9 @@
       <c r="CL45" s="1" t="n">
         <v>145.7</v>
       </c>
+      <c r="CM45" s="1" t="n">
+        <v>409.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -13222,6 +13360,9 @@
       <c r="CL46" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="CM46" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -13494,6 +13635,9 @@
       <c r="CL47" s="2" t="n">
         <v>123.5</v>
       </c>
+      <c r="CM47" s="1" t="n">
+        <v>152.3</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -13766,6 +13910,9 @@
       <c r="CL48" s="1" t="n">
         <v>174.6</v>
       </c>
+      <c r="CM48" s="1" t="n">
+        <v>197.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -14038,6 +14185,9 @@
       <c r="CL49" s="1" t="n">
         <v>187.5</v>
       </c>
+      <c r="CM49" s="1" t="n">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -14310,6 +14460,9 @@
       <c r="CL50" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="CM50" s="1" t="n">
+        <v>209.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -14582,6 +14735,9 @@
       <c r="CL51" s="1" t="n">
         <v>225.3</v>
       </c>
+      <c r="CM51" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -14854,6 +15010,9 @@
       <c r="CL52" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="CM52" s="1" t="n">
+        <v>160.5</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -15125,6 +15284,9 @@
       </c>
       <c r="CL53" s="1" t="n">
         <v>144.6</v>
+      </c>
+      <c r="CM53" s="1" t="n">
+        <v>154.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM53"/>
+  <dimension ref="A1:CN53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,7 @@
     <col width="12" customWidth="1" min="89" max="89"/>
     <col width="12" customWidth="1" min="90" max="90"/>
     <col width="12" customWidth="1" min="91" max="91"/>
+    <col width="12" customWidth="1" min="92" max="92"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -988,6 +989,11 @@
           <t>2024/12/08</t>
         </is>
       </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/09</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1263,6 +1269,9 @@
       <c r="CM2" s="1" t="n">
         <v>142.7</v>
       </c>
+      <c r="CN2" s="3" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1538,6 +1547,9 @@
       <c r="CM3" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="CN3" s="1" t="n">
+        <v>266.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1813,6 +1825,9 @@
       <c r="CM4" s="1" t="n">
         <v>164.3</v>
       </c>
+      <c r="CN4" s="1" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2088,6 +2103,9 @@
       <c r="CM5" s="1" t="n">
         <v>145.1</v>
       </c>
+      <c r="CN5" s="1" t="n">
+        <v>170.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2363,6 +2381,9 @@
       <c r="CM6" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="CN6" s="1" t="n">
+        <v>197.6</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2638,6 +2659,9 @@
       <c r="CM7" s="2" t="n">
         <v>95.90000000000001</v>
       </c>
+      <c r="CN7" s="1" t="n">
+        <v>143.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2913,6 +2937,9 @@
       <c r="CM8" s="1" t="n">
         <v>177.2</v>
       </c>
+      <c r="CN8" s="1" t="n">
+        <v>266.7</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3188,6 +3215,9 @@
       <c r="CM9" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="CN9" s="1" t="n">
+        <v>232.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3463,6 +3493,9 @@
       <c r="CM10" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="CN10" s="3" t="n">
+        <v>136.9</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3738,6 +3771,9 @@
       <c r="CM11" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="CN11" s="1" t="n">
+        <v>165.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4013,6 +4049,9 @@
       <c r="CM12" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="CN12" s="1" t="n">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4288,6 +4327,9 @@
       <c r="CM13" s="1" t="n">
         <v>176.8</v>
       </c>
+      <c r="CN13" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4563,6 +4605,9 @@
       <c r="CM14" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="CN14" s="2" t="n">
+        <v>122.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4838,6 +4883,9 @@
       <c r="CM15" s="1" t="n">
         <v>166.2</v>
       </c>
+      <c r="CN15" s="1" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5113,6 +5161,9 @@
       <c r="CM16" s="3" t="n">
         <v>132</v>
       </c>
+      <c r="CN16" s="1" t="n">
+        <v>192.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5388,6 +5439,9 @@
       <c r="CM17" s="1" t="n">
         <v>225.8</v>
       </c>
+      <c r="CN17" s="1" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5663,6 +5717,9 @@
       <c r="CM18" s="1" t="n">
         <v>146.5</v>
       </c>
+      <c r="CN18" s="1" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5938,6 +5995,9 @@
       <c r="CM19" s="2" t="n">
         <v>121.7</v>
       </c>
+      <c r="CN19" s="3" t="n">
+        <v>136.3</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6213,6 +6273,9 @@
       <c r="CM20" s="1" t="n">
         <v>146.9</v>
       </c>
+      <c r="CN20" s="1" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6488,6 +6551,9 @@
       <c r="CM21" s="1" t="n">
         <v>164</v>
       </c>
+      <c r="CN21" s="1" t="n">
+        <v>161.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6763,6 +6829,9 @@
       <c r="CM22" s="1" t="n">
         <v>180.4</v>
       </c>
+      <c r="CN22" s="1" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7038,6 +7107,9 @@
       <c r="CM23" s="1" t="n">
         <v>140.2</v>
       </c>
+      <c r="CN23" s="3" t="n">
+        <v>134.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7313,6 +7385,9 @@
       <c r="CM24" s="1" t="n">
         <v>195.5</v>
       </c>
+      <c r="CN24" s="1" t="n">
+        <v>176.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7588,6 +7663,9 @@
       <c r="CM25" s="2" t="n">
         <v>123.4</v>
       </c>
+      <c r="CN25" s="2" t="n">
+        <v>124.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7863,6 +7941,9 @@
       <c r="CM26" s="3" t="n">
         <v>126.1</v>
       </c>
+      <c r="CN26" s="1" t="n">
+        <v>164.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8138,6 +8219,9 @@
       <c r="CM27" s="1" t="n">
         <v>300.3</v>
       </c>
+      <c r="CN27" s="1" t="n">
+        <v>148.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8413,6 +8497,9 @@
       <c r="CM28" s="1" t="n">
         <v>168.8</v>
       </c>
+      <c r="CN28" s="1" t="n">
+        <v>337.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8688,6 +8775,9 @@
       <c r="CM29" s="1" t="n">
         <v>173.3</v>
       </c>
+      <c r="CN29" s="1" t="n">
+        <v>184.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -8963,6 +9053,9 @@
       <c r="CM30" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="CN30" s="1" t="n">
+        <v>220.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -9238,6 +9331,9 @@
       <c r="CM31" s="1" t="n">
         <v>186.9</v>
       </c>
+      <c r="CN31" s="3" t="n">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -9513,6 +9609,9 @@
       <c r="CM32" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="CN32" s="1" t="n">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -9788,6 +9887,9 @@
       <c r="CM33" s="1" t="n">
         <v>194.4</v>
       </c>
+      <c r="CN33" s="1" t="n">
+        <v>217.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -10063,6 +10165,9 @@
       <c r="CM34" s="1" t="n">
         <v>175.2</v>
       </c>
+      <c r="CN34" s="3" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -10338,6 +10443,9 @@
       <c r="CM35" s="1" t="n">
         <v>140.3</v>
       </c>
+      <c r="CN35" s="1" t="n">
+        <v>150.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -10613,6 +10721,9 @@
       <c r="CM36" s="1" t="n">
         <v>174.2</v>
       </c>
+      <c r="CN36" s="3" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -10888,6 +10999,9 @@
       <c r="CM37" s="1" t="n">
         <v>174.5</v>
       </c>
+      <c r="CN37" s="2" t="n">
+        <v>124.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -11163,6 +11277,9 @@
       <c r="CM38" s="1" t="n">
         <v>145.7</v>
       </c>
+      <c r="CN38" s="1" t="n">
+        <v>221.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -11438,6 +11555,9 @@
       <c r="CM39" s="1" t="n">
         <v>198.3</v>
       </c>
+      <c r="CN39" s="1" t="n">
+        <v>159.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -11713,6 +11833,9 @@
       <c r="CM40" s="1" t="n">
         <v>187.7</v>
       </c>
+      <c r="CN40" s="2" t="n">
+        <v>119.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -11988,6 +12111,9 @@
       <c r="CM41" s="2" t="n">
         <v>116.5</v>
       </c>
+      <c r="CN41" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -12263,6 +12389,9 @@
       <c r="CM42" s="1" t="n">
         <v>179</v>
       </c>
+      <c r="CN42" s="1" t="n">
+        <v>147.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -12538,6 +12667,9 @@
       <c r="CM43" s="1" t="n">
         <v>158.5</v>
       </c>
+      <c r="CN43" s="1" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -12813,6 +12945,9 @@
       <c r="CM44" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="CN44" s="1" t="n">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -13088,6 +13223,9 @@
       <c r="CM45" s="1" t="n">
         <v>409.8</v>
       </c>
+      <c r="CN45" s="3" t="n">
+        <v>136.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -13363,6 +13501,9 @@
       <c r="CM46" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="CN46" s="1" t="n">
+        <v>171.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -13638,6 +13779,9 @@
       <c r="CM47" s="1" t="n">
         <v>152.3</v>
       </c>
+      <c r="CN47" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -13913,6 +14057,9 @@
       <c r="CM48" s="1" t="n">
         <v>197.4</v>
       </c>
+      <c r="CN48" s="1" t="n">
+        <v>218.6</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -14188,6 +14335,9 @@
       <c r="CM49" s="1" t="n">
         <v>158.4</v>
       </c>
+      <c r="CN49" s="1" t="n">
+        <v>163.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -14463,6 +14613,9 @@
       <c r="CM50" s="1" t="n">
         <v>209.8</v>
       </c>
+      <c r="CN50" s="1" t="n">
+        <v>159.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -14738,6 +14891,9 @@
       <c r="CM51" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="CN51" s="1" t="n">
+        <v>161.2</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -15013,6 +15169,9 @@
       <c r="CM52" s="1" t="n">
         <v>160.5</v>
       </c>
+      <c r="CN52" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -15287,6 +15446,9 @@
       </c>
       <c r="CM53" s="1" t="n">
         <v>154.1</v>
+      </c>
+      <c r="CN53" s="1" t="n">
+        <v>143.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CN53"/>
+  <dimension ref="A1:CO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,6 +531,7 @@
     <col width="12" customWidth="1" min="90" max="90"/>
     <col width="12" customWidth="1" min="91" max="91"/>
     <col width="12" customWidth="1" min="92" max="92"/>
+    <col width="12" customWidth="1" min="93" max="93"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -994,6 +995,11 @@
           <t>2024/12/09</t>
         </is>
       </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/10</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1272,6 +1278,9 @@
       <c r="CN2" s="3" t="n">
         <v>138</v>
       </c>
+      <c r="CO2" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1550,6 +1559,9 @@
       <c r="CN3" s="1" t="n">
         <v>266.4</v>
       </c>
+      <c r="CO3" s="1" t="n">
+        <v>153.7</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1828,6 +1840,9 @@
       <c r="CN4" s="1" t="n">
         <v>188.6</v>
       </c>
+      <c r="CO4" s="3" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2106,6 +2121,9 @@
       <c r="CN5" s="1" t="n">
         <v>170.8</v>
       </c>
+      <c r="CO5" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2384,6 +2402,9 @@
       <c r="CN6" s="1" t="n">
         <v>197.6</v>
       </c>
+      <c r="CO6" s="2" t="n">
+        <v>124.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2662,6 +2683,9 @@
       <c r="CN7" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="CO7" s="2" t="n">
+        <v>121.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2940,6 +2964,9 @@
       <c r="CN8" s="1" t="n">
         <v>266.7</v>
       </c>
+      <c r="CO8" s="1" t="n">
+        <v>197.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3218,6 +3245,9 @@
       <c r="CN9" s="1" t="n">
         <v>232.2</v>
       </c>
+      <c r="CO9" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3496,6 +3526,9 @@
       <c r="CN10" s="3" t="n">
         <v>136.9</v>
       </c>
+      <c r="CO10" s="1" t="n">
+        <v>224.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3774,6 +3807,9 @@
       <c r="CN11" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="CO11" s="1" t="n">
+        <v>178.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4052,6 +4088,9 @@
       <c r="CN12" s="1" t="n">
         <v>186.1</v>
       </c>
+      <c r="CO12" s="1" t="n">
+        <v>182.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4330,6 +4369,9 @@
       <c r="CN13" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="CO13" s="1" t="n">
+        <v>149.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4608,6 +4650,9 @@
       <c r="CN14" s="2" t="n">
         <v>122.6</v>
       </c>
+      <c r="CO14" s="1" t="n">
+        <v>184.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4886,6 +4931,9 @@
       <c r="CN15" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="CO15" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5164,6 +5212,9 @@
       <c r="CN16" s="1" t="n">
         <v>192.5</v>
       </c>
+      <c r="CO16" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5442,6 +5493,9 @@
       <c r="CN17" s="1" t="n">
         <v>163.8</v>
       </c>
+      <c r="CO17" s="1" t="n">
+        <v>179.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5720,6 +5774,9 @@
       <c r="CN18" s="1" t="n">
         <v>153.9</v>
       </c>
+      <c r="CO18" s="1" t="n">
+        <v>220.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -5998,6 +6055,9 @@
       <c r="CN19" s="3" t="n">
         <v>136.3</v>
       </c>
+      <c r="CO19" s="1" t="n">
+        <v>153.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6276,6 +6336,9 @@
       <c r="CN20" s="1" t="n">
         <v>178</v>
       </c>
+      <c r="CO20" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6554,6 +6617,9 @@
       <c r="CN21" s="1" t="n">
         <v>161.3</v>
       </c>
+      <c r="CO21" s="3" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6832,6 +6898,9 @@
       <c r="CN22" s="1" t="n">
         <v>257</v>
       </c>
+      <c r="CO22" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7110,6 +7179,9 @@
       <c r="CN23" s="3" t="n">
         <v>134.6</v>
       </c>
+      <c r="CO23" s="1" t="n">
+        <v>175.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7388,6 +7460,9 @@
       <c r="CN24" s="1" t="n">
         <v>176.4</v>
       </c>
+      <c r="CO24" s="1" t="n">
+        <v>174.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7666,6 +7741,9 @@
       <c r="CN25" s="2" t="n">
         <v>124.6</v>
       </c>
+      <c r="CO25" s="1" t="n">
+        <v>178.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -7944,6 +8022,9 @@
       <c r="CN26" s="1" t="n">
         <v>164.6</v>
       </c>
+      <c r="CO26" s="1" t="n">
+        <v>204.2</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8222,6 +8303,9 @@
       <c r="CN27" s="1" t="n">
         <v>148.1</v>
       </c>
+      <c r="CO27" s="3" t="n">
+        <v>136.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8500,6 +8584,9 @@
       <c r="CN28" s="1" t="n">
         <v>337.7</v>
       </c>
+      <c r="CO28" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8778,6 +8865,9 @@
       <c r="CN29" s="1" t="n">
         <v>184.3</v>
       </c>
+      <c r="CO29" s="1" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9056,6 +9146,9 @@
       <c r="CN30" s="1" t="n">
         <v>220.1</v>
       </c>
+      <c r="CO30" s="3" t="n">
+        <v>132.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -9334,6 +9427,9 @@
       <c r="CN31" s="3" t="n">
         <v>125.1</v>
       </c>
+      <c r="CO31" s="1" t="n">
+        <v>155.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -9612,6 +9708,9 @@
       <c r="CN32" s="1" t="n">
         <v>142.1</v>
       </c>
+      <c r="CO32" s="1" t="n">
+        <v>170.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -9890,6 +9989,9 @@
       <c r="CN33" s="1" t="n">
         <v>217.3</v>
       </c>
+      <c r="CO33" s="1" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -10168,6 +10270,9 @@
       <c r="CN34" s="3" t="n">
         <v>130.7</v>
       </c>
+      <c r="CO34" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -10446,6 +10551,9 @@
       <c r="CN35" s="1" t="n">
         <v>150.5</v>
       </c>
+      <c r="CO35" s="2" t="n">
+        <v>119.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -10724,6 +10832,9 @@
       <c r="CN36" s="3" t="n">
         <v>133.4</v>
       </c>
+      <c r="CO36" s="1" t="n">
+        <v>171.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -11002,6 +11113,9 @@
       <c r="CN37" s="2" t="n">
         <v>124.4</v>
       </c>
+      <c r="CO37" s="1" t="n">
+        <v>192.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -11280,6 +11394,9 @@
       <c r="CN38" s="1" t="n">
         <v>221.2</v>
       </c>
+      <c r="CO38" s="1" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -11558,6 +11675,9 @@
       <c r="CN39" s="1" t="n">
         <v>159.4</v>
       </c>
+      <c r="CO39" s="1" t="n">
+        <v>340.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -11836,6 +11956,9 @@
       <c r="CN40" s="2" t="n">
         <v>119.8</v>
       </c>
+      <c r="CO40" s="1" t="n">
+        <v>215.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -12114,6 +12237,9 @@
       <c r="CN41" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="CO41" s="3" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -12392,6 +12518,9 @@
       <c r="CN42" s="1" t="n">
         <v>147.2</v>
       </c>
+      <c r="CO42" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -12670,6 +12799,9 @@
       <c r="CN43" s="1" t="n">
         <v>163.8</v>
       </c>
+      <c r="CO43" s="1" t="n">
+        <v>153.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -12948,6 +13080,9 @@
       <c r="CN44" s="1" t="n">
         <v>150.4</v>
       </c>
+      <c r="CO44" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -13226,6 +13361,9 @@
       <c r="CN45" s="3" t="n">
         <v>136.6</v>
       </c>
+      <c r="CO45" s="1" t="n">
+        <v>178.3</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -13504,6 +13642,9 @@
       <c r="CN46" s="1" t="n">
         <v>171.8</v>
       </c>
+      <c r="CO46" s="3" t="n">
+        <v>131.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -13782,6 +13923,9 @@
       <c r="CN47" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="CO47" s="2" t="n">
+        <v>110.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -14060,6 +14204,9 @@
       <c r="CN48" s="1" t="n">
         <v>218.6</v>
       </c>
+      <c r="CO48" s="2" t="n">
+        <v>114.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -14338,6 +14485,9 @@
       <c r="CN49" s="1" t="n">
         <v>163.3</v>
       </c>
+      <c r="CO49" s="1" t="n">
+        <v>181.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -14616,6 +14766,9 @@
       <c r="CN50" s="1" t="n">
         <v>159.9</v>
       </c>
+      <c r="CO50" s="1" t="n">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -14894,6 +15047,9 @@
       <c r="CN51" s="1" t="n">
         <v>161.2</v>
       </c>
+      <c r="CO51" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -15172,6 +15328,9 @@
       <c r="CN52" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="CO52" s="1" t="n">
+        <v>222.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -15449,6 +15608,9 @@
       </c>
       <c r="CN53" s="1" t="n">
         <v>143.9</v>
+      </c>
+      <c r="CO53" s="3" t="n">
+        <v>136.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CO53"/>
+  <dimension ref="A1:CP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,7 @@
     <col width="12" customWidth="1" min="91" max="91"/>
     <col width="12" customWidth="1" min="92" max="92"/>
     <col width="12" customWidth="1" min="93" max="93"/>
+    <col width="12" customWidth="1" min="94" max="94"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1000,6 +1001,11 @@
           <t>2024/12/10</t>
         </is>
       </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/11</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1281,6 +1287,9 @@
       <c r="CO2" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="CP2" s="1" t="n">
+        <v>195.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1562,6 +1571,9 @@
       <c r="CO3" s="1" t="n">
         <v>153.7</v>
       </c>
+      <c r="CP3" s="2" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1843,6 +1855,9 @@
       <c r="CO4" s="3" t="n">
         <v>133</v>
       </c>
+      <c r="CP4" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2124,6 +2139,9 @@
       <c r="CO5" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="CP5" s="1" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2405,6 +2423,9 @@
       <c r="CO6" s="2" t="n">
         <v>124.1</v>
       </c>
+      <c r="CP6" s="1" t="n">
+        <v>162.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2686,6 +2707,9 @@
       <c r="CO7" s="2" t="n">
         <v>121.5</v>
       </c>
+      <c r="CP7" s="1" t="n">
+        <v>216.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2967,6 +2991,9 @@
       <c r="CO8" s="1" t="n">
         <v>197.1</v>
       </c>
+      <c r="CP8" s="1" t="n">
+        <v>170.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3248,6 +3275,9 @@
       <c r="CO9" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="CP9" s="2" t="n">
+        <v>123.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3529,6 +3559,9 @@
       <c r="CO10" s="1" t="n">
         <v>224.8</v>
       </c>
+      <c r="CP10" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3810,6 +3843,9 @@
       <c r="CO11" s="1" t="n">
         <v>178.6</v>
       </c>
+      <c r="CP11" s="1" t="n">
+        <v>175.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4091,6 +4127,9 @@
       <c r="CO12" s="1" t="n">
         <v>182.3</v>
       </c>
+      <c r="CP12" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4372,6 +4411,9 @@
       <c r="CO13" s="1" t="n">
         <v>149.7</v>
       </c>
+      <c r="CP13" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4653,6 +4695,9 @@
       <c r="CO14" s="1" t="n">
         <v>184.4</v>
       </c>
+      <c r="CP14" s="1" t="n">
+        <v>203.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4934,6 +4979,9 @@
       <c r="CO15" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="CP15" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5215,6 +5263,9 @@
       <c r="CO16" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="CP16" s="3" t="n">
+        <v>137.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5496,6 +5547,9 @@
       <c r="CO17" s="1" t="n">
         <v>179.8</v>
       </c>
+      <c r="CP17" s="3" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5777,6 +5831,9 @@
       <c r="CO18" s="1" t="n">
         <v>220.8</v>
       </c>
+      <c r="CP18" s="1" t="n">
+        <v>164.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6058,6 +6115,9 @@
       <c r="CO19" s="1" t="n">
         <v>153.8</v>
       </c>
+      <c r="CP19" s="1" t="n">
+        <v>249.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6339,6 +6399,9 @@
       <c r="CO20" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="CP20" s="3" t="n">
+        <v>130.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6620,6 +6683,9 @@
       <c r="CO21" s="3" t="n">
         <v>136.7</v>
       </c>
+      <c r="CP21" s="2" t="n">
+        <v>116.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6901,6 +6967,9 @@
       <c r="CO22" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="CP22" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7182,6 +7251,9 @@
       <c r="CO23" s="1" t="n">
         <v>175.6</v>
       </c>
+      <c r="CP23" s="2" t="n">
+        <v>109.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7463,6 +7535,9 @@
       <c r="CO24" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="CP24" s="1" t="n">
+        <v>206.1</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7744,6 +7819,9 @@
       <c r="CO25" s="1" t="n">
         <v>178.5</v>
       </c>
+      <c r="CP25" s="3" t="n">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8025,6 +8103,9 @@
       <c r="CO26" s="1" t="n">
         <v>204.2</v>
       </c>
+      <c r="CP26" s="3" t="n">
+        <v>126.9</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8306,6 +8387,9 @@
       <c r="CO27" s="3" t="n">
         <v>136.9</v>
       </c>
+      <c r="CP27" s="1" t="n">
+        <v>191.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8587,6 +8671,9 @@
       <c r="CO28" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="CP28" s="3" t="n">
+        <v>132.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8868,6 +8955,9 @@
       <c r="CO29" s="1" t="n">
         <v>168</v>
       </c>
+      <c r="CP29" s="2" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9149,6 +9239,9 @@
       <c r="CO30" s="3" t="n">
         <v>132.1</v>
       </c>
+      <c r="CP30" s="1" t="n">
+        <v>159.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -9430,6 +9523,9 @@
       <c r="CO31" s="1" t="n">
         <v>155.6</v>
       </c>
+      <c r="CP31" s="1" t="n">
+        <v>157.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -9711,6 +9807,9 @@
       <c r="CO32" s="1" t="n">
         <v>170.5</v>
       </c>
+      <c r="CP32" s="1" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -9992,6 +10091,9 @@
       <c r="CO33" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="CP33" s="3" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -10273,6 +10375,9 @@
       <c r="CO34" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="CP34" s="1" t="n">
+        <v>422.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -10554,6 +10659,9 @@
       <c r="CO35" s="2" t="n">
         <v>119.4</v>
       </c>
+      <c r="CP35" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -10835,6 +10943,9 @@
       <c r="CO36" s="1" t="n">
         <v>171.5</v>
       </c>
+      <c r="CP36" s="3" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -11116,6 +11227,9 @@
       <c r="CO37" s="1" t="n">
         <v>192.7</v>
       </c>
+      <c r="CP37" s="1" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -11397,6 +11511,9 @@
       <c r="CO38" s="1" t="n">
         <v>193</v>
       </c>
+      <c r="CP38" s="1" t="n">
+        <v>174.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -11678,6 +11795,9 @@
       <c r="CO39" s="1" t="n">
         <v>340.6</v>
       </c>
+      <c r="CP39" s="3" t="n">
+        <v>125.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -11959,6 +12079,9 @@
       <c r="CO40" s="1" t="n">
         <v>215.4</v>
       </c>
+      <c r="CP40" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -12240,6 +12363,9 @@
       <c r="CO41" s="3" t="n">
         <v>130</v>
       </c>
+      <c r="CP41" s="3" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -12521,6 +12647,9 @@
       <c r="CO42" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="CP42" s="2" t="n">
+        <v>122.1</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -12802,6 +12931,9 @@
       <c r="CO43" s="1" t="n">
         <v>153.1</v>
       </c>
+      <c r="CP43" s="1" t="n">
+        <v>171.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -13083,6 +13215,9 @@
       <c r="CO44" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="CP44" s="1" t="n">
+        <v>175.9</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -13364,6 +13499,9 @@
       <c r="CO45" s="1" t="n">
         <v>178.3</v>
       </c>
+      <c r="CP45" s="1" t="n">
+        <v>162.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -13645,6 +13783,9 @@
       <c r="CO46" s="3" t="n">
         <v>131.3</v>
       </c>
+      <c r="CP46" s="1" t="n">
+        <v>302.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -13926,6 +14067,9 @@
       <c r="CO47" s="2" t="n">
         <v>110.4</v>
       </c>
+      <c r="CP47" s="3" t="n">
+        <v>136.6</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -14207,6 +14351,9 @@
       <c r="CO48" s="2" t="n">
         <v>114.4</v>
       </c>
+      <c r="CP48" s="1" t="n">
+        <v>168.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -14488,6 +14635,9 @@
       <c r="CO49" s="1" t="n">
         <v>181.8</v>
       </c>
+      <c r="CP49" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -14769,6 +14919,9 @@
       <c r="CO50" s="1" t="n">
         <v>163.1</v>
       </c>
+      <c r="CP50" s="3" t="n">
+        <v>129.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -15050,6 +15203,9 @@
       <c r="CO51" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="CP51" s="1" t="n">
+        <v>213.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -15331,6 +15487,9 @@
       <c r="CO52" s="1" t="n">
         <v>222.2</v>
       </c>
+      <c r="CP52" s="1" t="n">
+        <v>165.3</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -15611,6 +15770,9 @@
       </c>
       <c r="CO53" s="3" t="n">
         <v>136.7</v>
+      </c>
+      <c r="CP53" s="3" t="n">
+        <v>127.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP53"/>
+  <dimension ref="A1:CQ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +533,7 @@
     <col width="12" customWidth="1" min="92" max="92"/>
     <col width="12" customWidth="1" min="93" max="93"/>
     <col width="12" customWidth="1" min="94" max="94"/>
+    <col width="12" customWidth="1" min="95" max="95"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1006,6 +1007,11 @@
           <t>2024/12/11</t>
         </is>
       </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/12</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1290,6 +1296,9 @@
       <c r="CP2" s="1" t="n">
         <v>195.6</v>
       </c>
+      <c r="CQ2" s="1" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1574,6 +1583,9 @@
       <c r="CP3" s="2" t="n">
         <v>119.7</v>
       </c>
+      <c r="CQ3" s="1" t="n">
+        <v>192.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1858,6 +1870,9 @@
       <c r="CP4" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="CQ4" s="1" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2142,6 +2157,9 @@
       <c r="CP5" s="1" t="n">
         <v>249</v>
       </c>
+      <c r="CQ5" s="3" t="n">
+        <v>136.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2426,6 +2444,9 @@
       <c r="CP6" s="1" t="n">
         <v>162.9</v>
       </c>
+      <c r="CQ6" s="3" t="n">
+        <v>128.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2710,6 +2731,9 @@
       <c r="CP7" s="1" t="n">
         <v>216.1</v>
       </c>
+      <c r="CQ7" s="2" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -2994,6 +3018,9 @@
       <c r="CP8" s="1" t="n">
         <v>170.2</v>
       </c>
+      <c r="CQ8" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3278,6 +3305,9 @@
       <c r="CP9" s="2" t="n">
         <v>123.8</v>
       </c>
+      <c r="CQ9" s="2" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3562,6 +3592,9 @@
       <c r="CP10" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="CQ10" s="1" t="n">
+        <v>226.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3846,6 +3879,9 @@
       <c r="CP11" s="1" t="n">
         <v>175.8</v>
       </c>
+      <c r="CQ11" s="1" t="n">
+        <v>176.1</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4130,6 +4166,9 @@
       <c r="CP12" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="CQ12" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4414,6 +4453,9 @@
       <c r="CP13" s="1" t="n">
         <v>145.9</v>
       </c>
+      <c r="CQ13" s="2" t="n">
+        <v>124.4</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4698,6 +4740,9 @@
       <c r="CP14" s="1" t="n">
         <v>203.5</v>
       </c>
+      <c r="CQ14" s="3" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -4982,6 +5027,9 @@
       <c r="CP15" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="CQ15" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5266,6 +5314,9 @@
       <c r="CP16" s="3" t="n">
         <v>137.4</v>
       </c>
+      <c r="CQ16" s="1" t="n">
+        <v>158.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5550,6 +5601,9 @@
       <c r="CP17" s="3" t="n">
         <v>128.8</v>
       </c>
+      <c r="CQ17" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5834,6 +5888,9 @@
       <c r="CP18" s="1" t="n">
         <v>164.6</v>
       </c>
+      <c r="CQ18" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6118,6 +6175,9 @@
       <c r="CP19" s="1" t="n">
         <v>249.8</v>
       </c>
+      <c r="CQ19" s="3" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6402,6 +6462,9 @@
       <c r="CP20" s="3" t="n">
         <v>130.6</v>
       </c>
+      <c r="CQ20" s="1" t="n">
+        <v>150.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6686,6 +6749,9 @@
       <c r="CP21" s="2" t="n">
         <v>116.8</v>
       </c>
+      <c r="CQ21" s="3" t="n">
+        <v>136.9</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -6970,6 +7036,9 @@
       <c r="CP22" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="CQ22" s="1" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7254,6 +7323,9 @@
       <c r="CP23" s="2" t="n">
         <v>109.9</v>
       </c>
+      <c r="CQ23" s="1" t="n">
+        <v>148.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7538,6 +7610,9 @@
       <c r="CP24" s="1" t="n">
         <v>206.1</v>
       </c>
+      <c r="CQ24" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7822,6 +7897,9 @@
       <c r="CP25" s="3" t="n">
         <v>130.8</v>
       </c>
+      <c r="CQ25" s="2" t="n">
+        <v>111.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8106,6 +8184,9 @@
       <c r="CP26" s="3" t="n">
         <v>126.9</v>
       </c>
+      <c r="CQ26" s="1" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8390,6 +8471,9 @@
       <c r="CP27" s="1" t="n">
         <v>191.9</v>
       </c>
+      <c r="CQ27" s="1" t="n">
+        <v>160.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8674,6 +8758,9 @@
       <c r="CP28" s="3" t="n">
         <v>132.6</v>
       </c>
+      <c r="CQ28" s="1" t="n">
+        <v>178.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -8958,6 +9045,9 @@
       <c r="CP29" s="2" t="n">
         <v>124</v>
       </c>
+      <c r="CQ29" s="1" t="n">
+        <v>162.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9242,6 +9332,9 @@
       <c r="CP30" s="1" t="n">
         <v>159.8</v>
       </c>
+      <c r="CQ30" s="3" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -9526,6 +9619,9 @@
       <c r="CP31" s="1" t="n">
         <v>157.5</v>
       </c>
+      <c r="CQ31" s="1" t="n">
+        <v>183.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -9810,6 +9906,9 @@
       <c r="CP32" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="CQ32" s="1" t="n">
+        <v>200.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -10094,6 +10193,9 @@
       <c r="CP33" s="3" t="n">
         <v>129.9</v>
       </c>
+      <c r="CQ33" s="3" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -10378,6 +10480,9 @@
       <c r="CP34" s="1" t="n">
         <v>422.3</v>
       </c>
+      <c r="CQ34" s="1" t="n">
+        <v>219.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -10662,6 +10767,9 @@
       <c r="CP35" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="CQ35" s="3" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -10946,6 +11054,9 @@
       <c r="CP36" s="3" t="n">
         <v>127.8</v>
       </c>
+      <c r="CQ36" s="1" t="n">
+        <v>173.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -11230,6 +11341,9 @@
       <c r="CP37" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="CQ37" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -11514,6 +11628,9 @@
       <c r="CP38" s="1" t="n">
         <v>174.1</v>
       </c>
+      <c r="CQ38" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -11798,6 +11915,9 @@
       <c r="CP39" s="3" t="n">
         <v>125.7</v>
       </c>
+      <c r="CQ39" s="1" t="n">
+        <v>214.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -12082,6 +12202,9 @@
       <c r="CP40" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="CQ40" s="1" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -12366,6 +12489,9 @@
       <c r="CP41" s="3" t="n">
         <v>129.8</v>
       </c>
+      <c r="CQ41" s="3" t="n">
+        <v>130.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -12650,6 +12776,9 @@
       <c r="CP42" s="2" t="n">
         <v>122.1</v>
       </c>
+      <c r="CQ42" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -12934,6 +13063,9 @@
       <c r="CP43" s="1" t="n">
         <v>171.8</v>
       </c>
+      <c r="CQ43" s="1" t="n">
+        <v>141.4</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -13218,6 +13350,9 @@
       <c r="CP44" s="1" t="n">
         <v>175.9</v>
       </c>
+      <c r="CQ44" s="1" t="n">
+        <v>147.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -13502,6 +13637,9 @@
       <c r="CP45" s="1" t="n">
         <v>162.5</v>
       </c>
+      <c r="CQ45" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -13786,6 +13924,9 @@
       <c r="CP46" s="1" t="n">
         <v>302.8</v>
       </c>
+      <c r="CQ46" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -14070,6 +14211,9 @@
       <c r="CP47" s="3" t="n">
         <v>136.6</v>
       </c>
+      <c r="CQ47" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -14354,6 +14498,9 @@
       <c r="CP48" s="1" t="n">
         <v>168.4</v>
       </c>
+      <c r="CQ48" s="1" t="n">
+        <v>162.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -14638,6 +14785,9 @@
       <c r="CP49" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="CQ49" s="1" t="n">
+        <v>248.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -14922,6 +15072,9 @@
       <c r="CP50" s="3" t="n">
         <v>129.3</v>
       </c>
+      <c r="CQ50" s="1" t="n">
+        <v>183.4</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -15206,6 +15359,9 @@
       <c r="CP51" s="1" t="n">
         <v>213.5</v>
       </c>
+      <c r="CQ51" s="1" t="n">
+        <v>221.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -15490,6 +15646,9 @@
       <c r="CP52" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="CQ52" s="3" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -15773,6 +15932,9 @@
       </c>
       <c r="CP53" s="3" t="n">
         <v>127.5</v>
+      </c>
+      <c r="CQ53" s="1" t="n">
+        <v>142.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ53"/>
+  <dimension ref="A1:CR53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,7 @@
     <col width="12" customWidth="1" min="93" max="93"/>
     <col width="12" customWidth="1" min="94" max="94"/>
     <col width="12" customWidth="1" min="95" max="95"/>
+    <col width="12" customWidth="1" min="96" max="96"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1012,6 +1013,11 @@
           <t>2024/12/12</t>
         </is>
       </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/13</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1299,6 +1305,9 @@
       <c r="CQ2" s="1" t="n">
         <v>186.3</v>
       </c>
+      <c r="CR2" s="3" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1586,6 +1595,9 @@
       <c r="CQ3" s="1" t="n">
         <v>192.4</v>
       </c>
+      <c r="CR3" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1873,6 +1885,9 @@
       <c r="CQ4" s="1" t="n">
         <v>188.2</v>
       </c>
+      <c r="CR4" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2160,6 +2175,9 @@
       <c r="CQ5" s="3" t="n">
         <v>136.9</v>
       </c>
+      <c r="CR5" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2447,6 +2465,9 @@
       <c r="CQ6" s="3" t="n">
         <v>128.7</v>
       </c>
+      <c r="CR6" s="1" t="n">
+        <v>164.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2734,6 +2755,9 @@
       <c r="CQ7" s="2" t="n">
         <v>114</v>
       </c>
+      <c r="CR7" s="1" t="n">
+        <v>255.3</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3021,6 +3045,9 @@
       <c r="CQ8" s="3" t="n">
         <v>127.6</v>
       </c>
+      <c r="CR8" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3308,6 +3335,9 @@
       <c r="CQ9" s="2" t="n">
         <v>124</v>
       </c>
+      <c r="CR9" s="3" t="n">
+        <v>137.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3595,6 +3625,9 @@
       <c r="CQ10" s="1" t="n">
         <v>226.2</v>
       </c>
+      <c r="CR10" s="1" t="n">
+        <v>177.5</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3882,6 +3915,9 @@
       <c r="CQ11" s="1" t="n">
         <v>176.1</v>
       </c>
+      <c r="CR11" s="1" t="n">
+        <v>173.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4169,6 +4205,9 @@
       <c r="CQ12" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="CR12" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4456,6 +4495,9 @@
       <c r="CQ13" s="2" t="n">
         <v>124.4</v>
       </c>
+      <c r="CR13" s="1" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4743,6 +4785,9 @@
       <c r="CQ14" s="3" t="n">
         <v>136.7</v>
       </c>
+      <c r="CR14" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5030,6 +5075,9 @@
       <c r="CQ15" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="CR15" s="1" t="n">
+        <v>146.3</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5317,6 +5365,9 @@
       <c r="CQ16" s="1" t="n">
         <v>158.5</v>
       </c>
+      <c r="CR16" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5604,6 +5655,9 @@
       <c r="CQ17" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="CR17" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5891,6 +5945,9 @@
       <c r="CQ18" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="CR18" s="1" t="n">
+        <v>167.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6178,6 +6235,9 @@
       <c r="CQ19" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="CR19" s="1" t="n">
+        <v>162.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6465,6 +6525,9 @@
       <c r="CQ20" s="1" t="n">
         <v>150.5</v>
       </c>
+      <c r="CR20" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6752,6 +6815,9 @@
       <c r="CQ21" s="3" t="n">
         <v>136.9</v>
       </c>
+      <c r="CR21" s="1" t="n">
+        <v>259.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7039,6 +7105,9 @@
       <c r="CQ22" s="1" t="n">
         <v>168.5</v>
       </c>
+      <c r="CR22" s="1" t="n">
+        <v>171.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7326,6 +7395,9 @@
       <c r="CQ23" s="1" t="n">
         <v>148.1</v>
       </c>
+      <c r="CR23" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7613,6 +7685,9 @@
       <c r="CQ24" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="CR24" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7900,6 +7975,9 @@
       <c r="CQ25" s="2" t="n">
         <v>111.2</v>
       </c>
+      <c r="CR25" s="1" t="n">
+        <v>214.4</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8187,6 +8265,9 @@
       <c r="CQ26" s="1" t="n">
         <v>186.9</v>
       </c>
+      <c r="CR26" s="1" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8474,6 +8555,9 @@
       <c r="CQ27" s="1" t="n">
         <v>160.3</v>
       </c>
+      <c r="CR27" s="1" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8761,6 +8845,9 @@
       <c r="CQ28" s="1" t="n">
         <v>178.9</v>
       </c>
+      <c r="CR28" s="1" t="n">
+        <v>464.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9048,6 +9135,9 @@
       <c r="CQ29" s="1" t="n">
         <v>162.3</v>
       </c>
+      <c r="CR29" s="1" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9335,6 +9425,9 @@
       <c r="CQ30" s="3" t="n">
         <v>132.4</v>
       </c>
+      <c r="CR30" s="3" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -9622,6 +9715,9 @@
       <c r="CQ31" s="1" t="n">
         <v>183.6</v>
       </c>
+      <c r="CR31" s="1" t="n">
+        <v>195.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -9909,6 +10005,9 @@
       <c r="CQ32" s="1" t="n">
         <v>200.5</v>
       </c>
+      <c r="CR32" s="1" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -10196,6 +10295,9 @@
       <c r="CQ33" s="3" t="n">
         <v>128.8</v>
       </c>
+      <c r="CR33" s="1" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -10483,6 +10585,9 @@
       <c r="CQ34" s="1" t="n">
         <v>219.8</v>
       </c>
+      <c r="CR34" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -10770,6 +10875,9 @@
       <c r="CQ35" s="3" t="n">
         <v>132</v>
       </c>
+      <c r="CR35" s="1" t="n">
+        <v>164.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -11057,6 +11165,9 @@
       <c r="CQ36" s="1" t="n">
         <v>173.8</v>
       </c>
+      <c r="CR36" s="1" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -11344,6 +11455,9 @@
       <c r="CQ37" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="CR37" s="1" t="n">
+        <v>194.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -11631,6 +11745,9 @@
       <c r="CQ38" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="CR38" s="3" t="n">
+        <v>131.4</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -11918,6 +12035,9 @@
       <c r="CQ39" s="1" t="n">
         <v>214.4</v>
       </c>
+      <c r="CR39" s="1" t="n">
+        <v>254.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -12205,6 +12325,9 @@
       <c r="CQ40" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="CR40" s="1" t="n">
+        <v>159.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -12492,6 +12615,9 @@
       <c r="CQ41" s="3" t="n">
         <v>130.1</v>
       </c>
+      <c r="CR41" s="1" t="n">
+        <v>244.9</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -12779,6 +12905,9 @@
       <c r="CQ42" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="CR42" s="1" t="n">
+        <v>151.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -13066,6 +13195,9 @@
       <c r="CQ43" s="1" t="n">
         <v>141.4</v>
       </c>
+      <c r="CR43" s="1" t="n">
+        <v>175.4</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -13353,6 +13485,9 @@
       <c r="CQ44" s="1" t="n">
         <v>147.1</v>
       </c>
+      <c r="CR44" s="1" t="n">
+        <v>142.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -13640,6 +13775,9 @@
       <c r="CQ45" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="CR45" s="1" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -13927,6 +14065,9 @@
       <c r="CQ46" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="CR46" s="1" t="n">
+        <v>261.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -14214,6 +14355,9 @@
       <c r="CQ47" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="CR47" s="2" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -14501,6 +14645,9 @@
       <c r="CQ48" s="1" t="n">
         <v>162.3</v>
       </c>
+      <c r="CR48" s="1" t="n">
+        <v>236.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -14788,6 +14935,9 @@
       <c r="CQ49" s="1" t="n">
         <v>248.2</v>
       </c>
+      <c r="CR49" s="1" t="n">
+        <v>202.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -15075,6 +15225,9 @@
       <c r="CQ50" s="1" t="n">
         <v>183.4</v>
       </c>
+      <c r="CR50" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -15362,6 +15515,9 @@
       <c r="CQ51" s="1" t="n">
         <v>221.4</v>
       </c>
+      <c r="CR51" s="2" t="n">
+        <v>123.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -15649,6 +15805,9 @@
       <c r="CQ52" s="3" t="n">
         <v>134.9</v>
       </c>
+      <c r="CR52" s="1" t="n">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -15935,6 +16094,9 @@
       </c>
       <c r="CQ53" s="1" t="n">
         <v>142.8</v>
+      </c>
+      <c r="CR53" s="1" t="n">
+        <v>140.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CR53"/>
+  <dimension ref="A1:CS53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,7 @@
     <col width="12" customWidth="1" min="94" max="94"/>
     <col width="12" customWidth="1" min="95" max="95"/>
     <col width="12" customWidth="1" min="96" max="96"/>
+    <col width="12" customWidth="1" min="97" max="97"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1018,6 +1019,11 @@
           <t>2024/12/13</t>
         </is>
       </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/14</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1308,6 +1314,9 @@
       <c r="CR2" s="3" t="n">
         <v>134.9</v>
       </c>
+      <c r="CS2" s="3" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1598,6 +1607,9 @@
       <c r="CR3" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="CS3" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1888,6 +1900,9 @@
       <c r="CR4" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="CS4" s="1" t="n">
+        <v>173.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2178,6 +2193,9 @@
       <c r="CR5" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="CS5" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2468,6 +2486,9 @@
       <c r="CR6" s="1" t="n">
         <v>164.1</v>
       </c>
+      <c r="CS6" s="3" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2758,6 +2779,9 @@
       <c r="CR7" s="1" t="n">
         <v>255.3</v>
       </c>
+      <c r="CS7" s="1" t="n">
+        <v>204.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3048,6 +3072,9 @@
       <c r="CR8" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="CS8" s="1" t="n">
+        <v>157.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3338,6 +3365,9 @@
       <c r="CR9" s="3" t="n">
         <v>137.2</v>
       </c>
+      <c r="CS9" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3628,6 +3658,9 @@
       <c r="CR10" s="1" t="n">
         <v>177.5</v>
       </c>
+      <c r="CS10" s="1" t="n">
+        <v>165.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3918,6 +3951,9 @@
       <c r="CR11" s="1" t="n">
         <v>173.8</v>
       </c>
+      <c r="CS11" s="1" t="n">
+        <v>184.1</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4208,6 +4244,9 @@
       <c r="CR12" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="CS12" s="1" t="n">
+        <v>164.9</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4498,6 +4537,9 @@
       <c r="CR13" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="CS13" s="1" t="n">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4788,6 +4830,9 @@
       <c r="CR14" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="CS14" s="2" t="n">
+        <v>116.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5078,6 +5123,9 @@
       <c r="CR15" s="1" t="n">
         <v>146.3</v>
       </c>
+      <c r="CS15" s="3" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5368,6 +5416,9 @@
       <c r="CR16" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="CS16" s="1" t="n">
+        <v>158.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5658,6 +5709,9 @@
       <c r="CR17" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="CS17" s="2" t="n">
+        <v>116.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -5948,6 +6002,9 @@
       <c r="CR18" s="1" t="n">
         <v>167.3</v>
       </c>
+      <c r="CS18" s="2" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6238,6 +6295,9 @@
       <c r="CR19" s="1" t="n">
         <v>162.5</v>
       </c>
+      <c r="CS19" s="1" t="n">
+        <v>220.1</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6528,6 +6588,9 @@
       <c r="CR20" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="CS20" s="1" t="n">
+        <v>153.2</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6818,6 +6881,9 @@
       <c r="CR21" s="1" t="n">
         <v>259.2</v>
       </c>
+      <c r="CS21" s="3" t="n">
+        <v>139.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7108,6 +7174,9 @@
       <c r="CR22" s="1" t="n">
         <v>171.5</v>
       </c>
+      <c r="CS22" s="1" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7398,6 +7467,9 @@
       <c r="CR23" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="CS23" s="1" t="n">
+        <v>277.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7688,6 +7760,9 @@
       <c r="CR24" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="CS24" s="2" t="n">
+        <v>115.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -7978,6 +8053,9 @@
       <c r="CR25" s="1" t="n">
         <v>214.4</v>
       </c>
+      <c r="CS25" s="1" t="n">
+        <v>145.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8268,6 +8346,9 @@
       <c r="CR26" s="1" t="n">
         <v>152.2</v>
       </c>
+      <c r="CS26" s="3" t="n">
+        <v>134.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8558,6 +8639,9 @@
       <c r="CR27" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="CS27" s="1" t="n">
+        <v>202.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8848,6 +8932,9 @@
       <c r="CR28" s="1" t="n">
         <v>464.3</v>
       </c>
+      <c r="CS28" s="1" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9138,6 +9225,9 @@
       <c r="CR29" s="1" t="n">
         <v>162</v>
       </c>
+      <c r="CS29" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9428,6 +9518,9 @@
       <c r="CR30" s="3" t="n">
         <v>132</v>
       </c>
+      <c r="CS30" s="1" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -9718,6 +9811,9 @@
       <c r="CR31" s="1" t="n">
         <v>195.3</v>
       </c>
+      <c r="CS31" s="1" t="n">
+        <v>181.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10008,6 +10104,9 @@
       <c r="CR32" s="1" t="n">
         <v>140.3</v>
       </c>
+      <c r="CS32" s="1" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -10298,6 +10397,9 @@
       <c r="CR33" s="1" t="n">
         <v>201</v>
       </c>
+      <c r="CS33" s="3" t="n">
+        <v>138.7</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -10588,6 +10690,9 @@
       <c r="CR34" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="CS34" s="1" t="n">
+        <v>221.6</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -10878,6 +10983,9 @@
       <c r="CR35" s="1" t="n">
         <v>164.1</v>
       </c>
+      <c r="CS35" s="1" t="n">
+        <v>261.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -11168,6 +11276,9 @@
       <c r="CR36" s="1" t="n">
         <v>141.9</v>
       </c>
+      <c r="CS36" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -11458,6 +11569,9 @@
       <c r="CR37" s="1" t="n">
         <v>194.1</v>
       </c>
+      <c r="CS37" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -11748,6 +11862,9 @@
       <c r="CR38" s="3" t="n">
         <v>131.4</v>
       </c>
+      <c r="CS38" s="1" t="n">
+        <v>179.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -12038,6 +12155,9 @@
       <c r="CR39" s="1" t="n">
         <v>254.6</v>
       </c>
+      <c r="CS39" s="1" t="n">
+        <v>161.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -12328,6 +12448,9 @@
       <c r="CR40" s="1" t="n">
         <v>159.4</v>
       </c>
+      <c r="CS40" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -12618,6 +12741,9 @@
       <c r="CR41" s="1" t="n">
         <v>244.9</v>
       </c>
+      <c r="CS41" s="1" t="n">
+        <v>149.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -12908,6 +13034,9 @@
       <c r="CR42" s="1" t="n">
         <v>151.9</v>
       </c>
+      <c r="CS42" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -13198,6 +13327,9 @@
       <c r="CR43" s="1" t="n">
         <v>175.4</v>
       </c>
+      <c r="CS43" s="1" t="n">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -13488,6 +13620,9 @@
       <c r="CR44" s="1" t="n">
         <v>142.4</v>
       </c>
+      <c r="CS44" s="3" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -13778,6 +13913,9 @@
       <c r="CR45" s="1" t="n">
         <v>187.5</v>
       </c>
+      <c r="CS45" s="1" t="n">
+        <v>211.4</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -14068,6 +14206,9 @@
       <c r="CR46" s="1" t="n">
         <v>261.6</v>
       </c>
+      <c r="CS46" s="1" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -14358,6 +14499,9 @@
       <c r="CR47" s="2" t="n">
         <v>123.4</v>
       </c>
+      <c r="CS47" s="1" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -14648,6 +14792,9 @@
       <c r="CR48" s="1" t="n">
         <v>236.4</v>
       </c>
+      <c r="CS48" s="3" t="n">
+        <v>137.6</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -14938,6 +15085,9 @@
       <c r="CR49" s="1" t="n">
         <v>202.2</v>
       </c>
+      <c r="CS49" s="2" t="n">
+        <v>110.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -15228,6 +15378,9 @@
       <c r="CR50" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="CS50" s="1" t="n">
+        <v>234.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -15518,6 +15671,9 @@
       <c r="CR51" s="2" t="n">
         <v>123.5</v>
       </c>
+      <c r="CS51" s="1" t="n">
+        <v>181.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -15808,6 +15964,9 @@
       <c r="CR52" s="1" t="n">
         <v>179.5</v>
       </c>
+      <c r="CS52" s="1" t="n">
+        <v>167.3</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -16097,6 +16256,9 @@
       </c>
       <c r="CR53" s="1" t="n">
         <v>140.4</v>
+      </c>
+      <c r="CS53" s="1" t="n">
+        <v>186.3</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CS53"/>
+  <dimension ref="A1:CT53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,6 +536,7 @@
     <col width="12" customWidth="1" min="95" max="95"/>
     <col width="12" customWidth="1" min="96" max="96"/>
     <col width="12" customWidth="1" min="97" max="97"/>
+    <col width="12" customWidth="1" min="98" max="98"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1024,6 +1025,11 @@
           <t>2024/12/14</t>
         </is>
       </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/15</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1317,6 +1323,9 @@
       <c r="CS2" s="3" t="n">
         <v>125</v>
       </c>
+      <c r="CT2" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1610,6 +1619,9 @@
       <c r="CS3" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="CT3" s="1" t="n">
+        <v>147.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1903,6 +1915,9 @@
       <c r="CS4" s="1" t="n">
         <v>173.5</v>
       </c>
+      <c r="CT4" s="1" t="n">
+        <v>145.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2196,6 +2211,9 @@
       <c r="CS5" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="CT5" s="1" t="n">
+        <v>140.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2489,6 +2507,9 @@
       <c r="CS6" s="3" t="n">
         <v>135.9</v>
       </c>
+      <c r="CT6" s="1" t="n">
+        <v>163.6</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2782,6 +2803,9 @@
       <c r="CS7" s="1" t="n">
         <v>204.2</v>
       </c>
+      <c r="CT7" s="2" t="n">
+        <v>118.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3075,6 +3099,9 @@
       <c r="CS8" s="1" t="n">
         <v>157.1</v>
       </c>
+      <c r="CT8" s="1" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3368,6 +3395,9 @@
       <c r="CS9" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="CT9" s="1" t="n">
+        <v>161.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3661,6 +3691,9 @@
       <c r="CS10" s="1" t="n">
         <v>165.6</v>
       </c>
+      <c r="CT10" s="1" t="n">
+        <v>177.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3954,6 +3987,9 @@
       <c r="CS11" s="1" t="n">
         <v>184.1</v>
       </c>
+      <c r="CT11" s="3" t="n">
+        <v>125.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4247,6 +4283,9 @@
       <c r="CS12" s="1" t="n">
         <v>164.9</v>
       </c>
+      <c r="CT12" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4540,6 +4579,9 @@
       <c r="CS13" s="1" t="n">
         <v>147.5</v>
       </c>
+      <c r="CT13" s="1" t="n">
+        <v>154.8</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4833,6 +4875,9 @@
       <c r="CS14" s="2" t="n">
         <v>116.5</v>
       </c>
+      <c r="CT14" s="2" t="n">
+        <v>117.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5126,6 +5171,9 @@
       <c r="CS15" s="3" t="n">
         <v>133.3</v>
       </c>
+      <c r="CT15" s="2" t="n">
+        <v>124.9</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5419,6 +5467,9 @@
       <c r="CS16" s="1" t="n">
         <v>158.5</v>
       </c>
+      <c r="CT16" s="1" t="n">
+        <v>190.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5712,6 +5763,9 @@
       <c r="CS17" s="2" t="n">
         <v>116.4</v>
       </c>
+      <c r="CT17" s="1" t="n">
+        <v>165.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6005,6 +6059,9 @@
       <c r="CS18" s="2" t="n">
         <v>124.5</v>
       </c>
+      <c r="CT18" s="2" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6298,6 +6355,9 @@
       <c r="CS19" s="1" t="n">
         <v>220.1</v>
       </c>
+      <c r="CT19" s="1" t="n">
+        <v>167.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6591,6 +6651,9 @@
       <c r="CS20" s="1" t="n">
         <v>153.2</v>
       </c>
+      <c r="CT20" s="1" t="n">
+        <v>185.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6884,6 +6947,9 @@
       <c r="CS21" s="3" t="n">
         <v>139.4</v>
       </c>
+      <c r="CT21" s="1" t="n">
+        <v>165.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7177,6 +7243,9 @@
       <c r="CS22" s="1" t="n">
         <v>177</v>
       </c>
+      <c r="CT22" s="1" t="n">
+        <v>157.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7470,6 +7539,9 @@
       <c r="CS23" s="1" t="n">
         <v>277.6</v>
       </c>
+      <c r="CT23" s="3" t="n">
+        <v>126.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7763,6 +7835,9 @@
       <c r="CS24" s="2" t="n">
         <v>115.2</v>
       </c>
+      <c r="CT24" s="1" t="n">
+        <v>191.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8056,6 +8131,9 @@
       <c r="CS25" s="1" t="n">
         <v>145.2</v>
       </c>
+      <c r="CT25" s="2" t="n">
+        <v>92.09999999999999</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8349,6 +8427,9 @@
       <c r="CS26" s="3" t="n">
         <v>134.1</v>
       </c>
+      <c r="CT26" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8642,6 +8723,9 @@
       <c r="CS27" s="1" t="n">
         <v>202.6</v>
       </c>
+      <c r="CT27" s="2" t="n">
+        <v>106.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -8935,6 +9019,9 @@
       <c r="CS28" s="1" t="n">
         <v>159</v>
       </c>
+      <c r="CT28" s="1" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9228,6 +9315,9 @@
       <c r="CS29" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="CT29" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9521,6 +9611,9 @@
       <c r="CS30" s="1" t="n">
         <v>150.1</v>
       </c>
+      <c r="CT30" s="3" t="n">
+        <v>134.2</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -9814,6 +9907,9 @@
       <c r="CS31" s="1" t="n">
         <v>181.3</v>
       </c>
+      <c r="CT31" s="1" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10107,6 +10203,9 @@
       <c r="CS32" s="1" t="n">
         <v>194</v>
       </c>
+      <c r="CT32" s="1" t="n">
+        <v>148.6</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -10400,6 +10499,9 @@
       <c r="CS33" s="3" t="n">
         <v>138.7</v>
       </c>
+      <c r="CT33" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -10693,6 +10795,9 @@
       <c r="CS34" s="1" t="n">
         <v>221.6</v>
       </c>
+      <c r="CT34" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -10986,6 +11091,9 @@
       <c r="CS35" s="1" t="n">
         <v>261.4</v>
       </c>
+      <c r="CT35" s="3" t="n">
+        <v>136.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -11279,6 +11387,9 @@
       <c r="CS36" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="CT36" s="1" t="n">
+        <v>161.3</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -11572,6 +11683,9 @@
       <c r="CS37" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="CT37" s="1" t="n">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -11865,6 +11979,9 @@
       <c r="CS38" s="1" t="n">
         <v>179.6</v>
       </c>
+      <c r="CT38" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -12158,6 +12275,9 @@
       <c r="CS39" s="1" t="n">
         <v>161.2</v>
       </c>
+      <c r="CT39" s="1" t="n">
+        <v>172.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -12451,6 +12571,9 @@
       <c r="CS40" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="CT40" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -12744,6 +12867,9 @@
       <c r="CS41" s="1" t="n">
         <v>149.4</v>
       </c>
+      <c r="CT41" s="3" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -13037,6 +13163,9 @@
       <c r="CS42" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="CT42" s="1" t="n">
+        <v>174.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -13330,6 +13459,9 @@
       <c r="CS43" s="1" t="n">
         <v>152.4</v>
       </c>
+      <c r="CT43" s="1" t="n">
+        <v>174.6</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -13623,6 +13755,9 @@
       <c r="CS44" s="3" t="n">
         <v>133.4</v>
       </c>
+      <c r="CT44" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -13916,6 +14051,9 @@
       <c r="CS45" s="1" t="n">
         <v>211.4</v>
       </c>
+      <c r="CT45" s="1" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -14209,6 +14347,9 @@
       <c r="CS46" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="CT46" s="1" t="n">
+        <v>156.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -14502,6 +14643,9 @@
       <c r="CS47" s="1" t="n">
         <v>188.7</v>
       </c>
+      <c r="CT47" s="1" t="n">
+        <v>175.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -14795,6 +14939,9 @@
       <c r="CS48" s="3" t="n">
         <v>137.6</v>
       </c>
+      <c r="CT48" s="3" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -15088,6 +15235,9 @@
       <c r="CS49" s="2" t="n">
         <v>110.8</v>
       </c>
+      <c r="CT49" s="1" t="n">
+        <v>168.9</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -15381,6 +15531,9 @@
       <c r="CS50" s="1" t="n">
         <v>234.7</v>
       </c>
+      <c r="CT50" s="1" t="n">
+        <v>156.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -15674,6 +15827,9 @@
       <c r="CS51" s="1" t="n">
         <v>181.5</v>
       </c>
+      <c r="CT51" s="1" t="n">
+        <v>146.9</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -15967,6 +16123,9 @@
       <c r="CS52" s="1" t="n">
         <v>167.3</v>
       </c>
+      <c r="CT52" s="2" t="n">
+        <v>118.6</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -16259,6 +16418,9 @@
       </c>
       <c r="CS53" s="1" t="n">
         <v>186.3</v>
+      </c>
+      <c r="CT53" s="2" t="n">
+        <v>124.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CT53"/>
+  <dimension ref="A1:CU53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +537,7 @@
     <col width="12" customWidth="1" min="96" max="96"/>
     <col width="12" customWidth="1" min="97" max="97"/>
     <col width="12" customWidth="1" min="98" max="98"/>
+    <col width="12" customWidth="1" min="99" max="99"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1030,6 +1031,11 @@
           <t>2024/12/15</t>
         </is>
       </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/16</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1326,6 +1332,9 @@
       <c r="CT2" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="CU2" s="3" t="n">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1622,6 +1631,9 @@
       <c r="CT3" s="1" t="n">
         <v>147.1</v>
       </c>
+      <c r="CU3" s="1" t="n">
+        <v>192.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1918,6 +1930,9 @@
       <c r="CT4" s="1" t="n">
         <v>145.8</v>
       </c>
+      <c r="CU4" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2214,6 +2229,9 @@
       <c r="CT5" s="1" t="n">
         <v>140.4</v>
       </c>
+      <c r="CU5" s="1" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2510,6 +2528,9 @@
       <c r="CT6" s="1" t="n">
         <v>163.6</v>
       </c>
+      <c r="CU6" s="1" t="n">
+        <v>173.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2806,6 +2827,9 @@
       <c r="CT7" s="2" t="n">
         <v>118.9</v>
       </c>
+      <c r="CU7" s="1" t="n">
+        <v>144.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3102,6 +3126,9 @@
       <c r="CT8" s="1" t="n">
         <v>161</v>
       </c>
+      <c r="CU8" s="3" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3398,6 +3425,9 @@
       <c r="CT9" s="1" t="n">
         <v>161.2</v>
       </c>
+      <c r="CU9" s="1" t="n">
+        <v>183.5</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3694,6 +3724,9 @@
       <c r="CT10" s="1" t="n">
         <v>177.6</v>
       </c>
+      <c r="CU10" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -3990,6 +4023,9 @@
       <c r="CT11" s="3" t="n">
         <v>125.8</v>
       </c>
+      <c r="CU11" s="1" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4286,6 +4322,9 @@
       <c r="CT12" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="CU12" s="3" t="n">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4582,6 +4621,9 @@
       <c r="CT13" s="1" t="n">
         <v>154.8</v>
       </c>
+      <c r="CU13" s="3" t="n">
+        <v>136.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4878,6 +4920,9 @@
       <c r="CT14" s="2" t="n">
         <v>117.4</v>
       </c>
+      <c r="CU14" s="1" t="n">
+        <v>465.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5174,6 +5219,9 @@
       <c r="CT15" s="2" t="n">
         <v>124.9</v>
       </c>
+      <c r="CU15" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5470,6 +5518,9 @@
       <c r="CT16" s="1" t="n">
         <v>190.7</v>
       </c>
+      <c r="CU16" s="2" t="n">
+        <v>117.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5766,6 +5817,9 @@
       <c r="CT17" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="CU17" s="1" t="n">
+        <v>173.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6062,6 +6116,9 @@
       <c r="CT18" s="2" t="n">
         <v>124</v>
       </c>
+      <c r="CU18" s="1" t="n">
+        <v>170.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6358,6 +6415,9 @@
       <c r="CT19" s="1" t="n">
         <v>167.4</v>
       </c>
+      <c r="CU19" s="1" t="n">
+        <v>170.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6654,6 +6714,9 @@
       <c r="CT20" s="1" t="n">
         <v>185.9</v>
       </c>
+      <c r="CU20" s="1" t="n">
+        <v>148.1</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -6950,6 +7013,9 @@
       <c r="CT21" s="1" t="n">
         <v>165.8</v>
       </c>
+      <c r="CU21" s="3" t="n">
+        <v>138.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7246,6 +7312,9 @@
       <c r="CT22" s="1" t="n">
         <v>157.7</v>
       </c>
+      <c r="CU22" s="1" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7542,6 +7611,9 @@
       <c r="CT23" s="3" t="n">
         <v>126.9</v>
       </c>
+      <c r="CU23" s="1" t="n">
+        <v>393.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7838,6 +7910,9 @@
       <c r="CT24" s="1" t="n">
         <v>191.5</v>
       </c>
+      <c r="CU24" s="1" t="n">
+        <v>168.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8134,6 +8209,9 @@
       <c r="CT25" s="2" t="n">
         <v>92.09999999999999</v>
       </c>
+      <c r="CU25" s="3" t="n">
+        <v>133.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8430,6 +8508,9 @@
       <c r="CT26" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="CU26" s="1" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8726,6 +8807,9 @@
       <c r="CT27" s="2" t="n">
         <v>106.9</v>
       </c>
+      <c r="CU27" s="1" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9022,6 +9106,9 @@
       <c r="CT28" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="CU28" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9318,6 +9405,9 @@
       <c r="CT29" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="CU29" s="1" t="n">
+        <v>173.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9614,6 +9704,9 @@
       <c r="CT30" s="3" t="n">
         <v>134.2</v>
       </c>
+      <c r="CU30" s="1" t="n">
+        <v>177.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -9910,6 +10003,9 @@
       <c r="CT31" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="CU31" s="1" t="n">
+        <v>163.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10206,6 +10302,9 @@
       <c r="CT32" s="1" t="n">
         <v>148.6</v>
       </c>
+      <c r="CU32" s="1" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -10502,6 +10601,9 @@
       <c r="CT33" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="CU33" s="1" t="n">
+        <v>161.7</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -10798,6 +10900,9 @@
       <c r="CT34" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="CU34" s="3" t="n">
+        <v>136.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -11094,6 +11199,9 @@
       <c r="CT35" s="3" t="n">
         <v>136.2</v>
       </c>
+      <c r="CU35" s="1" t="n">
+        <v>164.7</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -11390,6 +11498,9 @@
       <c r="CT36" s="1" t="n">
         <v>161.3</v>
       </c>
+      <c r="CU36" s="2" t="n">
+        <v>114.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -11686,6 +11797,9 @@
       <c r="CT37" s="1" t="n">
         <v>166.3</v>
       </c>
+      <c r="CU37" s="1" t="n">
+        <v>206.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -11982,6 +12096,9 @@
       <c r="CT38" s="3" t="n">
         <v>127.6</v>
       </c>
+      <c r="CU38" s="3" t="n">
+        <v>132.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -12278,6 +12395,9 @@
       <c r="CT39" s="1" t="n">
         <v>172.4</v>
       </c>
+      <c r="CU39" s="1" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -12574,6 +12694,9 @@
       <c r="CT40" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="CU40" s="1" t="n">
+        <v>180.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -12870,6 +12993,9 @@
       <c r="CT41" s="3" t="n">
         <v>135.7</v>
       </c>
+      <c r="CU41" s="1" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -13166,6 +13292,9 @@
       <c r="CT42" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="CU42" s="3" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -13462,6 +13591,9 @@
       <c r="CT43" s="1" t="n">
         <v>174.6</v>
       </c>
+      <c r="CU43" s="1" t="n">
+        <v>165.5</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -13758,6 +13890,9 @@
       <c r="CT44" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="CU44" s="1" t="n">
+        <v>206.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -14054,6 +14189,9 @@
       <c r="CT45" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="CU45" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -14350,6 +14488,9 @@
       <c r="CT46" s="1" t="n">
         <v>156.3</v>
       </c>
+      <c r="CU46" s="1" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -14646,6 +14787,9 @@
       <c r="CT47" s="1" t="n">
         <v>175.2</v>
       </c>
+      <c r="CU47" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -14942,6 +15086,9 @@
       <c r="CT48" s="3" t="n">
         <v>128.4</v>
       </c>
+      <c r="CU48" s="3" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -15238,6 +15385,9 @@
       <c r="CT49" s="1" t="n">
         <v>168.9</v>
       </c>
+      <c r="CU49" s="1" t="n">
+        <v>163.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -15534,6 +15684,9 @@
       <c r="CT50" s="1" t="n">
         <v>156.3</v>
       </c>
+      <c r="CU50" s="1" t="n">
+        <v>417</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -15830,6 +15983,9 @@
       <c r="CT51" s="1" t="n">
         <v>146.9</v>
       </c>
+      <c r="CU51" s="1" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -16126,6 +16282,9 @@
       <c r="CT52" s="2" t="n">
         <v>118.6</v>
       </c>
+      <c r="CU52" s="1" t="n">
+        <v>238.1</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -16421,6 +16580,9 @@
       </c>
       <c r="CT53" s="2" t="n">
         <v>124.9</v>
+      </c>
+      <c r="CU53" s="1" t="n">
+        <v>146.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CU53"/>
+  <dimension ref="A1:CV53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +538,7 @@
     <col width="12" customWidth="1" min="97" max="97"/>
     <col width="12" customWidth="1" min="98" max="98"/>
     <col width="12" customWidth="1" min="99" max="99"/>
+    <col width="12" customWidth="1" min="100" max="100"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1036,6 +1037,11 @@
           <t>2024/12/16</t>
         </is>
       </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/17</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1335,6 +1341,9 @@
       <c r="CU2" s="3" t="n">
         <v>130.8</v>
       </c>
+      <c r="CV2" s="2" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1634,6 +1643,9 @@
       <c r="CU3" s="1" t="n">
         <v>192.3</v>
       </c>
+      <c r="CV3" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1933,6 +1945,9 @@
       <c r="CU4" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="CV4" s="1" t="n">
+        <v>145.7</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2232,6 +2247,9 @@
       <c r="CU5" s="1" t="n">
         <v>211</v>
       </c>
+      <c r="CV5" s="3" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2531,6 +2549,9 @@
       <c r="CU6" s="1" t="n">
         <v>173.1</v>
       </c>
+      <c r="CV6" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2830,6 +2851,9 @@
       <c r="CU7" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="CV7" s="1" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3129,6 +3153,9 @@
       <c r="CU8" s="3" t="n">
         <v>127.8</v>
       </c>
+      <c r="CV8" s="1" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3428,6 +3455,9 @@
       <c r="CU9" s="1" t="n">
         <v>183.5</v>
       </c>
+      <c r="CV9" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3727,6 +3757,9 @@
       <c r="CU10" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="CV10" s="2" t="n">
+        <v>108.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4026,6 +4059,9 @@
       <c r="CU11" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="CV11" s="1" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4325,6 +4361,9 @@
       <c r="CU12" s="3" t="n">
         <v>129.4</v>
       </c>
+      <c r="CV12" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4624,6 +4663,9 @@
       <c r="CU13" s="3" t="n">
         <v>136.2</v>
       </c>
+      <c r="CV13" s="2" t="n">
+        <v>122.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4923,6 +4965,9 @@
       <c r="CU14" s="1" t="n">
         <v>465.5</v>
       </c>
+      <c r="CV14" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5222,6 +5267,9 @@
       <c r="CU15" s="1" t="n">
         <v>146.7</v>
       </c>
+      <c r="CV15" s="1" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5521,6 +5569,9 @@
       <c r="CU16" s="2" t="n">
         <v>117.7</v>
       </c>
+      <c r="CV16" s="1" t="n">
+        <v>195.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5820,6 +5871,9 @@
       <c r="CU17" s="1" t="n">
         <v>173.3</v>
       </c>
+      <c r="CV17" s="1" t="n">
+        <v>161.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6119,6 +6173,9 @@
       <c r="CU18" s="1" t="n">
         <v>170.8</v>
       </c>
+      <c r="CV18" s="1" t="n">
+        <v>164.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6418,6 +6475,9 @@
       <c r="CU19" s="1" t="n">
         <v>170.8</v>
       </c>
+      <c r="CV19" s="1" t="n">
+        <v>159.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6717,6 +6777,9 @@
       <c r="CU20" s="1" t="n">
         <v>148.1</v>
       </c>
+      <c r="CV20" s="3" t="n">
+        <v>137.2</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7016,6 +7079,9 @@
       <c r="CU21" s="3" t="n">
         <v>138.7</v>
       </c>
+      <c r="CV21" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7315,6 +7381,9 @@
       <c r="CU22" s="1" t="n">
         <v>156</v>
       </c>
+      <c r="CV22" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7614,6 +7683,9 @@
       <c r="CU23" s="1" t="n">
         <v>393.5</v>
       </c>
+      <c r="CV23" s="1" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7913,6 +7985,9 @@
       <c r="CU24" s="1" t="n">
         <v>168.2</v>
       </c>
+      <c r="CV24" s="3" t="n">
+        <v>136.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8212,6 +8287,9 @@
       <c r="CU25" s="3" t="n">
         <v>133.5</v>
       </c>
+      <c r="CV25" s="1" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8511,6 +8589,9 @@
       <c r="CU26" s="1" t="n">
         <v>204</v>
       </c>
+      <c r="CV26" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8810,6 +8891,9 @@
       <c r="CU27" s="1" t="n">
         <v>152.2</v>
       </c>
+      <c r="CV27" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9109,6 +9193,9 @@
       <c r="CU28" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="CV28" s="1" t="n">
+        <v>190.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9408,6 +9495,9 @@
       <c r="CU29" s="1" t="n">
         <v>173.4</v>
       </c>
+      <c r="CV29" s="1" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9707,6 +9797,9 @@
       <c r="CU30" s="1" t="n">
         <v>177.8</v>
       </c>
+      <c r="CV30" s="3" t="n">
+        <v>125.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10006,6 +10099,9 @@
       <c r="CU31" s="1" t="n">
         <v>163.6</v>
       </c>
+      <c r="CV31" s="1" t="n">
+        <v>173.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10305,6 +10401,9 @@
       <c r="CU32" s="1" t="n">
         <v>195</v>
       </c>
+      <c r="CV32" s="1" t="n">
+        <v>181.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -10604,6 +10703,9 @@
       <c r="CU33" s="1" t="n">
         <v>161.7</v>
       </c>
+      <c r="CV33" s="3" t="n">
+        <v>134.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -10903,6 +11005,9 @@
       <c r="CU34" s="3" t="n">
         <v>136.5</v>
       </c>
+      <c r="CV34" s="1" t="n">
+        <v>160.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -11202,6 +11307,9 @@
       <c r="CU35" s="1" t="n">
         <v>164.7</v>
       </c>
+      <c r="CV35" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -11501,6 +11609,9 @@
       <c r="CU36" s="2" t="n">
         <v>114.6</v>
       </c>
+      <c r="CV36" s="1" t="n">
+        <v>172.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -11800,6 +11911,9 @@
       <c r="CU37" s="1" t="n">
         <v>206.8</v>
       </c>
+      <c r="CV37" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -12099,6 +12213,9 @@
       <c r="CU38" s="3" t="n">
         <v>132.7</v>
       </c>
+      <c r="CV38" s="3" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -12398,6 +12515,9 @@
       <c r="CU39" s="1" t="n">
         <v>153.9</v>
       </c>
+      <c r="CV39" s="1" t="n">
+        <v>168.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -12697,6 +12817,9 @@
       <c r="CU40" s="1" t="n">
         <v>180.9</v>
       </c>
+      <c r="CV40" s="2" t="n">
+        <v>117.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -12996,6 +13119,9 @@
       <c r="CU41" s="1" t="n">
         <v>188.9</v>
       </c>
+      <c r="CV41" s="1" t="n">
+        <v>185.9</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -13295,6 +13421,9 @@
       <c r="CU42" s="3" t="n">
         <v>133.9</v>
       </c>
+      <c r="CV42" s="1" t="n">
+        <v>145.8</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -13594,6 +13723,9 @@
       <c r="CU43" s="1" t="n">
         <v>165.5</v>
       </c>
+      <c r="CV43" s="2" t="n">
+        <v>118.6</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -13893,6 +14025,9 @@
       <c r="CU44" s="1" t="n">
         <v>206.4</v>
       </c>
+      <c r="CV44" s="3" t="n">
+        <v>134.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -14192,6 +14327,9 @@
       <c r="CU45" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="CV45" s="3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -14491,6 +14629,9 @@
       <c r="CU46" s="1" t="n">
         <v>143.1</v>
       </c>
+      <c r="CV46" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -14790,6 +14931,9 @@
       <c r="CU47" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="CV47" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -15089,6 +15233,9 @@
       <c r="CU48" s="3" t="n">
         <v>133.6</v>
       </c>
+      <c r="CV48" s="1" t="n">
+        <v>164.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -15388,6 +15535,9 @@
       <c r="CU49" s="1" t="n">
         <v>163.6</v>
       </c>
+      <c r="CV49" s="3" t="n">
+        <v>130.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -15687,6 +15837,9 @@
       <c r="CU50" s="1" t="n">
         <v>417</v>
       </c>
+      <c r="CV50" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -15986,6 +16139,9 @@
       <c r="CU51" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="CV51" s="1" t="n">
+        <v>250.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -16285,6 +16441,9 @@
       <c r="CU52" s="1" t="n">
         <v>238.1</v>
       </c>
+      <c r="CV52" s="3" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -16583,6 +16742,9 @@
       </c>
       <c r="CU53" s="1" t="n">
         <v>146.2</v>
+      </c>
+      <c r="CV53" s="1" t="n">
+        <v>235.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV53"/>
+  <dimension ref="A1:CW53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,7 @@
     <col width="12" customWidth="1" min="98" max="98"/>
     <col width="12" customWidth="1" min="99" max="99"/>
     <col width="12" customWidth="1" min="100" max="100"/>
+    <col width="12" customWidth="1" min="101" max="101"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1042,6 +1043,11 @@
           <t>2024/12/17</t>
         </is>
       </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/18</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1344,6 +1350,9 @@
       <c r="CV2" s="2" t="n">
         <v>114.3</v>
       </c>
+      <c r="CW2" s="1" t="n">
+        <v>191.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1646,6 +1655,9 @@
       <c r="CV3" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="CW3" s="2" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1948,6 +1960,9 @@
       <c r="CV4" s="1" t="n">
         <v>145.7</v>
       </c>
+      <c r="CW4" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2250,6 +2265,9 @@
       <c r="CV5" s="3" t="n">
         <v>126.4</v>
       </c>
+      <c r="CW5" s="1" t="n">
+        <v>201.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2552,6 +2570,9 @@
       <c r="CV6" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="CW6" s="3" t="n">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2854,6 +2875,9 @@
       <c r="CV7" s="1" t="n">
         <v>177</v>
       </c>
+      <c r="CW7" s="1" t="n">
+        <v>224.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3156,6 +3180,9 @@
       <c r="CV8" s="1" t="n">
         <v>151.8</v>
       </c>
+      <c r="CW8" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3458,6 +3485,9 @@
       <c r="CV9" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="CW9" s="1" t="n">
+        <v>190.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3760,6 +3790,9 @@
       <c r="CV10" s="2" t="n">
         <v>108.4</v>
       </c>
+      <c r="CW10" s="1" t="n">
+        <v>239.9</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4062,6 +4095,9 @@
       <c r="CV11" s="1" t="n">
         <v>150.6</v>
       </c>
+      <c r="CW11" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4364,6 +4400,9 @@
       <c r="CV12" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="CW12" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4666,6 +4705,9 @@
       <c r="CV13" s="2" t="n">
         <v>122.7</v>
       </c>
+      <c r="CW13" s="1" t="n">
+        <v>163.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -4968,6 +5010,9 @@
       <c r="CV14" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="CW14" s="1" t="n">
+        <v>243.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5270,6 +5315,9 @@
       <c r="CV15" s="1" t="n">
         <v>156.1</v>
       </c>
+      <c r="CW15" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5572,6 +5620,9 @@
       <c r="CV16" s="1" t="n">
         <v>195.9</v>
       </c>
+      <c r="CW16" s="1" t="n">
+        <v>164.8</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5874,6 +5925,9 @@
       <c r="CV17" s="1" t="n">
         <v>161.1</v>
       </c>
+      <c r="CW17" s="1" t="n">
+        <v>178.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6176,6 +6230,9 @@
       <c r="CV18" s="1" t="n">
         <v>164.9</v>
       </c>
+      <c r="CW18" s="1" t="n">
+        <v>312.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6478,6 +6535,9 @@
       <c r="CV19" s="1" t="n">
         <v>159.4</v>
       </c>
+      <c r="CW19" s="1" t="n">
+        <v>153.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6780,6 +6840,9 @@
       <c r="CV20" s="3" t="n">
         <v>137.2</v>
       </c>
+      <c r="CW20" s="1" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7082,6 +7145,9 @@
       <c r="CV21" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="CW21" s="3" t="n">
+        <v>128.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7384,6 +7450,9 @@
       <c r="CV22" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="CW22" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7686,6 +7755,9 @@
       <c r="CV23" s="1" t="n">
         <v>256</v>
       </c>
+      <c r="CW23" s="1" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -7988,6 +8060,9 @@
       <c r="CV24" s="3" t="n">
         <v>136.2</v>
       </c>
+      <c r="CW24" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8290,6 +8365,9 @@
       <c r="CV25" s="1" t="n">
         <v>150.1</v>
       </c>
+      <c r="CW25" s="1" t="n">
+        <v>218.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8592,6 +8670,9 @@
       <c r="CV26" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="CW26" s="3" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8894,6 +8975,9 @@
       <c r="CV27" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="CW27" s="1" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9196,6 +9280,9 @@
       <c r="CV28" s="1" t="n">
         <v>190.3</v>
       </c>
+      <c r="CW28" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9498,6 +9585,9 @@
       <c r="CV29" s="1" t="n">
         <v>168</v>
       </c>
+      <c r="CW29" s="1" t="n">
+        <v>263.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9800,6 +9890,9 @@
       <c r="CV30" s="3" t="n">
         <v>125.4</v>
       </c>
+      <c r="CW30" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10102,6 +10195,9 @@
       <c r="CV31" s="1" t="n">
         <v>173.6</v>
       </c>
+      <c r="CW31" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10404,6 +10500,9 @@
       <c r="CV32" s="1" t="n">
         <v>181.2</v>
       </c>
+      <c r="CW32" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -10706,6 +10805,9 @@
       <c r="CV33" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="CW33" s="1" t="n">
+        <v>200.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -11008,6 +11110,9 @@
       <c r="CV34" s="1" t="n">
         <v>160.8</v>
       </c>
+      <c r="CW34" s="2" t="n">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -11310,6 +11415,9 @@
       <c r="CV35" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="CW35" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -11612,6 +11720,9 @@
       <c r="CV36" s="1" t="n">
         <v>172.4</v>
       </c>
+      <c r="CW36" s="1" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -11914,6 +12025,9 @@
       <c r="CV37" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="CW37" s="1" t="n">
+        <v>170.5</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -12216,6 +12330,9 @@
       <c r="CV38" s="3" t="n">
         <v>128</v>
       </c>
+      <c r="CW38" s="3" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -12518,6 +12635,9 @@
       <c r="CV39" s="1" t="n">
         <v>168.2</v>
       </c>
+      <c r="CW39" s="1" t="n">
+        <v>159.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -12820,6 +12940,9 @@
       <c r="CV40" s="2" t="n">
         <v>117.4</v>
       </c>
+      <c r="CW40" s="1" t="n">
+        <v>194.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -13122,6 +13245,9 @@
       <c r="CV41" s="1" t="n">
         <v>185.9</v>
       </c>
+      <c r="CW41" s="1" t="n">
+        <v>164.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -13424,6 +13550,9 @@
       <c r="CV42" s="1" t="n">
         <v>145.8</v>
       </c>
+      <c r="CW42" s="1" t="n">
+        <v>160.3</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -13726,6 +13855,9 @@
       <c r="CV43" s="2" t="n">
         <v>118.6</v>
       </c>
+      <c r="CW43" s="1" t="n">
+        <v>214.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -14028,6 +14160,9 @@
       <c r="CV44" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="CW44" s="1" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -14330,6 +14465,9 @@
       <c r="CV45" s="3" t="n">
         <v>126</v>
       </c>
+      <c r="CW45" s="3" t="n">
+        <v>127.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -14632,6 +14770,9 @@
       <c r="CV46" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="CW46" s="1" t="n">
+        <v>246.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -14934,6 +15075,9 @@
       <c r="CV47" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="CW47" s="1" t="n">
+        <v>175.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -15236,6 +15380,9 @@
       <c r="CV48" s="1" t="n">
         <v>164.7</v>
       </c>
+      <c r="CW48" s="3" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -15538,6 +15685,9 @@
       <c r="CV49" s="3" t="n">
         <v>130.6</v>
       </c>
+      <c r="CW49" s="1" t="n">
+        <v>512.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -15840,6 +15990,9 @@
       <c r="CV50" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="CW50" s="1" t="n">
+        <v>147.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -16142,6 +16295,9 @@
       <c r="CV51" s="1" t="n">
         <v>250.1</v>
       </c>
+      <c r="CW51" s="1" t="n">
+        <v>157.3</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -16444,6 +16600,9 @@
       <c r="CV52" s="3" t="n">
         <v>132.4</v>
       </c>
+      <c r="CW52" s="1" t="n">
+        <v>155.6</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -16745,6 +16904,9 @@
       </c>
       <c r="CV53" s="1" t="n">
         <v>235.1</v>
+      </c>
+      <c r="CW53" s="1" t="n">
+        <v>143.6</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CW53"/>
+  <dimension ref="A1:CX53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,6 +540,7 @@
     <col width="12" customWidth="1" min="99" max="99"/>
     <col width="12" customWidth="1" min="100" max="100"/>
     <col width="12" customWidth="1" min="101" max="101"/>
+    <col width="12" customWidth="1" min="102" max="102"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1048,6 +1049,11 @@
           <t>2024/12/18</t>
         </is>
       </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/19</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1353,6 +1359,9 @@
       <c r="CW2" s="1" t="n">
         <v>191.9</v>
       </c>
+      <c r="CX2" s="1" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1658,6 +1667,9 @@
       <c r="CW3" s="2" t="n">
         <v>110</v>
       </c>
+      <c r="CX3" s="1" t="n">
+        <v>217.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1963,6 +1975,9 @@
       <c r="CW4" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="CX4" s="1" t="n">
+        <v>182.4</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2268,6 +2283,9 @@
       <c r="CW5" s="1" t="n">
         <v>201.2</v>
       </c>
+      <c r="CX5" s="1" t="n">
+        <v>171.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2573,6 +2591,9 @@
       <c r="CW6" s="3" t="n">
         <v>125.1</v>
       </c>
+      <c r="CX6" s="1" t="n">
+        <v>176.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2878,6 +2899,9 @@
       <c r="CW7" s="1" t="n">
         <v>224.5</v>
       </c>
+      <c r="CX7" s="1" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3183,6 +3207,9 @@
       <c r="CW8" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="CX8" s="2" t="n">
+        <v>111.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3488,6 +3515,9 @@
       <c r="CW9" s="1" t="n">
         <v>190.3</v>
       </c>
+      <c r="CX9" s="3" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3793,6 +3823,9 @@
       <c r="CW10" s="1" t="n">
         <v>239.9</v>
       </c>
+      <c r="CX10" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4098,6 +4131,9 @@
       <c r="CW11" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="CX11" s="1" t="n">
+        <v>190.1</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4403,6 +4439,9 @@
       <c r="CW12" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="CX12" s="3" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4708,6 +4747,9 @@
       <c r="CW13" s="1" t="n">
         <v>163.5</v>
       </c>
+      <c r="CX13" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5013,6 +5055,9 @@
       <c r="CW14" s="1" t="n">
         <v>243.6</v>
       </c>
+      <c r="CX14" s="1" t="n">
+        <v>253.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5318,6 +5363,9 @@
       <c r="CW15" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="CX15" s="2" t="n">
+        <v>121.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5623,6 +5671,9 @@
       <c r="CW16" s="1" t="n">
         <v>164.8</v>
       </c>
+      <c r="CX16" s="1" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5928,6 +5979,9 @@
       <c r="CW17" s="1" t="n">
         <v>178.5</v>
       </c>
+      <c r="CX17" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6233,6 +6287,9 @@
       <c r="CW18" s="1" t="n">
         <v>312.9</v>
       </c>
+      <c r="CX18" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6538,6 +6595,9 @@
       <c r="CW19" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="CX19" s="1" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6843,6 +6903,9 @@
       <c r="CW20" s="1" t="n">
         <v>188.5</v>
       </c>
+      <c r="CX20" s="3" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7148,6 +7211,9 @@
       <c r="CW21" s="3" t="n">
         <v>128.2</v>
       </c>
+      <c r="CX21" s="1" t="n">
+        <v>202.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7453,6 +7519,9 @@
       <c r="CW22" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="CX22" s="1" t="n">
+        <v>220.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7758,6 +7827,9 @@
       <c r="CW23" s="1" t="n">
         <v>149.1</v>
       </c>
+      <c r="CX23" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8063,6 +8135,9 @@
       <c r="CW24" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="CX24" s="1" t="n">
+        <v>211.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8368,6 +8443,9 @@
       <c r="CW25" s="1" t="n">
         <v>218.6</v>
       </c>
+      <c r="CX25" s="1" t="n">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8673,6 +8751,9 @@
       <c r="CW26" s="3" t="n">
         <v>135.7</v>
       </c>
+      <c r="CX26" s="1" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -8978,6 +9059,9 @@
       <c r="CW27" s="1" t="n">
         <v>191</v>
       </c>
+      <c r="CX27" s="1" t="n">
+        <v>177.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9283,6 +9367,9 @@
       <c r="CW28" s="1" t="n">
         <v>145.9</v>
       </c>
+      <c r="CX28" s="1" t="n">
+        <v>155.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9588,6 +9675,9 @@
       <c r="CW29" s="1" t="n">
         <v>263.9</v>
       </c>
+      <c r="CX29" s="1" t="n">
+        <v>359.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9893,6 +9983,9 @@
       <c r="CW30" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="CX30" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10198,6 +10291,9 @@
       <c r="CW31" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="CX31" s="1" t="n">
+        <v>170.8</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10503,6 +10599,9 @@
       <c r="CW32" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="CX32" s="2" t="n">
+        <v>110.6</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -10808,6 +10907,9 @@
       <c r="CW33" s="1" t="n">
         <v>200.5</v>
       </c>
+      <c r="CX33" s="2" t="n">
+        <v>120.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -11113,6 +11215,9 @@
       <c r="CW34" s="2" t="n">
         <v>117.2</v>
       </c>
+      <c r="CX34" s="1" t="n">
+        <v>142.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -11418,6 +11523,9 @@
       <c r="CW35" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="CX35" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -11723,6 +11831,9 @@
       <c r="CW36" s="1" t="n">
         <v>227</v>
       </c>
+      <c r="CX36" s="1" t="n">
+        <v>140.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -12028,6 +12139,9 @@
       <c r="CW37" s="1" t="n">
         <v>170.5</v>
       </c>
+      <c r="CX37" s="1" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -12333,6 +12447,9 @@
       <c r="CW38" s="3" t="n">
         <v>134</v>
       </c>
+      <c r="CX38" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -12638,6 +12755,9 @@
       <c r="CW39" s="1" t="n">
         <v>159.7</v>
       </c>
+      <c r="CX39" s="1" t="n">
+        <v>207.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -12943,6 +13063,9 @@
       <c r="CW40" s="1" t="n">
         <v>194.7</v>
       </c>
+      <c r="CX40" s="1" t="n">
+        <v>204.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -13248,6 +13371,9 @@
       <c r="CW41" s="1" t="n">
         <v>164.1</v>
       </c>
+      <c r="CX41" s="1" t="n">
+        <v>169.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -13553,6 +13679,9 @@
       <c r="CW42" s="1" t="n">
         <v>160.3</v>
       </c>
+      <c r="CX42" s="1" t="n">
+        <v>270.3</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -13858,6 +13987,9 @@
       <c r="CW43" s="1" t="n">
         <v>214.1</v>
       </c>
+      <c r="CX43" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -14163,6 +14295,9 @@
       <c r="CW44" s="1" t="n">
         <v>234</v>
       </c>
+      <c r="CX44" s="1" t="n">
+        <v>212.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -14468,6 +14603,9 @@
       <c r="CW45" s="3" t="n">
         <v>127.5</v>
       </c>
+      <c r="CX45" s="1" t="n">
+        <v>237.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -14773,6 +14911,9 @@
       <c r="CW46" s="1" t="n">
         <v>246.4</v>
       </c>
+      <c r="CX46" s="1" t="n">
+        <v>303.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -15078,6 +15219,9 @@
       <c r="CW47" s="1" t="n">
         <v>175.9</v>
       </c>
+      <c r="CX47" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -15383,6 +15527,9 @@
       <c r="CW48" s="3" t="n">
         <v>137.9</v>
       </c>
+      <c r="CX48" s="1" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -15688,6 +15835,9 @@
       <c r="CW49" s="1" t="n">
         <v>512.3</v>
       </c>
+      <c r="CX49" s="2" t="n">
+        <v>110.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -15993,6 +16143,9 @@
       <c r="CW50" s="1" t="n">
         <v>147.8</v>
       </c>
+      <c r="CX50" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -16298,6 +16451,9 @@
       <c r="CW51" s="1" t="n">
         <v>157.3</v>
       </c>
+      <c r="CX51" s="3" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -16603,6 +16759,9 @@
       <c r="CW52" s="1" t="n">
         <v>155.6</v>
       </c>
+      <c r="CX52" s="1" t="n">
+        <v>178.1</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -16907,6 +17066,9 @@
       </c>
       <c r="CW53" s="1" t="n">
         <v>143.6</v>
+      </c>
+      <c r="CX53" s="1" t="n">
+        <v>149.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX53"/>
+  <dimension ref="A1:CY53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,7 @@
     <col width="12" customWidth="1" min="100" max="100"/>
     <col width="12" customWidth="1" min="101" max="101"/>
     <col width="12" customWidth="1" min="102" max="102"/>
+    <col width="12" customWidth="1" min="103" max="103"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1054,6 +1055,11 @@
           <t>2024/12/19</t>
         </is>
       </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/20</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1362,6 +1368,9 @@
       <c r="CX2" s="1" t="n">
         <v>140.8</v>
       </c>
+      <c r="CY2" s="1" t="n">
+        <v>198.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1670,6 +1679,9 @@
       <c r="CX3" s="1" t="n">
         <v>217.5</v>
       </c>
+      <c r="CY3" s="3" t="n">
+        <v>133.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1978,6 +1990,9 @@
       <c r="CX4" s="1" t="n">
         <v>182.4</v>
       </c>
+      <c r="CY4" s="1" t="n">
+        <v>158.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2286,6 +2301,9 @@
       <c r="CX5" s="1" t="n">
         <v>171.2</v>
       </c>
+      <c r="CY5" s="1" t="n">
+        <v>142.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2594,6 +2612,9 @@
       <c r="CX6" s="1" t="n">
         <v>176.2</v>
       </c>
+      <c r="CY6" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2902,6 +2923,9 @@
       <c r="CX7" s="1" t="n">
         <v>241</v>
       </c>
+      <c r="CY7" s="1" t="n">
+        <v>245.3</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3210,6 +3234,9 @@
       <c r="CX8" s="2" t="n">
         <v>111.6</v>
       </c>
+      <c r="CY8" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3518,6 +3545,9 @@
       <c r="CX9" s="3" t="n">
         <v>128.5</v>
       </c>
+      <c r="CY9" s="1" t="n">
+        <v>165.9</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3826,6 +3856,9 @@
       <c r="CX10" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="CY10" s="1" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4134,6 +4167,9 @@
       <c r="CX11" s="1" t="n">
         <v>190.1</v>
       </c>
+      <c r="CY11" s="1" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4442,6 +4478,9 @@
       <c r="CX12" s="3" t="n">
         <v>138</v>
       </c>
+      <c r="CY12" s="3" t="n">
+        <v>134.4</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4750,6 +4789,9 @@
       <c r="CX13" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="CY13" s="1" t="n">
+        <v>295.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5058,6 +5100,9 @@
       <c r="CX14" s="1" t="n">
         <v>253.4</v>
       </c>
+      <c r="CY14" s="1" t="n">
+        <v>156.3</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5366,6 +5411,9 @@
       <c r="CX15" s="2" t="n">
         <v>121.4</v>
       </c>
+      <c r="CY15" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5674,6 +5722,9 @@
       <c r="CX16" s="1" t="n">
         <v>164.3</v>
       </c>
+      <c r="CY16" s="3" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -5982,6 +6033,9 @@
       <c r="CX17" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="CY17" s="1" t="n">
+        <v>242.2</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6290,6 +6344,9 @@
       <c r="CX18" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="CY18" s="3" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6598,6 +6655,9 @@
       <c r="CX19" s="1" t="n">
         <v>190</v>
       </c>
+      <c r="CY19" s="1" t="n">
+        <v>141.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6906,6 +6966,9 @@
       <c r="CX20" s="3" t="n">
         <v>129.8</v>
       </c>
+      <c r="CY20" s="1" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7214,6 +7277,9 @@
       <c r="CX21" s="1" t="n">
         <v>202.4</v>
       </c>
+      <c r="CY21" s="3" t="n">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7522,6 +7588,9 @@
       <c r="CX22" s="1" t="n">
         <v>220.3</v>
       </c>
+      <c r="CY22" s="2" t="n">
+        <v>117.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7830,6 +7899,9 @@
       <c r="CX23" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="CY23" s="1" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8138,6 +8210,9 @@
       <c r="CX24" s="1" t="n">
         <v>211.8</v>
       </c>
+      <c r="CY24" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8446,6 +8521,9 @@
       <c r="CX25" s="1" t="n">
         <v>163.1</v>
       </c>
+      <c r="CY25" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8754,6 +8832,9 @@
       <c r="CX26" s="1" t="n">
         <v>156.6</v>
       </c>
+      <c r="CY26" s="3" t="n">
+        <v>136.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9062,6 +9143,9 @@
       <c r="CX27" s="1" t="n">
         <v>177.3</v>
       </c>
+      <c r="CY27" s="1" t="n">
+        <v>168.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9370,6 +9454,9 @@
       <c r="CX28" s="1" t="n">
         <v>155.6</v>
       </c>
+      <c r="CY28" s="1" t="n">
+        <v>182.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9678,6 +9765,9 @@
       <c r="CX29" s="1" t="n">
         <v>359.3</v>
       </c>
+      <c r="CY29" s="1" t="n">
+        <v>205.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -9986,6 +10076,9 @@
       <c r="CX30" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="CY30" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10294,6 +10387,9 @@
       <c r="CX31" s="1" t="n">
         <v>170.8</v>
       </c>
+      <c r="CY31" s="1" t="n">
+        <v>143.2</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10602,6 +10698,9 @@
       <c r="CX32" s="2" t="n">
         <v>110.6</v>
       </c>
+      <c r="CY32" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -10910,6 +11009,9 @@
       <c r="CX33" s="2" t="n">
         <v>120.8</v>
       </c>
+      <c r="CY33" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -11218,6 +11320,9 @@
       <c r="CX34" s="1" t="n">
         <v>142.2</v>
       </c>
+      <c r="CY34" s="1" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -11526,6 +11631,9 @@
       <c r="CX35" s="1" t="n">
         <v>158.9</v>
       </c>
+      <c r="CY35" s="3" t="n">
+        <v>125.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -11834,6 +11942,9 @@
       <c r="CX36" s="1" t="n">
         <v>140.5</v>
       </c>
+      <c r="CY36" s="1" t="n">
+        <v>160.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -12142,6 +12253,9 @@
       <c r="CX37" s="1" t="n">
         <v>172</v>
       </c>
+      <c r="CY37" s="1" t="n">
+        <v>173.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -12450,6 +12564,9 @@
       <c r="CX38" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="CY38" s="2" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -12758,6 +12875,9 @@
       <c r="CX39" s="1" t="n">
         <v>207.2</v>
       </c>
+      <c r="CY39" s="3" t="n">
+        <v>134.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -13066,6 +13186,9 @@
       <c r="CX40" s="1" t="n">
         <v>204.8</v>
       </c>
+      <c r="CY40" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -13374,6 +13497,9 @@
       <c r="CX41" s="1" t="n">
         <v>169.6</v>
       </c>
+      <c r="CY41" s="1" t="n">
+        <v>179.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -13682,6 +13808,9 @@
       <c r="CX42" s="1" t="n">
         <v>270.3</v>
       </c>
+      <c r="CY42" s="1" t="n">
+        <v>191.5</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -13990,6 +14119,9 @@
       <c r="CX43" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="CY43" s="3" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -14298,6 +14430,9 @@
       <c r="CX44" s="1" t="n">
         <v>212.6</v>
       </c>
+      <c r="CY44" s="3" t="n">
+        <v>136.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -14606,6 +14741,9 @@
       <c r="CX45" s="1" t="n">
         <v>237.5</v>
       </c>
+      <c r="CY45" s="1" t="n">
+        <v>160.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -14914,6 +15052,9 @@
       <c r="CX46" s="1" t="n">
         <v>303.7</v>
       </c>
+      <c r="CY46" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -15222,6 +15363,9 @@
       <c r="CX47" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="CY47" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -15530,6 +15674,9 @@
       <c r="CX48" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="CY48" s="1" t="n">
+        <v>201.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -15838,6 +15985,9 @@
       <c r="CX49" s="2" t="n">
         <v>110.2</v>
       </c>
+      <c r="CY49" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -16146,6 +16296,9 @@
       <c r="CX50" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="CY50" s="1" t="n">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -16454,6 +16607,9 @@
       <c r="CX51" s="3" t="n">
         <v>127.2</v>
       </c>
+      <c r="CY51" s="1" t="n">
+        <v>173.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -16762,6 +16918,9 @@
       <c r="CX52" s="1" t="n">
         <v>178.1</v>
       </c>
+      <c r="CY52" s="1" t="n">
+        <v>140.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -17069,6 +17228,9 @@
       </c>
       <c r="CX53" s="1" t="n">
         <v>149.8</v>
+      </c>
+      <c r="CY53" s="1" t="n">
+        <v>177.3</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY53"/>
+  <dimension ref="A1:CZ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,6 +542,7 @@
     <col width="12" customWidth="1" min="101" max="101"/>
     <col width="12" customWidth="1" min="102" max="102"/>
     <col width="12" customWidth="1" min="103" max="103"/>
+    <col width="12" customWidth="1" min="104" max="104"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1060,6 +1061,11 @@
           <t>2024/12/20</t>
         </is>
       </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/21</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1371,6 +1377,9 @@
       <c r="CY2" s="1" t="n">
         <v>198.2</v>
       </c>
+      <c r="CZ2" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1682,6 +1691,9 @@
       <c r="CY3" s="3" t="n">
         <v>133.8</v>
       </c>
+      <c r="CZ3" s="1" t="n">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -1993,6 +2005,9 @@
       <c r="CY4" s="1" t="n">
         <v>158.6</v>
       </c>
+      <c r="CZ4" s="1" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2304,6 +2319,9 @@
       <c r="CY5" s="1" t="n">
         <v>142.2</v>
       </c>
+      <c r="CZ5" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2615,6 +2633,9 @@
       <c r="CY6" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="CZ6" s="1" t="n">
+        <v>142.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2926,6 +2947,9 @@
       <c r="CY7" s="1" t="n">
         <v>245.3</v>
       </c>
+      <c r="CZ7" s="1" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3237,6 +3261,9 @@
       <c r="CY8" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="CZ8" s="3" t="n">
+        <v>127.7</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3548,6 +3575,9 @@
       <c r="CY9" s="1" t="n">
         <v>165.9</v>
       </c>
+      <c r="CZ9" s="3" t="n">
+        <v>125.4</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3859,6 +3889,9 @@
       <c r="CY10" s="1" t="n">
         <v>204</v>
       </c>
+      <c r="CZ10" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4170,6 +4203,9 @@
       <c r="CY11" s="1" t="n">
         <v>247</v>
       </c>
+      <c r="CZ11" s="1" t="n">
+        <v>184.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4481,6 +4517,9 @@
       <c r="CY12" s="3" t="n">
         <v>134.4</v>
       </c>
+      <c r="CZ12" s="1" t="n">
+        <v>164.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4792,6 +4831,9 @@
       <c r="CY13" s="1" t="n">
         <v>295.5</v>
       </c>
+      <c r="CZ13" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5103,6 +5145,9 @@
       <c r="CY14" s="1" t="n">
         <v>156.3</v>
       </c>
+      <c r="CZ14" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5414,6 +5459,9 @@
       <c r="CY15" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="CZ15" s="1" t="n">
+        <v>180.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5725,6 +5773,9 @@
       <c r="CY16" s="3" t="n">
         <v>135.7</v>
       </c>
+      <c r="CZ16" s="1" t="n">
+        <v>268.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6036,6 +6087,9 @@
       <c r="CY17" s="1" t="n">
         <v>242.2</v>
       </c>
+      <c r="CZ17" s="1" t="n">
+        <v>161.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6347,6 +6401,9 @@
       <c r="CY18" s="3" t="n">
         <v>135.9</v>
       </c>
+      <c r="CZ18" s="2" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6658,6 +6715,9 @@
       <c r="CY19" s="1" t="n">
         <v>141.6</v>
       </c>
+      <c r="CZ19" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -6969,6 +7029,9 @@
       <c r="CY20" s="1" t="n">
         <v>145.1</v>
       </c>
+      <c r="CZ20" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7280,6 +7343,9 @@
       <c r="CY21" s="3" t="n">
         <v>138.5</v>
       </c>
+      <c r="CZ21" s="1" t="n">
+        <v>196.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7591,6 +7657,9 @@
       <c r="CY22" s="2" t="n">
         <v>117.4</v>
       </c>
+      <c r="CZ22" s="1" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7902,6 +7971,9 @@
       <c r="CY23" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="CZ23" s="3" t="n">
+        <v>139.2</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8213,6 +8285,9 @@
       <c r="CY24" s="1" t="n">
         <v>146.7</v>
       </c>
+      <c r="CZ24" s="1" t="n">
+        <v>164.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8524,6 +8599,9 @@
       <c r="CY25" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="CZ25" s="1" t="n">
+        <v>174.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8835,6 +8913,9 @@
       <c r="CY26" s="3" t="n">
         <v>136.3</v>
       </c>
+      <c r="CZ26" s="1" t="n">
+        <v>207.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9146,6 +9227,9 @@
       <c r="CY27" s="1" t="n">
         <v>168.8</v>
       </c>
+      <c r="CZ27" s="1" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9457,6 +9541,9 @@
       <c r="CY28" s="1" t="n">
         <v>182.1</v>
       </c>
+      <c r="CZ28" s="1" t="n">
+        <v>172.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9768,6 +9855,9 @@
       <c r="CY29" s="1" t="n">
         <v>205.9</v>
       </c>
+      <c r="CZ29" s="1" t="n">
+        <v>178.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -10079,6 +10169,9 @@
       <c r="CY30" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="CZ30" s="3" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10390,6 +10483,9 @@
       <c r="CY31" s="1" t="n">
         <v>143.2</v>
       </c>
+      <c r="CZ31" s="3" t="n">
+        <v>136.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10701,6 +10797,9 @@
       <c r="CY32" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="CZ32" s="1" t="n">
+        <v>163.6</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -11012,6 +11111,9 @@
       <c r="CY33" s="3" t="n">
         <v>136</v>
       </c>
+      <c r="CZ33" s="1" t="n">
+        <v>143.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -11323,6 +11425,9 @@
       <c r="CY34" s="1" t="n">
         <v>176</v>
       </c>
+      <c r="CZ34" s="2" t="n">
+        <v>117.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -11634,6 +11739,9 @@
       <c r="CY35" s="3" t="n">
         <v>125.5</v>
       </c>
+      <c r="CZ35" s="1" t="n">
+        <v>169.3</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -11945,6 +12053,9 @@
       <c r="CY36" s="1" t="n">
         <v>160.2</v>
       </c>
+      <c r="CZ36" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -12256,6 +12367,9 @@
       <c r="CY37" s="1" t="n">
         <v>173.3</v>
       </c>
+      <c r="CZ37" s="1" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -12567,6 +12681,9 @@
       <c r="CY38" s="2" t="n">
         <v>121.6</v>
       </c>
+      <c r="CZ38" s="1" t="n">
+        <v>218.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -12878,6 +12995,9 @@
       <c r="CY39" s="3" t="n">
         <v>134.3</v>
       </c>
+      <c r="CZ39" s="1" t="n">
+        <v>296.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -13189,6 +13309,9 @@
       <c r="CY40" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="CZ40" s="2" t="n">
+        <v>122.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -13500,6 +13623,9 @@
       <c r="CY41" s="1" t="n">
         <v>179.1</v>
       </c>
+      <c r="CZ41" s="1" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -13811,6 +13937,9 @@
       <c r="CY42" s="1" t="n">
         <v>191.5</v>
       </c>
+      <c r="CZ42" s="1" t="n">
+        <v>175.5</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -14122,6 +14251,9 @@
       <c r="CY43" s="3" t="n">
         <v>129.5</v>
       </c>
+      <c r="CZ43" s="1" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -14433,6 +14565,9 @@
       <c r="CY44" s="3" t="n">
         <v>136.2</v>
       </c>
+      <c r="CZ44" s="1" t="n">
+        <v>150.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -14744,6 +14879,9 @@
       <c r="CY45" s="1" t="n">
         <v>160.6</v>
       </c>
+      <c r="CZ45" s="1" t="n">
+        <v>228.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -15055,6 +15193,9 @@
       <c r="CY46" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="CZ46" s="1" t="n">
+        <v>153.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -15366,6 +15507,9 @@
       <c r="CY47" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="CZ47" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -15677,6 +15821,9 @@
       <c r="CY48" s="1" t="n">
         <v>201.2</v>
       </c>
+      <c r="CZ48" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -15988,6 +16135,9 @@
       <c r="CY49" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="CZ49" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -16299,6 +16449,9 @@
       <c r="CY50" s="1" t="n">
         <v>167.6</v>
       </c>
+      <c r="CZ50" s="3" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -16610,6 +16763,9 @@
       <c r="CY51" s="1" t="n">
         <v>173.5</v>
       </c>
+      <c r="CZ51" s="3" t="n">
+        <v>127.9</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -16921,6 +17077,9 @@
       <c r="CY52" s="1" t="n">
         <v>140.4</v>
       </c>
+      <c r="CZ52" s="1" t="n">
+        <v>189.6</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -17231,6 +17390,9 @@
       </c>
       <c r="CY53" s="1" t="n">
         <v>177.3</v>
+      </c>
+      <c r="CZ53" s="3" t="n">
+        <v>129.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ53"/>
+  <dimension ref="A1:DA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,7 @@
     <col width="12" customWidth="1" min="102" max="102"/>
     <col width="12" customWidth="1" min="103" max="103"/>
     <col width="12" customWidth="1" min="104" max="104"/>
+    <col width="12" customWidth="1" min="105" max="105"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1066,6 +1067,11 @@
           <t>2024/12/21</t>
         </is>
       </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/22</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1380,6 +1386,9 @@
       <c r="CZ2" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="DA2" s="1" t="n">
+        <v>203.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1694,6 +1703,9 @@
       <c r="CZ3" s="1" t="n">
         <v>166.3</v>
       </c>
+      <c r="DA3" s="1" t="n">
+        <v>176.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2008,6 +2020,9 @@
       <c r="CZ4" s="1" t="n">
         <v>240</v>
       </c>
+      <c r="DA4" s="1" t="n">
+        <v>229.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2322,6 +2337,9 @@
       <c r="CZ5" s="2" t="n">
         <v>121.8</v>
       </c>
+      <c r="DA5" s="1" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2636,6 +2654,9 @@
       <c r="CZ6" s="1" t="n">
         <v>142.8</v>
       </c>
+      <c r="DA6" s="3" t="n">
+        <v>130.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2950,6 +2971,9 @@
       <c r="CZ7" s="1" t="n">
         <v>161</v>
       </c>
+      <c r="DA7" s="3" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3264,6 +3288,9 @@
       <c r="CZ8" s="3" t="n">
         <v>127.7</v>
       </c>
+      <c r="DA8" s="1" t="n">
+        <v>157.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3578,6 +3605,9 @@
       <c r="CZ9" s="3" t="n">
         <v>125.4</v>
       </c>
+      <c r="DA9" s="1" t="n">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3892,6 +3922,9 @@
       <c r="CZ10" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="DA10" s="2" t="n">
+        <v>109.5</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4206,6 +4239,9 @@
       <c r="CZ11" s="1" t="n">
         <v>184.3</v>
       </c>
+      <c r="DA11" s="1" t="n">
+        <v>167.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4520,6 +4556,9 @@
       <c r="CZ12" s="1" t="n">
         <v>164.2</v>
       </c>
+      <c r="DA12" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4834,6 +4873,9 @@
       <c r="CZ13" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="DA13" s="1" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5148,6 +5190,9 @@
       <c r="CZ14" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="DA14" s="3" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5462,6 +5507,9 @@
       <c r="CZ15" s="1" t="n">
         <v>180.8</v>
       </c>
+      <c r="DA15" s="1" t="n">
+        <v>169.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5776,6 +5824,9 @@
       <c r="CZ16" s="1" t="n">
         <v>268.6</v>
       </c>
+      <c r="DA16" s="3" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6090,6 +6141,9 @@
       <c r="CZ17" s="1" t="n">
         <v>161.3</v>
       </c>
+      <c r="DA17" s="1" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6404,6 +6458,9 @@
       <c r="CZ18" s="2" t="n">
         <v>120.5</v>
       </c>
+      <c r="DA18" s="1" t="n">
+        <v>236.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6718,6 +6775,9 @@
       <c r="CZ19" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="DA19" s="1" t="n">
+        <v>167.1</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7032,6 +7092,9 @@
       <c r="CZ20" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="DA20" s="1" t="n">
+        <v>250.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7346,6 +7409,9 @@
       <c r="CZ21" s="1" t="n">
         <v>196.7</v>
       </c>
+      <c r="DA21" s="2" t="n">
+        <v>123.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7660,6 +7726,9 @@
       <c r="CZ22" s="1" t="n">
         <v>204</v>
       </c>
+      <c r="DA22" s="1" t="n">
+        <v>153.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -7974,6 +8043,9 @@
       <c r="CZ23" s="3" t="n">
         <v>139.2</v>
       </c>
+      <c r="DA23" s="2" t="n">
+        <v>123.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8288,6 +8360,9 @@
       <c r="CZ24" s="1" t="n">
         <v>164.9</v>
       </c>
+      <c r="DA24" s="1" t="n">
+        <v>296.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8602,6 +8677,9 @@
       <c r="CZ25" s="1" t="n">
         <v>174.3</v>
       </c>
+      <c r="DA25" s="1" t="n">
+        <v>174.9</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8916,6 +8994,9 @@
       <c r="CZ26" s="1" t="n">
         <v>207.5</v>
       </c>
+      <c r="DA26" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9230,6 +9311,9 @@
       <c r="CZ27" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="DA27" s="1" t="n">
+        <v>168.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9544,6 +9628,9 @@
       <c r="CZ28" s="1" t="n">
         <v>172.7</v>
       </c>
+      <c r="DA28" s="1" t="n">
+        <v>174.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9858,6 +9945,9 @@
       <c r="CZ29" s="1" t="n">
         <v>178.9</v>
       </c>
+      <c r="DA29" s="3" t="n">
+        <v>134.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -10172,6 +10262,9 @@
       <c r="CZ30" s="3" t="n">
         <v>126.4</v>
       </c>
+      <c r="DA30" s="3" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10486,6 +10579,9 @@
       <c r="CZ31" s="3" t="n">
         <v>136.3</v>
       </c>
+      <c r="DA31" s="1" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10800,6 +10896,9 @@
       <c r="CZ32" s="1" t="n">
         <v>163.6</v>
       </c>
+      <c r="DA32" s="1" t="n">
+        <v>210.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -11114,6 +11213,9 @@
       <c r="CZ33" s="1" t="n">
         <v>143.9</v>
       </c>
+      <c r="DA33" s="3" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -11428,6 +11530,9 @@
       <c r="CZ34" s="2" t="n">
         <v>117.7</v>
       </c>
+      <c r="DA34" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -11742,6 +11847,9 @@
       <c r="CZ35" s="1" t="n">
         <v>169.3</v>
       </c>
+      <c r="DA35" s="2" t="n">
+        <v>121.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -12056,6 +12164,9 @@
       <c r="CZ36" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="DA36" s="1" t="n">
+        <v>241.3</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -12370,6 +12481,9 @@
       <c r="CZ37" s="1" t="n">
         <v>197</v>
       </c>
+      <c r="DA37" s="3" t="n">
+        <v>125.2</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -12684,6 +12798,9 @@
       <c r="CZ38" s="1" t="n">
         <v>218.3</v>
       </c>
+      <c r="DA38" s="1" t="n">
+        <v>181.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -12998,6 +13115,9 @@
       <c r="CZ39" s="1" t="n">
         <v>296.3</v>
       </c>
+      <c r="DA39" s="1" t="n">
+        <v>209.8</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -13312,6 +13432,9 @@
       <c r="CZ40" s="2" t="n">
         <v>122.7</v>
       </c>
+      <c r="DA40" s="1" t="n">
+        <v>179.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -13626,6 +13749,9 @@
       <c r="CZ41" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="DA41" s="3" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -13940,6 +14066,9 @@
       <c r="CZ42" s="1" t="n">
         <v>175.5</v>
       </c>
+      <c r="DA42" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -14254,6 +14383,9 @@
       <c r="CZ43" s="1" t="n">
         <v>187.1</v>
       </c>
+      <c r="DA43" s="1" t="n">
+        <v>157.5</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -14568,6 +14700,9 @@
       <c r="CZ44" s="1" t="n">
         <v>150.5</v>
       </c>
+      <c r="DA44" s="1" t="n">
+        <v>202.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -14882,6 +15017,9 @@
       <c r="CZ45" s="1" t="n">
         <v>228.9</v>
       </c>
+      <c r="DA45" s="1" t="n">
+        <v>319.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -15196,6 +15334,9 @@
       <c r="CZ46" s="1" t="n">
         <v>153.1</v>
       </c>
+      <c r="DA46" s="1" t="n">
+        <v>190.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -15510,6 +15651,9 @@
       <c r="CZ47" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="DA47" s="1" t="n">
+        <v>179.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -15824,6 +15968,9 @@
       <c r="CZ48" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="DA48" s="1" t="n">
+        <v>176.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -16138,6 +16285,9 @@
       <c r="CZ49" s="1" t="n">
         <v>149.2</v>
       </c>
+      <c r="DA49" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -16452,6 +16602,9 @@
       <c r="CZ50" s="3" t="n">
         <v>127.1</v>
       </c>
+      <c r="DA50" s="1" t="n">
+        <v>159.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -16766,6 +16919,9 @@
       <c r="CZ51" s="3" t="n">
         <v>127.9</v>
       </c>
+      <c r="DA51" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -17080,6 +17236,9 @@
       <c r="CZ52" s="1" t="n">
         <v>189.6</v>
       </c>
+      <c r="DA52" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -17393,6 +17552,9 @@
       </c>
       <c r="CZ53" s="3" t="n">
         <v>129.9</v>
+      </c>
+      <c r="DA53" s="2" t="n">
+        <v>113.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DA53"/>
+  <dimension ref="A1:DB53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,7 @@
     <col width="12" customWidth="1" min="103" max="103"/>
     <col width="12" customWidth="1" min="104" max="104"/>
     <col width="12" customWidth="1" min="105" max="105"/>
+    <col width="12" customWidth="1" min="106" max="106"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1072,6 +1073,11 @@
           <t>2024/12/22</t>
         </is>
       </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/23</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1389,6 +1395,9 @@
       <c r="DA2" s="1" t="n">
         <v>203.3</v>
       </c>
+      <c r="DB2" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1706,6 +1715,9 @@
       <c r="DA3" s="1" t="n">
         <v>176.5</v>
       </c>
+      <c r="DB3" s="1" t="n">
+        <v>260.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2023,6 +2035,9 @@
       <c r="DA4" s="1" t="n">
         <v>229.2</v>
       </c>
+      <c r="DB4" s="1" t="n">
+        <v>167.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2340,6 +2355,9 @@
       <c r="DA5" s="1" t="n">
         <v>142.7</v>
       </c>
+      <c r="DB5" s="1" t="n">
+        <v>169.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2657,6 +2675,9 @@
       <c r="DA6" s="3" t="n">
         <v>130.9</v>
       </c>
+      <c r="DB6" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2974,6 +2995,9 @@
       <c r="DA7" s="3" t="n">
         <v>135.7</v>
       </c>
+      <c r="DB7" s="1" t="n">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3291,6 +3315,9 @@
       <c r="DA8" s="1" t="n">
         <v>157.4</v>
       </c>
+      <c r="DB8" s="1" t="n">
+        <v>201.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3608,6 +3635,9 @@
       <c r="DA9" s="1" t="n">
         <v>142.1</v>
       </c>
+      <c r="DB9" s="2" t="n">
+        <v>107.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3925,6 +3955,9 @@
       <c r="DA10" s="2" t="n">
         <v>109.5</v>
       </c>
+      <c r="DB10" s="3" t="n">
+        <v>139.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4242,6 +4275,9 @@
       <c r="DA11" s="1" t="n">
         <v>167.4</v>
       </c>
+      <c r="DB11" s="1" t="n">
+        <v>261.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4559,6 +4595,9 @@
       <c r="DA12" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="DB12" s="2" t="n">
+        <v>113.4</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4876,6 +4915,9 @@
       <c r="DA13" s="1" t="n">
         <v>167</v>
       </c>
+      <c r="DB13" s="1" t="n">
+        <v>148.1</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5193,6 +5235,9 @@
       <c r="DA14" s="3" t="n">
         <v>134.9</v>
       </c>
+      <c r="DB14" s="2" t="n">
+        <v>123.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5510,6 +5555,9 @@
       <c r="DA15" s="1" t="n">
         <v>169.6</v>
       </c>
+      <c r="DB15" s="1" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5827,6 +5875,9 @@
       <c r="DA16" s="3" t="n">
         <v>127</v>
       </c>
+      <c r="DB16" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6144,6 +6195,9 @@
       <c r="DA17" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="DB17" s="2" t="n">
+        <v>123.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6461,6 +6515,9 @@
       <c r="DA18" s="1" t="n">
         <v>236.9</v>
       </c>
+      <c r="DB18" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6778,6 +6835,9 @@
       <c r="DA19" s="1" t="n">
         <v>167.1</v>
       </c>
+      <c r="DB19" s="1" t="n">
+        <v>260.3</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7095,6 +7155,9 @@
       <c r="DA20" s="1" t="n">
         <v>250.7</v>
       </c>
+      <c r="DB20" s="1" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7412,6 +7475,9 @@
       <c r="DA21" s="2" t="n">
         <v>123.3</v>
       </c>
+      <c r="DB21" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7729,6 +7795,9 @@
       <c r="DA22" s="1" t="n">
         <v>153.5</v>
       </c>
+      <c r="DB22" s="3" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8046,6 +8115,9 @@
       <c r="DA23" s="2" t="n">
         <v>123.7</v>
       </c>
+      <c r="DB23" s="3" t="n">
+        <v>137.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8363,6 +8435,9 @@
       <c r="DA24" s="1" t="n">
         <v>296.9</v>
       </c>
+      <c r="DB24" s="3" t="n">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8680,6 +8755,9 @@
       <c r="DA25" s="1" t="n">
         <v>174.9</v>
       </c>
+      <c r="DB25" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -8997,6 +9075,9 @@
       <c r="DA26" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="DB26" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9314,6 +9395,9 @@
       <c r="DA27" s="1" t="n">
         <v>168.6</v>
       </c>
+      <c r="DB27" s="1" t="n">
+        <v>251.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9631,6 +9715,9 @@
       <c r="DA28" s="1" t="n">
         <v>174.3</v>
       </c>
+      <c r="DB28" s="3" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -9948,6 +10035,9 @@
       <c r="DA29" s="3" t="n">
         <v>134.1</v>
       </c>
+      <c r="DB29" s="3" t="n">
+        <v>128.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -10265,6 +10355,9 @@
       <c r="DA30" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="DB30" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10582,6 +10675,9 @@
       <c r="DA31" s="1" t="n">
         <v>171</v>
       </c>
+      <c r="DB31" s="1" t="n">
+        <v>196.7</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10899,6 +10995,9 @@
       <c r="DA32" s="1" t="n">
         <v>210.2</v>
       </c>
+      <c r="DB32" s="3" t="n">
+        <v>132.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -11216,6 +11315,9 @@
       <c r="DA33" s="3" t="n">
         <v>134.9</v>
       </c>
+      <c r="DB33" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -11533,6 +11635,9 @@
       <c r="DA34" s="1" t="n">
         <v>156.8</v>
       </c>
+      <c r="DB34" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -11850,6 +11955,9 @@
       <c r="DA35" s="2" t="n">
         <v>121.4</v>
       </c>
+      <c r="DB35" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -12167,6 +12275,9 @@
       <c r="DA36" s="1" t="n">
         <v>241.3</v>
       </c>
+      <c r="DB36" s="1" t="n">
+        <v>226.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -12484,6 +12595,9 @@
       <c r="DA37" s="3" t="n">
         <v>125.2</v>
       </c>
+      <c r="DB37" s="1" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -12801,6 +12915,9 @@
       <c r="DA38" s="1" t="n">
         <v>181.3</v>
       </c>
+      <c r="DB38" s="1" t="n">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -13118,6 +13235,9 @@
       <c r="DA39" s="1" t="n">
         <v>209.8</v>
       </c>
+      <c r="DB39" s="2" t="n">
+        <v>108.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -13435,6 +13555,9 @@
       <c r="DA40" s="1" t="n">
         <v>179.9</v>
       </c>
+      <c r="DB40" s="1" t="n">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -13752,6 +13875,9 @@
       <c r="DA41" s="3" t="n">
         <v>136.1</v>
       </c>
+      <c r="DB41" s="1" t="n">
+        <v>169.9</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -14069,6 +14195,7 @@
       <c r="DA42" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="DB42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -14386,6 +14513,7 @@
       <c r="DA43" s="1" t="n">
         <v>157.5</v>
       </c>
+      <c r="DB43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -14703,6 +14831,9 @@
       <c r="DA44" s="1" t="n">
         <v>202.8</v>
       </c>
+      <c r="DB44" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -15020,6 +15151,9 @@
       <c r="DA45" s="1" t="n">
         <v>319.9</v>
       </c>
+      <c r="DB45" s="1" t="n">
+        <v>206.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -15337,6 +15471,9 @@
       <c r="DA46" s="1" t="n">
         <v>190.8</v>
       </c>
+      <c r="DB46" s="3" t="n">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -15654,6 +15791,9 @@
       <c r="DA47" s="1" t="n">
         <v>179.4</v>
       </c>
+      <c r="DB47" s="3" t="n">
+        <v>131.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -15971,6 +16111,9 @@
       <c r="DA48" s="1" t="n">
         <v>176.7</v>
       </c>
+      <c r="DB48" s="1" t="n">
+        <v>179.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -16288,6 +16431,9 @@
       <c r="DA49" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="DB49" s="1" t="n">
+        <v>175.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -16605,6 +16751,9 @@
       <c r="DA50" s="1" t="n">
         <v>159.9</v>
       </c>
+      <c r="DB50" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -16922,6 +17071,9 @@
       <c r="DA51" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="DB51" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -17239,6 +17391,9 @@
       <c r="DA52" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="DB52" s="3" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -17555,6 +17710,9 @@
       </c>
       <c r="DA53" s="2" t="n">
         <v>113.5</v>
+      </c>
+      <c r="DB53" s="1" t="n">
+        <v>148.3</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB53"/>
+  <dimension ref="A1:DC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,7 @@
     <col width="12" customWidth="1" min="104" max="104"/>
     <col width="12" customWidth="1" min="105" max="105"/>
     <col width="12" customWidth="1" min="106" max="106"/>
+    <col width="12" customWidth="1" min="107" max="107"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1078,6 +1079,11 @@
           <t>2024/12/23</t>
         </is>
       </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/24</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1398,6 +1404,9 @@
       <c r="DB2" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="DC2" s="3" t="n">
+        <v>128.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1718,6 +1727,9 @@
       <c r="DB3" s="1" t="n">
         <v>260.9</v>
       </c>
+      <c r="DC3" s="1" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2038,6 +2050,9 @@
       <c r="DB4" s="1" t="n">
         <v>167.2</v>
       </c>
+      <c r="DC4" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2358,6 +2373,9 @@
       <c r="DB5" s="1" t="n">
         <v>169.2</v>
       </c>
+      <c r="DC5" s="3" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2678,6 +2696,9 @@
       <c r="DB6" s="1" t="n">
         <v>145.9</v>
       </c>
+      <c r="DC6" s="1" t="n">
+        <v>199.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -2998,6 +3019,9 @@
       <c r="DB7" s="1" t="n">
         <v>147.5</v>
       </c>
+      <c r="DC7" s="1" t="n">
+        <v>146.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3318,6 +3342,9 @@
       <c r="DB8" s="1" t="n">
         <v>201.4</v>
       </c>
+      <c r="DC8" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3638,6 +3665,9 @@
       <c r="DB9" s="2" t="n">
         <v>107.2</v>
       </c>
+      <c r="DC9" s="1" t="n">
+        <v>357</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3958,6 +3988,9 @@
       <c r="DB10" s="3" t="n">
         <v>139.2</v>
       </c>
+      <c r="DC10" s="1" t="n">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4278,6 +4311,9 @@
       <c r="DB11" s="1" t="n">
         <v>261.8</v>
       </c>
+      <c r="DC11" s="1" t="n">
+        <v>222.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4598,6 +4634,9 @@
       <c r="DB12" s="2" t="n">
         <v>113.4</v>
       </c>
+      <c r="DC12" s="3" t="n">
+        <v>139.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4918,6 +4957,9 @@
       <c r="DB13" s="1" t="n">
         <v>148.1</v>
       </c>
+      <c r="DC13" s="3" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5238,6 +5280,9 @@
       <c r="DB14" s="2" t="n">
         <v>123.8</v>
       </c>
+      <c r="DC14" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5558,6 +5603,9 @@
       <c r="DB15" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="DC15" s="1" t="n">
+        <v>691</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5878,6 +5926,9 @@
       <c r="DB16" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="DC16" s="1" t="n">
+        <v>174.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6198,6 +6249,9 @@
       <c r="DB17" s="2" t="n">
         <v>123.1</v>
       </c>
+      <c r="DC17" s="1" t="n">
+        <v>141.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6518,6 +6572,9 @@
       <c r="DB18" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="DC18" s="1" t="n">
+        <v>387.7</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6838,6 +6895,9 @@
       <c r="DB19" s="1" t="n">
         <v>260.3</v>
       </c>
+      <c r="DC19" s="3" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7158,6 +7218,9 @@
       <c r="DB20" s="1" t="n">
         <v>140.3</v>
       </c>
+      <c r="DC20" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7478,6 +7541,9 @@
       <c r="DB21" s="1" t="n">
         <v>153.4</v>
       </c>
+      <c r="DC21" s="1" t="n">
+        <v>217.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7798,6 +7864,9 @@
       <c r="DB22" s="3" t="n">
         <v>131.2</v>
       </c>
+      <c r="DC22" s="3" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8118,6 +8187,9 @@
       <c r="DB23" s="3" t="n">
         <v>137.5</v>
       </c>
+      <c r="DC23" s="1" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8438,6 +8510,9 @@
       <c r="DB24" s="3" t="n">
         <v>133.7</v>
       </c>
+      <c r="DC24" s="1" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8758,6 +8833,9 @@
       <c r="DB25" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="DC25" s="1" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9078,6 +9156,9 @@
       <c r="DB26" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="DC26" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9398,6 +9479,9 @@
       <c r="DB27" s="1" t="n">
         <v>251.1</v>
       </c>
+      <c r="DC27" s="3" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9718,6 +9802,9 @@
       <c r="DB28" s="3" t="n">
         <v>137.9</v>
       </c>
+      <c r="DC28" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10038,6 +10125,9 @@
       <c r="DB29" s="3" t="n">
         <v>128.1</v>
       </c>
+      <c r="DC29" s="1" t="n">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -10358,6 +10448,9 @@
       <c r="DB30" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="DC30" s="1" t="n">
+        <v>231.6</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10678,6 +10771,9 @@
       <c r="DB31" s="1" t="n">
         <v>196.7</v>
       </c>
+      <c r="DC31" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -10998,6 +11094,9 @@
       <c r="DB32" s="3" t="n">
         <v>132.8</v>
       </c>
+      <c r="DC32" s="1" t="n">
+        <v>144.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -11318,6 +11417,9 @@
       <c r="DB33" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="DC33" s="1" t="n">
+        <v>160.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -11638,6 +11740,9 @@
       <c r="DB34" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="DC34" s="1" t="n">
+        <v>270.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -11958,6 +12063,9 @@
       <c r="DB35" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="DC35" s="1" t="n">
+        <v>143.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -12278,6 +12386,9 @@
       <c r="DB36" s="1" t="n">
         <v>226.8</v>
       </c>
+      <c r="DC36" s="3" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -12598,6 +12709,9 @@
       <c r="DB37" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="DC37" s="1" t="n">
+        <v>184.2</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -12918,6 +13032,9 @@
       <c r="DB38" s="1" t="n">
         <v>142.1</v>
       </c>
+      <c r="DC38" s="1" t="n">
+        <v>274.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -13238,6 +13355,9 @@
       <c r="DB39" s="2" t="n">
         <v>108.7</v>
       </c>
+      <c r="DC39" s="1" t="n">
+        <v>170.9</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -13558,6 +13678,9 @@
       <c r="DB40" s="1" t="n">
         <v>166.3</v>
       </c>
+      <c r="DC40" s="1" t="n">
+        <v>170.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -13878,6 +14001,9 @@
       <c r="DB41" s="1" t="n">
         <v>169.9</v>
       </c>
+      <c r="DC41" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -14196,6 +14322,7 @@
         <v>155.4</v>
       </c>
       <c r="DB42" s="1" t="n"/>
+      <c r="DC42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -14514,6 +14641,7 @@
         <v>157.5</v>
       </c>
       <c r="DB43" s="1" t="n"/>
+      <c r="DC43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -14834,6 +14962,9 @@
       <c r="DB44" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="DC44" s="2" t="n">
+        <v>110.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -15154,6 +15285,9 @@
       <c r="DB45" s="1" t="n">
         <v>206.8</v>
       </c>
+      <c r="DC45" s="1" t="n">
+        <v>202.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -15474,6 +15608,9 @@
       <c r="DB46" s="3" t="n">
         <v>130.8</v>
       </c>
+      <c r="DC46" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -15794,6 +15931,9 @@
       <c r="DB47" s="3" t="n">
         <v>131.9</v>
       </c>
+      <c r="DC47" s="1" t="n">
+        <v>200.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -16114,6 +16254,9 @@
       <c r="DB48" s="1" t="n">
         <v>179.3</v>
       </c>
+      <c r="DC48" s="1" t="n">
+        <v>222.5</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -16434,6 +16577,9 @@
       <c r="DB49" s="1" t="n">
         <v>175.8</v>
       </c>
+      <c r="DC49" s="3" t="n">
+        <v>130.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -16754,6 +16900,9 @@
       <c r="DB50" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="DC50" s="1" t="n">
+        <v>189.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -17074,6 +17223,9 @@
       <c r="DB51" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="DC51" s="1" t="n">
+        <v>235.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -17394,6 +17546,9 @@
       <c r="DB52" s="3" t="n">
         <v>127</v>
       </c>
+      <c r="DC52" s="1" t="n">
+        <v>169.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -17713,6 +17868,9 @@
       </c>
       <c r="DB53" s="1" t="n">
         <v>148.3</v>
+      </c>
+      <c r="DC53" s="1" t="n">
+        <v>171.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DC53"/>
+  <dimension ref="A1:DD53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,7 @@
     <col width="12" customWidth="1" min="105" max="105"/>
     <col width="12" customWidth="1" min="106" max="106"/>
     <col width="12" customWidth="1" min="107" max="107"/>
+    <col width="12" customWidth="1" min="108" max="108"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1084,6 +1085,11 @@
           <t>2024/12/24</t>
         </is>
       </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/25</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1407,6 +1413,9 @@
       <c r="DC2" s="3" t="n">
         <v>128.3</v>
       </c>
+      <c r="DD2" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1730,6 +1739,9 @@
       <c r="DC3" s="1" t="n">
         <v>311</v>
       </c>
+      <c r="DD3" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2053,6 +2065,9 @@
       <c r="DC4" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="DD4" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2376,6 +2391,9 @@
       <c r="DC5" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="DD5" s="1" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2699,6 +2717,9 @@
       <c r="DC6" s="1" t="n">
         <v>199.2</v>
       </c>
+      <c r="DD6" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3022,6 +3043,9 @@
       <c r="DC7" s="1" t="n">
         <v>146.2</v>
       </c>
+      <c r="DD7" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3345,6 +3369,9 @@
       <c r="DC8" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="DD8" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3668,6 +3695,9 @@
       <c r="DC9" s="1" t="n">
         <v>357</v>
       </c>
+      <c r="DD9" s="1" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -3991,6 +4021,9 @@
       <c r="DC10" s="1" t="n">
         <v>166.3</v>
       </c>
+      <c r="DD10" s="1" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4314,6 +4347,9 @@
       <c r="DC11" s="1" t="n">
         <v>222.4</v>
       </c>
+      <c r="DD11" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4637,6 +4673,9 @@
       <c r="DC12" s="3" t="n">
         <v>139.6</v>
       </c>
+      <c r="DD12" s="1" t="n">
+        <v>295.9</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -4960,6 +4999,9 @@
       <c r="DC13" s="3" t="n">
         <v>130.7</v>
       </c>
+      <c r="DD13" s="1" t="n">
+        <v>211.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5283,6 +5325,9 @@
       <c r="DC14" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="DD14" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5606,6 +5651,9 @@
       <c r="DC15" s="1" t="n">
         <v>691</v>
       </c>
+      <c r="DD15" s="1" t="n">
+        <v>162.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5929,6 +5977,9 @@
       <c r="DC16" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="DD16" s="1" t="n">
+        <v>368.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6252,6 +6303,9 @@
       <c r="DC17" s="1" t="n">
         <v>141.5</v>
       </c>
+      <c r="DD17" s="2" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6575,6 +6629,9 @@
       <c r="DC18" s="1" t="n">
         <v>387.7</v>
       </c>
+      <c r="DD18" s="1" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6898,6 +6955,9 @@
       <c r="DC19" s="3" t="n">
         <v>130.7</v>
       </c>
+      <c r="DD19" s="1" t="n">
+        <v>160.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7221,6 +7281,9 @@
       <c r="DC20" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="DD20" s="1" t="n">
+        <v>209.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7544,6 +7607,9 @@
       <c r="DC21" s="1" t="n">
         <v>217.4</v>
       </c>
+      <c r="DD21" s="2" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7867,6 +7933,9 @@
       <c r="DC22" s="3" t="n">
         <v>135</v>
       </c>
+      <c r="DD22" s="1" t="n">
+        <v>186.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8190,6 +8259,9 @@
       <c r="DC23" s="1" t="n">
         <v>155.3</v>
       </c>
+      <c r="DD23" s="1" t="n">
+        <v>240.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8513,6 +8585,9 @@
       <c r="DC24" s="1" t="n">
         <v>151.8</v>
       </c>
+      <c r="DD24" s="1" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8836,6 +8911,9 @@
       <c r="DC25" s="1" t="n">
         <v>256</v>
       </c>
+      <c r="DD25" s="1" t="n">
+        <v>175.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9159,6 +9237,9 @@
       <c r="DC26" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="DD26" s="3" t="n">
+        <v>130.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9482,6 +9563,9 @@
       <c r="DC27" s="3" t="n">
         <v>135.9</v>
       </c>
+      <c r="DD27" s="2" t="n">
+        <v>122.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9805,6 +9889,9 @@
       <c r="DC28" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="DD28" s="2" t="n">
+        <v>113.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10128,6 +10215,9 @@
       <c r="DC29" s="1" t="n">
         <v>150.4</v>
       </c>
+      <c r="DD29" s="3" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -10451,6 +10541,9 @@
       <c r="DC30" s="1" t="n">
         <v>231.6</v>
       </c>
+      <c r="DD30" s="1" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10774,6 +10867,9 @@
       <c r="DC31" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="DD31" s="2" t="n">
+        <v>123.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -11097,6 +11193,9 @@
       <c r="DC32" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="DD32" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -11420,6 +11519,9 @@
       <c r="DC33" s="1" t="n">
         <v>160.6</v>
       </c>
+      <c r="DD33" s="1" t="n">
+        <v>189.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -11743,6 +11845,9 @@
       <c r="DC34" s="1" t="n">
         <v>270.7</v>
       </c>
+      <c r="DD34" s="1" t="n">
+        <v>220.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -12066,6 +12171,9 @@
       <c r="DC35" s="1" t="n">
         <v>143.9</v>
       </c>
+      <c r="DD35" s="1" t="n">
+        <v>182.8</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -12389,6 +12497,9 @@
       <c r="DC36" s="3" t="n">
         <v>126.4</v>
       </c>
+      <c r="DD36" s="2" t="n">
+        <v>107.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -12712,6 +12823,9 @@
       <c r="DC37" s="1" t="n">
         <v>184.2</v>
       </c>
+      <c r="DD37" s="3" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -13035,6 +13149,9 @@
       <c r="DC38" s="1" t="n">
         <v>274.8</v>
       </c>
+      <c r="DD38" s="2" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -13358,6 +13475,9 @@
       <c r="DC39" s="1" t="n">
         <v>170.9</v>
       </c>
+      <c r="DD39" s="1" t="n">
+        <v>155.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -13681,6 +13801,9 @@
       <c r="DC40" s="1" t="n">
         <v>170.1</v>
       </c>
+      <c r="DD40" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -14004,6 +14127,9 @@
       <c r="DC41" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="DD41" s="1" t="n">
+        <v>168.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -14323,6 +14449,7 @@
       </c>
       <c r="DB42" s="1" t="n"/>
       <c r="DC42" s="1" t="n"/>
+      <c r="DD42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -14642,6 +14769,7 @@
       </c>
       <c r="DB43" s="1" t="n"/>
       <c r="DC43" s="1" t="n"/>
+      <c r="DD43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -14965,6 +15093,9 @@
       <c r="DC44" s="2" t="n">
         <v>110.6</v>
       </c>
+      <c r="DD44" s="1" t="n">
+        <v>149.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -15288,6 +15419,9 @@
       <c r="DC45" s="1" t="n">
         <v>202.9</v>
       </c>
+      <c r="DD45" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -15611,6 +15745,9 @@
       <c r="DC46" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="DD46" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -15934,6 +16071,9 @@
       <c r="DC47" s="1" t="n">
         <v>200.4</v>
       </c>
+      <c r="DD47" s="3" t="n">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -16257,6 +16397,9 @@
       <c r="DC48" s="1" t="n">
         <v>222.5</v>
       </c>
+      <c r="DD48" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -16580,6 +16723,9 @@
       <c r="DC49" s="3" t="n">
         <v>130.2</v>
       </c>
+      <c r="DD49" s="1" t="n">
+        <v>186.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -16903,6 +17049,9 @@
       <c r="DC50" s="1" t="n">
         <v>189.2</v>
       </c>
+      <c r="DD50" s="2" t="n">
+        <v>118.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -17226,6 +17375,9 @@
       <c r="DC51" s="1" t="n">
         <v>235.5</v>
       </c>
+      <c r="DD51" s="2" t="n">
+        <v>108.8</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -17549,6 +17701,9 @@
       <c r="DC52" s="1" t="n">
         <v>169.4</v>
       </c>
+      <c r="DD52" s="1" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -17871,6 +18026,9 @@
       </c>
       <c r="DC53" s="1" t="n">
         <v>171.1</v>
+      </c>
+      <c r="DD53" s="1" t="n">
+        <v>176.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DD53"/>
+  <dimension ref="A1:DE53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,7 @@
     <col width="12" customWidth="1" min="106" max="106"/>
     <col width="12" customWidth="1" min="107" max="107"/>
     <col width="12" customWidth="1" min="108" max="108"/>
+    <col width="12" customWidth="1" min="109" max="109"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1090,6 +1091,11 @@
           <t>2024/12/25</t>
         </is>
       </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/26</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1416,6 +1422,9 @@
       <c r="DD2" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="DE2" s="3" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1742,6 +1751,9 @@
       <c r="DD3" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="DE3" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2068,6 +2080,9 @@
       <c r="DD4" s="1" t="n">
         <v>148.5</v>
       </c>
+      <c r="DE4" s="1" t="n">
+        <v>157.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2394,6 +2409,9 @@
       <c r="DD5" s="1" t="n">
         <v>149.1</v>
       </c>
+      <c r="DE5" s="3" t="n">
+        <v>139.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2720,6 +2738,9 @@
       <c r="DD6" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="DE6" s="1" t="n">
+        <v>243.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3046,6 +3067,9 @@
       <c r="DD7" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="DE7" s="1" t="n">
+        <v>169.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3372,6 +3396,9 @@
       <c r="DD8" s="3" t="n">
         <v>129</v>
       </c>
+      <c r="DE8" s="1" t="n">
+        <v>160.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3698,6 +3725,9 @@
       <c r="DD9" s="1" t="n">
         <v>152</v>
       </c>
+      <c r="DE9" s="1" t="n">
+        <v>193.5</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4024,6 +4054,9 @@
       <c r="DD10" s="1" t="n">
         <v>192</v>
       </c>
+      <c r="DE10" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4350,6 +4383,9 @@
       <c r="DD11" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="DE11" s="1" t="n">
+        <v>206.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4676,6 +4712,9 @@
       <c r="DD12" s="1" t="n">
         <v>295.9</v>
       </c>
+      <c r="DE12" s="1" t="n">
+        <v>193.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5002,6 +5041,9 @@
       <c r="DD13" s="1" t="n">
         <v>211.9</v>
       </c>
+      <c r="DE13" s="1" t="n">
+        <v>220.8</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5328,6 +5370,9 @@
       <c r="DD14" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="DE14" s="3" t="n">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5654,6 +5699,9 @@
       <c r="DD15" s="1" t="n">
         <v>162.6</v>
       </c>
+      <c r="DE15" s="1" t="n">
+        <v>378.5</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -5980,6 +6028,9 @@
       <c r="DD16" s="1" t="n">
         <v>368.3</v>
       </c>
+      <c r="DE16" s="1" t="n">
+        <v>190.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6306,6 +6357,9 @@
       <c r="DD17" s="2" t="n">
         <v>114.3</v>
       </c>
+      <c r="DE17" s="1" t="n">
+        <v>270.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6632,6 +6686,9 @@
       <c r="DD18" s="1" t="n">
         <v>187.9</v>
       </c>
+      <c r="DE18" s="1" t="n">
+        <v>291.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -6958,6 +7015,9 @@
       <c r="DD19" s="1" t="n">
         <v>160.5</v>
       </c>
+      <c r="DE19" s="1" t="n">
+        <v>171.2</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7284,6 +7344,9 @@
       <c r="DD20" s="1" t="n">
         <v>209.3</v>
       </c>
+      <c r="DE20" s="1" t="n">
+        <v>158.2</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7610,6 +7673,9 @@
       <c r="DD21" s="2" t="n">
         <v>120</v>
       </c>
+      <c r="DE21" s="1" t="n">
+        <v>167.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -7936,6 +8002,9 @@
       <c r="DD22" s="1" t="n">
         <v>186.8</v>
       </c>
+      <c r="DE22" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8262,6 +8331,9 @@
       <c r="DD23" s="1" t="n">
         <v>240.8</v>
       </c>
+      <c r="DE23" s="1" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8588,6 +8660,9 @@
       <c r="DD24" s="1" t="n">
         <v>161</v>
       </c>
+      <c r="DE24" s="3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8914,6 +8989,9 @@
       <c r="DD25" s="1" t="n">
         <v>175.5</v>
       </c>
+      <c r="DE25" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9240,6 +9318,9 @@
       <c r="DD26" s="3" t="n">
         <v>130.6</v>
       </c>
+      <c r="DE26" s="3" t="n">
+        <v>129.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9566,6 +9647,9 @@
       <c r="DD27" s="2" t="n">
         <v>122.2</v>
       </c>
+      <c r="DE27" s="2" t="n">
+        <v>110.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9892,6 +9976,9 @@
       <c r="DD28" s="2" t="n">
         <v>113.9</v>
       </c>
+      <c r="DE28" s="1" t="n">
+        <v>259.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10218,6 +10305,9 @@
       <c r="DD29" s="3" t="n">
         <v>129.5</v>
       </c>
+      <c r="DE29" s="1" t="n">
+        <v>157.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -10544,6 +10634,9 @@
       <c r="DD30" s="1" t="n">
         <v>236</v>
       </c>
+      <c r="DE30" s="1" t="n">
+        <v>205.6</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10870,6 +10963,9 @@
       <c r="DD31" s="2" t="n">
         <v>123.1</v>
       </c>
+      <c r="DE31" s="1" t="n">
+        <v>223</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -11196,6 +11292,9 @@
       <c r="DD32" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="DE32" s="1" t="n">
+        <v>189.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -11522,6 +11621,9 @@
       <c r="DD33" s="1" t="n">
         <v>189.5</v>
       </c>
+      <c r="DE33" s="2" t="n">
+        <v>119.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -11848,6 +11950,9 @@
       <c r="DD34" s="1" t="n">
         <v>220.5</v>
       </c>
+      <c r="DE34" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -12174,6 +12279,9 @@
       <c r="DD35" s="1" t="n">
         <v>182.8</v>
       </c>
+      <c r="DE35" s="2" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -12500,6 +12608,9 @@
       <c r="DD36" s="2" t="n">
         <v>107.6</v>
       </c>
+      <c r="DE36" s="1" t="n">
+        <v>174.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -12826,6 +12937,9 @@
       <c r="DD37" s="3" t="n">
         <v>132.4</v>
       </c>
+      <c r="DE37" s="1" t="n">
+        <v>198.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -13152,6 +13266,9 @@
       <c r="DD38" s="2" t="n">
         <v>124</v>
       </c>
+      <c r="DE38" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -13478,6 +13595,9 @@
       <c r="DD39" s="1" t="n">
         <v>155.7</v>
       </c>
+      <c r="DE39" s="1" t="n">
+        <v>164.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -13804,6 +13924,9 @@
       <c r="DD40" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="DE40" s="3" t="n">
+        <v>138.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -14130,6 +14253,9 @@
       <c r="DD41" s="1" t="n">
         <v>168.6</v>
       </c>
+      <c r="DE41" s="1" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -14450,6 +14576,7 @@
       <c r="DB42" s="1" t="n"/>
       <c r="DC42" s="1" t="n"/>
       <c r="DD42" s="1" t="n"/>
+      <c r="DE42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -14770,6 +14897,7 @@
       <c r="DB43" s="1" t="n"/>
       <c r="DC43" s="1" t="n"/>
       <c r="DD43" s="1" t="n"/>
+      <c r="DE43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -15096,6 +15224,9 @@
       <c r="DD44" s="1" t="n">
         <v>149.7</v>
       </c>
+      <c r="DE44" s="1" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -15422,6 +15553,9 @@
       <c r="DD45" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="DE45" s="1" t="n">
+        <v>156.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -15748,6 +15882,9 @@
       <c r="DD46" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="DE46" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -16074,6 +16211,9 @@
       <c r="DD47" s="3" t="n">
         <v>135.6</v>
       </c>
+      <c r="DE47" s="3" t="n">
+        <v>128.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -16400,6 +16540,9 @@
       <c r="DD48" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="DE48" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -16726,6 +16869,9 @@
       <c r="DD49" s="1" t="n">
         <v>186.2</v>
       </c>
+      <c r="DE49" s="1" t="n">
+        <v>362.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -17052,6 +17198,9 @@
       <c r="DD50" s="2" t="n">
         <v>118.7</v>
       </c>
+      <c r="DE50" s="2" t="n">
+        <v>121.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -17378,6 +17527,9 @@
       <c r="DD51" s="2" t="n">
         <v>108.8</v>
       </c>
+      <c r="DE51" s="1" t="n">
+        <v>277.3</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -17704,6 +17856,9 @@
       <c r="DD52" s="1" t="n">
         <v>177</v>
       </c>
+      <c r="DE52" s="1" t="n">
+        <v>241.3</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -18029,6 +18184,9 @@
       </c>
       <c r="DD53" s="1" t="n">
         <v>176.4</v>
+      </c>
+      <c r="DE53" s="3" t="n">
+        <v>132.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE53"/>
+  <dimension ref="A1:DF53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,7 @@
     <col width="12" customWidth="1" min="107" max="107"/>
     <col width="12" customWidth="1" min="108" max="108"/>
     <col width="12" customWidth="1" min="109" max="109"/>
+    <col width="12" customWidth="1" min="110" max="110"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1096,6 +1097,11 @@
           <t>2024/12/26</t>
         </is>
       </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/27</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1425,6 +1431,9 @@
       <c r="DE2" s="3" t="n">
         <v>133</v>
       </c>
+      <c r="DF2" s="2" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1754,6 +1763,9 @@
       <c r="DE3" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="DF3" s="1" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2083,6 +2095,9 @@
       <c r="DE4" s="1" t="n">
         <v>157.1</v>
       </c>
+      <c r="DF4" s="1" t="n">
+        <v>164.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2412,6 +2427,9 @@
       <c r="DE5" s="3" t="n">
         <v>139.2</v>
       </c>
+      <c r="DF5" s="1" t="n">
+        <v>151.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2741,6 +2759,9 @@
       <c r="DE6" s="1" t="n">
         <v>243.8</v>
       </c>
+      <c r="DF6" s="2" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3070,6 +3091,9 @@
       <c r="DE7" s="1" t="n">
         <v>169.7</v>
       </c>
+      <c r="DF7" s="2" t="n">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3399,6 +3423,9 @@
       <c r="DE8" s="1" t="n">
         <v>160.9</v>
       </c>
+      <c r="DF8" s="2" t="n">
+        <v>119.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3728,6 +3755,9 @@
       <c r="DE9" s="1" t="n">
         <v>193.5</v>
       </c>
+      <c r="DF9" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4057,6 +4087,9 @@
       <c r="DE10" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="DF10" s="3" t="n">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4386,6 +4419,9 @@
       <c r="DE11" s="1" t="n">
         <v>206.4</v>
       </c>
+      <c r="DF11" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4715,6 +4751,9 @@
       <c r="DE12" s="1" t="n">
         <v>193.7</v>
       </c>
+      <c r="DF12" s="3" t="n">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5044,6 +5083,9 @@
       <c r="DE13" s="1" t="n">
         <v>220.8</v>
       </c>
+      <c r="DF13" s="3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5373,6 +5415,9 @@
       <c r="DE14" s="3" t="n">
         <v>138.5</v>
       </c>
+      <c r="DF14" s="1" t="n">
+        <v>143.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5702,6 +5747,9 @@
       <c r="DE15" s="1" t="n">
         <v>378.5</v>
       </c>
+      <c r="DF15" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6031,6 +6079,9 @@
       <c r="DE16" s="1" t="n">
         <v>190.9</v>
       </c>
+      <c r="DF16" s="1" t="n">
+        <v>191.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6360,6 +6411,9 @@
       <c r="DE17" s="1" t="n">
         <v>270.4</v>
       </c>
+      <c r="DF17" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6689,6 +6743,9 @@
       <c r="DE18" s="1" t="n">
         <v>291.6</v>
       </c>
+      <c r="DF18" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7018,6 +7075,9 @@
       <c r="DE19" s="1" t="n">
         <v>171.2</v>
       </c>
+      <c r="DF19" s="1" t="n">
+        <v>175.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7347,6 +7407,9 @@
       <c r="DE20" s="1" t="n">
         <v>158.2</v>
       </c>
+      <c r="DF20" s="3" t="n">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7676,6 +7739,9 @@
       <c r="DE21" s="1" t="n">
         <v>167.3</v>
       </c>
+      <c r="DF21" s="1" t="n">
+        <v>170.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8005,6 +8071,9 @@
       <c r="DE22" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="DF22" s="1" t="n">
+        <v>154.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8334,6 +8403,9 @@
       <c r="DE23" s="1" t="n">
         <v>162</v>
       </c>
+      <c r="DF23" s="3" t="n">
+        <v>132.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8663,6 +8735,9 @@
       <c r="DE24" s="3" t="n">
         <v>137</v>
       </c>
+      <c r="DF24" s="2" t="n">
+        <v>117.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -8992,6 +9067,9 @@
       <c r="DE25" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="DF25" s="3" t="n">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9321,6 +9399,9 @@
       <c r="DE26" s="3" t="n">
         <v>129.3</v>
       </c>
+      <c r="DF26" s="1" t="n">
+        <v>157.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9650,6 +9731,9 @@
       <c r="DE27" s="2" t="n">
         <v>110.5</v>
       </c>
+      <c r="DF27" s="1" t="n">
+        <v>172.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -9979,6 +10063,9 @@
       <c r="DE28" s="1" t="n">
         <v>259.3</v>
       </c>
+      <c r="DF28" s="2" t="n">
+        <v>120.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10308,6 +10395,9 @@
       <c r="DE29" s="1" t="n">
         <v>157.4</v>
       </c>
+      <c r="DF29" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -10637,6 +10727,9 @@
       <c r="DE30" s="1" t="n">
         <v>205.6</v>
       </c>
+      <c r="DF30" s="3" t="n">
+        <v>131.3</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -10966,6 +11059,9 @@
       <c r="DE31" s="1" t="n">
         <v>223</v>
       </c>
+      <c r="DF31" s="1" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -11295,6 +11391,9 @@
       <c r="DE32" s="1" t="n">
         <v>189.4</v>
       </c>
+      <c r="DF32" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -11624,6 +11723,9 @@
       <c r="DE33" s="2" t="n">
         <v>119.2</v>
       </c>
+      <c r="DF33" s="1" t="n">
+        <v>190.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -11953,6 +12055,9 @@
       <c r="DE34" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="DF34" s="1" t="n">
+        <v>157.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -12282,6 +12387,9 @@
       <c r="DE35" s="2" t="n">
         <v>123.4</v>
       </c>
+      <c r="DF35" s="2" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -12611,6 +12719,9 @@
       <c r="DE36" s="1" t="n">
         <v>174.2</v>
       </c>
+      <c r="DF36" s="2" t="n">
+        <v>116.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -12940,6 +13051,9 @@
       <c r="DE37" s="1" t="n">
         <v>198.4</v>
       </c>
+      <c r="DF37" s="3" t="n">
+        <v>133.5</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -13269,6 +13383,9 @@
       <c r="DE38" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="DF38" s="1" t="n">
+        <v>158.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -13598,6 +13715,9 @@
       <c r="DE39" s="1" t="n">
         <v>164.6</v>
       </c>
+      <c r="DF39" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -13927,6 +14047,9 @@
       <c r="DE40" s="3" t="n">
         <v>138.1</v>
       </c>
+      <c r="DF40" s="1" t="n">
+        <v>168.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -14256,6 +14379,9 @@
       <c r="DE41" s="1" t="n">
         <v>152</v>
       </c>
+      <c r="DF41" s="1" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -14577,6 +14703,7 @@
       <c r="DC42" s="1" t="n"/>
       <c r="DD42" s="1" t="n"/>
       <c r="DE42" s="1" t="n"/>
+      <c r="DF42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -14898,6 +15025,7 @@
       <c r="DC43" s="1" t="n"/>
       <c r="DD43" s="1" t="n"/>
       <c r="DE43" s="1" t="n"/>
+      <c r="DF43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -15227,6 +15355,9 @@
       <c r="DE44" s="1" t="n">
         <v>188.2</v>
       </c>
+      <c r="DF44" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -15556,6 +15687,9 @@
       <c r="DE45" s="1" t="n">
         <v>156.9</v>
       </c>
+      <c r="DF45" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -15885,6 +16019,9 @@
       <c r="DE46" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="DF46" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -16214,6 +16351,9 @@
       <c r="DE47" s="3" t="n">
         <v>128.9</v>
       </c>
+      <c r="DF47" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -16543,6 +16683,9 @@
       <c r="DE48" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="DF48" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -16872,6 +17015,9 @@
       <c r="DE49" s="1" t="n">
         <v>362.3</v>
       </c>
+      <c r="DF49" s="1" t="n">
+        <v>159.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -17201,6 +17347,9 @@
       <c r="DE50" s="2" t="n">
         <v>121.7</v>
       </c>
+      <c r="DF50" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -17530,6 +17679,9 @@
       <c r="DE51" s="1" t="n">
         <v>277.3</v>
       </c>
+      <c r="DF51" s="1" t="n">
+        <v>164.2</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -17859,6 +18011,9 @@
       <c r="DE52" s="1" t="n">
         <v>241.3</v>
       </c>
+      <c r="DF52" s="2" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -18187,6 +18342,9 @@
       </c>
       <c r="DE53" s="3" t="n">
         <v>132.1</v>
+      </c>
+      <c r="DF53" s="3" t="n">
+        <v>133.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DF53"/>
+  <dimension ref="A1:DG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,7 @@
     <col width="12" customWidth="1" min="108" max="108"/>
     <col width="12" customWidth="1" min="109" max="109"/>
     <col width="12" customWidth="1" min="110" max="110"/>
+    <col width="12" customWidth="1" min="111" max="111"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1102,6 +1103,11 @@
           <t>2024/12/27</t>
         </is>
       </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/28</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1434,6 +1440,9 @@
       <c r="DF2" s="2" t="n">
         <v>124.5</v>
       </c>
+      <c r="DG2" s="1" t="n">
+        <v>158.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1766,6 +1775,9 @@
       <c r="DF3" s="1" t="n">
         <v>185.3</v>
       </c>
+      <c r="DG3" s="3" t="n">
+        <v>125.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2098,6 +2110,9 @@
       <c r="DF4" s="1" t="n">
         <v>164.2</v>
       </c>
+      <c r="DG4" s="3" t="n">
+        <v>127.7</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2430,6 +2445,9 @@
       <c r="DF5" s="1" t="n">
         <v>151.9</v>
       </c>
+      <c r="DG5" s="1" t="n">
+        <v>167.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2762,6 +2780,9 @@
       <c r="DF6" s="2" t="n">
         <v>120.5</v>
       </c>
+      <c r="DG6" s="1" t="n">
+        <v>206.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3094,6 +3115,9 @@
       <c r="DF7" s="2" t="n">
         <v>119.1</v>
       </c>
+      <c r="DG7" s="1" t="n">
+        <v>286.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3426,6 +3450,9 @@
       <c r="DF8" s="2" t="n">
         <v>119.8</v>
       </c>
+      <c r="DG8" s="1" t="n">
+        <v>193.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3758,6 +3785,9 @@
       <c r="DF9" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="DG9" s="1" t="n">
+        <v>221.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4090,6 +4120,9 @@
       <c r="DF10" s="3" t="n">
         <v>128.6</v>
       </c>
+      <c r="DG10" s="1" t="n">
+        <v>216.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4422,6 +4455,9 @@
       <c r="DF11" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="DG11" s="1" t="n">
+        <v>181.5</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4754,6 +4790,9 @@
       <c r="DF12" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="DG12" s="1" t="n">
+        <v>205.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5086,6 +5125,9 @@
       <c r="DF13" s="3" t="n">
         <v>126</v>
       </c>
+      <c r="DG13" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5418,6 +5460,9 @@
       <c r="DF14" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="DG14" s="1" t="n">
+        <v>182.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5750,6 +5795,9 @@
       <c r="DF15" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="DG15" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6082,6 +6130,9 @@
       <c r="DF16" s="1" t="n">
         <v>191.7</v>
       </c>
+      <c r="DG16" s="3" t="n">
+        <v>135.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6414,6 +6465,9 @@
       <c r="DF17" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="DG17" s="1" t="n">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6746,6 +6800,9 @@
       <c r="DF18" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="DG18" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7078,6 +7135,9 @@
       <c r="DF19" s="1" t="n">
         <v>175.8</v>
       </c>
+      <c r="DG19" s="1" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7410,6 +7470,9 @@
       <c r="DF20" s="3" t="n">
         <v>125.3</v>
       </c>
+      <c r="DG20" s="1" t="n">
+        <v>156.2</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7742,6 +7805,9 @@
       <c r="DF21" s="1" t="n">
         <v>170.2</v>
       </c>
+      <c r="DG21" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8074,6 +8140,9 @@
       <c r="DF22" s="1" t="n">
         <v>154.5</v>
       </c>
+      <c r="DG22" s="1" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8406,6 +8475,9 @@
       <c r="DF23" s="3" t="n">
         <v>132.8</v>
       </c>
+      <c r="DG23" s="3" t="n">
+        <v>125.4</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8738,6 +8810,9 @@
       <c r="DF24" s="2" t="n">
         <v>117.2</v>
       </c>
+      <c r="DG24" s="1" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9070,6 +9145,9 @@
       <c r="DF25" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="DG25" s="2" t="n">
+        <v>121.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9402,6 +9480,9 @@
       <c r="DF26" s="1" t="n">
         <v>157.5</v>
       </c>
+      <c r="DG26" s="1" t="n">
+        <v>207.9</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9734,6 +9815,9 @@
       <c r="DF27" s="1" t="n">
         <v>172.4</v>
       </c>
+      <c r="DG27" s="1" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10066,6 +10150,9 @@
       <c r="DF28" s="2" t="n">
         <v>120.8</v>
       </c>
+      <c r="DG28" s="1" t="n">
+        <v>162.2</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10398,6 +10485,9 @@
       <c r="DF29" s="1" t="n">
         <v>148.5</v>
       </c>
+      <c r="DG29" s="3" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -10730,6 +10820,9 @@
       <c r="DF30" s="3" t="n">
         <v>131.3</v>
       </c>
+      <c r="DG30" s="1" t="n">
+        <v>168.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -11062,6 +11155,9 @@
       <c r="DF31" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="DG31" s="1" t="n">
+        <v>415.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -11394,6 +11490,9 @@
       <c r="DF32" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="DG32" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -11726,6 +11825,9 @@
       <c r="DF33" s="1" t="n">
         <v>190.8</v>
       </c>
+      <c r="DG33" s="3" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -12058,6 +12160,9 @@
       <c r="DF34" s="1" t="n">
         <v>157.9</v>
       </c>
+      <c r="DG34" s="1" t="n">
+        <v>405.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -12390,6 +12495,9 @@
       <c r="DF35" s="2" t="n">
         <v>124.5</v>
       </c>
+      <c r="DG35" s="1" t="n">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -12722,6 +12830,9 @@
       <c r="DF36" s="2" t="n">
         <v>116.4</v>
       </c>
+      <c r="DG36" s="1" t="n">
+        <v>209.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -13054,6 +13165,9 @@
       <c r="DF37" s="3" t="n">
         <v>133.5</v>
       </c>
+      <c r="DG37" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -13386,6 +13500,9 @@
       <c r="DF38" s="1" t="n">
         <v>158.7</v>
       </c>
+      <c r="DG38" s="1" t="n">
+        <v>176.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -13718,6 +13835,9 @@
       <c r="DF39" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="DG39" s="1" t="n">
+        <v>154.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -14050,6 +14170,9 @@
       <c r="DF40" s="1" t="n">
         <v>168.2</v>
       </c>
+      <c r="DG40" s="2" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -14381,6 +14504,9 @@
       </c>
       <c r="DF41" s="1" t="n">
         <v>155.3</v>
+      </c>
+      <c r="DG41" s="1" t="n">
+        <v>206.3</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -14704,6 +14830,7 @@
       <c r="DD42" s="1" t="n"/>
       <c r="DE42" s="1" t="n"/>
       <c r="DF42" s="1" t="n"/>
+      <c r="DG42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -15026,6 +15153,7 @@
       <c r="DD43" s="1" t="n"/>
       <c r="DE43" s="1" t="n"/>
       <c r="DF43" s="1" t="n"/>
+      <c r="DG43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -15358,6 +15486,9 @@
       <c r="DF44" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="DG44" s="1" t="n">
+        <v>151.3</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -15690,6 +15821,9 @@
       <c r="DF45" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="DG45" s="1" t="n">
+        <v>154.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -16022,6 +16156,9 @@
       <c r="DF46" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="DG46" s="1" t="n">
+        <v>163.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -16354,6 +16491,9 @@
       <c r="DF47" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="DG47" s="1" t="n">
+        <v>153.6</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -16686,6 +16826,9 @@
       <c r="DF48" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="DG48" s="2" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -17018,6 +17161,9 @@
       <c r="DF49" s="1" t="n">
         <v>159.3</v>
       </c>
+      <c r="DG49" s="1" t="n">
+        <v>182.7</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -17350,6 +17496,9 @@
       <c r="DF50" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="DG50" s="1" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -17682,6 +17831,9 @@
       <c r="DF51" s="1" t="n">
         <v>164.2</v>
       </c>
+      <c r="DG51" s="2" t="n">
+        <v>114.7</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -18014,6 +18166,9 @@
       <c r="DF52" s="2" t="n">
         <v>115</v>
       </c>
+      <c r="DG52" s="3" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -18345,6 +18500,9 @@
       </c>
       <c r="DF53" s="3" t="n">
         <v>133.7</v>
+      </c>
+      <c r="DG53" s="1" t="n">
+        <v>146.3</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG53"/>
+  <dimension ref="A1:DH53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,7 @@
     <col width="12" customWidth="1" min="109" max="109"/>
     <col width="12" customWidth="1" min="110" max="110"/>
     <col width="12" customWidth="1" min="111" max="111"/>
+    <col width="12" customWidth="1" min="112" max="112"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1108,6 +1109,11 @@
           <t>2024/12/28</t>
         </is>
       </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/29</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1443,6 +1449,9 @@
       <c r="DG2" s="1" t="n">
         <v>158.1</v>
       </c>
+      <c r="DH2" s="1" t="n">
+        <v>173.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1778,6 +1787,9 @@
       <c r="DG3" s="3" t="n">
         <v>125.8</v>
       </c>
+      <c r="DH3" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2113,6 +2125,9 @@
       <c r="DG4" s="3" t="n">
         <v>127.7</v>
       </c>
+      <c r="DH4" s="1" t="n">
+        <v>230.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2448,6 +2463,9 @@
       <c r="DG5" s="1" t="n">
         <v>167.3</v>
       </c>
+      <c r="DH5" s="1" t="n">
+        <v>142.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2783,6 +2801,9 @@
       <c r="DG6" s="1" t="n">
         <v>206.3</v>
       </c>
+      <c r="DH6" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3118,6 +3139,9 @@
       <c r="DG7" s="1" t="n">
         <v>286.4</v>
       </c>
+      <c r="DH7" s="2" t="n">
+        <v>116.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3453,6 +3477,9 @@
       <c r="DG8" s="1" t="n">
         <v>193.2</v>
       </c>
+      <c r="DH8" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3788,6 +3815,9 @@
       <c r="DG9" s="1" t="n">
         <v>221.6</v>
       </c>
+      <c r="DH9" s="3" t="n">
+        <v>132.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4123,6 +4153,9 @@
       <c r="DG10" s="1" t="n">
         <v>216.1</v>
       </c>
+      <c r="DH10" s="1" t="n">
+        <v>178.7</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4458,6 +4491,9 @@
       <c r="DG11" s="1" t="n">
         <v>181.5</v>
       </c>
+      <c r="DH11" s="1" t="n">
+        <v>184.1</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4793,6 +4829,9 @@
       <c r="DG12" s="1" t="n">
         <v>205.5</v>
       </c>
+      <c r="DH12" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5128,6 +5167,9 @@
       <c r="DG13" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="DH13" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5463,6 +5505,9 @@
       <c r="DG14" s="1" t="n">
         <v>182.6</v>
       </c>
+      <c r="DH14" s="1" t="n">
+        <v>169.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5798,6 +5843,9 @@
       <c r="DG15" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="DH15" s="1" t="n">
+        <v>208.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6133,6 +6181,9 @@
       <c r="DG16" s="3" t="n">
         <v>135.4</v>
       </c>
+      <c r="DH16" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6468,6 +6519,9 @@
       <c r="DG17" s="1" t="n">
         <v>140.7</v>
       </c>
+      <c r="DH17" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6803,6 +6857,9 @@
       <c r="DG18" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="DH18" s="1" t="n">
+        <v>172.7</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7138,6 +7195,9 @@
       <c r="DG19" s="1" t="n">
         <v>156</v>
       </c>
+      <c r="DH19" s="1" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7473,6 +7533,9 @@
       <c r="DG20" s="1" t="n">
         <v>156.2</v>
       </c>
+      <c r="DH20" s="1" t="n">
+        <v>145.8</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7808,6 +7871,9 @@
       <c r="DG21" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="DH21" s="3" t="n">
+        <v>125.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8143,6 +8209,9 @@
       <c r="DG22" s="1" t="n">
         <v>188.6</v>
       </c>
+      <c r="DH22" s="3" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8478,6 +8547,9 @@
       <c r="DG23" s="3" t="n">
         <v>125.4</v>
       </c>
+      <c r="DH23" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8813,6 +8885,9 @@
       <c r="DG24" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="DH24" s="1" t="n">
+        <v>155.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9148,6 +9223,9 @@
       <c r="DG25" s="2" t="n">
         <v>121.3</v>
       </c>
+      <c r="DH25" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9483,6 +9561,9 @@
       <c r="DG26" s="1" t="n">
         <v>207.9</v>
       </c>
+      <c r="DH26" s="1" t="n">
+        <v>181.8</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9818,6 +9899,9 @@
       <c r="DG27" s="1" t="n">
         <v>188.8</v>
       </c>
+      <c r="DH27" s="1" t="n">
+        <v>213.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10153,6 +10237,9 @@
       <c r="DG28" s="1" t="n">
         <v>162.2</v>
       </c>
+      <c r="DH28" s="1" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10488,6 +10575,9 @@
       <c r="DG29" s="3" t="n">
         <v>128</v>
       </c>
+      <c r="DH29" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -10823,6 +10913,9 @@
       <c r="DG30" s="1" t="n">
         <v>168.8</v>
       </c>
+      <c r="DH30" s="1" t="n">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -11158,6 +11251,9 @@
       <c r="DG31" s="1" t="n">
         <v>415.5</v>
       </c>
+      <c r="DH31" s="1" t="n">
+        <v>154.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -11493,6 +11589,9 @@
       <c r="DG32" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="DH32" s="1" t="n">
+        <v>143.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -11828,6 +11927,9 @@
       <c r="DG33" s="3" t="n">
         <v>128</v>
       </c>
+      <c r="DH33" s="1" t="n">
+        <v>184.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -12163,6 +12265,9 @@
       <c r="DG34" s="1" t="n">
         <v>405.8</v>
       </c>
+      <c r="DH34" s="3" t="n">
+        <v>136.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -12498,6 +12603,9 @@
       <c r="DG35" s="1" t="n">
         <v>152.4</v>
       </c>
+      <c r="DH35" s="3" t="n">
+        <v>139.6</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -12833,6 +12941,9 @@
       <c r="DG36" s="1" t="n">
         <v>209.8</v>
       </c>
+      <c r="DH36" s="1" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -13168,6 +13279,9 @@
       <c r="DG37" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="DH37" s="3" t="n">
+        <v>134.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -13503,6 +13617,9 @@
       <c r="DG38" s="1" t="n">
         <v>176.2</v>
       </c>
+      <c r="DH38" s="1" t="n">
+        <v>172.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -13838,6 +13955,9 @@
       <c r="DG39" s="1" t="n">
         <v>154.1</v>
       </c>
+      <c r="DH39" s="1" t="n">
+        <v>177.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -14173,6 +14293,9 @@
       <c r="DG40" s="2" t="n">
         <v>121.1</v>
       </c>
+      <c r="DH40" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -14507,6 +14630,9 @@
       </c>
       <c r="DG41" s="1" t="n">
         <v>206.3</v>
+      </c>
+      <c r="DH41" s="1" t="n">
+        <v>146.4</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -14831,6 +14957,7 @@
       <c r="DE42" s="1" t="n"/>
       <c r="DF42" s="1" t="n"/>
       <c r="DG42" s="1" t="n"/>
+      <c r="DH42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -15154,6 +15281,7 @@
       <c r="DE43" s="1" t="n"/>
       <c r="DF43" s="1" t="n"/>
       <c r="DG43" s="1" t="n"/>
+      <c r="DH43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -15489,6 +15617,9 @@
       <c r="DG44" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="DH44" s="1" t="n">
+        <v>156.3</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -15824,6 +15955,9 @@
       <c r="DG45" s="1" t="n">
         <v>154.1</v>
       </c>
+      <c r="DH45" s="2" t="n">
+        <v>118.3</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -16159,6 +16293,9 @@
       <c r="DG46" s="1" t="n">
         <v>163.5</v>
       </c>
+      <c r="DH46" s="1" t="n">
+        <v>163.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -16494,6 +16631,9 @@
       <c r="DG47" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="DH47" s="3" t="n">
+        <v>137.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -16829,6 +16969,9 @@
       <c r="DG48" s="2" t="n">
         <v>124.5</v>
       </c>
+      <c r="DH48" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -17164,6 +17307,9 @@
       <c r="DG49" s="1" t="n">
         <v>182.7</v>
       </c>
+      <c r="DH49" s="1" t="n">
+        <v>273.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -17499,6 +17645,9 @@
       <c r="DG50" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="DH50" s="1" t="n">
+        <v>207.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -17834,6 +17983,9 @@
       <c r="DG51" s="2" t="n">
         <v>114.7</v>
       </c>
+      <c r="DH51" s="1" t="n">
+        <v>159.4</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -18169,6 +18321,9 @@
       <c r="DG52" s="3" t="n">
         <v>139</v>
       </c>
+      <c r="DH52" s="1" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -18503,6 +18658,9 @@
       </c>
       <c r="DG53" s="1" t="n">
         <v>146.3</v>
+      </c>
+      <c r="DH53" s="1" t="n">
+        <v>157.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DH53"/>
+  <dimension ref="A1:DI53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,7 @@
     <col width="12" customWidth="1" min="110" max="110"/>
     <col width="12" customWidth="1" min="111" max="111"/>
     <col width="12" customWidth="1" min="112" max="112"/>
+    <col width="12" customWidth="1" min="113" max="113"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1114,6 +1115,11 @@
           <t>2024/12/29</t>
         </is>
       </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/30</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1452,6 +1458,9 @@
       <c r="DH2" s="1" t="n">
         <v>173.6</v>
       </c>
+      <c r="DI2" s="1" t="n">
+        <v>168.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1790,6 +1799,9 @@
       <c r="DH3" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="DI3" s="1" t="n">
+        <v>162.7</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2128,6 +2140,9 @@
       <c r="DH4" s="1" t="n">
         <v>230.8</v>
       </c>
+      <c r="DI4" s="1" t="n">
+        <v>184.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2466,6 +2481,9 @@
       <c r="DH5" s="1" t="n">
         <v>142.4</v>
       </c>
+      <c r="DI5" s="3" t="n">
+        <v>130.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2804,6 +2822,9 @@
       <c r="DH6" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="DI6" s="1" t="n">
+        <v>217.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3142,6 +3163,9 @@
       <c r="DH7" s="2" t="n">
         <v>116.6</v>
       </c>
+      <c r="DI7" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3480,6 +3504,9 @@
       <c r="DH8" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="DI8" s="1" t="n">
+        <v>184.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3818,6 +3845,9 @@
       <c r="DH9" s="3" t="n">
         <v>132.6</v>
       </c>
+      <c r="DI9" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4156,6 +4186,9 @@
       <c r="DH10" s="1" t="n">
         <v>178.7</v>
       </c>
+      <c r="DI10" s="1" t="n">
+        <v>161.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4494,6 +4527,9 @@
       <c r="DH11" s="1" t="n">
         <v>184.1</v>
       </c>
+      <c r="DI11" s="1" t="n">
+        <v>150.5</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4832,6 +4868,9 @@
       <c r="DH12" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="DI12" s="1" t="n">
+        <v>182.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5170,6 +5209,9 @@
       <c r="DH13" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="DI13" s="1" t="n">
+        <v>141.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5508,6 +5550,9 @@
       <c r="DH14" s="1" t="n">
         <v>169.6</v>
       </c>
+      <c r="DI14" s="1" t="n">
+        <v>146.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5846,6 +5891,9 @@
       <c r="DH15" s="1" t="n">
         <v>208.4</v>
       </c>
+      <c r="DI15" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6184,6 +6232,9 @@
       <c r="DH16" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="DI16" s="1" t="n">
+        <v>228.2</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6522,6 +6573,9 @@
       <c r="DH17" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="DI17" s="1" t="n">
+        <v>166.2</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6860,6 +6914,9 @@
       <c r="DH18" s="1" t="n">
         <v>172.7</v>
       </c>
+      <c r="DI18" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7198,6 +7255,9 @@
       <c r="DH19" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="DI19" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7536,6 +7596,9 @@
       <c r="DH20" s="1" t="n">
         <v>145.8</v>
       </c>
+      <c r="DI20" s="1" t="n">
+        <v>143.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7874,6 +7937,9 @@
       <c r="DH21" s="3" t="n">
         <v>125.4</v>
       </c>
+      <c r="DI21" s="1" t="n">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8212,6 +8278,9 @@
       <c r="DH22" s="3" t="n">
         <v>126.4</v>
       </c>
+      <c r="DI22" s="1" t="n">
+        <v>165.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8550,6 +8619,9 @@
       <c r="DH23" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="DI23" s="2" t="n">
+        <v>124.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8888,6 +8960,9 @@
       <c r="DH24" s="1" t="n">
         <v>155.7</v>
       </c>
+      <c r="DI24" s="3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9226,6 +9301,9 @@
       <c r="DH25" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="DI25" s="2" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9564,6 +9642,9 @@
       <c r="DH26" s="1" t="n">
         <v>181.8</v>
       </c>
+      <c r="DI26" s="1" t="n">
+        <v>168.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9902,6 +9983,9 @@
       <c r="DH27" s="1" t="n">
         <v>213.4</v>
       </c>
+      <c r="DI27" s="1" t="n">
+        <v>159.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10240,6 +10324,9 @@
       <c r="DH28" s="1" t="n">
         <v>181</v>
       </c>
+      <c r="DI28" s="1" t="n">
+        <v>294.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10578,6 +10665,9 @@
       <c r="DH29" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="DI29" s="2" t="n">
+        <v>116.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -10916,6 +11006,9 @@
       <c r="DH30" s="1" t="n">
         <v>140.7</v>
       </c>
+      <c r="DI30" s="1" t="n">
+        <v>181.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -11254,6 +11347,9 @@
       <c r="DH31" s="1" t="n">
         <v>154.9</v>
       </c>
+      <c r="DI31" s="1" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -11592,6 +11688,9 @@
       <c r="DH32" s="1" t="n">
         <v>143.9</v>
       </c>
+      <c r="DI32" s="2" t="n">
+        <v>98.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -11930,6 +12029,9 @@
       <c r="DH33" s="1" t="n">
         <v>184.5</v>
       </c>
+      <c r="DI33" s="1" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -12268,6 +12370,9 @@
       <c r="DH34" s="3" t="n">
         <v>136.5</v>
       </c>
+      <c r="DI34" s="1" t="n">
+        <v>182.6</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -12606,6 +12711,9 @@
       <c r="DH35" s="3" t="n">
         <v>139.6</v>
       </c>
+      <c r="DI35" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -12944,6 +13052,9 @@
       <c r="DH36" s="1" t="n">
         <v>143</v>
       </c>
+      <c r="DI36" s="1" t="n">
+        <v>167.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -13282,6 +13393,9 @@
       <c r="DH37" s="3" t="n">
         <v>134.1</v>
       </c>
+      <c r="DI37" s="1" t="n">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -13620,6 +13734,9 @@
       <c r="DH38" s="1" t="n">
         <v>172.6</v>
       </c>
+      <c r="DI38" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -13958,6 +14075,9 @@
       <c r="DH39" s="1" t="n">
         <v>177.3</v>
       </c>
+      <c r="DI39" s="1" t="n">
+        <v>185.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -14296,6 +14416,9 @@
       <c r="DH40" s="1" t="n">
         <v>158.9</v>
       </c>
+      <c r="DI40" s="3" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -14633,6 +14756,9 @@
       </c>
       <c r="DH41" s="1" t="n">
         <v>146.4</v>
+      </c>
+      <c r="DI41" s="1" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -14958,6 +15084,7 @@
       <c r="DF42" s="1" t="n"/>
       <c r="DG42" s="1" t="n"/>
       <c r="DH42" s="1" t="n"/>
+      <c r="DI42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -15282,6 +15409,7 @@
       <c r="DF43" s="1" t="n"/>
       <c r="DG43" s="1" t="n"/>
       <c r="DH43" s="1" t="n"/>
+      <c r="DI43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -15620,6 +15748,9 @@
       <c r="DH44" s="1" t="n">
         <v>156.3</v>
       </c>
+      <c r="DI44" s="1" t="n">
+        <v>172.3</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -15958,6 +16089,9 @@
       <c r="DH45" s="2" t="n">
         <v>118.3</v>
       </c>
+      <c r="DI45" s="2" t="n">
+        <v>116.3</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -16296,6 +16430,9 @@
       <c r="DH46" s="1" t="n">
         <v>163.2</v>
       </c>
+      <c r="DI46" s="1" t="n">
+        <v>161.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -16634,6 +16771,9 @@
       <c r="DH47" s="3" t="n">
         <v>137.2</v>
       </c>
+      <c r="DI47" s="1" t="n">
+        <v>142.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -16972,6 +17112,9 @@
       <c r="DH48" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="DI48" s="3" t="n">
+        <v>131.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -17310,6 +17453,9 @@
       <c r="DH49" s="1" t="n">
         <v>273.4</v>
       </c>
+      <c r="DI49" s="2" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -17648,6 +17794,9 @@
       <c r="DH50" s="1" t="n">
         <v>207.8</v>
       </c>
+      <c r="DI50" s="1" t="n">
+        <v>218.6</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -17986,6 +18135,9 @@
       <c r="DH51" s="1" t="n">
         <v>159.4</v>
       </c>
+      <c r="DI51" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -18324,6 +18476,9 @@
       <c r="DH52" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="DI52" s="3" t="n">
+        <v>127.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -18661,6 +18816,9 @@
       </c>
       <c r="DH53" s="1" t="n">
         <v>157.8</v>
+      </c>
+      <c r="DI53" s="3" t="n">
+        <v>139.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DI53"/>
+  <dimension ref="A1:DJ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,7 @@
     <col width="12" customWidth="1" min="111" max="111"/>
     <col width="12" customWidth="1" min="112" max="112"/>
     <col width="12" customWidth="1" min="113" max="113"/>
+    <col width="12" customWidth="1" min="114" max="114"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1120,6 +1121,11 @@
           <t>2024/12/30</t>
         </is>
       </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2024/12/31</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1461,6 +1467,9 @@
       <c r="DI2" s="1" t="n">
         <v>168.3</v>
       </c>
+      <c r="DJ2" s="3" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1802,6 +1811,9 @@
       <c r="DI3" s="1" t="n">
         <v>162.7</v>
       </c>
+      <c r="DJ3" s="1" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2143,6 +2155,9 @@
       <c r="DI4" s="1" t="n">
         <v>184.8</v>
       </c>
+      <c r="DJ4" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2484,6 +2499,9 @@
       <c r="DI5" s="3" t="n">
         <v>130.2</v>
       </c>
+      <c r="DJ5" s="1" t="n">
+        <v>190.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2825,6 +2843,9 @@
       <c r="DI6" s="1" t="n">
         <v>217.7</v>
       </c>
+      <c r="DJ6" s="1" t="n">
+        <v>197.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3166,6 +3187,9 @@
       <c r="DI7" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="DJ7" s="2" t="n">
+        <v>113.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3507,6 +3531,9 @@
       <c r="DI8" s="1" t="n">
         <v>184.1</v>
       </c>
+      <c r="DJ8" s="1" t="n">
+        <v>148.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3848,6 +3875,9 @@
       <c r="DI9" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="DJ9" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4189,6 +4219,9 @@
       <c r="DI10" s="1" t="n">
         <v>161.1</v>
       </c>
+      <c r="DJ10" s="1" t="n">
+        <v>254.5</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4530,6 +4563,9 @@
       <c r="DI11" s="1" t="n">
         <v>150.5</v>
       </c>
+      <c r="DJ11" s="3" t="n">
+        <v>136.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4871,6 +4907,9 @@
       <c r="DI12" s="1" t="n">
         <v>182.6</v>
       </c>
+      <c r="DJ12" s="1" t="n">
+        <v>182.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5212,6 +5251,9 @@
       <c r="DI13" s="1" t="n">
         <v>141.5</v>
       </c>
+      <c r="DJ13" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5553,6 +5595,9 @@
       <c r="DI14" s="1" t="n">
         <v>146.2</v>
       </c>
+      <c r="DJ14" s="1" t="n">
+        <v>254.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5894,6 +5939,9 @@
       <c r="DI15" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="DJ15" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6235,6 +6283,9 @@
       <c r="DI16" s="1" t="n">
         <v>228.2</v>
       </c>
+      <c r="DJ16" s="3" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6576,6 +6627,9 @@
       <c r="DI17" s="1" t="n">
         <v>166.2</v>
       </c>
+      <c r="DJ17" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6917,6 +6971,9 @@
       <c r="DI18" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="DJ18" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7258,6 +7315,9 @@
       <c r="DI19" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="DJ19" s="1" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7599,6 +7659,9 @@
       <c r="DI20" s="1" t="n">
         <v>143.4</v>
       </c>
+      <c r="DJ20" s="1" t="n">
+        <v>199.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -7940,6 +8003,9 @@
       <c r="DI21" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="DJ21" s="1" t="n">
+        <v>175.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8281,6 +8347,9 @@
       <c r="DI22" s="1" t="n">
         <v>165.5</v>
       </c>
+      <c r="DJ22" s="1" t="n">
+        <v>166.6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8622,6 +8691,9 @@
       <c r="DI23" s="2" t="n">
         <v>124.8</v>
       </c>
+      <c r="DJ23" s="1" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -8963,6 +9035,9 @@
       <c r="DI24" s="3" t="n">
         <v>126</v>
       </c>
+      <c r="DJ24" s="1" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9304,6 +9379,9 @@
       <c r="DI25" s="2" t="n">
         <v>123</v>
       </c>
+      <c r="DJ25" s="3" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9645,6 +9723,9 @@
       <c r="DI26" s="1" t="n">
         <v>168.4</v>
       </c>
+      <c r="DJ26" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -9986,6 +10067,9 @@
       <c r="DI27" s="1" t="n">
         <v>159.4</v>
       </c>
+      <c r="DJ27" s="3" t="n">
+        <v>129.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10327,6 +10411,9 @@
       <c r="DI28" s="1" t="n">
         <v>294.8</v>
       </c>
+      <c r="DJ28" s="1" t="n">
+        <v>170.5</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10668,6 +10755,9 @@
       <c r="DI29" s="2" t="n">
         <v>116.9</v>
       </c>
+      <c r="DJ29" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11009,6 +11099,9 @@
       <c r="DI30" s="1" t="n">
         <v>181.1</v>
       </c>
+      <c r="DJ30" s="3" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -11350,6 +11443,9 @@
       <c r="DI31" s="1" t="n">
         <v>168.5</v>
       </c>
+      <c r="DJ31" s="1" t="n">
+        <v>161.8</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -11691,6 +11787,9 @@
       <c r="DI32" s="2" t="n">
         <v>98.2</v>
       </c>
+      <c r="DJ32" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -12032,6 +12131,9 @@
       <c r="DI33" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="DJ33" s="1" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -12373,6 +12475,9 @@
       <c r="DI34" s="1" t="n">
         <v>182.6</v>
       </c>
+      <c r="DJ34" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -12714,6 +12819,9 @@
       <c r="DI35" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="DJ35" s="2" t="n">
+        <v>111.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -13055,6 +13163,9 @@
       <c r="DI36" s="1" t="n">
         <v>167.4</v>
       </c>
+      <c r="DJ36" s="1" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -13396,6 +13507,9 @@
       <c r="DI37" s="1" t="n">
         <v>142.1</v>
       </c>
+      <c r="DJ37" s="1" t="n">
+        <v>160.6</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -13737,6 +13851,9 @@
       <c r="DI38" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="DJ38" s="1" t="n">
+        <v>160.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -14078,6 +14195,9 @@
       <c r="DI39" s="1" t="n">
         <v>185.1</v>
       </c>
+      <c r="DJ39" s="1" t="n">
+        <v>195.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -14419,6 +14539,9 @@
       <c r="DI40" s="3" t="n">
         <v>127.8</v>
       </c>
+      <c r="DJ40" s="1" t="n">
+        <v>159.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -14759,6 +14882,9 @@
       </c>
       <c r="DI41" s="1" t="n">
         <v>179</v>
+      </c>
+      <c r="DJ41" s="1" t="n">
+        <v>164.9</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -15085,6 +15211,7 @@
       <c r="DG42" s="1" t="n"/>
       <c r="DH42" s="1" t="n"/>
       <c r="DI42" s="1" t="n"/>
+      <c r="DJ42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -15410,6 +15537,7 @@
       <c r="DG43" s="1" t="n"/>
       <c r="DH43" s="1" t="n"/>
       <c r="DI43" s="1" t="n"/>
+      <c r="DJ43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -15751,6 +15879,9 @@
       <c r="DI44" s="1" t="n">
         <v>172.3</v>
       </c>
+      <c r="DJ44" s="1" t="n">
+        <v>159.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -16092,6 +16223,9 @@
       <c r="DI45" s="2" t="n">
         <v>116.3</v>
       </c>
+      <c r="DJ45" s="1" t="n">
+        <v>196.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -16433,6 +16567,9 @@
       <c r="DI46" s="1" t="n">
         <v>161.5</v>
       </c>
+      <c r="DJ46" s="3" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -16774,6 +16911,9 @@
       <c r="DI47" s="1" t="n">
         <v>142.2</v>
       </c>
+      <c r="DJ47" s="1" t="n">
+        <v>162.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -17115,6 +17255,9 @@
       <c r="DI48" s="3" t="n">
         <v>131.9</v>
       </c>
+      <c r="DJ48" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -17456,6 +17599,9 @@
       <c r="DI49" s="2" t="n">
         <v>121.1</v>
       </c>
+      <c r="DJ49" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -17797,6 +17943,9 @@
       <c r="DI50" s="1" t="n">
         <v>218.6</v>
       </c>
+      <c r="DJ50" s="1" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -18138,6 +18287,9 @@
       <c r="DI51" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="DJ51" s="1" t="n">
+        <v>147.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -18479,6 +18631,9 @@
       <c r="DI52" s="3" t="n">
         <v>127.7</v>
       </c>
+      <c r="DJ52" s="3" t="n">
+        <v>126.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -18819,6 +18974,9 @@
       </c>
       <c r="DI53" s="3" t="n">
         <v>139.4</v>
+      </c>
+      <c r="DJ53" s="1" t="n">
+        <v>193.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DJ53"/>
+  <dimension ref="A1:DK53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,6 +553,7 @@
     <col width="12" customWidth="1" min="112" max="112"/>
     <col width="12" customWidth="1" min="113" max="113"/>
     <col width="12" customWidth="1" min="114" max="114"/>
+    <col width="12" customWidth="1" min="115" max="115"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1126,6 +1127,11 @@
           <t>2024/12/31</t>
         </is>
       </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/01</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1470,6 +1476,9 @@
       <c r="DJ2" s="3" t="n">
         <v>137.9</v>
       </c>
+      <c r="DK2" s="1" t="n">
+        <v>192.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1814,6 +1823,9 @@
       <c r="DJ3" s="1" t="n">
         <v>161.4</v>
       </c>
+      <c r="DK3" s="1" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2158,6 +2170,9 @@
       <c r="DJ4" s="1" t="n">
         <v>158.9</v>
       </c>
+      <c r="DK4" s="1" t="n">
+        <v>141.4</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2502,6 +2517,9 @@
       <c r="DJ5" s="1" t="n">
         <v>190.8</v>
       </c>
+      <c r="DK5" s="1" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2846,6 +2864,9 @@
       <c r="DJ6" s="1" t="n">
         <v>197.3</v>
       </c>
+      <c r="DK6" s="1" t="n">
+        <v>189.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3190,6 +3211,9 @@
       <c r="DJ7" s="2" t="n">
         <v>113.9</v>
       </c>
+      <c r="DK7" s="1" t="n">
+        <v>168.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3534,6 +3558,9 @@
       <c r="DJ8" s="1" t="n">
         <v>148.9</v>
       </c>
+      <c r="DK8" s="1" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3878,6 +3905,9 @@
       <c r="DJ9" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="DK9" s="1" t="n">
+        <v>166.4</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4222,6 +4252,9 @@
       <c r="DJ10" s="1" t="n">
         <v>254.5</v>
       </c>
+      <c r="DK10" s="1" t="n">
+        <v>183.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4566,6 +4599,9 @@
       <c r="DJ11" s="3" t="n">
         <v>136.3</v>
       </c>
+      <c r="DK11" s="1" t="n">
+        <v>171.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4910,6 +4946,9 @@
       <c r="DJ12" s="1" t="n">
         <v>182.1</v>
       </c>
+      <c r="DK12" s="3" t="n">
+        <v>135.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5254,6 +5293,9 @@
       <c r="DJ13" s="3" t="n">
         <v>129</v>
       </c>
+      <c r="DK13" s="1" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5598,6 +5640,9 @@
       <c r="DJ14" s="1" t="n">
         <v>254.2</v>
       </c>
+      <c r="DK14" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5942,6 +5987,9 @@
       <c r="DJ15" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="DK15" s="1" t="n">
+        <v>158.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6286,6 +6334,9 @@
       <c r="DJ16" s="3" t="n">
         <v>133</v>
       </c>
+      <c r="DK16" s="1" t="n">
+        <v>160.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6630,6 +6681,9 @@
       <c r="DJ17" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="DK17" s="1" t="n">
+        <v>173.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -6974,6 +7028,9 @@
       <c r="DJ18" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="DK18" s="1" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7318,6 +7375,9 @@
       <c r="DJ19" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="DK19" s="1" t="n">
+        <v>207.1</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7662,6 +7722,9 @@
       <c r="DJ20" s="1" t="n">
         <v>199.6</v>
       </c>
+      <c r="DK20" s="1" t="n">
+        <v>192.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8006,6 +8069,9 @@
       <c r="DJ21" s="1" t="n">
         <v>175.2</v>
       </c>
+      <c r="DK21" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8350,6 +8416,9 @@
       <c r="DJ22" s="1" t="n">
         <v>166.6</v>
       </c>
+      <c r="DK22" s="1" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8694,6 +8763,9 @@
       <c r="DJ23" s="1" t="n">
         <v>155.3</v>
       </c>
+      <c r="DK23" s="2" t="n">
+        <v>114.4</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9038,6 +9110,9 @@
       <c r="DJ24" s="1" t="n">
         <v>171</v>
       </c>
+      <c r="DK24" s="1" t="n">
+        <v>156.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9382,6 +9457,9 @@
       <c r="DJ25" s="3" t="n">
         <v>135</v>
       </c>
+      <c r="DK25" s="1" t="n">
+        <v>172.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9726,6 +9804,9 @@
       <c r="DJ26" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="DK26" s="2" t="n">
+        <v>115.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10070,6 +10151,9 @@
       <c r="DJ27" s="3" t="n">
         <v>129.2</v>
       </c>
+      <c r="DK27" s="2" t="n">
+        <v>124.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10414,6 +10498,9 @@
       <c r="DJ28" s="1" t="n">
         <v>170.5</v>
       </c>
+      <c r="DK28" s="1" t="n">
+        <v>184.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10758,6 +10845,9 @@
       <c r="DJ29" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="DK29" s="1" t="n">
+        <v>202.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11102,6 +11192,9 @@
       <c r="DJ30" s="3" t="n">
         <v>129.8</v>
       </c>
+      <c r="DK30" s="1" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -11446,6 +11539,9 @@
       <c r="DJ31" s="1" t="n">
         <v>161.8</v>
       </c>
+      <c r="DK31" s="3" t="n">
+        <v>125.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -11790,6 +11886,9 @@
       <c r="DJ32" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="DK32" s="1" t="n">
+        <v>173.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -12134,6 +12233,9 @@
       <c r="DJ33" s="1" t="n">
         <v>153.9</v>
       </c>
+      <c r="DK33" s="3" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -12478,6 +12580,9 @@
       <c r="DJ34" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="DK34" s="1" t="n">
+        <v>225.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -12822,6 +12927,9 @@
       <c r="DJ35" s="2" t="n">
         <v>111.1</v>
       </c>
+      <c r="DK35" s="1" t="n">
+        <v>178.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -13166,6 +13274,9 @@
       <c r="DJ36" s="1" t="n">
         <v>188.1</v>
       </c>
+      <c r="DK36" s="1" t="n">
+        <v>174.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -13510,6 +13621,9 @@
       <c r="DJ37" s="1" t="n">
         <v>160.6</v>
       </c>
+      <c r="DK37" s="1" t="n">
+        <v>176.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -13854,6 +13968,9 @@
       <c r="DJ38" s="1" t="n">
         <v>160.2</v>
       </c>
+      <c r="DK38" s="1" t="n">
+        <v>228.4</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -14198,6 +14315,9 @@
       <c r="DJ39" s="1" t="n">
         <v>195.1</v>
       </c>
+      <c r="DK39" s="1" t="n">
+        <v>143.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -14542,6 +14662,9 @@
       <c r="DJ40" s="1" t="n">
         <v>159.7</v>
       </c>
+      <c r="DK40" s="1" t="n">
+        <v>186.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -14885,6 +15008,9 @@
       </c>
       <c r="DJ41" s="1" t="n">
         <v>164.9</v>
+      </c>
+      <c r="DK41" s="1" t="n">
+        <v>143.7</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -15212,6 +15338,7 @@
       <c r="DH42" s="1" t="n"/>
       <c r="DI42" s="1" t="n"/>
       <c r="DJ42" s="1" t="n"/>
+      <c r="DK42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -15538,6 +15665,7 @@
       <c r="DH43" s="1" t="n"/>
       <c r="DI43" s="1" t="n"/>
       <c r="DJ43" s="1" t="n"/>
+      <c r="DK43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -15882,6 +16010,9 @@
       <c r="DJ44" s="1" t="n">
         <v>159.6</v>
       </c>
+      <c r="DK44" s="1" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -16226,6 +16357,9 @@
       <c r="DJ45" s="1" t="n">
         <v>196.7</v>
       </c>
+      <c r="DK45" s="2" t="n">
+        <v>109.3</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -16570,6 +16704,9 @@
       <c r="DJ46" s="3" t="n">
         <v>132.2</v>
       </c>
+      <c r="DK46" s="1" t="n">
+        <v>168.9</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -16914,6 +17051,9 @@
       <c r="DJ47" s="1" t="n">
         <v>162.9</v>
       </c>
+      <c r="DK47" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -17258,6 +17398,9 @@
       <c r="DJ48" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="DK48" s="1" t="n">
+        <v>158.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -17602,6 +17745,9 @@
       <c r="DJ49" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="DK49" s="1" t="n">
+        <v>296.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -17946,6 +18092,9 @@
       <c r="DJ50" s="1" t="n">
         <v>167</v>
       </c>
+      <c r="DK50" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -18290,6 +18439,9 @@
       <c r="DJ51" s="1" t="n">
         <v>147.1</v>
       </c>
+      <c r="DK51" s="1" t="n">
+        <v>219.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -18634,6 +18786,9 @@
       <c r="DJ52" s="3" t="n">
         <v>126.7</v>
       </c>
+      <c r="DK52" s="1" t="n">
+        <v>191.9</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -18977,6 +19132,9 @@
       </c>
       <c r="DJ53" s="1" t="n">
         <v>193.2</v>
+      </c>
+      <c r="DK53" s="1" t="n">
+        <v>141.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DK53"/>
+  <dimension ref="A1:DL53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,7 @@
     <col width="12" customWidth="1" min="113" max="113"/>
     <col width="12" customWidth="1" min="114" max="114"/>
     <col width="12" customWidth="1" min="115" max="115"/>
+    <col width="12" customWidth="1" min="116" max="116"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1132,6 +1133,11 @@
           <t>2025/01/01</t>
         </is>
       </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/02</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1479,6 +1485,9 @@
       <c r="DK2" s="1" t="n">
         <v>192.1</v>
       </c>
+      <c r="DL2" s="1" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1826,6 +1835,9 @@
       <c r="DK3" s="1" t="n">
         <v>153.9</v>
       </c>
+      <c r="DL3" s="1" t="n">
+        <v>234.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2173,6 +2185,9 @@
       <c r="DK4" s="1" t="n">
         <v>141.4</v>
       </c>
+      <c r="DL4" s="1" t="n">
+        <v>150.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2520,6 +2535,9 @@
       <c r="DK5" s="1" t="n">
         <v>149.1</v>
       </c>
+      <c r="DL5" s="2" t="n">
+        <v>111.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2867,6 +2885,9 @@
       <c r="DK6" s="1" t="n">
         <v>189.9</v>
       </c>
+      <c r="DL6" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3214,6 +3235,9 @@
       <c r="DK7" s="1" t="n">
         <v>168.9</v>
       </c>
+      <c r="DL7" s="2" t="n">
+        <v>124.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3561,6 +3585,9 @@
       <c r="DK8" s="1" t="n">
         <v>169</v>
       </c>
+      <c r="DL8" s="1" t="n">
+        <v>158.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3908,6 +3935,9 @@
       <c r="DK9" s="1" t="n">
         <v>166.4</v>
       </c>
+      <c r="DL9" s="1" t="n">
+        <v>153.5</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4255,6 +4285,9 @@
       <c r="DK10" s="1" t="n">
         <v>183.3</v>
       </c>
+      <c r="DL10" s="1" t="n">
+        <v>163.9</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4602,6 +4635,9 @@
       <c r="DK11" s="1" t="n">
         <v>171.8</v>
       </c>
+      <c r="DL11" s="1" t="n">
+        <v>201.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4949,6 +4985,9 @@
       <c r="DK12" s="3" t="n">
         <v>135.5</v>
       </c>
+      <c r="DL12" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5296,6 +5335,9 @@
       <c r="DK13" s="1" t="n">
         <v>179</v>
       </c>
+      <c r="DL13" s="3" t="n">
+        <v>138.1</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5643,6 +5685,9 @@
       <c r="DK14" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="DL14" s="1" t="n">
+        <v>179.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -5990,6 +6035,9 @@
       <c r="DK15" s="1" t="n">
         <v>158.6</v>
       </c>
+      <c r="DL15" s="2" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6337,6 +6385,9 @@
       <c r="DK16" s="1" t="n">
         <v>160.3</v>
       </c>
+      <c r="DL16" s="1" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6684,6 +6735,9 @@
       <c r="DK17" s="1" t="n">
         <v>173.3</v>
       </c>
+      <c r="DL17" s="1" t="n">
+        <v>150.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7031,6 +7085,9 @@
       <c r="DK18" s="1" t="n">
         <v>142.5</v>
       </c>
+      <c r="DL18" s="1" t="n">
+        <v>151.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7378,6 +7435,9 @@
       <c r="DK19" s="1" t="n">
         <v>207.1</v>
       </c>
+      <c r="DL19" s="1" t="n">
+        <v>171.3</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7725,6 +7785,9 @@
       <c r="DK20" s="1" t="n">
         <v>192.6</v>
       </c>
+      <c r="DL20" s="1" t="n">
+        <v>164.2</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8072,6 +8135,9 @@
       <c r="DK21" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="DL21" s="1" t="n">
+        <v>187.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8419,6 +8485,9 @@
       <c r="DK22" s="1" t="n">
         <v>142.7</v>
       </c>
+      <c r="DL22" s="1" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8766,6 +8835,9 @@
       <c r="DK23" s="2" t="n">
         <v>114.4</v>
       </c>
+      <c r="DL23" s="2" t="n">
+        <v>116.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9113,6 +9185,9 @@
       <c r="DK24" s="1" t="n">
         <v>156.9</v>
       </c>
+      <c r="DL24" s="1" t="n">
+        <v>174.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9460,6 +9535,9 @@
       <c r="DK25" s="1" t="n">
         <v>172.5</v>
       </c>
+      <c r="DL25" s="1" t="n">
+        <v>180.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9807,6 +9885,9 @@
       <c r="DK26" s="2" t="n">
         <v>115.6</v>
       </c>
+      <c r="DL26" s="1" t="n">
+        <v>191.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10154,6 +10235,9 @@
       <c r="DK27" s="2" t="n">
         <v>124.9</v>
       </c>
+      <c r="DL27" s="1" t="n">
+        <v>208.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10501,6 +10585,9 @@
       <c r="DK28" s="1" t="n">
         <v>184.3</v>
       </c>
+      <c r="DL28" s="1" t="n">
+        <v>157.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10848,6 +10935,9 @@
       <c r="DK29" s="1" t="n">
         <v>202.5</v>
       </c>
+      <c r="DL29" s="2" t="n">
+        <v>124.7</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11195,6 +11285,9 @@
       <c r="DK30" s="1" t="n">
         <v>140.8</v>
       </c>
+      <c r="DL30" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -11542,6 +11635,9 @@
       <c r="DK31" s="3" t="n">
         <v>125.6</v>
       </c>
+      <c r="DL31" s="1" t="n">
+        <v>206.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -11889,6 +11985,9 @@
       <c r="DK32" s="1" t="n">
         <v>173.4</v>
       </c>
+      <c r="DL32" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -12236,6 +12335,9 @@
       <c r="DK33" s="3" t="n">
         <v>130.5</v>
       </c>
+      <c r="DL33" s="3" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -12583,6 +12685,9 @@
       <c r="DK34" s="1" t="n">
         <v>225.3</v>
       </c>
+      <c r="DL34" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -12930,6 +13035,9 @@
       <c r="DK35" s="1" t="n">
         <v>178.2</v>
       </c>
+      <c r="DL35" s="2" t="n">
+        <v>121.7</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -13277,6 +13385,9 @@
       <c r="DK36" s="1" t="n">
         <v>174.6</v>
       </c>
+      <c r="DL36" s="1" t="n">
+        <v>181.9</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -13624,6 +13735,9 @@
       <c r="DK37" s="1" t="n">
         <v>176.3</v>
       </c>
+      <c r="DL37" s="1" t="n">
+        <v>194.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -13971,6 +14085,9 @@
       <c r="DK38" s="1" t="n">
         <v>228.4</v>
       </c>
+      <c r="DL38" s="3" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -14318,6 +14435,9 @@
       <c r="DK39" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="DL39" s="1" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -14665,6 +14785,9 @@
       <c r="DK40" s="1" t="n">
         <v>186.4</v>
       </c>
+      <c r="DL40" s="2" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -15011,6 +15134,9 @@
       </c>
       <c r="DK41" s="1" t="n">
         <v>143.7</v>
+      </c>
+      <c r="DL41" s="1" t="n">
+        <v>143.2</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -15339,6 +15465,7 @@
       <c r="DI42" s="1" t="n"/>
       <c r="DJ42" s="1" t="n"/>
       <c r="DK42" s="1" t="n"/>
+      <c r="DL42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -15666,6 +15793,7 @@
       <c r="DI43" s="1" t="n"/>
       <c r="DJ43" s="1" t="n"/>
       <c r="DK43" s="1" t="n"/>
+      <c r="DL43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -16013,6 +16141,9 @@
       <c r="DK44" s="1" t="n">
         <v>142.7</v>
       </c>
+      <c r="DL44" s="1" t="n">
+        <v>178.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -16360,6 +16491,9 @@
       <c r="DK45" s="2" t="n">
         <v>109.3</v>
       </c>
+      <c r="DL45" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -16707,6 +16841,9 @@
       <c r="DK46" s="1" t="n">
         <v>168.9</v>
       </c>
+      <c r="DL46" s="3" t="n">
+        <v>135.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -17054,6 +17191,9 @@
       <c r="DK47" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="DL47" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -17401,6 +17541,9 @@
       <c r="DK48" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="DL48" s="1" t="n">
+        <v>168.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -17748,6 +17891,9 @@
       <c r="DK49" s="1" t="n">
         <v>296.8</v>
       </c>
+      <c r="DL49" s="1" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -18095,6 +18241,9 @@
       <c r="DK50" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="DL50" s="1" t="n">
+        <v>143.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -18442,6 +18591,9 @@
       <c r="DK51" s="1" t="n">
         <v>219.5</v>
       </c>
+      <c r="DL51" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -18789,6 +18941,9 @@
       <c r="DK52" s="1" t="n">
         <v>191.9</v>
       </c>
+      <c r="DL52" s="1" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -19135,6 +19290,9 @@
       </c>
       <c r="DK53" s="1" t="n">
         <v>141.1</v>
+      </c>
+      <c r="DL53" s="1" t="n">
+        <v>140.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL53"/>
+  <dimension ref="A1:DM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,7 @@
     <col width="12" customWidth="1" min="114" max="114"/>
     <col width="12" customWidth="1" min="115" max="115"/>
     <col width="12" customWidth="1" min="116" max="116"/>
+    <col width="12" customWidth="1" min="117" max="117"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1138,6 +1139,11 @@
           <t>2025/01/02</t>
         </is>
       </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/03</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1488,6 +1494,9 @@
       <c r="DL2" s="1" t="n">
         <v>156.6</v>
       </c>
+      <c r="DM2" s="3" t="n">
+        <v>138.7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1838,6 +1847,9 @@
       <c r="DL3" s="1" t="n">
         <v>234.8</v>
       </c>
+      <c r="DM3" s="1" t="n">
+        <v>252.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2188,6 +2200,9 @@
       <c r="DL4" s="1" t="n">
         <v>150.2</v>
       </c>
+      <c r="DM4" s="1" t="n">
+        <v>176.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2538,6 +2553,9 @@
       <c r="DL5" s="2" t="n">
         <v>111.4</v>
       </c>
+      <c r="DM5" s="3" t="n">
+        <v>137.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2888,6 +2906,9 @@
       <c r="DL6" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="DM6" s="1" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3238,6 +3259,9 @@
       <c r="DL7" s="2" t="n">
         <v>124.9</v>
       </c>
+      <c r="DM7" s="3" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3588,6 +3612,9 @@
       <c r="DL8" s="1" t="n">
         <v>158.1</v>
       </c>
+      <c r="DM8" s="1" t="n">
+        <v>182.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3938,6 +3965,9 @@
       <c r="DL9" s="1" t="n">
         <v>153.5</v>
       </c>
+      <c r="DM9" s="1" t="n">
+        <v>162.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4288,6 +4318,9 @@
       <c r="DL10" s="1" t="n">
         <v>163.9</v>
       </c>
+      <c r="DM10" s="1" t="n">
+        <v>234.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4638,6 +4671,9 @@
       <c r="DL11" s="1" t="n">
         <v>201.4</v>
       </c>
+      <c r="DM11" s="2" t="n">
+        <v>118.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -4988,6 +5024,9 @@
       <c r="DL12" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="DM12" s="3" t="n">
+        <v>125.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5338,6 +5377,9 @@
       <c r="DL13" s="3" t="n">
         <v>138.1</v>
       </c>
+      <c r="DM13" s="1" t="n">
+        <v>156.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5688,6 +5730,9 @@
       <c r="DL14" s="1" t="n">
         <v>179.9</v>
       </c>
+      <c r="DM14" s="2" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6038,6 +6083,9 @@
       <c r="DL15" s="2" t="n">
         <v>121.1</v>
       </c>
+      <c r="DM15" s="2" t="n">
+        <v>115.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6388,6 +6436,9 @@
       <c r="DL16" s="1" t="n">
         <v>186.7</v>
       </c>
+      <c r="DM16" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6738,6 +6789,9 @@
       <c r="DL17" s="1" t="n">
         <v>150.5</v>
       </c>
+      <c r="DM17" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7088,6 +7142,9 @@
       <c r="DL18" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="DM18" s="3" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7438,6 +7495,9 @@
       <c r="DL19" s="1" t="n">
         <v>171.3</v>
       </c>
+      <c r="DM19" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7788,6 +7848,9 @@
       <c r="DL20" s="1" t="n">
         <v>164.2</v>
       </c>
+      <c r="DM20" s="1" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8138,6 +8201,9 @@
       <c r="DL21" s="1" t="n">
         <v>187.6</v>
       </c>
+      <c r="DM21" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8488,6 +8554,9 @@
       <c r="DL22" s="1" t="n">
         <v>150.1</v>
       </c>
+      <c r="DM22" s="1" t="n">
+        <v>191.2</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8838,6 +8907,9 @@
       <c r="DL23" s="2" t="n">
         <v>116.9</v>
       </c>
+      <c r="DM23" s="1" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9188,6 +9260,9 @@
       <c r="DL24" s="1" t="n">
         <v>174.9</v>
       </c>
+      <c r="DM24" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9538,6 +9613,9 @@
       <c r="DL25" s="1" t="n">
         <v>180.5</v>
       </c>
+      <c r="DM25" s="1" t="n">
+        <v>197.5</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9888,6 +9966,9 @@
       <c r="DL26" s="1" t="n">
         <v>191.1</v>
       </c>
+      <c r="DM26" s="2" t="n">
+        <v>123.7</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10238,6 +10319,9 @@
       <c r="DL27" s="1" t="n">
         <v>208.4</v>
       </c>
+      <c r="DM27" s="1" t="n">
+        <v>169.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10588,6 +10672,9 @@
       <c r="DL28" s="1" t="n">
         <v>157.9</v>
       </c>
+      <c r="DM28" s="1" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -10938,6 +11025,9 @@
       <c r="DL29" s="2" t="n">
         <v>124.7</v>
       </c>
+      <c r="DM29" s="1" t="n">
+        <v>171.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11288,6 +11378,9 @@
       <c r="DL30" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="DM30" s="3" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -11638,6 +11731,9 @@
       <c r="DL31" s="1" t="n">
         <v>206.5</v>
       </c>
+      <c r="DM31" s="1" t="n">
+        <v>180.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -11988,6 +12084,9 @@
       <c r="DL32" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="DM32" s="1" t="n">
+        <v>166.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -12338,6 +12437,9 @@
       <c r="DL33" s="3" t="n">
         <v>126.5</v>
       </c>
+      <c r="DM33" s="1" t="n">
+        <v>245.7</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -12688,6 +12790,9 @@
       <c r="DL34" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="DM34" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -13038,6 +13143,9 @@
       <c r="DL35" s="2" t="n">
         <v>121.7</v>
       </c>
+      <c r="DM35" s="1" t="n">
+        <v>157.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -13388,6 +13496,9 @@
       <c r="DL36" s="1" t="n">
         <v>181.9</v>
       </c>
+      <c r="DM36" s="1" t="n">
+        <v>189.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -13738,6 +13849,9 @@
       <c r="DL37" s="1" t="n">
         <v>194.3</v>
       </c>
+      <c r="DM37" s="3" t="n">
+        <v>135.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -14088,6 +14202,9 @@
       <c r="DL38" s="3" t="n">
         <v>130.3</v>
       </c>
+      <c r="DM38" s="2" t="n">
+        <v>118.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -14438,6 +14555,9 @@
       <c r="DL39" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="DM39" s="3" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -14788,6 +14908,9 @@
       <c r="DL40" s="2" t="n">
         <v>124.2</v>
       </c>
+      <c r="DM40" s="3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -15137,6 +15260,9 @@
       </c>
       <c r="DL41" s="1" t="n">
         <v>143.2</v>
+      </c>
+      <c r="DM41" s="3" t="n">
+        <v>136.3</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -15466,6 +15592,7 @@
       <c r="DJ42" s="1" t="n"/>
       <c r="DK42" s="1" t="n"/>
       <c r="DL42" s="1" t="n"/>
+      <c r="DM42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -15794,6 +15921,7 @@
       <c r="DJ43" s="1" t="n"/>
       <c r="DK43" s="1" t="n"/>
       <c r="DL43" s="1" t="n"/>
+      <c r="DM43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -16144,6 +16272,9 @@
       <c r="DL44" s="1" t="n">
         <v>178.5</v>
       </c>
+      <c r="DM44" s="2" t="n">
+        <v>118.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -16494,6 +16625,9 @@
       <c r="DL45" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="DM45" s="3" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -16844,6 +16978,9 @@
       <c r="DL46" s="3" t="n">
         <v>135.4</v>
       </c>
+      <c r="DM46" s="1" t="n">
+        <v>171.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -17194,6 +17331,9 @@
       <c r="DL47" s="3" t="n">
         <v>135.8</v>
       </c>
+      <c r="DM47" s="1" t="n">
+        <v>164.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -17544,6 +17684,9 @@
       <c r="DL48" s="1" t="n">
         <v>168.3</v>
       </c>
+      <c r="DM48" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -17894,6 +18037,9 @@
       <c r="DL49" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="DM49" s="1" t="n">
+        <v>195.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -18244,6 +18390,9 @@
       <c r="DL50" s="1" t="n">
         <v>143.2</v>
       </c>
+      <c r="DM50" s="1" t="n">
+        <v>168.4</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -18594,6 +18743,9 @@
       <c r="DL51" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="DM51" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -18944,6 +19096,9 @@
       <c r="DL52" s="1" t="n">
         <v>186</v>
       </c>
+      <c r="DM52" s="1" t="n">
+        <v>169.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -19293,6 +19448,9 @@
       </c>
       <c r="DL53" s="1" t="n">
         <v>140.2</v>
+      </c>
+      <c r="DM53" s="1" t="n">
+        <v>188.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DM53"/>
+  <dimension ref="A1:DN53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,7 @@
     <col width="12" customWidth="1" min="115" max="115"/>
     <col width="12" customWidth="1" min="116" max="116"/>
     <col width="12" customWidth="1" min="117" max="117"/>
+    <col width="12" customWidth="1" min="118" max="118"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1144,6 +1145,11 @@
           <t>2025/01/03</t>
         </is>
       </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/04</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1497,6 +1503,9 @@
       <c r="DM2" s="3" t="n">
         <v>138.7</v>
       </c>
+      <c r="DN2" s="1" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1850,6 +1859,9 @@
       <c r="DM3" s="1" t="n">
         <v>252.5</v>
       </c>
+      <c r="DN3" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2203,6 +2215,9 @@
       <c r="DM4" s="1" t="n">
         <v>176.8</v>
       </c>
+      <c r="DN4" s="2" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2556,6 +2571,9 @@
       <c r="DM5" s="3" t="n">
         <v>137.5</v>
       </c>
+      <c r="DN5" s="1" t="n">
+        <v>295.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2909,6 +2927,9 @@
       <c r="DM6" s="1" t="n">
         <v>155.3</v>
       </c>
+      <c r="DN6" s="1" t="n">
+        <v>178.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3262,6 +3283,9 @@
       <c r="DM7" s="3" t="n">
         <v>137.9</v>
       </c>
+      <c r="DN7" s="1" t="n">
+        <v>177.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3615,6 +3639,9 @@
       <c r="DM8" s="1" t="n">
         <v>182.8</v>
       </c>
+      <c r="DN8" s="2" t="n">
+        <v>112.7</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3968,6 +3995,9 @@
       <c r="DM9" s="1" t="n">
         <v>162.7</v>
       </c>
+      <c r="DN9" s="1" t="n">
+        <v>218.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4321,6 +4351,9 @@
       <c r="DM10" s="1" t="n">
         <v>234.8</v>
       </c>
+      <c r="DN10" s="1" t="n">
+        <v>184.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4674,6 +4707,9 @@
       <c r="DM11" s="2" t="n">
         <v>118.8</v>
       </c>
+      <c r="DN11" s="1" t="n">
+        <v>175.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5027,6 +5063,9 @@
       <c r="DM12" s="3" t="n">
         <v>125.7</v>
       </c>
+      <c r="DN12" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5380,6 +5419,9 @@
       <c r="DM13" s="1" t="n">
         <v>156.9</v>
       </c>
+      <c r="DN13" s="1" t="n">
+        <v>160.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5733,6 +5775,9 @@
       <c r="DM14" s="2" t="n">
         <v>121.2</v>
       </c>
+      <c r="DN14" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6086,6 +6131,9 @@
       <c r="DM15" s="2" t="n">
         <v>115.6</v>
       </c>
+      <c r="DN15" s="1" t="n">
+        <v>175.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6439,6 +6487,9 @@
       <c r="DM16" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="DN16" s="2" t="n">
+        <v>121.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6792,6 +6843,9 @@
       <c r="DM17" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="DN17" s="1" t="n">
+        <v>160.2</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7145,6 +7199,9 @@
       <c r="DM18" s="3" t="n">
         <v>125.9</v>
       </c>
+      <c r="DN18" s="1" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7498,6 +7555,9 @@
       <c r="DM19" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="DN19" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7851,6 +7911,9 @@
       <c r="DM20" s="1" t="n">
         <v>162.4</v>
       </c>
+      <c r="DN20" s="3" t="n">
+        <v>130.1</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8204,6 +8267,9 @@
       <c r="DM21" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="DN21" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8557,6 +8623,9 @@
       <c r="DM22" s="1" t="n">
         <v>191.2</v>
       </c>
+      <c r="DN22" s="1" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8910,6 +8979,9 @@
       <c r="DM23" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="DN23" s="1" t="n">
+        <v>149.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9263,6 +9335,9 @@
       <c r="DM24" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="DN24" s="2" t="n">
+        <v>120.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9616,6 +9691,9 @@
       <c r="DM25" s="1" t="n">
         <v>197.5</v>
       </c>
+      <c r="DN25" s="1" t="n">
+        <v>175.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -9969,6 +10047,9 @@
       <c r="DM26" s="2" t="n">
         <v>123.7</v>
       </c>
+      <c r="DN26" s="1" t="n">
+        <v>174.9</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10322,6 +10403,9 @@
       <c r="DM27" s="1" t="n">
         <v>169.8</v>
       </c>
+      <c r="DN27" s="1" t="n">
+        <v>157.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10675,6 +10759,9 @@
       <c r="DM28" s="1" t="n">
         <v>242</v>
       </c>
+      <c r="DN28" s="1" t="n">
+        <v>181.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11028,6 +11115,9 @@
       <c r="DM29" s="1" t="n">
         <v>171.5</v>
       </c>
+      <c r="DN29" s="3" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11381,6 +11471,9 @@
       <c r="DM30" s="3" t="n">
         <v>137.9</v>
       </c>
+      <c r="DN30" s="3" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -11734,6 +11827,9 @@
       <c r="DM31" s="1" t="n">
         <v>180.3</v>
       </c>
+      <c r="DN31" s="1" t="n">
+        <v>159.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -12087,6 +12183,9 @@
       <c r="DM32" s="1" t="n">
         <v>166.2</v>
       </c>
+      <c r="DN32" s="3" t="n">
+        <v>137.6</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -12440,6 +12539,9 @@
       <c r="DM33" s="1" t="n">
         <v>245.7</v>
       </c>
+      <c r="DN33" s="1" t="n">
+        <v>222.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -12793,6 +12895,9 @@
       <c r="DM34" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="DN34" s="1" t="n">
+        <v>182.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -13146,6 +13251,9 @@
       <c r="DM35" s="1" t="n">
         <v>157.5</v>
       </c>
+      <c r="DN35" s="1" t="n">
+        <v>158.6</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -13499,6 +13607,9 @@
       <c r="DM36" s="1" t="n">
         <v>189.5</v>
       </c>
+      <c r="DN36" s="1" t="n">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -13852,6 +13963,9 @@
       <c r="DM37" s="3" t="n">
         <v>135.4</v>
       </c>
+      <c r="DN37" s="1" t="n">
+        <v>158.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -14205,6 +14319,9 @@
       <c r="DM38" s="2" t="n">
         <v>118.5</v>
       </c>
+      <c r="DN38" s="3" t="n">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -14558,6 +14675,9 @@
       <c r="DM39" s="3" t="n">
         <v>134.8</v>
       </c>
+      <c r="DN39" s="1" t="n">
+        <v>189.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -14911,6 +15031,9 @@
       <c r="DM40" s="3" t="n">
         <v>126</v>
       </c>
+      <c r="DN40" s="1" t="n">
+        <v>186.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -15263,6 +15386,9 @@
       </c>
       <c r="DM41" s="3" t="n">
         <v>136.3</v>
+      </c>
+      <c r="DN41" s="1" t="n">
+        <v>151.3</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -15593,6 +15719,7 @@
       <c r="DK42" s="1" t="n"/>
       <c r="DL42" s="1" t="n"/>
       <c r="DM42" s="1" t="n"/>
+      <c r="DN42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -15922,6 +16049,7 @@
       <c r="DK43" s="1" t="n"/>
       <c r="DL43" s="1" t="n"/>
       <c r="DM43" s="1" t="n"/>
+      <c r="DN43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -16275,6 +16403,9 @@
       <c r="DM44" s="2" t="n">
         <v>118.6</v>
       </c>
+      <c r="DN44" s="1" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -16628,6 +16759,9 @@
       <c r="DM45" s="3" t="n">
         <v>128.8</v>
       </c>
+      <c r="DN45" s="1" t="n">
+        <v>203.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -16981,6 +17115,9 @@
       <c r="DM46" s="1" t="n">
         <v>171.1</v>
       </c>
+      <c r="DN46" s="1" t="n">
+        <v>150.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -17334,6 +17471,9 @@
       <c r="DM47" s="1" t="n">
         <v>164.1</v>
       </c>
+      <c r="DN47" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -17687,6 +17827,9 @@
       <c r="DM48" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="DN48" s="3" t="n">
+        <v>131.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -18040,6 +18183,9 @@
       <c r="DM49" s="1" t="n">
         <v>195.4</v>
       </c>
+      <c r="DN49" s="1" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -18393,6 +18539,9 @@
       <c r="DM50" s="1" t="n">
         <v>168.4</v>
       </c>
+      <c r="DN50" s="1" t="n">
+        <v>159.1</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -18746,6 +18895,9 @@
       <c r="DM51" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="DN51" s="1" t="n">
+        <v>143.7</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -19099,6 +19251,9 @@
       <c r="DM52" s="1" t="n">
         <v>169.4</v>
       </c>
+      <c r="DN52" s="1" t="n">
+        <v>169.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -19451,6 +19606,9 @@
       </c>
       <c r="DM53" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="DN53" s="2" t="n">
+        <v>120.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DN53"/>
+  <dimension ref="A1:DO53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,7 @@
     <col width="12" customWidth="1" min="116" max="116"/>
     <col width="12" customWidth="1" min="117" max="117"/>
     <col width="12" customWidth="1" min="118" max="118"/>
+    <col width="12" customWidth="1" min="119" max="119"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1150,6 +1151,11 @@
           <t>2025/01/04</t>
         </is>
       </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/05</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1506,6 +1512,9 @@
       <c r="DN2" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="DO2" s="1" t="n">
+        <v>169.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1862,6 +1871,9 @@
       <c r="DN3" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="DO3" s="1" t="n">
+        <v>154.6</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2218,6 +2230,9 @@
       <c r="DN4" s="2" t="n">
         <v>124.5</v>
       </c>
+      <c r="DO4" s="1" t="n">
+        <v>197.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2574,6 +2589,9 @@
       <c r="DN5" s="1" t="n">
         <v>295.5</v>
       </c>
+      <c r="DO5" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2930,6 +2948,9 @@
       <c r="DN6" s="1" t="n">
         <v>178.5</v>
       </c>
+      <c r="DO6" s="1" t="n">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3286,6 +3307,9 @@
       <c r="DN7" s="1" t="n">
         <v>177.5</v>
       </c>
+      <c r="DO7" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3642,6 +3666,9 @@
       <c r="DN8" s="2" t="n">
         <v>112.7</v>
       </c>
+      <c r="DO8" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -3998,6 +4025,9 @@
       <c r="DN9" s="1" t="n">
         <v>218.1</v>
       </c>
+      <c r="DO9" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4354,6 +4384,9 @@
       <c r="DN10" s="1" t="n">
         <v>184.2</v>
       </c>
+      <c r="DO10" s="2" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4710,6 +4743,9 @@
       <c r="DN11" s="1" t="n">
         <v>175.2</v>
       </c>
+      <c r="DO11" s="1" t="n">
+        <v>230.1</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5066,6 +5102,9 @@
       <c r="DN12" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="DO12" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5422,6 +5461,9 @@
       <c r="DN13" s="1" t="n">
         <v>160.3</v>
       </c>
+      <c r="DO13" s="1" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5778,6 +5820,9 @@
       <c r="DN14" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="DO14" s="1" t="n">
+        <v>144.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6134,6 +6179,9 @@
       <c r="DN15" s="1" t="n">
         <v>175.1</v>
       </c>
+      <c r="DO15" s="2" t="n">
+        <v>122.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6490,6 +6538,9 @@
       <c r="DN16" s="2" t="n">
         <v>121.7</v>
       </c>
+      <c r="DO16" s="1" t="n">
+        <v>161.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6846,6 +6897,9 @@
       <c r="DN17" s="1" t="n">
         <v>160.2</v>
       </c>
+      <c r="DO17" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7202,6 +7256,9 @@
       <c r="DN18" s="1" t="n">
         <v>180</v>
       </c>
+      <c r="DO18" s="2" t="n">
+        <v>105.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7558,6 +7615,9 @@
       <c r="DN19" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="DO19" s="1" t="n">
+        <v>179.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7914,6 +7974,9 @@
       <c r="DN20" s="3" t="n">
         <v>130.1</v>
       </c>
+      <c r="DO20" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8270,6 +8333,9 @@
       <c r="DN21" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="DO21" s="2" t="n">
+        <v>118.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8626,6 +8692,9 @@
       <c r="DN22" s="1" t="n">
         <v>210</v>
       </c>
+      <c r="DO22" s="1" t="n">
+        <v>141.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -8982,6 +9051,9 @@
       <c r="DN23" s="1" t="n">
         <v>149.3</v>
       </c>
+      <c r="DO23" s="1" t="n">
+        <v>189.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9338,6 +9410,9 @@
       <c r="DN24" s="2" t="n">
         <v>120.8</v>
       </c>
+      <c r="DO24" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9694,6 +9769,9 @@
       <c r="DN25" s="1" t="n">
         <v>175.3</v>
       </c>
+      <c r="DO25" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10050,6 +10128,9 @@
       <c r="DN26" s="1" t="n">
         <v>174.9</v>
       </c>
+      <c r="DO26" s="2" t="n">
+        <v>117.8</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10406,6 +10487,9 @@
       <c r="DN27" s="1" t="n">
         <v>157.6</v>
       </c>
+      <c r="DO27" s="1" t="n">
+        <v>204.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10762,6 +10846,9 @@
       <c r="DN28" s="1" t="n">
         <v>181.9</v>
       </c>
+      <c r="DO28" s="3" t="n">
+        <v>131.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11118,6 +11205,9 @@
       <c r="DN29" s="3" t="n">
         <v>126.5</v>
       </c>
+      <c r="DO29" s="1" t="n">
+        <v>162.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11474,6 +11564,9 @@
       <c r="DN30" s="3" t="n">
         <v>132.4</v>
       </c>
+      <c r="DO30" s="3" t="n">
+        <v>132.6</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -11830,6 +11923,9 @@
       <c r="DN31" s="1" t="n">
         <v>159.4</v>
       </c>
+      <c r="DO31" s="1" t="n">
+        <v>205.2</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -12186,6 +12282,9 @@
       <c r="DN32" s="3" t="n">
         <v>137.6</v>
       </c>
+      <c r="DO32" s="1" t="n">
+        <v>195.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -12542,6 +12641,9 @@
       <c r="DN33" s="1" t="n">
         <v>222.6</v>
       </c>
+      <c r="DO33" s="2" t="n">
+        <v>121.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -12898,6 +13000,9 @@
       <c r="DN34" s="1" t="n">
         <v>182.8</v>
       </c>
+      <c r="DO34" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -13254,6 +13359,9 @@
       <c r="DN35" s="1" t="n">
         <v>158.6</v>
       </c>
+      <c r="DO35" s="1" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -13610,6 +13718,9 @@
       <c r="DN36" s="1" t="n">
         <v>150.4</v>
       </c>
+      <c r="DO36" s="1" t="n">
+        <v>171.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -13966,6 +14077,9 @@
       <c r="DN37" s="1" t="n">
         <v>158.3</v>
       </c>
+      <c r="DO37" s="1" t="n">
+        <v>179.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -14322,6 +14436,9 @@
       <c r="DN38" s="3" t="n">
         <v>138.5</v>
       </c>
+      <c r="DO38" s="1" t="n">
+        <v>179.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -14678,6 +14795,9 @@
       <c r="DN39" s="1" t="n">
         <v>189.4</v>
       </c>
+      <c r="DO39" s="3" t="n">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -15034,6 +15154,9 @@
       <c r="DN40" s="1" t="n">
         <v>186.5</v>
       </c>
+      <c r="DO40" s="1" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -15389,6 +15512,9 @@
       </c>
       <c r="DN41" s="1" t="n">
         <v>151.3</v>
+      </c>
+      <c r="DO41" s="3" t="n">
+        <v>132.3</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -15720,6 +15846,7 @@
       <c r="DL42" s="1" t="n"/>
       <c r="DM42" s="1" t="n"/>
       <c r="DN42" s="1" t="n"/>
+      <c r="DO42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -16050,6 +16177,7 @@
       <c r="DL43" s="1" t="n"/>
       <c r="DM43" s="1" t="n"/>
       <c r="DN43" s="1" t="n"/>
+      <c r="DO43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -16406,6 +16534,9 @@
       <c r="DN44" s="1" t="n">
         <v>153.9</v>
       </c>
+      <c r="DO44" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -16762,6 +16893,9 @@
       <c r="DN45" s="1" t="n">
         <v>203.1</v>
       </c>
+      <c r="DO45" s="1" t="n">
+        <v>212.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -17118,6 +17252,9 @@
       <c r="DN46" s="1" t="n">
         <v>150.2</v>
       </c>
+      <c r="DO46" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -17474,6 +17611,9 @@
       <c r="DN47" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="DO47" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -17830,6 +17970,9 @@
       <c r="DN48" s="3" t="n">
         <v>131.9</v>
       </c>
+      <c r="DO48" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -18186,6 +18329,9 @@
       <c r="DN49" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="DO49" s="3" t="n">
+        <v>134.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -18542,6 +18688,9 @@
       <c r="DN50" s="1" t="n">
         <v>159.1</v>
       </c>
+      <c r="DO50" s="1" t="n">
+        <v>166.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -18898,6 +19047,9 @@
       <c r="DN51" s="1" t="n">
         <v>143.7</v>
       </c>
+      <c r="DO51" s="3" t="n">
+        <v>132.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -19254,6 +19406,9 @@
       <c r="DN52" s="1" t="n">
         <v>169.7</v>
       </c>
+      <c r="DO52" s="3" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -19609,6 +19764,9 @@
       </c>
       <c r="DN53" s="2" t="n">
         <v>120.2</v>
+      </c>
+      <c r="DO53" s="2" t="n">
+        <v>121.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO53"/>
+  <dimension ref="A1:DP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,6 +558,7 @@
     <col width="12" customWidth="1" min="117" max="117"/>
     <col width="12" customWidth="1" min="118" max="118"/>
     <col width="12" customWidth="1" min="119" max="119"/>
+    <col width="12" customWidth="1" min="120" max="120"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1156,6 +1157,11 @@
           <t>2025/01/05</t>
         </is>
       </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/06</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1515,6 +1521,9 @@
       <c r="DO2" s="1" t="n">
         <v>169.8</v>
       </c>
+      <c r="DP2" s="2" t="n">
+        <v>121.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1874,6 +1883,9 @@
       <c r="DO3" s="1" t="n">
         <v>154.6</v>
       </c>
+      <c r="DP3" s="1" t="n">
+        <v>166.6</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2233,6 +2245,9 @@
       <c r="DO4" s="1" t="n">
         <v>197.2</v>
       </c>
+      <c r="DP4" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2592,6 +2607,9 @@
       <c r="DO5" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="DP5" s="1" t="n">
+        <v>173.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2951,6 +2969,9 @@
       <c r="DO6" s="1" t="n">
         <v>150.4</v>
       </c>
+      <c r="DP6" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3310,6 +3331,9 @@
       <c r="DO7" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="DP7" s="1" t="n">
+        <v>159.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3669,6 +3693,9 @@
       <c r="DO8" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="DP8" s="1" t="n">
+        <v>311.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4028,6 +4055,9 @@
       <c r="DO9" s="3" t="n">
         <v>135.8</v>
       </c>
+      <c r="DP9" s="3" t="n">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4387,6 +4417,9 @@
       <c r="DO10" s="2" t="n">
         <v>114</v>
       </c>
+      <c r="DP10" s="1" t="n">
+        <v>198.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4746,6 +4779,9 @@
       <c r="DO11" s="1" t="n">
         <v>230.1</v>
       </c>
+      <c r="DP11" s="1" t="n">
+        <v>247.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5105,6 +5141,9 @@
       <c r="DO12" s="1" t="n">
         <v>149.2</v>
       </c>
+      <c r="DP12" s="1" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5464,6 +5503,9 @@
       <c r="DO13" s="1" t="n">
         <v>142.5</v>
       </c>
+      <c r="DP13" s="3" t="n">
+        <v>139.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5823,6 +5865,9 @@
       <c r="DO14" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="DP14" s="1" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6182,6 +6227,9 @@
       <c r="DO15" s="2" t="n">
         <v>122.2</v>
       </c>
+      <c r="DP15" s="1" t="n">
+        <v>189.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6541,6 +6589,9 @@
       <c r="DO16" s="1" t="n">
         <v>161.1</v>
       </c>
+      <c r="DP16" s="1" t="n">
+        <v>165.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6900,6 +6951,9 @@
       <c r="DO17" s="1" t="n">
         <v>146.7</v>
       </c>
+      <c r="DP17" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7259,6 +7313,9 @@
       <c r="DO18" s="2" t="n">
         <v>105.6</v>
       </c>
+      <c r="DP18" s="1" t="n">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7618,6 +7675,9 @@
       <c r="DO19" s="1" t="n">
         <v>179.8</v>
       </c>
+      <c r="DP19" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -7977,6 +8037,9 @@
       <c r="DO20" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="DP20" s="1" t="n">
+        <v>308.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8336,6 +8399,9 @@
       <c r="DO21" s="2" t="n">
         <v>118.4</v>
       </c>
+      <c r="DP21" s="1" t="n">
+        <v>198.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8695,6 +8761,9 @@
       <c r="DO22" s="1" t="n">
         <v>141.4</v>
       </c>
+      <c r="DP22" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9054,6 +9123,9 @@
       <c r="DO23" s="1" t="n">
         <v>189.7</v>
       </c>
+      <c r="DP23" s="3" t="n">
+        <v>131.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9413,6 +9485,9 @@
       <c r="DO24" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="DP24" s="1" t="n">
+        <v>180.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9772,6 +9847,9 @@
       <c r="DO25" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="DP25" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10131,6 +10209,9 @@
       <c r="DO26" s="2" t="n">
         <v>117.8</v>
       </c>
+      <c r="DP26" s="3" t="n">
+        <v>137.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10490,6 +10571,9 @@
       <c r="DO27" s="1" t="n">
         <v>204.3</v>
       </c>
+      <c r="DP27" s="1" t="n">
+        <v>284.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10849,6 +10933,9 @@
       <c r="DO28" s="3" t="n">
         <v>131.7</v>
       </c>
+      <c r="DP28" s="3" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11208,6 +11295,9 @@
       <c r="DO29" s="1" t="n">
         <v>162.3</v>
       </c>
+      <c r="DP29" s="1" t="n">
+        <v>186.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11567,6 +11657,9 @@
       <c r="DO30" s="3" t="n">
         <v>132.6</v>
       </c>
+      <c r="DP30" s="1" t="n">
+        <v>440.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -11926,6 +12019,9 @@
       <c r="DO31" s="1" t="n">
         <v>205.2</v>
       </c>
+      <c r="DP31" s="3" t="n">
+        <v>128.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -12285,6 +12381,9 @@
       <c r="DO32" s="1" t="n">
         <v>195.8</v>
       </c>
+      <c r="DP32" s="1" t="n">
+        <v>166.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -12644,6 +12743,9 @@
       <c r="DO33" s="2" t="n">
         <v>121.3</v>
       </c>
+      <c r="DP33" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -13003,6 +13105,9 @@
       <c r="DO34" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="DP34" s="1" t="n">
+        <v>153.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -13362,6 +13467,9 @@
       <c r="DO35" s="1" t="n">
         <v>187.5</v>
       </c>
+      <c r="DP35" s="1" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -13721,6 +13829,9 @@
       <c r="DO36" s="1" t="n">
         <v>171.8</v>
       </c>
+      <c r="DP36" s="1" t="n">
+        <v>207.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -14080,6 +14191,9 @@
       <c r="DO37" s="1" t="n">
         <v>179.9</v>
       </c>
+      <c r="DP37" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -14439,6 +14553,9 @@
       <c r="DO38" s="1" t="n">
         <v>179.6</v>
       </c>
+      <c r="DP38" s="3" t="n">
+        <v>126.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -14798,6 +14915,9 @@
       <c r="DO39" s="3" t="n">
         <v>125.3</v>
       </c>
+      <c r="DP39" s="1" t="n">
+        <v>166.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -15157,6 +15277,9 @@
       <c r="DO40" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="DP40" s="3" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -15515,6 +15638,9 @@
       </c>
       <c r="DO41" s="3" t="n">
         <v>132.3</v>
+      </c>
+      <c r="DP41" s="1" t="n">
+        <v>150.1</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -15847,6 +15973,7 @@
       <c r="DM42" s="1" t="n"/>
       <c r="DN42" s="1" t="n"/>
       <c r="DO42" s="1" t="n"/>
+      <c r="DP42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -16178,6 +16305,7 @@
       <c r="DM43" s="1" t="n"/>
       <c r="DN43" s="1" t="n"/>
       <c r="DO43" s="1" t="n"/>
+      <c r="DP43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -16537,6 +16665,9 @@
       <c r="DO44" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="DP44" s="1" t="n">
+        <v>204.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -16896,6 +17027,9 @@
       <c r="DO45" s="1" t="n">
         <v>212.1</v>
       </c>
+      <c r="DP45" s="1" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -17255,6 +17389,9 @@
       <c r="DO46" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="DP46" s="2" t="n">
+        <v>121.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -17614,6 +17751,9 @@
       <c r="DO47" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="DP47" s="1" t="n">
+        <v>148.6</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -17973,6 +18113,9 @@
       <c r="DO48" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="DP48" s="1" t="n">
+        <v>167.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -18332,6 +18475,9 @@
       <c r="DO49" s="3" t="n">
         <v>134.4</v>
       </c>
+      <c r="DP49" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -18691,6 +18837,9 @@
       <c r="DO50" s="1" t="n">
         <v>166.2</v>
       </c>
+      <c r="DP50" s="1" t="n">
+        <v>220.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -19050,6 +19199,9 @@
       <c r="DO51" s="3" t="n">
         <v>132.1</v>
       </c>
+      <c r="DP51" s="1" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -19409,6 +19561,9 @@
       <c r="DO52" s="3" t="n">
         <v>126.6</v>
       </c>
+      <c r="DP52" s="1" t="n">
+        <v>194.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -19767,6 +19922,9 @@
       </c>
       <c r="DO53" s="2" t="n">
         <v>121.7</v>
+      </c>
+      <c r="DP53" s="1" t="n">
+        <v>203.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DP53"/>
+  <dimension ref="A1:DQ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,6 +559,7 @@
     <col width="12" customWidth="1" min="118" max="118"/>
     <col width="12" customWidth="1" min="119" max="119"/>
     <col width="12" customWidth="1" min="120" max="120"/>
+    <col width="12" customWidth="1" min="121" max="121"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1162,6 +1163,11 @@
           <t>2025/01/06</t>
         </is>
       </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/07</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1524,6 +1530,9 @@
       <c r="DP2" s="2" t="n">
         <v>121.3</v>
       </c>
+      <c r="DQ2" s="1" t="n">
+        <v>259.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1886,6 +1895,9 @@
       <c r="DP3" s="1" t="n">
         <v>166.6</v>
       </c>
+      <c r="DQ3" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2248,6 +2260,9 @@
       <c r="DP4" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="DQ4" s="3" t="n">
+        <v>136.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2610,6 +2625,9 @@
       <c r="DP5" s="1" t="n">
         <v>173.5</v>
       </c>
+      <c r="DQ5" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2972,6 +2990,9 @@
       <c r="DP6" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="DQ6" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3334,6 +3355,9 @@
       <c r="DP7" s="1" t="n">
         <v>159.5</v>
       </c>
+      <c r="DQ7" s="2" t="n">
+        <v>104.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3696,6 +3720,9 @@
       <c r="DP8" s="1" t="n">
         <v>311.9</v>
       </c>
+      <c r="DQ8" s="1" t="n">
+        <v>184.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4058,6 +4085,9 @@
       <c r="DP9" s="3" t="n">
         <v>135.6</v>
       </c>
+      <c r="DQ9" s="3" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4420,6 +4450,9 @@
       <c r="DP10" s="1" t="n">
         <v>198.4</v>
       </c>
+      <c r="DQ10" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4782,6 +4815,9 @@
       <c r="DP11" s="1" t="n">
         <v>247.8</v>
       </c>
+      <c r="DQ11" s="1" t="n">
+        <v>208.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5144,6 +5180,9 @@
       <c r="DP12" s="1" t="n">
         <v>209</v>
       </c>
+      <c r="DQ12" s="1" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5506,6 +5545,9 @@
       <c r="DP13" s="3" t="n">
         <v>139.2</v>
       </c>
+      <c r="DQ13" s="2" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5868,6 +5910,9 @@
       <c r="DP14" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="DQ14" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6230,6 +6275,9 @@
       <c r="DP15" s="1" t="n">
         <v>189.4</v>
       </c>
+      <c r="DQ15" s="1" t="n">
+        <v>161.5</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6592,6 +6640,9 @@
       <c r="DP16" s="1" t="n">
         <v>165.6</v>
       </c>
+      <c r="DQ16" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -6954,6 +7005,9 @@
       <c r="DP17" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="DQ17" s="1" t="n">
+        <v>166.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7316,6 +7370,9 @@
       <c r="DP18" s="1" t="n">
         <v>158.4</v>
       </c>
+      <c r="DQ18" s="1" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7678,6 +7735,9 @@
       <c r="DP19" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="DQ19" s="1" t="n">
+        <v>191.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8040,6 +8100,9 @@
       <c r="DP20" s="1" t="n">
         <v>308.5</v>
       </c>
+      <c r="DQ20" s="1" t="n">
+        <v>168.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8402,6 +8465,9 @@
       <c r="DP21" s="1" t="n">
         <v>198.8</v>
       </c>
+      <c r="DQ21" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8764,6 +8830,9 @@
       <c r="DP22" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="DQ22" s="1" t="n">
+        <v>167.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9126,6 +9195,9 @@
       <c r="DP23" s="3" t="n">
         <v>131.7</v>
       </c>
+      <c r="DQ23" s="1" t="n">
+        <v>194.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9488,6 +9560,9 @@
       <c r="DP24" s="1" t="n">
         <v>180.7</v>
       </c>
+      <c r="DQ24" s="1" t="n">
+        <v>157.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9850,6 +9925,9 @@
       <c r="DP25" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="DQ25" s="1" t="n">
+        <v>157.4</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10212,6 +10290,9 @@
       <c r="DP26" s="3" t="n">
         <v>137.6</v>
       </c>
+      <c r="DQ26" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10574,6 +10655,9 @@
       <c r="DP27" s="1" t="n">
         <v>284.4</v>
       </c>
+      <c r="DQ27" s="1" t="n">
+        <v>154.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -10936,6 +11020,9 @@
       <c r="DP28" s="3" t="n">
         <v>131.2</v>
       </c>
+      <c r="DQ28" s="3" t="n">
+        <v>135.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11298,6 +11385,9 @@
       <c r="DP29" s="1" t="n">
         <v>186.3</v>
       </c>
+      <c r="DQ29" s="1" t="n">
+        <v>228.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11660,6 +11750,9 @@
       <c r="DP30" s="1" t="n">
         <v>440.8</v>
       </c>
+      <c r="DQ30" s="1" t="n">
+        <v>171.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12022,6 +12115,9 @@
       <c r="DP31" s="3" t="n">
         <v>128.1</v>
       </c>
+      <c r="DQ31" s="1" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -12384,6 +12480,9 @@
       <c r="DP32" s="1" t="n">
         <v>166.4</v>
       </c>
+      <c r="DQ32" s="3" t="n">
+        <v>139.7</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -12746,6 +12845,9 @@
       <c r="DP33" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="DQ33" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -13108,6 +13210,9 @@
       <c r="DP34" s="1" t="n">
         <v>153.2</v>
       </c>
+      <c r="DQ34" s="1" t="n">
+        <v>148.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -13470,6 +13575,9 @@
       <c r="DP35" s="1" t="n">
         <v>164</v>
       </c>
+      <c r="DQ35" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -13832,6 +13940,9 @@
       <c r="DP36" s="1" t="n">
         <v>207.6</v>
       </c>
+      <c r="DQ36" s="1" t="n">
+        <v>167.9</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -14194,6 +14305,9 @@
       <c r="DP37" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="DQ37" s="1" t="n">
+        <v>212.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -14556,6 +14670,9 @@
       <c r="DP38" s="3" t="n">
         <v>126.7</v>
       </c>
+      <c r="DQ38" s="3" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -14918,6 +15035,9 @@
       <c r="DP39" s="1" t="n">
         <v>166.6</v>
       </c>
+      <c r="DQ39" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -15280,6 +15400,9 @@
       <c r="DP40" s="3" t="n">
         <v>139.1</v>
       </c>
+      <c r="DQ40" s="1" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -15641,6 +15764,9 @@
       </c>
       <c r="DP41" s="1" t="n">
         <v>150.1</v>
+      </c>
+      <c r="DQ41" s="1" t="n">
+        <v>169.8</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -15974,6 +16100,7 @@
       <c r="DN42" s="1" t="n"/>
       <c r="DO42" s="1" t="n"/>
       <c r="DP42" s="1" t="n"/>
+      <c r="DQ42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -16306,6 +16433,7 @@
       <c r="DN43" s="1" t="n"/>
       <c r="DO43" s="1" t="n"/>
       <c r="DP43" s="1" t="n"/>
+      <c r="DQ43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -16668,6 +16796,9 @@
       <c r="DP44" s="1" t="n">
         <v>204.8</v>
       </c>
+      <c r="DQ44" s="1" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -17030,6 +17161,9 @@
       <c r="DP45" s="1" t="n">
         <v>141</v>
       </c>
+      <c r="DQ45" s="2" t="n">
+        <v>118.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -17392,6 +17526,9 @@
       <c r="DP46" s="2" t="n">
         <v>121.7</v>
       </c>
+      <c r="DQ46" s="1" t="n">
+        <v>215.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -17754,6 +17891,9 @@
       <c r="DP47" s="1" t="n">
         <v>148.6</v>
       </c>
+      <c r="DQ47" s="2" t="n">
+        <v>120.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -18116,6 +18256,9 @@
       <c r="DP48" s="1" t="n">
         <v>167.1</v>
       </c>
+      <c r="DQ48" s="1" t="n">
+        <v>158.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -18478,6 +18621,9 @@
       <c r="DP49" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="DQ49" s="1" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -18840,6 +18986,9 @@
       <c r="DP50" s="1" t="n">
         <v>220.7</v>
       </c>
+      <c r="DQ50" s="1" t="n">
+        <v>144.5</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -19202,6 +19351,9 @@
       <c r="DP51" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="DQ51" s="1" t="n">
+        <v>166.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -19564,6 +19716,9 @@
       <c r="DP52" s="1" t="n">
         <v>194.4</v>
       </c>
+      <c r="DQ52" s="1" t="n">
+        <v>182.8</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -19925,6 +20080,9 @@
       </c>
       <c r="DP53" s="1" t="n">
         <v>203.5</v>
+      </c>
+      <c r="DQ53" s="1" t="n">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DQ53"/>
+  <dimension ref="A1:DR53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,7 @@
     <col width="12" customWidth="1" min="119" max="119"/>
     <col width="12" customWidth="1" min="120" max="120"/>
     <col width="12" customWidth="1" min="121" max="121"/>
+    <col width="12" customWidth="1" min="122" max="122"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1168,6 +1169,11 @@
           <t>2025/01/07</t>
         </is>
       </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/08</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1533,6 +1539,9 @@
       <c r="DQ2" s="1" t="n">
         <v>259.3</v>
       </c>
+      <c r="DR2" s="1" t="n">
+        <v>162.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1898,6 +1907,9 @@
       <c r="DQ3" s="1" t="n">
         <v>143.3</v>
       </c>
+      <c r="DR3" s="3" t="n">
+        <v>130.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2263,6 +2275,9 @@
       <c r="DQ4" s="3" t="n">
         <v>136.6</v>
       </c>
+      <c r="DR4" s="1" t="n">
+        <v>202.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2628,6 +2643,9 @@
       <c r="DQ5" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="DR5" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -2993,6 +3011,9 @@
       <c r="DQ6" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="DR6" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3358,6 +3379,9 @@
       <c r="DQ7" s="2" t="n">
         <v>104.1</v>
       </c>
+      <c r="DR7" s="1" t="n">
+        <v>180.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3723,6 +3747,9 @@
       <c r="DQ8" s="1" t="n">
         <v>184.6</v>
       </c>
+      <c r="DR8" s="1" t="n">
+        <v>154.7</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4088,6 +4115,9 @@
       <c r="DQ9" s="3" t="n">
         <v>131.2</v>
       </c>
+      <c r="DR9" s="2" t="n">
+        <v>113.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4453,6 +4483,9 @@
       <c r="DQ10" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="DR10" s="1" t="n">
+        <v>257.5</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4818,6 +4851,9 @@
       <c r="DQ11" s="1" t="n">
         <v>208.9</v>
       </c>
+      <c r="DR11" s="1" t="n">
+        <v>220.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5183,6 +5219,9 @@
       <c r="DQ12" s="1" t="n">
         <v>188.9</v>
       </c>
+      <c r="DR12" s="3" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5548,6 +5587,9 @@
       <c r="DQ13" s="2" t="n">
         <v>124.2</v>
       </c>
+      <c r="DR13" s="1" t="n">
+        <v>141.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5913,6 +5955,9 @@
       <c r="DQ14" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="DR14" s="3" t="n">
+        <v>125.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6278,6 +6323,9 @@
       <c r="DQ15" s="1" t="n">
         <v>161.5</v>
       </c>
+      <c r="DR15" s="1" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6643,6 +6691,9 @@
       <c r="DQ16" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="DR16" s="3" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7008,6 +7059,9 @@
       <c r="DQ17" s="1" t="n">
         <v>166.8</v>
       </c>
+      <c r="DR17" s="1" t="n">
+        <v>178.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7373,6 +7427,9 @@
       <c r="DQ18" s="1" t="n">
         <v>168</v>
       </c>
+      <c r="DR18" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7738,6 +7795,9 @@
       <c r="DQ19" s="1" t="n">
         <v>191.9</v>
       </c>
+      <c r="DR19" s="1" t="n">
+        <v>182.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8103,6 +8163,9 @@
       <c r="DQ20" s="1" t="n">
         <v>168.6</v>
       </c>
+      <c r="DR20" s="1" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8468,6 +8531,9 @@
       <c r="DQ21" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="DR21" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8833,6 +8899,9 @@
       <c r="DQ22" s="1" t="n">
         <v>167.8</v>
       </c>
+      <c r="DR22" s="1" t="n">
+        <v>155.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9198,6 +9267,9 @@
       <c r="DQ23" s="1" t="n">
         <v>194.3</v>
       </c>
+      <c r="DR23" s="1" t="n">
+        <v>471.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9563,6 +9635,9 @@
       <c r="DQ24" s="1" t="n">
         <v>157.8</v>
       </c>
+      <c r="DR24" s="1" t="n">
+        <v>203.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -9928,6 +10003,9 @@
       <c r="DQ25" s="1" t="n">
         <v>157.4</v>
       </c>
+      <c r="DR25" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10293,6 +10371,9 @@
       <c r="DQ26" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="DR26" s="3" t="n">
+        <v>137.2</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10658,6 +10739,9 @@
       <c r="DQ27" s="1" t="n">
         <v>154.1</v>
       </c>
+      <c r="DR27" s="1" t="n">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11023,6 +11107,9 @@
       <c r="DQ28" s="3" t="n">
         <v>135.3</v>
       </c>
+      <c r="DR28" s="1" t="n">
+        <v>156.2</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11388,6 +11475,9 @@
       <c r="DQ29" s="1" t="n">
         <v>228.9</v>
       </c>
+      <c r="DR29" s="1" t="n">
+        <v>168.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11753,6 +11843,9 @@
       <c r="DQ30" s="1" t="n">
         <v>171.7</v>
       </c>
+      <c r="DR30" s="3" t="n">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12118,6 +12211,9 @@
       <c r="DQ31" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="DR31" s="1" t="n">
+        <v>202.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -12483,6 +12579,9 @@
       <c r="DQ32" s="3" t="n">
         <v>139.7</v>
       </c>
+      <c r="DR32" s="1" t="n">
+        <v>174.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -12848,6 +12947,9 @@
       <c r="DQ33" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="DR33" s="1" t="n">
+        <v>150.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -13213,6 +13315,9 @@
       <c r="DQ34" s="1" t="n">
         <v>148.7</v>
       </c>
+      <c r="DR34" s="1" t="n">
+        <v>172.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -13578,6 +13683,9 @@
       <c r="DQ35" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="DR35" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -13943,6 +14051,9 @@
       <c r="DQ36" s="1" t="n">
         <v>167.9</v>
       </c>
+      <c r="DR36" s="1" t="n">
+        <v>166.9</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -14308,6 +14419,9 @@
       <c r="DQ37" s="1" t="n">
         <v>212.8</v>
       </c>
+      <c r="DR37" s="3" t="n">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -14673,6 +14787,9 @@
       <c r="DQ38" s="3" t="n">
         <v>133.4</v>
       </c>
+      <c r="DR38" s="2" t="n">
+        <v>114.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -15038,6 +15155,9 @@
       <c r="DQ39" s="1" t="n">
         <v>148.5</v>
       </c>
+      <c r="DR39" s="2" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -15403,6 +15523,9 @@
       <c r="DQ40" s="1" t="n">
         <v>168</v>
       </c>
+      <c r="DR40" s="1" t="n">
+        <v>164.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -15767,6 +15890,9 @@
       </c>
       <c r="DQ41" s="1" t="n">
         <v>169.8</v>
+      </c>
+      <c r="DR41" s="1" t="n">
+        <v>161.7</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -16101,6 +16227,7 @@
       <c r="DO42" s="1" t="n"/>
       <c r="DP42" s="1" t="n"/>
       <c r="DQ42" s="1" t="n"/>
+      <c r="DR42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -16434,6 +16561,7 @@
       <c r="DO43" s="1" t="n"/>
       <c r="DP43" s="1" t="n"/>
       <c r="DQ43" s="1" t="n"/>
+      <c r="DR43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -16799,6 +16927,9 @@
       <c r="DQ44" s="1" t="n">
         <v>162.4</v>
       </c>
+      <c r="DR44" s="1" t="n">
+        <v>202.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -17164,6 +17295,9 @@
       <c r="DQ45" s="2" t="n">
         <v>118.8</v>
       </c>
+      <c r="DR45" s="1" t="n">
+        <v>158.3</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -17529,6 +17663,9 @@
       <c r="DQ46" s="1" t="n">
         <v>215.5</v>
       </c>
+      <c r="DR46" s="1" t="n">
+        <v>284.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -17894,6 +18031,9 @@
       <c r="DQ47" s="2" t="n">
         <v>120.4</v>
       </c>
+      <c r="DR47" s="1" t="n">
+        <v>169.9</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -18259,6 +18399,9 @@
       <c r="DQ48" s="1" t="n">
         <v>158.2</v>
       </c>
+      <c r="DR48" s="1" t="n">
+        <v>157.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -18624,6 +18767,9 @@
       <c r="DQ49" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="DR49" s="3" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -18989,6 +19135,9 @@
       <c r="DQ50" s="1" t="n">
         <v>144.5</v>
       </c>
+      <c r="DR50" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -19354,6 +19503,9 @@
       <c r="DQ51" s="1" t="n">
         <v>166.1</v>
       </c>
+      <c r="DR51" s="1" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -19719,6 +19871,9 @@
       <c r="DQ52" s="1" t="n">
         <v>182.8</v>
       </c>
+      <c r="DR52" s="3" t="n">
+        <v>138.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -20083,6 +20238,9 @@
       </c>
       <c r="DQ53" s="1" t="n">
         <v>163</v>
+      </c>
+      <c r="DR53" s="1" t="n">
+        <v>140.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR53"/>
+  <dimension ref="A1:DS53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,7 @@
     <col width="12" customWidth="1" min="120" max="120"/>
     <col width="12" customWidth="1" min="121" max="121"/>
     <col width="12" customWidth="1" min="122" max="122"/>
+    <col width="12" customWidth="1" min="123" max="123"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1174,6 +1175,11 @@
           <t>2025/01/08</t>
         </is>
       </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/09</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1542,6 +1548,9 @@
       <c r="DR2" s="1" t="n">
         <v>162.2</v>
       </c>
+      <c r="DS2" s="1" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1910,6 +1919,9 @@
       <c r="DR3" s="3" t="n">
         <v>130.4</v>
       </c>
+      <c r="DS3" s="1" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2278,6 +2290,9 @@
       <c r="DR4" s="1" t="n">
         <v>202.8</v>
       </c>
+      <c r="DS4" s="1" t="n">
+        <v>153.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2646,6 +2661,9 @@
       <c r="DR5" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="DS5" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3014,6 +3032,9 @@
       <c r="DR6" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="DS6" s="1" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3382,6 +3403,9 @@
       <c r="DR7" s="1" t="n">
         <v>180.2</v>
       </c>
+      <c r="DS7" s="3" t="n">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3750,6 +3774,9 @@
       <c r="DR8" s="1" t="n">
         <v>154.7</v>
       </c>
+      <c r="DS8" s="1" t="n">
+        <v>204.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4118,6 +4145,9 @@
       <c r="DR9" s="2" t="n">
         <v>113.1</v>
       </c>
+      <c r="DS9" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4486,6 +4516,9 @@
       <c r="DR10" s="1" t="n">
         <v>257.5</v>
       </c>
+      <c r="DS10" s="2" t="n">
+        <v>120.9</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4854,6 +4887,9 @@
       <c r="DR11" s="1" t="n">
         <v>220.8</v>
       </c>
+      <c r="DS11" s="2" t="n">
+        <v>104.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5222,6 +5258,9 @@
       <c r="DR12" s="3" t="n">
         <v>133</v>
       </c>
+      <c r="DS12" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5590,6 +5629,9 @@
       <c r="DR13" s="1" t="n">
         <v>141.9</v>
       </c>
+      <c r="DS13" s="1" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -5958,6 +6000,9 @@
       <c r="DR14" s="3" t="n">
         <v>125.8</v>
       </c>
+      <c r="DS14" s="2" t="n">
+        <v>122.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6326,6 +6371,9 @@
       <c r="DR15" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="DS15" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6694,6 +6742,9 @@
       <c r="DR16" s="3" t="n">
         <v>138</v>
       </c>
+      <c r="DS16" s="1" t="n">
+        <v>162.2</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7062,6 +7113,9 @@
       <c r="DR17" s="1" t="n">
         <v>178.7</v>
       </c>
+      <c r="DS17" s="1" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7430,6 +7484,9 @@
       <c r="DR18" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="DS18" s="1" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7798,6 +7855,9 @@
       <c r="DR19" s="1" t="n">
         <v>182.7</v>
       </c>
+      <c r="DS19" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8166,6 +8226,9 @@
       <c r="DR20" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="DS20" s="1" t="n">
+        <v>184.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8534,6 +8597,9 @@
       <c r="DR21" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="DS21" s="1" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8902,6 +8968,9 @@
       <c r="DR22" s="1" t="n">
         <v>155.5</v>
       </c>
+      <c r="DS22" s="1" t="n">
+        <v>217.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9270,6 +9339,9 @@
       <c r="DR23" s="1" t="n">
         <v>471.6</v>
       </c>
+      <c r="DS23" s="1" t="n">
+        <v>144.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9638,6 +9710,9 @@
       <c r="DR24" s="1" t="n">
         <v>203.4</v>
       </c>
+      <c r="DS24" s="1" t="n">
+        <v>177.6</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10006,6 +10081,9 @@
       <c r="DR25" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="DS25" s="3" t="n">
+        <v>131.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10374,6 +10452,9 @@
       <c r="DR26" s="3" t="n">
         <v>137.2</v>
       </c>
+      <c r="DS26" s="1" t="n">
+        <v>189.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10742,6 +10823,9 @@
       <c r="DR27" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="DS27" s="1" t="n">
+        <v>145.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11110,6 +11194,9 @@
       <c r="DR28" s="1" t="n">
         <v>156.2</v>
       </c>
+      <c r="DS28" s="1" t="n">
+        <v>178.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11478,6 +11565,9 @@
       <c r="DR29" s="1" t="n">
         <v>168.4</v>
       </c>
+      <c r="DS29" s="1" t="n">
+        <v>179.8</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11846,6 +11936,9 @@
       <c r="DR30" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="DS30" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12214,6 +12307,9 @@
       <c r="DR31" s="1" t="n">
         <v>202.4</v>
       </c>
+      <c r="DS31" s="1" t="n">
+        <v>153.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -12582,6 +12678,9 @@
       <c r="DR32" s="1" t="n">
         <v>174.3</v>
       </c>
+      <c r="DS32" s="2" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -12950,6 +13049,9 @@
       <c r="DR33" s="1" t="n">
         <v>150.5</v>
       </c>
+      <c r="DS33" s="1" t="n">
+        <v>145.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -13318,6 +13420,9 @@
       <c r="DR34" s="1" t="n">
         <v>172.8</v>
       </c>
+      <c r="DS34" s="1" t="n">
+        <v>333</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -13686,6 +13791,9 @@
       <c r="DR35" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="DS35" s="1" t="n">
+        <v>212.7</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -14054,6 +14162,9 @@
       <c r="DR36" s="1" t="n">
         <v>166.9</v>
       </c>
+      <c r="DS36" s="1" t="n">
+        <v>173.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -14422,6 +14533,9 @@
       <c r="DR37" s="3" t="n">
         <v>129.4</v>
       </c>
+      <c r="DS37" s="1" t="n">
+        <v>260.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -14790,6 +14904,9 @@
       <c r="DR38" s="2" t="n">
         <v>114.5</v>
       </c>
+      <c r="DS38" s="1" t="n">
+        <v>163.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -15158,6 +15275,9 @@
       <c r="DR39" s="2" t="n">
         <v>120</v>
       </c>
+      <c r="DS39" s="2" t="n">
+        <v>114.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -15526,6 +15646,9 @@
       <c r="DR40" s="1" t="n">
         <v>164.1</v>
       </c>
+      <c r="DS40" s="1" t="n">
+        <v>225.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -15893,6 +16016,9 @@
       </c>
       <c r="DR41" s="1" t="n">
         <v>161.7</v>
+      </c>
+      <c r="DS41" s="1" t="n">
+        <v>156.8</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -16228,6 +16354,7 @@
       <c r="DP42" s="1" t="n"/>
       <c r="DQ42" s="1" t="n"/>
       <c r="DR42" s="1" t="n"/>
+      <c r="DS42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -16562,6 +16689,7 @@
       <c r="DP43" s="1" t="n"/>
       <c r="DQ43" s="1" t="n"/>
       <c r="DR43" s="1" t="n"/>
+      <c r="DS43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -16930,6 +17058,9 @@
       <c r="DR44" s="1" t="n">
         <v>202.4</v>
       </c>
+      <c r="DS44" s="1" t="n">
+        <v>177.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -17298,6 +17429,9 @@
       <c r="DR45" s="1" t="n">
         <v>158.3</v>
       </c>
+      <c r="DS45" s="1" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -17666,6 +17800,9 @@
       <c r="DR46" s="1" t="n">
         <v>284.5</v>
       </c>
+      <c r="DS46" s="1" t="n">
+        <v>164.9</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -18034,6 +18171,9 @@
       <c r="DR47" s="1" t="n">
         <v>169.9</v>
       </c>
+      <c r="DS47" s="1" t="n">
+        <v>334.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -18402,6 +18542,9 @@
       <c r="DR48" s="1" t="n">
         <v>157.1</v>
       </c>
+      <c r="DS48" s="2" t="n">
+        <v>123.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -18770,6 +18913,9 @@
       <c r="DR49" s="3" t="n">
         <v>132</v>
       </c>
+      <c r="DS49" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -19138,6 +19284,9 @@
       <c r="DR50" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="DS50" s="1" t="n">
+        <v>186.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -19506,6 +19655,9 @@
       <c r="DR51" s="1" t="n">
         <v>150.6</v>
       </c>
+      <c r="DS51" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -19874,6 +20026,9 @@
       <c r="DR52" s="3" t="n">
         <v>138.7</v>
       </c>
+      <c r="DS52" s="1" t="n">
+        <v>180.8</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -20241,6 +20396,9 @@
       </c>
       <c r="DR53" s="1" t="n">
         <v>140.1</v>
+      </c>
+      <c r="DS53" s="1" t="n">
+        <v>184.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DS53"/>
+  <dimension ref="A1:DT53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,6 +562,7 @@
     <col width="12" customWidth="1" min="121" max="121"/>
     <col width="12" customWidth="1" min="122" max="122"/>
     <col width="12" customWidth="1" min="123" max="123"/>
+    <col width="12" customWidth="1" min="124" max="124"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1180,6 +1181,11 @@
           <t>2025/01/09</t>
         </is>
       </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/10</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1551,6 +1557,9 @@
       <c r="DS2" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="DT2" s="1" t="n">
+        <v>161.7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1922,6 +1931,9 @@
       <c r="DS3" s="1" t="n">
         <v>166</v>
       </c>
+      <c r="DT3" s="2" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2293,6 +2305,9 @@
       <c r="DS4" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="DT4" s="1" t="n">
+        <v>174.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2664,6 +2679,9 @@
       <c r="DS5" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="DT5" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3035,6 +3053,9 @@
       <c r="DS6" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="DT6" s="1" t="n">
+        <v>158.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3406,6 +3427,9 @@
       <c r="DS7" s="3" t="n">
         <v>133.7</v>
       </c>
+      <c r="DT7" s="1" t="n">
+        <v>185.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3777,6 +3801,9 @@
       <c r="DS8" s="1" t="n">
         <v>204.6</v>
       </c>
+      <c r="DT8" s="1" t="n">
+        <v>220.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4148,6 +4175,9 @@
       <c r="DS9" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="DT9" s="1" t="n">
+        <v>158.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4519,6 +4549,9 @@
       <c r="DS10" s="2" t="n">
         <v>120.9</v>
       </c>
+      <c r="DT10" s="1" t="n">
+        <v>172.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4890,6 +4923,9 @@
       <c r="DS11" s="2" t="n">
         <v>104.2</v>
       </c>
+      <c r="DT11" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5261,6 +5297,9 @@
       <c r="DS12" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="DT12" s="1" t="n">
+        <v>216.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5632,6 +5671,9 @@
       <c r="DS13" s="1" t="n">
         <v>161</v>
       </c>
+      <c r="DT13" s="1" t="n">
+        <v>142.8</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6003,6 +6045,9 @@
       <c r="DS14" s="2" t="n">
         <v>122.8</v>
       </c>
+      <c r="DT14" s="1" t="n">
+        <v>245.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6374,6 +6419,9 @@
       <c r="DS15" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="DT15" s="3" t="n">
+        <v>134.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6745,6 +6793,9 @@
       <c r="DS16" s="1" t="n">
         <v>162.2</v>
       </c>
+      <c r="DT16" s="1" t="n">
+        <v>154.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7116,6 +7167,9 @@
       <c r="DS17" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="DT17" s="1" t="n">
+        <v>232.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7487,6 +7541,9 @@
       <c r="DS18" s="1" t="n">
         <v>233</v>
       </c>
+      <c r="DT18" s="3" t="n">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7858,6 +7915,9 @@
       <c r="DS19" s="1" t="n">
         <v>146.6</v>
       </c>
+      <c r="DT19" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8229,6 +8289,9 @@
       <c r="DS20" s="1" t="n">
         <v>184.7</v>
       </c>
+      <c r="DT20" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8600,6 +8663,9 @@
       <c r="DS21" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="DT21" s="1" t="n">
+        <v>147.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -8971,6 +9037,9 @@
       <c r="DS22" s="1" t="n">
         <v>217.9</v>
       </c>
+      <c r="DT22" s="1" t="n">
+        <v>173.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9342,6 +9411,9 @@
       <c r="DS23" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="DT23" s="3" t="n">
+        <v>135.4</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9713,6 +9785,9 @@
       <c r="DS24" s="1" t="n">
         <v>177.6</v>
       </c>
+      <c r="DT24" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10084,6 +10159,9 @@
       <c r="DS25" s="3" t="n">
         <v>131.3</v>
       </c>
+      <c r="DT25" s="1" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10455,6 +10533,9 @@
       <c r="DS26" s="1" t="n">
         <v>189.4</v>
       </c>
+      <c r="DT26" s="2" t="n">
+        <v>118.2</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10826,6 +10907,9 @@
       <c r="DS27" s="1" t="n">
         <v>145.8</v>
       </c>
+      <c r="DT27" s="1" t="n">
+        <v>177.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11197,6 +11281,9 @@
       <c r="DS28" s="1" t="n">
         <v>178.6</v>
       </c>
+      <c r="DT28" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11568,6 +11655,9 @@
       <c r="DS29" s="1" t="n">
         <v>179.8</v>
       </c>
+      <c r="DT29" s="1" t="n">
+        <v>209.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -11939,6 +12029,9 @@
       <c r="DS30" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="DT30" s="2" t="n">
+        <v>123.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12310,6 +12403,9 @@
       <c r="DS31" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="DT31" s="2" t="n">
+        <v>122.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -12681,6 +12777,9 @@
       <c r="DS32" s="2" t="n">
         <v>124.2</v>
       </c>
+      <c r="DT32" s="1" t="n">
+        <v>164.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -13052,6 +13151,9 @@
       <c r="DS33" s="1" t="n">
         <v>145.8</v>
       </c>
+      <c r="DT33" s="1" t="n">
+        <v>146.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -13423,6 +13525,9 @@
       <c r="DS34" s="1" t="n">
         <v>333</v>
       </c>
+      <c r="DT34" s="1" t="n">
+        <v>173.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -13794,6 +13899,9 @@
       <c r="DS35" s="1" t="n">
         <v>212.7</v>
       </c>
+      <c r="DT35" s="1" t="n">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -14165,6 +14273,9 @@
       <c r="DS36" s="1" t="n">
         <v>173.2</v>
       </c>
+      <c r="DT36" s="1" t="n">
+        <v>166.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -14536,6 +14647,9 @@
       <c r="DS37" s="1" t="n">
         <v>260.4</v>
       </c>
+      <c r="DT37" s="1" t="n">
+        <v>262.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -14907,6 +15021,9 @@
       <c r="DS38" s="1" t="n">
         <v>163.6</v>
       </c>
+      <c r="DT38" s="1" t="n">
+        <v>159.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -15278,6 +15395,9 @@
       <c r="DS39" s="2" t="n">
         <v>114.7</v>
       </c>
+      <c r="DT39" s="3" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -15649,6 +15769,9 @@
       <c r="DS40" s="1" t="n">
         <v>225.5</v>
       </c>
+      <c r="DT40" s="1" t="n">
+        <v>142.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -16019,6 +16142,9 @@
       </c>
       <c r="DS41" s="1" t="n">
         <v>156.8</v>
+      </c>
+      <c r="DT41" s="1" t="n">
+        <v>152.5</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -16355,6 +16481,7 @@
       <c r="DQ42" s="1" t="n"/>
       <c r="DR42" s="1" t="n"/>
       <c r="DS42" s="1" t="n"/>
+      <c r="DT42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -16690,6 +16817,7 @@
       <c r="DQ43" s="1" t="n"/>
       <c r="DR43" s="1" t="n"/>
       <c r="DS43" s="1" t="n"/>
+      <c r="DT43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -17061,6 +17189,9 @@
       <c r="DS44" s="1" t="n">
         <v>177.7</v>
       </c>
+      <c r="DT44" s="1" t="n">
+        <v>161.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -17432,6 +17563,9 @@
       <c r="DS45" s="1" t="n">
         <v>175</v>
       </c>
+      <c r="DT45" s="1" t="n">
+        <v>181.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -17803,6 +17937,9 @@
       <c r="DS46" s="1" t="n">
         <v>164.9</v>
       </c>
+      <c r="DT46" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -18174,6 +18311,9 @@
       <c r="DS47" s="1" t="n">
         <v>334.7</v>
       </c>
+      <c r="DT47" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -18545,6 +18685,9 @@
       <c r="DS48" s="2" t="n">
         <v>123.2</v>
       </c>
+      <c r="DT48" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -18916,6 +19059,9 @@
       <c r="DS49" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="DT49" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -19287,6 +19433,9 @@
       <c r="DS50" s="1" t="n">
         <v>186.2</v>
       </c>
+      <c r="DT50" s="1" t="n">
+        <v>162.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -19658,6 +19807,9 @@
       <c r="DS51" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="DT51" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -20029,6 +20181,9 @@
       <c r="DS52" s="1" t="n">
         <v>180.8</v>
       </c>
+      <c r="DT52" s="1" t="n">
+        <v>223.1</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -20399,6 +20554,9 @@
       </c>
       <c r="DS53" s="1" t="n">
         <v>184.1</v>
+      </c>
+      <c r="DT53" s="3" t="n">
+        <v>132.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DT53"/>
+  <dimension ref="A1:DU53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,6 +563,7 @@
     <col width="12" customWidth="1" min="122" max="122"/>
     <col width="12" customWidth="1" min="123" max="123"/>
     <col width="12" customWidth="1" min="124" max="124"/>
+    <col width="12" customWidth="1" min="125" max="125"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1186,6 +1187,11 @@
           <t>2025/01/10</t>
         </is>
       </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/11</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1560,6 +1566,9 @@
       <c r="DT2" s="1" t="n">
         <v>161.7</v>
       </c>
+      <c r="DU2" s="1" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1934,6 +1943,9 @@
       <c r="DT3" s="2" t="n">
         <v>119.7</v>
       </c>
+      <c r="DU3" s="1" t="n">
+        <v>204.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2308,6 +2320,9 @@
       <c r="DT4" s="1" t="n">
         <v>174.8</v>
       </c>
+      <c r="DU4" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2682,6 +2697,9 @@
       <c r="DT5" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="DU5" s="1" t="n">
+        <v>179.7</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3056,6 +3074,9 @@
       <c r="DT6" s="1" t="n">
         <v>158.2</v>
       </c>
+      <c r="DU6" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3430,6 +3451,9 @@
       <c r="DT7" s="1" t="n">
         <v>185.2</v>
       </c>
+      <c r="DU7" s="1" t="n">
+        <v>154.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3804,6 +3828,9 @@
       <c r="DT8" s="1" t="n">
         <v>220.9</v>
       </c>
+      <c r="DU8" s="3" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4178,6 +4205,9 @@
       <c r="DT9" s="1" t="n">
         <v>158.3</v>
       </c>
+      <c r="DU9" s="1" t="n">
+        <v>144.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4552,6 +4582,9 @@
       <c r="DT10" s="1" t="n">
         <v>172.8</v>
       </c>
+      <c r="DU10" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4926,6 +4959,9 @@
       <c r="DT11" s="3" t="n">
         <v>127.6</v>
       </c>
+      <c r="DU11" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5300,6 +5336,9 @@
       <c r="DT12" s="1" t="n">
         <v>216.2</v>
       </c>
+      <c r="DU12" s="1" t="n">
+        <v>175.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5674,6 +5713,9 @@
       <c r="DT13" s="1" t="n">
         <v>142.8</v>
       </c>
+      <c r="DU13" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6048,6 +6090,9 @@
       <c r="DT14" s="1" t="n">
         <v>245.9</v>
       </c>
+      <c r="DU14" s="2" t="n">
+        <v>115.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6422,6 +6467,9 @@
       <c r="DT15" s="3" t="n">
         <v>134.2</v>
       </c>
+      <c r="DU15" s="1" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6796,6 +6844,9 @@
       <c r="DT16" s="1" t="n">
         <v>154.7</v>
       </c>
+      <c r="DU16" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7170,6 +7221,9 @@
       <c r="DT17" s="1" t="n">
         <v>232.7</v>
       </c>
+      <c r="DU17" s="1" t="n">
+        <v>190.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7544,6 +7598,9 @@
       <c r="DT18" s="3" t="n">
         <v>133.7</v>
       </c>
+      <c r="DU18" s="1" t="n">
+        <v>162.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7918,6 +7975,9 @@
       <c r="DT19" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="DU19" s="1" t="n">
+        <v>160.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8292,6 +8352,9 @@
       <c r="DT20" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="DU20" s="1" t="n">
+        <v>207.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8666,6 +8729,9 @@
       <c r="DT21" s="1" t="n">
         <v>147.3</v>
       </c>
+      <c r="DU21" s="3" t="n">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9040,6 +9106,9 @@
       <c r="DT22" s="1" t="n">
         <v>173.9</v>
       </c>
+      <c r="DU22" s="2" t="n">
+        <v>117.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9414,6 +9483,9 @@
       <c r="DT23" s="3" t="n">
         <v>135.4</v>
       </c>
+      <c r="DU23" s="1" t="n">
+        <v>159.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9788,6 +9860,9 @@
       <c r="DT24" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="DU24" s="3" t="n">
+        <v>133.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10162,6 +10237,9 @@
       <c r="DT25" s="1" t="n">
         <v>178</v>
       </c>
+      <c r="DU25" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10536,6 +10614,9 @@
       <c r="DT26" s="2" t="n">
         <v>118.2</v>
       </c>
+      <c r="DU26" s="3" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10910,6 +10991,9 @@
       <c r="DT27" s="1" t="n">
         <v>177.5</v>
       </c>
+      <c r="DU27" s="1" t="n">
+        <v>190.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11284,6 +11368,9 @@
       <c r="DT28" s="3" t="n">
         <v>129</v>
       </c>
+      <c r="DU28" s="1" t="n">
+        <v>213.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11658,6 +11745,9 @@
       <c r="DT29" s="1" t="n">
         <v>209.3</v>
       </c>
+      <c r="DU29" s="1" t="n">
+        <v>160.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12032,6 +12122,9 @@
       <c r="DT30" s="2" t="n">
         <v>123.5</v>
       </c>
+      <c r="DU30" s="1" t="n">
+        <v>176.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12406,6 +12499,9 @@
       <c r="DT31" s="2" t="n">
         <v>122.3</v>
       </c>
+      <c r="DU31" s="1" t="n">
+        <v>147.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -12780,6 +12876,9 @@
       <c r="DT32" s="1" t="n">
         <v>164.2</v>
       </c>
+      <c r="DU32" s="1" t="n">
+        <v>174.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -13154,6 +13253,9 @@
       <c r="DT33" s="1" t="n">
         <v>146.1</v>
       </c>
+      <c r="DU33" s="1" t="n">
+        <v>221.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -13528,6 +13630,9 @@
       <c r="DT34" s="1" t="n">
         <v>173.1</v>
       </c>
+      <c r="DU34" s="1" t="n">
+        <v>175.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -13902,6 +14007,9 @@
       <c r="DT35" s="1" t="n">
         <v>140.7</v>
       </c>
+      <c r="DU35" s="2" t="n">
+        <v>124.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -14276,6 +14384,9 @@
       <c r="DT36" s="1" t="n">
         <v>166.7</v>
       </c>
+      <c r="DU36" s="1" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -14650,6 +14761,9 @@
       <c r="DT37" s="1" t="n">
         <v>262.8</v>
       </c>
+      <c r="DU37" s="1" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -15024,6 +15138,9 @@
       <c r="DT38" s="1" t="n">
         <v>159.6</v>
       </c>
+      <c r="DU38" s="2" t="n">
+        <v>118.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -15398,6 +15515,9 @@
       <c r="DT39" s="3" t="n">
         <v>128</v>
       </c>
+      <c r="DU39" s="1" t="n">
+        <v>167.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -15772,6 +15892,9 @@
       <c r="DT40" s="1" t="n">
         <v>142.2</v>
       </c>
+      <c r="DU40" s="3" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -16145,6 +16268,9 @@
       </c>
       <c r="DT41" s="1" t="n">
         <v>152.5</v>
+      </c>
+      <c r="DU41" s="1" t="n">
+        <v>212.8</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -16482,6 +16608,7 @@
       <c r="DR42" s="1" t="n"/>
       <c r="DS42" s="1" t="n"/>
       <c r="DT42" s="1" t="n"/>
+      <c r="DU42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -16818,6 +16945,7 @@
       <c r="DR43" s="1" t="n"/>
       <c r="DS43" s="1" t="n"/>
       <c r="DT43" s="1" t="n"/>
+      <c r="DU43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -17192,6 +17320,9 @@
       <c r="DT44" s="1" t="n">
         <v>161.1</v>
       </c>
+      <c r="DU44" s="1" t="n">
+        <v>147.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -17566,6 +17697,9 @@
       <c r="DT45" s="1" t="n">
         <v>181.2</v>
       </c>
+      <c r="DU45" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -17940,6 +18074,9 @@
       <c r="DT46" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="DU46" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -18314,6 +18451,9 @@
       <c r="DT47" s="3" t="n">
         <v>136</v>
       </c>
+      <c r="DU47" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -18688,6 +18828,9 @@
       <c r="DT48" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="DU48" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -19062,6 +19205,9 @@
       <c r="DT49" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="DU49" s="1" t="n">
+        <v>169.5</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -19436,6 +19582,9 @@
       <c r="DT50" s="1" t="n">
         <v>162.3</v>
       </c>
+      <c r="DU50" s="1" t="n">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -19810,6 +19959,9 @@
       <c r="DT51" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="DU51" s="1" t="n">
+        <v>155.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -20184,6 +20336,9 @@
       <c r="DT52" s="1" t="n">
         <v>223.1</v>
       </c>
+      <c r="DU52" s="3" t="n">
+        <v>139.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -20557,6 +20712,9 @@
       </c>
       <c r="DT53" s="3" t="n">
         <v>132.2</v>
+      </c>
+      <c r="DU53" s="1" t="n">
+        <v>149.3</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DU53"/>
+  <dimension ref="A1:DV53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +564,7 @@
     <col width="12" customWidth="1" min="123" max="123"/>
     <col width="12" customWidth="1" min="124" max="124"/>
     <col width="12" customWidth="1" min="125" max="125"/>
+    <col width="12" customWidth="1" min="126" max="126"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1192,6 +1193,11 @@
           <t>2025/01/11</t>
         </is>
       </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/12</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1569,6 +1575,9 @@
       <c r="DU2" s="1" t="n">
         <v>178</v>
       </c>
+      <c r="DV2" s="1" t="n">
+        <v>151.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1946,6 +1955,9 @@
       <c r="DU3" s="1" t="n">
         <v>204.4</v>
       </c>
+      <c r="DV3" s="1" t="n">
+        <v>196.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2323,6 +2335,9 @@
       <c r="DU4" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="DV4" s="1" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2700,6 +2715,9 @@
       <c r="DU5" s="1" t="n">
         <v>179.7</v>
       </c>
+      <c r="DV5" s="3" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3077,6 +3095,9 @@
       <c r="DU6" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="DV6" s="1" t="n">
+        <v>147.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3454,6 +3475,9 @@
       <c r="DU7" s="1" t="n">
         <v>154.7</v>
       </c>
+      <c r="DV7" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3831,6 +3855,9 @@
       <c r="DU8" s="3" t="n">
         <v>138</v>
       </c>
+      <c r="DV8" s="1" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4208,6 +4235,9 @@
       <c r="DU9" s="1" t="n">
         <v>144.8</v>
       </c>
+      <c r="DV9" s="3" t="n">
+        <v>136.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4585,6 +4615,9 @@
       <c r="DU10" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="DV10" s="1" t="n">
+        <v>184.9</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4962,6 +4995,9 @@
       <c r="DU11" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="DV11" s="1" t="n">
+        <v>229.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5339,6 +5375,9 @@
       <c r="DU12" s="1" t="n">
         <v>175.3</v>
       </c>
+      <c r="DV12" s="1" t="n">
+        <v>143.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5716,6 +5755,9 @@
       <c r="DU13" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="DV13" s="3" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6093,6 +6135,9 @@
       <c r="DU14" s="2" t="n">
         <v>115.2</v>
       </c>
+      <c r="DV14" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6470,6 +6515,9 @@
       <c r="DU15" s="1" t="n">
         <v>199</v>
       </c>
+      <c r="DV15" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6847,6 +6895,9 @@
       <c r="DU16" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="DV16" s="3" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7224,6 +7275,9 @@
       <c r="DU17" s="1" t="n">
         <v>190.4</v>
       </c>
+      <c r="DV17" s="1" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7601,6 +7655,9 @@
       <c r="DU18" s="1" t="n">
         <v>162.6</v>
       </c>
+      <c r="DV18" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -7978,6 +8035,9 @@
       <c r="DU19" s="1" t="n">
         <v>160.8</v>
       </c>
+      <c r="DV19" s="3" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8355,6 +8415,9 @@
       <c r="DU20" s="1" t="n">
         <v>207.5</v>
       </c>
+      <c r="DV20" s="1" t="n">
+        <v>170.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8732,6 +8795,9 @@
       <c r="DU21" s="3" t="n">
         <v>138.5</v>
       </c>
+      <c r="DV21" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9109,6 +9175,9 @@
       <c r="DU22" s="2" t="n">
         <v>117.9</v>
       </c>
+      <c r="DV22" s="1" t="n">
+        <v>161.1</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9486,6 +9555,9 @@
       <c r="DU23" s="1" t="n">
         <v>159.3</v>
       </c>
+      <c r="DV23" s="1" t="n">
+        <v>208.4</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9863,6 +9935,9 @@
       <c r="DU24" s="3" t="n">
         <v>133.8</v>
       </c>
+      <c r="DV24" s="1" t="n">
+        <v>194.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10240,6 +10315,9 @@
       <c r="DU25" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="DV25" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10617,6 +10695,9 @@
       <c r="DU26" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="DV26" s="1" t="n">
+        <v>191.9</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -10994,6 +11075,9 @@
       <c r="DU27" s="1" t="n">
         <v>190.3</v>
       </c>
+      <c r="DV27" s="1" t="n">
+        <v>190.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11371,6 +11455,9 @@
       <c r="DU28" s="1" t="n">
         <v>213.6</v>
       </c>
+      <c r="DV28" s="1" t="n">
+        <v>161.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11748,6 +11835,9 @@
       <c r="DU29" s="1" t="n">
         <v>160.6</v>
       </c>
+      <c r="DV29" s="1" t="n">
+        <v>161.8</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12125,6 +12215,9 @@
       <c r="DU30" s="1" t="n">
         <v>176.1</v>
       </c>
+      <c r="DV30" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12502,6 +12595,9 @@
       <c r="DU31" s="1" t="n">
         <v>147.9</v>
       </c>
+      <c r="DV31" s="3" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -12879,6 +12975,9 @@
       <c r="DU32" s="1" t="n">
         <v>174.9</v>
       </c>
+      <c r="DV32" s="1" t="n">
+        <v>158.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -13256,6 +13355,9 @@
       <c r="DU33" s="1" t="n">
         <v>221.8</v>
       </c>
+      <c r="DV33" s="3" t="n">
+        <v>126.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -13633,6 +13735,9 @@
       <c r="DU34" s="1" t="n">
         <v>175.9</v>
       </c>
+      <c r="DV34" s="2" t="n">
+        <v>117.6</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -14010,6 +14115,9 @@
       <c r="DU35" s="2" t="n">
         <v>124.9</v>
       </c>
+      <c r="DV35" s="1" t="n">
+        <v>209.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -14387,6 +14495,9 @@
       <c r="DU36" s="1" t="n">
         <v>150.1</v>
       </c>
+      <c r="DV36" s="1" t="n">
+        <v>180.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -14764,6 +14875,9 @@
       <c r="DU37" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="DV37" s="3" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -15141,6 +15255,9 @@
       <c r="DU38" s="2" t="n">
         <v>118.8</v>
       </c>
+      <c r="DV38" s="3" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -15518,6 +15635,9 @@
       <c r="DU39" s="1" t="n">
         <v>167.5</v>
       </c>
+      <c r="DV39" s="1" t="n">
+        <v>203.8</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -15895,6 +16015,9 @@
       <c r="DU40" s="3" t="n">
         <v>134.9</v>
       </c>
+      <c r="DV40" s="3" t="n">
+        <v>138.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -16271,6 +16394,9 @@
       </c>
       <c r="DU41" s="1" t="n">
         <v>212.8</v>
+      </c>
+      <c r="DV41" s="1" t="n">
+        <v>165.4</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -16609,6 +16735,7 @@
       <c r="DS42" s="1" t="n"/>
       <c r="DT42" s="1" t="n"/>
       <c r="DU42" s="1" t="n"/>
+      <c r="DV42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -16946,6 +17073,7 @@
       <c r="DS43" s="1" t="n"/>
       <c r="DT43" s="1" t="n"/>
       <c r="DU43" s="1" t="n"/>
+      <c r="DV43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -17323,6 +17451,9 @@
       <c r="DU44" s="1" t="n">
         <v>147.8</v>
       </c>
+      <c r="DV44" s="1" t="n">
+        <v>169.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -17700,6 +17831,9 @@
       <c r="DU45" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="DV45" s="1" t="n">
+        <v>172.4</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -18077,6 +18211,9 @@
       <c r="DU46" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="DV46" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -18454,6 +18591,9 @@
       <c r="DU47" s="3" t="n">
         <v>135.8</v>
       </c>
+      <c r="DV47" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -18831,6 +18971,9 @@
       <c r="DU48" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="DV48" s="1" t="n">
+        <v>217.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -19208,6 +19351,9 @@
       <c r="DU49" s="1" t="n">
         <v>169.5</v>
       </c>
+      <c r="DV49" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -19585,6 +19731,9 @@
       <c r="DU50" s="1" t="n">
         <v>152.4</v>
       </c>
+      <c r="DV50" s="3" t="n">
+        <v>126.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -19962,6 +20111,9 @@
       <c r="DU51" s="1" t="n">
         <v>155.5</v>
       </c>
+      <c r="DV51" s="1" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -20339,6 +20491,9 @@
       <c r="DU52" s="3" t="n">
         <v>139.2</v>
       </c>
+      <c r="DV52" s="1" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -20715,6 +20870,9 @@
       </c>
       <c r="DU53" s="1" t="n">
         <v>149.3</v>
+      </c>
+      <c r="DV53" s="2" t="n">
+        <v>122.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DV53"/>
+  <dimension ref="A1:DW53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,7 @@
     <col width="12" customWidth="1" min="124" max="124"/>
     <col width="12" customWidth="1" min="125" max="125"/>
     <col width="12" customWidth="1" min="126" max="126"/>
+    <col width="12" customWidth="1" min="127" max="127"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1198,6 +1199,11 @@
           <t>2025/01/12</t>
         </is>
       </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/13</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1578,6 +1584,9 @@
       <c r="DV2" s="1" t="n">
         <v>151.1</v>
       </c>
+      <c r="DW2" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1958,6 +1967,9 @@
       <c r="DV3" s="1" t="n">
         <v>196.9</v>
       </c>
+      <c r="DW3" s="1" t="n">
+        <v>153.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2338,6 +2350,9 @@
       <c r="DV4" s="1" t="n">
         <v>156.6</v>
       </c>
+      <c r="DW4" s="1" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2718,6 +2733,9 @@
       <c r="DV5" s="3" t="n">
         <v>129.5</v>
       </c>
+      <c r="DW5" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3098,6 +3116,9 @@
       <c r="DV6" s="1" t="n">
         <v>147.2</v>
       </c>
+      <c r="DW6" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3478,6 +3499,9 @@
       <c r="DV7" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="DW7" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3858,6 +3882,9 @@
       <c r="DV8" s="1" t="n">
         <v>151.8</v>
       </c>
+      <c r="DW8" s="1" t="n">
+        <v>193.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4238,6 +4265,9 @@
       <c r="DV9" s="3" t="n">
         <v>136.2</v>
       </c>
+      <c r="DW9" s="3" t="n">
+        <v>128.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4618,6 +4648,9 @@
       <c r="DV10" s="1" t="n">
         <v>184.9</v>
       </c>
+      <c r="DW10" s="1" t="n">
+        <v>309.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -4998,6 +5031,9 @@
       <c r="DV11" s="1" t="n">
         <v>229.2</v>
       </c>
+      <c r="DW11" s="1" t="n">
+        <v>143.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5378,6 +5414,9 @@
       <c r="DV12" s="1" t="n">
         <v>143.2</v>
       </c>
+      <c r="DW12" s="1" t="n">
+        <v>162.9</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5758,6 +5797,9 @@
       <c r="DV13" s="3" t="n">
         <v>139</v>
       </c>
+      <c r="DW13" s="3" t="n">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6138,6 +6180,9 @@
       <c r="DV14" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="DW14" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6518,6 +6563,9 @@
       <c r="DV15" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="DW15" s="2" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6898,6 +6946,9 @@
       <c r="DV16" s="3" t="n">
         <v>133.6</v>
       </c>
+      <c r="DW16" s="3" t="n">
+        <v>137.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7278,6 +7329,9 @@
       <c r="DV17" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="DW17" s="3" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7658,6 +7712,9 @@
       <c r="DV18" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="DW18" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8038,6 +8095,9 @@
       <c r="DV19" s="3" t="n">
         <v>129.5</v>
       </c>
+      <c r="DW19" s="1" t="n">
+        <v>154.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8418,6 +8478,9 @@
       <c r="DV20" s="1" t="n">
         <v>170.5</v>
       </c>
+      <c r="DW20" s="1" t="n">
+        <v>183.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8798,6 +8861,9 @@
       <c r="DV21" s="3" t="n">
         <v>135.8</v>
       </c>
+      <c r="DW21" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9178,6 +9244,9 @@
       <c r="DV22" s="1" t="n">
         <v>161.1</v>
       </c>
+      <c r="DW22" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9558,6 +9627,9 @@
       <c r="DV23" s="1" t="n">
         <v>208.4</v>
       </c>
+      <c r="DW23" s="1" t="n">
+        <v>173.3</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -9938,6 +10010,9 @@
       <c r="DV24" s="1" t="n">
         <v>194.7</v>
       </c>
+      <c r="DW24" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10318,6 +10393,9 @@
       <c r="DV25" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="DW25" s="1" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10698,6 +10776,9 @@
       <c r="DV26" s="1" t="n">
         <v>191.9</v>
       </c>
+      <c r="DW26" s="2" t="n">
+        <v>115.4</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11078,6 +11159,9 @@
       <c r="DV27" s="1" t="n">
         <v>190.2</v>
       </c>
+      <c r="DW27" s="1" t="n">
+        <v>237.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11458,6 +11542,9 @@
       <c r="DV28" s="1" t="n">
         <v>161.1</v>
       </c>
+      <c r="DW28" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11838,6 +11925,9 @@
       <c r="DV29" s="1" t="n">
         <v>161.8</v>
       </c>
+      <c r="DW29" s="3" t="n">
+        <v>125.7</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12218,6 +12308,9 @@
       <c r="DV30" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="DW30" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12598,6 +12691,9 @@
       <c r="DV31" s="3" t="n">
         <v>136.1</v>
       </c>
+      <c r="DW31" s="3" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -12978,6 +13074,9 @@
       <c r="DV32" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="DW32" s="1" t="n">
+        <v>158.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -13358,6 +13457,9 @@
       <c r="DV33" s="3" t="n">
         <v>126.1</v>
       </c>
+      <c r="DW33" s="1" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -13738,6 +13840,9 @@
       <c r="DV34" s="2" t="n">
         <v>117.6</v>
       </c>
+      <c r="DW34" s="1" t="n">
+        <v>161.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -14118,6 +14223,9 @@
       <c r="DV35" s="1" t="n">
         <v>209.1</v>
       </c>
+      <c r="DW35" s="1" t="n">
+        <v>197.8</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -14498,6 +14606,9 @@
       <c r="DV36" s="1" t="n">
         <v>180.6</v>
       </c>
+      <c r="DW36" s="3" t="n">
+        <v>132.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -14878,6 +14989,9 @@
       <c r="DV37" s="3" t="n">
         <v>136.7</v>
       </c>
+      <c r="DW37" s="2" t="n">
+        <v>117.6</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -15258,6 +15372,9 @@
       <c r="DV38" s="3" t="n">
         <v>130.5</v>
       </c>
+      <c r="DW38" s="1" t="n">
+        <v>183.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -15638,6 +15755,9 @@
       <c r="DV39" s="1" t="n">
         <v>203.8</v>
       </c>
+      <c r="DW39" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -16018,6 +16138,9 @@
       <c r="DV40" s="3" t="n">
         <v>138.2</v>
       </c>
+      <c r="DW40" s="1" t="n">
+        <v>175.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -16397,6 +16520,9 @@
       </c>
       <c r="DV41" s="1" t="n">
         <v>165.4</v>
+      </c>
+      <c r="DW41" s="3" t="n">
+        <v>137.3</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -16736,6 +16862,7 @@
       <c r="DT42" s="1" t="n"/>
       <c r="DU42" s="1" t="n"/>
       <c r="DV42" s="1" t="n"/>
+      <c r="DW42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -17074,6 +17201,7 @@
       <c r="DT43" s="1" t="n"/>
       <c r="DU43" s="1" t="n"/>
       <c r="DV43" s="1" t="n"/>
+      <c r="DW43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -17454,6 +17582,9 @@
       <c r="DV44" s="1" t="n">
         <v>169.6</v>
       </c>
+      <c r="DW44" s="3" t="n">
+        <v>139.3</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -17834,6 +17965,9 @@
       <c r="DV45" s="1" t="n">
         <v>172.4</v>
       </c>
+      <c r="DW45" s="3" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -18214,6 +18348,9 @@
       <c r="DV46" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="DW46" s="1" t="n">
+        <v>147.9</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -18594,6 +18731,9 @@
       <c r="DV47" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="DW47" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -18974,6 +19114,9 @@
       <c r="DV48" s="1" t="n">
         <v>217.9</v>
       </c>
+      <c r="DW48" s="2" t="n">
+        <v>120.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -19354,6 +19497,9 @@
       <c r="DV49" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="DW49" s="2" t="n">
+        <v>120.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -19734,6 +19880,9 @@
       <c r="DV50" s="3" t="n">
         <v>126.9</v>
       </c>
+      <c r="DW50" s="1" t="n">
+        <v>153.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -20114,6 +20263,9 @@
       <c r="DV51" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="DW51" s="1" t="n">
+        <v>152.9</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -20494,6 +20646,9 @@
       <c r="DV52" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="DW52" s="1" t="n">
+        <v>178.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -20873,6 +21028,9 @@
       </c>
       <c r="DV53" s="2" t="n">
         <v>122.9</v>
+      </c>
+      <c r="DW53" s="1" t="n">
+        <v>141.9</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DW53"/>
+  <dimension ref="A1:DX53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,7 @@
     <col width="12" customWidth="1" min="125" max="125"/>
     <col width="12" customWidth="1" min="126" max="126"/>
     <col width="12" customWidth="1" min="127" max="127"/>
+    <col width="12" customWidth="1" min="128" max="128"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1204,6 +1205,11 @@
           <t>2025/01/13</t>
         </is>
       </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/14</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1587,6 +1593,9 @@
       <c r="DW2" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="DX2" s="1" t="n">
+        <v>176.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1970,6 +1979,9 @@
       <c r="DW3" s="1" t="n">
         <v>153.8</v>
       </c>
+      <c r="DX3" s="1" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2353,6 +2365,9 @@
       <c r="DW4" s="1" t="n">
         <v>188.9</v>
       </c>
+      <c r="DX4" s="1" t="n">
+        <v>213.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2736,6 +2751,9 @@
       <c r="DW5" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="DX5" s="2" t="n">
+        <v>124.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3119,6 +3137,9 @@
       <c r="DW6" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="DX6" s="1" t="n">
+        <v>167.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3502,6 +3523,9 @@
       <c r="DW7" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="DX7" s="1" t="n">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3885,6 +3909,9 @@
       <c r="DW8" s="1" t="n">
         <v>193.5</v>
       </c>
+      <c r="DX8" s="2" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4268,6 +4295,9 @@
       <c r="DW9" s="3" t="n">
         <v>128.3</v>
       </c>
+      <c r="DX9" s="1" t="n">
+        <v>204.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4651,6 +4681,9 @@
       <c r="DW10" s="1" t="n">
         <v>309.2</v>
       </c>
+      <c r="DX10" s="3" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5034,6 +5067,9 @@
       <c r="DW11" s="1" t="n">
         <v>143.9</v>
       </c>
+      <c r="DX11" s="3" t="n">
+        <v>135.5</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5417,6 +5453,9 @@
       <c r="DW12" s="1" t="n">
         <v>162.9</v>
       </c>
+      <c r="DX12" s="1" t="n">
+        <v>175.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5800,6 +5839,9 @@
       <c r="DW13" s="3" t="n">
         <v>125.3</v>
       </c>
+      <c r="DX13" s="1" t="n">
+        <v>217.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6183,6 +6225,9 @@
       <c r="DW14" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="DX14" s="1" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6566,6 +6611,9 @@
       <c r="DW15" s="2" t="n">
         <v>101</v>
       </c>
+      <c r="DX15" s="1" t="n">
+        <v>162.5</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -6949,6 +6997,9 @@
       <c r="DW16" s="3" t="n">
         <v>137.5</v>
       </c>
+      <c r="DX16" s="1" t="n">
+        <v>212.2</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7332,6 +7383,9 @@
       <c r="DW17" s="3" t="n">
         <v>134.8</v>
       </c>
+      <c r="DX17" s="1" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7715,6 +7769,9 @@
       <c r="DW18" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="DX18" s="1" t="n">
+        <v>176.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8098,6 +8155,9 @@
       <c r="DW19" s="1" t="n">
         <v>154.9</v>
       </c>
+      <c r="DX19" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8481,6 +8541,9 @@
       <c r="DW20" s="1" t="n">
         <v>183.7</v>
       </c>
+      <c r="DX20" s="1" t="n">
+        <v>154.1</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8864,6 +8927,9 @@
       <c r="DW21" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="DX21" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9247,6 +9313,9 @@
       <c r="DW22" s="2" t="n">
         <v>121.8</v>
       </c>
+      <c r="DX22" s="1" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9630,6 +9699,9 @@
       <c r="DW23" s="1" t="n">
         <v>173.3</v>
       </c>
+      <c r="DX23" s="1" t="n">
+        <v>190.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10013,6 +10085,9 @@
       <c r="DW24" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="DX24" s="1" t="n">
+        <v>262.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10396,6 +10471,9 @@
       <c r="DW25" s="1" t="n">
         <v>143</v>
       </c>
+      <c r="DX25" s="1" t="n">
+        <v>165.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10779,6 +10857,9 @@
       <c r="DW26" s="2" t="n">
         <v>115.4</v>
       </c>
+      <c r="DX26" s="1" t="n">
+        <v>182.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11162,6 +11243,9 @@
       <c r="DW27" s="1" t="n">
         <v>237.4</v>
       </c>
+      <c r="DX27" s="3" t="n">
+        <v>125.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11545,6 +11629,9 @@
       <c r="DW28" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="DX28" s="1" t="n">
+        <v>284.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -11928,6 +12015,9 @@
       <c r="DW29" s="3" t="n">
         <v>125.7</v>
       </c>
+      <c r="DX29" s="2" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12311,6 +12401,9 @@
       <c r="DW30" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="DX30" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12694,6 +12787,9 @@
       <c r="DW31" s="3" t="n">
         <v>127.8</v>
       </c>
+      <c r="DX31" s="1" t="n">
+        <v>209.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -13077,6 +13173,9 @@
       <c r="DW32" s="1" t="n">
         <v>158.3</v>
       </c>
+      <c r="DX32" s="2" t="n">
+        <v>124.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -13460,6 +13559,9 @@
       <c r="DW33" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="DX33" s="1" t="n">
+        <v>198.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -13843,6 +13945,9 @@
       <c r="DW34" s="1" t="n">
         <v>161.5</v>
       </c>
+      <c r="DX34" s="1" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -14226,6 +14331,9 @@
       <c r="DW35" s="1" t="n">
         <v>197.8</v>
       </c>
+      <c r="DX35" s="3" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -14609,6 +14717,9 @@
       <c r="DW36" s="3" t="n">
         <v>132.6</v>
       </c>
+      <c r="DX36" s="2" t="n">
+        <v>122.3</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -14992,6 +15103,9 @@
       <c r="DW37" s="2" t="n">
         <v>117.6</v>
       </c>
+      <c r="DX37" s="1" t="n">
+        <v>680</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -15375,6 +15489,9 @@
       <c r="DW38" s="1" t="n">
         <v>183.5</v>
       </c>
+      <c r="DX38" s="3" t="n">
+        <v>136.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -15758,6 +15875,9 @@
       <c r="DW39" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="DX39" s="1" t="n">
+        <v>237.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -16141,6 +16261,9 @@
       <c r="DW40" s="1" t="n">
         <v>175.2</v>
       </c>
+      <c r="DX40" s="3" t="n">
+        <v>125.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -16523,6 +16646,9 @@
       </c>
       <c r="DW41" s="3" t="n">
         <v>137.3</v>
+      </c>
+      <c r="DX41" s="3" t="n">
+        <v>137.7</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -16863,6 +16989,7 @@
       <c r="DU42" s="1" t="n"/>
       <c r="DV42" s="1" t="n"/>
       <c r="DW42" s="1" t="n"/>
+      <c r="DX42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -17202,6 +17329,7 @@
       <c r="DU43" s="1" t="n"/>
       <c r="DV43" s="1" t="n"/>
       <c r="DW43" s="1" t="n"/>
+      <c r="DX43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -17585,6 +17713,9 @@
       <c r="DW44" s="3" t="n">
         <v>139.3</v>
       </c>
+      <c r="DX44" s="2" t="n">
+        <v>122.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -17968,6 +18099,9 @@
       <c r="DW45" s="3" t="n">
         <v>136.1</v>
       </c>
+      <c r="DX45" s="1" t="n">
+        <v>151.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -18351,6 +18485,9 @@
       <c r="DW46" s="1" t="n">
         <v>147.9</v>
       </c>
+      <c r="DX46" s="1" t="n">
+        <v>148.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -18734,6 +18871,9 @@
       <c r="DW47" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="DX47" s="1" t="n">
+        <v>206.6</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -19117,6 +19257,9 @@
       <c r="DW48" s="2" t="n">
         <v>120.8</v>
       </c>
+      <c r="DX48" s="1" t="n">
+        <v>155.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -19500,6 +19643,9 @@
       <c r="DW49" s="2" t="n">
         <v>120.1</v>
       </c>
+      <c r="DX49" s="1" t="n">
+        <v>170.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -19883,6 +20029,9 @@
       <c r="DW50" s="1" t="n">
         <v>153.8</v>
       </c>
+      <c r="DX50" s="1" t="n">
+        <v>140.5</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -20266,6 +20415,9 @@
       <c r="DW51" s="1" t="n">
         <v>152.9</v>
       </c>
+      <c r="DX51" s="1" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -20649,6 +20801,9 @@
       <c r="DW52" s="1" t="n">
         <v>178.2</v>
       </c>
+      <c r="DX52" s="3" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -21031,6 +21186,9 @@
       </c>
       <c r="DW53" s="1" t="n">
         <v>141.9</v>
+      </c>
+      <c r="DX53" s="1" t="n">
+        <v>209.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DX53"/>
+  <dimension ref="A1:DY53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,7 @@
     <col width="12" customWidth="1" min="126" max="126"/>
     <col width="12" customWidth="1" min="127" max="127"/>
     <col width="12" customWidth="1" min="128" max="128"/>
+    <col width="12" customWidth="1" min="129" max="129"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1210,6 +1211,11 @@
           <t>2025/01/14</t>
         </is>
       </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/15</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1596,6 +1602,9 @@
       <c r="DX2" s="1" t="n">
         <v>176.3</v>
       </c>
+      <c r="DY2" s="1" t="n">
+        <v>161.7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1982,6 +1991,9 @@
       <c r="DX3" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="DY3" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2368,6 +2380,9 @@
       <c r="DX4" s="1" t="n">
         <v>213.2</v>
       </c>
+      <c r="DY4" s="1" t="n">
+        <v>208.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2754,6 +2769,9 @@
       <c r="DX5" s="2" t="n">
         <v>124.5</v>
       </c>
+      <c r="DY5" s="3" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3140,6 +3158,9 @@
       <c r="DX6" s="1" t="n">
         <v>167.5</v>
       </c>
+      <c r="DY6" s="1" t="n">
+        <v>158.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3526,6 +3547,9 @@
       <c r="DX7" s="1" t="n">
         <v>140.7</v>
       </c>
+      <c r="DY7" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3912,6 +3936,9 @@
       <c r="DX8" s="2" t="n">
         <v>123.4</v>
       </c>
+      <c r="DY8" s="1" t="n">
+        <v>200.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4298,6 +4325,9 @@
       <c r="DX9" s="1" t="n">
         <v>204.2</v>
       </c>
+      <c r="DY9" s="3" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4684,6 +4714,9 @@
       <c r="DX10" s="3" t="n">
         <v>132.2</v>
       </c>
+      <c r="DY10" s="1" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5070,6 +5103,9 @@
       <c r="DX11" s="3" t="n">
         <v>135.5</v>
       </c>
+      <c r="DY11" s="1" t="n">
+        <v>181.7</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5456,6 +5492,9 @@
       <c r="DX12" s="1" t="n">
         <v>175.8</v>
       </c>
+      <c r="DY12" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5842,6 +5881,9 @@
       <c r="DX13" s="1" t="n">
         <v>217.2</v>
       </c>
+      <c r="DY13" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6228,6 +6270,9 @@
       <c r="DX14" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="DY14" s="1" t="n">
+        <v>144.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6614,6 +6659,9 @@
       <c r="DX15" s="1" t="n">
         <v>162.5</v>
       </c>
+      <c r="DY15" s="1" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7000,6 +7048,9 @@
       <c r="DX16" s="1" t="n">
         <v>212.2</v>
       </c>
+      <c r="DY16" s="1" t="n">
+        <v>178.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7386,6 +7437,9 @@
       <c r="DX17" s="1" t="n">
         <v>163.8</v>
       </c>
+      <c r="DY17" s="1" t="n">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7772,6 +7826,9 @@
       <c r="DX18" s="1" t="n">
         <v>176.9</v>
       </c>
+      <c r="DY18" s="1" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8158,6 +8215,9 @@
       <c r="DX19" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="DY19" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8544,6 +8604,9 @@
       <c r="DX20" s="1" t="n">
         <v>154.1</v>
       </c>
+      <c r="DY20" s="1" t="n">
+        <v>186.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8930,6 +8993,9 @@
       <c r="DX21" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="DY21" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9316,6 +9382,9 @@
       <c r="DX22" s="1" t="n">
         <v>215</v>
       </c>
+      <c r="DY22" s="1" t="n">
+        <v>192.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9702,6 +9771,9 @@
       <c r="DX23" s="1" t="n">
         <v>190.8</v>
       </c>
+      <c r="DY23" s="1" t="n">
+        <v>189.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10088,6 +10160,9 @@
       <c r="DX24" s="1" t="n">
         <v>262.5</v>
       </c>
+      <c r="DY24" s="2" t="n">
+        <v>122.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10474,6 +10549,9 @@
       <c r="DX25" s="1" t="n">
         <v>165.6</v>
       </c>
+      <c r="DY25" s="2" t="n">
+        <v>111.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10860,6 +10938,9 @@
       <c r="DX26" s="1" t="n">
         <v>182.6</v>
       </c>
+      <c r="DY26" s="1" t="n">
+        <v>159.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11246,6 +11327,9 @@
       <c r="DX27" s="3" t="n">
         <v>125.2</v>
       </c>
+      <c r="DY27" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11632,6 +11716,9 @@
       <c r="DX28" s="1" t="n">
         <v>284.1</v>
       </c>
+      <c r="DY28" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12018,6 +12105,9 @@
       <c r="DX29" s="2" t="n">
         <v>112.6</v>
       </c>
+      <c r="DY29" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12404,6 +12494,9 @@
       <c r="DX30" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="DY30" s="3" t="n">
+        <v>135.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12790,6 +12883,9 @@
       <c r="DX31" s="1" t="n">
         <v>209.3</v>
       </c>
+      <c r="DY31" s="1" t="n">
+        <v>287.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -13176,6 +13272,9 @@
       <c r="DX32" s="2" t="n">
         <v>124.3</v>
       </c>
+      <c r="DY32" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -13562,6 +13661,9 @@
       <c r="DX33" s="1" t="n">
         <v>198.9</v>
       </c>
+      <c r="DY33" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -13948,6 +14050,9 @@
       <c r="DX34" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="DY34" s="1" t="n">
+        <v>166.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -14334,6 +14439,9 @@
       <c r="DX35" s="3" t="n">
         <v>138</v>
       </c>
+      <c r="DY35" s="1" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -14720,6 +14828,9 @@
       <c r="DX36" s="2" t="n">
         <v>122.3</v>
       </c>
+      <c r="DY36" s="1" t="n">
+        <v>215.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -15106,6 +15217,9 @@
       <c r="DX37" s="1" t="n">
         <v>680</v>
       </c>
+      <c r="DY37" s="2" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -15492,6 +15606,9 @@
       <c r="DX38" s="3" t="n">
         <v>136.2</v>
       </c>
+      <c r="DY38" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -15878,6 +15995,9 @@
       <c r="DX39" s="1" t="n">
         <v>237.1</v>
       </c>
+      <c r="DY39" s="1" t="n">
+        <v>179.8</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -16264,6 +16384,9 @@
       <c r="DX40" s="3" t="n">
         <v>125.2</v>
       </c>
+      <c r="DY40" s="1" t="n">
+        <v>159.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -16649,6 +16772,9 @@
       </c>
       <c r="DX41" s="3" t="n">
         <v>137.7</v>
+      </c>
+      <c r="DY41" s="1" t="n">
+        <v>142.7</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -16990,6 +17116,7 @@
       <c r="DV42" s="1" t="n"/>
       <c r="DW42" s="1" t="n"/>
       <c r="DX42" s="1" t="n"/>
+      <c r="DY42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -17330,6 +17457,7 @@
       <c r="DV43" s="1" t="n"/>
       <c r="DW43" s="1" t="n"/>
       <c r="DX43" s="1" t="n"/>
+      <c r="DY43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -17716,6 +17844,9 @@
       <c r="DX44" s="2" t="n">
         <v>122.5</v>
       </c>
+      <c r="DY44" s="1" t="n">
+        <v>147.3</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -18102,6 +18233,9 @@
       <c r="DX45" s="1" t="n">
         <v>151.6</v>
       </c>
+      <c r="DY45" s="2" t="n">
+        <v>123.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -18488,6 +18622,9 @@
       <c r="DX46" s="1" t="n">
         <v>148.1</v>
       </c>
+      <c r="DY46" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -18874,6 +19011,9 @@
       <c r="DX47" s="1" t="n">
         <v>206.6</v>
       </c>
+      <c r="DY47" s="1" t="n">
+        <v>191.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -19260,6 +19400,9 @@
       <c r="DX48" s="1" t="n">
         <v>155.7</v>
       </c>
+      <c r="DY48" s="2" t="n">
+        <v>123.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -19646,6 +19789,9 @@
       <c r="DX49" s="1" t="n">
         <v>170.1</v>
       </c>
+      <c r="DY49" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -20032,6 +20178,9 @@
       <c r="DX50" s="1" t="n">
         <v>140.5</v>
       </c>
+      <c r="DY50" s="1" t="n">
+        <v>187.1</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -20418,6 +20567,9 @@
       <c r="DX51" s="1" t="n">
         <v>192</v>
       </c>
+      <c r="DY51" s="1" t="n">
+        <v>153.8</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -20804,6 +20956,9 @@
       <c r="DX52" s="3" t="n">
         <v>126.4</v>
       </c>
+      <c r="DY52" s="1" t="n">
+        <v>166.4</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -21189,6 +21344,9 @@
       </c>
       <c r="DX53" s="1" t="n">
         <v>209.2</v>
+      </c>
+      <c r="DY53" s="1" t="n">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY53"/>
+  <dimension ref="A1:DZ53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +568,7 @@
     <col width="12" customWidth="1" min="127" max="127"/>
     <col width="12" customWidth="1" min="128" max="128"/>
     <col width="12" customWidth="1" min="129" max="129"/>
+    <col width="12" customWidth="1" min="130" max="130"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1216,6 +1217,11 @@
           <t>2025/01/15</t>
         </is>
       </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/16</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1605,6 +1611,9 @@
       <c r="DY2" s="1" t="n">
         <v>161.7</v>
       </c>
+      <c r="DZ2" s="1" t="n">
+        <v>195.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -1994,6 +2003,9 @@
       <c r="DY3" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="DZ3" s="1" t="n">
+        <v>222.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2383,6 +2395,9 @@
       <c r="DY4" s="1" t="n">
         <v>208.2</v>
       </c>
+      <c r="DZ4" s="1" t="n">
+        <v>169.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2772,6 +2787,9 @@
       <c r="DY5" s="3" t="n">
         <v>132.2</v>
       </c>
+      <c r="DZ5" s="1" t="n">
+        <v>270.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3161,6 +3179,9 @@
       <c r="DY6" s="1" t="n">
         <v>158.5</v>
       </c>
+      <c r="DZ6" s="1" t="n">
+        <v>153.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3550,6 +3571,9 @@
       <c r="DY7" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="DZ7" s="1" t="n">
+        <v>304.8</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3939,6 +3963,9 @@
       <c r="DY8" s="1" t="n">
         <v>200.2</v>
       </c>
+      <c r="DZ8" s="1" t="n">
+        <v>224.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4328,6 +4355,9 @@
       <c r="DY9" s="3" t="n">
         <v>133.6</v>
       </c>
+      <c r="DZ9" s="1" t="n">
+        <v>183.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4717,6 +4747,9 @@
       <c r="DY10" s="1" t="n">
         <v>188.5</v>
       </c>
+      <c r="DZ10" s="1" t="n">
+        <v>167.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5106,6 +5139,9 @@
       <c r="DY11" s="1" t="n">
         <v>181.7</v>
       </c>
+      <c r="DZ11" s="2" t="n">
+        <v>104.8</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5495,6 +5531,9 @@
       <c r="DY12" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="DZ12" s="2" t="n">
+        <v>114.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5884,6 +5923,9 @@
       <c r="DY13" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="DZ13" s="1" t="n">
+        <v>201.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6273,6 +6315,9 @@
       <c r="DY14" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="DZ14" s="3" t="n">
+        <v>128.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6662,6 +6707,9 @@
       <c r="DY15" s="1" t="n">
         <v>152.2</v>
       </c>
+      <c r="DZ15" s="1" t="n">
+        <v>162.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7051,6 +7099,9 @@
       <c r="DY16" s="1" t="n">
         <v>178.4</v>
       </c>
+      <c r="DZ16" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7440,6 +7491,9 @@
       <c r="DY17" s="1" t="n">
         <v>158.4</v>
       </c>
+      <c r="DZ17" s="1" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7829,6 +7883,9 @@
       <c r="DY18" s="1" t="n">
         <v>167</v>
       </c>
+      <c r="DZ18" s="1" t="n">
+        <v>248.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8218,6 +8275,9 @@
       <c r="DY19" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="DZ19" s="1" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8607,6 +8667,9 @@
       <c r="DY20" s="1" t="n">
         <v>186.6</v>
       </c>
+      <c r="DZ20" s="3" t="n">
+        <v>139.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -8996,6 +9059,9 @@
       <c r="DY21" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="DZ21" s="1" t="n">
+        <v>140.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9385,6 +9451,9 @@
       <c r="DY22" s="1" t="n">
         <v>192.5</v>
       </c>
+      <c r="DZ22" s="1" t="n">
+        <v>144.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9774,6 +9843,9 @@
       <c r="DY23" s="1" t="n">
         <v>189.6</v>
       </c>
+      <c r="DZ23" s="1" t="n">
+        <v>148.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10163,6 +10235,9 @@
       <c r="DY24" s="2" t="n">
         <v>122.8</v>
       </c>
+      <c r="DZ24" s="1" t="n">
+        <v>184.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10552,6 +10627,9 @@
       <c r="DY25" s="2" t="n">
         <v>111.7</v>
       </c>
+      <c r="DZ25" s="1" t="n">
+        <v>189.9</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -10941,6 +11019,9 @@
       <c r="DY26" s="1" t="n">
         <v>159.5</v>
       </c>
+      <c r="DZ26" s="1" t="n">
+        <v>176.9</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11330,6 +11411,9 @@
       <c r="DY27" s="3" t="n">
         <v>129</v>
       </c>
+      <c r="DZ27" s="1" t="n">
+        <v>193.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11719,6 +11803,9 @@
       <c r="DY28" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="DZ28" s="1" t="n">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12108,6 +12195,9 @@
       <c r="DY29" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="DZ29" s="1" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12497,6 +12587,9 @@
       <c r="DY30" s="3" t="n">
         <v>135.5</v>
       </c>
+      <c r="DZ30" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12886,6 +12979,9 @@
       <c r="DY31" s="1" t="n">
         <v>287.6</v>
       </c>
+      <c r="DZ31" s="1" t="n">
+        <v>168.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -13275,6 +13371,9 @@
       <c r="DY32" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="DZ32" s="1" t="n">
+        <v>300.7</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -13664,6 +13763,9 @@
       <c r="DY33" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="DZ33" s="1" t="n">
+        <v>196.7</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -14053,6 +14155,9 @@
       <c r="DY34" s="1" t="n">
         <v>166.7</v>
       </c>
+      <c r="DZ34" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -14442,6 +14547,9 @@
       <c r="DY35" s="1" t="n">
         <v>162</v>
       </c>
+      <c r="DZ35" s="1" t="n">
+        <v>163.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -14831,6 +14939,9 @@
       <c r="DY36" s="1" t="n">
         <v>215.6</v>
       </c>
+      <c r="DZ36" s="1" t="n">
+        <v>190.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -15220,6 +15331,9 @@
       <c r="DY37" s="2" t="n">
         <v>123</v>
       </c>
+      <c r="DZ37" s="1" t="n">
+        <v>259.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -15609,6 +15723,9 @@
       <c r="DY38" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="DZ38" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -15998,6 +16115,9 @@
       <c r="DY39" s="1" t="n">
         <v>179.8</v>
       </c>
+      <c r="DZ39" s="1" t="n">
+        <v>168.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -16387,6 +16507,9 @@
       <c r="DY40" s="1" t="n">
         <v>159.8</v>
       </c>
+      <c r="DZ40" s="1" t="n">
+        <v>153.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -16775,6 +16898,9 @@
       </c>
       <c r="DY41" s="1" t="n">
         <v>142.7</v>
+      </c>
+      <c r="DZ41" s="1" t="n">
+        <v>196.1</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -17117,6 +17243,7 @@
       <c r="DW42" s="1" t="n"/>
       <c r="DX42" s="1" t="n"/>
       <c r="DY42" s="1" t="n"/>
+      <c r="DZ42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -17458,6 +17585,7 @@
       <c r="DW43" s="1" t="n"/>
       <c r="DX43" s="1" t="n"/>
       <c r="DY43" s="1" t="n"/>
+      <c r="DZ43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -17847,6 +17975,9 @@
       <c r="DY44" s="1" t="n">
         <v>147.3</v>
       </c>
+      <c r="DZ44" s="2" t="n">
+        <v>120.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -18236,6 +18367,9 @@
       <c r="DY45" s="2" t="n">
         <v>123.6</v>
       </c>
+      <c r="DZ45" s="3" t="n">
+        <v>134.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -18625,6 +18759,9 @@
       <c r="DY46" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="DZ46" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -19014,6 +19151,9 @@
       <c r="DY47" s="1" t="n">
         <v>191.7</v>
       </c>
+      <c r="DZ47" s="1" t="n">
+        <v>206.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -19403,6 +19543,9 @@
       <c r="DY48" s="2" t="n">
         <v>123.2</v>
       </c>
+      <c r="DZ48" s="3" t="n">
+        <v>128.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -19792,6 +19935,9 @@
       <c r="DY49" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="DZ49" s="1" t="n">
+        <v>168.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -20181,6 +20327,9 @@
       <c r="DY50" s="1" t="n">
         <v>187.1</v>
       </c>
+      <c r="DZ50" s="1" t="n">
+        <v>150.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -20570,6 +20719,9 @@
       <c r="DY51" s="1" t="n">
         <v>153.8</v>
       </c>
+      <c r="DZ51" s="1" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -20959,6 +21111,9 @@
       <c r="DY52" s="1" t="n">
         <v>166.4</v>
       </c>
+      <c r="DZ52" s="1" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -21347,6 +21502,9 @@
       </c>
       <c r="DY53" s="1" t="n">
         <v>165</v>
+      </c>
+      <c r="DZ53" s="3" t="n">
+        <v>136.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DZ53"/>
+  <dimension ref="A1:EA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,7 @@
     <col width="12" customWidth="1" min="128" max="128"/>
     <col width="12" customWidth="1" min="129" max="129"/>
     <col width="12" customWidth="1" min="130" max="130"/>
+    <col width="12" customWidth="1" min="131" max="131"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1222,6 +1223,11 @@
           <t>2025/01/16</t>
         </is>
       </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/17</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1614,6 +1620,9 @@
       <c r="DZ2" s="1" t="n">
         <v>195.2</v>
       </c>
+      <c r="EA2" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2006,6 +2015,9 @@
       <c r="DZ3" s="1" t="n">
         <v>222.4</v>
       </c>
+      <c r="EA3" s="2" t="n">
+        <v>121.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2398,6 +2410,9 @@
       <c r="DZ4" s="1" t="n">
         <v>169.3</v>
       </c>
+      <c r="EA4" s="2" t="n">
+        <v>90.40000000000001</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2790,6 +2805,9 @@
       <c r="DZ5" s="1" t="n">
         <v>270.5</v>
       </c>
+      <c r="EA5" s="1" t="n">
+        <v>183.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3182,6 +3200,9 @@
       <c r="DZ6" s="1" t="n">
         <v>153.2</v>
       </c>
+      <c r="EA6" s="3" t="n">
+        <v>134.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3574,6 +3595,9 @@
       <c r="DZ7" s="1" t="n">
         <v>304.8</v>
       </c>
+      <c r="EA7" s="1" t="n">
+        <v>214.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3966,6 +3990,9 @@
       <c r="DZ8" s="1" t="n">
         <v>224.3</v>
       </c>
+      <c r="EA8" s="1" t="n">
+        <v>158.7</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4358,6 +4385,9 @@
       <c r="DZ9" s="1" t="n">
         <v>183.7</v>
       </c>
+      <c r="EA9" s="1" t="n">
+        <v>175.5</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4750,6 +4780,9 @@
       <c r="DZ10" s="1" t="n">
         <v>167.3</v>
       </c>
+      <c r="EA10" s="1" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5142,6 +5175,9 @@
       <c r="DZ11" s="2" t="n">
         <v>104.8</v>
       </c>
+      <c r="EA11" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5534,6 +5570,9 @@
       <c r="DZ12" s="2" t="n">
         <v>114.6</v>
       </c>
+      <c r="EA12" s="3" t="n">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5926,6 +5965,9 @@
       <c r="DZ13" s="1" t="n">
         <v>201.2</v>
       </c>
+      <c r="EA13" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6318,6 +6360,9 @@
       <c r="DZ14" s="3" t="n">
         <v>128.2</v>
       </c>
+      <c r="EA14" s="1" t="n">
+        <v>162.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6710,6 +6755,9 @@
       <c r="DZ15" s="1" t="n">
         <v>162.6</v>
       </c>
+      <c r="EA15" s="1" t="n">
+        <v>161.9</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7102,6 +7150,9 @@
       <c r="DZ16" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="EA16" s="2" t="n">
+        <v>118.5</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7494,6 +7545,9 @@
       <c r="DZ17" s="1" t="n">
         <v>150</v>
       </c>
+      <c r="EA17" s="1" t="n">
+        <v>160.9</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7886,6 +7940,9 @@
       <c r="DZ18" s="1" t="n">
         <v>248.3</v>
       </c>
+      <c r="EA18" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8278,6 +8335,9 @@
       <c r="DZ19" s="1" t="n">
         <v>209</v>
       </c>
+      <c r="EA19" s="1" t="n">
+        <v>145.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8670,6 +8730,9 @@
       <c r="DZ20" s="3" t="n">
         <v>139.3</v>
       </c>
+      <c r="EA20" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9062,6 +9125,9 @@
       <c r="DZ21" s="1" t="n">
         <v>140.2</v>
       </c>
+      <c r="EA21" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9454,6 +9520,9 @@
       <c r="DZ22" s="1" t="n">
         <v>144.5</v>
       </c>
+      <c r="EA22" s="1" t="n">
+        <v>178.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9846,6 +9915,9 @@
       <c r="DZ23" s="1" t="n">
         <v>148.1</v>
       </c>
+      <c r="EA23" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10238,6 +10310,9 @@
       <c r="DZ24" s="1" t="n">
         <v>184.9</v>
       </c>
+      <c r="EA24" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10630,6 +10705,9 @@
       <c r="DZ25" s="1" t="n">
         <v>189.9</v>
       </c>
+      <c r="EA25" s="1" t="n">
+        <v>174.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11022,6 +11100,9 @@
       <c r="DZ26" s="1" t="n">
         <v>176.9</v>
       </c>
+      <c r="EA26" s="3" t="n">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11414,6 +11495,9 @@
       <c r="DZ27" s="1" t="n">
         <v>193.8</v>
       </c>
+      <c r="EA27" s="3" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11806,6 +11890,9 @@
       <c r="DZ28" s="1" t="n">
         <v>144.2</v>
       </c>
+      <c r="EA28" s="1" t="n">
+        <v>172.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12198,6 +12285,9 @@
       <c r="DZ29" s="1" t="n">
         <v>188.8</v>
       </c>
+      <c r="EA29" s="1" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12590,6 +12680,9 @@
       <c r="DZ30" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="EA30" s="3" t="n">
+        <v>130.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -12982,6 +13075,9 @@
       <c r="DZ31" s="1" t="n">
         <v>168.3</v>
       </c>
+      <c r="EA31" s="1" t="n">
+        <v>211.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -13374,6 +13470,9 @@
       <c r="DZ32" s="1" t="n">
         <v>300.7</v>
       </c>
+      <c r="EA32" s="1" t="n">
+        <v>148.7</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -13766,6 +13865,9 @@
       <c r="DZ33" s="1" t="n">
         <v>196.7</v>
       </c>
+      <c r="EA33" s="1" t="n">
+        <v>151.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -14158,6 +14260,9 @@
       <c r="DZ34" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="EA34" s="1" t="n">
+        <v>186.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -14550,6 +14655,9 @@
       <c r="DZ35" s="1" t="n">
         <v>163.2</v>
       </c>
+      <c r="EA35" s="1" t="n">
+        <v>152.6</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -14942,6 +15050,9 @@
       <c r="DZ36" s="1" t="n">
         <v>190.7</v>
       </c>
+      <c r="EA36" s="1" t="n">
+        <v>257.9</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -15334,6 +15445,9 @@
       <c r="DZ37" s="1" t="n">
         <v>259.3</v>
       </c>
+      <c r="EA37" s="3" t="n">
+        <v>135.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -15726,6 +15840,9 @@
       <c r="DZ38" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="EA38" s="3" t="n">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -16118,6 +16235,9 @@
       <c r="DZ39" s="1" t="n">
         <v>168.7</v>
       </c>
+      <c r="EA39" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -16510,6 +16630,9 @@
       <c r="DZ40" s="1" t="n">
         <v>153.8</v>
       </c>
+      <c r="EA40" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -16901,6 +17024,9 @@
       </c>
       <c r="DZ41" s="1" t="n">
         <v>196.1</v>
+      </c>
+      <c r="EA41" s="2" t="n">
+        <v>122.6</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -17244,6 +17370,7 @@
       <c r="DX42" s="1" t="n"/>
       <c r="DY42" s="1" t="n"/>
       <c r="DZ42" s="1" t="n"/>
+      <c r="EA42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -17586,6 +17713,7 @@
       <c r="DX43" s="1" t="n"/>
       <c r="DY43" s="1" t="n"/>
       <c r="DZ43" s="1" t="n"/>
+      <c r="EA43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -17978,6 +18106,9 @@
       <c r="DZ44" s="2" t="n">
         <v>120.7</v>
       </c>
+      <c r="EA44" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -18370,6 +18501,9 @@
       <c r="DZ45" s="3" t="n">
         <v>134.7</v>
       </c>
+      <c r="EA45" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -18762,6 +18896,9 @@
       <c r="DZ46" s="1" t="n">
         <v>158.9</v>
       </c>
+      <c r="EA46" s="1" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -19154,6 +19291,9 @@
       <c r="DZ47" s="1" t="n">
         <v>206.2</v>
       </c>
+      <c r="EA47" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -19546,6 +19686,9 @@
       <c r="DZ48" s="3" t="n">
         <v>128.2</v>
       </c>
+      <c r="EA48" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -19938,6 +20081,9 @@
       <c r="DZ49" s="1" t="n">
         <v>168.8</v>
       </c>
+      <c r="EA49" s="2" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -20330,6 +20476,9 @@
       <c r="DZ50" s="1" t="n">
         <v>150.3</v>
       </c>
+      <c r="EA50" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -20722,6 +20871,9 @@
       <c r="DZ51" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="EA51" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -21114,6 +21266,9 @@
       <c r="DZ52" s="1" t="n">
         <v>207</v>
       </c>
+      <c r="EA52" s="1" t="n">
+        <v>147.2</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -21505,6 +21660,9 @@
       </c>
       <c r="DZ53" s="3" t="n">
         <v>136.1</v>
+      </c>
+      <c r="EA53" s="1" t="n">
+        <v>142.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EA53"/>
+  <dimension ref="A1:EB53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,6 +570,7 @@
     <col width="12" customWidth="1" min="129" max="129"/>
     <col width="12" customWidth="1" min="130" max="130"/>
     <col width="12" customWidth="1" min="131" max="131"/>
+    <col width="12" customWidth="1" min="132" max="132"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1228,6 +1229,11 @@
           <t>2025/01/17</t>
         </is>
       </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/18</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1623,6 +1629,9 @@
       <c r="EA2" s="1" t="n">
         <v>145.9</v>
       </c>
+      <c r="EB2" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2018,6 +2027,9 @@
       <c r="EA3" s="2" t="n">
         <v>121.1</v>
       </c>
+      <c r="EB3" s="1" t="n">
+        <v>185.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2413,6 +2425,9 @@
       <c r="EA4" s="2" t="n">
         <v>90.40000000000001</v>
       </c>
+      <c r="EB4" s="1" t="n">
+        <v>168.9</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2808,6 +2823,9 @@
       <c r="EA5" s="1" t="n">
         <v>183.5</v>
       </c>
+      <c r="EB5" s="1" t="n">
+        <v>181.2</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3203,6 +3221,9 @@
       <c r="EA6" s="3" t="n">
         <v>134.4</v>
       </c>
+      <c r="EB6" s="1" t="n">
+        <v>175.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3598,6 +3619,9 @@
       <c r="EA7" s="1" t="n">
         <v>214.1</v>
       </c>
+      <c r="EB7" s="3" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -3993,6 +4017,9 @@
       <c r="EA8" s="1" t="n">
         <v>158.7</v>
       </c>
+      <c r="EB8" s="1" t="n">
+        <v>164.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4388,6 +4415,9 @@
       <c r="EA9" s="1" t="n">
         <v>175.5</v>
       </c>
+      <c r="EB9" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4783,6 +4813,9 @@
       <c r="EA10" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="EB10" s="3" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5178,6 +5211,9 @@
       <c r="EA11" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="EB11" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5573,6 +5609,9 @@
       <c r="EA12" s="3" t="n">
         <v>133.7</v>
       </c>
+      <c r="EB12" s="1" t="n">
+        <v>190.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -5968,6 +6007,9 @@
       <c r="EA13" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="EB13" s="1" t="n">
+        <v>164.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6363,6 +6405,9 @@
       <c r="EA14" s="1" t="n">
         <v>162.8</v>
       </c>
+      <c r="EB14" s="1" t="n">
+        <v>146.3</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6758,6 +6803,9 @@
       <c r="EA15" s="1" t="n">
         <v>161.9</v>
       </c>
+      <c r="EB15" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7153,6 +7201,9 @@
       <c r="EA16" s="2" t="n">
         <v>118.5</v>
       </c>
+      <c r="EB16" s="3" t="n">
+        <v>134.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7548,6 +7599,9 @@
       <c r="EA17" s="1" t="n">
         <v>160.9</v>
       </c>
+      <c r="EB17" s="3" t="n">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -7943,6 +7997,9 @@
       <c r="EA18" s="1" t="n">
         <v>145.9</v>
       </c>
+      <c r="EB18" s="1" t="n">
+        <v>140.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8338,6 +8395,9 @@
       <c r="EA19" s="1" t="n">
         <v>145.5</v>
       </c>
+      <c r="EB19" s="3" t="n">
+        <v>135.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8733,6 +8793,9 @@
       <c r="EA20" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="EB20" s="1" t="n">
+        <v>221.2</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9128,6 +9191,9 @@
       <c r="EA21" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="EB21" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9523,6 +9589,9 @@
       <c r="EA22" s="1" t="n">
         <v>178.4</v>
       </c>
+      <c r="EB22" s="1" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9918,6 +9987,9 @@
       <c r="EA23" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="EB23" s="3" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10313,6 +10385,9 @@
       <c r="EA24" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="EB24" s="1" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10708,6 +10783,9 @@
       <c r="EA25" s="1" t="n">
         <v>174.7</v>
       </c>
+      <c r="EB25" s="1" t="n">
+        <v>168.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11103,6 +11181,9 @@
       <c r="EA26" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="EB26" s="1" t="n">
+        <v>158.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11498,6 +11579,9 @@
       <c r="EA27" s="3" t="n">
         <v>133.9</v>
       </c>
+      <c r="EB27" s="1" t="n">
+        <v>215.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11893,6 +11977,9 @@
       <c r="EA28" s="1" t="n">
         <v>172.3</v>
       </c>
+      <c r="EB28" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12288,6 +12375,9 @@
       <c r="EA29" s="1" t="n">
         <v>162.4</v>
       </c>
+      <c r="EB29" s="1" t="n">
+        <v>171.8</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12683,6 +12773,9 @@
       <c r="EA30" s="3" t="n">
         <v>130.1</v>
       </c>
+      <c r="EB30" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -13078,6 +13171,9 @@
       <c r="EA31" s="1" t="n">
         <v>211.5</v>
       </c>
+      <c r="EB31" s="1" t="n">
+        <v>150.2</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -13473,6 +13569,9 @@
       <c r="EA32" s="1" t="n">
         <v>148.7</v>
       </c>
+      <c r="EB32" s="3" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -13868,6 +13967,9 @@
       <c r="EA33" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="EB33" s="1" t="n">
+        <v>205.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -14263,6 +14365,9 @@
       <c r="EA34" s="1" t="n">
         <v>186.1</v>
       </c>
+      <c r="EB34" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -14658,6 +14763,9 @@
       <c r="EA35" s="1" t="n">
         <v>152.6</v>
       </c>
+      <c r="EB35" s="1" t="n">
+        <v>152.3</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -15053,6 +15161,9 @@
       <c r="EA36" s="1" t="n">
         <v>257.9</v>
       </c>
+      <c r="EB36" s="1" t="n">
+        <v>198.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -15448,6 +15559,9 @@
       <c r="EA37" s="3" t="n">
         <v>135.3</v>
       </c>
+      <c r="EB37" s="1" t="n">
+        <v>152.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -15843,6 +15957,9 @@
       <c r="EA38" s="3" t="n">
         <v>125.3</v>
       </c>
+      <c r="EB38" s="1" t="n">
+        <v>278.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -16238,6 +16355,9 @@
       <c r="EA39" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="EB39" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -16633,6 +16753,9 @@
       <c r="EA40" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="EB40" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -17027,6 +17150,9 @@
       </c>
       <c r="EA41" s="2" t="n">
         <v>122.6</v>
+      </c>
+      <c r="EB41" s="3" t="n">
+        <v>130.7</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -17371,6 +17497,7 @@
       <c r="DY42" s="1" t="n"/>
       <c r="DZ42" s="1" t="n"/>
       <c r="EA42" s="1" t="n"/>
+      <c r="EB42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -17714,6 +17841,7 @@
       <c r="DY43" s="1" t="n"/>
       <c r="DZ43" s="1" t="n"/>
       <c r="EA43" s="1" t="n"/>
+      <c r="EB43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -18109,6 +18237,9 @@
       <c r="EA44" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="EB44" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -18504,6 +18635,9 @@
       <c r="EA45" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="EB45" s="1" t="n">
+        <v>152.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -18899,6 +19033,9 @@
       <c r="EA46" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="EB46" s="1" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -19294,6 +19431,9 @@
       <c r="EA47" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="EB47" s="3" t="n">
+        <v>137.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -19689,6 +19829,9 @@
       <c r="EA48" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="EB48" s="1" t="n">
+        <v>153.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -20084,6 +20227,9 @@
       <c r="EA49" s="2" t="n">
         <v>123.4</v>
       </c>
+      <c r="EB49" s="1" t="n">
+        <v>161.9</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -20479,6 +20625,9 @@
       <c r="EA50" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="EB50" s="1" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -20874,6 +21023,9 @@
       <c r="EA51" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="EB51" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -21269,6 +21421,9 @@
       <c r="EA52" s="1" t="n">
         <v>147.2</v>
       </c>
+      <c r="EB52" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -21663,6 +21818,9 @@
       </c>
       <c r="EA53" s="1" t="n">
         <v>142.1</v>
+      </c>
+      <c r="EB53" s="1" t="n">
+        <v>178.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EB53"/>
+  <dimension ref="A1:EC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,6 +571,7 @@
     <col width="12" customWidth="1" min="130" max="130"/>
     <col width="12" customWidth="1" min="131" max="131"/>
     <col width="12" customWidth="1" min="132" max="132"/>
+    <col width="12" customWidth="1" min="133" max="133"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1234,6 +1235,11 @@
           <t>2025/01/18</t>
         </is>
       </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/19</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1632,6 +1638,9 @@
       <c r="EB2" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="EC2" s="1" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2030,6 +2039,9 @@
       <c r="EB3" s="1" t="n">
         <v>185.9</v>
       </c>
+      <c r="EC3" s="1" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2428,6 +2440,9 @@
       <c r="EB4" s="1" t="n">
         <v>168.9</v>
       </c>
+      <c r="EC4" s="2" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2826,6 +2841,9 @@
       <c r="EB5" s="1" t="n">
         <v>181.2</v>
       </c>
+      <c r="EC5" s="1" t="n">
+        <v>162.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3224,6 +3242,9 @@
       <c r="EB6" s="1" t="n">
         <v>175.3</v>
       </c>
+      <c r="EC6" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3622,6 +3643,9 @@
       <c r="EB7" s="3" t="n">
         <v>139</v>
       </c>
+      <c r="EC7" s="1" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4020,6 +4044,9 @@
       <c r="EB8" s="1" t="n">
         <v>164.6</v>
       </c>
+      <c r="EC8" s="3" t="n">
+        <v>137.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4418,6 +4445,9 @@
       <c r="EB9" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="EC9" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4816,6 +4846,9 @@
       <c r="EB10" s="3" t="n">
         <v>128.8</v>
       </c>
+      <c r="EC10" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5214,6 +5247,9 @@
       <c r="EB11" s="1" t="n">
         <v>153.4</v>
       </c>
+      <c r="EC11" s="1" t="n">
+        <v>145.5</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5612,6 +5648,9 @@
       <c r="EB12" s="1" t="n">
         <v>190.1</v>
       </c>
+      <c r="EC12" s="3" t="n">
+        <v>127.9</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6010,6 +6049,9 @@
       <c r="EB13" s="1" t="n">
         <v>164.7</v>
       </c>
+      <c r="EC13" s="2" t="n">
+        <v>120.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6408,6 +6450,9 @@
       <c r="EB14" s="1" t="n">
         <v>146.3</v>
       </c>
+      <c r="EC14" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6806,6 +6851,9 @@
       <c r="EB15" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="EC15" s="2" t="n">
+        <v>122.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7204,6 +7252,9 @@
       <c r="EB16" s="3" t="n">
         <v>134.3</v>
       </c>
+      <c r="EC16" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7602,6 +7653,9 @@
       <c r="EB17" s="3" t="n">
         <v>125.1</v>
       </c>
+      <c r="EC17" s="1" t="n">
+        <v>145.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8000,6 +8054,9 @@
       <c r="EB18" s="1" t="n">
         <v>140.5</v>
       </c>
+      <c r="EC18" s="1" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8398,6 +8455,9 @@
       <c r="EB19" s="3" t="n">
         <v>135.4</v>
       </c>
+      <c r="EC19" s="1" t="n">
+        <v>152.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8796,6 +8856,9 @@
       <c r="EB20" s="1" t="n">
         <v>221.2</v>
       </c>
+      <c r="EC20" s="1" t="n">
+        <v>169.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9194,6 +9257,9 @@
       <c r="EB21" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="EC21" s="1" t="n">
+        <v>180.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9592,6 +9658,9 @@
       <c r="EB22" s="1" t="n">
         <v>187.3</v>
       </c>
+      <c r="EC22" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -9990,6 +10059,9 @@
       <c r="EB23" s="3" t="n">
         <v>136.4</v>
       </c>
+      <c r="EC23" s="1" t="n">
+        <v>181.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10388,6 +10460,9 @@
       <c r="EB24" s="1" t="n">
         <v>161.4</v>
       </c>
+      <c r="EC24" s="3" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10786,6 +10861,9 @@
       <c r="EB25" s="1" t="n">
         <v>168.8</v>
       </c>
+      <c r="EC25" s="1" t="n">
+        <v>158.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11184,6 +11262,9 @@
       <c r="EB26" s="1" t="n">
         <v>158.3</v>
       </c>
+      <c r="EC26" s="1" t="n">
+        <v>161.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11582,6 +11663,9 @@
       <c r="EB27" s="1" t="n">
         <v>215.5</v>
       </c>
+      <c r="EC27" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -11980,6 +12064,9 @@
       <c r="EB28" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="EC28" s="2" t="n">
+        <v>122.4</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12378,6 +12465,9 @@
       <c r="EB29" s="1" t="n">
         <v>171.8</v>
       </c>
+      <c r="EC29" s="3" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12776,6 +12866,9 @@
       <c r="EB30" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="EC30" s="3" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -13174,6 +13267,9 @@
       <c r="EB31" s="1" t="n">
         <v>150.2</v>
       </c>
+      <c r="EC31" s="3" t="n">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -13572,6 +13668,9 @@
       <c r="EB32" s="3" t="n">
         <v>127.1</v>
       </c>
+      <c r="EC32" s="1" t="n">
+        <v>174.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -13970,6 +14069,9 @@
       <c r="EB33" s="1" t="n">
         <v>205.1</v>
       </c>
+      <c r="EC33" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -14368,6 +14470,9 @@
       <c r="EB34" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="EC34" s="2" t="n">
+        <v>112.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -14766,6 +14871,9 @@
       <c r="EB35" s="1" t="n">
         <v>152.3</v>
       </c>
+      <c r="EC35" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -15164,6 +15272,9 @@
       <c r="EB36" s="1" t="n">
         <v>198.2</v>
       </c>
+      <c r="EC36" s="2" t="n">
+        <v>114.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -15562,6 +15673,9 @@
       <c r="EB37" s="1" t="n">
         <v>152.3</v>
       </c>
+      <c r="EC37" s="1" t="n">
+        <v>143.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -15960,6 +16074,9 @@
       <c r="EB38" s="1" t="n">
         <v>278.6</v>
       </c>
+      <c r="EC38" s="1" t="n">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -16358,6 +16475,9 @@
       <c r="EB39" s="1" t="n">
         <v>155.4</v>
       </c>
+      <c r="EC39" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -16756,6 +16876,9 @@
       <c r="EB40" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="EC40" s="1" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -17153,6 +17276,9 @@
       </c>
       <c r="EB41" s="3" t="n">
         <v>130.7</v>
+      </c>
+      <c r="EC41" s="1" t="n">
+        <v>140.6</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -17498,6 +17624,7 @@
       <c r="DZ42" s="1" t="n"/>
       <c r="EA42" s="1" t="n"/>
       <c r="EB42" s="1" t="n"/>
+      <c r="EC42" s="1" t="n"/>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -17842,6 +17969,7 @@
       <c r="DZ43" s="1" t="n"/>
       <c r="EA43" s="1" t="n"/>
       <c r="EB43" s="1" t="n"/>
+      <c r="EC43" s="1" t="n"/>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -18240,6 +18368,9 @@
       <c r="EB44" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="EC44" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -18638,6 +18769,9 @@
       <c r="EB45" s="1" t="n">
         <v>152.6</v>
       </c>
+      <c r="EC45" s="1" t="n">
+        <v>155.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -19036,6 +19170,9 @@
       <c r="EB46" s="1" t="n">
         <v>145.1</v>
       </c>
+      <c r="EC46" s="1" t="n">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -19434,6 +19571,9 @@
       <c r="EB47" s="3" t="n">
         <v>137.4</v>
       </c>
+      <c r="EC47" s="1" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -19832,6 +19972,9 @@
       <c r="EB48" s="1" t="n">
         <v>153.7</v>
       </c>
+      <c r="EC48" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -20230,6 +20373,9 @@
       <c r="EB49" s="1" t="n">
         <v>161.9</v>
       </c>
+      <c r="EC49" s="3" t="n">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -20628,6 +20774,9 @@
       <c r="EB50" s="1" t="n">
         <v>188.4</v>
       </c>
+      <c r="EC50" s="3" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -21026,6 +21175,9 @@
       <c r="EB51" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="EC51" s="2" t="n">
+        <v>114.5</v>
+      </c>
     </row>
     <row r="52" ht="20" customHeight="1">
       <c r="A52" s="1" t="n">
@@ -21424,6 +21576,9 @@
       <c r="EB52" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="EC52" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="53" ht="20" customHeight="1">
       <c r="A53" s="1" t="n">
@@ -21821,6 +21976,9 @@
       </c>
       <c r="EB53" s="1" t="n">
         <v>178.4</v>
+      </c>
+      <c r="EC53" s="1" t="n">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EC53"/>
+  <dimension ref="A1:EC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17283,4701 +17283,4011 @@
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>154.9</v>
+        <v>526</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>134.9</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>192</v>
+        <v>143.8</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>166.4</v>
+        <v>195.2</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>226.5</v>
+        <v>161.5</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>279.6</v>
+        <v>160.1</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>133.8</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>119.1</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>123.7</v>
+        <v>109.5</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>138.8</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>139.4</v>
-      </c>
-      <c r="L42" s="3" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>117.3</v>
-      </c>
-      <c r="N42" s="3" t="n">
-        <v>125.8</v>
+        <v>146.5</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>144.2</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>159.8</v>
+        <v>182.7</v>
       </c>
       <c r="P42" s="3" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="Q42" s="2" t="n">
-        <v>120.4</v>
+        <v>130.8</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>160.9</v>
       </c>
       <c r="R42" s="3" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="S42" s="1" t="n">
-        <v>174.6</v>
-      </c>
-      <c r="T42" s="1" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="U42" s="1" t="n">
-        <v>164.7</v>
-      </c>
-      <c r="V42" s="1" t="n">
-        <v>143.2</v>
+        <v>129.8</v>
+      </c>
+      <c r="S42" s="3" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="T42" s="2" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="U42" s="3" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <v>121.1</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>186.7</v>
+        <v>321</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>173.6</v>
+        <v>249.2</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="Z42" s="2" t="n">
-        <v>121.2</v>
+        <v>187.2</v>
+      </c>
+      <c r="Z42" s="1" t="n">
+        <v>142.3</v>
       </c>
       <c r="AA42" s="3" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="AB42" s="3" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="AC42" s="1" t="n">
-        <v>156.8</v>
-      </c>
-      <c r="AD42" s="3" t="n">
-        <v>127.6</v>
+        <v>137.9</v>
+      </c>
+      <c r="AB42" s="1" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="AC42" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="AD42" s="1" t="n">
+        <v>187.7</v>
       </c>
       <c r="AE42" s="1" t="n">
-        <v>178.3</v>
+        <v>179.9</v>
       </c>
       <c r="AF42" s="3" t="n">
-        <v>139.8</v>
+        <v>132.1</v>
       </c>
       <c r="AG42" s="1" t="n">
-        <v>150.1</v>
+        <v>183.5</v>
       </c>
       <c r="AH42" s="1" t="n">
-        <v>186.4</v>
+        <v>158</v>
       </c>
       <c r="AI42" s="1" t="n">
-        <v>186.3</v>
+        <v>179.6</v>
       </c>
       <c r="AJ42" s="1" t="n">
-        <v>162.6</v>
+        <v>167.9</v>
       </c>
       <c r="AK42" s="1" t="n">
-        <v>206.7</v>
-      </c>
-      <c r="AL42" s="1" t="n">
+        <v>183.3</v>
+      </c>
+      <c r="AL42" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="AM42" s="1" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="AN42" s="1" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="AO42" s="1" t="n">
+        <v>214.4</v>
+      </c>
+      <c r="AP42" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="AQ42" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="AR42" s="1" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="AS42" s="1" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="AT42" s="1" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="AU42" s="1" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="AV42" s="2" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="AW42" s="1" t="n">
+        <v>163.4</v>
+      </c>
+      <c r="AX42" s="3" t="n">
+        <v>129.7</v>
+      </c>
+      <c r="AY42" s="2" t="n">
+        <v>114.2</v>
+      </c>
+      <c r="AZ42" s="1" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="BA42" s="1" t="n">
+        <v>183.2</v>
+      </c>
+      <c r="BB42" s="1" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="BC42" s="2" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="BD42" s="1" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="BE42" s="1" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="BF42" s="1" t="n">
+        <v>168.8</v>
+      </c>
+      <c r="BG42" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="BH42" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="BI42" s="1" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="BJ42" s="1" t="n">
+        <v>195.6</v>
+      </c>
+      <c r="BK42" s="1" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="BL42" s="1" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="BM42" s="2" t="n">
+        <v>119.7</v>
+      </c>
+      <c r="BN42" s="2" t="n">
+        <v>122.8</v>
+      </c>
+      <c r="BO42" s="1" t="n">
+        <v>246.9</v>
+      </c>
+      <c r="BP42" s="1" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="BQ42" s="1" t="n">
+        <v>215.6</v>
+      </c>
+      <c r="BR42" s="3" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="BS42" s="1" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="BT42" s="1" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="BU42" s="1" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="BV42" s="2" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="BW42" s="1" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="BX42" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="BY42" s="3" t="n">
+        <v>139.6</v>
+      </c>
+      <c r="BZ42" s="2" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="CA42" s="3" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="CB42" s="1" t="n">
+        <v>141.4</v>
+      </c>
+      <c r="CC42" s="1" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="CD42" s="1" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="CE42" s="3" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="CF42" s="1" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="CG42" s="1" t="n">
+        <v>217.8</v>
+      </c>
+      <c r="CH42" s="1" t="n">
+        <v>233.8</v>
+      </c>
+      <c r="CI42" s="3" t="n">
+        <v>136.9</v>
+      </c>
+      <c r="CJ42" s="3" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="CK42" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="CL42" s="1" t="n">
         <v>144.5</v>
       </c>
-      <c r="AM42" s="2" t="n">
-        <v>123.2</v>
-      </c>
-      <c r="AN42" s="1" t="n">
-        <v>155.2</v>
-      </c>
-      <c r="AO42" s="1" t="n">
-        <v>158.2</v>
-      </c>
-      <c r="AP42" s="3" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="AQ42" s="3" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="AR42" s="1" t="n">
-        <v>263.4</v>
-      </c>
-      <c r="AS42" s="1" t="n">
-        <v>180.6</v>
-      </c>
-      <c r="AT42" s="1" t="n">
-        <v>159.1</v>
-      </c>
-      <c r="AU42" s="1" t="n">
-        <v>171.5</v>
-      </c>
-      <c r="AV42" s="1" t="n">
-        <v>157.6</v>
-      </c>
-      <c r="AW42" s="1" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="AX42" s="2" t="n">
-        <v>124.2</v>
-      </c>
-      <c r="AY42" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="AZ42" s="1" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="BA42" s="1" t="n">
-        <v>149.3</v>
-      </c>
-      <c r="BB42" s="1" t="n">
-        <v>194.5</v>
-      </c>
-      <c r="BC42" s="1" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="BD42" s="2" t="n">
-        <v>119.3</v>
-      </c>
-      <c r="BE42" s="1" t="n">
+      <c r="CM42" s="3" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="CN42" s="1" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="CO42" s="1" t="n">
+        <v>140.6</v>
+      </c>
+      <c r="CP42" s="1" t="n">
+        <v>175.9</v>
+      </c>
+      <c r="CQ42" s="1" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="CR42" s="1" t="n">
+        <v>142.4</v>
+      </c>
+      <c r="CS42" s="3" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="CT42" s="3" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="CU42" s="1" t="n">
+        <v>206.4</v>
+      </c>
+      <c r="CV42" s="3" t="n">
+        <v>134.5</v>
+      </c>
+      <c r="CW42" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="CX42" s="1" t="n">
+        <v>212.6</v>
+      </c>
+      <c r="CY42" s="3" t="n">
+        <v>136.2</v>
+      </c>
+      <c r="CZ42" s="1" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="DA42" s="1" t="n">
+        <v>202.8</v>
+      </c>
+      <c r="DB42" s="3" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="DC42" s="2" t="n">
+        <v>110.6</v>
+      </c>
+      <c r="DD42" s="1" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="DE42" s="1" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="DF42" s="3" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="DG42" s="1" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="DH42" s="1" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="DI42" s="1" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="DJ42" s="1" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="DK42" s="1" t="n">
         <v>142.7</v>
       </c>
-      <c r="BF42" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="BG42" s="1" t="n">
-        <v>160.1</v>
-      </c>
-      <c r="BH42" s="2" t="n">
-        <v>105.2</v>
-      </c>
-      <c r="BI42" s="1" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="BJ42" s="1" t="n">
-        <v>172.5</v>
-      </c>
-      <c r="BK42" s="3" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="BL42" s="1" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="BM42" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="BN42" s="1" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="BO42" s="1" t="n">
-        <v>157.6</v>
-      </c>
-      <c r="BP42" s="1" t="n">
-        <v>202.1</v>
-      </c>
-      <c r="BQ42" s="1" t="n">
-        <v>159.2</v>
-      </c>
-      <c r="BR42" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="BS42" s="1" t="n">
-        <v>174.6</v>
-      </c>
-      <c r="BT42" s="1" t="n">
-        <v>228.6</v>
-      </c>
-      <c r="BU42" s="3" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="BV42" s="1" t="n">
-        <v>179.1</v>
-      </c>
-      <c r="BW42" s="1" t="n">
-        <v>171.9</v>
-      </c>
-      <c r="BX42" s="1" t="n">
-        <v>145.7</v>
-      </c>
-      <c r="BY42" s="1" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="BZ42" s="3" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="CA42" s="1" t="n">
-        <v>171.2</v>
-      </c>
-      <c r="CB42" s="1" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="CC42" s="1" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="CD42" s="1" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="CE42" s="1" t="n">
-        <v>164.6</v>
-      </c>
-      <c r="CF42" s="1" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="CG42" s="1" t="n">
-        <v>243.3</v>
-      </c>
-      <c r="CH42" s="2" t="n">
-        <v>123.6</v>
-      </c>
-      <c r="CI42" s="3" t="n">
-        <v>134.8</v>
-      </c>
-      <c r="CJ42" s="1" t="n">
-        <v>171.1</v>
-      </c>
-      <c r="CK42" s="1" t="n">
-        <v>240.5</v>
-      </c>
-      <c r="CL42" s="1" t="n">
-        <v>178.6</v>
-      </c>
-      <c r="CM42" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="CN42" s="1" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="CO42" s="3" t="n">
-        <v>137.7</v>
-      </c>
-      <c r="CP42" s="2" t="n">
-        <v>122.1</v>
-      </c>
-      <c r="CQ42" s="1" t="n">
-        <v>162.1</v>
-      </c>
-      <c r="CR42" s="1" t="n">
-        <v>151.9</v>
-      </c>
-      <c r="CS42" s="1" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="CT42" s="1" t="n">
-        <v>174.4</v>
-      </c>
-      <c r="CU42" s="3" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="CV42" s="1" t="n">
-        <v>145.8</v>
-      </c>
-      <c r="CW42" s="1" t="n">
-        <v>160.3</v>
-      </c>
-      <c r="CX42" s="1" t="n">
-        <v>270.3</v>
-      </c>
-      <c r="CY42" s="1" t="n">
-        <v>191.5</v>
-      </c>
-      <c r="CZ42" s="1" t="n">
-        <v>175.5</v>
-      </c>
-      <c r="DA42" s="1" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="DB42" s="1" t="n"/>
-      <c r="DC42" s="1" t="n"/>
-      <c r="DD42" s="1" t="n"/>
-      <c r="DE42" s="1" t="n"/>
-      <c r="DF42" s="1" t="n"/>
-      <c r="DG42" s="1" t="n"/>
-      <c r="DH42" s="1" t="n"/>
-      <c r="DI42" s="1" t="n"/>
-      <c r="DJ42" s="1" t="n"/>
-      <c r="DK42" s="1" t="n"/>
-      <c r="DL42" s="1" t="n"/>
-      <c r="DM42" s="1" t="n"/>
-      <c r="DN42" s="1" t="n"/>
-      <c r="DO42" s="1" t="n"/>
-      <c r="DP42" s="1" t="n"/>
-      <c r="DQ42" s="1" t="n"/>
-      <c r="DR42" s="1" t="n"/>
-      <c r="DS42" s="1" t="n"/>
-      <c r="DT42" s="1" t="n"/>
-      <c r="DU42" s="1" t="n"/>
-      <c r="DV42" s="1" t="n"/>
-      <c r="DW42" s="1" t="n"/>
-      <c r="DX42" s="1" t="n"/>
-      <c r="DY42" s="1" t="n"/>
-      <c r="DZ42" s="1" t="n"/>
-      <c r="EA42" s="1" t="n"/>
-      <c r="EB42" s="1" t="n"/>
-      <c r="EC42" s="1" t="n"/>
+      <c r="DL42" s="1" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="DM42" s="2" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="DN42" s="1" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="DO42" s="3" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="DP42" s="1" t="n">
+        <v>204.8</v>
+      </c>
+      <c r="DQ42" s="1" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="DR42" s="1" t="n">
+        <v>202.4</v>
+      </c>
+      <c r="DS42" s="1" t="n">
+        <v>177.7</v>
+      </c>
+      <c r="DT42" s="1" t="n">
+        <v>161.1</v>
+      </c>
+      <c r="DU42" s="1" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="DV42" s="1" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="DW42" s="3" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="DX42" s="2" t="n">
+        <v>122.5</v>
+      </c>
+      <c r="DY42" s="1" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="DZ42" s="2" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="EA42" s="1" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="EB42" s="1" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="EC42" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>342.7</v>
+        <v>177.7</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>131.5</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>156.7</v>
+        <v>164.6</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>198.1</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>134.5</v>
+        <v>188.7</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>193</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>155.9</v>
+        <v>145.2</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>134.4</v>
+        <v>136.5</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>245.7</v>
-      </c>
-      <c r="J43" s="1" t="n">
-        <v>176.4</v>
+        <v>146.4</v>
+      </c>
+      <c r="J43" s="3" t="n">
+        <v>138.3</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>197.1</v>
-      </c>
-      <c r="L43" s="3" t="n">
-        <v>126.3</v>
-      </c>
-      <c r="M43" s="2" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>174.9</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="N43" s="3" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>176.1</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="S43" s="3" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>167.1</v>
+      </c>
+      <c r="U43" s="3" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="V43" s="3" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="W43" s="3" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="X43" s="1" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="Y43" s="1" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="Z43" s="1" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="AA43" s="3" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="AB43" s="3" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="AC43" s="1" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="AD43" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="AE43" s="1" t="n">
+        <v>396.3</v>
+      </c>
+      <c r="AF43" s="3" t="n">
+        <v>129.8</v>
+      </c>
+      <c r="AG43" s="1" t="n">
+        <v>208.7</v>
+      </c>
+      <c r="AH43" s="1" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="AI43" s="1" t="n">
+        <v>216.7</v>
+      </c>
+      <c r="AJ43" s="2" t="n">
         <v>122.8</v>
       </c>
-      <c r="N43" s="1" t="n">
-        <v>175.6</v>
-      </c>
-      <c r="O43" s="1" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="P43" s="1" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="Q43" s="1" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="R43" s="1" t="n">
-        <v>188.3</v>
-      </c>
-      <c r="S43" s="2" t="n">
-        <v>120.3</v>
-      </c>
-      <c r="T43" s="1" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="U43" s="1" t="n">
-        <v>205.3</v>
-      </c>
-      <c r="V43" s="3" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="W43" s="1" t="n">
-        <v>166.9</v>
-      </c>
-      <c r="X43" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="Y43" s="1" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="Z43" s="3" t="n">
-        <v>135.7</v>
-      </c>
-      <c r="AA43" s="1" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="AB43" s="1" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="AC43" s="1" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="AD43" s="1" t="n">
-        <v>181.2</v>
-      </c>
-      <c r="AE43" s="1" t="n">
-        <v>174.8</v>
-      </c>
-      <c r="AF43" s="1" t="n">
-        <v>158.6</v>
-      </c>
-      <c r="AG43" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="AH43" s="3" t="n">
-        <v>135.1</v>
-      </c>
-      <c r="AI43" s="1" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="AJ43" s="1" t="n">
-        <v>176.9</v>
-      </c>
       <c r="AK43" s="1" t="n">
-        <v>163.7</v>
+        <v>188.7</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>237</v>
+        <v>179.2</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>235.3</v>
+        <v>212.8</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>158</v>
+        <v>140.7</v>
       </c>
       <c r="AO43" s="3" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="AP43" s="1" t="n">
-        <v>246.5</v>
+        <v>134.6</v>
+      </c>
+      <c r="AP43" s="3" t="n">
+        <v>134.7</v>
       </c>
       <c r="AQ43" s="1" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="AR43" s="1" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="AS43" s="1" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="AT43" s="3" t="n">
-        <v>137.9</v>
+        <v>161.6</v>
+      </c>
+      <c r="AR43" s="2" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="AS43" s="3" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="AT43" s="1" t="n">
+        <v>147</v>
       </c>
       <c r="AU43" s="1" t="n">
-        <v>168</v>
+        <v>182.2</v>
       </c>
       <c r="AV43" s="1" t="n">
-        <v>200.1</v>
+        <v>146.2</v>
       </c>
       <c r="AW43" s="1" t="n">
-        <v>182</v>
+        <v>179.9</v>
       </c>
       <c r="AX43" s="1" t="n">
-        <v>184.9</v>
+        <v>148.5</v>
       </c>
       <c r="AY43" s="1" t="n">
-        <v>149.6</v>
+        <v>172.5</v>
       </c>
       <c r="AZ43" s="1" t="n">
-        <v>165.2</v>
-      </c>
-      <c r="BA43" s="2" t="n">
-        <v>119.1</v>
-      </c>
-      <c r="BB43" s="1" t="n">
-        <v>226.9</v>
+        <v>140</v>
+      </c>
+      <c r="BA43" s="1" t="n">
+        <v>328.5</v>
+      </c>
+      <c r="BB43" s="2" t="n">
+        <v>119.9</v>
       </c>
       <c r="BC43" s="1" t="n">
-        <v>226.7</v>
-      </c>
-      <c r="BD43" s="3" t="n">
-        <v>137.7</v>
+        <v>148.2</v>
+      </c>
+      <c r="BD43" s="1" t="n">
+        <v>148.2</v>
       </c>
       <c r="BE43" s="1" t="n">
-        <v>157</v>
+        <v>142.1</v>
       </c>
       <c r="BF43" s="2" t="n">
-        <v>118.9</v>
+        <v>103.1</v>
       </c>
       <c r="BG43" s="1" t="n">
-        <v>153.6</v>
+        <v>144.5</v>
       </c>
       <c r="BH43" s="1" t="n">
-        <v>140.3</v>
+        <v>158.5</v>
       </c>
       <c r="BI43" s="3" t="n">
         <v>129.1</v>
       </c>
       <c r="BJ43" s="1" t="n">
-        <v>192.3</v>
-      </c>
-      <c r="BK43" s="1" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="BL43" s="2" t="n">
-        <v>120.9</v>
+        <v>141.7</v>
+      </c>
+      <c r="BK43" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="BL43" s="1" t="n">
+        <v>208.8</v>
       </c>
       <c r="BM43" s="1" t="n">
-        <v>181.1</v>
+        <v>182</v>
       </c>
       <c r="BN43" s="1" t="n">
-        <v>245</v>
+        <v>147.6</v>
       </c>
       <c r="BO43" s="1" t="n">
-        <v>241.1</v>
-      </c>
-      <c r="BP43" s="1" t="n">
-        <v>164.8</v>
+        <v>144.6</v>
+      </c>
+      <c r="BP43" s="2" t="n">
+        <v>114.5</v>
       </c>
       <c r="BQ43" s="1" t="n">
+        <v>202.1</v>
+      </c>
+      <c r="BR43" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="BS43" s="2" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="BT43" s="2" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="BU43" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="BV43" s="1" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="BW43" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="BX43" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="BY43" s="1" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="BZ43" s="1" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="CA43" s="1" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="CB43" s="3" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="CC43" s="3" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="CD43" s="1" t="n">
+        <v>207.7</v>
+      </c>
+      <c r="CE43" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="CF43" s="1" t="n">
+        <v>224.6</v>
+      </c>
+      <c r="CG43" s="3" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="CH43" s="1" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="CI43" s="1" t="n">
+        <v>258.8</v>
+      </c>
+      <c r="CJ43" s="1" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="CK43" s="3" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="CL43" s="1" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="CM43" s="1" t="n">
+        <v>409.8</v>
+      </c>
+      <c r="CN43" s="3" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="CO43" s="1" t="n">
+        <v>178.3</v>
+      </c>
+      <c r="CP43" s="1" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="CQ43" s="3" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="CR43" s="1" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="CS43" s="1" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="CT43" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="CU43" s="1" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="CV43" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="CW43" s="3" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="CX43" s="1" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="CY43" s="1" t="n">
+        <v>160.6</v>
+      </c>
+      <c r="CZ43" s="1" t="n">
+        <v>228.9</v>
+      </c>
+      <c r="DA43" s="1" t="n">
+        <v>319.9</v>
+      </c>
+      <c r="DB43" s="1" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="DC43" s="1" t="n">
+        <v>202.9</v>
+      </c>
+      <c r="DD43" s="3" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="DE43" s="1" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="DF43" s="1" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="DG43" s="1" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="DH43" s="2" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="DI43" s="2" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="DJ43" s="1" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="DK43" s="2" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="DL43" s="1" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="DM43" s="3" t="n">
+        <v>128.8</v>
+      </c>
+      <c r="DN43" s="1" t="n">
         <v>203.1</v>
       </c>
-      <c r="BR43" s="1" t="n">
+      <c r="DO43" s="1" t="n">
+        <v>212.1</v>
+      </c>
+      <c r="DP43" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="DQ43" s="2" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="DR43" s="1" t="n">
+        <v>158.3</v>
+      </c>
+      <c r="DS43" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="DT43" s="1" t="n">
+        <v>181.2</v>
+      </c>
+      <c r="DU43" s="1" t="n">
         <v>148.3</v>
       </c>
-      <c r="BS43" s="1" t="n">
-        <v>230.3</v>
-      </c>
-      <c r="BT43" s="1" t="n">
-        <v>217.2</v>
-      </c>
-      <c r="BU43" s="3" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="BV43" s="1" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="BW43" s="1" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="BX43" s="1" t="n">
-        <v>235.6</v>
-      </c>
-      <c r="BY43" s="1" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="BZ43" s="1" t="n">
-        <v>220.8</v>
-      </c>
-      <c r="CA43" s="1" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="CB43" s="3" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="CC43" s="1" t="n">
-        <v>154.8</v>
-      </c>
-      <c r="CD43" s="1" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="CE43" s="1" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="CF43" s="3" t="n">
+      <c r="DV43" s="1" t="n">
+        <v>172.4</v>
+      </c>
+      <c r="DW43" s="3" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="DX43" s="1" t="n">
+        <v>151.6</v>
+      </c>
+      <c r="DY43" s="2" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="DZ43" s="3" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="EA43" s="3" t="n">
         <v>135.2</v>
       </c>
-      <c r="CG43" s="3" t="n">
-        <v>135.9</v>
-      </c>
-      <c r="CH43" s="3" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="CI43" s="1" t="n">
-        <v>157.7</v>
-      </c>
-      <c r="CJ43" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="CK43" s="3" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="CL43" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="CM43" s="1" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="CN43" s="1" t="n">
-        <v>163.8</v>
-      </c>
-      <c r="CO43" s="1" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="CP43" s="1" t="n">
-        <v>171.8</v>
-      </c>
-      <c r="CQ43" s="1" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="CR43" s="1" t="n">
-        <v>175.4</v>
-      </c>
-      <c r="CS43" s="1" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="CT43" s="1" t="n">
-        <v>174.6</v>
-      </c>
-      <c r="CU43" s="1" t="n">
-        <v>165.5</v>
-      </c>
-      <c r="CV43" s="2" t="n">
-        <v>118.6</v>
-      </c>
-      <c r="CW43" s="1" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="CX43" s="3" t="n">
-        <v>136.8</v>
-      </c>
-      <c r="CY43" s="3" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="CZ43" s="1" t="n">
-        <v>187.1</v>
-      </c>
-      <c r="DA43" s="1" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="DB43" s="1" t="n"/>
-      <c r="DC43" s="1" t="n"/>
-      <c r="DD43" s="1" t="n"/>
-      <c r="DE43" s="1" t="n"/>
-      <c r="DF43" s="1" t="n"/>
-      <c r="DG43" s="1" t="n"/>
-      <c r="DH43" s="1" t="n"/>
-      <c r="DI43" s="1" t="n"/>
-      <c r="DJ43" s="1" t="n"/>
-      <c r="DK43" s="1" t="n"/>
-      <c r="DL43" s="1" t="n"/>
-      <c r="DM43" s="1" t="n"/>
-      <c r="DN43" s="1" t="n"/>
-      <c r="DO43" s="1" t="n"/>
-      <c r="DP43" s="1" t="n"/>
-      <c r="DQ43" s="1" t="n"/>
-      <c r="DR43" s="1" t="n"/>
-      <c r="DS43" s="1" t="n"/>
-      <c r="DT43" s="1" t="n"/>
-      <c r="DU43" s="1" t="n"/>
-      <c r="DV43" s="1" t="n"/>
-      <c r="DW43" s="1" t="n"/>
-      <c r="DX43" s="1" t="n"/>
-      <c r="DY43" s="1" t="n"/>
-      <c r="DZ43" s="1" t="n"/>
-      <c r="EA43" s="1" t="n"/>
-      <c r="EB43" s="1" t="n"/>
-      <c r="EC43" s="1" t="n"/>
+      <c r="EB43" s="1" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="EC43" s="1" t="n">
+        <v>155.7</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B44" s="3" t="n">
+        <v>528</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>291.8</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>310.3</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>197.2</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>121.4</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="L44" s="3" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>243.6</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="O44" s="3" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="P44" s="3" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="S44" s="2" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="T44" s="3" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="U44" s="1" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="V44" s="3" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="W44" s="2" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="X44" s="1" t="n">
+        <v>186.6</v>
+      </c>
+      <c r="Y44" s="1" t="n">
+        <v>183.8</v>
+      </c>
+      <c r="Z44" s="3" t="n">
+        <v>127.4</v>
+      </c>
+      <c r="AA44" s="2" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="AB44" s="1" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="AC44" s="1" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="AD44" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="AE44" s="3" t="n">
+        <v>126.4</v>
+      </c>
+      <c r="AF44" s="3" t="n">
         <v>134.9</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="AG44" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="AH44" s="3" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="AI44" s="1" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="AJ44" s="1" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="AK44" s="1" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="AL44" s="1" t="n">
+        <v>161.7</v>
+      </c>
+      <c r="AM44" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="AN44" s="1" t="n">
+        <v>194.1</v>
+      </c>
+      <c r="AO44" s="1" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="AP44" s="1" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="AQ44" s="1" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="AR44" s="1" t="n">
+        <v>248.4</v>
+      </c>
+      <c r="AS44" s="1" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="AT44" s="1" t="n">
+        <v>204.8</v>
+      </c>
+      <c r="AU44" s="2" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="AV44" s="1" t="n">
+        <v>171.7</v>
+      </c>
+      <c r="AW44" s="1" t="n">
+        <v>190.5</v>
+      </c>
+      <c r="AX44" s="3" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="AY44" s="1" t="n">
+        <v>155.3</v>
+      </c>
+      <c r="AZ44" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="BA44" s="1" t="n">
+        <v>165.5</v>
+      </c>
+      <c r="BB44" s="1" t="n">
+        <v>180.2</v>
+      </c>
+      <c r="BC44" s="1" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="BD44" s="3" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="BE44" s="1" t="n">
+        <v>395.4</v>
+      </c>
+      <c r="BF44" s="3" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="BG44" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="BH44" s="3" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="BI44" s="1" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="BJ44" s="1" t="n">
+        <v>173.3</v>
+      </c>
+      <c r="BK44" s="1" t="n">
+        <v>165.3</v>
+      </c>
+      <c r="BL44" s="1" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="BM44" s="1" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="BN44" s="1" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="BO44" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="BP44" s="1" t="n">
+        <v>159.6</v>
+      </c>
+      <c r="BQ44" s="1" t="n">
+        <v>244.2</v>
+      </c>
+      <c r="BR44" s="1" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="BS44" s="1" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="BT44" s="1" t="n">
+        <v>197.1</v>
+      </c>
+      <c r="BU44" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="BV44" s="1" t="n">
+        <v>170.3</v>
+      </c>
+      <c r="BW44" s="1" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="BX44" s="1" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="BY44" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="BZ44" s="1" t="n">
+        <v>175.4</v>
+      </c>
+      <c r="CA44" s="1" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="CB44" s="1" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="CC44" s="1" t="n">
+        <v>165.4</v>
+      </c>
+      <c r="CD44" s="3" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="CE44" s="1" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="CF44" s="1" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="CG44" s="1" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="CH44" s="1" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="CI44" s="1" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="CJ44" s="1" t="n">
+        <v>207.1</v>
+      </c>
+      <c r="CK44" s="1" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="CL44" s="3" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="CM44" s="1" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="CN44" s="1" t="n">
+        <v>171.8</v>
+      </c>
+      <c r="CO44" s="3" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="CP44" s="1" t="n">
+        <v>302.8</v>
+      </c>
+      <c r="CQ44" s="1" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="CR44" s="1" t="n">
+        <v>261.6</v>
+      </c>
+      <c r="CS44" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="CT44" s="1" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="CU44" s="1" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="CV44" s="1" t="n">
+        <v>156.5</v>
+      </c>
+      <c r="CW44" s="1" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="CX44" s="1" t="n">
+        <v>303.7</v>
+      </c>
+      <c r="CY44" s="1" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="CZ44" s="1" t="n">
+        <v>153.1</v>
+      </c>
+      <c r="DA44" s="1" t="n">
+        <v>190.8</v>
+      </c>
+      <c r="DB44" s="3" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="DC44" s="1" t="n">
+        <v>171.4</v>
+      </c>
+      <c r="DD44" s="3" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="DE44" s="1" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="DF44" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="DG44" s="1" t="n">
+        <v>163.5</v>
+      </c>
+      <c r="DH44" s="1" t="n">
+        <v>163.2</v>
+      </c>
+      <c r="DI44" s="1" t="n">
+        <v>161.5</v>
+      </c>
+      <c r="DJ44" s="3" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="DK44" s="1" t="n">
+        <v>168.9</v>
+      </c>
+      <c r="DL44" s="3" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="DM44" s="1" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="DN44" s="1" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="DO44" s="1" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="DP44" s="2" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="DQ44" s="1" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="DR44" s="1" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="DS44" s="1" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="DT44" s="1" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="DU44" s="1" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="DV44" s="1" t="n">
+        <v>147.6</v>
+      </c>
+      <c r="DW44" s="1" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="DX44" s="1" t="n">
+        <v>148.1</v>
+      </c>
+      <c r="DY44" s="1" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="DZ44" s="1" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="EA44" s="1" t="n">
         <v>143.8</v>
       </c>
-      <c r="D44" s="1" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>161.5</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>160.1</v>
-      </c>
-      <c r="G44" s="3" t="n">
-        <v>133.8</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>109.5</v>
-      </c>
-      <c r="I44" s="3" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="J44" s="1" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="K44" s="1" t="n">
-        <v>156.2</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>165.5</v>
-      </c>
-      <c r="M44" s="1" t="n">
-        <v>174.5</v>
-      </c>
-      <c r="N44" s="1" t="n">
-        <v>144.2</v>
-      </c>
-      <c r="O44" s="1" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="P44" s="3" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="Q44" s="1" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="R44" s="3" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="S44" s="3" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="T44" s="2" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="U44" s="3" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="V44" s="2" t="n">
-        <v>121.1</v>
-      </c>
-      <c r="W44" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="X44" s="1" t="n">
-        <v>249.2</v>
-      </c>
-      <c r="Y44" s="1" t="n">
-        <v>187.2</v>
-      </c>
-      <c r="Z44" s="1" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="AA44" s="3" t="n">
-        <v>137.9</v>
-      </c>
-      <c r="AB44" s="1" t="n">
-        <v>182.6</v>
-      </c>
-      <c r="AC44" s="3" t="n">
-        <v>129</v>
-      </c>
-      <c r="AD44" s="1" t="n">
-        <v>187.7</v>
-      </c>
-      <c r="AE44" s="1" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="AF44" s="3" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="AG44" s="1" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="AH44" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="AI44" s="1" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="AJ44" s="1" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="AK44" s="1" t="n">
-        <v>183.3</v>
-      </c>
-      <c r="AL44" s="3" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="AM44" s="1" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="AN44" s="1" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="AO44" s="1" t="n">
-        <v>214.4</v>
-      </c>
-      <c r="AP44" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="AQ44" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="AR44" s="1" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="AS44" s="1" t="n">
-        <v>166.2</v>
-      </c>
-      <c r="AT44" s="1" t="n">
-        <v>151.8</v>
-      </c>
-      <c r="AU44" s="1" t="n">
-        <v>209.8</v>
-      </c>
-      <c r="AV44" s="2" t="n">
-        <v>120.1</v>
-      </c>
-      <c r="AW44" s="1" t="n">
-        <v>163.4</v>
-      </c>
-      <c r="AX44" s="3" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="AY44" s="2" t="n">
-        <v>114.2</v>
-      </c>
-      <c r="AZ44" s="1" t="n">
-        <v>156.6</v>
-      </c>
-      <c r="BA44" s="1" t="n">
-        <v>183.2</v>
-      </c>
-      <c r="BB44" s="1" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="BC44" s="2" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="BD44" s="1" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="BE44" s="1" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="BF44" s="1" t="n">
-        <v>168.8</v>
-      </c>
-      <c r="BG44" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="BH44" s="3" t="n">
-        <v>125</v>
-      </c>
-      <c r="BI44" s="1" t="n">
-        <v>151.5</v>
-      </c>
-      <c r="BJ44" s="1" t="n">
-        <v>195.6</v>
-      </c>
-      <c r="BK44" s="1" t="n">
-        <v>146.4</v>
-      </c>
-      <c r="BL44" s="1" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="BM44" s="2" t="n">
-        <v>119.7</v>
-      </c>
-      <c r="BN44" s="2" t="n">
-        <v>122.8</v>
-      </c>
-      <c r="BO44" s="1" t="n">
-        <v>246.9</v>
-      </c>
-      <c r="BP44" s="1" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="BQ44" s="1" t="n">
-        <v>215.6</v>
-      </c>
-      <c r="BR44" s="3" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="BS44" s="1" t="n">
-        <v>179.7</v>
-      </c>
-      <c r="BT44" s="1" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="BU44" s="1" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="BV44" s="2" t="n">
-        <v>107.7</v>
-      </c>
-      <c r="BW44" s="1" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="BX44" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="BY44" s="3" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="BZ44" s="2" t="n">
-        <v>118.7</v>
-      </c>
-      <c r="CA44" s="3" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="CB44" s="1" t="n">
-        <v>141.4</v>
-      </c>
-      <c r="CC44" s="1" t="n">
-        <v>162.8</v>
-      </c>
-      <c r="CD44" s="1" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="CE44" s="3" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="CF44" s="1" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="CG44" s="1" t="n">
-        <v>217.8</v>
-      </c>
-      <c r="CH44" s="1" t="n">
-        <v>233.8</v>
-      </c>
-      <c r="CI44" s="3" t="n">
-        <v>136.9</v>
-      </c>
-      <c r="CJ44" s="3" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="CK44" s="3" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="CL44" s="1" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="CM44" s="3" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="CN44" s="1" t="n">
-        <v>150.4</v>
-      </c>
-      <c r="CO44" s="1" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="CP44" s="1" t="n">
-        <v>175.9</v>
-      </c>
-      <c r="CQ44" s="1" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="CR44" s="1" t="n">
-        <v>142.4</v>
-      </c>
-      <c r="CS44" s="3" t="n">
-        <v>133.4</v>
-      </c>
-      <c r="CT44" s="3" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="CU44" s="1" t="n">
-        <v>206.4</v>
-      </c>
-      <c r="CV44" s="3" t="n">
-        <v>134.5</v>
-      </c>
-      <c r="CW44" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="CX44" s="1" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="CY44" s="3" t="n">
-        <v>136.2</v>
-      </c>
-      <c r="CZ44" s="1" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="DA44" s="1" t="n">
-        <v>202.8</v>
-      </c>
-      <c r="DB44" s="3" t="n">
-        <v>137.1</v>
-      </c>
-      <c r="DC44" s="2" t="n">
-        <v>110.6</v>
-      </c>
-      <c r="DD44" s="1" t="n">
-        <v>149.7</v>
-      </c>
-      <c r="DE44" s="1" t="n">
-        <v>188.2</v>
-      </c>
-      <c r="DF44" s="3" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="DG44" s="1" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="DH44" s="1" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="DI44" s="1" t="n">
-        <v>172.3</v>
-      </c>
-      <c r="DJ44" s="1" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="DK44" s="1" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="DL44" s="1" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="DM44" s="2" t="n">
-        <v>118.6</v>
-      </c>
-      <c r="DN44" s="1" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="DO44" s="3" t="n">
-        <v>133.2</v>
-      </c>
-      <c r="DP44" s="1" t="n">
-        <v>204.8</v>
-      </c>
-      <c r="DQ44" s="1" t="n">
-        <v>162.4</v>
-      </c>
-      <c r="DR44" s="1" t="n">
-        <v>202.4</v>
-      </c>
-      <c r="DS44" s="1" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="DT44" s="1" t="n">
-        <v>161.1</v>
-      </c>
-      <c r="DU44" s="1" t="n">
-        <v>147.8</v>
-      </c>
-      <c r="DV44" s="1" t="n">
-        <v>169.6</v>
-      </c>
-      <c r="DW44" s="3" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="DX44" s="2" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="DY44" s="1" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="DZ44" s="2" t="n">
-        <v>120.7</v>
-      </c>
-      <c r="EA44" s="1" t="n">
-        <v>149.5</v>
-      </c>
       <c r="EB44" s="1" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="EC44" s="3" t="n">
-        <v>132.3</v>
+        <v>145.1</v>
+      </c>
+      <c r="EC44" s="1" t="n">
+        <v>142.1</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>177.7</v>
-      </c>
-      <c r="C45" s="3" t="n">
-        <v>131.5</v>
+        <v>529</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>187.5</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>164.6</v>
-      </c>
-      <c r="E45" s="1" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>150.1</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>157.7</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="P45" s="3" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="Q45" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="T45" s="2" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="U45" s="3" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="V45" s="1" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="W45" s="3" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="X45" s="1" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="Y45" s="1" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="Z45" s="1" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="AA45" s="1" t="n">
+        <v>208.3</v>
+      </c>
+      <c r="AB45" s="3" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="AC45" s="1" t="n">
+        <v>158.5</v>
+      </c>
+      <c r="AD45" s="1" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="AE45" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF45" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="AG45" s="3" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="AH45" s="1" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="AI45" s="1" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="AJ45" s="1" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="AK45" s="1" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="AL45" s="3" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="AM45" s="1" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="AN45" s="1" t="n">
+        <v>179.3</v>
+      </c>
+      <c r="AO45" s="1" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="AP45" s="1" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="AQ45" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="AR45" s="1" t="n">
+        <v>171.2</v>
+      </c>
+      <c r="AS45" s="3" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="AT45" s="3" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="AU45" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="AV45" s="1" t="n">
+        <v>342.4</v>
+      </c>
+      <c r="AW45" s="1" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="AX45" s="3" t="n">
+        <v>127.9</v>
+      </c>
+      <c r="AY45" s="1" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="AZ45" s="1" t="n">
+        <v>145.9</v>
+      </c>
+      <c r="BA45" s="2" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="BB45" s="2" t="n">
+        <v>116.9</v>
+      </c>
+      <c r="BC45" s="1" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="BD45" s="1" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="BE45" s="1" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="BF45" s="1" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="BG45" s="1" t="n">
+        <v>238.9</v>
+      </c>
+      <c r="BH45" s="1" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="BI45" s="1" t="n">
+        <v>151.2</v>
+      </c>
+      <c r="BJ45" s="3" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="BK45" s="3" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="BL45" s="1" t="n">
+        <v>183.1</v>
+      </c>
+      <c r="BM45" s="1" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="BN45" s="1" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="BO45" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="BP45" s="1" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="BQ45" s="3" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="BR45" s="1" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="BS45" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="BT45" s="3" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="BU45" s="1" t="n">
+        <v>172.1</v>
+      </c>
+      <c r="BV45" s="1" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="BW45" s="1" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="BX45" s="1" t="n">
+        <v>174.8</v>
+      </c>
+      <c r="BY45" s="1" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="BZ45" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="CA45" s="1" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="CB45" s="1" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="CC45" s="1" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="CD45" s="1" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="CE45" s="1" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="CF45" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="CG45" s="1" t="n">
+        <v>163.8</v>
+      </c>
+      <c r="CH45" s="1" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="CI45" s="3" t="n">
+        <v>128.6</v>
+      </c>
+      <c r="CJ45" s="1" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="CK45" s="1" t="n">
+        <v>174.1</v>
+      </c>
+      <c r="CL45" s="2" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="CM45" s="1" t="n">
+        <v>152.3</v>
+      </c>
+      <c r="CN45" s="1" t="n">
+        <v>151.7</v>
+      </c>
+      <c r="CO45" s="2" t="n">
+        <v>110.4</v>
+      </c>
+      <c r="CP45" s="3" t="n">
+        <v>136.6</v>
+      </c>
+      <c r="CQ45" s="3" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="CR45" s="2" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="CS45" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="F45" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>145.2</v>
-      </c>
-      <c r="H45" s="3" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>146.4</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="K45" s="1" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="L45" s="1" t="n">
-        <v>174.9</v>
-      </c>
-      <c r="M45" s="1" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="N45" s="3" t="n">
-        <v>130.9</v>
-      </c>
-      <c r="O45" s="1" t="n">
-        <v>176.1</v>
-      </c>
-      <c r="P45" s="1" t="n">
-        <v>325.4</v>
-      </c>
-      <c r="Q45" s="1" t="n">
-        <v>169.8</v>
-      </c>
-      <c r="R45" s="1" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="S45" s="3" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="T45" s="1" t="n">
-        <v>167.1</v>
-      </c>
-      <c r="U45" s="3" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="V45" s="3" t="n">
+      <c r="CT45" s="1" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="CU45" s="1" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="CV45" s="1" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="CW45" s="1" t="n">
+        <v>175.9</v>
+      </c>
+      <c r="CX45" s="1" t="n">
+        <v>142.3</v>
+      </c>
+      <c r="CY45" s="3" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="CZ45" s="1" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="DA45" s="1" t="n">
+        <v>179.4</v>
+      </c>
+      <c r="DB45" s="3" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="DC45" s="1" t="n">
+        <v>200.4</v>
+      </c>
+      <c r="DD45" s="3" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="DE45" s="3" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="DF45" s="1" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="DG45" s="1" t="n">
+        <v>153.6</v>
+      </c>
+      <c r="DH45" s="3" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="DI45" s="1" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="DJ45" s="1" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="DK45" s="1" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="DL45" s="3" t="n">
         <v>135.8</v>
       </c>
-      <c r="W45" s="3" t="n">
-        <v>138.4</v>
-      </c>
-      <c r="X45" s="1" t="n">
+      <c r="DM45" s="1" t="n">
+        <v>164.1</v>
+      </c>
+      <c r="DN45" s="1" t="n">
         <v>142.9</v>
       </c>
-      <c r="Y45" s="1" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="Z45" s="1" t="n">
-        <v>155.8</v>
-      </c>
-      <c r="AA45" s="3" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="AB45" s="3" t="n">
-        <v>133.8</v>
-      </c>
-      <c r="AC45" s="1" t="n">
-        <v>165.6</v>
-      </c>
-      <c r="AD45" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="AE45" s="1" t="n">
-        <v>396.3</v>
-      </c>
-      <c r="AF45" s="3" t="n">
-        <v>129.8</v>
-      </c>
-      <c r="AG45" s="1" t="n">
-        <v>208.7</v>
-      </c>
-      <c r="AH45" s="1" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="AI45" s="1" t="n">
-        <v>216.7</v>
-      </c>
-      <c r="AJ45" s="2" t="n">
-        <v>122.8</v>
-      </c>
-      <c r="AK45" s="1" t="n">
-        <v>188.7</v>
-      </c>
-      <c r="AL45" s="1" t="n">
-        <v>179.2</v>
-      </c>
-      <c r="AM45" s="1" t="n">
-        <v>212.8</v>
-      </c>
-      <c r="AN45" s="1" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="AO45" s="3" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="AP45" s="3" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="AQ45" s="1" t="n">
-        <v>161.6</v>
-      </c>
-      <c r="AR45" s="2" t="n">
-        <v>118.4</v>
-      </c>
-      <c r="AS45" s="3" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="AT45" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="AU45" s="1" t="n">
-        <v>182.2</v>
-      </c>
-      <c r="AV45" s="1" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="AW45" s="1" t="n">
-        <v>179.9</v>
-      </c>
-      <c r="AX45" s="1" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="AY45" s="1" t="n">
-        <v>172.5</v>
-      </c>
-      <c r="AZ45" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="BA45" s="1" t="n">
-        <v>328.5</v>
-      </c>
-      <c r="BB45" s="2" t="n">
-        <v>119.9</v>
-      </c>
-      <c r="BC45" s="1" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="BD45" s="1" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="BE45" s="1" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="BF45" s="2" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="BG45" s="1" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="BH45" s="1" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="BI45" s="3" t="n">
-        <v>129.1</v>
-      </c>
-      <c r="BJ45" s="1" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="BK45" s="2" t="n">
-        <v>116</v>
-      </c>
-      <c r="BL45" s="1" t="n">
-        <v>208.8</v>
-      </c>
-      <c r="BM45" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="BN45" s="1" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="BO45" s="1" t="n">
-        <v>144.6</v>
-      </c>
-      <c r="BP45" s="2" t="n">
-        <v>114.5</v>
-      </c>
-      <c r="BQ45" s="1" t="n">
-        <v>202.1</v>
-      </c>
-      <c r="BR45" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="BS45" s="2" t="n">
-        <v>120.1</v>
-      </c>
-      <c r="BT45" s="2" t="n">
-        <v>123.9</v>
-      </c>
-      <c r="BU45" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="BV45" s="1" t="n">
-        <v>156.7</v>
-      </c>
-      <c r="BW45" s="1" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="BX45" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="BY45" s="1" t="n">
-        <v>180.3</v>
-      </c>
-      <c r="BZ45" s="1" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="CA45" s="1" t="n">
-        <v>252.6</v>
-      </c>
-      <c r="CB45" s="3" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="CC45" s="3" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="CD45" s="1" t="n">
-        <v>207.7</v>
-      </c>
-      <c r="CE45" s="3" t="n">
-        <v>133</v>
-      </c>
-      <c r="CF45" s="1" t="n">
-        <v>224.6</v>
-      </c>
-      <c r="CG45" s="3" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="CH45" s="1" t="n">
-        <v>178.5</v>
-      </c>
-      <c r="CI45" s="1" t="n">
-        <v>258.8</v>
-      </c>
-      <c r="CJ45" s="1" t="n">
-        <v>170.6</v>
-      </c>
-      <c r="CK45" s="3" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="CL45" s="1" t="n">
-        <v>145.7</v>
-      </c>
-      <c r="CM45" s="1" t="n">
-        <v>409.8</v>
-      </c>
-      <c r="CN45" s="3" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="CO45" s="1" t="n">
-        <v>178.3</v>
-      </c>
-      <c r="CP45" s="1" t="n">
-        <v>162.5</v>
-      </c>
-      <c r="CQ45" s="3" t="n">
-        <v>131.8</v>
-      </c>
-      <c r="CR45" s="1" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="CS45" s="1" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="CT45" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="CU45" s="1" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="CV45" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="CW45" s="3" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="CX45" s="1" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="CY45" s="1" t="n">
-        <v>160.6</v>
-      </c>
-      <c r="CZ45" s="1" t="n">
-        <v>228.9</v>
-      </c>
-      <c r="DA45" s="1" t="n">
-        <v>319.9</v>
-      </c>
-      <c r="DB45" s="1" t="n">
-        <v>206.8</v>
-      </c>
-      <c r="DC45" s="1" t="n">
-        <v>202.9</v>
-      </c>
-      <c r="DD45" s="3" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="DE45" s="1" t="n">
-        <v>156.9</v>
-      </c>
-      <c r="DF45" s="1" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="DG45" s="1" t="n">
-        <v>154.1</v>
-      </c>
-      <c r="DH45" s="2" t="n">
-        <v>118.3</v>
-      </c>
-      <c r="DI45" s="2" t="n">
-        <v>116.3</v>
-      </c>
-      <c r="DJ45" s="1" t="n">
-        <v>196.7</v>
-      </c>
-      <c r="DK45" s="2" t="n">
-        <v>109.3</v>
-      </c>
-      <c r="DL45" s="1" t="n">
-        <v>151.5</v>
-      </c>
-      <c r="DM45" s="3" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="DN45" s="1" t="n">
-        <v>203.1</v>
-      </c>
       <c r="DO45" s="1" t="n">
-        <v>212.1</v>
+        <v>166.5</v>
       </c>
       <c r="DP45" s="1" t="n">
-        <v>141</v>
+        <v>148.6</v>
       </c>
       <c r="DQ45" s="2" t="n">
-        <v>118.8</v>
+        <v>120.4</v>
       </c>
       <c r="DR45" s="1" t="n">
-        <v>158.3</v>
+        <v>169.9</v>
       </c>
       <c r="DS45" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="DT45" s="1" t="n">
-        <v>181.2</v>
-      </c>
-      <c r="DU45" s="1" t="n">
+        <v>334.7</v>
+      </c>
+      <c r="DT45" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="DU45" s="3" t="n">
+        <v>135.8</v>
+      </c>
+      <c r="DV45" s="1" t="n">
         <v>148.3</v>
       </c>
-      <c r="DV45" s="1" t="n">
-        <v>172.4</v>
-      </c>
-      <c r="DW45" s="3" t="n">
-        <v>136.1</v>
+      <c r="DW45" s="1" t="n">
+        <v>150.8</v>
       </c>
       <c r="DX45" s="1" t="n">
-        <v>151.6</v>
-      </c>
-      <c r="DY45" s="2" t="n">
-        <v>123.6</v>
-      </c>
-      <c r="DZ45" s="3" t="n">
-        <v>134.7</v>
-      </c>
-      <c r="EA45" s="3" t="n">
-        <v>135.2</v>
-      </c>
-      <c r="EB45" s="1" t="n">
-        <v>152.6</v>
+        <v>206.6</v>
+      </c>
+      <c r="DY45" s="1" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="DZ45" s="1" t="n">
+        <v>206.2</v>
+      </c>
+      <c r="EA45" s="1" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="EB45" s="3" t="n">
+        <v>137.4</v>
       </c>
       <c r="EC45" s="1" t="n">
-        <v>155.7</v>
+        <v>140.3</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>150.8</v>
+        <v>142.2</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>291.8</v>
+        <v>169.2</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>310.3</v>
+        <v>173.2</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>142.7</v>
+        <v>164.5</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>120.3</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>197.2</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>121.4</v>
+        <v>158.9</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>224.4</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>150.2</v>
+        <v>197.6</v>
+      </c>
+      <c r="J46" s="3" t="n">
+        <v>134</v>
       </c>
       <c r="K46" s="1" t="n">
-        <v>206.2</v>
-      </c>
-      <c r="L46" s="3" t="n">
-        <v>128.6</v>
+        <v>166.5</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>187</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>243.6</v>
-      </c>
-      <c r="N46" s="1" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="O46" s="3" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="P46" s="3" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="Q46" s="2" t="n">
-        <v>115</v>
+        <v>216.8</v>
+      </c>
+      <c r="N46" s="3" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>140.3</v>
+      </c>
+      <c r="P46" s="1" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="Q46" s="3" t="n">
+        <v>133.5</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="S46" s="2" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="U46" s="1" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="V46" s="1" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="W46" s="1" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="X46" s="1" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="Y46" s="2" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="AA46" s="1" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="AB46" s="2" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="AC46" s="2" t="n">
         <v>118.4</v>
       </c>
-      <c r="T46" s="3" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="U46" s="1" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="V46" s="3" t="n">
-        <v>133.4</v>
-      </c>
-      <c r="W46" s="2" t="n">
-        <v>121.1</v>
-      </c>
-      <c r="X46" s="1" t="n">
-        <v>186.6</v>
-      </c>
-      <c r="Y46" s="1" t="n">
-        <v>183.8</v>
-      </c>
-      <c r="Z46" s="3" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="AA46" s="2" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="AB46" s="1" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="AC46" s="1" t="n">
-        <v>163.7</v>
-      </c>
-      <c r="AD46" s="3" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="AE46" s="3" t="n">
-        <v>126.4</v>
-      </c>
-      <c r="AF46" s="3" t="n">
-        <v>134.9</v>
+      <c r="AD46" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="AE46" s="1" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="AF46" s="1" t="n">
+        <v>153.4</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="AH46" s="3" t="n">
-        <v>135.6</v>
-      </c>
-      <c r="AI46" s="1" t="n">
-        <v>170.9</v>
+        <v>171.5</v>
+      </c>
+      <c r="AH46" s="1" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="AI46" s="2" t="n">
+        <v>123.6</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>143.4</v>
+        <v>153.1</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="AL46" s="1" t="n">
-        <v>161.7</v>
+        <v>164.1</v>
+      </c>
+      <c r="AL46" s="2" t="n">
+        <v>116.3</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="AN46" s="1" t="n">
-        <v>194.1</v>
+        <v>175.3</v>
+      </c>
+      <c r="AN46" s="3" t="n">
+        <v>139.8</v>
       </c>
       <c r="AO46" s="1" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="AP46" s="1" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="AQ46" s="1" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="AR46" s="3" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="AS46" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="AT46" s="1" t="n">
+        <v>140.5</v>
+      </c>
+      <c r="AU46" s="2" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="AV46" s="1" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="AW46" s="1" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="AX46" s="1" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="AY46" s="1" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="AZ46" s="1" t="n">
+        <v>241.1</v>
+      </c>
+      <c r="BA46" s="1" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="BB46" s="1" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="BC46" s="1" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="BD46" s="1" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="BE46" s="1" t="n">
+        <v>170.3</v>
+      </c>
+      <c r="BF46" s="1" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="BG46" s="1" t="n">
+        <v>151.3</v>
+      </c>
+      <c r="BH46" s="1" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="BI46" s="1" t="n">
+        <v>211.1</v>
+      </c>
+      <c r="BJ46" s="1" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="BK46" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="BL46" s="1" t="n">
+        <v>146.3</v>
+      </c>
+      <c r="BM46" s="1" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="BN46" s="1" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="BO46" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="BP46" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="BQ46" s="1" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="BR46" s="3" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="BS46" s="1" t="n">
+        <v>192.2</v>
+      </c>
+      <c r="BT46" s="1" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="BU46" s="1" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="BV46" s="1" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="BW46" s="1" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="BX46" s="2" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="BY46" s="1" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="BZ46" s="3" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="CA46" s="1" t="n">
+        <v>168.7</v>
+      </c>
+      <c r="CB46" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="CC46" s="3" t="n">
+        <v>136.3</v>
+      </c>
+      <c r="CD46" s="3" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="CE46" s="2" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="CF46" s="1" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="CG46" s="1" t="n">
+        <v>219.1</v>
+      </c>
+      <c r="CH46" s="1" t="n">
+        <v>196.1</v>
+      </c>
+      <c r="CI46" s="1" t="n">
+        <v>201.8</v>
+      </c>
+      <c r="CJ46" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="CK46" s="1" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="CL46" s="1" t="n">
+        <v>174.6</v>
+      </c>
+      <c r="CM46" s="1" t="n">
+        <v>197.4</v>
+      </c>
+      <c r="CN46" s="1" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="CO46" s="2" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="CP46" s="1" t="n">
+        <v>168.4</v>
+      </c>
+      <c r="CQ46" s="1" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="CR46" s="1" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="CS46" s="3" t="n">
+        <v>137.6</v>
+      </c>
+      <c r="CT46" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="CU46" s="3" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="CV46" s="1" t="n">
+        <v>164.7</v>
+      </c>
+      <c r="CW46" s="3" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="CX46" s="1" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="CY46" s="1" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="CZ46" s="1" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="DA46" s="1" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="DB46" s="1" t="n">
+        <v>179.3</v>
+      </c>
+      <c r="DC46" s="1" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="DD46" s="1" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="DE46" s="1" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="DF46" s="3" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="DG46" s="2" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="DH46" s="1" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="DI46" s="3" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="DJ46" s="1" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="DK46" s="1" t="n">
+        <v>158.8</v>
+      </c>
+      <c r="DL46" s="1" t="n">
+        <v>168.3</v>
+      </c>
+      <c r="DM46" s="1" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="DN46" s="3" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="DO46" s="1" t="n">
+        <v>150.7</v>
+      </c>
+      <c r="DP46" s="1" t="n">
+        <v>167.1</v>
+      </c>
+      <c r="DQ46" s="1" t="n">
+        <v>158.2</v>
+      </c>
+      <c r="DR46" s="1" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="DS46" s="2" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="DT46" s="1" t="n">
         <v>159.2</v>
       </c>
-      <c r="AP46" s="1" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="AQ46" s="1" t="n">
-        <v>155.8</v>
-      </c>
-      <c r="AR46" s="1" t="n">
-        <v>248.4</v>
-      </c>
-      <c r="AS46" s="1" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="AT46" s="1" t="n">
-        <v>204.8</v>
-      </c>
-      <c r="AU46" s="2" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="AV46" s="1" t="n">
-        <v>171.7</v>
-      </c>
-      <c r="AW46" s="1" t="n">
-        <v>190.5</v>
-      </c>
-      <c r="AX46" s="3" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="AY46" s="1" t="n">
-        <v>155.3</v>
-      </c>
-      <c r="AZ46" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="BA46" s="1" t="n">
-        <v>165.5</v>
-      </c>
-      <c r="BB46" s="1" t="n">
-        <v>180.2</v>
-      </c>
-      <c r="BC46" s="1" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="BD46" s="3" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="BE46" s="1" t="n">
-        <v>395.4</v>
-      </c>
-      <c r="BF46" s="3" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="BG46" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="BH46" s="3" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="BI46" s="1" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="BJ46" s="1" t="n">
-        <v>173.3</v>
-      </c>
-      <c r="BK46" s="1" t="n">
-        <v>165.3</v>
-      </c>
-      <c r="BL46" s="1" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="BM46" s="1" t="n">
-        <v>172.3</v>
-      </c>
-      <c r="BN46" s="1" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="BO46" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="BP46" s="1" t="n">
-        <v>159.6</v>
-      </c>
-      <c r="BQ46" s="1" t="n">
-        <v>244.2</v>
-      </c>
-      <c r="BR46" s="1" t="n">
-        <v>170.7</v>
-      </c>
-      <c r="BS46" s="1" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="BT46" s="1" t="n">
-        <v>197.1</v>
-      </c>
-      <c r="BU46" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="BV46" s="1" t="n">
-        <v>170.3</v>
-      </c>
-      <c r="BW46" s="1" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="BX46" s="1" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="BY46" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="BZ46" s="1" t="n">
-        <v>175.4</v>
-      </c>
-      <c r="CA46" s="1" t="n">
-        <v>149.3</v>
-      </c>
-      <c r="CB46" s="1" t="n">
-        <v>159.2</v>
-      </c>
-      <c r="CC46" s="1" t="n">
-        <v>165.4</v>
-      </c>
-      <c r="CD46" s="3" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="CE46" s="1" t="n">
-        <v>170.6</v>
-      </c>
-      <c r="CF46" s="1" t="n">
-        <v>167.3</v>
-      </c>
-      <c r="CG46" s="1" t="n">
-        <v>238.4</v>
-      </c>
-      <c r="CH46" s="1" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="CI46" s="1" t="n">
-        <v>147.5</v>
-      </c>
-      <c r="CJ46" s="1" t="n">
-        <v>207.1</v>
-      </c>
-      <c r="CK46" s="1" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="CL46" s="3" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="CM46" s="1" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="CN46" s="1" t="n">
-        <v>171.8</v>
-      </c>
-      <c r="CO46" s="3" t="n">
-        <v>131.3</v>
-      </c>
-      <c r="CP46" s="1" t="n">
-        <v>302.8</v>
-      </c>
-      <c r="CQ46" s="1" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="CR46" s="1" t="n">
-        <v>261.6</v>
-      </c>
-      <c r="CS46" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="CT46" s="1" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="CU46" s="1" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="CV46" s="1" t="n">
-        <v>156.5</v>
-      </c>
-      <c r="CW46" s="1" t="n">
-        <v>246.4</v>
-      </c>
-      <c r="CX46" s="1" t="n">
-        <v>303.7</v>
-      </c>
-      <c r="CY46" s="1" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="CZ46" s="1" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="DA46" s="1" t="n">
-        <v>190.8</v>
-      </c>
-      <c r="DB46" s="3" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="DC46" s="1" t="n">
-        <v>171.4</v>
-      </c>
-      <c r="DD46" s="3" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="DE46" s="1" t="n">
-        <v>157.2</v>
-      </c>
-      <c r="DF46" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="DG46" s="1" t="n">
-        <v>163.5</v>
-      </c>
-      <c r="DH46" s="1" t="n">
-        <v>163.2</v>
-      </c>
-      <c r="DI46" s="1" t="n">
-        <v>161.5</v>
-      </c>
-      <c r="DJ46" s="3" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="DK46" s="1" t="n">
-        <v>168.9</v>
-      </c>
-      <c r="DL46" s="3" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="DM46" s="1" t="n">
-        <v>171.1</v>
-      </c>
-      <c r="DN46" s="1" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="DO46" s="1" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="DP46" s="2" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="DQ46" s="1" t="n">
-        <v>215.5</v>
-      </c>
-      <c r="DR46" s="1" t="n">
-        <v>284.5</v>
-      </c>
-      <c r="DS46" s="1" t="n">
-        <v>164.9</v>
-      </c>
-      <c r="DT46" s="1" t="n">
-        <v>144.6</v>
-      </c>
-      <c r="DU46" s="1" t="n">
-        <v>151.5</v>
+      <c r="DU46" s="3" t="n">
+        <v>133.1</v>
       </c>
       <c r="DV46" s="1" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="DW46" s="1" t="n">
-        <v>147.9</v>
+        <v>217.9</v>
+      </c>
+      <c r="DW46" s="2" t="n">
+        <v>120.8</v>
       </c>
       <c r="DX46" s="1" t="n">
-        <v>148.1</v>
-      </c>
-      <c r="DY46" s="1" t="n">
-        <v>141.7</v>
-      </c>
-      <c r="DZ46" s="1" t="n">
-        <v>158.9</v>
+        <v>155.7</v>
+      </c>
+      <c r="DY46" s="2" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="DZ46" s="3" t="n">
+        <v>128.2</v>
       </c>
       <c r="EA46" s="1" t="n">
-        <v>143.8</v>
+        <v>142</v>
       </c>
       <c r="EB46" s="1" t="n">
-        <v>145.1</v>
+        <v>153.7</v>
       </c>
       <c r="EC46" s="1" t="n">
-        <v>142.1</v>
+        <v>144.1</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B47" s="3" t="n">
-        <v>137</v>
+        <v>531</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>190.1</v>
       </c>
       <c r="C47" s="1" t="n">
+        <v>179.9</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>137.8</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="M47" s="3" t="n">
+        <v>135.6</v>
+      </c>
+      <c r="N47" s="3" t="n">
+        <v>131.2</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="Q47" s="2" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="S47" s="1" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="T47" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="U47" s="1" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="V47" s="3" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="W47" s="1" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="X47" s="1" t="n">
+        <v>166.6</v>
+      </c>
+      <c r="Y47" s="1" t="n">
+        <v>171.4</v>
+      </c>
+      <c r="Z47" s="3" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="AA47" s="1" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="AB47" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="AC47" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="AD47" s="1" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="AE47" s="1" t="n">
+        <v>254.4</v>
+      </c>
+      <c r="AF47" s="1" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="AG47" s="2" t="n">
+        <v>111.2</v>
+      </c>
+      <c r="AH47" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="AI47" s="1" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="AJ47" s="1" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="AK47" s="1" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="AL47" s="1" t="n">
+        <v>167.2</v>
+      </c>
+      <c r="AM47" s="3" t="n">
+        <v>128.1</v>
+      </c>
+      <c r="AN47" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="AO47" s="2" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="AP47" s="1" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="AQ47" s="1" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="AR47" s="1" t="n">
+        <v>163.6</v>
+      </c>
+      <c r="AS47" s="3" t="n">
+        <v>135</v>
+      </c>
+      <c r="AT47" s="1" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="AU47" s="1" t="n">
+        <v>258.9</v>
+      </c>
+      <c r="AV47" s="3" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="AW47" s="3" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="AX47" s="1" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="AY47" s="2" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="AZ47" s="1" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="BA47" s="1" t="n">
+        <v>147.9</v>
+      </c>
+      <c r="BB47" s="1" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="BC47" s="3" t="n">
+        <v>139.3</v>
+      </c>
+      <c r="BD47" s="1" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="BE47" s="3" t="n">
+        <v>136</v>
+      </c>
+      <c r="BF47" s="3" t="n">
+        <v>127.6</v>
+      </c>
+      <c r="BG47" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="BH47" s="3" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="BI47" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="BJ47" s="1" t="n">
+        <v>175.4</v>
+      </c>
+      <c r="BK47" s="1" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="BL47" s="1" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="BM47" s="1" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="BN47" s="1" t="n">
+        <v>265.8</v>
+      </c>
+      <c r="BO47" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="BP47" s="1" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="BQ47" s="1" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="BR47" s="1" t="n">
+        <v>153.9</v>
+      </c>
+      <c r="BS47" s="1" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="BT47" s="1" t="n">
+        <v>264.3</v>
+      </c>
+      <c r="BU47" s="3" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="BV47" s="3" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="BW47" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="BX47" s="3" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="BY47" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="BZ47" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="CA47" s="1" t="n">
+        <v>353.7</v>
+      </c>
+      <c r="CB47" s="1" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="CC47" s="1" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="CD47" s="1" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="CE47" s="1" t="n">
+        <v>178.9</v>
+      </c>
+      <c r="CF47" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="CG47" s="3" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="CH47" s="1" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="CI47" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="CJ47" s="1" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="CK47" s="1" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="CL47" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <v>175.1</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>116.4</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="H47" s="1" t="n">
-        <v>144.4</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="J47" s="1" t="n">
-        <v>150.1</v>
-      </c>
-      <c r="K47" s="1" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="L47" s="1" t="n">
-        <v>157.7</v>
-      </c>
-      <c r="M47" s="1" t="n">
+      <c r="CM47" s="1" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="CN47" s="1" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="CO47" s="1" t="n">
+        <v>181.8</v>
+      </c>
+      <c r="CP47" s="1" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="CQ47" s="1" t="n">
+        <v>248.2</v>
+      </c>
+      <c r="CR47" s="1" t="n">
+        <v>202.2</v>
+      </c>
+      <c r="CS47" s="2" t="n">
+        <v>110.8</v>
+      </c>
+      <c r="CT47" s="1" t="n">
+        <v>168.9</v>
+      </c>
+      <c r="CU47" s="1" t="n">
+        <v>163.6</v>
+      </c>
+      <c r="CV47" s="3" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="CW47" s="1" t="n">
+        <v>512.3</v>
+      </c>
+      <c r="CX47" s="2" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="CY47" s="1" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="CZ47" s="1" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="DA47" s="3" t="n">
+        <v>132.3</v>
+      </c>
+      <c r="DB47" s="1" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="DC47" s="3" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="DD47" s="1" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="DE47" s="1" t="n">
+        <v>362.3</v>
+      </c>
+      <c r="DF47" s="1" t="n">
+        <v>159.3</v>
+      </c>
+      <c r="DG47" s="1" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="DH47" s="1" t="n">
+        <v>273.4</v>
+      </c>
+      <c r="DI47" s="2" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="DJ47" s="1" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="DK47" s="1" t="n">
+        <v>296.8</v>
+      </c>
+      <c r="DL47" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="DM47" s="1" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="DN47" s="1" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="DO47" s="3" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="DP47" s="1" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="DQ47" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="DR47" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="DS47" s="1" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="DT47" s="1" t="n">
         <v>143.6</v>
       </c>
-      <c r="N47" s="1" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="O47" s="1" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="P47" s="3" t="n">
-        <v>134.3</v>
-      </c>
-      <c r="Q47" s="3" t="n">
-        <v>131</v>
-      </c>
-      <c r="R47" s="1" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="S47" s="1" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="T47" s="2" t="n">
-        <v>118.6</v>
-      </c>
-      <c r="U47" s="3" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="V47" s="1" t="n">
-        <v>160.4</v>
-      </c>
-      <c r="W47" s="3" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="X47" s="1" t="n">
-        <v>246.5</v>
-      </c>
-      <c r="Y47" s="1" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="Z47" s="1" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="AA47" s="1" t="n">
-        <v>208.3</v>
-      </c>
-      <c r="AB47" s="3" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="AC47" s="1" t="n">
-        <v>158.5</v>
-      </c>
-      <c r="AD47" s="1" t="n">
-        <v>199.9</v>
-      </c>
-      <c r="AE47" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF47" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="AG47" s="3" t="n">
-        <v>135.3</v>
-      </c>
-      <c r="AH47" s="1" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="AI47" s="1" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="AJ47" s="1" t="n">
-        <v>154.8</v>
-      </c>
-      <c r="AK47" s="1" t="n">
-        <v>192.8</v>
-      </c>
-      <c r="AL47" s="3" t="n">
-        <v>130.7</v>
-      </c>
-      <c r="AM47" s="1" t="n">
-        <v>162.6</v>
-      </c>
-      <c r="AN47" s="1" t="n">
-        <v>179.3</v>
-      </c>
-      <c r="AO47" s="1" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="AP47" s="1" t="n">
-        <v>159.5</v>
-      </c>
-      <c r="AQ47" s="3" t="n">
-        <v>128</v>
-      </c>
-      <c r="AR47" s="1" t="n">
-        <v>171.2</v>
-      </c>
-      <c r="AS47" s="3" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="AT47" s="3" t="n">
-        <v>133.8</v>
-      </c>
-      <c r="AU47" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="AV47" s="1" t="n">
-        <v>342.4</v>
-      </c>
-      <c r="AW47" s="1" t="n">
-        <v>149.4</v>
-      </c>
-      <c r="AX47" s="3" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="AY47" s="1" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="AZ47" s="1" t="n">
-        <v>145.9</v>
-      </c>
-      <c r="BA47" s="2" t="n">
-        <v>120.2</v>
-      </c>
-      <c r="BB47" s="2" t="n">
-        <v>116.9</v>
-      </c>
-      <c r="BC47" s="1" t="n">
-        <v>147.4</v>
-      </c>
-      <c r="BD47" s="1" t="n">
-        <v>181.4</v>
-      </c>
-      <c r="BE47" s="1" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="BF47" s="1" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="BG47" s="1" t="n">
-        <v>238.9</v>
-      </c>
-      <c r="BH47" s="1" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="BI47" s="1" t="n">
-        <v>151.2</v>
-      </c>
-      <c r="BJ47" s="3" t="n">
-        <v>135.1</v>
-      </c>
-      <c r="BK47" s="3" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="BL47" s="1" t="n">
-        <v>183.1</v>
-      </c>
-      <c r="BM47" s="1" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="BN47" s="1" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="BO47" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="BP47" s="1" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="BQ47" s="3" t="n">
-        <v>136.1</v>
-      </c>
-      <c r="BR47" s="1" t="n">
-        <v>190.6</v>
-      </c>
-      <c r="BS47" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="BT47" s="3" t="n">
-        <v>138.7</v>
-      </c>
-      <c r="BU47" s="1" t="n">
-        <v>172.1</v>
-      </c>
-      <c r="BV47" s="1" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="BW47" s="1" t="n">
-        <v>249.8</v>
-      </c>
-      <c r="BX47" s="1" t="n">
-        <v>174.8</v>
-      </c>
-      <c r="BY47" s="1" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="BZ47" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="CA47" s="1" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="CB47" s="1" t="n">
-        <v>158.6</v>
-      </c>
-      <c r="CC47" s="1" t="n">
-        <v>154.3</v>
-      </c>
-      <c r="CD47" s="1" t="n">
-        <v>195.2</v>
-      </c>
-      <c r="CE47" s="1" t="n">
-        <v>160.1</v>
-      </c>
-      <c r="CF47" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="CG47" s="1" t="n">
-        <v>163.8</v>
-      </c>
-      <c r="CH47" s="1" t="n">
-        <v>162.2</v>
-      </c>
-      <c r="CI47" s="3" t="n">
-        <v>128.6</v>
-      </c>
-      <c r="CJ47" s="1" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="CK47" s="1" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="CL47" s="2" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="CM47" s="1" t="n">
-        <v>152.3</v>
-      </c>
-      <c r="CN47" s="1" t="n">
-        <v>151.7</v>
-      </c>
-      <c r="CO47" s="2" t="n">
-        <v>110.4</v>
-      </c>
-      <c r="CP47" s="3" t="n">
-        <v>136.6</v>
-      </c>
-      <c r="CQ47" s="3" t="n">
-        <v>131.6</v>
-      </c>
-      <c r="CR47" s="2" t="n">
+      <c r="DU47" s="1" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="DV47" s="3" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="DW47" s="2" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="DX47" s="1" t="n">
+        <v>170.1</v>
+      </c>
+      <c r="DY47" s="1" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="DZ47" s="1" t="n">
+        <v>168.8</v>
+      </c>
+      <c r="EA47" s="2" t="n">
         <v>123.4</v>
       </c>
-      <c r="CS47" s="1" t="n">
-        <v>188.7</v>
-      </c>
-      <c r="CT47" s="1" t="n">
-        <v>175.2</v>
-      </c>
-      <c r="CU47" s="1" t="n">
-        <v>170.7</v>
-      </c>
-      <c r="CV47" s="1" t="n">
-        <v>165.7</v>
-      </c>
-      <c r="CW47" s="1" t="n">
-        <v>175.9</v>
-      </c>
-      <c r="CX47" s="1" t="n">
-        <v>142.3</v>
-      </c>
-      <c r="CY47" s="3" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="CZ47" s="1" t="n">
-        <v>165.7</v>
-      </c>
-      <c r="DA47" s="1" t="n">
-        <v>179.4</v>
-      </c>
-      <c r="DB47" s="3" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="DC47" s="1" t="n">
-        <v>200.4</v>
-      </c>
-      <c r="DD47" s="3" t="n">
-        <v>135.6</v>
-      </c>
-      <c r="DE47" s="3" t="n">
-        <v>128.9</v>
-      </c>
-      <c r="DF47" s="1" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="DG47" s="1" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="DH47" s="3" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="DI47" s="1" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="DJ47" s="1" t="n">
-        <v>162.9</v>
-      </c>
-      <c r="DK47" s="1" t="n">
-        <v>156.4</v>
-      </c>
-      <c r="DL47" s="3" t="n">
-        <v>135.8</v>
-      </c>
-      <c r="DM47" s="1" t="n">
-        <v>164.1</v>
-      </c>
-      <c r="DN47" s="1" t="n">
-        <v>142.9</v>
-      </c>
-      <c r="DO47" s="1" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="DP47" s="1" t="n">
-        <v>148.6</v>
-      </c>
-      <c r="DQ47" s="2" t="n">
-        <v>120.4</v>
-      </c>
-      <c r="DR47" s="1" t="n">
-        <v>169.9</v>
-      </c>
-      <c r="DS47" s="1" t="n">
-        <v>334.7</v>
-      </c>
-      <c r="DT47" s="3" t="n">
-        <v>136</v>
-      </c>
-      <c r="DU47" s="3" t="n">
-        <v>135.8</v>
-      </c>
-      <c r="DV47" s="1" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="DW47" s="1" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="DX47" s="1" t="n">
-        <v>206.6</v>
-      </c>
-      <c r="DY47" s="1" t="n">
-        <v>191.7</v>
-      </c>
-      <c r="DZ47" s="1" t="n">
-        <v>206.2</v>
-      </c>
-      <c r="EA47" s="1" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="EB47" s="3" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="EC47" s="1" t="n">
-        <v>140.3</v>
+      <c r="EB47" s="1" t="n">
+        <v>161.9</v>
+      </c>
+      <c r="EC47" s="3" t="n">
+        <v>129.4</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B48" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="F48" s="1" t="n">
         <v>142.2</v>
       </c>
-      <c r="C48" s="1" t="n">
-        <v>169.2</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>173.2</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>120.3</v>
-      </c>
       <c r="G48" s="1" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="H48" s="1" t="n">
-        <v>224.4</v>
+        <v>145.2</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>124.8</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>197.6</v>
-      </c>
-      <c r="J48" s="3" t="n">
-        <v>134</v>
+        <v>165</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>155.1</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>166.5</v>
+        <v>161.1</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>187</v>
+        <v>157.6</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>216.8</v>
-      </c>
-      <c r="N48" s="3" t="n">
-        <v>132.4</v>
+        <v>152.7</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>141.9</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>140.3</v>
+        <v>160.1</v>
       </c>
       <c r="P48" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="R48" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="S48" s="1" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="T48" s="1" t="n">
+        <v>204.6</v>
+      </c>
+      <c r="U48" s="1" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="V48" s="3" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="W48" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="X48" s="1" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="Y48" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="Z48" s="1" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="AA48" s="3" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="AB48" s="1" t="n">
+        <v>149.1</v>
+      </c>
+      <c r="AC48" s="1" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="AD48" s="3" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="AE48" s="1" t="n">
+        <v>143.4</v>
+      </c>
+      <c r="AF48" s="1" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="AG48" s="1" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="AH48" s="3" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="AI48" s="1" t="n">
+        <v>184.4</v>
+      </c>
+      <c r="AJ48" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="AK48" s="1" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="AL48" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="AM48" s="1" t="n">
+        <v>245.1</v>
+      </c>
+      <c r="AN48" s="3" t="n">
+        <v>138.7</v>
+      </c>
+      <c r="AO48" s="1" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="AP48" s="3" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="AQ48" s="1" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="AR48" s="1" t="n">
+        <v>172.1</v>
+      </c>
+      <c r="AS48" s="1" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="AT48" s="1" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="AU48" s="1" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="AV48" s="1" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="AW48" s="3" t="n">
+        <v>129.5</v>
+      </c>
+      <c r="AX48" s="1" t="n">
+        <v>150.2</v>
+      </c>
+      <c r="AY48" s="1" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="AZ48" s="1" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="BA48" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="BB48" s="1" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="BC48" s="3" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="BD48" s="1" t="n">
+        <v>170.2</v>
+      </c>
+      <c r="BE48" s="1" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="BF48" s="1" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="BG48" s="1" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="BH48" s="2" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="BI48" s="1" t="n">
+        <v>147.3</v>
+      </c>
+      <c r="BJ48" s="2" t="n">
+        <v>113.2</v>
+      </c>
+      <c r="BK48" s="1" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="BL48" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="BM48" s="3" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="BN48" s="1" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="BO48" s="1" t="n">
+        <v>181.9</v>
+      </c>
+      <c r="BP48" s="1" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="BQ48" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="BR48" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="BS48" s="1" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="BT48" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="BU48" s="3" t="n">
+        <v>137</v>
+      </c>
+      <c r="BV48" s="1" t="n">
+        <v>198.9</v>
+      </c>
+      <c r="BW48" s="2" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="BX48" s="1" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="BY48" s="2" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="BZ48" s="1" t="n">
+        <v>163.7</v>
+      </c>
+      <c r="CA48" s="3" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="CB48" s="1" t="n">
+        <v>140.7</v>
+      </c>
+      <c r="CC48" s="1" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="CD48" s="1" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="CE48" s="3" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="CF48" s="1" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="CG48" s="1" t="n">
+        <v>440.8</v>
+      </c>
+      <c r="CH48" s="1" t="n">
         <v>150.5</v>
       </c>
-      <c r="Q48" s="3" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="R48" s="1" t="n">
-        <v>169.8</v>
-      </c>
-      <c r="S48" s="1" t="n">
-        <v>143.8</v>
-      </c>
-      <c r="T48" s="1" t="n">
-        <v>149.3</v>
-      </c>
-      <c r="U48" s="1" t="n">
-        <v>181.7</v>
-      </c>
-      <c r="V48" s="1" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="W48" s="1" t="n">
-        <v>155.2</v>
-      </c>
-      <c r="X48" s="1" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="Y48" s="2" t="n">
-        <v>116.1</v>
-      </c>
-      <c r="Z48" s="2" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="AA48" s="1" t="n">
-        <v>158.6</v>
-      </c>
-      <c r="AB48" s="2" t="n">
-        <v>119.1</v>
-      </c>
-      <c r="AC48" s="2" t="n">
-        <v>118.4</v>
-      </c>
-      <c r="AD48" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="AE48" s="1" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="AF48" s="1" t="n">
-        <v>153.4</v>
-      </c>
-      <c r="AG48" s="1" t="n">
-        <v>171.5</v>
-      </c>
-      <c r="AH48" s="1" t="n">
-        <v>184.8</v>
-      </c>
-      <c r="AI48" s="2" t="n">
-        <v>123.6</v>
-      </c>
-      <c r="AJ48" s="1" t="n">
-        <v>153.1</v>
-      </c>
-      <c r="AK48" s="1" t="n">
-        <v>164.1</v>
-      </c>
-      <c r="AL48" s="2" t="n">
-        <v>116.3</v>
-      </c>
-      <c r="AM48" s="1" t="n">
-        <v>175.3</v>
-      </c>
-      <c r="AN48" s="3" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="AO48" s="1" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="AP48" s="1" t="n">
-        <v>148.4</v>
-      </c>
-      <c r="AQ48" s="1" t="n">
-        <v>170.6</v>
-      </c>
-      <c r="AR48" s="3" t="n">
-        <v>139.5</v>
-      </c>
-      <c r="AS48" s="1" t="n">
+      <c r="CI48" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="CJ48" s="1" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="CK48" s="1" t="n">
+        <v>179.3</v>
+      </c>
+      <c r="CL48" s="1" t="n">
+        <v>150.8</v>
+      </c>
+      <c r="CM48" s="1" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="CN48" s="1" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="CO48" s="1" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="CP48" s="3" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="CQ48" s="1" t="n">
+        <v>183.4</v>
+      </c>
+      <c r="CR48" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="CS48" s="1" t="n">
+        <v>234.7</v>
+      </c>
+      <c r="CT48" s="1" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="CU48" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="CV48" s="1" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="CW48" s="1" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="CX48" s="1" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="CY48" s="1" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="CZ48" s="3" t="n">
+        <v>127.1</v>
+      </c>
+      <c r="DA48" s="1" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="DB48" s="1" t="n">
+        <v>150.7</v>
+      </c>
+      <c r="DC48" s="1" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="DD48" s="2" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="DE48" s="2" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="DF48" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="DG48" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="DH48" s="1" t="n">
+        <v>207.8</v>
+      </c>
+      <c r="DI48" s="1" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="DJ48" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="AT48" s="1" t="n">
+      <c r="DK48" s="3" t="n">
+        <v>138.8</v>
+      </c>
+      <c r="DL48" s="1" t="n">
+        <v>143.2</v>
+      </c>
+      <c r="DM48" s="1" t="n">
+        <v>168.4</v>
+      </c>
+      <c r="DN48" s="1" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="DO48" s="1" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="DP48" s="1" t="n">
+        <v>220.7</v>
+      </c>
+      <c r="DQ48" s="1" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="DR48" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="DS48" s="1" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="DT48" s="1" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="DU48" s="1" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="DV48" s="3" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="DW48" s="1" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="DX48" s="1" t="n">
         <v>140.5</v>
       </c>
-      <c r="AU48" s="2" t="n">
-        <v>118.8</v>
-      </c>
-      <c r="AV48" s="1" t="n">
-        <v>188.1</v>
-      </c>
-      <c r="AW48" s="1" t="n">
-        <v>148.7</v>
-      </c>
-      <c r="AX48" s="1" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="AY48" s="1" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="AZ48" s="1" t="n">
-        <v>241.1</v>
-      </c>
-      <c r="BA48" s="1" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="BB48" s="1" t="n">
-        <v>199.9</v>
-      </c>
-      <c r="BC48" s="1" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="BD48" s="1" t="n">
-        <v>162.3</v>
-      </c>
-      <c r="BE48" s="1" t="n">
-        <v>170.3</v>
-      </c>
-      <c r="BF48" s="1" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="BG48" s="1" t="n">
-        <v>151.3</v>
-      </c>
-      <c r="BH48" s="1" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="BI48" s="1" t="n">
-        <v>211.1</v>
-      </c>
-      <c r="BJ48" s="1" t="n">
-        <v>144.4</v>
-      </c>
-      <c r="BK48" s="1" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="BL48" s="1" t="n">
-        <v>146.3</v>
-      </c>
-      <c r="BM48" s="1" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="BN48" s="1" t="n">
-        <v>187.6</v>
-      </c>
-      <c r="BO48" s="2" t="n">
-        <v>123</v>
-      </c>
-      <c r="BP48" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="BQ48" s="1" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="BR48" s="3" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="BS48" s="1" t="n">
-        <v>192.2</v>
-      </c>
-      <c r="BT48" s="1" t="n">
-        <v>170.6</v>
-      </c>
-      <c r="BU48" s="1" t="n">
-        <v>157.2</v>
-      </c>
-      <c r="BV48" s="1" t="n">
-        <v>189.1</v>
-      </c>
-      <c r="BW48" s="1" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="BX48" s="2" t="n">
-        <v>120.5</v>
-      </c>
-      <c r="BY48" s="1" t="n">
-        <v>181.7</v>
-      </c>
-      <c r="BZ48" s="3" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="CA48" s="1" t="n">
-        <v>168.7</v>
-      </c>
-      <c r="CB48" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="CC48" s="3" t="n">
-        <v>136.3</v>
-      </c>
-      <c r="CD48" s="3" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="CE48" s="2" t="n">
-        <v>120.9</v>
-      </c>
-      <c r="CF48" s="1" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="CG48" s="1" t="n">
-        <v>219.1</v>
-      </c>
-      <c r="CH48" s="1" t="n">
-        <v>196.1</v>
-      </c>
-      <c r="CI48" s="1" t="n">
-        <v>201.8</v>
-      </c>
-      <c r="CJ48" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="CK48" s="1" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="CL48" s="1" t="n">
-        <v>174.6</v>
-      </c>
-      <c r="CM48" s="1" t="n">
-        <v>197.4</v>
-      </c>
-      <c r="CN48" s="1" t="n">
-        <v>218.6</v>
-      </c>
-      <c r="CO48" s="2" t="n">
-        <v>114.4</v>
-      </c>
-      <c r="CP48" s="1" t="n">
-        <v>168.4</v>
-      </c>
-      <c r="CQ48" s="1" t="n">
-        <v>162.3</v>
-      </c>
-      <c r="CR48" s="1" t="n">
-        <v>236.4</v>
-      </c>
-      <c r="CS48" s="3" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="CT48" s="3" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="CU48" s="3" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="CV48" s="1" t="n">
-        <v>164.7</v>
-      </c>
-      <c r="CW48" s="3" t="n">
-        <v>137.9</v>
-      </c>
-      <c r="CX48" s="1" t="n">
-        <v>155.2</v>
-      </c>
-      <c r="CY48" s="1" t="n">
-        <v>201.2</v>
-      </c>
-      <c r="CZ48" s="1" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="DA48" s="1" t="n">
-        <v>176.7</v>
-      </c>
-      <c r="DB48" s="1" t="n">
-        <v>179.3</v>
-      </c>
-      <c r="DC48" s="1" t="n">
-        <v>222.5</v>
-      </c>
-      <c r="DD48" s="1" t="n">
-        <v>160.7</v>
-      </c>
-      <c r="DE48" s="1" t="n">
-        <v>144.3</v>
-      </c>
-      <c r="DF48" s="3" t="n">
-        <v>139.9</v>
-      </c>
-      <c r="DG48" s="2" t="n">
-        <v>124.5</v>
-      </c>
-      <c r="DH48" s="1" t="n">
-        <v>144.3</v>
-      </c>
-      <c r="DI48" s="3" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="DJ48" s="1" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="DK48" s="1" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="DL48" s="1" t="n">
-        <v>168.3</v>
-      </c>
-      <c r="DM48" s="1" t="n">
-        <v>160.4</v>
-      </c>
-      <c r="DN48" s="3" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="DO48" s="1" t="n">
-        <v>150.7</v>
-      </c>
-      <c r="DP48" s="1" t="n">
-        <v>167.1</v>
-      </c>
-      <c r="DQ48" s="1" t="n">
-        <v>158.2</v>
-      </c>
-      <c r="DR48" s="1" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="DS48" s="2" t="n">
-        <v>123.2</v>
-      </c>
-      <c r="DT48" s="1" t="n">
-        <v>159.2</v>
-      </c>
-      <c r="DU48" s="3" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="DV48" s="1" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="DW48" s="2" t="n">
-        <v>120.8</v>
-      </c>
-      <c r="DX48" s="1" t="n">
-        <v>155.7</v>
-      </c>
-      <c r="DY48" s="2" t="n">
-        <v>123.2</v>
-      </c>
-      <c r="DZ48" s="3" t="n">
-        <v>128.2</v>
-      </c>
-      <c r="EA48" s="1" t="n">
-        <v>142</v>
+      <c r="DY48" s="1" t="n">
+        <v>187.1</v>
+      </c>
+      <c r="DZ48" s="1" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="EA48" s="3" t="n">
+        <v>132.5</v>
       </c>
       <c r="EB48" s="1" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="EC48" s="1" t="n">
-        <v>144.1</v>
+        <v>188.4</v>
+      </c>
+      <c r="EC48" s="3" t="n">
+        <v>127.4</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>190.1</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>179.9</v>
+        <v>533</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="C49" s="3" t="n">
+        <v>139.1</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="E49" s="3" t="n">
-        <v>137.8</v>
+        <v>157.1</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>117.3</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>159.8</v>
+        <v>223.5</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>267.3</v>
+        <v>164</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>147.8</v>
+        <v>140.7</v>
       </c>
       <c r="I49" s="3" t="n">
-        <v>138.8</v>
+        <v>139.8</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>158.6</v>
+        <v>157.5</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>159</v>
+        <v>148.3</v>
       </c>
       <c r="L49" s="1" t="n">
+        <v>172.7</v>
+      </c>
+      <c r="M49" s="1" t="n">
+        <v>193.2</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>182.5</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>158.1</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>219.6</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="R49" s="1" t="n">
+        <v>290.9</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="T49" s="1" t="n">
+        <v>176.3</v>
+      </c>
+      <c r="U49" s="1" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="V49" s="1" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="W49" s="1" t="n">
+        <v>149.2</v>
+      </c>
+      <c r="X49" s="1" t="n">
+        <v>153.5</v>
+      </c>
+      <c r="Y49" s="3" t="n">
+        <v>128.4</v>
+      </c>
+      <c r="Z49" s="1" t="n">
+        <v>167.8</v>
+      </c>
+      <c r="AA49" s="2" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="AB49" s="1" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="AC49" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="AD49" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="AE49" s="3" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="AF49" s="1" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="AG49" s="1" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="AH49" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="AI49" s="1" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="AJ49" s="1" t="n">
+        <v>210.5</v>
+      </c>
+      <c r="AK49" s="3" t="n">
+        <v>135.1</v>
+      </c>
+      <c r="AL49" s="1" t="n">
         <v>159.1</v>
       </c>
-      <c r="M49" s="3" t="n">
-        <v>135.6</v>
-      </c>
-      <c r="N49" s="3" t="n">
-        <v>131.2</v>
-      </c>
-      <c r="O49" s="2" t="n">
-        <v>114.3</v>
-      </c>
-      <c r="P49" s="1" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="Q49" s="2" t="n">
+      <c r="AM49" s="1" t="n">
+        <v>295.8</v>
+      </c>
+      <c r="AN49" s="3" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="AO49" s="1" t="n">
+        <v>177.8</v>
+      </c>
+      <c r="AP49" s="1" t="n">
+        <v>165.1</v>
+      </c>
+      <c r="AQ49" s="1" t="n">
+        <v>193.3</v>
+      </c>
+      <c r="AR49" s="1" t="n">
+        <v>165.2</v>
+      </c>
+      <c r="AS49" s="1" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="AT49" s="1" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="AU49" s="2" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="AV49" s="1" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="AW49" s="1" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="AX49" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="AY49" s="1" t="n">
+        <v>171.3</v>
+      </c>
+      <c r="AZ49" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="BA49" s="2" t="n">
+        <v>116.1</v>
+      </c>
+      <c r="BB49" s="1" t="n">
+        <v>172.4</v>
+      </c>
+      <c r="BC49" s="1" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="BD49" s="1" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="BE49" s="1" t="n">
+        <v>209.4</v>
+      </c>
+      <c r="BF49" s="2" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="BG49" s="1" t="n">
+        <v>161.1</v>
+      </c>
+      <c r="BH49" s="1" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="BI49" s="3" t="n">
+        <v>139.8</v>
+      </c>
+      <c r="BJ49" s="2" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="BK49" s="1" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="BL49" s="3" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="BM49" s="1" t="n">
+        <v>238.4</v>
+      </c>
+      <c r="BN49" s="3" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="BO49" s="1" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="BP49" s="1" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="BQ49" s="3" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="BR49" s="1" t="n">
+        <v>150.9</v>
+      </c>
+      <c r="BS49" s="1" t="n">
+        <v>287.4</v>
+      </c>
+      <c r="BT49" s="1" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="BU49" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="BV49" s="1" t="n">
+        <v>157.1</v>
+      </c>
+      <c r="BW49" s="3" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="BX49" s="1" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="BY49" s="3" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="BZ49" s="3" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="CA49" s="1" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="CB49" s="3" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="CC49" s="1" t="n">
+        <v>194.9</v>
+      </c>
+      <c r="CD49" s="1" t="n">
+        <v>215.5</v>
+      </c>
+      <c r="CE49" s="1" t="n">
+        <v>182.3</v>
+      </c>
+      <c r="CF49" s="1" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="CG49" s="1" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="CH49" s="2" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="CI49" s="1" t="n">
+        <v>196.4</v>
+      </c>
+      <c r="CJ49" s="2" t="n">
+        <v>120.3</v>
+      </c>
+      <c r="CK49" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="CL49" s="1" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="CM49" s="3" t="n">
+        <v>127.3</v>
+      </c>
+      <c r="CN49" s="1" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="CO49" s="1" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="CP49" s="1" t="n">
+        <v>213.5</v>
+      </c>
+      <c r="CQ49" s="1" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="CR49" s="2" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="CS49" s="1" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="CT49" s="1" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="CU49" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="CV49" s="1" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="CW49" s="1" t="n">
+        <v>157.3</v>
+      </c>
+      <c r="CX49" s="3" t="n">
+        <v>127.2</v>
+      </c>
+      <c r="CY49" s="1" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="CZ49" s="3" t="n">
+        <v>127.9</v>
+      </c>
+      <c r="DA49" s="1" t="n">
+        <v>162.1</v>
+      </c>
+      <c r="DB49" s="1" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="DC49" s="1" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="DD49" s="2" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="DE49" s="1" t="n">
+        <v>277.3</v>
+      </c>
+      <c r="DF49" s="1" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="DG49" s="2" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="DH49" s="1" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="DI49" s="1" t="n">
+        <v>147.7</v>
+      </c>
+      <c r="DJ49" s="1" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="DK49" s="1" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="DL49" s="3" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="DM49" s="1" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="DN49" s="1" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="DO49" s="3" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="DP49" s="1" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="DQ49" s="1" t="n">
+        <v>166.1</v>
+      </c>
+      <c r="DR49" s="1" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="DS49" s="1" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="DT49" s="1" t="n">
+        <v>145.6</v>
+      </c>
+      <c r="DU49" s="1" t="n">
+        <v>155.5</v>
+      </c>
+      <c r="DV49" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="DW49" s="1" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="DX49" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="DY49" s="1" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="DZ49" s="1" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="EA49" s="1" t="n">
+        <v>148.3</v>
+      </c>
+      <c r="EB49" s="1" t="n">
+        <v>160.1</v>
+      </c>
+      <c r="EC49" s="2" t="n">
         <v>114.5</v>
-      </c>
-      <c r="R49" s="2" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="S49" s="1" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="T49" s="1" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="U49" s="1" t="n">
-        <v>221.6</v>
-      </c>
-      <c r="V49" s="3" t="n">
-        <v>132.8</v>
-      </c>
-      <c r="W49" s="1" t="n">
-        <v>184.7</v>
-      </c>
-      <c r="X49" s="1" t="n">
-        <v>166.6</v>
-      </c>
-      <c r="Y49" s="1" t="n">
-        <v>171.4</v>
-      </c>
-      <c r="Z49" s="3" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="AA49" s="1" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="AB49" s="3" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="AC49" s="3" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="AD49" s="1" t="n">
-        <v>160.9</v>
-      </c>
-      <c r="AE49" s="1" t="n">
-        <v>254.4</v>
-      </c>
-      <c r="AF49" s="1" t="n">
-        <v>142.5</v>
-      </c>
-      <c r="AG49" s="2" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="AH49" s="3" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="AI49" s="1" t="n">
-        <v>166.3</v>
-      </c>
-      <c r="AJ49" s="1" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="AK49" s="1" t="n">
-        <v>167.7</v>
-      </c>
-      <c r="AL49" s="1" t="n">
-        <v>167.2</v>
-      </c>
-      <c r="AM49" s="3" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="AN49" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="AO49" s="2" t="n">
-        <v>116.4</v>
-      </c>
-      <c r="AP49" s="1" t="n">
-        <v>187.3</v>
-      </c>
-      <c r="AQ49" s="1" t="n">
-        <v>177.4</v>
-      </c>
-      <c r="AR49" s="1" t="n">
-        <v>163.6</v>
-      </c>
-      <c r="AS49" s="3" t="n">
-        <v>135</v>
-      </c>
-      <c r="AT49" s="1" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="AU49" s="1" t="n">
-        <v>258.9</v>
-      </c>
-      <c r="AV49" s="3" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="AW49" s="3" t="n">
-        <v>132.4</v>
-      </c>
-      <c r="AX49" s="1" t="n">
-        <v>214.1</v>
-      </c>
-      <c r="AY49" s="2" t="n">
-        <v>116.4</v>
-      </c>
-      <c r="AZ49" s="1" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="BA49" s="1" t="n">
-        <v>147.9</v>
-      </c>
-      <c r="BB49" s="1" t="n">
-        <v>224.2</v>
-      </c>
-      <c r="BC49" s="3" t="n">
-        <v>139.3</v>
-      </c>
-      <c r="BD49" s="1" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="BE49" s="3" t="n">
-        <v>136</v>
-      </c>
-      <c r="BF49" s="3" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="BG49" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="BH49" s="3" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="BI49" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="BJ49" s="1" t="n">
-        <v>175.4</v>
-      </c>
-      <c r="BK49" s="1" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="BL49" s="1" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="BM49" s="1" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="BN49" s="1" t="n">
-        <v>265.8</v>
-      </c>
-      <c r="BO49" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="BP49" s="1" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="BQ49" s="1" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="BR49" s="1" t="n">
-        <v>153.9</v>
-      </c>
-      <c r="BS49" s="1" t="n">
-        <v>156.6</v>
-      </c>
-      <c r="BT49" s="1" t="n">
-        <v>264.3</v>
-      </c>
-      <c r="BU49" s="3" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="BV49" s="3" t="n">
-        <v>135.2</v>
-      </c>
-      <c r="BW49" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="BX49" s="3" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="BY49" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="BZ49" s="2" t="n">
-        <v>114.7</v>
-      </c>
-      <c r="CA49" s="1" t="n">
-        <v>353.7</v>
-      </c>
-      <c r="CB49" s="1" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="CC49" s="1" t="n">
-        <v>177.9</v>
-      </c>
-      <c r="CD49" s="1" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="CE49" s="1" t="n">
-        <v>178.9</v>
-      </c>
-      <c r="CF49" s="3" t="n">
-        <v>134</v>
-      </c>
-      <c r="CG49" s="3" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="CH49" s="1" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="CI49" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="CJ49" s="1" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="CK49" s="1" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="CL49" s="1" t="n">
-        <v>187.5</v>
-      </c>
-      <c r="CM49" s="1" t="n">
-        <v>158.4</v>
-      </c>
-      <c r="CN49" s="1" t="n">
-        <v>163.3</v>
-      </c>
-      <c r="CO49" s="1" t="n">
-        <v>181.8</v>
-      </c>
-      <c r="CP49" s="1" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="CQ49" s="1" t="n">
-        <v>248.2</v>
-      </c>
-      <c r="CR49" s="1" t="n">
-        <v>202.2</v>
-      </c>
-      <c r="CS49" s="2" t="n">
-        <v>110.8</v>
-      </c>
-      <c r="CT49" s="1" t="n">
-        <v>168.9</v>
-      </c>
-      <c r="CU49" s="1" t="n">
-        <v>163.6</v>
-      </c>
-      <c r="CV49" s="3" t="n">
-        <v>130.6</v>
-      </c>
-      <c r="CW49" s="1" t="n">
-        <v>512.3</v>
-      </c>
-      <c r="CX49" s="2" t="n">
-        <v>110.2</v>
-      </c>
-      <c r="CY49" s="1" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="CZ49" s="1" t="n">
-        <v>149.2</v>
-      </c>
-      <c r="DA49" s="3" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="DB49" s="1" t="n">
-        <v>175.8</v>
-      </c>
-      <c r="DC49" s="3" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="DD49" s="1" t="n">
-        <v>186.2</v>
-      </c>
-      <c r="DE49" s="1" t="n">
-        <v>362.3</v>
-      </c>
-      <c r="DF49" s="1" t="n">
-        <v>159.3</v>
-      </c>
-      <c r="DG49" s="1" t="n">
-        <v>182.7</v>
-      </c>
-      <c r="DH49" s="1" t="n">
-        <v>273.4</v>
-      </c>
-      <c r="DI49" s="2" t="n">
-        <v>121.1</v>
-      </c>
-      <c r="DJ49" s="1" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="DK49" s="1" t="n">
-        <v>296.8</v>
-      </c>
-      <c r="DL49" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="DM49" s="1" t="n">
-        <v>195.4</v>
-      </c>
-      <c r="DN49" s="1" t="n">
-        <v>146.4</v>
-      </c>
-      <c r="DO49" s="3" t="n">
-        <v>134.4</v>
-      </c>
-      <c r="DP49" s="1" t="n">
-        <v>160.4</v>
-      </c>
-      <c r="DQ49" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="DR49" s="3" t="n">
-        <v>132</v>
-      </c>
-      <c r="DS49" s="1" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="DT49" s="1" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="DU49" s="1" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="DV49" s="3" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="DW49" s="2" t="n">
-        <v>120.1</v>
-      </c>
-      <c r="DX49" s="1" t="n">
-        <v>170.1</v>
-      </c>
-      <c r="DY49" s="1" t="n">
-        <v>155.8</v>
-      </c>
-      <c r="DZ49" s="1" t="n">
-        <v>168.8</v>
-      </c>
-      <c r="EA49" s="2" t="n">
-        <v>123.4</v>
-      </c>
-      <c r="EB49" s="1" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="EC49" s="3" t="n">
-        <v>129.4</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>122.3</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>149.2</v>
+        <v>191.1</v>
+      </c>
+      <c r="C50" s="3" t="n">
+        <v>128.2</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>222.9</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>125.1</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>142.2</v>
+        <v>167.6</v>
       </c>
       <c r="G50" s="1" t="n">
-        <v>145.2</v>
+        <v>223.9</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>124.8</v>
-      </c>
-      <c r="I50" s="1" t="n">
-        <v>165</v>
+        <v>124.1</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>128.3</v>
       </c>
       <c r="J50" s="1" t="n">
-        <v>155.1</v>
+        <v>145</v>
       </c>
       <c r="K50" s="1" t="n">
-        <v>161.1</v>
+        <v>146.6</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>157.6</v>
+        <v>156.6</v>
       </c>
       <c r="M50" s="1" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>157.5</v>
+      </c>
+      <c r="O50" s="3" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>169.3</v>
+      </c>
+      <c r="Q50" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>176.6</v>
+      </c>
+      <c r="S50" s="3" t="n">
+        <v>134</v>
+      </c>
+      <c r="T50" s="1" t="n">
         <v>152.7</v>
       </c>
-      <c r="N50" s="1" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="O50" s="1" t="n">
-        <v>160.1</v>
-      </c>
-      <c r="P50" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="Q50" s="1" t="n">
-        <v>148.5</v>
-      </c>
-      <c r="R50" s="2" t="n">
-        <v>114.7</v>
-      </c>
-      <c r="S50" s="1" t="n">
-        <v>158.4</v>
-      </c>
-      <c r="T50" s="1" t="n">
-        <v>204.6</v>
-      </c>
       <c r="U50" s="1" t="n">
-        <v>152.5</v>
-      </c>
-      <c r="V50" s="3" t="n">
-        <v>136.4</v>
-      </c>
-      <c r="W50" s="1" t="n">
-        <v>143</v>
+        <v>173.7</v>
+      </c>
+      <c r="V50" s="1" t="n">
+        <v>237.2</v>
+      </c>
+      <c r="W50" s="3" t="n">
+        <v>132.9</v>
       </c>
       <c r="X50" s="1" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="Y50" s="1" t="n">
+        <v>374.2</v>
+      </c>
+      <c r="Z50" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA50" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="AB50" s="2" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="AC50" s="1" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="AD50" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="AE50" s="2" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="AF50" s="1" t="n">
+        <v>185.6</v>
+      </c>
+      <c r="AG50" s="1" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="AH50" s="1" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="AI50" s="1" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="AJ50" s="3" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="AK50" s="1" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="AL50" s="1" t="n">
+        <v>154.3</v>
+      </c>
+      <c r="AM50" s="1" t="n">
+        <v>145.1</v>
+      </c>
+      <c r="AN50" s="1" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="AO50" s="1" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="AP50" s="1" t="n">
+        <v>193.6</v>
+      </c>
+      <c r="AQ50" s="1" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="AR50" s="1" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="AS50" s="3" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="AT50" s="1" t="n">
         <v>144.6</v>
       </c>
-      <c r="Y50" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="Z50" s="1" t="n">
-        <v>200.8</v>
-      </c>
-      <c r="AA50" s="3" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="AB50" s="1" t="n">
-        <v>149.1</v>
-      </c>
-      <c r="AC50" s="1" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="AD50" s="3" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="AE50" s="1" t="n">
-        <v>143.4</v>
-      </c>
-      <c r="AF50" s="1" t="n">
-        <v>154.8</v>
-      </c>
-      <c r="AG50" s="1" t="n">
-        <v>149.9</v>
-      </c>
-      <c r="AH50" s="3" t="n">
-        <v>138.5</v>
-      </c>
-      <c r="AI50" s="1" t="n">
-        <v>184.4</v>
-      </c>
-      <c r="AJ50" s="3" t="n">
+      <c r="AU50" s="1" t="n">
+        <v>178.3</v>
+      </c>
+      <c r="AV50" s="1" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="AW50" s="1" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="AX50" s="1" t="n">
+        <v>168.2</v>
+      </c>
+      <c r="AY50" s="1" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="AZ50" s="1" t="n">
+        <v>170.5</v>
+      </c>
+      <c r="BA50" s="1" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="BB50" s="3" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="BC50" s="1" t="n">
+        <v>175.4</v>
+      </c>
+      <c r="BD50" s="1" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="BE50" s="1" t="n">
+        <v>182.9</v>
+      </c>
+      <c r="BF50" s="3" t="n">
         <v>138.8</v>
       </c>
-      <c r="AK50" s="1" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="AL50" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="AM50" s="1" t="n">
-        <v>245.1</v>
-      </c>
-      <c r="AN50" s="3" t="n">
+      <c r="BG50" s="1" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="BH50" s="1" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="BI50" s="1" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="BJ50" s="3" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="BK50" s="3" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="BL50" s="1" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="BM50" s="1" t="n">
+        <v>211.4</v>
+      </c>
+      <c r="BN50" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="BO50" s="3" t="n">
+        <v>135.4</v>
+      </c>
+      <c r="BP50" s="1" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="BQ50" s="1" t="n">
+        <v>168.7</v>
+      </c>
+      <c r="BR50" s="1" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="BS50" s="1" t="n">
+        <v>162.9</v>
+      </c>
+      <c r="BT50" s="3" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="BU50" s="1" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="BV50" s="1" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="BW50" s="3" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="BX50" s="1" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="BY50" s="2" t="n">
+        <v>122.9</v>
+      </c>
+      <c r="BZ50" s="1" t="n">
+        <v>174.4</v>
+      </c>
+      <c r="CA50" s="1" t="n">
+        <v>165.2</v>
+      </c>
+      <c r="CB50" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="CC50" s="1" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="CD50" s="2" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="CE50" s="1" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="CF50" s="1" t="n">
+        <v>159.1</v>
+      </c>
+      <c r="CG50" s="3" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="CH50" s="3" t="n">
+        <v>134.3</v>
+      </c>
+      <c r="CI50" s="1" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="CJ50" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="CK50" s="1" t="n">
+        <v>153.7</v>
+      </c>
+      <c r="CL50" s="1" t="n">
+        <v>151.1</v>
+      </c>
+      <c r="CM50" s="1" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="CN50" s="1" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="CO50" s="1" t="n">
+        <v>222.2</v>
+      </c>
+      <c r="CP50" s="1" t="n">
+        <v>165.3</v>
+      </c>
+      <c r="CQ50" s="3" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="CR50" s="1" t="n">
+        <v>179.5</v>
+      </c>
+      <c r="CS50" s="1" t="n">
+        <v>167.3</v>
+      </c>
+      <c r="CT50" s="2" t="n">
+        <v>118.6</v>
+      </c>
+      <c r="CU50" s="1" t="n">
+        <v>238.1</v>
+      </c>
+      <c r="CV50" s="3" t="n">
+        <v>132.4</v>
+      </c>
+      <c r="CW50" s="1" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="CX50" s="1" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="CY50" s="1" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="CZ50" s="1" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="DA50" s="1" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="DB50" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="DC50" s="1" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="DD50" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="DE50" s="1" t="n">
+        <v>241.3</v>
+      </c>
+      <c r="DF50" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="DG50" s="3" t="n">
+        <v>139</v>
+      </c>
+      <c r="DH50" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="DI50" s="3" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="DJ50" s="3" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="DK50" s="1" t="n">
+        <v>191.9</v>
+      </c>
+      <c r="DL50" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="DM50" s="1" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="DN50" s="1" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="DO50" s="3" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="DP50" s="1" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="DQ50" s="1" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="DR50" s="3" t="n">
         <v>138.7</v>
       </c>
-      <c r="AO50" s="1" t="n">
-        <v>164.9</v>
-      </c>
-      <c r="AP50" s="3" t="n">
-        <v>133.4</v>
-      </c>
-      <c r="AQ50" s="1" t="n">
-        <v>169.6</v>
-      </c>
-      <c r="AR50" s="1" t="n">
-        <v>172.1</v>
-      </c>
-      <c r="AS50" s="1" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="AT50" s="1" t="n">
-        <v>179.6</v>
-      </c>
-      <c r="AU50" s="1" t="n">
-        <v>160.7</v>
-      </c>
-      <c r="AV50" s="1" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="AW50" s="3" t="n">
-        <v>129.5</v>
-      </c>
-      <c r="AX50" s="1" t="n">
-        <v>150.2</v>
-      </c>
-      <c r="AY50" s="1" t="n">
-        <v>203.2</v>
-      </c>
-      <c r="AZ50" s="1" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="BA50" s="3" t="n">
-        <v>131</v>
-      </c>
-      <c r="BB50" s="1" t="n">
-        <v>165.7</v>
-      </c>
-      <c r="BC50" s="3" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="BD50" s="1" t="n">
-        <v>170.2</v>
-      </c>
-      <c r="BE50" s="1" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="BF50" s="1" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="BG50" s="1" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="BH50" s="2" t="n">
-        <v>105.7</v>
-      </c>
-      <c r="BI50" s="1" t="n">
-        <v>147.3</v>
-      </c>
-      <c r="BJ50" s="2" t="n">
-        <v>113.2</v>
-      </c>
-      <c r="BK50" s="1" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="BL50" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="BM50" s="3" t="n">
-        <v>133.6</v>
-      </c>
-      <c r="BN50" s="1" t="n">
-        <v>161.2</v>
-      </c>
-      <c r="BO50" s="1" t="n">
-        <v>181.9</v>
-      </c>
-      <c r="BP50" s="1" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="BQ50" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="BR50" s="3" t="n">
-        <v>137</v>
-      </c>
-      <c r="BS50" s="1" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="BT50" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="BU50" s="3" t="n">
-        <v>137</v>
-      </c>
-      <c r="BV50" s="1" t="n">
-        <v>198.9</v>
-      </c>
-      <c r="BW50" s="2" t="n">
-        <v>117.2</v>
-      </c>
-      <c r="BX50" s="1" t="n">
-        <v>165.9</v>
-      </c>
-      <c r="BY50" s="2" t="n">
-        <v>111.8</v>
-      </c>
-      <c r="BZ50" s="1" t="n">
-        <v>163.7</v>
-      </c>
-      <c r="CA50" s="3" t="n">
-        <v>131.9</v>
-      </c>
-      <c r="CB50" s="1" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="CC50" s="1" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="CD50" s="1" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="CE50" s="3" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="CF50" s="1" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="CG50" s="1" t="n">
-        <v>440.8</v>
-      </c>
-      <c r="CH50" s="1" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="CI50" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="CJ50" s="1" t="n">
-        <v>169.7</v>
-      </c>
-      <c r="CK50" s="1" t="n">
-        <v>179.3</v>
-      </c>
-      <c r="CL50" s="1" t="n">
-        <v>150.8</v>
-      </c>
-      <c r="CM50" s="1" t="n">
-        <v>209.8</v>
-      </c>
-      <c r="CN50" s="1" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="CO50" s="1" t="n">
-        <v>163.1</v>
-      </c>
-      <c r="CP50" s="3" t="n">
-        <v>129.3</v>
-      </c>
-      <c r="CQ50" s="1" t="n">
-        <v>183.4</v>
-      </c>
-      <c r="CR50" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="CS50" s="1" t="n">
-        <v>234.7</v>
-      </c>
-      <c r="CT50" s="1" t="n">
-        <v>156.3</v>
-      </c>
-      <c r="CU50" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="CV50" s="1" t="n">
-        <v>152.8</v>
-      </c>
-      <c r="CW50" s="1" t="n">
-        <v>147.8</v>
-      </c>
-      <c r="CX50" s="1" t="n">
-        <v>148.2</v>
-      </c>
-      <c r="CY50" s="1" t="n">
-        <v>167.6</v>
-      </c>
-      <c r="CZ50" s="3" t="n">
-        <v>127.1</v>
-      </c>
-      <c r="DA50" s="1" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="DB50" s="1" t="n">
-        <v>150.7</v>
-      </c>
-      <c r="DC50" s="1" t="n">
-        <v>189.2</v>
-      </c>
-      <c r="DD50" s="2" t="n">
-        <v>118.7</v>
-      </c>
-      <c r="DE50" s="2" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="DF50" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="DG50" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="DH50" s="1" t="n">
-        <v>207.8</v>
-      </c>
-      <c r="DI50" s="1" t="n">
-        <v>218.6</v>
-      </c>
-      <c r="DJ50" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="DK50" s="3" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="DL50" s="1" t="n">
-        <v>143.2</v>
-      </c>
-      <c r="DM50" s="1" t="n">
-        <v>168.4</v>
-      </c>
-      <c r="DN50" s="1" t="n">
-        <v>159.1</v>
-      </c>
-      <c r="DO50" s="1" t="n">
-        <v>166.2</v>
-      </c>
-      <c r="DP50" s="1" t="n">
-        <v>220.7</v>
-      </c>
-      <c r="DQ50" s="1" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="DR50" s="1" t="n">
-        <v>140</v>
-      </c>
       <c r="DS50" s="1" t="n">
-        <v>186.2</v>
+        <v>180.8</v>
       </c>
       <c r="DT50" s="1" t="n">
-        <v>162.3</v>
-      </c>
-      <c r="DU50" s="1" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="DV50" s="3" t="n">
-        <v>126.9</v>
+        <v>223.1</v>
+      </c>
+      <c r="DU50" s="3" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="DV50" s="1" t="n">
+        <v>146</v>
       </c>
       <c r="DW50" s="1" t="n">
-        <v>153.8</v>
-      </c>
-      <c r="DX50" s="1" t="n">
-        <v>140.5</v>
+        <v>178.2</v>
+      </c>
+      <c r="DX50" s="3" t="n">
+        <v>126.4</v>
       </c>
       <c r="DY50" s="1" t="n">
-        <v>187.1</v>
+        <v>166.4</v>
       </c>
       <c r="DZ50" s="1" t="n">
-        <v>150.3</v>
-      </c>
-      <c r="EA50" s="3" t="n">
-        <v>132.5</v>
+        <v>207</v>
+      </c>
+      <c r="EA50" s="1" t="n">
+        <v>147.2</v>
       </c>
       <c r="EB50" s="1" t="n">
-        <v>188.4</v>
-      </c>
-      <c r="EC50" s="3" t="n">
-        <v>127.4</v>
+        <v>152.7</v>
+      </c>
+      <c r="EC50" s="1" t="n">
+        <v>143.3</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>138.5</v>
+        <v>535</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>152.4</v>
       </c>
       <c r="C51" s="3" t="n">
-        <v>139.1</v>
+        <v>128.4</v>
       </c>
       <c r="D51" s="1" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>117.3</v>
+        <v>151.4</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>152.4</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>223.5</v>
+        <v>186.1</v>
       </c>
       <c r="G51" s="1" t="n">
-        <v>164</v>
+        <v>215.9</v>
       </c>
       <c r="H51" s="1" t="n">
-        <v>140.7</v>
-      </c>
-      <c r="I51" s="3" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="J51" s="1" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="J51" s="3" t="n">
+        <v>126.8</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="M51" s="3" t="n">
+        <v>129.1</v>
+      </c>
+      <c r="N51" s="3" t="n">
+        <v>133.1</v>
+      </c>
+      <c r="O51" s="1" t="n">
+        <v>180.1</v>
+      </c>
+      <c r="P51" s="3" t="n">
+        <v>132.9</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="R51" s="3" t="n">
+        <v>137.1</v>
+      </c>
+      <c r="S51" s="3" t="n">
+        <v>130.5</v>
+      </c>
+      <c r="T51" s="3" t="n">
+        <v>134.6</v>
+      </c>
+      <c r="U51" s="1" t="n">
+        <v>186.8</v>
+      </c>
+      <c r="V51" s="3" t="n">
+        <v>132.6</v>
+      </c>
+      <c r="W51" s="1" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="X51" s="1" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="Y51" s="3" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="Z51" s="1" t="n">
+        <v>206.9</v>
+      </c>
+      <c r="AA51" s="1" t="n">
+        <v>141.8</v>
+      </c>
+      <c r="AB51" s="2" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="AC51" s="1" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="AD51" s="1" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="AE51" s="3" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="AF51" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="AG51" s="1" t="n">
+        <v>147.1</v>
+      </c>
+      <c r="AH51" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="AI51" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ51" s="1" t="n">
+        <v>157.4</v>
+      </c>
+      <c r="AK51" s="2" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="AL51" s="3" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="AM51" s="2" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="AN51" s="1" t="n">
+        <v>276.8</v>
+      </c>
+      <c r="AO51" s="1" t="n">
+        <v>161.2</v>
+      </c>
+      <c r="AP51" s="1" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="AQ51" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="AR51" s="1" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="AS51" s="1" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="AT51" s="1" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="AU51" s="3" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="AV51" s="1" t="n">
+        <v>172.1</v>
+      </c>
+      <c r="AW51" s="2" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="AX51" s="1" t="n">
+        <v>201.7</v>
+      </c>
+      <c r="AY51" s="2" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="AZ51" s="1" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="BA51" s="1" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="BB51" s="3" t="n">
+        <v>131.8</v>
+      </c>
+      <c r="BC51" s="3" t="n">
+        <v>126.6</v>
+      </c>
+      <c r="BD51" s="1" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="BE51" s="1" t="n">
+        <v>175.1</v>
+      </c>
+      <c r="BF51" s="1" t="n">
+        <v>155.9</v>
+      </c>
+      <c r="BG51" s="1" t="n">
+        <v>164.9</v>
+      </c>
+      <c r="BH51" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="BI51" s="1" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="BJ51" s="1" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="BK51" s="3" t="n">
+        <v>132.7</v>
+      </c>
+      <c r="BL51" s="1" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="BM51" s="1" t="n">
+        <v>224.3</v>
+      </c>
+      <c r="BN51" s="3" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="BO51" s="1" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="BP51" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="BQ51" s="1" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="BR51" s="2" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="BS51" s="1" t="n">
+        <v>175.8</v>
+      </c>
+      <c r="BT51" s="1" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="BU51" s="1" t="n">
+        <v>173.1</v>
+      </c>
+      <c r="BV51" s="3" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="BW51" s="1" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="BX51" s="3" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="BY51" s="1" t="n">
+        <v>159.9</v>
+      </c>
+      <c r="BZ51" s="2" t="n">
+        <v>95.8</v>
+      </c>
+      <c r="CA51" s="1" t="n">
+        <v>167.7</v>
+      </c>
+      <c r="CB51" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="CC51" s="1" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="CD51" s="1" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="CE51" s="1" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="CF51" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="CG51" s="1" t="n">
+        <v>144.2</v>
+      </c>
+      <c r="CH51" s="1" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="CI51" s="1" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="CJ51" s="2" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="CK51" s="1" t="n">
         <v>157.5</v>
       </c>
-      <c r="K51" s="1" t="n">
+      <c r="CL51" s="1" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="CM51" s="1" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="CN51" s="1" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="CO51" s="3" t="n">
+        <v>136.7</v>
+      </c>
+      <c r="CP51" s="3" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="CQ51" s="1" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="CR51" s="1" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="CS51" s="1" t="n">
+        <v>186.3</v>
+      </c>
+      <c r="CT51" s="2" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="CU51" s="1" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="CV51" s="1" t="n">
+        <v>235.1</v>
+      </c>
+      <c r="CW51" s="1" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="CX51" s="1" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="CY51" s="1" t="n">
+        <v>177.3</v>
+      </c>
+      <c r="CZ51" s="3" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="DA51" s="2" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="DB51" s="1" t="n">
         <v>148.3</v>
       </c>
-      <c r="L51" s="1" t="n">
-        <v>172.7</v>
-      </c>
-      <c r="M51" s="1" t="n">
+      <c r="DC51" s="1" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="DD51" s="1" t="n">
+        <v>176.4</v>
+      </c>
+      <c r="DE51" s="3" t="n">
+        <v>132.1</v>
+      </c>
+      <c r="DF51" s="3" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="DG51" s="1" t="n">
+        <v>146.3</v>
+      </c>
+      <c r="DH51" s="1" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="DI51" s="3" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="DJ51" s="1" t="n">
         <v>193.2</v>
       </c>
-      <c r="N51" s="1" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="O51" s="1" t="n">
-        <v>158.1</v>
-      </c>
-      <c r="P51" s="1" t="n">
-        <v>219.6</v>
-      </c>
-      <c r="Q51" s="1" t="n">
-        <v>175.1</v>
-      </c>
-      <c r="R51" s="1" t="n">
-        <v>290.9</v>
-      </c>
-      <c r="S51" s="2" t="n">
-        <v>113.9</v>
-      </c>
-      <c r="T51" s="1" t="n">
-        <v>176.3</v>
-      </c>
-      <c r="U51" s="1" t="n">
-        <v>152.1</v>
-      </c>
-      <c r="V51" s="1" t="n">
-        <v>182.4</v>
-      </c>
-      <c r="W51" s="1" t="n">
-        <v>149.2</v>
-      </c>
-      <c r="X51" s="1" t="n">
-        <v>153.5</v>
-      </c>
-      <c r="Y51" s="3" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="Z51" s="1" t="n">
-        <v>167.8</v>
-      </c>
-      <c r="AA51" s="2" t="n">
-        <v>124.7</v>
-      </c>
-      <c r="AB51" s="1" t="n">
-        <v>162.4</v>
-      </c>
-      <c r="AC51" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="AD51" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="AE51" s="3" t="n">
-        <v>137.1</v>
-      </c>
-      <c r="AF51" s="1" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="AG51" s="1" t="n">
-        <v>144.3</v>
-      </c>
-      <c r="AH51" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="AI51" s="1" t="n">
-        <v>169.7</v>
-      </c>
-      <c r="AJ51" s="1" t="n">
-        <v>210.5</v>
-      </c>
-      <c r="AK51" s="3" t="n">
-        <v>135.1</v>
-      </c>
-      <c r="AL51" s="1" t="n">
-        <v>159.1</v>
-      </c>
-      <c r="AM51" s="1" t="n">
-        <v>295.8</v>
-      </c>
-      <c r="AN51" s="3" t="n">
-        <v>132.5</v>
-      </c>
-      <c r="AO51" s="1" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="AP51" s="1" t="n">
-        <v>165.1</v>
-      </c>
-      <c r="AQ51" s="1" t="n">
-        <v>193.3</v>
-      </c>
-      <c r="AR51" s="1" t="n">
-        <v>165.2</v>
-      </c>
-      <c r="AS51" s="1" t="n">
-        <v>166.2</v>
-      </c>
-      <c r="AT51" s="1" t="n">
-        <v>150.6</v>
-      </c>
-      <c r="AU51" s="2" t="n">
-        <v>120.7</v>
-      </c>
-      <c r="AV51" s="1" t="n">
-        <v>162.1</v>
-      </c>
-      <c r="AW51" s="1" t="n">
-        <v>175.1</v>
-      </c>
-      <c r="AX51" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="AY51" s="1" t="n">
-        <v>171.3</v>
-      </c>
-      <c r="AZ51" s="1" t="n">
-        <v>188.4</v>
-      </c>
-      <c r="BA51" s="2" t="n">
-        <v>116.1</v>
-      </c>
-      <c r="BB51" s="1" t="n">
-        <v>172.4</v>
-      </c>
-      <c r="BC51" s="1" t="n">
-        <v>209.4</v>
-      </c>
-      <c r="BD51" s="1" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="BE51" s="1" t="n">
-        <v>209.4</v>
-      </c>
-      <c r="BF51" s="2" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="BG51" s="1" t="n">
-        <v>161.1</v>
-      </c>
-      <c r="BH51" s="1" t="n">
-        <v>155.2</v>
-      </c>
-      <c r="BI51" s="3" t="n">
-        <v>139.8</v>
-      </c>
-      <c r="BJ51" s="2" t="n">
+      <c r="DK51" s="1" t="n">
+        <v>141.1</v>
+      </c>
+      <c r="DL51" s="1" t="n">
+        <v>140.2</v>
+      </c>
+      <c r="DM51" s="1" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="DN51" s="2" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="DO51" s="2" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="DP51" s="1" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="DQ51" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="DR51" s="1" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="DS51" s="1" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="DT51" s="3" t="n">
+        <v>132.2</v>
+      </c>
+      <c r="DU51" s="1" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="DV51" s="2" t="n">
         <v>122.9</v>
       </c>
-      <c r="BK51" s="1" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="BL51" s="3" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="BM51" s="1" t="n">
-        <v>238.4</v>
-      </c>
-      <c r="BN51" s="3" t="n">
-        <v>131.1</v>
-      </c>
-      <c r="BO51" s="1" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="BP51" s="1" t="n">
-        <v>144.6</v>
-      </c>
-      <c r="BQ51" s="3" t="n">
-        <v>137.1</v>
-      </c>
-      <c r="BR51" s="1" t="n">
-        <v>150.9</v>
-      </c>
-      <c r="BS51" s="1" t="n">
-        <v>287.4</v>
-      </c>
-      <c r="BT51" s="1" t="n">
-        <v>165.6</v>
-      </c>
-      <c r="BU51" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="BV51" s="1" t="n">
-        <v>157.1</v>
-      </c>
-      <c r="BW51" s="3" t="n">
-        <v>129.6</v>
-      </c>
-      <c r="BX51" s="1" t="n">
-        <v>156.9</v>
-      </c>
-      <c r="BY51" s="3" t="n">
-        <v>139.2</v>
-      </c>
-      <c r="BZ51" s="3" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="CA51" s="1" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="CB51" s="3" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="CC51" s="1" t="n">
-        <v>194.9</v>
-      </c>
-      <c r="CD51" s="1" t="n">
-        <v>215.5</v>
-      </c>
-      <c r="CE51" s="1" t="n">
-        <v>182.3</v>
-      </c>
-      <c r="CF51" s="1" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="CG51" s="1" t="n">
-        <v>160.4</v>
-      </c>
-      <c r="CH51" s="2" t="n">
-        <v>118.6</v>
-      </c>
-      <c r="CI51" s="1" t="n">
-        <v>196.4</v>
-      </c>
-      <c r="CJ51" s="2" t="n">
-        <v>120.3</v>
-      </c>
-      <c r="CK51" s="3" t="n">
-        <v>125</v>
-      </c>
-      <c r="CL51" s="1" t="n">
-        <v>225.3</v>
-      </c>
-      <c r="CM51" s="3" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="CN51" s="1" t="n">
-        <v>161.2</v>
-      </c>
-      <c r="CO51" s="1" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="CP51" s="1" t="n">
-        <v>213.5</v>
-      </c>
-      <c r="CQ51" s="1" t="n">
-        <v>221.4</v>
-      </c>
-      <c r="CR51" s="2" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="CS51" s="1" t="n">
-        <v>181.5</v>
-      </c>
-      <c r="CT51" s="1" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="CU51" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="CV51" s="1" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="CW51" s="1" t="n">
-        <v>157.3</v>
-      </c>
-      <c r="CX51" s="3" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="CY51" s="1" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="CZ51" s="3" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="DA51" s="1" t="n">
-        <v>162.1</v>
-      </c>
-      <c r="DB51" s="1" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="DC51" s="1" t="n">
-        <v>235.5</v>
-      </c>
-      <c r="DD51" s="2" t="n">
-        <v>108.8</v>
-      </c>
-      <c r="DE51" s="1" t="n">
-        <v>277.3</v>
-      </c>
-      <c r="DF51" s="1" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="DG51" s="2" t="n">
-        <v>114.7</v>
-      </c>
-      <c r="DH51" s="1" t="n">
-        <v>159.4</v>
-      </c>
-      <c r="DI51" s="1" t="n">
-        <v>147.7</v>
-      </c>
-      <c r="DJ51" s="1" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="DK51" s="1" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="DL51" s="3" t="n">
-        <v>135.2</v>
-      </c>
-      <c r="DM51" s="1" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="DN51" s="1" t="n">
-        <v>143.7</v>
-      </c>
-      <c r="DO51" s="3" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="DP51" s="1" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="DQ51" s="1" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="DR51" s="1" t="n">
-        <v>150.6</v>
-      </c>
-      <c r="DS51" s="1" t="n">
-        <v>166.5</v>
-      </c>
-      <c r="DT51" s="1" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="DU51" s="1" t="n">
-        <v>155.5</v>
-      </c>
-      <c r="DV51" s="1" t="n">
-        <v>154</v>
-      </c>
       <c r="DW51" s="1" t="n">
-        <v>152.9</v>
+        <v>141.9</v>
       </c>
       <c r="DX51" s="1" t="n">
-        <v>192</v>
+        <v>209.2</v>
       </c>
       <c r="DY51" s="1" t="n">
-        <v>153.8</v>
-      </c>
-      <c r="DZ51" s="1" t="n">
-        <v>152.1</v>
+        <v>165</v>
+      </c>
+      <c r="DZ51" s="3" t="n">
+        <v>136.1</v>
       </c>
       <c r="EA51" s="1" t="n">
-        <v>148.3</v>
+        <v>142.1</v>
       </c>
       <c r="EB51" s="1" t="n">
-        <v>160.1</v>
-      </c>
-      <c r="EC51" s="2" t="n">
-        <v>114.5</v>
-      </c>
-    </row>
-    <row r="52" ht="20" customHeight="1">
-      <c r="A52" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>191.1</v>
-      </c>
-      <c r="C52" s="3" t="n">
-        <v>128.2</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>222.9</v>
-      </c>
-      <c r="E52" s="3" t="n">
-        <v>125.1</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>167.6</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>223.9</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>124.1</v>
-      </c>
-      <c r="I52" s="3" t="n">
-        <v>128.3</v>
-      </c>
-      <c r="J52" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="K52" s="1" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="L52" s="1" t="n">
-        <v>156.6</v>
-      </c>
-      <c r="M52" s="1" t="n">
-        <v>164.6</v>
-      </c>
-      <c r="N52" s="1" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="O52" s="3" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="P52" s="1" t="n">
-        <v>169.3</v>
-      </c>
-      <c r="Q52" s="3" t="n">
-        <v>134</v>
-      </c>
-      <c r="R52" s="1" t="n">
-        <v>176.6</v>
-      </c>
-      <c r="S52" s="3" t="n">
-        <v>134</v>
-      </c>
-      <c r="T52" s="1" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="U52" s="1" t="n">
-        <v>173.7</v>
-      </c>
-      <c r="V52" s="1" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="W52" s="3" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="X52" s="1" t="n">
-        <v>147.4</v>
-      </c>
-      <c r="Y52" s="1" t="n">
-        <v>374.2</v>
-      </c>
-      <c r="Z52" s="3" t="n">
-        <v>129</v>
-      </c>
-      <c r="AA52" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="AB52" s="2" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="AC52" s="1" t="n">
-        <v>209.2</v>
-      </c>
-      <c r="AD52" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="AE52" s="2" t="n">
-        <v>124.3</v>
-      </c>
-      <c r="AF52" s="1" t="n">
-        <v>185.6</v>
-      </c>
-      <c r="AG52" s="1" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="AH52" s="1" t="n">
-        <v>180.8</v>
-      </c>
-      <c r="AI52" s="1" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="AJ52" s="3" t="n">
-        <v>135.2</v>
-      </c>
-      <c r="AK52" s="1" t="n">
-        <v>221.6</v>
-      </c>
-      <c r="AL52" s="1" t="n">
-        <v>154.3</v>
-      </c>
-      <c r="AM52" s="1" t="n">
-        <v>145.1</v>
-      </c>
-      <c r="AN52" s="1" t="n">
-        <v>166.8</v>
-      </c>
-      <c r="AO52" s="1" t="n">
-        <v>170.7</v>
-      </c>
-      <c r="AP52" s="1" t="n">
-        <v>193.6</v>
-      </c>
-      <c r="AQ52" s="1" t="n">
-        <v>175.1</v>
-      </c>
-      <c r="AR52" s="1" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="AS52" s="3" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="AT52" s="1" t="n">
-        <v>144.6</v>
-      </c>
-      <c r="AU52" s="1" t="n">
-        <v>178.3</v>
-      </c>
-      <c r="AV52" s="1" t="n">
-        <v>156.1</v>
-      </c>
-      <c r="AW52" s="1" t="n">
-        <v>174.2</v>
-      </c>
-      <c r="AX52" s="1" t="n">
-        <v>168.2</v>
-      </c>
-      <c r="AY52" s="1" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="AZ52" s="1" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="BA52" s="1" t="n">
-        <v>161.4</v>
-      </c>
-      <c r="BB52" s="3" t="n">
-        <v>137.2</v>
-      </c>
-      <c r="BC52" s="1" t="n">
-        <v>175.4</v>
-      </c>
-      <c r="BD52" s="1" t="n">
-        <v>167.3</v>
-      </c>
-      <c r="BE52" s="1" t="n">
-        <v>182.9</v>
-      </c>
-      <c r="BF52" s="3" t="n">
-        <v>138.8</v>
-      </c>
-      <c r="BG52" s="1" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="BH52" s="1" t="n">
-        <v>151.4</v>
-      </c>
-      <c r="BI52" s="1" t="n">
-        <v>154.2</v>
-      </c>
-      <c r="BJ52" s="3" t="n">
-        <v>137.1</v>
-      </c>
-      <c r="BK52" s="3" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="BL52" s="1" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="BM52" s="1" t="n">
-        <v>211.4</v>
-      </c>
-      <c r="BN52" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="BO52" s="3" t="n">
-        <v>135.4</v>
-      </c>
-      <c r="BP52" s="1" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="BQ52" s="1" t="n">
-        <v>168.7</v>
-      </c>
-      <c r="BR52" s="1" t="n">
-        <v>183.7</v>
-      </c>
-      <c r="BS52" s="1" t="n">
-        <v>162.9</v>
-      </c>
-      <c r="BT52" s="3" t="n">
-        <v>133.8</v>
-      </c>
-      <c r="BU52" s="1" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="BV52" s="1" t="n">
-        <v>199.7</v>
-      </c>
-      <c r="BW52" s="3" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="BX52" s="1" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="BY52" s="2" t="n">
-        <v>122.9</v>
-      </c>
-      <c r="BZ52" s="1" t="n">
-        <v>174.4</v>
-      </c>
-      <c r="CA52" s="1" t="n">
-        <v>165.2</v>
-      </c>
-      <c r="CB52" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="CC52" s="1" t="n">
-        <v>166.8</v>
-      </c>
-      <c r="CD52" s="2" t="n">
-        <v>119.9</v>
-      </c>
-      <c r="CE52" s="1" t="n">
-        <v>141.6</v>
-      </c>
-      <c r="CF52" s="1" t="n">
-        <v>159.1</v>
-      </c>
-      <c r="CG52" s="3" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="CH52" s="3" t="n">
-        <v>134.3</v>
-      </c>
-      <c r="CI52" s="1" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="CJ52" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="CK52" s="1" t="n">
-        <v>153.7</v>
-      </c>
-      <c r="CL52" s="1" t="n">
-        <v>151.1</v>
-      </c>
-      <c r="CM52" s="1" t="n">
-        <v>160.5</v>
-      </c>
-      <c r="CN52" s="1" t="n">
-        <v>145.4</v>
-      </c>
-      <c r="CO52" s="1" t="n">
-        <v>222.2</v>
-      </c>
-      <c r="CP52" s="1" t="n">
-        <v>165.3</v>
-      </c>
-      <c r="CQ52" s="3" t="n">
-        <v>134.9</v>
-      </c>
-      <c r="CR52" s="1" t="n">
-        <v>179.5</v>
-      </c>
-      <c r="CS52" s="1" t="n">
-        <v>167.3</v>
-      </c>
-      <c r="CT52" s="2" t="n">
-        <v>118.6</v>
-      </c>
-      <c r="CU52" s="1" t="n">
-        <v>238.1</v>
-      </c>
-      <c r="CV52" s="3" t="n">
-        <v>132.4</v>
-      </c>
-      <c r="CW52" s="1" t="n">
-        <v>155.6</v>
-      </c>
-      <c r="CX52" s="1" t="n">
-        <v>178.1</v>
-      </c>
-      <c r="CY52" s="1" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="CZ52" s="1" t="n">
-        <v>189.6</v>
-      </c>
-      <c r="DA52" s="1" t="n">
-        <v>149.6</v>
-      </c>
-      <c r="DB52" s="3" t="n">
-        <v>127</v>
-      </c>
-      <c r="DC52" s="1" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="DD52" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="DE52" s="1" t="n">
-        <v>241.3</v>
-      </c>
-      <c r="DF52" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="DG52" s="3" t="n">
-        <v>139</v>
-      </c>
-      <c r="DH52" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="DI52" s="3" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="DJ52" s="3" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="DK52" s="1" t="n">
-        <v>191.9</v>
-      </c>
-      <c r="DL52" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="DM52" s="1" t="n">
-        <v>169.4</v>
-      </c>
-      <c r="DN52" s="1" t="n">
-        <v>169.7</v>
-      </c>
-      <c r="DO52" s="3" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="DP52" s="1" t="n">
-        <v>194.4</v>
-      </c>
-      <c r="DQ52" s="1" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="DR52" s="3" t="n">
-        <v>138.7</v>
-      </c>
-      <c r="DS52" s="1" t="n">
-        <v>180.8</v>
-      </c>
-      <c r="DT52" s="1" t="n">
-        <v>223.1</v>
-      </c>
-      <c r="DU52" s="3" t="n">
-        <v>139.2</v>
-      </c>
-      <c r="DV52" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="DW52" s="1" t="n">
-        <v>178.2</v>
-      </c>
-      <c r="DX52" s="3" t="n">
-        <v>126.4</v>
-      </c>
-      <c r="DY52" s="1" t="n">
-        <v>166.4</v>
-      </c>
-      <c r="DZ52" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="EA52" s="1" t="n">
-        <v>147.2</v>
-      </c>
-      <c r="EB52" s="1" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="EC52" s="1" t="n">
-        <v>143.3</v>
-      </c>
-    </row>
-    <row r="53" ht="20" customHeight="1">
-      <c r="A53" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B53" s="1" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="C53" s="3" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="D53" s="1" t="n">
-        <v>151.4</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>152.4</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>186.1</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>215.9</v>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v>143.1</v>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v>152.2</v>
-      </c>
-      <c r="J53" s="3" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="K53" s="1" t="n">
-        <v>154.4</v>
-      </c>
-      <c r="L53" s="3" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="M53" s="3" t="n">
-        <v>129.1</v>
-      </c>
-      <c r="N53" s="3" t="n">
-        <v>133.1</v>
-      </c>
-      <c r="O53" s="1" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="P53" s="3" t="n">
-        <v>132.9</v>
-      </c>
-      <c r="Q53" s="1" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="R53" s="3" t="n">
-        <v>137.1</v>
-      </c>
-      <c r="S53" s="3" t="n">
-        <v>130.5</v>
-      </c>
-      <c r="T53" s="3" t="n">
-        <v>134.6</v>
-      </c>
-      <c r="U53" s="1" t="n">
-        <v>186.8</v>
-      </c>
-      <c r="V53" s="3" t="n">
-        <v>132.6</v>
-      </c>
-      <c r="W53" s="1" t="n">
-        <v>195.3</v>
-      </c>
-      <c r="X53" s="1" t="n">
-        <v>169.5</v>
-      </c>
-      <c r="Y53" s="3" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="Z53" s="1" t="n">
-        <v>206.9</v>
-      </c>
-      <c r="AA53" s="1" t="n">
-        <v>141.8</v>
-      </c>
-      <c r="AB53" s="2" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="AC53" s="1" t="n">
-        <v>182.8</v>
-      </c>
-      <c r="AD53" s="1" t="n">
-        <v>148.9</v>
-      </c>
-      <c r="AE53" s="3" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="AF53" s="3" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="AG53" s="1" t="n">
-        <v>147.1</v>
-      </c>
-      <c r="AH53" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="AI53" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ53" s="1" t="n">
-        <v>157.4</v>
-      </c>
-      <c r="AK53" s="2" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="AL53" s="3" t="n">
-        <v>130.2</v>
-      </c>
-      <c r="AM53" s="2" t="n">
-        <v>116.3</v>
-      </c>
-      <c r="AN53" s="1" t="n">
-        <v>276.8</v>
-      </c>
-      <c r="AO53" s="1" t="n">
-        <v>161.2</v>
-      </c>
-      <c r="AP53" s="1" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="AQ53" s="2" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="AR53" s="1" t="n">
-        <v>145.7</v>
-      </c>
-      <c r="AS53" s="1" t="n">
-        <v>149.4</v>
-      </c>
-      <c r="AT53" s="1" t="n">
-        <v>352.7</v>
-      </c>
-      <c r="AU53" s="3" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="AV53" s="1" t="n">
-        <v>172.1</v>
-      </c>
-      <c r="AW53" s="2" t="n">
-        <v>123.5</v>
-      </c>
-      <c r="AX53" s="1" t="n">
-        <v>201.7</v>
-      </c>
-      <c r="AY53" s="2" t="n">
-        <v>117.4</v>
-      </c>
-      <c r="AZ53" s="1" t="n">
-        <v>216.8</v>
-      </c>
-      <c r="BA53" s="1" t="n">
-        <v>157.2</v>
-      </c>
-      <c r="BB53" s="3" t="n">
-        <v>131.8</v>
-      </c>
-      <c r="BC53" s="3" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="BD53" s="1" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="BE53" s="1" t="n">
-        <v>175.1</v>
-      </c>
-      <c r="BF53" s="1" t="n">
-        <v>155.9</v>
-      </c>
-      <c r="BG53" s="1" t="n">
-        <v>164.9</v>
-      </c>
-      <c r="BH53" s="3" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="BI53" s="1" t="n">
-        <v>165.7</v>
-      </c>
-      <c r="BJ53" s="1" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="BK53" s="3" t="n">
-        <v>132.7</v>
-      </c>
-      <c r="BL53" s="1" t="n">
-        <v>199.2</v>
-      </c>
-      <c r="BM53" s="1" t="n">
-        <v>224.3</v>
-      </c>
-      <c r="BN53" s="3" t="n">
-        <v>133.8</v>
-      </c>
-      <c r="BO53" s="1" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="BP53" s="3" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="BQ53" s="1" t="n">
-        <v>156.9</v>
-      </c>
-      <c r="BR53" s="2" t="n">
-        <v>113.3</v>
-      </c>
-      <c r="BS53" s="1" t="n">
-        <v>175.8</v>
-      </c>
-      <c r="BT53" s="1" t="n">
-        <v>144.4</v>
-      </c>
-      <c r="BU53" s="1" t="n">
-        <v>173.1</v>
-      </c>
-      <c r="BV53" s="3" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="BW53" s="1" t="n">
         <v>178.4</v>
       </c>
-      <c r="BX53" s="3" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="BY53" s="1" t="n">
-        <v>159.9</v>
-      </c>
-      <c r="BZ53" s="2" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="CA53" s="1" t="n">
-        <v>167.7</v>
-      </c>
-      <c r="CB53" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="CC53" s="1" t="n">
-        <v>152.7</v>
-      </c>
-      <c r="CD53" s="1" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="CE53" s="1" t="n">
-        <v>167.9</v>
-      </c>
-      <c r="CF53" s="3" t="n">
-        <v>126</v>
-      </c>
-      <c r="CG53" s="1" t="n">
-        <v>144.2</v>
-      </c>
-      <c r="CH53" s="1" t="n">
-        <v>156.9</v>
-      </c>
-      <c r="CI53" s="1" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="CJ53" s="2" t="n">
-        <v>112.4</v>
-      </c>
-      <c r="CK53" s="1" t="n">
-        <v>157.5</v>
-      </c>
-      <c r="CL53" s="1" t="n">
-        <v>144.6</v>
-      </c>
-      <c r="CM53" s="1" t="n">
-        <v>154.1</v>
-      </c>
-      <c r="CN53" s="1" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="CO53" s="3" t="n">
-        <v>136.7</v>
-      </c>
-      <c r="CP53" s="3" t="n">
-        <v>127.5</v>
-      </c>
-      <c r="CQ53" s="1" t="n">
-        <v>142.8</v>
-      </c>
-      <c r="CR53" s="1" t="n">
-        <v>140.4</v>
-      </c>
-      <c r="CS53" s="1" t="n">
-        <v>186.3</v>
-      </c>
-      <c r="CT53" s="2" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="CU53" s="1" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="CV53" s="1" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="CW53" s="1" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="CX53" s="1" t="n">
-        <v>149.8</v>
-      </c>
-      <c r="CY53" s="1" t="n">
-        <v>177.3</v>
-      </c>
-      <c r="CZ53" s="3" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="DA53" s="2" t="n">
-        <v>113.5</v>
-      </c>
-      <c r="DB53" s="1" t="n">
-        <v>148.3</v>
-      </c>
-      <c r="DC53" s="1" t="n">
-        <v>171.1</v>
-      </c>
-      <c r="DD53" s="1" t="n">
-        <v>176.4</v>
-      </c>
-      <c r="DE53" s="3" t="n">
-        <v>132.1</v>
-      </c>
-      <c r="DF53" s="3" t="n">
-        <v>133.7</v>
-      </c>
-      <c r="DG53" s="1" t="n">
-        <v>146.3</v>
-      </c>
-      <c r="DH53" s="1" t="n">
-        <v>157.8</v>
-      </c>
-      <c r="DI53" s="3" t="n">
-        <v>139.4</v>
-      </c>
-      <c r="DJ53" s="1" t="n">
-        <v>193.2</v>
-      </c>
-      <c r="DK53" s="1" t="n">
-        <v>141.1</v>
-      </c>
-      <c r="DL53" s="1" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="DM53" s="1" t="n">
-        <v>188.7</v>
-      </c>
-      <c r="DN53" s="2" t="n">
-        <v>120.2</v>
-      </c>
-      <c r="DO53" s="2" t="n">
-        <v>121.7</v>
-      </c>
-      <c r="DP53" s="1" t="n">
-        <v>203.5</v>
-      </c>
-      <c r="DQ53" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="DR53" s="1" t="n">
-        <v>140.1</v>
-      </c>
-      <c r="DS53" s="1" t="n">
-        <v>184.1</v>
-      </c>
-      <c r="DT53" s="3" t="n">
-        <v>132.2</v>
-      </c>
-      <c r="DU53" s="1" t="n">
-        <v>149.3</v>
-      </c>
-      <c r="DV53" s="2" t="n">
-        <v>122.9</v>
-      </c>
-      <c r="DW53" s="1" t="n">
-        <v>141.9</v>
-      </c>
-      <c r="DX53" s="1" t="n">
-        <v>209.2</v>
-      </c>
-      <c r="DY53" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="DZ53" s="3" t="n">
-        <v>136.1</v>
-      </c>
-      <c r="EA53" s="1" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="EB53" s="1" t="n">
-        <v>178.4</v>
-      </c>
-      <c r="EC53" s="1" t="n">
+      <c r="EC51" s="1" t="n">
         <v>171</v>
       </c>
     </row>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EC51"/>
+  <dimension ref="A1:ED51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,7 @@
     <col width="12" customWidth="1" min="131" max="131"/>
     <col width="12" customWidth="1" min="132" max="132"/>
     <col width="12" customWidth="1" min="133" max="133"/>
+    <col width="12" customWidth="1" min="134" max="134"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1240,6 +1241,11 @@
           <t>2025/01/19</t>
         </is>
       </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/20</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1641,6 +1647,9 @@
       <c r="EC2" s="1" t="n">
         <v>191</v>
       </c>
+      <c r="ED2" s="1" t="n">
+        <v>202.4</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2042,6 +2051,9 @@
       <c r="EC3" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="ED3" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2443,6 +2455,9 @@
       <c r="EC4" s="2" t="n">
         <v>124</v>
       </c>
+      <c r="ED4" s="1" t="n">
+        <v>238.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2844,6 +2859,9 @@
       <c r="EC5" s="1" t="n">
         <v>162.6</v>
       </c>
+      <c r="ED5" s="1" t="n">
+        <v>153.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3245,6 +3263,9 @@
       <c r="EC6" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="ED6" s="1" t="n">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3646,6 +3667,9 @@
       <c r="EC7" s="1" t="n">
         <v>166</v>
       </c>
+      <c r="ED7" s="1" t="n">
+        <v>168.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4047,6 +4071,9 @@
       <c r="EC8" s="3" t="n">
         <v>137.8</v>
       </c>
+      <c r="ED8" s="3" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4448,6 +4475,9 @@
       <c r="EC9" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="ED9" s="1" t="n">
+        <v>163.5</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4849,6 +4879,9 @@
       <c r="EC10" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="ED10" s="1" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5250,6 +5283,9 @@
       <c r="EC11" s="1" t="n">
         <v>145.5</v>
       </c>
+      <c r="ED11" s="1" t="n">
+        <v>152.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5651,6 +5687,9 @@
       <c r="EC12" s="3" t="n">
         <v>127.9</v>
       </c>
+      <c r="ED12" s="1" t="n">
+        <v>160.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6052,6 +6091,9 @@
       <c r="EC13" s="2" t="n">
         <v>120.9</v>
       </c>
+      <c r="ED13" s="1" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6453,6 +6495,9 @@
       <c r="EC14" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="ED14" s="1" t="n">
+        <v>165.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6854,6 +6899,9 @@
       <c r="EC15" s="2" t="n">
         <v>122.1</v>
       </c>
+      <c r="ED15" s="1" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7255,6 +7303,9 @@
       <c r="EC16" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="ED16" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7656,6 +7707,9 @@
       <c r="EC17" s="1" t="n">
         <v>145.7</v>
       </c>
+      <c r="ED17" s="1" t="n">
+        <v>157.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8057,6 +8111,9 @@
       <c r="EC18" s="1" t="n">
         <v>197</v>
       </c>
+      <c r="ED18" s="2" t="n">
+        <v>118.2</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8458,6 +8515,9 @@
       <c r="EC19" s="1" t="n">
         <v>152.9</v>
       </c>
+      <c r="ED19" s="1" t="n">
+        <v>170.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8859,6 +8919,9 @@
       <c r="EC20" s="1" t="n">
         <v>169.7</v>
       </c>
+      <c r="ED20" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9260,6 +9323,9 @@
       <c r="EC21" s="1" t="n">
         <v>180.4</v>
       </c>
+      <c r="ED21" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9661,6 +9727,9 @@
       <c r="EC22" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="ED22" s="1" t="n">
+        <v>158.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10062,6 +10131,9 @@
       <c r="EC23" s="1" t="n">
         <v>181.8</v>
       </c>
+      <c r="ED23" s="1" t="n">
+        <v>209.4</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10463,6 +10535,9 @@
       <c r="EC24" s="3" t="n">
         <v>128.4</v>
       </c>
+      <c r="ED24" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10864,6 +10939,9 @@
       <c r="EC25" s="1" t="n">
         <v>158.2</v>
       </c>
+      <c r="ED25" s="1" t="n">
+        <v>232.9</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11265,6 +11343,9 @@
       <c r="EC26" s="1" t="n">
         <v>161.6</v>
       </c>
+      <c r="ED26" s="2" t="n">
+        <v>119.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11666,6 +11747,9 @@
       <c r="EC27" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="ED27" s="3" t="n">
+        <v>133.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12067,6 +12151,9 @@
       <c r="EC28" s="2" t="n">
         <v>122.4</v>
       </c>
+      <c r="ED28" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12468,6 +12555,9 @@
       <c r="EC29" s="3" t="n">
         <v>126.4</v>
       </c>
+      <c r="ED29" s="1" t="n">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12869,6 +12959,9 @@
       <c r="EC30" s="3" t="n">
         <v>127.4</v>
       </c>
+      <c r="ED30" s="1" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -13270,6 +13363,9 @@
       <c r="EC31" s="3" t="n">
         <v>138.5</v>
       </c>
+      <c r="ED31" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -13671,6 +13767,9 @@
       <c r="EC32" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="ED32" s="1" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -14072,6 +14171,9 @@
       <c r="EC33" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="ED33" s="2" t="n">
+        <v>119.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -14473,6 +14575,9 @@
       <c r="EC34" s="2" t="n">
         <v>112.3</v>
       </c>
+      <c r="ED34" s="1" t="n">
+        <v>248.4</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -14874,6 +14979,9 @@
       <c r="EC35" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="ED35" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -15275,6 +15383,9 @@
       <c r="EC36" s="2" t="n">
         <v>114.1</v>
       </c>
+      <c r="ED36" s="3" t="n">
+        <v>135.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -15676,6 +15787,9 @@
       <c r="EC37" s="1" t="n">
         <v>143.4</v>
       </c>
+      <c r="ED37" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -16077,6 +16191,9 @@
       <c r="EC38" s="1" t="n">
         <v>158.4</v>
       </c>
+      <c r="ED38" s="1" t="n">
+        <v>160.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -16478,6 +16595,9 @@
       <c r="EC39" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="ED39" s="1" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -16879,6 +16999,9 @@
       <c r="EC40" s="1" t="n">
         <v>155.3</v>
       </c>
+      <c r="ED40" s="1" t="n">
+        <v>180.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -17280,6 +17403,9 @@
       <c r="EC41" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="ED41" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -17681,6 +17807,9 @@
       <c r="EC42" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="ED42" s="1" t="n">
+        <v>165.8</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -18082,6 +18211,9 @@
       <c r="EC43" s="1" t="n">
         <v>155.7</v>
       </c>
+      <c r="ED43" s="2" t="n">
+        <v>119.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -18483,6 +18615,9 @@
       <c r="EC44" s="1" t="n">
         <v>142.1</v>
       </c>
+      <c r="ED44" s="1" t="n">
+        <v>204.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -18884,6 +19019,9 @@
       <c r="EC45" s="1" t="n">
         <v>140.3</v>
       </c>
+      <c r="ED45" s="1" t="n">
+        <v>163.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -19285,6 +19423,9 @@
       <c r="EC46" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="ED46" s="2" t="n">
+        <v>119.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -19686,6 +19827,9 @@
       <c r="EC47" s="3" t="n">
         <v>129.4</v>
       </c>
+      <c r="ED47" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -20087,6 +20231,9 @@
       <c r="EC48" s="3" t="n">
         <v>127.4</v>
       </c>
+      <c r="ED48" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -20488,6 +20635,9 @@
       <c r="EC49" s="2" t="n">
         <v>114.5</v>
       </c>
+      <c r="ED49" s="1" t="n">
+        <v>221.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -20889,6 +21039,9 @@
       <c r="EC50" s="1" t="n">
         <v>143.3</v>
       </c>
+      <c r="ED50" s="3" t="n">
+        <v>135.4</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -21289,6 +21442,9 @@
       </c>
       <c r="EC51" s="1" t="n">
         <v>171</v>
+      </c>
+      <c r="ED51" s="1" t="n">
+        <v>152.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED51"/>
+  <dimension ref="A1:EE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,7 @@
     <col width="12" customWidth="1" min="132" max="132"/>
     <col width="12" customWidth="1" min="133" max="133"/>
     <col width="12" customWidth="1" min="134" max="134"/>
+    <col width="12" customWidth="1" min="135" max="135"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1246,6 +1247,11 @@
           <t>2025/01/20</t>
         </is>
       </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/21</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1650,6 +1656,9 @@
       <c r="ED2" s="1" t="n">
         <v>202.4</v>
       </c>
+      <c r="EE2" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2054,6 +2063,9 @@
       <c r="ED3" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="EE3" s="1" t="n">
+        <v>140.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2458,6 +2470,9 @@
       <c r="ED4" s="1" t="n">
         <v>238.8</v>
       </c>
+      <c r="EE4" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2862,6 +2877,9 @@
       <c r="ED5" s="1" t="n">
         <v>153.5</v>
       </c>
+      <c r="EE5" s="2" t="n">
+        <v>121.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3266,6 +3284,9 @@
       <c r="ED6" s="1" t="n">
         <v>166.3</v>
       </c>
+      <c r="EE6" s="3" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3670,6 +3691,9 @@
       <c r="ED7" s="1" t="n">
         <v>168.6</v>
       </c>
+      <c r="EE7" s="1" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4074,6 +4098,9 @@
       <c r="ED8" s="3" t="n">
         <v>131.2</v>
       </c>
+      <c r="EE8" s="1" t="n">
+        <v>204.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4478,6 +4505,9 @@
       <c r="ED9" s="1" t="n">
         <v>163.5</v>
       </c>
+      <c r="EE9" s="1" t="n">
+        <v>206.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4882,6 +4912,9 @@
       <c r="ED10" s="1" t="n">
         <v>175</v>
       </c>
+      <c r="EE10" s="1" t="n">
+        <v>222.7</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5286,6 +5319,9 @@
       <c r="ED11" s="1" t="n">
         <v>152.3</v>
       </c>
+      <c r="EE11" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5690,6 +5726,9 @@
       <c r="ED12" s="1" t="n">
         <v>160.2</v>
       </c>
+      <c r="EE12" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6094,6 +6133,9 @@
       <c r="ED13" s="1" t="n">
         <v>175</v>
       </c>
+      <c r="EE13" s="1" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6498,6 +6540,9 @@
       <c r="ED14" s="1" t="n">
         <v>165.5</v>
       </c>
+      <c r="EE14" s="1" t="n">
+        <v>205.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6902,6 +6947,9 @@
       <c r="ED15" s="1" t="n">
         <v>172</v>
       </c>
+      <c r="EE15" s="1" t="n">
+        <v>169.7</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7306,6 +7354,9 @@
       <c r="ED16" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="EE16" s="1" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7710,6 +7761,9 @@
       <c r="ED17" s="1" t="n">
         <v>157.4</v>
       </c>
+      <c r="EE17" s="3" t="n">
+        <v>132.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8114,6 +8168,9 @@
       <c r="ED18" s="2" t="n">
         <v>118.2</v>
       </c>
+      <c r="EE18" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8518,6 +8575,9 @@
       <c r="ED19" s="1" t="n">
         <v>170.5</v>
       </c>
+      <c r="EE19" s="1" t="n">
+        <v>191.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8922,6 +8982,9 @@
       <c r="ED20" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="EE20" s="2" t="n">
+        <v>110.1</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9326,6 +9389,9 @@
       <c r="ED21" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="EE21" s="1" t="n">
+        <v>151.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9730,6 +9796,9 @@
       <c r="ED22" s="1" t="n">
         <v>158.4</v>
       </c>
+      <c r="EE22" s="1" t="n">
+        <v>245.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10134,6 +10203,9 @@
       <c r="ED23" s="1" t="n">
         <v>209.4</v>
       </c>
+      <c r="EE23" s="2" t="n">
+        <v>122.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10538,6 +10610,9 @@
       <c r="ED24" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="EE24" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -10942,6 +11017,9 @@
       <c r="ED25" s="1" t="n">
         <v>232.9</v>
       </c>
+      <c r="EE25" s="1" t="n">
+        <v>184.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11346,6 +11424,9 @@
       <c r="ED26" s="2" t="n">
         <v>119.5</v>
       </c>
+      <c r="EE26" s="1" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11750,6 +11831,9 @@
       <c r="ED27" s="3" t="n">
         <v>133.5</v>
       </c>
+      <c r="EE27" s="1" t="n">
+        <v>194.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12154,6 +12238,9 @@
       <c r="ED28" s="1" t="n">
         <v>143.3</v>
       </c>
+      <c r="EE28" s="1" t="n">
+        <v>159.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12558,6 +12645,9 @@
       <c r="ED29" s="1" t="n">
         <v>167.6</v>
       </c>
+      <c r="EE29" s="1" t="n">
+        <v>229.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -12962,6 +13052,9 @@
       <c r="ED30" s="1" t="n">
         <v>173</v>
       </c>
+      <c r="EE30" s="1" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -13366,6 +13459,9 @@
       <c r="ED31" s="3" t="n">
         <v>136</v>
       </c>
+      <c r="EE31" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -13770,6 +13866,9 @@
       <c r="ED32" s="1" t="n">
         <v>189</v>
       </c>
+      <c r="EE32" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -14174,6 +14273,9 @@
       <c r="ED33" s="2" t="n">
         <v>119.2</v>
       </c>
+      <c r="EE33" s="3" t="n">
+        <v>132.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -14578,6 +14680,9 @@
       <c r="ED34" s="1" t="n">
         <v>248.4</v>
       </c>
+      <c r="EE34" s="1" t="n">
+        <v>165.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -14982,6 +15087,9 @@
       <c r="ED35" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="EE35" s="3" t="n">
+        <v>134.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -15386,6 +15494,9 @@
       <c r="ED36" s="3" t="n">
         <v>135.5</v>
       </c>
+      <c r="EE36" s="1" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -15790,6 +15901,9 @@
       <c r="ED37" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="EE37" s="1" t="n">
+        <v>176.5</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -16194,6 +16308,9 @@
       <c r="ED38" s="1" t="n">
         <v>160.3</v>
       </c>
+      <c r="EE38" s="1" t="n">
+        <v>204.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -16598,6 +16715,9 @@
       <c r="ED39" s="1" t="n">
         <v>145.1</v>
       </c>
+      <c r="EE39" s="1" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -17002,6 +17122,9 @@
       <c r="ED40" s="1" t="n">
         <v>180.2</v>
       </c>
+      <c r="EE40" s="1" t="n">
+        <v>163.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -17406,6 +17529,9 @@
       <c r="ED41" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="EE41" s="1" t="n">
+        <v>173.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -17810,6 +17936,9 @@
       <c r="ED42" s="1" t="n">
         <v>165.8</v>
       </c>
+      <c r="EE42" s="1" t="n">
+        <v>191.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -18214,6 +18343,9 @@
       <c r="ED43" s="2" t="n">
         <v>119.9</v>
       </c>
+      <c r="EE43" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -18618,6 +18750,9 @@
       <c r="ED44" s="1" t="n">
         <v>204.2</v>
       </c>
+      <c r="EE44" s="2" t="n">
+        <v>118.4</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -19022,6 +19157,9 @@
       <c r="ED45" s="1" t="n">
         <v>163.2</v>
       </c>
+      <c r="EE45" s="1" t="n">
+        <v>195.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -19426,6 +19564,9 @@
       <c r="ED46" s="2" t="n">
         <v>119.8</v>
       </c>
+      <c r="EE46" s="1" t="n">
+        <v>148.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -19830,6 +19971,9 @@
       <c r="ED47" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="EE47" s="1" t="n">
+        <v>215.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -20234,6 +20378,9 @@
       <c r="ED48" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="EE48" s="1" t="n">
+        <v>186.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -20638,6 +20785,9 @@
       <c r="ED49" s="1" t="n">
         <v>221.2</v>
       </c>
+      <c r="EE49" s="1" t="n">
+        <v>391.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -21042,6 +21192,9 @@
       <c r="ED50" s="3" t="n">
         <v>135.4</v>
       </c>
+      <c r="EE50" s="1" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -21445,6 +21598,9 @@
       </c>
       <c r="ED51" s="1" t="n">
         <v>152.4</v>
+      </c>
+      <c r="EE51" s="1" t="n">
+        <v>155.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EE51"/>
+  <dimension ref="A1:EF51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +574,7 @@
     <col width="12" customWidth="1" min="133" max="133"/>
     <col width="12" customWidth="1" min="134" max="134"/>
     <col width="12" customWidth="1" min="135" max="135"/>
+    <col width="12" customWidth="1" min="136" max="136"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1252,6 +1253,11 @@
           <t>2025/01/21</t>
         </is>
       </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/22</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1659,6 +1665,9 @@
       <c r="EE2" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="EF2" s="1" t="n">
+        <v>201.5</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2066,6 +2075,9 @@
       <c r="EE3" s="1" t="n">
         <v>140.5</v>
       </c>
+      <c r="EF3" s="1" t="n">
+        <v>235.6</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2473,6 +2485,9 @@
       <c r="EE4" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="EF4" s="1" t="n">
+        <v>172.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2880,6 +2895,9 @@
       <c r="EE5" s="2" t="n">
         <v>121.9</v>
       </c>
+      <c r="EF5" s="2" t="n">
+        <v>124.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3287,6 +3305,9 @@
       <c r="EE6" s="3" t="n">
         <v>136.4</v>
       </c>
+      <c r="EF6" s="1" t="n">
+        <v>265.6</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3694,6 +3715,9 @@
       <c r="EE7" s="1" t="n">
         <v>142.5</v>
       </c>
+      <c r="EF7" s="1" t="n">
+        <v>206.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4101,6 +4125,9 @@
       <c r="EE8" s="1" t="n">
         <v>204.9</v>
       </c>
+      <c r="EF8" s="1" t="n">
+        <v>238.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4508,6 +4535,9 @@
       <c r="EE9" s="1" t="n">
         <v>206.1</v>
       </c>
+      <c r="EF9" s="1" t="n">
+        <v>183.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4915,6 +4945,9 @@
       <c r="EE10" s="1" t="n">
         <v>222.7</v>
       </c>
+      <c r="EF10" s="1" t="n">
+        <v>141.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5322,6 +5355,9 @@
       <c r="EE11" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="EF11" s="1" t="n">
+        <v>149.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5729,6 +5765,9 @@
       <c r="EE12" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="EF12" s="3" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6136,6 +6175,9 @@
       <c r="EE13" s="1" t="n">
         <v>153.9</v>
       </c>
+      <c r="EF13" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6543,6 +6585,9 @@
       <c r="EE14" s="1" t="n">
         <v>205.4</v>
       </c>
+      <c r="EF14" s="1" t="n">
+        <v>174.3</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6950,6 +6995,9 @@
       <c r="EE15" s="1" t="n">
         <v>169.7</v>
       </c>
+      <c r="EF15" s="2" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7357,6 +7405,9 @@
       <c r="EE16" s="1" t="n">
         <v>164</v>
       </c>
+      <c r="EF16" s="1" t="n">
+        <v>162.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7764,6 +7815,9 @@
       <c r="EE17" s="3" t="n">
         <v>132.7</v>
       </c>
+      <c r="EF17" s="1" t="n">
+        <v>147.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8171,6 +8225,9 @@
       <c r="EE18" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="EF18" s="3" t="n">
+        <v>136.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8578,6 +8635,9 @@
       <c r="EE19" s="1" t="n">
         <v>191.8</v>
       </c>
+      <c r="EF19" s="1" t="n">
+        <v>186.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -8985,6 +9045,9 @@
       <c r="EE20" s="2" t="n">
         <v>110.1</v>
       </c>
+      <c r="EF20" s="1" t="n">
+        <v>179.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9392,6 +9455,9 @@
       <c r="EE21" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="EF21" s="1" t="n">
+        <v>220.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9799,6 +9865,9 @@
       <c r="EE22" s="1" t="n">
         <v>245.3</v>
       </c>
+      <c r="EF22" s="1" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10206,6 +10275,9 @@
       <c r="EE23" s="2" t="n">
         <v>122.8</v>
       </c>
+      <c r="EF23" s="3" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10613,6 +10685,9 @@
       <c r="EE24" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="EF24" s="3" t="n">
+        <v>125.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11020,6 +11095,9 @@
       <c r="EE25" s="1" t="n">
         <v>184.2</v>
       </c>
+      <c r="EF25" s="2" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11427,6 +11505,9 @@
       <c r="EE26" s="1" t="n">
         <v>164.3</v>
       </c>
+      <c r="EF26" s="3" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11834,6 +11915,9 @@
       <c r="EE27" s="1" t="n">
         <v>194.9</v>
       </c>
+      <c r="EF27" s="1" t="n">
+        <v>184.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12241,6 +12325,9 @@
       <c r="EE28" s="1" t="n">
         <v>159.8</v>
       </c>
+      <c r="EF28" s="1" t="n">
+        <v>166.4</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12648,6 +12735,9 @@
       <c r="EE29" s="1" t="n">
         <v>229.1</v>
       </c>
+      <c r="EF29" s="1" t="n">
+        <v>153.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13055,6 +13145,9 @@
       <c r="EE30" s="1" t="n">
         <v>186.7</v>
       </c>
+      <c r="EF30" s="3" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -13462,6 +13555,9 @@
       <c r="EE31" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="EF31" s="1" t="n">
+        <v>206.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -13869,6 +13965,9 @@
       <c r="EE32" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="EF32" s="1" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -14276,6 +14375,9 @@
       <c r="EE33" s="3" t="n">
         <v>132.6</v>
       </c>
+      <c r="EF33" s="3" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -14683,6 +14785,9 @@
       <c r="EE34" s="1" t="n">
         <v>165.9</v>
       </c>
+      <c r="EF34" s="3" t="n">
+        <v>125.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -15090,6 +15195,9 @@
       <c r="EE35" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="EF35" s="1" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -15497,6 +15605,9 @@
       <c r="EE36" s="1" t="n">
         <v>290</v>
       </c>
+      <c r="EF36" s="1" t="n">
+        <v>192.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -15904,6 +16015,9 @@
       <c r="EE37" s="1" t="n">
         <v>176.5</v>
       </c>
+      <c r="EF37" s="1" t="n">
+        <v>198.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -16311,6 +16425,9 @@
       <c r="EE38" s="1" t="n">
         <v>204.2</v>
       </c>
+      <c r="EF38" s="2" t="n">
+        <v>105.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -16718,6 +16835,9 @@
       <c r="EE39" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="EF39" s="1" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -17125,6 +17245,9 @@
       <c r="EE40" s="1" t="n">
         <v>163.3</v>
       </c>
+      <c r="EF40" s="1" t="n">
+        <v>177.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -17532,6 +17655,9 @@
       <c r="EE41" s="1" t="n">
         <v>173.7</v>
       </c>
+      <c r="EF41" s="1" t="n">
+        <v>181.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -17939,6 +18065,9 @@
       <c r="EE42" s="1" t="n">
         <v>191.6</v>
       </c>
+      <c r="EF42" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -18346,6 +18475,9 @@
       <c r="EE43" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="EF43" s="2" t="n">
+        <v>115.5</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -18753,6 +18885,9 @@
       <c r="EE44" s="2" t="n">
         <v>118.4</v>
       </c>
+      <c r="EF44" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -19160,6 +19295,9 @@
       <c r="EE45" s="1" t="n">
         <v>195.8</v>
       </c>
+      <c r="EF45" s="1" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -19567,6 +19705,9 @@
       <c r="EE46" s="1" t="n">
         <v>148.7</v>
       </c>
+      <c r="EF46" s="1" t="n">
+        <v>163.9</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -19974,6 +20115,9 @@
       <c r="EE47" s="1" t="n">
         <v>215.1</v>
       </c>
+      <c r="EF47" s="1" t="n">
+        <v>156.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -20381,6 +20525,9 @@
       <c r="EE48" s="1" t="n">
         <v>186.8</v>
       </c>
+      <c r="EF48" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -20788,6 +20935,9 @@
       <c r="EE49" s="1" t="n">
         <v>391.3</v>
       </c>
+      <c r="EF49" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -21195,6 +21345,9 @@
       <c r="EE50" s="1" t="n">
         <v>185</v>
       </c>
+      <c r="EF50" s="1" t="n">
+        <v>163.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -21601,6 +21754,9 @@
       </c>
       <c r="EE51" s="1" t="n">
         <v>155.5</v>
+      </c>
+      <c r="EF51" s="3" t="n">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EF51"/>
+  <dimension ref="A1:EG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,7 @@
     <col width="12" customWidth="1" min="134" max="134"/>
     <col width="12" customWidth="1" min="135" max="135"/>
     <col width="12" customWidth="1" min="136" max="136"/>
+    <col width="12" customWidth="1" min="137" max="137"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1258,6 +1259,11 @@
           <t>2025/01/22</t>
         </is>
       </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/24</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1668,6 +1674,9 @@
       <c r="EF2" s="1" t="n">
         <v>201.5</v>
       </c>
+      <c r="EG2" s="3" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2078,6 +2087,9 @@
       <c r="EF3" s="1" t="n">
         <v>235.6</v>
       </c>
+      <c r="EG3" s="1" t="n">
+        <v>181.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2488,6 +2500,9 @@
       <c r="EF4" s="1" t="n">
         <v>172.3</v>
       </c>
+      <c r="EG4" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2898,6 +2913,9 @@
       <c r="EF5" s="2" t="n">
         <v>124.6</v>
       </c>
+      <c r="EG5" s="1" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3308,6 +3326,9 @@
       <c r="EF6" s="1" t="n">
         <v>265.6</v>
       </c>
+      <c r="EG6" s="2" t="n">
+        <v>119.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3718,6 +3739,9 @@
       <c r="EF7" s="1" t="n">
         <v>206.2</v>
       </c>
+      <c r="EG7" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4128,6 +4152,9 @@
       <c r="EF8" s="1" t="n">
         <v>238.1</v>
       </c>
+      <c r="EG8" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4538,6 +4565,9 @@
       <c r="EF9" s="1" t="n">
         <v>183.6</v>
       </c>
+      <c r="EG9" s="1" t="n">
+        <v>199.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4948,6 +4978,9 @@
       <c r="EF10" s="1" t="n">
         <v>141.2</v>
       </c>
+      <c r="EG10" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5358,6 +5391,9 @@
       <c r="EF11" s="1" t="n">
         <v>149.3</v>
       </c>
+      <c r="EG11" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5768,6 +5804,9 @@
       <c r="EF12" s="3" t="n">
         <v>127.4</v>
       </c>
+      <c r="EG12" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6178,6 +6217,9 @@
       <c r="EF13" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="EG13" s="1" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6588,6 +6630,9 @@
       <c r="EF14" s="1" t="n">
         <v>174.3</v>
       </c>
+      <c r="EG14" s="1" t="n">
+        <v>153.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -6998,6 +7043,9 @@
       <c r="EF15" s="2" t="n">
         <v>118</v>
       </c>
+      <c r="EG15" s="1" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7408,6 +7456,9 @@
       <c r="EF16" s="1" t="n">
         <v>162.6</v>
       </c>
+      <c r="EG16" s="2" t="n">
+        <v>122.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7818,6 +7869,9 @@
       <c r="EF17" s="1" t="n">
         <v>147.3</v>
       </c>
+      <c r="EG17" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8228,6 +8282,9 @@
       <c r="EF18" s="3" t="n">
         <v>136.5</v>
       </c>
+      <c r="EG18" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8638,6 +8695,9 @@
       <c r="EF19" s="1" t="n">
         <v>186.8</v>
       </c>
+      <c r="EG19" s="1" t="n">
+        <v>151.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9048,6 +9108,9 @@
       <c r="EF20" s="1" t="n">
         <v>179.7</v>
       </c>
+      <c r="EG20" s="1" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9458,6 +9521,9 @@
       <c r="EF21" s="1" t="n">
         <v>220.3</v>
       </c>
+      <c r="EG21" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9868,6 +9934,9 @@
       <c r="EF22" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="EG22" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10278,6 +10347,9 @@
       <c r="EF23" s="3" t="n">
         <v>132.2</v>
       </c>
+      <c r="EG23" s="1" t="n">
+        <v>230.2</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10688,6 +10760,9 @@
       <c r="EF24" s="3" t="n">
         <v>125.8</v>
       </c>
+      <c r="EG24" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11098,6 +11173,9 @@
       <c r="EF25" s="2" t="n">
         <v>113</v>
       </c>
+      <c r="EG25" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11508,6 +11586,9 @@
       <c r="EF26" s="3" t="n">
         <v>133.3</v>
       </c>
+      <c r="EG26" s="1" t="n">
+        <v>183.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -11918,6 +11999,9 @@
       <c r="EF27" s="1" t="n">
         <v>184.2</v>
       </c>
+      <c r="EG27" s="1" t="n">
+        <v>225.7</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12328,6 +12412,9 @@
       <c r="EF28" s="1" t="n">
         <v>166.4</v>
       </c>
+      <c r="EG28" s="3" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12738,6 +12825,9 @@
       <c r="EF29" s="1" t="n">
         <v>153.3</v>
       </c>
+      <c r="EG29" s="3" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13148,6 +13238,9 @@
       <c r="EF30" s="3" t="n">
         <v>139.5</v>
       </c>
+      <c r="EG30" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -13558,6 +13651,9 @@
       <c r="EF31" s="1" t="n">
         <v>206.9</v>
       </c>
+      <c r="EG31" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -13968,6 +14064,9 @@
       <c r="EF32" s="1" t="n">
         <v>189.1</v>
       </c>
+      <c r="EG32" s="1" t="n">
+        <v>189.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -14378,6 +14477,9 @@
       <c r="EF33" s="3" t="n">
         <v>136.7</v>
       </c>
+      <c r="EG33" s="1" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -14788,6 +14890,9 @@
       <c r="EF34" s="3" t="n">
         <v>125.5</v>
       </c>
+      <c r="EG34" s="3" t="n">
+        <v>130.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -15198,6 +15303,9 @@
       <c r="EF35" s="1" t="n">
         <v>193</v>
       </c>
+      <c r="EG35" s="3" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -15608,6 +15716,9 @@
       <c r="EF36" s="1" t="n">
         <v>192.7</v>
       </c>
+      <c r="EG36" s="1" t="n">
+        <v>213.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -16018,6 +16129,9 @@
       <c r="EF37" s="1" t="n">
         <v>198.1</v>
       </c>
+      <c r="EG37" s="3" t="n">
+        <v>139.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -16428,6 +16542,9 @@
       <c r="EF38" s="2" t="n">
         <v>105.1</v>
       </c>
+      <c r="EG38" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -16838,6 +16955,9 @@
       <c r="EF39" s="1" t="n">
         <v>161.4</v>
       </c>
+      <c r="EG39" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -17248,6 +17368,9 @@
       <c r="EF40" s="1" t="n">
         <v>177.3</v>
       </c>
+      <c r="EG40" s="1" t="n">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -17658,6 +17781,9 @@
       <c r="EF41" s="1" t="n">
         <v>181.7</v>
       </c>
+      <c r="EG41" s="1" t="n">
+        <v>176.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -18068,6 +18194,9 @@
       <c r="EF42" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="EG42" s="1" t="n">
+        <v>209.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -18478,6 +18607,9 @@
       <c r="EF43" s="2" t="n">
         <v>115.5</v>
       </c>
+      <c r="EG43" s="1" t="n">
+        <v>148.7</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -18888,6 +19020,9 @@
       <c r="EF44" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="EG44" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -19298,6 +19433,9 @@
       <c r="EF45" s="1" t="n">
         <v>193</v>
       </c>
+      <c r="EG45" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -19708,6 +19846,9 @@
       <c r="EF46" s="1" t="n">
         <v>163.9</v>
       </c>
+      <c r="EG46" s="1" t="n">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -20118,6 +20259,9 @@
       <c r="EF47" s="1" t="n">
         <v>156.7</v>
       </c>
+      <c r="EG47" s="1" t="n">
+        <v>185.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -20528,6 +20672,9 @@
       <c r="EF48" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="EG48" s="1" t="n">
+        <v>181.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -20938,6 +21085,9 @@
       <c r="EF49" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="EG49" s="1" t="n">
+        <v>147.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -21348,6 +21498,9 @@
       <c r="EF50" s="1" t="n">
         <v>163.2</v>
       </c>
+      <c r="EG50" s="1" t="n">
+        <v>297.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -21757,6 +21910,9 @@
       </c>
       <c r="EF51" s="3" t="n">
         <v>128</v>
+      </c>
+      <c r="EG51" s="1" t="n">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EG51"/>
+  <dimension ref="A1:EH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,6 +576,7 @@
     <col width="12" customWidth="1" min="135" max="135"/>
     <col width="12" customWidth="1" min="136" max="136"/>
     <col width="12" customWidth="1" min="137" max="137"/>
+    <col width="12" customWidth="1" min="138" max="138"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1261,6 +1262,11 @@
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
+          <t>2025/01/23</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
           <t>2025/01/24</t>
         </is>
       </c>
@@ -1677,6 +1683,9 @@
       <c r="EG2" s="3" t="n">
         <v>126.6</v>
       </c>
+      <c r="EH2" s="3" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2090,6 +2099,9 @@
       <c r="EG3" s="1" t="n">
         <v>181.5</v>
       </c>
+      <c r="EH3" s="1" t="n">
+        <v>181.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2503,6 +2515,9 @@
       <c r="EG4" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="EH4" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2916,6 +2931,9 @@
       <c r="EG5" s="1" t="n">
         <v>227</v>
       </c>
+      <c r="EH5" s="1" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3329,6 +3347,9 @@
       <c r="EG6" s="2" t="n">
         <v>119.5</v>
       </c>
+      <c r="EH6" s="2" t="n">
+        <v>119.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3742,6 +3763,9 @@
       <c r="EG7" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="EH7" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4155,6 +4179,9 @@
       <c r="EG8" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="EH8" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4568,6 +4595,9 @@
       <c r="EG9" s="1" t="n">
         <v>199.2</v>
       </c>
+      <c r="EH9" s="1" t="n">
+        <v>199.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -4981,6 +5011,9 @@
       <c r="EG10" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="EH10" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5394,6 +5427,9 @@
       <c r="EG11" s="1" t="n">
         <v>151.7</v>
       </c>
+      <c r="EH11" s="1" t="n">
+        <v>151.7</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5807,6 +5843,9 @@
       <c r="EG12" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="EH12" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6220,6 +6259,9 @@
       <c r="EG13" s="1" t="n">
         <v>185.3</v>
       </c>
+      <c r="EH13" s="1" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6633,6 +6675,9 @@
       <c r="EG14" s="1" t="n">
         <v>153.6</v>
       </c>
+      <c r="EH14" s="1" t="n">
+        <v>153.6</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7046,6 +7091,9 @@
       <c r="EG15" s="1" t="n">
         <v>188.2</v>
       </c>
+      <c r="EH15" s="1" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7459,6 +7507,9 @@
       <c r="EG16" s="2" t="n">
         <v>122.6</v>
       </c>
+      <c r="EH16" s="2" t="n">
+        <v>122.6</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7872,6 +7923,9 @@
       <c r="EG17" s="1" t="n">
         <v>143.3</v>
       </c>
+      <c r="EH17" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8285,6 +8339,9 @@
       <c r="EG18" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="EH18" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8698,6 +8755,9 @@
       <c r="EG19" s="1" t="n">
         <v>151.9</v>
       </c>
+      <c r="EH19" s="1" t="n">
+        <v>151.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9111,6 +9171,9 @@
       <c r="EG20" s="1" t="n">
         <v>170</v>
       </c>
+      <c r="EH20" s="1" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9524,6 +9587,9 @@
       <c r="EG21" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="EH21" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -9937,6 +10003,9 @@
       <c r="EG22" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="EH22" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10350,6 +10419,9 @@
       <c r="EG23" s="1" t="n">
         <v>230.2</v>
       </c>
+      <c r="EH23" s="1" t="n">
+        <v>230.2</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10763,6 +10835,9 @@
       <c r="EG24" s="3" t="n">
         <v>129</v>
       </c>
+      <c r="EH24" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11176,6 +11251,9 @@
       <c r="EG25" s="3" t="n">
         <v>129</v>
       </c>
+      <c r="EH25" s="3" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11589,6 +11667,9 @@
       <c r="EG26" s="1" t="n">
         <v>183.3</v>
       </c>
+      <c r="EH26" s="1" t="n">
+        <v>183.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12002,6 +12083,9 @@
       <c r="EG27" s="1" t="n">
         <v>225.7</v>
       </c>
+      <c r="EH27" s="1" t="n">
+        <v>225.7</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12415,6 +12499,9 @@
       <c r="EG28" s="3" t="n">
         <v>139.5</v>
       </c>
+      <c r="EH28" s="3" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12828,6 +12915,9 @@
       <c r="EG29" s="3" t="n">
         <v>139.1</v>
       </c>
+      <c r="EH29" s="3" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13241,6 +13331,9 @@
       <c r="EG30" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="EH30" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -13654,6 +13747,9 @@
       <c r="EG31" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="EH31" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -14067,6 +14163,9 @@
       <c r="EG32" s="1" t="n">
         <v>189.5</v>
       </c>
+      <c r="EH32" s="1" t="n">
+        <v>189.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -14480,6 +14579,9 @@
       <c r="EG33" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="EH33" s="1" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -14893,6 +14995,9 @@
       <c r="EG34" s="3" t="n">
         <v>130.1</v>
       </c>
+      <c r="EH34" s="3" t="n">
+        <v>130.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -15306,6 +15411,9 @@
       <c r="EG35" s="3" t="n">
         <v>126.5</v>
       </c>
+      <c r="EH35" s="3" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -15719,6 +15827,9 @@
       <c r="EG36" s="1" t="n">
         <v>213.1</v>
       </c>
+      <c r="EH36" s="1" t="n">
+        <v>213.1</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -16132,6 +16243,9 @@
       <c r="EG37" s="3" t="n">
         <v>139.4</v>
       </c>
+      <c r="EH37" s="3" t="n">
+        <v>139.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -16545,6 +16659,9 @@
       <c r="EG38" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="EH38" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -16958,6 +17075,9 @@
       <c r="EG39" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="EH39" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -17371,6 +17491,9 @@
       <c r="EG40" s="1" t="n">
         <v>179.5</v>
       </c>
+      <c r="EH40" s="1" t="n">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -17784,6 +17907,9 @@
       <c r="EG41" s="1" t="n">
         <v>176.1</v>
       </c>
+      <c r="EH41" s="1" t="n">
+        <v>176.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -18197,6 +18323,9 @@
       <c r="EG42" s="1" t="n">
         <v>209.4</v>
       </c>
+      <c r="EH42" s="1" t="n">
+        <v>209.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -18610,6 +18739,9 @@
       <c r="EG43" s="1" t="n">
         <v>148.7</v>
       </c>
+      <c r="EH43" s="1" t="n">
+        <v>148.7</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -19023,6 +19155,9 @@
       <c r="EG44" s="1" t="n">
         <v>158.9</v>
       </c>
+      <c r="EH44" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -19436,6 +19571,9 @@
       <c r="EG45" s="1" t="n">
         <v>149.2</v>
       </c>
+      <c r="EH45" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -19849,6 +19987,9 @@
       <c r="EG46" s="1" t="n">
         <v>167.6</v>
       </c>
+      <c r="EH46" s="1" t="n">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -20262,6 +20403,9 @@
       <c r="EG47" s="1" t="n">
         <v>185.4</v>
       </c>
+      <c r="EH47" s="1" t="n">
+        <v>185.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -20675,6 +20819,9 @@
       <c r="EG48" s="1" t="n">
         <v>181.4</v>
       </c>
+      <c r="EH48" s="1" t="n">
+        <v>181.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -21088,6 +21235,9 @@
       <c r="EG49" s="1" t="n">
         <v>147.1</v>
       </c>
+      <c r="EH49" s="1" t="n">
+        <v>147.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -21501,6 +21651,9 @@
       <c r="EG50" s="1" t="n">
         <v>297.7</v>
       </c>
+      <c r="EH50" s="1" t="n">
+        <v>297.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -21912,6 +22065,9 @@
         <v>128</v>
       </c>
       <c r="EG51" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="EH51" s="1" t="n">
         <v>186</v>
       </c>
     </row>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -1683,8 +1683,8 @@
       <c r="EG2" s="3" t="n">
         <v>126.6</v>
       </c>
-      <c r="EH2" s="3" t="n">
-        <v>126.6</v>
+      <c r="EH2" s="1" t="n">
+        <v>155.3</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1">
@@ -2099,8 +2099,8 @@
       <c r="EG3" s="1" t="n">
         <v>181.5</v>
       </c>
-      <c r="EH3" s="1" t="n">
-        <v>181.5</v>
+      <c r="EH3" s="3" t="n">
+        <v>133.3</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
@@ -2516,7 +2516,7 @@
         <v>144</v>
       </c>
       <c r="EH4" s="1" t="n">
-        <v>144</v>
+        <v>174.6</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
@@ -2932,7 +2932,7 @@
         <v>227</v>
       </c>
       <c r="EH5" s="1" t="n">
-        <v>227</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
@@ -3347,8 +3347,8 @@
       <c r="EG6" s="2" t="n">
         <v>119.5</v>
       </c>
-      <c r="EH6" s="2" t="n">
-        <v>119.5</v>
+      <c r="EH6" s="1" t="n">
+        <v>144.9</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
@@ -3764,7 +3764,7 @@
         <v>148</v>
       </c>
       <c r="EH7" s="1" t="n">
-        <v>148</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
@@ -4180,7 +4180,7 @@
         <v>154.3</v>
       </c>
       <c r="EH8" s="1" t="n">
-        <v>154.3</v>
+        <v>162.8</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
@@ -4596,7 +4596,7 @@
         <v>199.2</v>
       </c>
       <c r="EH9" s="1" t="n">
-        <v>199.2</v>
+        <v>154.8</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
@@ -5011,8 +5011,8 @@
       <c r="EG10" s="3" t="n">
         <v>131.8</v>
       </c>
-      <c r="EH10" s="3" t="n">
-        <v>131.8</v>
+      <c r="EH10" s="1" t="n">
+        <v>155.2</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
@@ -5428,7 +5428,7 @@
         <v>151.7</v>
       </c>
       <c r="EH11" s="1" t="n">
-        <v>151.7</v>
+        <v>182.4</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
@@ -5844,7 +5844,7 @@
         <v>138.8</v>
       </c>
       <c r="EH12" s="3" t="n">
-        <v>138.8</v>
+        <v>129.1</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
@@ -6260,7 +6260,7 @@
         <v>185.3</v>
       </c>
       <c r="EH13" s="1" t="n">
-        <v>185.3</v>
+        <v>156.9</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
@@ -6676,7 +6676,7 @@
         <v>153.6</v>
       </c>
       <c r="EH14" s="1" t="n">
-        <v>153.6</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
@@ -7092,7 +7092,7 @@
         <v>188.2</v>
       </c>
       <c r="EH15" s="1" t="n">
-        <v>188.2</v>
+        <v>154.6</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -7507,8 +7507,8 @@
       <c r="EG16" s="2" t="n">
         <v>122.6</v>
       </c>
-      <c r="EH16" s="2" t="n">
-        <v>122.6</v>
+      <c r="EH16" s="3" t="n">
+        <v>126.6</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1">
@@ -7924,7 +7924,7 @@
         <v>143.3</v>
       </c>
       <c r="EH17" s="1" t="n">
-        <v>143.3</v>
+        <v>199.2</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
@@ -8339,8 +8339,8 @@
       <c r="EG18" s="3" t="n">
         <v>131.5</v>
       </c>
-      <c r="EH18" s="3" t="n">
-        <v>131.5</v>
+      <c r="EH18" s="1" t="n">
+        <v>180.5</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1">
@@ -8755,8 +8755,8 @@
       <c r="EG19" s="1" t="n">
         <v>151.9</v>
       </c>
-      <c r="EH19" s="1" t="n">
-        <v>151.9</v>
+      <c r="EH19" s="3" t="n">
+        <v>134.5</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
@@ -9171,8 +9171,8 @@
       <c r="EG20" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="EH20" s="1" t="n">
-        <v>170</v>
+      <c r="EH20" s="2" t="n">
+        <v>114.9</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1">
@@ -9587,8 +9587,8 @@
       <c r="EG21" s="3" t="n">
         <v>138.9</v>
       </c>
-      <c r="EH21" s="3" t="n">
-        <v>138.9</v>
+      <c r="EH21" s="1" t="n">
+        <v>222.6</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
@@ -10003,8 +10003,8 @@
       <c r="EG22" s="1" t="n">
         <v>165.2</v>
       </c>
-      <c r="EH22" s="1" t="n">
-        <v>165.2</v>
+      <c r="EH22" s="3" t="n">
+        <v>127.3</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1">
@@ -10420,7 +10420,7 @@
         <v>230.2</v>
       </c>
       <c r="EH23" s="1" t="n">
-        <v>230.2</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
@@ -10835,8 +10835,8 @@
       <c r="EG24" s="3" t="n">
         <v>129</v>
       </c>
-      <c r="EH24" s="3" t="n">
-        <v>129</v>
+      <c r="EH24" s="1" t="n">
+        <v>160.1</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1">
@@ -11251,8 +11251,8 @@
       <c r="EG25" s="3" t="n">
         <v>129</v>
       </c>
-      <c r="EH25" s="3" t="n">
-        <v>129</v>
+      <c r="EH25" s="1" t="n">
+        <v>159.3</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
@@ -11667,8 +11667,8 @@
       <c r="EG26" s="1" t="n">
         <v>183.3</v>
       </c>
-      <c r="EH26" s="1" t="n">
-        <v>183.3</v>
+      <c r="EH26" s="3" t="n">
+        <v>132.1</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1">
@@ -12084,7 +12084,7 @@
         <v>225.7</v>
       </c>
       <c r="EH27" s="1" t="n">
-        <v>225.7</v>
+        <v>199.9</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
@@ -12500,7 +12500,7 @@
         <v>139.5</v>
       </c>
       <c r="EH28" s="3" t="n">
-        <v>139.5</v>
+        <v>138.6</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1">
@@ -12915,8 +12915,8 @@
       <c r="EG29" s="3" t="n">
         <v>139.1</v>
       </c>
-      <c r="EH29" s="3" t="n">
-        <v>139.1</v>
+      <c r="EH29" s="1" t="n">
+        <v>170.7</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
@@ -13331,8 +13331,8 @@
       <c r="EG30" s="1" t="n">
         <v>150.9</v>
       </c>
-      <c r="EH30" s="1" t="n">
-        <v>150.9</v>
+      <c r="EH30" s="3" t="n">
+        <v>126.6</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1">
@@ -13747,8 +13747,8 @@
       <c r="EG31" s="1" t="n">
         <v>166.5</v>
       </c>
-      <c r="EH31" s="1" t="n">
-        <v>166.5</v>
+      <c r="EH31" s="3" t="n">
+        <v>133.7</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
@@ -14163,8 +14163,8 @@
       <c r="EG32" s="1" t="n">
         <v>189.5</v>
       </c>
-      <c r="EH32" s="1" t="n">
-        <v>189.5</v>
+      <c r="EH32" s="3" t="n">
+        <v>130.3</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1">
@@ -14580,7 +14580,7 @@
         <v>143.8</v>
       </c>
       <c r="EH33" s="1" t="n">
-        <v>143.8</v>
+        <v>184.2</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -14996,7 +14996,7 @@
         <v>130.1</v>
       </c>
       <c r="EH34" s="3" t="n">
-        <v>130.1</v>
+        <v>138.3</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -15411,8 +15411,8 @@
       <c r="EG35" s="3" t="n">
         <v>126.5</v>
       </c>
-      <c r="EH35" s="3" t="n">
-        <v>126.5</v>
+      <c r="EH35" s="1" t="n">
+        <v>164.2</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -15827,8 +15827,8 @@
       <c r="EG36" s="1" t="n">
         <v>213.1</v>
       </c>
-      <c r="EH36" s="1" t="n">
-        <v>213.1</v>
+      <c r="EH36" s="3" t="n">
+        <v>138.1</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1">
@@ -16243,8 +16243,8 @@
       <c r="EG37" s="3" t="n">
         <v>139.4</v>
       </c>
-      <c r="EH37" s="3" t="n">
-        <v>139.4</v>
+      <c r="EH37" s="1" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1">
@@ -16660,7 +16660,7 @@
         <v>152.8</v>
       </c>
       <c r="EH38" s="1" t="n">
-        <v>152.8</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1">
@@ -17075,8 +17075,8 @@
       <c r="EG39" s="3" t="n">
         <v>139.9</v>
       </c>
-      <c r="EH39" s="3" t="n">
-        <v>139.9</v>
+      <c r="EH39" s="1" t="n">
+        <v>143.8</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1">
@@ -17492,7 +17492,7 @@
         <v>179.5</v>
       </c>
       <c r="EH40" s="1" t="n">
-        <v>179.5</v>
+        <v>227.2</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1">
@@ -17908,7 +17908,7 @@
         <v>176.1</v>
       </c>
       <c r="EH41" s="1" t="n">
-        <v>176.1</v>
+        <v>142.4</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1">
@@ -18324,7 +18324,7 @@
         <v>209.4</v>
       </c>
       <c r="EH42" s="1" t="n">
-        <v>209.4</v>
+        <v>160.6</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1">
@@ -18739,8 +18739,8 @@
       <c r="EG43" s="1" t="n">
         <v>148.7</v>
       </c>
-      <c r="EH43" s="1" t="n">
-        <v>148.7</v>
+      <c r="EH43" s="3" t="n">
+        <v>137.5</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1">
@@ -19156,7 +19156,7 @@
         <v>158.9</v>
       </c>
       <c r="EH44" s="1" t="n">
-        <v>158.9</v>
+        <v>240.1</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1">
@@ -19571,8 +19571,8 @@
       <c r="EG45" s="1" t="n">
         <v>149.2</v>
       </c>
-      <c r="EH45" s="1" t="n">
-        <v>149.2</v>
+      <c r="EH45" s="2" t="n">
+        <v>117.7</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1">
@@ -19988,7 +19988,7 @@
         <v>167.6</v>
       </c>
       <c r="EH46" s="1" t="n">
-        <v>167.6</v>
+        <v>163.5</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1">
@@ -20403,8 +20403,8 @@
       <c r="EG47" s="1" t="n">
         <v>185.4</v>
       </c>
-      <c r="EH47" s="1" t="n">
-        <v>185.4</v>
+      <c r="EH47" s="2" t="n">
+        <v>118.5</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1">
@@ -20820,7 +20820,7 @@
         <v>181.4</v>
       </c>
       <c r="EH48" s="1" t="n">
-        <v>181.4</v>
+        <v>210.9</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1">
@@ -21235,8 +21235,8 @@
       <c r="EG49" s="1" t="n">
         <v>147.1</v>
       </c>
-      <c r="EH49" s="1" t="n">
-        <v>147.1</v>
+      <c r="EH49" s="3" t="n">
+        <v>129.2</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
@@ -21652,7 +21652,7 @@
         <v>297.7</v>
       </c>
       <c r="EH50" s="1" t="n">
-        <v>297.7</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
@@ -22068,7 +22068,7 @@
         <v>186</v>
       </c>
       <c r="EH51" s="1" t="n">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EH51"/>
+  <dimension ref="A1:EI51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,7 @@
     <col width="12" customWidth="1" min="136" max="136"/>
     <col width="12" customWidth="1" min="137" max="137"/>
     <col width="12" customWidth="1" min="138" max="138"/>
+    <col width="12" customWidth="1" min="139" max="139"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1270,6 +1271,11 @@
           <t>2025/01/24</t>
         </is>
       </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/25</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1686,6 +1692,9 @@
       <c r="EH2" s="1" t="n">
         <v>155.3</v>
       </c>
+      <c r="EI2" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2102,6 +2111,9 @@
       <c r="EH3" s="3" t="n">
         <v>133.3</v>
       </c>
+      <c r="EI3" s="1" t="n">
+        <v>148.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2518,6 +2530,9 @@
       <c r="EH4" s="1" t="n">
         <v>174.6</v>
       </c>
+      <c r="EI4" s="1" t="n">
+        <v>175.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2934,6 +2949,9 @@
       <c r="EH5" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="EI5" s="3" t="n">
+        <v>128.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3350,6 +3368,9 @@
       <c r="EH6" s="1" t="n">
         <v>144.9</v>
       </c>
+      <c r="EI6" s="3" t="n">
+        <v>128.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3766,6 +3787,9 @@
       <c r="EH7" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="EI7" s="3" t="n">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4182,6 +4206,9 @@
       <c r="EH8" s="1" t="n">
         <v>162.8</v>
       </c>
+      <c r="EI8" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4598,6 +4625,9 @@
       <c r="EH9" s="1" t="n">
         <v>154.8</v>
       </c>
+      <c r="EI9" s="1" t="n">
+        <v>147.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5014,6 +5044,9 @@
       <c r="EH10" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="EI10" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5430,6 +5463,9 @@
       <c r="EH11" s="1" t="n">
         <v>182.4</v>
       </c>
+      <c r="EI11" s="1" t="n">
+        <v>151.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5846,6 +5882,9 @@
       <c r="EH12" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="EI12" s="1" t="n">
+        <v>160.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6262,6 +6301,9 @@
       <c r="EH13" s="1" t="n">
         <v>156.9</v>
       </c>
+      <c r="EI13" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6678,6 +6720,9 @@
       <c r="EH14" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="EI14" s="3" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7094,6 +7139,9 @@
       <c r="EH15" s="1" t="n">
         <v>154.6</v>
       </c>
+      <c r="EI15" s="2" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7510,6 +7558,9 @@
       <c r="EH16" s="3" t="n">
         <v>126.6</v>
       </c>
+      <c r="EI16" s="1" t="n">
+        <v>161.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7926,6 +7977,9 @@
       <c r="EH17" s="1" t="n">
         <v>199.2</v>
       </c>
+      <c r="EI17" s="1" t="n">
+        <v>172.8</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8342,6 +8396,9 @@
       <c r="EH18" s="1" t="n">
         <v>180.5</v>
       </c>
+      <c r="EI18" s="1" t="n">
+        <v>181.4</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8758,6 +8815,9 @@
       <c r="EH19" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="EI19" s="1" t="n">
+        <v>197.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9174,6 +9234,9 @@
       <c r="EH20" s="2" t="n">
         <v>114.9</v>
       </c>
+      <c r="EI20" s="1" t="n">
+        <v>145.8</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9590,6 +9653,9 @@
       <c r="EH21" s="1" t="n">
         <v>222.6</v>
       </c>
+      <c r="EI21" s="1" t="n">
+        <v>198.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10006,6 +10072,9 @@
       <c r="EH22" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="EI22" s="1" t="n">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10422,6 +10491,9 @@
       <c r="EH23" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="EI23" s="1" t="n">
+        <v>165.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10838,6 +10910,9 @@
       <c r="EH24" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="EI24" s="1" t="n">
+        <v>147.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11254,6 +11329,9 @@
       <c r="EH25" s="1" t="n">
         <v>159.3</v>
       </c>
+      <c r="EI25" s="1" t="n">
+        <v>171.8</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11670,6 +11748,9 @@
       <c r="EH26" s="3" t="n">
         <v>132.1</v>
       </c>
+      <c r="EI26" s="1" t="n">
+        <v>166.6</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12086,6 +12167,9 @@
       <c r="EH27" s="1" t="n">
         <v>199.9</v>
       </c>
+      <c r="EI27" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12502,6 +12586,9 @@
       <c r="EH28" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="EI28" s="1" t="n">
+        <v>260.4</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -12918,6 +13005,9 @@
       <c r="EH29" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="EI29" s="1" t="n">
+        <v>157.7</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13334,6 +13424,9 @@
       <c r="EH30" s="3" t="n">
         <v>126.6</v>
       </c>
+      <c r="EI30" s="1" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -13750,6 +13843,9 @@
       <c r="EH31" s="3" t="n">
         <v>133.7</v>
       </c>
+      <c r="EI31" s="2" t="n">
+        <v>120.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -14166,6 +14262,9 @@
       <c r="EH32" s="3" t="n">
         <v>130.3</v>
       </c>
+      <c r="EI32" s="3" t="n">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -14582,6 +14681,9 @@
       <c r="EH33" s="1" t="n">
         <v>184.2</v>
       </c>
+      <c r="EI33" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -14998,6 +15100,9 @@
       <c r="EH34" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="EI34" s="2" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -15414,6 +15519,9 @@
       <c r="EH35" s="1" t="n">
         <v>164.2</v>
       </c>
+      <c r="EI35" s="1" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -15830,6 +15938,9 @@
       <c r="EH36" s="3" t="n">
         <v>138.1</v>
       </c>
+      <c r="EI36" s="3" t="n">
+        <v>131.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -16246,6 +16357,9 @@
       <c r="EH37" s="1" t="n">
         <v>164</v>
       </c>
+      <c r="EI37" s="1" t="n">
+        <v>170.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -16662,6 +16776,9 @@
       <c r="EH38" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="EI38" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -17078,6 +17195,9 @@
       <c r="EH39" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="EI39" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -17494,6 +17614,9 @@
       <c r="EH40" s="1" t="n">
         <v>227.2</v>
       </c>
+      <c r="EI40" s="1" t="n">
+        <v>176.6</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -17910,6 +18033,9 @@
       <c r="EH41" s="1" t="n">
         <v>142.4</v>
       </c>
+      <c r="EI41" s="1" t="n">
+        <v>152.2</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -18326,6 +18452,9 @@
       <c r="EH42" s="1" t="n">
         <v>160.6</v>
       </c>
+      <c r="EI42" s="1" t="n">
+        <v>176.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -18742,6 +18871,9 @@
       <c r="EH43" s="3" t="n">
         <v>137.5</v>
       </c>
+      <c r="EI43" s="1" t="n">
+        <v>158.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -19158,6 +19290,9 @@
       <c r="EH44" s="1" t="n">
         <v>240.1</v>
       </c>
+      <c r="EI44" s="1" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -19574,6 +19709,9 @@
       <c r="EH45" s="2" t="n">
         <v>117.7</v>
       </c>
+      <c r="EI45" s="1" t="n">
+        <v>220.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -19990,6 +20128,9 @@
       <c r="EH46" s="1" t="n">
         <v>163.5</v>
       </c>
+      <c r="EI46" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -20406,6 +20547,9 @@
       <c r="EH47" s="2" t="n">
         <v>118.5</v>
       </c>
+      <c r="EI47" s="1" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -20822,6 +20966,9 @@
       <c r="EH48" s="1" t="n">
         <v>210.9</v>
       </c>
+      <c r="EI48" s="2" t="n">
+        <v>113.5</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -21238,6 +21385,9 @@
       <c r="EH49" s="3" t="n">
         <v>129.2</v>
       </c>
+      <c r="EI49" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -21654,6 +21804,9 @@
       <c r="EH50" s="1" t="n">
         <v>147.5</v>
       </c>
+      <c r="EI50" s="1" t="n">
+        <v>196.6</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -22069,6 +22222,9 @@
       </c>
       <c r="EH51" s="1" t="n">
         <v>157</v>
+      </c>
+      <c r="EI51" s="3" t="n">
+        <v>139.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EI51"/>
+  <dimension ref="A1:EJ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,6 +578,7 @@
     <col width="12" customWidth="1" min="137" max="137"/>
     <col width="12" customWidth="1" min="138" max="138"/>
     <col width="12" customWidth="1" min="139" max="139"/>
+    <col width="12" customWidth="1" min="140" max="140"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1276,6 +1277,11 @@
           <t>2025/01/25</t>
         </is>
       </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/26</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1695,6 +1701,9 @@
       <c r="EI2" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="EJ2" s="1" t="n">
+        <v>173.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2114,6 +2123,9 @@
       <c r="EI3" s="1" t="n">
         <v>148.1</v>
       </c>
+      <c r="EJ3" s="1" t="n">
+        <v>142.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2533,6 +2545,9 @@
       <c r="EI4" s="1" t="n">
         <v>175.2</v>
       </c>
+      <c r="EJ4" s="1" t="n">
+        <v>164.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2952,6 +2967,9 @@
       <c r="EI5" s="3" t="n">
         <v>128.9</v>
       </c>
+      <c r="EJ5" s="2" t="n">
+        <v>118.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3371,6 +3389,9 @@
       <c r="EI6" s="3" t="n">
         <v>128.9</v>
       </c>
+      <c r="EJ6" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3790,6 +3811,9 @@
       <c r="EI7" s="3" t="n">
         <v>133.7</v>
       </c>
+      <c r="EJ7" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4209,6 +4233,9 @@
       <c r="EI8" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="EJ8" s="2" t="n">
+        <v>119.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4628,6 +4655,9 @@
       <c r="EI9" s="1" t="n">
         <v>147.1</v>
       </c>
+      <c r="EJ9" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5047,6 +5077,9 @@
       <c r="EI10" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="EJ10" s="1" t="n">
+        <v>193.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5466,6 +5499,9 @@
       <c r="EI11" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="EJ11" s="3" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5885,6 +5921,9 @@
       <c r="EI12" s="1" t="n">
         <v>160.8</v>
       </c>
+      <c r="EJ12" s="3" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6304,6 +6343,9 @@
       <c r="EI13" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="EJ13" s="1" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6723,6 +6765,9 @@
       <c r="EI14" s="3" t="n">
         <v>136.4</v>
       </c>
+      <c r="EJ14" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7142,6 +7187,9 @@
       <c r="EI15" s="2" t="n">
         <v>120</v>
       </c>
+      <c r="EJ15" s="1" t="n">
+        <v>200.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7561,6 +7609,9 @@
       <c r="EI16" s="1" t="n">
         <v>161.1</v>
       </c>
+      <c r="EJ16" s="1" t="n">
+        <v>175.8</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -7980,6 +8031,9 @@
       <c r="EI17" s="1" t="n">
         <v>172.8</v>
       </c>
+      <c r="EJ17" s="1" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8399,6 +8453,9 @@
       <c r="EI18" s="1" t="n">
         <v>181.4</v>
       </c>
+      <c r="EJ18" s="1" t="n">
+        <v>141.4</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8818,6 +8875,9 @@
       <c r="EI19" s="1" t="n">
         <v>197.7</v>
       </c>
+      <c r="EJ19" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9237,6 +9297,9 @@
       <c r="EI20" s="1" t="n">
         <v>145.8</v>
       </c>
+      <c r="EJ20" s="1" t="n">
+        <v>167.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9656,6 +9719,9 @@
       <c r="EI21" s="1" t="n">
         <v>198.2</v>
       </c>
+      <c r="EJ21" s="2" t="n">
+        <v>122.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10075,6 +10141,9 @@
       <c r="EI22" s="1" t="n">
         <v>140.7</v>
       </c>
+      <c r="EJ22" s="1" t="n">
+        <v>167.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10494,6 +10563,9 @@
       <c r="EI23" s="1" t="n">
         <v>165.8</v>
       </c>
+      <c r="EJ23" s="1" t="n">
+        <v>239.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10913,6 +10985,9 @@
       <c r="EI24" s="1" t="n">
         <v>147.2</v>
       </c>
+      <c r="EJ24" s="1" t="n">
+        <v>177.6</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11332,6 +11407,9 @@
       <c r="EI25" s="1" t="n">
         <v>171.8</v>
       </c>
+      <c r="EJ25" s="3" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11751,6 +11829,9 @@
       <c r="EI26" s="1" t="n">
         <v>166.6</v>
       </c>
+      <c r="EJ26" s="1" t="n">
+        <v>174.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12170,6 +12251,9 @@
       <c r="EI27" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="EJ27" s="1" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12589,6 +12673,9 @@
       <c r="EI28" s="1" t="n">
         <v>260.4</v>
       </c>
+      <c r="EJ28" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13008,6 +13095,9 @@
       <c r="EI29" s="1" t="n">
         <v>157.7</v>
       </c>
+      <c r="EJ29" s="1" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13427,6 +13517,9 @@
       <c r="EI30" s="1" t="n">
         <v>159</v>
       </c>
+      <c r="EJ30" s="3" t="n">
+        <v>137.6</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -13846,6 +13939,9 @@
       <c r="EI31" s="2" t="n">
         <v>120.6</v>
       </c>
+      <c r="EJ31" s="1" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -14265,6 +14361,9 @@
       <c r="EI32" s="3" t="n">
         <v>125.3</v>
       </c>
+      <c r="EJ32" s="3" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -14684,6 +14783,9 @@
       <c r="EI33" s="1" t="n">
         <v>145.9</v>
       </c>
+      <c r="EJ33" s="2" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -15103,6 +15205,9 @@
       <c r="EI34" s="2" t="n">
         <v>121.6</v>
       </c>
+      <c r="EJ34" s="1" t="n">
+        <v>282.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -15522,6 +15627,9 @@
       <c r="EI35" s="1" t="n">
         <v>161.4</v>
       </c>
+      <c r="EJ35" s="1" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -15941,6 +16049,9 @@
       <c r="EI36" s="3" t="n">
         <v>131.4</v>
       </c>
+      <c r="EJ36" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -16360,6 +16471,9 @@
       <c r="EI37" s="1" t="n">
         <v>170.4</v>
       </c>
+      <c r="EJ37" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -16779,6 +16893,9 @@
       <c r="EI38" s="1" t="n">
         <v>165.7</v>
       </c>
+      <c r="EJ38" s="1" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -17198,6 +17315,9 @@
       <c r="EI39" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="EJ39" s="3" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -17617,6 +17737,9 @@
       <c r="EI40" s="1" t="n">
         <v>176.6</v>
       </c>
+      <c r="EJ40" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -18036,6 +18159,9 @@
       <c r="EI41" s="1" t="n">
         <v>152.2</v>
       </c>
+      <c r="EJ41" s="1" t="n">
+        <v>149.3</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -18455,6 +18581,9 @@
       <c r="EI42" s="1" t="n">
         <v>176.2</v>
       </c>
+      <c r="EJ42" s="1" t="n">
+        <v>145.5</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -18874,6 +19003,9 @@
       <c r="EI43" s="1" t="n">
         <v>158.2</v>
       </c>
+      <c r="EJ43" s="1" t="n">
+        <v>184.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -19293,6 +19425,9 @@
       <c r="EI44" s="1" t="n">
         <v>226</v>
       </c>
+      <c r="EJ44" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -19712,6 +19847,9 @@
       <c r="EI45" s="1" t="n">
         <v>220.8</v>
       </c>
+      <c r="EJ45" s="1" t="n">
+        <v>295.4</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -20131,6 +20269,9 @@
       <c r="EI46" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="EJ46" s="1" t="n">
+        <v>190.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -20550,6 +20691,9 @@
       <c r="EI47" s="1" t="n">
         <v>142.7</v>
       </c>
+      <c r="EJ47" s="1" t="n">
+        <v>151.6</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -20969,6 +21113,9 @@
       <c r="EI48" s="2" t="n">
         <v>113.5</v>
       </c>
+      <c r="EJ48" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -21388,6 +21535,9 @@
       <c r="EI49" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="EJ49" s="1" t="n">
+        <v>160.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -21807,6 +21957,9 @@
       <c r="EI50" s="1" t="n">
         <v>196.6</v>
       </c>
+      <c r="EJ50" s="3" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -22225,6 +22378,9 @@
       </c>
       <c r="EI51" s="3" t="n">
         <v>139.8</v>
+      </c>
+      <c r="EJ51" s="1" t="n">
+        <v>156.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EJ51"/>
+  <dimension ref="A1:EK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,7 @@
     <col width="12" customWidth="1" min="138" max="138"/>
     <col width="12" customWidth="1" min="139" max="139"/>
     <col width="12" customWidth="1" min="140" max="140"/>
+    <col width="12" customWidth="1" min="141" max="141"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1282,6 +1283,11 @@
           <t>2025/01/26</t>
         </is>
       </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/27</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1704,6 +1710,9 @@
       <c r="EJ2" s="1" t="n">
         <v>173.8</v>
       </c>
+      <c r="EK2" s="1" t="n">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2126,6 +2135,9 @@
       <c r="EJ3" s="1" t="n">
         <v>142.4</v>
       </c>
+      <c r="EK3" s="1" t="n">
+        <v>204.9</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2548,6 +2560,9 @@
       <c r="EJ4" s="1" t="n">
         <v>164.5</v>
       </c>
+      <c r="EK4" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2970,6 +2985,9 @@
       <c r="EJ5" s="2" t="n">
         <v>118.9</v>
       </c>
+      <c r="EK5" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3392,6 +3410,9 @@
       <c r="EJ6" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="EK6" s="1" t="n">
+        <v>223.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3814,6 +3835,9 @@
       <c r="EJ7" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="EK7" s="1" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4236,6 +4260,9 @@
       <c r="EJ8" s="2" t="n">
         <v>119.9</v>
       </c>
+      <c r="EK8" s="1" t="n">
+        <v>170.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4658,6 +4685,9 @@
       <c r="EJ9" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="EK9" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5080,6 +5110,9 @@
       <c r="EJ10" s="1" t="n">
         <v>193.1</v>
       </c>
+      <c r="EK10" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5502,6 +5535,9 @@
       <c r="EJ11" s="3" t="n">
         <v>133.9</v>
       </c>
+      <c r="EK11" s="1" t="n">
+        <v>213.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5924,6 +5960,9 @@
       <c r="EJ12" s="3" t="n">
         <v>137.9</v>
       </c>
+      <c r="EK12" s="1" t="n">
+        <v>158.2</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6346,6 +6385,9 @@
       <c r="EJ13" s="1" t="n">
         <v>189.3</v>
       </c>
+      <c r="EK13" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6768,6 +6810,9 @@
       <c r="EJ14" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="EK14" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7190,6 +7235,9 @@
       <c r="EJ15" s="1" t="n">
         <v>200.2</v>
       </c>
+      <c r="EK15" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7612,6 +7660,9 @@
       <c r="EJ16" s="1" t="n">
         <v>175.8</v>
       </c>
+      <c r="EK16" s="1" t="n">
+        <v>158.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8034,6 +8085,9 @@
       <c r="EJ17" s="1" t="n">
         <v>203</v>
       </c>
+      <c r="EK17" s="1" t="n">
+        <v>157.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8456,6 +8510,9 @@
       <c r="EJ18" s="1" t="n">
         <v>141.4</v>
       </c>
+      <c r="EK18" s="1" t="n">
+        <v>220.9</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8878,6 +8935,9 @@
       <c r="EJ19" s="1" t="n">
         <v>163.4</v>
       </c>
+      <c r="EK19" s="1" t="n">
+        <v>150.2</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9300,6 +9360,9 @@
       <c r="EJ20" s="1" t="n">
         <v>167.9</v>
       </c>
+      <c r="EK20" s="1" t="n">
+        <v>217.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9722,6 +9785,9 @@
       <c r="EJ21" s="2" t="n">
         <v>122.2</v>
       </c>
+      <c r="EK21" s="3" t="n">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10144,6 +10210,9 @@
       <c r="EJ22" s="1" t="n">
         <v>167.3</v>
       </c>
+      <c r="EK22" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10566,6 +10635,9 @@
       <c r="EJ23" s="1" t="n">
         <v>239.5</v>
       </c>
+      <c r="EK23" s="1" t="n">
+        <v>158.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -10988,6 +11060,9 @@
       <c r="EJ24" s="1" t="n">
         <v>177.6</v>
       </c>
+      <c r="EK24" s="1" t="n">
+        <v>301.3</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11410,6 +11485,9 @@
       <c r="EJ25" s="3" t="n">
         <v>133.3</v>
       </c>
+      <c r="EK25" s="1" t="n">
+        <v>174.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11832,6 +11910,9 @@
       <c r="EJ26" s="1" t="n">
         <v>174.3</v>
       </c>
+      <c r="EK26" s="3" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12254,6 +12335,9 @@
       <c r="EJ27" s="1" t="n">
         <v>168.5</v>
       </c>
+      <c r="EK27" s="1" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12676,6 +12760,9 @@
       <c r="EJ28" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="EK28" s="3" t="n">
+        <v>125.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13098,6 +13185,9 @@
       <c r="EJ29" s="1" t="n">
         <v>162</v>
       </c>
+      <c r="EK29" s="1" t="n">
+        <v>153.7</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13520,6 +13610,9 @@
       <c r="EJ30" s="3" t="n">
         <v>137.6</v>
       </c>
+      <c r="EK30" s="2" t="n">
+        <v>119.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -13942,6 +14035,9 @@
       <c r="EJ31" s="1" t="n">
         <v>185.3</v>
       </c>
+      <c r="EK31" s="2" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -14364,6 +14460,9 @@
       <c r="EJ32" s="3" t="n">
         <v>127.2</v>
       </c>
+      <c r="EK32" s="1" t="n">
+        <v>173.1</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -14786,6 +14885,9 @@
       <c r="EJ33" s="2" t="n">
         <v>123</v>
       </c>
+      <c r="EK33" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -15208,6 +15310,9 @@
       <c r="EJ34" s="1" t="n">
         <v>282.7</v>
       </c>
+      <c r="EK34" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -15630,6 +15735,9 @@
       <c r="EJ35" s="1" t="n">
         <v>168.5</v>
       </c>
+      <c r="EK35" s="2" t="n">
+        <v>104.8</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -16052,6 +16160,9 @@
       <c r="EJ36" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="EK36" s="3" t="n">
+        <v>134.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -16474,6 +16585,9 @@
       <c r="EJ37" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="EK37" s="1" t="n">
+        <v>197.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -16896,6 +17010,9 @@
       <c r="EJ38" s="1" t="n">
         <v>194</v>
       </c>
+      <c r="EK38" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -17318,6 +17435,9 @@
       <c r="EJ39" s="3" t="n">
         <v>135</v>
       </c>
+      <c r="EK39" s="1" t="n">
+        <v>177.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -17740,6 +17860,9 @@
       <c r="EJ40" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="EK40" s="1" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -18162,6 +18285,9 @@
       <c r="EJ41" s="1" t="n">
         <v>149.3</v>
       </c>
+      <c r="EK41" s="1" t="n">
+        <v>165.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -18584,6 +18710,9 @@
       <c r="EJ42" s="1" t="n">
         <v>145.5</v>
       </c>
+      <c r="EK42" s="1" t="n">
+        <v>165.3</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -19006,6 +19135,9 @@
       <c r="EJ43" s="1" t="n">
         <v>184.9</v>
       </c>
+      <c r="EK43" s="1" t="n">
+        <v>151.3</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -19428,6 +19560,9 @@
       <c r="EJ44" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="EK44" s="1" t="n">
+        <v>197.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -19850,6 +19985,9 @@
       <c r="EJ45" s="1" t="n">
         <v>295.4</v>
       </c>
+      <c r="EK45" s="1" t="n">
+        <v>157.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -20272,6 +20410,9 @@
       <c r="EJ46" s="1" t="n">
         <v>190.3</v>
       </c>
+      <c r="EK46" s="2" t="n">
+        <v>111.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -20694,6 +20835,9 @@
       <c r="EJ47" s="1" t="n">
         <v>151.6</v>
       </c>
+      <c r="EK47" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -21116,6 +21260,9 @@
       <c r="EJ48" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="EK48" s="3" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -21538,6 +21685,9 @@
       <c r="EJ49" s="1" t="n">
         <v>160.8</v>
       </c>
+      <c r="EK49" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -21960,6 +22110,9 @@
       <c r="EJ50" s="3" t="n">
         <v>126.6</v>
       </c>
+      <c r="EK50" s="1" t="n">
+        <v>172.6</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -22381,6 +22534,9 @@
       </c>
       <c r="EJ51" s="1" t="n">
         <v>156.4</v>
+      </c>
+      <c r="EK51" s="1" t="n">
+        <v>153.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EK51"/>
+  <dimension ref="A1:EL51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,7 @@
     <col width="12" customWidth="1" min="139" max="139"/>
     <col width="12" customWidth="1" min="140" max="140"/>
     <col width="12" customWidth="1" min="141" max="141"/>
+    <col width="12" customWidth="1" min="142" max="142"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1288,6 +1289,11 @@
           <t>2025/01/27</t>
         </is>
       </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/28</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1713,6 +1719,9 @@
       <c r="EK2" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="EL2" s="1" t="n">
+        <v>146.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2138,6 +2147,9 @@
       <c r="EK3" s="1" t="n">
         <v>204.9</v>
       </c>
+      <c r="EL3" s="1" t="n">
+        <v>174.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2563,6 +2575,9 @@
       <c r="EK4" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="EL4" s="3" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -2988,6 +3003,9 @@
       <c r="EK5" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="EL5" s="2" t="n">
+        <v>116.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3413,6 +3431,9 @@
       <c r="EK6" s="1" t="n">
         <v>223.5</v>
       </c>
+      <c r="EL6" s="1" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3838,6 +3859,9 @@
       <c r="EK7" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="EL7" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4263,6 +4287,9 @@
       <c r="EK8" s="1" t="n">
         <v>170.1</v>
       </c>
+      <c r="EL8" s="3" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4688,6 +4715,9 @@
       <c r="EK9" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="EL9" s="1" t="n">
+        <v>226.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5113,6 +5143,9 @@
       <c r="EK10" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="EL10" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5538,6 +5571,9 @@
       <c r="EK11" s="1" t="n">
         <v>213.2</v>
       </c>
+      <c r="EL11" s="1" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -5963,6 +5999,9 @@
       <c r="EK12" s="1" t="n">
         <v>158.2</v>
       </c>
+      <c r="EL12" s="3" t="n">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6388,6 +6427,9 @@
       <c r="EK13" s="1" t="n">
         <v>146.6</v>
       </c>
+      <c r="EL13" s="2" t="n">
+        <v>110.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6813,6 +6855,9 @@
       <c r="EK14" s="1" t="n">
         <v>149.2</v>
       </c>
+      <c r="EL14" s="1" t="n">
+        <v>161.2</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7238,6 +7283,9 @@
       <c r="EK15" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="EL15" s="1" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7663,6 +7711,9 @@
       <c r="EK16" s="1" t="n">
         <v>158.3</v>
       </c>
+      <c r="EL16" s="3" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8088,6 +8139,9 @@
       <c r="EK17" s="1" t="n">
         <v>157.3</v>
       </c>
+      <c r="EL17" s="1" t="n">
+        <v>232.7</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8513,6 +8567,9 @@
       <c r="EK18" s="1" t="n">
         <v>220.9</v>
       </c>
+      <c r="EL18" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8938,6 +8995,9 @@
       <c r="EK19" s="1" t="n">
         <v>150.2</v>
       </c>
+      <c r="EL19" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9363,6 +9423,9 @@
       <c r="EK20" s="1" t="n">
         <v>217.3</v>
       </c>
+      <c r="EL20" s="1" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9788,6 +9851,9 @@
       <c r="EK21" s="3" t="n">
         <v>125.1</v>
       </c>
+      <c r="EL21" s="3" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10213,6 +10279,9 @@
       <c r="EK22" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="EL22" s="1" t="n">
+        <v>225.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10638,6 +10707,9 @@
       <c r="EK23" s="1" t="n">
         <v>158.5</v>
       </c>
+      <c r="EL23" s="3" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -11063,6 +11135,9 @@
       <c r="EK24" s="1" t="n">
         <v>301.3</v>
       </c>
+      <c r="EL24" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11488,6 +11563,9 @@
       <c r="EK25" s="1" t="n">
         <v>174.1</v>
       </c>
+      <c r="EL25" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11913,6 +11991,9 @@
       <c r="EK26" s="3" t="n">
         <v>130.7</v>
       </c>
+      <c r="EL26" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12338,6 +12419,9 @@
       <c r="EK27" s="1" t="n">
         <v>186</v>
       </c>
+      <c r="EL27" s="1" t="n">
+        <v>283.5</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12763,6 +12847,9 @@
       <c r="EK28" s="3" t="n">
         <v>125.3</v>
       </c>
+      <c r="EL28" s="1" t="n">
+        <v>180.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13188,6 +13275,9 @@
       <c r="EK29" s="1" t="n">
         <v>153.7</v>
       </c>
+      <c r="EL29" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13613,6 +13703,9 @@
       <c r="EK30" s="2" t="n">
         <v>119.9</v>
       </c>
+      <c r="EL30" s="1" t="n">
+        <v>183.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -14038,6 +14131,9 @@
       <c r="EK31" s="2" t="n">
         <v>121</v>
       </c>
+      <c r="EL31" s="1" t="n">
+        <v>326.2</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -14463,6 +14559,9 @@
       <c r="EK32" s="1" t="n">
         <v>173.1</v>
       </c>
+      <c r="EL32" s="1" t="n">
+        <v>190.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -14888,6 +14987,9 @@
       <c r="EK33" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="EL33" s="3" t="n">
+        <v>125.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -15313,6 +15415,9 @@
       <c r="EK34" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="EL34" s="1" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -15738,6 +15843,9 @@
       <c r="EK35" s="2" t="n">
         <v>104.8</v>
       </c>
+      <c r="EL35" s="1" t="n">
+        <v>185.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -16163,6 +16271,9 @@
       <c r="EK36" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="EL36" s="1" t="n">
+        <v>179.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -16588,6 +16699,9 @@
       <c r="EK37" s="1" t="n">
         <v>197.7</v>
       </c>
+      <c r="EL37" s="1" t="n">
+        <v>185.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -17013,6 +17127,9 @@
       <c r="EK38" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="EL38" s="1" t="n">
+        <v>183.2</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -17438,6 +17555,9 @@
       <c r="EK39" s="1" t="n">
         <v>177.3</v>
       </c>
+      <c r="EL39" s="1" t="n">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -17863,6 +17983,9 @@
       <c r="EK40" s="1" t="n">
         <v>164.3</v>
       </c>
+      <c r="EL40" s="1" t="n">
+        <v>157.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -18288,6 +18411,9 @@
       <c r="EK41" s="1" t="n">
         <v>165.6</v>
       </c>
+      <c r="EL41" s="3" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -18713,6 +18839,9 @@
       <c r="EK42" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="EL42" s="1" t="n">
+        <v>168.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -19138,6 +19267,9 @@
       <c r="EK43" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="EL43" s="1" t="n">
+        <v>201.6</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -19563,6 +19695,9 @@
       <c r="EK44" s="1" t="n">
         <v>197.8</v>
       </c>
+      <c r="EL44" s="1" t="n">
+        <v>167.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -19988,6 +20123,9 @@
       <c r="EK45" s="1" t="n">
         <v>157.9</v>
       </c>
+      <c r="EL45" s="3" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -20413,6 +20551,9 @@
       <c r="EK46" s="2" t="n">
         <v>111.6</v>
       </c>
+      <c r="EL46" s="1" t="n">
+        <v>157.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -20838,6 +20979,9 @@
       <c r="EK47" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="EL47" s="3" t="n">
+        <v>126.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -21263,6 +21407,9 @@
       <c r="EK48" s="3" t="n">
         <v>135.9</v>
       </c>
+      <c r="EL48" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -21688,6 +21835,9 @@
       <c r="EK49" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="EL49" s="1" t="n">
+        <v>154.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -22113,6 +22263,9 @@
       <c r="EK50" s="1" t="n">
         <v>172.6</v>
       </c>
+      <c r="EL50" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -22537,6 +22690,9 @@
       </c>
       <c r="EK51" s="1" t="n">
         <v>153.5</v>
+      </c>
+      <c r="EL51" s="1" t="n">
+        <v>181.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL51"/>
+  <dimension ref="A1:EM51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,6 +581,7 @@
     <col width="12" customWidth="1" min="140" max="140"/>
     <col width="12" customWidth="1" min="141" max="141"/>
     <col width="12" customWidth="1" min="142" max="142"/>
+    <col width="12" customWidth="1" min="143" max="143"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1294,6 +1295,11 @@
           <t>2025/01/28</t>
         </is>
       </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/29</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1722,6 +1728,9 @@
       <c r="EL2" s="1" t="n">
         <v>146.2</v>
       </c>
+      <c r="EM2" s="1" t="n">
+        <v>210.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2150,6 +2159,9 @@
       <c r="EL3" s="1" t="n">
         <v>174.4</v>
       </c>
+      <c r="EM3" s="3" t="n">
+        <v>137.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2578,6 +2590,9 @@
       <c r="EL4" s="3" t="n">
         <v>136.4</v>
       </c>
+      <c r="EM4" s="1" t="n">
+        <v>256.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3006,6 +3021,9 @@
       <c r="EL5" s="2" t="n">
         <v>116.6</v>
       </c>
+      <c r="EM5" s="2" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3434,6 +3452,9 @@
       <c r="EL6" s="1" t="n">
         <v>210</v>
       </c>
+      <c r="EM6" s="2" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3862,6 +3883,9 @@
       <c r="EL7" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="EM7" s="1" t="n">
+        <v>169.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4290,6 +4314,9 @@
       <c r="EL8" s="3" t="n">
         <v>133.4</v>
       </c>
+      <c r="EM8" s="3" t="n">
+        <v>128.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4718,6 +4745,9 @@
       <c r="EL9" s="1" t="n">
         <v>226.2</v>
       </c>
+      <c r="EM9" s="3" t="n">
+        <v>126.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5146,6 +5176,9 @@
       <c r="EL10" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="EM10" s="1" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5574,6 +5607,9 @@
       <c r="EL11" s="1" t="n">
         <v>187.7</v>
       </c>
+      <c r="EM11" s="1" t="n">
+        <v>153.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6002,6 +6038,9 @@
       <c r="EL12" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="EM12" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6430,6 +6469,9 @@
       <c r="EL13" s="2" t="n">
         <v>110.6</v>
       </c>
+      <c r="EM13" s="1" t="n">
+        <v>178.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6858,6 +6900,9 @@
       <c r="EL14" s="1" t="n">
         <v>161.2</v>
       </c>
+      <c r="EM14" s="1" t="n">
+        <v>171.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7286,6 +7331,9 @@
       <c r="EL15" s="1" t="n">
         <v>168.5</v>
       </c>
+      <c r="EM15" s="1" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7714,6 +7762,9 @@
       <c r="EL16" s="3" t="n">
         <v>133.9</v>
       </c>
+      <c r="EM16" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8142,6 +8193,9 @@
       <c r="EL17" s="1" t="n">
         <v>232.7</v>
       </c>
+      <c r="EM17" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8570,6 +8624,9 @@
       <c r="EL18" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="EM18" s="1" t="n">
+        <v>142.2</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -8998,6 +9055,9 @@
       <c r="EL19" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="EM19" s="1" t="n">
+        <v>181.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9426,6 +9486,9 @@
       <c r="EL20" s="1" t="n">
         <v>162.4</v>
       </c>
+      <c r="EM20" s="2" t="n">
+        <v>124.2</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9854,6 +9917,9 @@
       <c r="EL21" s="3" t="n">
         <v>127.1</v>
       </c>
+      <c r="EM21" s="3" t="n">
+        <v>129.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10282,6 +10348,9 @@
       <c r="EL22" s="1" t="n">
         <v>225.8</v>
       </c>
+      <c r="EM22" s="1" t="n">
+        <v>180.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10710,6 +10779,9 @@
       <c r="EL23" s="3" t="n">
         <v>133.6</v>
       </c>
+      <c r="EM23" s="3" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -11138,6 +11210,9 @@
       <c r="EL24" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="EM24" s="3" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11566,6 +11641,9 @@
       <c r="EL25" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="EM25" s="1" t="n">
+        <v>208.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -11994,6 +12072,9 @@
       <c r="EL26" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="EM26" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12422,6 +12503,9 @@
       <c r="EL27" s="1" t="n">
         <v>283.5</v>
       </c>
+      <c r="EM27" s="3" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12850,6 +12934,9 @@
       <c r="EL28" s="1" t="n">
         <v>180.8</v>
       </c>
+      <c r="EM28" s="1" t="n">
+        <v>232.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13278,6 +13365,9 @@
       <c r="EL29" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="EM29" s="2" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13706,6 +13796,9 @@
       <c r="EL30" s="1" t="n">
         <v>183.9</v>
       </c>
+      <c r="EM30" s="2" t="n">
+        <v>116.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -14134,6 +14227,9 @@
       <c r="EL31" s="1" t="n">
         <v>326.2</v>
       </c>
+      <c r="EM31" s="2" t="n">
+        <v>123.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -14562,6 +14658,9 @@
       <c r="EL32" s="1" t="n">
         <v>190.3</v>
       </c>
+      <c r="EM32" s="1" t="n">
+        <v>200.8</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -14990,6 +15089,9 @@
       <c r="EL33" s="3" t="n">
         <v>125.6</v>
       </c>
+      <c r="EM33" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -15418,6 +15520,9 @@
       <c r="EL34" s="1" t="n">
         <v>187.3</v>
       </c>
+      <c r="EM34" s="1" t="n">
+        <v>230.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -15846,6 +15951,9 @@
       <c r="EL35" s="1" t="n">
         <v>185.5</v>
       </c>
+      <c r="EM35" s="2" t="n">
+        <v>121.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -16274,6 +16382,9 @@
       <c r="EL36" s="1" t="n">
         <v>179.6</v>
       </c>
+      <c r="EM36" s="1" t="n">
+        <v>140.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -16702,6 +16813,9 @@
       <c r="EL37" s="1" t="n">
         <v>185.9</v>
       </c>
+      <c r="EM37" s="2" t="n">
+        <v>115.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -17130,6 +17244,9 @@
       <c r="EL38" s="1" t="n">
         <v>183.2</v>
       </c>
+      <c r="EM38" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -17558,6 +17675,9 @@
       <c r="EL39" s="1" t="n">
         <v>167.6</v>
       </c>
+      <c r="EM39" s="3" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -17986,6 +18106,9 @@
       <c r="EL40" s="1" t="n">
         <v>157.1</v>
       </c>
+      <c r="EM40" s="1" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -18414,6 +18537,9 @@
       <c r="EL41" s="3" t="n">
         <v>131.2</v>
       </c>
+      <c r="EM41" s="1" t="n">
+        <v>157.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -18842,6 +18968,9 @@
       <c r="EL42" s="1" t="n">
         <v>168.9</v>
       </c>
+      <c r="EM42" s="1" t="n">
+        <v>205.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -19270,6 +19399,9 @@
       <c r="EL43" s="1" t="n">
         <v>201.6</v>
       </c>
+      <c r="EM43" s="1" t="n">
+        <v>193.7</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -19698,6 +19830,9 @@
       <c r="EL44" s="1" t="n">
         <v>167.7</v>
       </c>
+      <c r="EM44" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -20126,6 +20261,9 @@
       <c r="EL45" s="3" t="n">
         <v>139.1</v>
       </c>
+      <c r="EM45" s="1" t="n">
+        <v>200.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -20554,6 +20692,9 @@
       <c r="EL46" s="1" t="n">
         <v>157.6</v>
       </c>
+      <c r="EM46" s="1" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -20982,6 +21123,9 @@
       <c r="EL47" s="3" t="n">
         <v>126.8</v>
       </c>
+      <c r="EM47" s="3" t="n">
+        <v>136.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -21410,6 +21554,9 @@
       <c r="EL48" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="EM48" s="3" t="n">
+        <v>135.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -21838,6 +21985,9 @@
       <c r="EL49" s="1" t="n">
         <v>154.1</v>
       </c>
+      <c r="EM49" s="1" t="n">
+        <v>177.9</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -22266,6 +22416,9 @@
       <c r="EL50" s="1" t="n">
         <v>146.7</v>
       </c>
+      <c r="EM50" s="3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -22693,6 +22846,9 @@
       </c>
       <c r="EL51" s="1" t="n">
         <v>181.1</v>
+      </c>
+      <c r="EM51" s="1" t="n">
+        <v>150.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EM51"/>
+  <dimension ref="A1:EN51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,6 +582,7 @@
     <col width="12" customWidth="1" min="141" max="141"/>
     <col width="12" customWidth="1" min="142" max="142"/>
     <col width="12" customWidth="1" min="143" max="143"/>
+    <col width="12" customWidth="1" min="144" max="144"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1300,6 +1301,11 @@
           <t>2025/01/29</t>
         </is>
       </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/30</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1731,6 +1737,9 @@
       <c r="EM2" s="1" t="n">
         <v>210.9</v>
       </c>
+      <c r="EN2" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2162,6 +2171,9 @@
       <c r="EM3" s="3" t="n">
         <v>137.8</v>
       </c>
+      <c r="EN3" s="1" t="n">
+        <v>174.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2593,6 +2605,9 @@
       <c r="EM4" s="1" t="n">
         <v>256.3</v>
       </c>
+      <c r="EN4" s="3" t="n">
+        <v>126.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3024,6 +3039,9 @@
       <c r="EM5" s="2" t="n">
         <v>120</v>
       </c>
+      <c r="EN5" s="3" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3455,6 +3473,9 @@
       <c r="EM6" s="2" t="n">
         <v>118</v>
       </c>
+      <c r="EN6" s="1" t="n">
+        <v>178.7</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3886,6 +3907,9 @@
       <c r="EM7" s="1" t="n">
         <v>169.6</v>
       </c>
+      <c r="EN7" s="1" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4317,6 +4341,9 @@
       <c r="EM8" s="3" t="n">
         <v>128.3</v>
       </c>
+      <c r="EN8" s="2" t="n">
+        <v>116.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4748,6 +4775,9 @@
       <c r="EM9" s="3" t="n">
         <v>126.1</v>
       </c>
+      <c r="EN9" s="3" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5179,6 +5209,9 @@
       <c r="EM10" s="1" t="n">
         <v>141</v>
       </c>
+      <c r="EN10" s="1" t="n">
+        <v>147.9</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5610,6 +5643,9 @@
       <c r="EM11" s="1" t="n">
         <v>153.9</v>
       </c>
+      <c r="EN11" s="3" t="n">
+        <v>131.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6041,6 +6077,9 @@
       <c r="EM12" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="EN12" s="1" t="n">
+        <v>191.4</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6472,6 +6511,9 @@
       <c r="EM13" s="1" t="n">
         <v>178.7</v>
       </c>
+      <c r="EN13" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6903,6 +6945,9 @@
       <c r="EM14" s="1" t="n">
         <v>171.5</v>
       </c>
+      <c r="EN14" s="1" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7334,6 +7379,9 @@
       <c r="EM15" s="1" t="n">
         <v>151.8</v>
       </c>
+      <c r="EN15" s="1" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7765,6 +7813,9 @@
       <c r="EM16" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="EN16" s="1" t="n">
+        <v>169.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8196,6 +8247,9 @@
       <c r="EM17" s="1" t="n">
         <v>141.1</v>
       </c>
+      <c r="EN17" s="1" t="n">
+        <v>147.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8627,6 +8681,9 @@
       <c r="EM18" s="1" t="n">
         <v>142.2</v>
       </c>
+      <c r="EN18" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -9058,6 +9115,9 @@
       <c r="EM19" s="1" t="n">
         <v>181.7</v>
       </c>
+      <c r="EN19" s="1" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9489,6 +9549,9 @@
       <c r="EM20" s="2" t="n">
         <v>124.2</v>
       </c>
+      <c r="EN20" s="1" t="n">
+        <v>151.2</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9920,6 +9983,9 @@
       <c r="EM21" s="3" t="n">
         <v>129.2</v>
       </c>
+      <c r="EN21" s="1" t="n">
+        <v>168.9</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10351,6 +10417,9 @@
       <c r="EM22" s="1" t="n">
         <v>180.7</v>
       </c>
+      <c r="EN22" s="3" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10782,6 +10851,9 @@
       <c r="EM23" s="3" t="n">
         <v>132.2</v>
       </c>
+      <c r="EN23" s="1" t="n">
+        <v>175.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -11213,6 +11285,9 @@
       <c r="EM24" s="3" t="n">
         <v>125.9</v>
       </c>
+      <c r="EN24" s="1" t="n">
+        <v>179.6</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11644,6 +11719,9 @@
       <c r="EM25" s="1" t="n">
         <v>208.1</v>
       </c>
+      <c r="EN25" s="1" t="n">
+        <v>143.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -12075,6 +12153,9 @@
       <c r="EM26" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="EN26" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12506,6 +12587,9 @@
       <c r="EM27" s="3" t="n">
         <v>128</v>
       </c>
+      <c r="EN27" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -12937,6 +13021,9 @@
       <c r="EM28" s="1" t="n">
         <v>232.3</v>
       </c>
+      <c r="EN28" s="3" t="n">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13368,6 +13455,9 @@
       <c r="EM29" s="2" t="n">
         <v>117</v>
       </c>
+      <c r="EN29" s="1" t="n">
+        <v>163.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13799,6 +13889,9 @@
       <c r="EM30" s="2" t="n">
         <v>116.8</v>
       </c>
+      <c r="EN30" s="1" t="n">
+        <v>216.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -14230,6 +14323,9 @@
       <c r="EM31" s="2" t="n">
         <v>123.9</v>
       </c>
+      <c r="EN31" s="1" t="n">
+        <v>166.9</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -14661,6 +14757,9 @@
       <c r="EM32" s="1" t="n">
         <v>200.8</v>
       </c>
+      <c r="EN32" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -15092,6 +15191,9 @@
       <c r="EM33" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="EN33" s="1" t="n">
+        <v>204.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -15523,6 +15625,9 @@
       <c r="EM34" s="1" t="n">
         <v>230.5</v>
       </c>
+      <c r="EN34" s="2" t="n">
+        <v>119.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -15954,6 +16059,9 @@
       <c r="EM35" s="2" t="n">
         <v>121.5</v>
       </c>
+      <c r="EN35" s="3" t="n">
+        <v>138.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -16385,6 +16493,9 @@
       <c r="EM36" s="1" t="n">
         <v>140.5</v>
       </c>
+      <c r="EN36" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -16816,6 +16927,9 @@
       <c r="EM37" s="2" t="n">
         <v>115.4</v>
       </c>
+      <c r="EN37" s="1" t="n">
+        <v>156.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -17247,6 +17361,9 @@
       <c r="EM38" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="EN38" s="1" t="n">
+        <v>152.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -17678,6 +17795,9 @@
       <c r="EM39" s="3" t="n">
         <v>135</v>
       </c>
+      <c r="EN39" s="1" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -18109,6 +18229,9 @@
       <c r="EM40" s="1" t="n">
         <v>287</v>
       </c>
+      <c r="EN40" s="2" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -18540,6 +18663,9 @@
       <c r="EM41" s="1" t="n">
         <v>157.4</v>
       </c>
+      <c r="EN41" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -18971,6 +19097,9 @@
       <c r="EM42" s="1" t="n">
         <v>205.9</v>
       </c>
+      <c r="EN42" s="1" t="n">
+        <v>184.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -19402,6 +19531,9 @@
       <c r="EM43" s="1" t="n">
         <v>193.7</v>
       </c>
+      <c r="EN43" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -19833,6 +19965,9 @@
       <c r="EM44" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="EN44" s="1" t="n">
+        <v>248.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -20264,6 +20399,9 @@
       <c r="EM45" s="1" t="n">
         <v>200.8</v>
       </c>
+      <c r="EN45" s="1" t="n">
+        <v>174.7</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -20695,6 +20833,9 @@
       <c r="EM46" s="1" t="n">
         <v>162.4</v>
       </c>
+      <c r="EN46" s="1" t="n">
+        <v>223.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -21126,6 +21267,9 @@
       <c r="EM47" s="3" t="n">
         <v>136.7</v>
       </c>
+      <c r="EN47" s="1" t="n">
+        <v>150.3</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -21557,6 +21701,9 @@
       <c r="EM48" s="3" t="n">
         <v>135.9</v>
       </c>
+      <c r="EN48" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -21988,6 +22135,9 @@
       <c r="EM49" s="1" t="n">
         <v>177.9</v>
       </c>
+      <c r="EN49" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -22419,6 +22569,9 @@
       <c r="EM50" s="3" t="n">
         <v>131</v>
       </c>
+      <c r="EN50" s="2" t="n">
+        <v>114.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -22849,6 +23002,9 @@
       </c>
       <c r="EM51" s="1" t="n">
         <v>150.5</v>
+      </c>
+      <c r="EN51" s="1" t="n">
+        <v>179.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EN51"/>
+  <dimension ref="A1:EO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,6 +583,7 @@
     <col width="12" customWidth="1" min="142" max="142"/>
     <col width="12" customWidth="1" min="143" max="143"/>
     <col width="12" customWidth="1" min="144" max="144"/>
+    <col width="12" customWidth="1" min="145" max="145"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1306,6 +1307,11 @@
           <t>2025/01/30</t>
         </is>
       </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2025/01/31</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1740,6 +1746,9 @@
       <c r="EN2" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="EO2" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2174,6 +2183,9 @@
       <c r="EN3" s="1" t="n">
         <v>174.8</v>
       </c>
+      <c r="EO3" s="1" t="n">
+        <v>190.2</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2608,6 +2620,9 @@
       <c r="EN4" s="3" t="n">
         <v>126.3</v>
       </c>
+      <c r="EO4" s="1" t="n">
+        <v>168.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3042,6 +3057,9 @@
       <c r="EN5" s="3" t="n">
         <v>135.7</v>
       </c>
+      <c r="EO5" s="1" t="n">
+        <v>196.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3476,6 +3494,9 @@
       <c r="EN6" s="1" t="n">
         <v>178.7</v>
       </c>
+      <c r="EO6" s="1" t="n">
+        <v>233.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3910,6 +3931,9 @@
       <c r="EN7" s="1" t="n">
         <v>179</v>
       </c>
+      <c r="EO7" s="1" t="n">
+        <v>154.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4344,6 +4368,9 @@
       <c r="EN8" s="2" t="n">
         <v>116.8</v>
       </c>
+      <c r="EO8" s="1" t="n">
+        <v>158.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4778,6 +4805,9 @@
       <c r="EN9" s="3" t="n">
         <v>133.6</v>
       </c>
+      <c r="EO9" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5212,6 +5242,9 @@
       <c r="EN10" s="1" t="n">
         <v>147.9</v>
       </c>
+      <c r="EO10" s="1" t="n">
+        <v>185.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5646,6 +5679,9 @@
       <c r="EN11" s="3" t="n">
         <v>131.6</v>
       </c>
+      <c r="EO11" s="1" t="n">
+        <v>169.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6080,6 +6116,9 @@
       <c r="EN12" s="1" t="n">
         <v>191.4</v>
       </c>
+      <c r="EO12" s="1" t="n">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6514,6 +6553,9 @@
       <c r="EN13" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="EO13" s="1" t="n">
+        <v>164.1</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6948,6 +6990,9 @@
       <c r="EN14" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="EO14" s="1" t="n">
+        <v>159.3</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7382,6 +7427,9 @@
       <c r="EN15" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="EO15" s="1" t="n">
+        <v>166.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7816,6 +7864,9 @@
       <c r="EN16" s="1" t="n">
         <v>169.7</v>
       </c>
+      <c r="EO16" s="1" t="n">
+        <v>263.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8250,6 +8301,9 @@
       <c r="EN17" s="1" t="n">
         <v>147.3</v>
       </c>
+      <c r="EO17" s="2" t="n">
+        <v>124.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8684,6 +8738,9 @@
       <c r="EN18" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="EO18" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -9118,6 +9175,9 @@
       <c r="EN19" s="1" t="n">
         <v>168</v>
       </c>
+      <c r="EO19" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9552,6 +9612,9 @@
       <c r="EN20" s="1" t="n">
         <v>151.2</v>
       </c>
+      <c r="EO20" s="1" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -9986,6 +10049,9 @@
       <c r="EN21" s="1" t="n">
         <v>168.9</v>
       </c>
+      <c r="EO21" s="3" t="n">
+        <v>139.3</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10420,6 +10486,9 @@
       <c r="EN22" s="3" t="n">
         <v>130.3</v>
       </c>
+      <c r="EO22" s="1" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10854,6 +10923,9 @@
       <c r="EN23" s="1" t="n">
         <v>175.8</v>
       </c>
+      <c r="EO23" s="1" t="n">
+        <v>152.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -11288,6 +11360,9 @@
       <c r="EN24" s="1" t="n">
         <v>179.6</v>
       </c>
+      <c r="EO24" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11722,6 +11797,9 @@
       <c r="EN25" s="1" t="n">
         <v>143.2</v>
       </c>
+      <c r="EO25" s="1" t="n">
+        <v>238.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -12156,6 +12234,9 @@
       <c r="EN26" s="3" t="n">
         <v>135.8</v>
       </c>
+      <c r="EO26" s="1" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12590,6 +12671,9 @@
       <c r="EN27" s="1" t="n">
         <v>146.7</v>
       </c>
+      <c r="EO27" s="1" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -13024,6 +13108,9 @@
       <c r="EN28" s="3" t="n">
         <v>125.1</v>
       </c>
+      <c r="EO28" s="3" t="n">
+        <v>126.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13458,6 +13545,9 @@
       <c r="EN29" s="1" t="n">
         <v>163.6</v>
       </c>
+      <c r="EO29" s="1" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13892,6 +13982,9 @@
       <c r="EN30" s="1" t="n">
         <v>216.5</v>
       </c>
+      <c r="EO30" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -14326,6 +14419,9 @@
       <c r="EN31" s="1" t="n">
         <v>166.9</v>
       </c>
+      <c r="EO31" s="1" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -14760,6 +14856,9 @@
       <c r="EN32" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="EO32" s="1" t="n">
+        <v>192.6</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -15194,6 +15293,9 @@
       <c r="EN33" s="1" t="n">
         <v>204.2</v>
       </c>
+      <c r="EO33" s="3" t="n">
+        <v>132.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -15628,6 +15730,9 @@
       <c r="EN34" s="2" t="n">
         <v>119.2</v>
       </c>
+      <c r="EO34" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -16062,6 +16167,9 @@
       <c r="EN35" s="3" t="n">
         <v>138.1</v>
       </c>
+      <c r="EO35" s="1" t="n">
+        <v>175.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -16496,6 +16604,9 @@
       <c r="EN36" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="EO36" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -16930,6 +17041,9 @@
       <c r="EN37" s="1" t="n">
         <v>156.7</v>
       </c>
+      <c r="EO37" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -17364,6 +17478,9 @@
       <c r="EN38" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="EO38" s="1" t="n">
+        <v>156.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -17798,6 +17915,9 @@
       <c r="EN39" s="1" t="n">
         <v>141</v>
       </c>
+      <c r="EO39" s="3" t="n">
+        <v>134.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -18232,6 +18352,9 @@
       <c r="EN40" s="2" t="n">
         <v>112.6</v>
       </c>
+      <c r="EO40" s="1" t="n">
+        <v>195.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -18666,6 +18789,9 @@
       <c r="EN41" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="EO41" s="1" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -19100,6 +19226,9 @@
       <c r="EN42" s="1" t="n">
         <v>184.9</v>
       </c>
+      <c r="EO42" s="3" t="n">
+        <v>139.7</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -19534,6 +19663,9 @@
       <c r="EN43" s="1" t="n">
         <v>149.2</v>
       </c>
+      <c r="EO43" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -19968,6 +20100,9 @@
       <c r="EN44" s="1" t="n">
         <v>248.5</v>
       </c>
+      <c r="EO44" s="1" t="n">
+        <v>184.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -20402,6 +20537,9 @@
       <c r="EN45" s="1" t="n">
         <v>174.7</v>
       </c>
+      <c r="EO45" s="1" t="n">
+        <v>150.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -20836,6 +20974,9 @@
       <c r="EN46" s="1" t="n">
         <v>223.4</v>
       </c>
+      <c r="EO46" s="1" t="n">
+        <v>143.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -21270,6 +21411,9 @@
       <c r="EN47" s="1" t="n">
         <v>150.3</v>
       </c>
+      <c r="EO47" s="1" t="n">
+        <v>165.3</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -21704,6 +21848,9 @@
       <c r="EN48" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="EO48" s="3" t="n">
+        <v>136.6</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -22138,6 +22285,9 @@
       <c r="EN49" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="EO49" s="1" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -22572,6 +22722,9 @@
       <c r="EN50" s="2" t="n">
         <v>114.7</v>
       </c>
+      <c r="EO50" s="1" t="n">
+        <v>143.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -23005,6 +23158,9 @@
       </c>
       <c r="EN51" s="1" t="n">
         <v>179.2</v>
+      </c>
+      <c r="EO51" s="1" t="n">
+        <v>183.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EO51"/>
+  <dimension ref="A1:EP51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,6 +584,7 @@
     <col width="12" customWidth="1" min="143" max="143"/>
     <col width="12" customWidth="1" min="144" max="144"/>
     <col width="12" customWidth="1" min="145" max="145"/>
+    <col width="12" customWidth="1" min="146" max="146"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1312,6 +1313,11 @@
           <t>2025/01/31</t>
         </is>
       </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/01</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1749,6 +1755,9 @@
       <c r="EO2" s="1" t="n">
         <v>153.4</v>
       </c>
+      <c r="EP2" s="1" t="n">
+        <v>182.5</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2186,6 +2195,9 @@
       <c r="EO3" s="1" t="n">
         <v>190.2</v>
       </c>
+      <c r="EP3" s="3" t="n">
+        <v>125.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2623,6 +2635,9 @@
       <c r="EO4" s="1" t="n">
         <v>168.3</v>
       </c>
+      <c r="EP4" s="1" t="n">
+        <v>174.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3060,6 +3075,9 @@
       <c r="EO5" s="1" t="n">
         <v>196.8</v>
       </c>
+      <c r="EP5" s="3" t="n">
+        <v>126.7</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3497,6 +3515,9 @@
       <c r="EO6" s="1" t="n">
         <v>233.8</v>
       </c>
+      <c r="EP6" s="3" t="n">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3934,6 +3955,9 @@
       <c r="EO7" s="1" t="n">
         <v>154.6</v>
       </c>
+      <c r="EP7" s="1" t="n">
+        <v>170.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4371,6 +4395,9 @@
       <c r="EO8" s="1" t="n">
         <v>158.3</v>
       </c>
+      <c r="EP8" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4808,6 +4835,9 @@
       <c r="EO9" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="EP9" s="1" t="n">
+        <v>193.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5245,6 +5275,9 @@
       <c r="EO10" s="1" t="n">
         <v>185.6</v>
       </c>
+      <c r="EP10" s="1" t="n">
+        <v>175.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5682,6 +5715,9 @@
       <c r="EO11" s="1" t="n">
         <v>169.6</v>
       </c>
+      <c r="EP11" s="3" t="n">
+        <v>132.7</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6119,6 +6155,9 @@
       <c r="EO12" s="1" t="n">
         <v>166.3</v>
       </c>
+      <c r="EP12" s="1" t="n">
+        <v>152.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6556,6 +6595,9 @@
       <c r="EO13" s="1" t="n">
         <v>164.1</v>
       </c>
+      <c r="EP13" s="1" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -6993,6 +7035,9 @@
       <c r="EO14" s="1" t="n">
         <v>159.3</v>
       </c>
+      <c r="EP14" s="3" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7430,6 +7475,9 @@
       <c r="EO15" s="1" t="n">
         <v>166.8</v>
       </c>
+      <c r="EP15" s="3" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7867,6 +7915,9 @@
       <c r="EO16" s="1" t="n">
         <v>263.1</v>
       </c>
+      <c r="EP16" s="3" t="n">
+        <v>128.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8304,6 +8355,9 @@
       <c r="EO17" s="2" t="n">
         <v>124.3</v>
       </c>
+      <c r="EP17" s="1" t="n">
+        <v>151.6</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8741,6 +8795,9 @@
       <c r="EO18" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="EP18" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -9178,6 +9235,9 @@
       <c r="EO19" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="EP19" s="3" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9615,6 +9675,9 @@
       <c r="EO20" s="1" t="n">
         <v>187.7</v>
       </c>
+      <c r="EP20" s="3" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -10052,6 +10115,9 @@
       <c r="EO21" s="3" t="n">
         <v>139.3</v>
       </c>
+      <c r="EP21" s="1" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10489,6 +10555,9 @@
       <c r="EO22" s="1" t="n">
         <v>179</v>
       </c>
+      <c r="EP22" s="3" t="n">
+        <v>138.2</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10926,6 +10995,9 @@
       <c r="EO23" s="1" t="n">
         <v>152.6</v>
       </c>
+      <c r="EP23" s="1" t="n">
+        <v>168.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -11363,6 +11435,9 @@
       <c r="EO24" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="EP24" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11800,6 +11875,9 @@
       <c r="EO25" s="1" t="n">
         <v>238.6</v>
       </c>
+      <c r="EP25" s="1" t="n">
+        <v>213.4</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -12237,6 +12315,9 @@
       <c r="EO26" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="EP26" s="1" t="n">
+        <v>175.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12674,6 +12755,9 @@
       <c r="EO27" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="EP27" s="1" t="n">
+        <v>155.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -13111,6 +13195,9 @@
       <c r="EO28" s="3" t="n">
         <v>126.3</v>
       </c>
+      <c r="EP28" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13548,6 +13635,9 @@
       <c r="EO29" s="1" t="n">
         <v>168.5</v>
       </c>
+      <c r="EP29" s="3" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -13985,6 +14075,9 @@
       <c r="EO30" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="EP30" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -14422,6 +14515,9 @@
       <c r="EO31" s="1" t="n">
         <v>150.1</v>
       </c>
+      <c r="EP31" s="3" t="n">
+        <v>138.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -14859,6 +14955,9 @@
       <c r="EO32" s="1" t="n">
         <v>192.6</v>
       </c>
+      <c r="EP32" s="1" t="n">
+        <v>153.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -15296,6 +15395,9 @@
       <c r="EO33" s="3" t="n">
         <v>132.6</v>
       </c>
+      <c r="EP33" s="1" t="n">
+        <v>190.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -15733,6 +15835,9 @@
       <c r="EO34" s="1" t="n">
         <v>148.5</v>
       </c>
+      <c r="EP34" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -16170,6 +16275,9 @@
       <c r="EO35" s="1" t="n">
         <v>175.9</v>
       </c>
+      <c r="EP35" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -16607,6 +16715,9 @@
       <c r="EO36" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="EP36" s="3" t="n">
+        <v>135.3</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -17044,6 +17155,9 @@
       <c r="EO37" s="1" t="n">
         <v>142.3</v>
       </c>
+      <c r="EP37" s="3" t="n">
+        <v>131.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -17481,6 +17595,9 @@
       <c r="EO38" s="1" t="n">
         <v>156.5</v>
       </c>
+      <c r="EP38" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -17918,6 +18035,9 @@
       <c r="EO39" s="3" t="n">
         <v>134.7</v>
       </c>
+      <c r="EP39" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -18355,6 +18475,9 @@
       <c r="EO40" s="1" t="n">
         <v>195.7</v>
       </c>
+      <c r="EP40" s="1" t="n">
+        <v>147.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -18792,6 +18915,9 @@
       <c r="EO41" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="EP41" s="1" t="n">
+        <v>207.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -19229,6 +19355,9 @@
       <c r="EO42" s="3" t="n">
         <v>139.7</v>
       </c>
+      <c r="EP42" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -19666,6 +19795,9 @@
       <c r="EO43" s="1" t="n">
         <v>149.2</v>
       </c>
+      <c r="EP43" s="1" t="n">
+        <v>199.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -20103,6 +20235,9 @@
       <c r="EO44" s="1" t="n">
         <v>184.2</v>
       </c>
+      <c r="EP44" s="1" t="n">
+        <v>145.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -20540,6 +20675,9 @@
       <c r="EO45" s="1" t="n">
         <v>150.9</v>
       </c>
+      <c r="EP45" s="1" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -20977,6 +21115,9 @@
       <c r="EO46" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="EP46" s="1" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -21414,6 +21555,9 @@
       <c r="EO47" s="1" t="n">
         <v>165.3</v>
       </c>
+      <c r="EP47" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -21851,6 +21995,9 @@
       <c r="EO48" s="3" t="n">
         <v>136.6</v>
       </c>
+      <c r="EP48" s="1" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -22288,6 +22435,9 @@
       <c r="EO49" s="1" t="n">
         <v>190</v>
       </c>
+      <c r="EP49" s="1" t="n">
+        <v>164.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -22725,6 +22875,9 @@
       <c r="EO50" s="1" t="n">
         <v>143.2</v>
       </c>
+      <c r="EP50" s="1" t="n">
+        <v>146.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -23161,6 +23314,9 @@
       </c>
       <c r="EO51" s="1" t="n">
         <v>183.2</v>
+      </c>
+      <c r="EP51" s="1" t="n">
+        <v>176.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EP51"/>
+  <dimension ref="A1:EQ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,7 @@
     <col width="12" customWidth="1" min="144" max="144"/>
     <col width="12" customWidth="1" min="145" max="145"/>
     <col width="12" customWidth="1" min="146" max="146"/>
+    <col width="12" customWidth="1" min="147" max="147"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1318,6 +1319,11 @@
           <t>2025/02/01</t>
         </is>
       </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/02</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1758,6 +1764,9 @@
       <c r="EP2" s="1" t="n">
         <v>182.5</v>
       </c>
+      <c r="EQ2" s="2" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2198,6 +2207,9 @@
       <c r="EP3" s="3" t="n">
         <v>125.5</v>
       </c>
+      <c r="EQ3" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2638,6 +2650,9 @@
       <c r="EP4" s="1" t="n">
         <v>174.8</v>
       </c>
+      <c r="EQ4" s="2" t="n">
+        <v>112.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3078,6 +3093,9 @@
       <c r="EP5" s="3" t="n">
         <v>126.7</v>
       </c>
+      <c r="EQ5" s="1" t="n">
+        <v>164.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3518,6 +3536,9 @@
       <c r="EP6" s="3" t="n">
         <v>129.4</v>
       </c>
+      <c r="EQ6" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3958,6 +3979,9 @@
       <c r="EP7" s="1" t="n">
         <v>170.2</v>
       </c>
+      <c r="EQ7" s="1" t="n">
+        <v>159.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4398,6 +4422,9 @@
       <c r="EP8" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="EQ8" s="1" t="n">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4838,6 +4865,9 @@
       <c r="EP9" s="1" t="n">
         <v>193.7</v>
       </c>
+      <c r="EQ9" s="1" t="n">
+        <v>179.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5278,6 +5308,9 @@
       <c r="EP10" s="1" t="n">
         <v>175.2</v>
       </c>
+      <c r="EQ10" s="2" t="n">
+        <v>124.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5718,6 +5751,9 @@
       <c r="EP11" s="3" t="n">
         <v>132.7</v>
       </c>
+      <c r="EQ11" s="1" t="n">
+        <v>213.1</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6158,6 +6194,9 @@
       <c r="EP12" s="1" t="n">
         <v>152.3</v>
       </c>
+      <c r="EQ12" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6598,6 +6637,9 @@
       <c r="EP13" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="EQ13" s="1" t="n">
+        <v>158.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7038,6 +7080,9 @@
       <c r="EP14" s="3" t="n">
         <v>134.8</v>
       </c>
+      <c r="EQ14" s="3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7478,6 +7523,9 @@
       <c r="EP15" s="3" t="n">
         <v>129.9</v>
       </c>
+      <c r="EQ15" s="2" t="n">
+        <v>105.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7918,6 +7966,9 @@
       <c r="EP16" s="3" t="n">
         <v>128.1</v>
       </c>
+      <c r="EQ16" s="1" t="n">
+        <v>184.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8358,6 +8409,9 @@
       <c r="EP17" s="1" t="n">
         <v>151.6</v>
       </c>
+      <c r="EQ17" s="2" t="n">
+        <v>122.6</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8798,6 +8852,9 @@
       <c r="EP18" s="1" t="n">
         <v>146.6</v>
       </c>
+      <c r="EQ18" s="1" t="n">
+        <v>143.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -9238,6 +9295,9 @@
       <c r="EP19" s="3" t="n">
         <v>133.9</v>
       </c>
+      <c r="EQ19" s="2" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9678,6 +9738,9 @@
       <c r="EP20" s="3" t="n">
         <v>138</v>
       </c>
+      <c r="EQ20" s="1" t="n">
+        <v>173.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -10118,6 +10181,9 @@
       <c r="EP21" s="1" t="n">
         <v>145.1</v>
       </c>
+      <c r="EQ21" s="1" t="n">
+        <v>189.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10558,6 +10624,9 @@
       <c r="EP22" s="3" t="n">
         <v>138.2</v>
       </c>
+      <c r="EQ22" s="2" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -10998,6 +11067,9 @@
       <c r="EP23" s="1" t="n">
         <v>168.1</v>
       </c>
+      <c r="EQ23" s="1" t="n">
+        <v>183.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -11438,6 +11510,9 @@
       <c r="EP24" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="EQ24" s="1" t="n">
+        <v>180.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11878,6 +11953,9 @@
       <c r="EP25" s="1" t="n">
         <v>213.4</v>
       </c>
+      <c r="EQ25" s="1" t="n">
+        <v>192.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -12318,6 +12396,9 @@
       <c r="EP26" s="1" t="n">
         <v>175.5</v>
       </c>
+      <c r="EQ26" s="1" t="n">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12758,6 +12839,9 @@
       <c r="EP27" s="1" t="n">
         <v>155.6</v>
       </c>
+      <c r="EQ27" s="1" t="n">
+        <v>244.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -13198,6 +13282,9 @@
       <c r="EP28" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="EQ28" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13638,6 +13725,9 @@
       <c r="EP29" s="3" t="n">
         <v>128</v>
       </c>
+      <c r="EQ29" s="1" t="n">
+        <v>144.8</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -14078,6 +14168,9 @@
       <c r="EP30" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="EQ30" s="1" t="n">
+        <v>213.3</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -14518,6 +14611,9 @@
       <c r="EP31" s="3" t="n">
         <v>138.6</v>
       </c>
+      <c r="EQ31" s="1" t="n">
+        <v>159.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -14958,6 +15054,9 @@
       <c r="EP32" s="1" t="n">
         <v>153.5</v>
       </c>
+      <c r="EQ32" s="1" t="n">
+        <v>159.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -15398,6 +15497,9 @@
       <c r="EP33" s="1" t="n">
         <v>190.1</v>
       </c>
+      <c r="EQ33" s="1" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -15838,6 +15940,9 @@
       <c r="EP34" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="EQ34" s="1" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -16278,6 +16383,9 @@
       <c r="EP35" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="EQ35" s="3" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -16718,6 +16826,9 @@
       <c r="EP36" s="3" t="n">
         <v>135.3</v>
       </c>
+      <c r="EQ36" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -17158,6 +17269,9 @@
       <c r="EP37" s="3" t="n">
         <v>131.3</v>
       </c>
+      <c r="EQ37" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -17598,6 +17712,9 @@
       <c r="EP38" s="3" t="n">
         <v>136</v>
       </c>
+      <c r="EQ38" s="3" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -18038,6 +18155,9 @@
       <c r="EP39" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="EQ39" s="1" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -18478,6 +18598,9 @@
       <c r="EP40" s="1" t="n">
         <v>147.3</v>
       </c>
+      <c r="EQ40" s="1" t="n">
+        <v>183.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -18918,6 +19041,9 @@
       <c r="EP41" s="1" t="n">
         <v>207.8</v>
       </c>
+      <c r="EQ41" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -19358,6 +19484,9 @@
       <c r="EP42" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="EQ42" s="1" t="n">
+        <v>146.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -19798,6 +19927,9 @@
       <c r="EP43" s="1" t="n">
         <v>199.2</v>
       </c>
+      <c r="EQ43" s="1" t="n">
+        <v>220.6</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -20238,6 +20370,9 @@
       <c r="EP44" s="1" t="n">
         <v>145.1</v>
       </c>
+      <c r="EQ44" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -20678,6 +20813,9 @@
       <c r="EP45" s="1" t="n">
         <v>203</v>
       </c>
+      <c r="EQ45" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -21118,6 +21256,9 @@
       <c r="EP46" s="1" t="n">
         <v>178</v>
       </c>
+      <c r="EQ46" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -21558,6 +21699,9 @@
       <c r="EP47" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="EQ47" s="1" t="n">
+        <v>150.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -21998,6 +22142,9 @@
       <c r="EP48" s="1" t="n">
         <v>207</v>
       </c>
+      <c r="EQ48" s="1" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -22438,6 +22585,9 @@
       <c r="EP49" s="1" t="n">
         <v>164.2</v>
       </c>
+      <c r="EQ49" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -22878,6 +23028,9 @@
       <c r="EP50" s="1" t="n">
         <v>146.9</v>
       </c>
+      <c r="EQ50" s="2" t="n">
+        <v>120.4</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -23317,6 +23470,9 @@
       </c>
       <c r="EP51" s="1" t="n">
         <v>176.7</v>
+      </c>
+      <c r="EQ51" s="3" t="n">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ51"/>
+  <dimension ref="A1:ER51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,6 +586,7 @@
     <col width="12" customWidth="1" min="145" max="145"/>
     <col width="12" customWidth="1" min="146" max="146"/>
     <col width="12" customWidth="1" min="147" max="147"/>
+    <col width="12" customWidth="1" min="148" max="148"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1324,6 +1325,11 @@
           <t>2025/02/02</t>
         </is>
       </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/03</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1767,6 +1773,9 @@
       <c r="EQ2" s="2" t="n">
         <v>116</v>
       </c>
+      <c r="ER2" s="1" t="n">
+        <v>171.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2210,6 +2219,9 @@
       <c r="EQ3" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="ER3" s="1" t="n">
+        <v>169.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2653,6 +2665,9 @@
       <c r="EQ4" s="2" t="n">
         <v>112.1</v>
       </c>
+      <c r="ER4" s="1" t="n">
+        <v>157.9</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3096,6 +3111,9 @@
       <c r="EQ5" s="1" t="n">
         <v>164.4</v>
       </c>
+      <c r="ER5" s="1" t="n">
+        <v>163.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3539,6 +3557,9 @@
       <c r="EQ6" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="ER6" s="3" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -3982,6 +4003,9 @@
       <c r="EQ7" s="1" t="n">
         <v>159.5</v>
       </c>
+      <c r="ER7" s="3" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4425,6 +4449,9 @@
       <c r="EQ8" s="1" t="n">
         <v>179.5</v>
       </c>
+      <c r="ER8" s="3" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4868,6 +4895,9 @@
       <c r="EQ9" s="1" t="n">
         <v>179.8</v>
       </c>
+      <c r="ER9" s="1" t="n">
+        <v>263.9</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5311,6 +5341,9 @@
       <c r="EQ10" s="2" t="n">
         <v>124.8</v>
       </c>
+      <c r="ER10" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5754,6 +5787,9 @@
       <c r="EQ11" s="1" t="n">
         <v>213.1</v>
       </c>
+      <c r="ER11" s="1" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6197,6 +6233,9 @@
       <c r="EQ12" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="ER12" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6640,6 +6679,9 @@
       <c r="EQ13" s="1" t="n">
         <v>158.3</v>
       </c>
+      <c r="ER13" s="1" t="n">
+        <v>174.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7083,6 +7125,9 @@
       <c r="EQ14" s="3" t="n">
         <v>137</v>
       </c>
+      <c r="ER14" s="1" t="n">
+        <v>238.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7526,6 +7571,9 @@
       <c r="EQ15" s="2" t="n">
         <v>105.8</v>
       </c>
+      <c r="ER15" s="1" t="n">
+        <v>172.7</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -7969,6 +8017,9 @@
       <c r="EQ16" s="1" t="n">
         <v>184.4</v>
       </c>
+      <c r="ER16" s="2" t="n">
+        <v>114.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8412,6 +8463,9 @@
       <c r="EQ17" s="2" t="n">
         <v>122.6</v>
       </c>
+      <c r="ER17" s="1" t="n">
+        <v>176.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8855,6 +8909,9 @@
       <c r="EQ18" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="ER18" s="3" t="n">
+        <v>126.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -9298,6 +9355,9 @@
       <c r="EQ19" s="2" t="n">
         <v>115</v>
       </c>
+      <c r="ER19" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9741,6 +9801,9 @@
       <c r="EQ20" s="1" t="n">
         <v>173.9</v>
       </c>
+      <c r="ER20" s="1" t="n">
+        <v>188.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -10184,6 +10247,9 @@
       <c r="EQ21" s="1" t="n">
         <v>189.4</v>
       </c>
+      <c r="ER21" s="1" t="n">
+        <v>154.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10627,6 +10693,9 @@
       <c r="EQ22" s="2" t="n">
         <v>119.7</v>
       </c>
+      <c r="ER22" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -11070,6 +11139,9 @@
       <c r="EQ23" s="1" t="n">
         <v>183.9</v>
       </c>
+      <c r="ER23" s="1" t="n">
+        <v>196.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -11513,6 +11585,9 @@
       <c r="EQ24" s="1" t="n">
         <v>180.7</v>
       </c>
+      <c r="ER24" s="1" t="n">
+        <v>146.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -11956,6 +12031,9 @@
       <c r="EQ25" s="1" t="n">
         <v>192.1</v>
       </c>
+      <c r="ER25" s="1" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -12399,6 +12477,9 @@
       <c r="EQ26" s="1" t="n">
         <v>163.1</v>
       </c>
+      <c r="ER26" s="1" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12842,6 +12923,9 @@
       <c r="EQ27" s="1" t="n">
         <v>244.6</v>
       </c>
+      <c r="ER27" s="1" t="n">
+        <v>289.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -13285,6 +13369,9 @@
       <c r="EQ28" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="ER28" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13728,6 +13815,9 @@
       <c r="EQ29" s="1" t="n">
         <v>144.8</v>
       </c>
+      <c r="ER29" s="1" t="n">
+        <v>184.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -14171,6 +14261,9 @@
       <c r="EQ30" s="1" t="n">
         <v>213.3</v>
       </c>
+      <c r="ER30" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -14614,6 +14707,9 @@
       <c r="EQ31" s="1" t="n">
         <v>159.3</v>
       </c>
+      <c r="ER31" s="1" t="n">
+        <v>163.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -15057,6 +15153,9 @@
       <c r="EQ32" s="1" t="n">
         <v>159.4</v>
       </c>
+      <c r="ER32" s="1" t="n">
+        <v>148.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -15500,6 +15599,9 @@
       <c r="EQ33" s="1" t="n">
         <v>188</v>
       </c>
+      <c r="ER33" s="1" t="n">
+        <v>206.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -15943,6 +16045,9 @@
       <c r="EQ34" s="1" t="n">
         <v>209</v>
       </c>
+      <c r="ER34" s="1" t="n">
+        <v>149.5</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -16386,6 +16491,9 @@
       <c r="EQ35" s="3" t="n">
         <v>139</v>
       </c>
+      <c r="ER35" s="2" t="n">
+        <v>119.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -16829,6 +16937,9 @@
       <c r="EQ36" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="ER36" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -17272,6 +17383,9 @@
       <c r="EQ37" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="ER37" s="1" t="n">
+        <v>144.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -17715,6 +17829,9 @@
       <c r="EQ38" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="ER38" s="3" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -18158,6 +18275,9 @@
       <c r="EQ39" s="1" t="n">
         <v>150.1</v>
       </c>
+      <c r="ER39" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -18601,6 +18721,9 @@
       <c r="EQ40" s="1" t="n">
         <v>183.8</v>
       </c>
+      <c r="ER40" s="3" t="n">
+        <v>129.2</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -19044,6 +19167,9 @@
       <c r="EQ41" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="ER41" s="3" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -19487,6 +19613,9 @@
       <c r="EQ42" s="1" t="n">
         <v>146.9</v>
       </c>
+      <c r="ER42" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -19930,6 +20059,9 @@
       <c r="EQ43" s="1" t="n">
         <v>220.6</v>
       </c>
+      <c r="ER43" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -20373,6 +20505,9 @@
       <c r="EQ44" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="ER44" s="1" t="n">
+        <v>143.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -20816,6 +20951,9 @@
       <c r="EQ45" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="ER45" s="2" t="n">
+        <v>116.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -21259,6 +21397,9 @@
       <c r="EQ46" s="1" t="n">
         <v>146.7</v>
       </c>
+      <c r="ER46" s="1" t="n">
+        <v>180.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -21702,6 +21843,9 @@
       <c r="EQ47" s="1" t="n">
         <v>150.8</v>
       </c>
+      <c r="ER47" s="1" t="n">
+        <v>173.5</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -22145,6 +22289,9 @@
       <c r="EQ48" s="1" t="n">
         <v>193</v>
       </c>
+      <c r="ER48" s="3" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -22588,6 +22735,9 @@
       <c r="EQ49" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="ER49" s="3" t="n">
+        <v>136.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -23031,6 +23181,9 @@
       <c r="EQ50" s="2" t="n">
         <v>120.4</v>
       </c>
+      <c r="ER50" s="1" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -23473,6 +23626,9 @@
       </c>
       <c r="EQ51" s="3" t="n">
         <v>139</v>
+      </c>
+      <c r="ER51" s="1" t="n">
+        <v>163.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ER51"/>
+  <dimension ref="A1:ES51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,7 @@
     <col width="12" customWidth="1" min="146" max="146"/>
     <col width="12" customWidth="1" min="147" max="147"/>
     <col width="12" customWidth="1" min="148" max="148"/>
+    <col width="12" customWidth="1" min="149" max="149"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1330,6 +1331,11 @@
           <t>2025/02/03</t>
         </is>
       </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/04</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1776,6 +1782,9 @@
       <c r="ER2" s="1" t="n">
         <v>171.8</v>
       </c>
+      <c r="ES2" s="1" t="n">
+        <v>251.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2222,6 +2231,9 @@
       <c r="ER3" s="1" t="n">
         <v>169.1</v>
       </c>
+      <c r="ES3" s="1" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2668,6 +2680,9 @@
       <c r="ER4" s="1" t="n">
         <v>157.9</v>
       </c>
+      <c r="ES4" s="1" t="n">
+        <v>658.7</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3114,6 +3129,9 @@
       <c r="ER5" s="1" t="n">
         <v>163.6</v>
       </c>
+      <c r="ES5" s="1" t="n">
+        <v>142.7</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3560,6 +3578,9 @@
       <c r="ER6" s="3" t="n">
         <v>126.5</v>
       </c>
+      <c r="ES6" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4006,6 +4027,9 @@
       <c r="ER7" s="3" t="n">
         <v>136.1</v>
       </c>
+      <c r="ES7" s="1" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4452,6 +4476,9 @@
       <c r="ER8" s="3" t="n">
         <v>132.3</v>
       </c>
+      <c r="ES8" s="3" t="n">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4898,6 +4925,9 @@
       <c r="ER9" s="1" t="n">
         <v>263.9</v>
       </c>
+      <c r="ES9" s="1" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5344,6 +5374,9 @@
       <c r="ER10" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="ES10" s="3" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5790,6 +5823,9 @@
       <c r="ER11" s="1" t="n">
         <v>187.2</v>
       </c>
+      <c r="ES11" s="1" t="n">
+        <v>239.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6236,6 +6272,9 @@
       <c r="ER12" s="1" t="n">
         <v>146.8</v>
       </c>
+      <c r="ES12" s="3" t="n">
+        <v>130.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6682,6 +6721,9 @@
       <c r="ER13" s="1" t="n">
         <v>174.3</v>
       </c>
+      <c r="ES13" s="1" t="n">
+        <v>197.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7128,6 +7170,9 @@
       <c r="ER14" s="1" t="n">
         <v>238.8</v>
       </c>
+      <c r="ES14" s="1" t="n">
+        <v>155.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7574,6 +7619,9 @@
       <c r="ER15" s="1" t="n">
         <v>172.7</v>
       </c>
+      <c r="ES15" s="1" t="n">
+        <v>141.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8020,6 +8068,9 @@
       <c r="ER16" s="2" t="n">
         <v>114.4</v>
       </c>
+      <c r="ES16" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8466,6 +8517,9 @@
       <c r="ER17" s="1" t="n">
         <v>176.1</v>
       </c>
+      <c r="ES17" s="1" t="n">
+        <v>219.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8912,6 +8966,9 @@
       <c r="ER18" s="3" t="n">
         <v>126.8</v>
       </c>
+      <c r="ES18" s="1" t="n">
+        <v>161.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -9358,6 +9415,9 @@
       <c r="ER19" s="1" t="n">
         <v>143.3</v>
       </c>
+      <c r="ES19" s="1" t="n">
+        <v>160.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9804,6 +9864,9 @@
       <c r="ER20" s="1" t="n">
         <v>188.3</v>
       </c>
+      <c r="ES20" s="1" t="n">
+        <v>177.8</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -10250,6 +10313,9 @@
       <c r="ER21" s="1" t="n">
         <v>154.6</v>
       </c>
+      <c r="ES21" s="3" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10696,6 +10762,9 @@
       <c r="ER22" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="ES22" s="1" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -11142,6 +11211,9 @@
       <c r="ER23" s="1" t="n">
         <v>196.5</v>
       </c>
+      <c r="ES23" s="1" t="n">
+        <v>185.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -11588,6 +11660,9 @@
       <c r="ER24" s="1" t="n">
         <v>146.9</v>
       </c>
+      <c r="ES24" s="1" t="n">
+        <v>145.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -12034,6 +12109,9 @@
       <c r="ER25" s="1" t="n">
         <v>199</v>
       </c>
+      <c r="ES25" s="1" t="n">
+        <v>161.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -12480,6 +12558,9 @@
       <c r="ER26" s="1" t="n">
         <v>167</v>
       </c>
+      <c r="ES26" s="2" t="n">
+        <v>120.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -12926,6 +13007,9 @@
       <c r="ER27" s="1" t="n">
         <v>289.2</v>
       </c>
+      <c r="ES27" s="1" t="n">
+        <v>162.7</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -13372,6 +13456,9 @@
       <c r="ER28" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="ES28" s="1" t="n">
+        <v>226</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13818,6 +13905,9 @@
       <c r="ER29" s="1" t="n">
         <v>184.4</v>
       </c>
+      <c r="ES29" s="3" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -14264,6 +14354,9 @@
       <c r="ER30" s="2" t="n">
         <v>121.8</v>
       </c>
+      <c r="ES30" s="1" t="n">
+        <v>295.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -14710,6 +14803,9 @@
       <c r="ER31" s="1" t="n">
         <v>163.5</v>
       </c>
+      <c r="ES31" s="1" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -15156,6 +15252,9 @@
       <c r="ER32" s="1" t="n">
         <v>148.9</v>
       </c>
+      <c r="ES32" s="1" t="n">
+        <v>198.5</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -15602,6 +15701,9 @@
       <c r="ER33" s="1" t="n">
         <v>206.3</v>
       </c>
+      <c r="ES33" s="2" t="n">
+        <v>110.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -16048,6 +16150,9 @@
       <c r="ER34" s="1" t="n">
         <v>149.5</v>
       </c>
+      <c r="ES34" s="1" t="n">
+        <v>156.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -16494,6 +16599,9 @@
       <c r="ER35" s="2" t="n">
         <v>119.4</v>
       </c>
+      <c r="ES35" s="1" t="n">
+        <v>204.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -16940,6 +17048,9 @@
       <c r="ER36" s="1" t="n">
         <v>156.8</v>
       </c>
+      <c r="ES36" s="3" t="n">
+        <v>135.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -17386,6 +17497,9 @@
       <c r="ER37" s="1" t="n">
         <v>144.1</v>
       </c>
+      <c r="ES37" s="1" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -17832,6 +17946,9 @@
       <c r="ER38" s="3" t="n">
         <v>127.1</v>
       </c>
+      <c r="ES38" s="3" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -18278,6 +18395,9 @@
       <c r="ER39" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="ES39" s="2" t="n">
+        <v>109.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -18724,6 +18844,9 @@
       <c r="ER40" s="3" t="n">
         <v>129.2</v>
       </c>
+      <c r="ES40" s="3" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -19170,6 +19293,9 @@
       <c r="ER41" s="3" t="n">
         <v>133.4</v>
       </c>
+      <c r="ES41" s="1" t="n">
+        <v>167.9</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -19616,6 +19742,9 @@
       <c r="ER42" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="ES42" s="1" t="n">
+        <v>162.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -20062,6 +20191,9 @@
       <c r="ER43" s="1" t="n">
         <v>156.8</v>
       </c>
+      <c r="ES43" s="2" t="n">
+        <v>117.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -20508,6 +20640,9 @@
       <c r="ER44" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="ES44" s="1" t="n">
+        <v>227.3</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -20954,6 +21089,9 @@
       <c r="ER45" s="2" t="n">
         <v>116.6</v>
       </c>
+      <c r="ES45" s="1" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -21400,6 +21538,9 @@
       <c r="ER46" s="1" t="n">
         <v>180.3</v>
       </c>
+      <c r="ES46" s="3" t="n">
+        <v>135.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -21846,6 +21987,9 @@
       <c r="ER47" s="1" t="n">
         <v>173.5</v>
       </c>
+      <c r="ES47" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -22292,6 +22436,9 @@
       <c r="ER48" s="3" t="n">
         <v>127.8</v>
       </c>
+      <c r="ES48" s="3" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -22738,6 +22885,9 @@
       <c r="ER49" s="3" t="n">
         <v>136.4</v>
       </c>
+      <c r="ES49" s="1" t="n">
+        <v>145.7</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -23184,6 +23334,9 @@
       <c r="ER50" s="1" t="n">
         <v>142.7</v>
       </c>
+      <c r="ES50" s="1" t="n">
+        <v>151.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -23629,6 +23782,9 @@
       </c>
       <c r="ER51" s="1" t="n">
         <v>163.1</v>
+      </c>
+      <c r="ES51" s="1" t="n">
+        <v>186.3</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ES51"/>
+  <dimension ref="A1:ET51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,6 +588,7 @@
     <col width="12" customWidth="1" min="147" max="147"/>
     <col width="12" customWidth="1" min="148" max="148"/>
     <col width="12" customWidth="1" min="149" max="149"/>
+    <col width="12" customWidth="1" min="150" max="150"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1336,6 +1337,11 @@
           <t>2025/02/04</t>
         </is>
       </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/05</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1785,6 +1791,9 @@
       <c r="ES2" s="1" t="n">
         <v>251.9</v>
       </c>
+      <c r="ET2" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2234,6 +2243,9 @@
       <c r="ES3" s="1" t="n">
         <v>150.6</v>
       </c>
+      <c r="ET3" s="1" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2683,6 +2695,9 @@
       <c r="ES4" s="1" t="n">
         <v>658.7</v>
       </c>
+      <c r="ET4" s="1" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3132,6 +3147,9 @@
       <c r="ES5" s="1" t="n">
         <v>142.7</v>
       </c>
+      <c r="ET5" s="1" t="n">
+        <v>199.7</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3581,6 +3599,9 @@
       <c r="ES6" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="ET6" s="1" t="n">
+        <v>221.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4030,6 +4051,9 @@
       <c r="ES7" s="1" t="n">
         <v>177</v>
       </c>
+      <c r="ET7" s="1" t="n">
+        <v>159.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4479,6 +4503,9 @@
       <c r="ES8" s="3" t="n">
         <v>135.6</v>
       </c>
+      <c r="ET8" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4928,6 +4955,9 @@
       <c r="ES9" s="1" t="n">
         <v>188.9</v>
       </c>
+      <c r="ET9" s="3" t="n">
+        <v>126.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5377,6 +5407,9 @@
       <c r="ES10" s="3" t="n">
         <v>127.3</v>
       </c>
+      <c r="ET10" s="3" t="n">
+        <v>139.3</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5826,6 +5859,9 @@
       <c r="ES11" s="1" t="n">
         <v>239.9</v>
       </c>
+      <c r="ET11" s="1" t="n">
+        <v>219.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6275,6 +6311,9 @@
       <c r="ES12" s="3" t="n">
         <v>130.6</v>
       </c>
+      <c r="ET12" s="1" t="n">
+        <v>170.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6724,6 +6763,9 @@
       <c r="ES13" s="1" t="n">
         <v>197.2</v>
       </c>
+      <c r="ET13" s="1" t="n">
+        <v>160.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7173,6 +7215,9 @@
       <c r="ES14" s="1" t="n">
         <v>155.9</v>
       </c>
+      <c r="ET14" s="1" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7622,6 +7667,9 @@
       <c r="ES15" s="1" t="n">
         <v>141.4</v>
       </c>
+      <c r="ET15" s="1" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8071,6 +8119,9 @@
       <c r="ES16" s="1" t="n">
         <v>142.9</v>
       </c>
+      <c r="ET16" s="1" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8520,6 +8571,9 @@
       <c r="ES17" s="1" t="n">
         <v>219.3</v>
       </c>
+      <c r="ET17" s="1" t="n">
+        <v>192.9</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -8969,6 +9023,9 @@
       <c r="ES18" s="1" t="n">
         <v>161.3</v>
       </c>
+      <c r="ET18" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -9418,6 +9475,9 @@
       <c r="ES19" s="1" t="n">
         <v>160.5</v>
       </c>
+      <c r="ET19" s="3" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9867,6 +9927,9 @@
       <c r="ES20" s="1" t="n">
         <v>177.8</v>
       </c>
+      <c r="ET20" s="1" t="n">
+        <v>161.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -10316,6 +10379,9 @@
       <c r="ES21" s="3" t="n">
         <v>136</v>
       </c>
+      <c r="ET21" s="1" t="n">
+        <v>180.5</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10765,6 +10831,9 @@
       <c r="ES22" s="1" t="n">
         <v>155.3</v>
       </c>
+      <c r="ET22" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -11214,6 +11283,9 @@
       <c r="ES23" s="1" t="n">
         <v>185.7</v>
       </c>
+      <c r="ET23" s="3" t="n">
+        <v>125.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -11663,6 +11735,9 @@
       <c r="ES24" s="1" t="n">
         <v>145.7</v>
       </c>
+      <c r="ET24" s="1" t="n">
+        <v>168.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -12112,6 +12187,9 @@
       <c r="ES25" s="1" t="n">
         <v>161.7</v>
       </c>
+      <c r="ET25" s="1" t="n">
+        <v>208.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -12561,6 +12639,9 @@
       <c r="ES26" s="2" t="n">
         <v>120.5</v>
       </c>
+      <c r="ET26" s="1" t="n">
+        <v>167.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -13010,6 +13091,9 @@
       <c r="ES27" s="1" t="n">
         <v>162.7</v>
       </c>
+      <c r="ET27" s="1" t="n">
+        <v>162.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -13459,6 +13543,9 @@
       <c r="ES28" s="1" t="n">
         <v>226</v>
       </c>
+      <c r="ET28" s="2" t="n">
+        <v>123.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13908,6 +13995,9 @@
       <c r="ES29" s="3" t="n">
         <v>131.1</v>
       </c>
+      <c r="ET29" s="1" t="n">
+        <v>149.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -14357,6 +14447,9 @@
       <c r="ES30" s="1" t="n">
         <v>295.4</v>
       </c>
+      <c r="ET30" s="1" t="n">
+        <v>146.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -14806,6 +14899,9 @@
       <c r="ES31" s="1" t="n">
         <v>161.4</v>
       </c>
+      <c r="ET31" s="1" t="n">
+        <v>249.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -15255,6 +15351,9 @@
       <c r="ES32" s="1" t="n">
         <v>198.5</v>
       </c>
+      <c r="ET32" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -15704,6 +15803,9 @@
       <c r="ES33" s="2" t="n">
         <v>110.6</v>
       </c>
+      <c r="ET33" s="1" t="n">
+        <v>151.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -16153,6 +16255,9 @@
       <c r="ES34" s="1" t="n">
         <v>156.9</v>
       </c>
+      <c r="ET34" s="1" t="n">
+        <v>157.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -16602,6 +16707,9 @@
       <c r="ES35" s="1" t="n">
         <v>204.1</v>
       </c>
+      <c r="ET35" s="1" t="n">
+        <v>143.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -17051,6 +17159,9 @@
       <c r="ES36" s="3" t="n">
         <v>135.5</v>
       </c>
+      <c r="ET36" s="1" t="n">
+        <v>174.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -17500,6 +17611,9 @@
       <c r="ES37" s="1" t="n">
         <v>237</v>
       </c>
+      <c r="ET37" s="1" t="n">
+        <v>177.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -17949,6 +18063,9 @@
       <c r="ES38" s="3" t="n">
         <v>130.7</v>
       </c>
+      <c r="ET38" s="1" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -18398,6 +18515,9 @@
       <c r="ES39" s="2" t="n">
         <v>109.7</v>
       </c>
+      <c r="ET39" s="1" t="n">
+        <v>173.2</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -18847,6 +18967,9 @@
       <c r="ES40" s="3" t="n">
         <v>128.8</v>
       </c>
+      <c r="ET40" s="1" t="n">
+        <v>172.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -19296,6 +19419,9 @@
       <c r="ES41" s="1" t="n">
         <v>167.9</v>
       </c>
+      <c r="ET41" s="3" t="n">
+        <v>139.2</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -19745,6 +19871,9 @@
       <c r="ES42" s="1" t="n">
         <v>162.2</v>
       </c>
+      <c r="ET42" s="1" t="n">
+        <v>151.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -20194,6 +20323,9 @@
       <c r="ES43" s="2" t="n">
         <v>117.1</v>
       </c>
+      <c r="ET43" s="2" t="n">
+        <v>118.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -20643,6 +20775,9 @@
       <c r="ES44" s="1" t="n">
         <v>227.3</v>
       </c>
+      <c r="ET44" s="1" t="n">
+        <v>241.9</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -21092,6 +21227,9 @@
       <c r="ES45" s="1" t="n">
         <v>151.8</v>
       </c>
+      <c r="ET45" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -21541,6 +21679,9 @@
       <c r="ES46" s="3" t="n">
         <v>135.6</v>
       </c>
+      <c r="ET46" s="3" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -21990,6 +22131,9 @@
       <c r="ES47" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="ET47" s="1" t="n">
+        <v>170.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -22439,6 +22583,9 @@
       <c r="ES48" s="3" t="n">
         <v>132.4</v>
       </c>
+      <c r="ET48" s="1" t="n">
+        <v>144.5</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -22888,6 +23035,9 @@
       <c r="ES49" s="1" t="n">
         <v>145.7</v>
       </c>
+      <c r="ET49" s="2" t="n">
+        <v>116.7</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -23337,6 +23487,9 @@
       <c r="ES50" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="ET50" s="3" t="n">
+        <v>130.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -23785,6 +23938,9 @@
       </c>
       <c r="ES51" s="1" t="n">
         <v>186.3</v>
+      </c>
+      <c r="ET51" s="3" t="n">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ET51"/>
+  <dimension ref="A1:EU51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,7 @@
     <col width="12" customWidth="1" min="148" max="148"/>
     <col width="12" customWidth="1" min="149" max="149"/>
     <col width="12" customWidth="1" min="150" max="150"/>
+    <col width="12" customWidth="1" min="151" max="151"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1342,6 +1343,11 @@
           <t>2025/02/05</t>
         </is>
       </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/06</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1794,6 +1800,9 @@
       <c r="ET2" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="EU2" s="1" t="n">
+        <v>201.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2246,6 +2255,9 @@
       <c r="ET3" s="1" t="n">
         <v>150.1</v>
       </c>
+      <c r="EU3" s="3" t="n">
+        <v>137.8</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2698,6 +2710,9 @@
       <c r="ET4" s="1" t="n">
         <v>143</v>
       </c>
+      <c r="EU4" s="1" t="n">
+        <v>253</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3150,6 +3165,9 @@
       <c r="ET5" s="1" t="n">
         <v>199.7</v>
       </c>
+      <c r="EU5" s="2" t="n">
+        <v>121.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3602,6 +3620,9 @@
       <c r="ET6" s="1" t="n">
         <v>221.9</v>
       </c>
+      <c r="EU6" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4054,6 +4075,9 @@
       <c r="ET7" s="1" t="n">
         <v>159.4</v>
       </c>
+      <c r="EU7" s="2" t="n">
+        <v>124.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4506,6 +4530,9 @@
       <c r="ET8" s="2" t="n">
         <v>121.8</v>
       </c>
+      <c r="EU8" s="1" t="n">
+        <v>154.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -4958,6 +4985,9 @@
       <c r="ET9" s="3" t="n">
         <v>126.7</v>
       </c>
+      <c r="EU9" s="1" t="n">
+        <v>200.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5410,6 +5440,9 @@
       <c r="ET10" s="3" t="n">
         <v>139.3</v>
       </c>
+      <c r="EU10" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -5862,6 +5895,9 @@
       <c r="ET11" s="1" t="n">
         <v>219.4</v>
       </c>
+      <c r="EU11" s="1" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6314,6 +6350,9 @@
       <c r="ET12" s="1" t="n">
         <v>170.6</v>
       </c>
+      <c r="EU12" s="1" t="n">
+        <v>146.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -6766,6 +6805,9 @@
       <c r="ET13" s="1" t="n">
         <v>160.2</v>
       </c>
+      <c r="EU13" s="1" t="n">
+        <v>176.7</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7218,6 +7260,9 @@
       <c r="ET14" s="1" t="n">
         <v>144</v>
       </c>
+      <c r="EU14" s="1" t="n">
+        <v>154.7</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -7670,6 +7715,9 @@
       <c r="ET15" s="1" t="n">
         <v>187.4</v>
       </c>
+      <c r="EU15" s="1" t="n">
+        <v>174.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8122,6 +8170,9 @@
       <c r="ET16" s="1" t="n">
         <v>164</v>
       </c>
+      <c r="EU16" s="1" t="n">
+        <v>142.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8574,6 +8625,9 @@
       <c r="ET17" s="1" t="n">
         <v>192.9</v>
       </c>
+      <c r="EU17" s="1" t="n">
+        <v>174.9</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9026,6 +9080,9 @@
       <c r="ET18" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="EU18" s="3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -9478,6 +9535,9 @@
       <c r="ET19" s="3" t="n">
         <v>133.6</v>
       </c>
+      <c r="EU19" s="1" t="n">
+        <v>213.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -9930,6 +9990,9 @@
       <c r="ET20" s="1" t="n">
         <v>161.7</v>
       </c>
+      <c r="EU20" s="1" t="n">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -10382,6 +10445,9 @@
       <c r="ET21" s="1" t="n">
         <v>180.5</v>
       </c>
+      <c r="EU21" s="3" t="n">
+        <v>134.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -10834,6 +10900,9 @@
       <c r="ET22" s="1" t="n">
         <v>143.3</v>
       </c>
+      <c r="EU22" s="1" t="n">
+        <v>195.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -11286,6 +11355,9 @@
       <c r="ET23" s="3" t="n">
         <v>125.8</v>
       </c>
+      <c r="EU23" s="3" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -11738,6 +11810,9 @@
       <c r="ET24" s="1" t="n">
         <v>168.5</v>
       </c>
+      <c r="EU24" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -12190,6 +12265,9 @@
       <c r="ET25" s="1" t="n">
         <v>208.3</v>
       </c>
+      <c r="EU25" s="1" t="n">
+        <v>153.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -12642,6 +12720,9 @@
       <c r="ET26" s="1" t="n">
         <v>167.3</v>
       </c>
+      <c r="EU26" s="1" t="n">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -13094,6 +13175,9 @@
       <c r="ET27" s="1" t="n">
         <v>162.8</v>
       </c>
+      <c r="EU27" s="1" t="n">
+        <v>147.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -13546,6 +13630,9 @@
       <c r="ET28" s="2" t="n">
         <v>123.8</v>
       </c>
+      <c r="EU28" s="1" t="n">
+        <v>190.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -13998,6 +14085,9 @@
       <c r="ET29" s="1" t="n">
         <v>149.4</v>
       </c>
+      <c r="EU29" s="1" t="n">
+        <v>180.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -14450,6 +14540,9 @@
       <c r="ET30" s="1" t="n">
         <v>146.4</v>
       </c>
+      <c r="EU30" s="1" t="n">
+        <v>184.6</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -14902,6 +14995,9 @@
       <c r="ET31" s="1" t="n">
         <v>249.6</v>
       </c>
+      <c r="EU31" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -15354,6 +15450,9 @@
       <c r="ET32" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="EU32" s="1" t="n">
+        <v>191.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -15806,6 +15905,9 @@
       <c r="ET33" s="1" t="n">
         <v>151.4</v>
       </c>
+      <c r="EU33" s="3" t="n">
+        <v>138.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -16258,6 +16360,9 @@
       <c r="ET34" s="1" t="n">
         <v>157.9</v>
       </c>
+      <c r="EU34" s="1" t="n">
+        <v>183.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -16710,6 +16815,9 @@
       <c r="ET35" s="1" t="n">
         <v>143.9</v>
       </c>
+      <c r="EU35" s="3" t="n">
+        <v>135.8</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -17162,6 +17270,9 @@
       <c r="ET36" s="1" t="n">
         <v>174.7</v>
       </c>
+      <c r="EU36" s="1" t="n">
+        <v>146.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -17614,6 +17725,9 @@
       <c r="ET37" s="1" t="n">
         <v>177.7</v>
       </c>
+      <c r="EU37" s="1" t="n">
+        <v>182.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -18066,6 +18180,9 @@
       <c r="ET38" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="EU38" s="1" t="n">
+        <v>170.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -18518,6 +18635,9 @@
       <c r="ET39" s="1" t="n">
         <v>173.2</v>
       </c>
+      <c r="EU39" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -18970,6 +19090,9 @@
       <c r="ET40" s="1" t="n">
         <v>172.1</v>
       </c>
+      <c r="EU40" s="1" t="n">
+        <v>209.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -19422,6 +19545,9 @@
       <c r="ET41" s="3" t="n">
         <v>139.2</v>
       </c>
+      <c r="EU41" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -19874,6 +20000,9 @@
       <c r="ET42" s="1" t="n">
         <v>151.4</v>
       </c>
+      <c r="EU42" s="1" t="n">
+        <v>207.1</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -20326,6 +20455,9 @@
       <c r="ET43" s="2" t="n">
         <v>118.8</v>
       </c>
+      <c r="EU43" s="1" t="n">
+        <v>175.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -20778,6 +20910,9 @@
       <c r="ET44" s="1" t="n">
         <v>241.9</v>
       </c>
+      <c r="EU44" s="1" t="n">
+        <v>147.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -21230,6 +21365,9 @@
       <c r="ET45" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="EU45" s="1" t="n">
+        <v>142.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -21682,6 +21820,9 @@
       <c r="ET46" s="3" t="n">
         <v>130.3</v>
       </c>
+      <c r="EU46" s="1" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -22134,6 +22275,9 @@
       <c r="ET47" s="1" t="n">
         <v>170.8</v>
       </c>
+      <c r="EU47" s="3" t="n">
+        <v>131.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -22586,6 +22730,9 @@
       <c r="ET48" s="1" t="n">
         <v>144.5</v>
       </c>
+      <c r="EU48" s="1" t="n">
+        <v>201.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -23038,6 +23185,9 @@
       <c r="ET49" s="2" t="n">
         <v>116.7</v>
       </c>
+      <c r="EU49" s="1" t="n">
+        <v>151.4</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -23490,6 +23640,9 @@
       <c r="ET50" s="3" t="n">
         <v>130.2</v>
       </c>
+      <c r="EU50" s="1" t="n">
+        <v>233.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -23941,6 +24094,9 @@
       </c>
       <c r="ET51" s="3" t="n">
         <v>129</v>
+      </c>
+      <c r="EU51" s="1" t="n">
+        <v>173.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FA51"/>
+  <dimension ref="A1:FB51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,6 +596,7 @@
     <col width="12" customWidth="1" min="155" max="155"/>
     <col width="12" customWidth="1" min="156" max="156"/>
     <col width="12" customWidth="1" min="157" max="157"/>
+    <col width="12" customWidth="1" min="158" max="158"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1384,6 +1385,11 @@
           <t>2025/02/12</t>
         </is>
       </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/13</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1857,6 +1863,9 @@
       <c r="FA2" s="1" t="n">
         <v>157</v>
       </c>
+      <c r="FB2" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2330,6 +2339,9 @@
       <c r="FA3" s="1" t="n">
         <v>142.5</v>
       </c>
+      <c r="FB3" s="1" t="n">
+        <v>203.2</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2803,6 +2815,9 @@
       <c r="FA4" s="1" t="n">
         <v>157.8</v>
       </c>
+      <c r="FB4" s="1" t="n">
+        <v>203.7</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3276,6 +3291,9 @@
       <c r="FA5" s="1" t="n">
         <v>166.5</v>
       </c>
+      <c r="FB5" s="1" t="n">
+        <v>238.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3749,6 +3767,9 @@
       <c r="FA6" s="3" t="n">
         <v>139.6</v>
       </c>
+      <c r="FB6" s="1" t="n">
+        <v>172.6</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4222,6 +4243,9 @@
       <c r="FA7" s="1" t="n">
         <v>143.8</v>
       </c>
+      <c r="FB7" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4695,6 +4719,9 @@
       <c r="FA8" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="FB8" s="1" t="n">
+        <v>321.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5168,6 +5195,9 @@
       <c r="FA9" s="1" t="n">
         <v>193.8</v>
       </c>
+      <c r="FB9" s="3" t="n">
+        <v>138.1</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5641,6 +5671,9 @@
       <c r="FA10" s="1" t="n">
         <v>198.9</v>
       </c>
+      <c r="FB10" s="1" t="n">
+        <v>154.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6114,6 +6147,9 @@
       <c r="FA11" s="1" t="n">
         <v>181.6</v>
       </c>
+      <c r="FB11" s="1" t="n">
+        <v>157.5</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6587,6 +6623,9 @@
       <c r="FA12" s="1" t="n">
         <v>163.1</v>
       </c>
+      <c r="FB12" s="1" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7060,6 +7099,9 @@
       <c r="FA13" s="1" t="n">
         <v>168</v>
       </c>
+      <c r="FB13" s="1" t="n">
+        <v>163.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7533,6 +7575,9 @@
       <c r="FA14" s="1" t="n">
         <v>159.1</v>
       </c>
+      <c r="FB14" s="1" t="n">
+        <v>282.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8006,6 +8051,9 @@
       <c r="FA15" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="FB15" s="1" t="n">
+        <v>164.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8479,6 +8527,9 @@
       <c r="FA16" s="1" t="n">
         <v>157.3</v>
       </c>
+      <c r="FB16" s="1" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -8952,6 +9003,9 @@
       <c r="FA17" s="1" t="n">
         <v>286</v>
       </c>
+      <c r="FB17" s="1" t="n">
+        <v>153.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9425,6 +9479,9 @@
       <c r="FA18" s="1" t="n">
         <v>178.9</v>
       </c>
+      <c r="FB18" s="1" t="n">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -9898,6 +9955,9 @@
       <c r="FA19" s="1" t="n">
         <v>171.1</v>
       </c>
+      <c r="FB19" s="1" t="n">
+        <v>179.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -10371,6 +10431,9 @@
       <c r="FA20" s="2" t="n">
         <v>123.3</v>
       </c>
+      <c r="FB20" s="2" t="n">
+        <v>113.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -10844,6 +10907,9 @@
       <c r="FA21" s="1" t="n">
         <v>143</v>
       </c>
+      <c r="FB21" s="3" t="n">
+        <v>135.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -11317,6 +11383,9 @@
       <c r="FA22" s="3" t="n">
         <v>137.9</v>
       </c>
+      <c r="FB22" s="3" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -11790,6 +11859,9 @@
       <c r="FA23" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="FB23" s="1" t="n">
+        <v>208.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -12263,6 +12335,9 @@
       <c r="FA24" s="1" t="n">
         <v>152.1</v>
       </c>
+      <c r="FB24" s="3" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -12736,6 +12811,9 @@
       <c r="FA25" s="3" t="n">
         <v>134.1</v>
       </c>
+      <c r="FB25" s="3" t="n">
+        <v>134.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -13209,6 +13287,9 @@
       <c r="FA26" s="1" t="n">
         <v>303</v>
       </c>
+      <c r="FB26" s="3" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -13682,6 +13763,9 @@
       <c r="FA27" s="1" t="n">
         <v>187.2</v>
       </c>
+      <c r="FB27" s="1" t="n">
+        <v>210.9</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -14155,6 +14239,9 @@
       <c r="FA28" s="2" t="n">
         <v>121.3</v>
       </c>
+      <c r="FB28" s="1" t="n">
+        <v>325.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -14628,6 +14715,9 @@
       <c r="FA29" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="FB29" s="1" t="n">
+        <v>156.2</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -15101,6 +15191,9 @@
       <c r="FA30" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="FB30" s="3" t="n">
+        <v>138.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -15574,6 +15667,9 @@
       <c r="FA31" s="1" t="n">
         <v>169</v>
       </c>
+      <c r="FB31" s="2" t="n">
+        <v>118.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -16047,6 +16143,9 @@
       <c r="FA32" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="FB32" s="3" t="n">
+        <v>137.7</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -16520,6 +16619,9 @@
       <c r="FA33" s="2" t="n">
         <v>121.5</v>
       </c>
+      <c r="FB33" s="1" t="n">
+        <v>168.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -16993,6 +17095,9 @@
       <c r="FA34" s="1" t="n">
         <v>179.7</v>
       </c>
+      <c r="FB34" s="1" t="n">
+        <v>151.9</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -17466,6 +17571,9 @@
       <c r="FA35" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="FB35" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -17939,6 +18047,9 @@
       <c r="FA36" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="FB36" s="3" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -18412,6 +18523,9 @@
       <c r="FA37" s="1" t="n">
         <v>166.2</v>
       </c>
+      <c r="FB37" s="1" t="n">
+        <v>169.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -18885,6 +18999,9 @@
       <c r="FA38" s="2" t="n">
         <v>118.5</v>
       </c>
+      <c r="FB38" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -19358,6 +19475,9 @@
       <c r="FA39" s="3" t="n">
         <v>127.6</v>
       </c>
+      <c r="FB39" s="1" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -19831,6 +19951,9 @@
       <c r="FA40" s="1" t="n">
         <v>199.7</v>
       </c>
+      <c r="FB40" s="1" t="n">
+        <v>160.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -20304,6 +20427,9 @@
       <c r="FA41" s="1" t="n">
         <v>164.4</v>
       </c>
+      <c r="FB41" s="1" t="n">
+        <v>166.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -20777,6 +20903,9 @@
       <c r="FA42" s="1" t="n">
         <v>158.8</v>
       </c>
+      <c r="FB42" s="1" t="n">
+        <v>145.7</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -21250,6 +21379,9 @@
       <c r="FA43" s="1" t="n">
         <v>167.3</v>
       </c>
+      <c r="FB43" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -21723,6 +21855,9 @@
       <c r="FA44" s="1" t="n">
         <v>402.2</v>
       </c>
+      <c r="FB44" s="1" t="n">
+        <v>152.5</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -22196,6 +22331,9 @@
       <c r="FA45" s="3" t="n">
         <v>130.9</v>
       </c>
+      <c r="FB45" s="1" t="n">
+        <v>249.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -22669,6 +22807,9 @@
       <c r="FA46" s="1" t="n">
         <v>244.3</v>
       </c>
+      <c r="FB46" s="1" t="n">
+        <v>174.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -23142,6 +23283,9 @@
       <c r="FA47" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="FB47" s="3" t="n">
+        <v>138.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -23615,6 +23759,9 @@
       <c r="FA48" s="1" t="n">
         <v>178.4</v>
       </c>
+      <c r="FB48" s="1" t="n">
+        <v>147.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -24088,6 +24235,9 @@
       <c r="FA49" s="1" t="n">
         <v>167</v>
       </c>
+      <c r="FB49" s="1" t="n">
+        <v>143.7</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -24561,6 +24711,9 @@
       <c r="FA50" s="1" t="n">
         <v>191.8</v>
       </c>
+      <c r="FB50" s="3" t="n">
+        <v>138.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -25033,6 +25186,9 @@
       </c>
       <c r="FA51" s="1" t="n">
         <v>151.4</v>
+      </c>
+      <c r="FB51" s="1" t="n">
+        <v>161.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FB51"/>
+  <dimension ref="A1:FC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,7 @@
     <col width="12" customWidth="1" min="156" max="156"/>
     <col width="12" customWidth="1" min="157" max="157"/>
     <col width="12" customWidth="1" min="158" max="158"/>
+    <col width="12" customWidth="1" min="159" max="159"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1390,6 +1391,11 @@
           <t>2025/02/13</t>
         </is>
       </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/14</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1866,6 +1872,9 @@
       <c r="FB2" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="FC2" s="2" t="n">
+        <v>118.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2342,6 +2351,9 @@
       <c r="FB3" s="1" t="n">
         <v>203.2</v>
       </c>
+      <c r="FC3" s="1" t="n">
+        <v>140.6</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2818,6 +2830,9 @@
       <c r="FB4" s="1" t="n">
         <v>203.7</v>
       </c>
+      <c r="FC4" s="1" t="n">
+        <v>170.9</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3294,6 +3309,9 @@
       <c r="FB5" s="1" t="n">
         <v>238.3</v>
       </c>
+      <c r="FC5" s="1" t="n">
+        <v>207.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3770,6 +3788,9 @@
       <c r="FB6" s="1" t="n">
         <v>172.6</v>
       </c>
+      <c r="FC6" s="1" t="n">
+        <v>144.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4246,6 +4267,9 @@
       <c r="FB7" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="FC7" s="1" t="n">
+        <v>169.8</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4722,6 +4746,9 @@
       <c r="FB8" s="1" t="n">
         <v>321.8</v>
       </c>
+      <c r="FC8" s="1" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5198,6 +5225,9 @@
       <c r="FB9" s="3" t="n">
         <v>138.1</v>
       </c>
+      <c r="FC9" s="1" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5674,6 +5704,9 @@
       <c r="FB10" s="1" t="n">
         <v>154.6</v>
       </c>
+      <c r="FC10" s="1" t="n">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6150,6 +6183,9 @@
       <c r="FB11" s="1" t="n">
         <v>157.5</v>
       </c>
+      <c r="FC11" s="1" t="n">
+        <v>144.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6626,6 +6662,9 @@
       <c r="FB12" s="1" t="n">
         <v>162</v>
       </c>
+      <c r="FC12" s="1" t="n">
+        <v>140.4</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7102,6 +7141,9 @@
       <c r="FB13" s="1" t="n">
         <v>163.9</v>
       </c>
+      <c r="FC13" s="3" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7578,6 +7620,9 @@
       <c r="FB14" s="1" t="n">
         <v>282.8</v>
       </c>
+      <c r="FC14" s="1" t="n">
+        <v>162.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8054,6 +8099,9 @@
       <c r="FB15" s="1" t="n">
         <v>164.4</v>
       </c>
+      <c r="FC15" s="1" t="n">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8530,6 +8578,9 @@
       <c r="FB16" s="1" t="n">
         <v>140.8</v>
       </c>
+      <c r="FC16" s="1" t="n">
+        <v>162.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9006,6 +9057,9 @@
       <c r="FB17" s="1" t="n">
         <v>153.1</v>
       </c>
+      <c r="FC17" s="2" t="n">
+        <v>110.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9482,6 +9536,9 @@
       <c r="FB18" s="1" t="n">
         <v>142.1</v>
       </c>
+      <c r="FC18" s="1" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -9958,6 +10015,9 @@
       <c r="FB19" s="1" t="n">
         <v>179.6</v>
       </c>
+      <c r="FC19" s="1" t="n">
+        <v>174.8</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -10434,6 +10494,9 @@
       <c r="FB20" s="2" t="n">
         <v>113.7</v>
       </c>
+      <c r="FC20" s="3" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -10910,6 +10973,9 @@
       <c r="FB21" s="3" t="n">
         <v>135.7</v>
       </c>
+      <c r="FC21" s="3" t="n">
+        <v>137.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -11386,6 +11452,9 @@
       <c r="FB22" s="3" t="n">
         <v>129.1</v>
       </c>
+      <c r="FC22" s="1" t="n">
+        <v>162.2</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -11862,6 +11931,9 @@
       <c r="FB23" s="1" t="n">
         <v>208.6</v>
       </c>
+      <c r="FC23" s="1" t="n">
+        <v>164.1</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -12338,6 +12410,9 @@
       <c r="FB24" s="3" t="n">
         <v>128.8</v>
       </c>
+      <c r="FC24" s="1" t="n">
+        <v>194.3</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -12814,6 +12889,9 @@
       <c r="FB25" s="3" t="n">
         <v>134.3</v>
       </c>
+      <c r="FC25" s="2" t="n">
+        <v>115.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -13290,6 +13368,9 @@
       <c r="FB26" s="3" t="n">
         <v>136.1</v>
       </c>
+      <c r="FC26" s="2" t="n">
+        <v>124.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -13766,6 +13847,9 @@
       <c r="FB27" s="1" t="n">
         <v>210.9</v>
       </c>
+      <c r="FC27" s="1" t="n">
+        <v>205.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -14242,6 +14326,9 @@
       <c r="FB28" s="1" t="n">
         <v>325.6</v>
       </c>
+      <c r="FC28" s="2" t="n">
+        <v>122.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -14718,6 +14805,9 @@
       <c r="FB29" s="1" t="n">
         <v>156.2</v>
       </c>
+      <c r="FC29" s="1" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -15194,6 +15284,9 @@
       <c r="FB30" s="3" t="n">
         <v>138.5</v>
       </c>
+      <c r="FC30" s="3" t="n">
+        <v>139.7</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -15670,6 +15763,9 @@
       <c r="FB31" s="2" t="n">
         <v>118.5</v>
       </c>
+      <c r="FC31" s="1" t="n">
+        <v>174.7</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -16146,6 +16242,9 @@
       <c r="FB32" s="3" t="n">
         <v>137.7</v>
       </c>
+      <c r="FC32" s="1" t="n">
+        <v>174.2</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -16622,6 +16721,9 @@
       <c r="FB33" s="1" t="n">
         <v>168.2</v>
       </c>
+      <c r="FC33" s="3" t="n">
+        <v>137.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -17098,6 +17200,9 @@
       <c r="FB34" s="1" t="n">
         <v>151.9</v>
       </c>
+      <c r="FC34" s="1" t="n">
+        <v>147.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -17574,6 +17679,9 @@
       <c r="FB35" s="1" t="n">
         <v>153.4</v>
       </c>
+      <c r="FC35" s="1" t="n">
+        <v>193.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -18050,6 +18158,9 @@
       <c r="FB36" s="3" t="n">
         <v>139.5</v>
       </c>
+      <c r="FC36" s="1" t="n">
+        <v>141.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -18526,6 +18637,9 @@
       <c r="FB37" s="1" t="n">
         <v>169.8</v>
       </c>
+      <c r="FC37" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -19002,6 +19116,9 @@
       <c r="FB38" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="FC38" s="1" t="n">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -19478,6 +19595,9 @@
       <c r="FB39" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="FC39" s="1" t="n">
+        <v>170.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -19954,6 +20074,9 @@
       <c r="FB40" s="1" t="n">
         <v>160.9</v>
       </c>
+      <c r="FC40" s="1" t="n">
+        <v>171.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -20430,6 +20553,9 @@
       <c r="FB41" s="1" t="n">
         <v>166.8</v>
       </c>
+      <c r="FC41" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -20906,6 +21032,9 @@
       <c r="FB42" s="1" t="n">
         <v>145.7</v>
       </c>
+      <c r="FC42" s="3" t="n">
+        <v>136.3</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -21382,6 +21511,9 @@
       <c r="FB43" s="1" t="n">
         <v>155.8</v>
       </c>
+      <c r="FC43" s="1" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -21858,6 +21990,9 @@
       <c r="FB44" s="1" t="n">
         <v>152.5</v>
       </c>
+      <c r="FC44" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -22334,6 +22469,9 @@
       <c r="FB45" s="1" t="n">
         <v>249.2</v>
       </c>
+      <c r="FC45" s="1" t="n">
+        <v>156.4</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -22810,6 +22948,9 @@
       <c r="FB46" s="1" t="n">
         <v>174.7</v>
       </c>
+      <c r="FC46" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -23286,6 +23427,9 @@
       <c r="FB47" s="3" t="n">
         <v>138.1</v>
       </c>
+      <c r="FC47" s="1" t="n">
+        <v>177.5</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -23762,6 +23906,9 @@
       <c r="FB48" s="1" t="n">
         <v>147.2</v>
       </c>
+      <c r="FC48" s="1" t="n">
+        <v>196.3</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -24238,6 +24385,9 @@
       <c r="FB49" s="1" t="n">
         <v>143.7</v>
       </c>
+      <c r="FC49" s="1" t="n">
+        <v>173.5</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -24714,6 +24864,9 @@
       <c r="FB50" s="3" t="n">
         <v>138.8</v>
       </c>
+      <c r="FC50" s="1" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -25189,6 +25342,9 @@
       </c>
       <c r="FB51" s="1" t="n">
         <v>161.2</v>
+      </c>
+      <c r="FC51" s="1" t="n">
+        <v>188.6</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FC51"/>
+  <dimension ref="A1:FD51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,6 +598,7 @@
     <col width="12" customWidth="1" min="157" max="157"/>
     <col width="12" customWidth="1" min="158" max="158"/>
     <col width="12" customWidth="1" min="159" max="159"/>
+    <col width="12" customWidth="1" min="160" max="160"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1396,6 +1397,11 @@
           <t>2025/02/14</t>
         </is>
       </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/15</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1875,6 +1881,9 @@
       <c r="FC2" s="2" t="n">
         <v>118.3</v>
       </c>
+      <c r="FD2" s="1" t="n">
+        <v>162.7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2354,6 +2363,9 @@
       <c r="FC3" s="1" t="n">
         <v>140.6</v>
       </c>
+      <c r="FD3" s="1" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2833,6 +2845,9 @@
       <c r="FC4" s="1" t="n">
         <v>170.9</v>
       </c>
+      <c r="FD4" s="1" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3312,6 +3327,9 @@
       <c r="FC5" s="1" t="n">
         <v>207.5</v>
       </c>
+      <c r="FD5" s="1" t="n">
+        <v>207.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3791,6 +3809,9 @@
       <c r="FC6" s="1" t="n">
         <v>144.3</v>
       </c>
+      <c r="FD6" s="1" t="n">
+        <v>164.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4270,6 +4291,9 @@
       <c r="FC7" s="1" t="n">
         <v>169.8</v>
       </c>
+      <c r="FD7" s="1" t="n">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4749,6 +4773,9 @@
       <c r="FC8" s="1" t="n">
         <v>172</v>
       </c>
+      <c r="FD8" s="3" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5228,6 +5255,9 @@
       <c r="FC9" s="1" t="n">
         <v>145</v>
       </c>
+      <c r="FD9" s="3" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5707,6 +5737,9 @@
       <c r="FC10" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="FD10" s="3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6186,6 +6219,9 @@
       <c r="FC11" s="1" t="n">
         <v>144.4</v>
       </c>
+      <c r="FD11" s="2" t="n">
+        <v>122.7</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6665,6 +6701,9 @@
       <c r="FC12" s="1" t="n">
         <v>140.4</v>
       </c>
+      <c r="FD12" s="3" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7144,6 +7183,9 @@
       <c r="FC13" s="3" t="n">
         <v>133.4</v>
       </c>
+      <c r="FD13" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7623,6 +7665,9 @@
       <c r="FC14" s="1" t="n">
         <v>162.9</v>
       </c>
+      <c r="FD14" s="1" t="n">
+        <v>155.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8102,6 +8147,9 @@
       <c r="FC15" s="1" t="n">
         <v>150.4</v>
       </c>
+      <c r="FD15" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8581,6 +8629,9 @@
       <c r="FC16" s="1" t="n">
         <v>162.4</v>
       </c>
+      <c r="FD16" s="1" t="n">
+        <v>180.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9060,6 +9111,9 @@
       <c r="FC17" s="2" t="n">
         <v>110.5</v>
       </c>
+      <c r="FD17" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9539,6 +9593,9 @@
       <c r="FC18" s="1" t="n">
         <v>187.8</v>
       </c>
+      <c r="FD18" s="1" t="n">
+        <v>197.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10018,6 +10075,9 @@
       <c r="FC19" s="1" t="n">
         <v>174.8</v>
       </c>
+      <c r="FD19" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -10497,6 +10557,9 @@
       <c r="FC20" s="3" t="n">
         <v>130.3</v>
       </c>
+      <c r="FD20" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -10976,6 +11039,9 @@
       <c r="FC21" s="3" t="n">
         <v>137.6</v>
       </c>
+      <c r="FD21" s="3" t="n">
+        <v>127.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -11455,6 +11521,9 @@
       <c r="FC22" s="1" t="n">
         <v>162.2</v>
       </c>
+      <c r="FD22" s="1" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -11934,6 +12003,9 @@
       <c r="FC23" s="1" t="n">
         <v>164.1</v>
       </c>
+      <c r="FD23" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -12413,6 +12485,9 @@
       <c r="FC24" s="1" t="n">
         <v>194.3</v>
       </c>
+      <c r="FD24" s="1" t="n">
+        <v>171.6</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -12892,6 +12967,9 @@
       <c r="FC25" s="2" t="n">
         <v>115.6</v>
       </c>
+      <c r="FD25" s="1" t="n">
+        <v>170.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -13371,6 +13449,9 @@
       <c r="FC26" s="2" t="n">
         <v>124.1</v>
       </c>
+      <c r="FD26" s="1" t="n">
+        <v>153.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -13850,6 +13931,9 @@
       <c r="FC27" s="1" t="n">
         <v>205.1</v>
       </c>
+      <c r="FD27" s="1" t="n">
+        <v>169.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -14329,6 +14413,9 @@
       <c r="FC28" s="2" t="n">
         <v>122.7</v>
       </c>
+      <c r="FD28" s="1" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -14808,6 +14895,9 @@
       <c r="FC29" s="1" t="n">
         <v>156.1</v>
       </c>
+      <c r="FD29" s="1" t="n">
+        <v>206.2</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -15287,6 +15377,9 @@
       <c r="FC30" s="3" t="n">
         <v>139.7</v>
       </c>
+      <c r="FD30" s="3" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -15766,6 +15859,9 @@
       <c r="FC31" s="1" t="n">
         <v>174.7</v>
       </c>
+      <c r="FD31" s="1" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -16245,6 +16341,9 @@
       <c r="FC32" s="1" t="n">
         <v>174.2</v>
       </c>
+      <c r="FD32" s="1" t="n">
+        <v>171.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -16724,6 +16823,9 @@
       <c r="FC33" s="3" t="n">
         <v>137.3</v>
       </c>
+      <c r="FD33" s="1" t="n">
+        <v>185.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -17203,6 +17305,9 @@
       <c r="FC34" s="1" t="n">
         <v>147.2</v>
       </c>
+      <c r="FD34" s="1" t="n">
+        <v>153.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -17682,6 +17787,9 @@
       <c r="FC35" s="1" t="n">
         <v>193.1</v>
       </c>
+      <c r="FD35" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -18161,6 +18269,9 @@
       <c r="FC36" s="1" t="n">
         <v>141.5</v>
       </c>
+      <c r="FD36" s="1" t="n">
+        <v>168.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -18640,6 +18751,9 @@
       <c r="FC37" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="FD37" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -19119,6 +19233,9 @@
       <c r="FC38" s="1" t="n">
         <v>152.4</v>
       </c>
+      <c r="FD38" s="1" t="n">
+        <v>140.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -19598,6 +19715,9 @@
       <c r="FC39" s="1" t="n">
         <v>170.7</v>
       </c>
+      <c r="FD39" s="1" t="n">
+        <v>190.8</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -20077,6 +20197,9 @@
       <c r="FC40" s="1" t="n">
         <v>171.3</v>
       </c>
+      <c r="FD40" s="1" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -20556,6 +20679,9 @@
       <c r="FC41" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="FD41" s="1" t="n">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -21035,6 +21161,9 @@
       <c r="FC42" s="3" t="n">
         <v>136.3</v>
       </c>
+      <c r="FD42" s="1" t="n">
+        <v>215.6</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -21514,6 +21643,9 @@
       <c r="FC43" s="1" t="n">
         <v>188</v>
       </c>
+      <c r="FD43" s="1" t="n">
+        <v>161.6</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -21993,6 +22125,9 @@
       <c r="FC44" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="FD44" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -22472,6 +22607,9 @@
       <c r="FC45" s="1" t="n">
         <v>156.4</v>
       </c>
+      <c r="FD45" s="3" t="n">
+        <v>134.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -22951,6 +23089,9 @@
       <c r="FC46" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="FD46" s="1" t="n">
+        <v>152.8</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -23430,6 +23571,9 @@
       <c r="FC47" s="1" t="n">
         <v>177.5</v>
       </c>
+      <c r="FD47" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -23909,6 +24053,9 @@
       <c r="FC48" s="1" t="n">
         <v>196.3</v>
       </c>
+      <c r="FD48" s="1" t="n">
+        <v>177.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -24388,6 +24535,9 @@
       <c r="FC49" s="1" t="n">
         <v>173.5</v>
       </c>
+      <c r="FD49" s="1" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -24867,6 +25017,9 @@
       <c r="FC50" s="1" t="n">
         <v>188.9</v>
       </c>
+      <c r="FD50" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -25345,6 +25498,9 @@
       </c>
       <c r="FC51" s="1" t="n">
         <v>188.6</v>
+      </c>
+      <c r="FD51" s="1" t="n">
+        <v>162.6</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FD51"/>
+  <dimension ref="A1:FE51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,6 +599,7 @@
     <col width="12" customWidth="1" min="158" max="158"/>
     <col width="12" customWidth="1" min="159" max="159"/>
     <col width="12" customWidth="1" min="160" max="160"/>
+    <col width="12" customWidth="1" min="161" max="161"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1402,6 +1403,11 @@
           <t>2025/02/15</t>
         </is>
       </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/16</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1884,6 +1890,9 @@
       <c r="FD2" s="1" t="n">
         <v>162.7</v>
       </c>
+      <c r="FE2" s="1" t="n">
+        <v>164.5</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2366,6 +2375,9 @@
       <c r="FD3" s="1" t="n">
         <v>193</v>
       </c>
+      <c r="FE3" s="1" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2848,6 +2860,9 @@
       <c r="FD4" s="1" t="n">
         <v>169</v>
       </c>
+      <c r="FE4" s="1" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3330,6 +3345,9 @@
       <c r="FD5" s="1" t="n">
         <v>207.6</v>
       </c>
+      <c r="FE5" s="1" t="n">
+        <v>141.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3812,6 +3830,9 @@
       <c r="FD6" s="1" t="n">
         <v>164.9</v>
       </c>
+      <c r="FE6" s="1" t="n">
+        <v>168.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4294,6 +4315,9 @@
       <c r="FD7" s="1" t="n">
         <v>144.2</v>
       </c>
+      <c r="FE7" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4776,6 +4800,9 @@
       <c r="FD8" s="3" t="n">
         <v>133</v>
       </c>
+      <c r="FE8" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5258,6 +5285,9 @@
       <c r="FD9" s="3" t="n">
         <v>138</v>
       </c>
+      <c r="FE9" s="1" t="n">
+        <v>163.6</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5740,6 +5770,9 @@
       <c r="FD10" s="3" t="n">
         <v>137</v>
       </c>
+      <c r="FE10" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6222,6 +6255,9 @@
       <c r="FD11" s="2" t="n">
         <v>122.7</v>
       </c>
+      <c r="FE11" s="1" t="n">
+        <v>181.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6704,6 +6740,9 @@
       <c r="FD12" s="3" t="n">
         <v>139</v>
       </c>
+      <c r="FE12" s="1" t="n">
+        <v>207.9</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7186,6 +7225,9 @@
       <c r="FD13" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="FE13" s="1" t="n">
+        <v>171.6</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7668,6 +7710,9 @@
       <c r="FD14" s="1" t="n">
         <v>155.5</v>
       </c>
+      <c r="FE14" s="1" t="n">
+        <v>163.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8150,6 +8195,9 @@
       <c r="FD15" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="FE15" s="1" t="n">
+        <v>260.8</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8632,6 +8680,9 @@
       <c r="FD16" s="1" t="n">
         <v>180.7</v>
       </c>
+      <c r="FE16" s="3" t="n">
+        <v>126.3</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9114,6 +9165,9 @@
       <c r="FD17" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="FE17" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9596,6 +9650,9 @@
       <c r="FD18" s="1" t="n">
         <v>197.8</v>
       </c>
+      <c r="FE18" s="3" t="n">
+        <v>134.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10078,6 +10135,9 @@
       <c r="FD19" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="FE19" s="1" t="n">
+        <v>199.4</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -10560,6 +10620,9 @@
       <c r="FD20" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="FE20" s="1" t="n">
+        <v>161.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11042,6 +11105,9 @@
       <c r="FD21" s="3" t="n">
         <v>127.1</v>
       </c>
+      <c r="FE21" s="1" t="n">
+        <v>174.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -11524,6 +11590,9 @@
       <c r="FD22" s="1" t="n">
         <v>140.3</v>
       </c>
+      <c r="FE22" s="1" t="n">
+        <v>161.5</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12006,6 +12075,9 @@
       <c r="FD23" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="FE23" s="1" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -12488,6 +12560,9 @@
       <c r="FD24" s="1" t="n">
         <v>171.6</v>
       </c>
+      <c r="FE24" s="1" t="n">
+        <v>170.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -12970,6 +13045,9 @@
       <c r="FD25" s="1" t="n">
         <v>170.6</v>
       </c>
+      <c r="FE25" s="3" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -13452,6 +13530,9 @@
       <c r="FD26" s="1" t="n">
         <v>153.1</v>
       </c>
+      <c r="FE26" s="1" t="n">
+        <v>163.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -13934,6 +14015,9 @@
       <c r="FD27" s="1" t="n">
         <v>169.3</v>
       </c>
+      <c r="FE27" s="1" t="n">
+        <v>188.8</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -14416,6 +14500,9 @@
       <c r="FD28" s="1" t="n">
         <v>188.9</v>
       </c>
+      <c r="FE28" s="1" t="n">
+        <v>173.7</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -14898,6 +14985,9 @@
       <c r="FD29" s="1" t="n">
         <v>206.2</v>
       </c>
+      <c r="FE29" s="1" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -15380,6 +15470,9 @@
       <c r="FD30" s="3" t="n">
         <v>133.3</v>
       </c>
+      <c r="FE30" s="1" t="n">
+        <v>202.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -15862,6 +15955,9 @@
       <c r="FD31" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="FE31" s="1" t="n">
+        <v>150.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -16344,6 +16440,9 @@
       <c r="FD32" s="1" t="n">
         <v>171.4</v>
       </c>
+      <c r="FE32" s="1" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -16826,6 +16925,9 @@
       <c r="FD33" s="1" t="n">
         <v>185.2</v>
       </c>
+      <c r="FE33" s="1" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -17308,6 +17410,9 @@
       <c r="FD34" s="1" t="n">
         <v>153.7</v>
       </c>
+      <c r="FE34" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -17790,6 +17895,9 @@
       <c r="FD35" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="FE35" s="1" t="n">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -18272,6 +18380,9 @@
       <c r="FD36" s="1" t="n">
         <v>168.6</v>
       </c>
+      <c r="FE36" s="1" t="n">
+        <v>164.6</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -18754,6 +18865,9 @@
       <c r="FD37" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="FE37" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -19236,6 +19350,9 @@
       <c r="FD38" s="1" t="n">
         <v>140.9</v>
       </c>
+      <c r="FE38" s="2" t="n">
+        <v>120.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -19718,6 +19835,9 @@
       <c r="FD39" s="1" t="n">
         <v>190.8</v>
       </c>
+      <c r="FE39" s="1" t="n">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -20200,6 +20320,9 @@
       <c r="FD40" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="FE40" s="1" t="n">
+        <v>181.6</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -20682,6 +20805,9 @@
       <c r="FD41" s="1" t="n">
         <v>140.7</v>
       </c>
+      <c r="FE41" s="1" t="n">
+        <v>146.2</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -21164,6 +21290,9 @@
       <c r="FD42" s="1" t="n">
         <v>215.6</v>
       </c>
+      <c r="FE42" s="2" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -21646,6 +21775,9 @@
       <c r="FD43" s="1" t="n">
         <v>161.6</v>
       </c>
+      <c r="FE43" s="1" t="n">
+        <v>186.4</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -22128,6 +22260,9 @@
       <c r="FD44" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="FE44" s="1" t="n">
+        <v>213.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -22610,6 +22745,9 @@
       <c r="FD45" s="3" t="n">
         <v>134.6</v>
       </c>
+      <c r="FE45" s="1" t="n">
+        <v>146.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -23092,6 +23230,9 @@
       <c r="FD46" s="1" t="n">
         <v>152.8</v>
       </c>
+      <c r="FE46" s="1" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -23574,6 +23715,9 @@
       <c r="FD47" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="FE47" s="1" t="n">
+        <v>283.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -24056,6 +24200,9 @@
       <c r="FD48" s="1" t="n">
         <v>177.4</v>
       </c>
+      <c r="FE48" s="1" t="n">
+        <v>170.5</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -24538,6 +24685,9 @@
       <c r="FD49" s="1" t="n">
         <v>188.8</v>
       </c>
+      <c r="FE49" s="1" t="n">
+        <v>140.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -25020,6 +25170,9 @@
       <c r="FD50" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="FE50" s="1" t="n">
+        <v>207.1</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -25501,6 +25654,9 @@
       </c>
       <c r="FD51" s="1" t="n">
         <v>162.6</v>
+      </c>
+      <c r="FE51" s="1" t="n">
+        <v>205.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FE51"/>
+  <dimension ref="A1:FF51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,6 +600,7 @@
     <col width="12" customWidth="1" min="159" max="159"/>
     <col width="12" customWidth="1" min="160" max="160"/>
     <col width="12" customWidth="1" min="161" max="161"/>
+    <col width="12" customWidth="1" min="162" max="162"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1408,6 +1409,11 @@
           <t>2025/02/16</t>
         </is>
       </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/17</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1893,6 +1899,9 @@
       <c r="FE2" s="1" t="n">
         <v>164.5</v>
       </c>
+      <c r="FF2" s="1" t="n">
+        <v>153.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2378,6 +2387,9 @@
       <c r="FE3" s="1" t="n">
         <v>143</v>
       </c>
+      <c r="FF3" s="1" t="n">
+        <v>157.2</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2863,6 +2875,9 @@
       <c r="FE4" s="1" t="n">
         <v>159</v>
       </c>
+      <c r="FF4" s="3" t="n">
+        <v>138.9</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3348,6 +3363,9 @@
       <c r="FE5" s="1" t="n">
         <v>141.8</v>
       </c>
+      <c r="FF5" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3833,6 +3851,9 @@
       <c r="FE6" s="1" t="n">
         <v>168.8</v>
       </c>
+      <c r="FF6" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4318,6 +4339,9 @@
       <c r="FE7" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="FF7" s="3" t="n">
+        <v>135.5</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4803,6 +4827,9 @@
       <c r="FE8" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="FF8" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5288,6 +5315,9 @@
       <c r="FE9" s="1" t="n">
         <v>163.6</v>
       </c>
+      <c r="FF9" s="1" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5773,6 +5803,9 @@
       <c r="FE10" s="1" t="n">
         <v>149.2</v>
       </c>
+      <c r="FF10" s="3" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6258,6 +6291,9 @@
       <c r="FE11" s="1" t="n">
         <v>181.3</v>
       </c>
+      <c r="FF11" s="3" t="n">
+        <v>133.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6743,6 +6779,9 @@
       <c r="FE12" s="1" t="n">
         <v>207.9</v>
       </c>
+      <c r="FF12" s="3" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7228,6 +7267,9 @@
       <c r="FE13" s="1" t="n">
         <v>171.6</v>
       </c>
+      <c r="FF13" s="1" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7713,6 +7755,9 @@
       <c r="FE14" s="1" t="n">
         <v>163.1</v>
       </c>
+      <c r="FF14" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8198,6 +8243,9 @@
       <c r="FE15" s="1" t="n">
         <v>260.8</v>
       </c>
+      <c r="FF15" s="1" t="n">
+        <v>142.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8683,6 +8731,9 @@
       <c r="FE16" s="3" t="n">
         <v>126.3</v>
       </c>
+      <c r="FF16" s="1" t="n">
+        <v>201.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9168,6 +9219,9 @@
       <c r="FE17" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="FF17" s="1" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9653,6 +9707,9 @@
       <c r="FE18" s="3" t="n">
         <v>134.6</v>
       </c>
+      <c r="FF18" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10138,6 +10195,9 @@
       <c r="FE19" s="1" t="n">
         <v>199.4</v>
       </c>
+      <c r="FF19" s="1" t="n">
+        <v>167.2</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -10623,6 +10683,9 @@
       <c r="FE20" s="1" t="n">
         <v>161.7</v>
       </c>
+      <c r="FF20" s="1" t="n">
+        <v>151.5</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11108,6 +11171,9 @@
       <c r="FE21" s="1" t="n">
         <v>174.1</v>
       </c>
+      <c r="FF21" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -11593,6 +11659,9 @@
       <c r="FE22" s="1" t="n">
         <v>161.5</v>
       </c>
+      <c r="FF22" s="3" t="n">
+        <v>125.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12078,6 +12147,9 @@
       <c r="FE23" s="1" t="n">
         <v>173</v>
       </c>
+      <c r="FF23" s="3" t="n">
+        <v>132.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -12563,6 +12635,9 @@
       <c r="FE24" s="1" t="n">
         <v>170.9</v>
       </c>
+      <c r="FF24" s="1" t="n">
+        <v>153.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13048,6 +13123,9 @@
       <c r="FE25" s="3" t="n">
         <v>139</v>
       </c>
+      <c r="FF25" s="1" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -13533,6 +13611,9 @@
       <c r="FE26" s="1" t="n">
         <v>163.3</v>
       </c>
+      <c r="FF26" s="1" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14018,6 +14099,9 @@
       <c r="FE27" s="1" t="n">
         <v>188.8</v>
       </c>
+      <c r="FF27" s="1" t="n">
+        <v>143.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -14503,6 +14587,9 @@
       <c r="FE28" s="1" t="n">
         <v>173.7</v>
       </c>
+      <c r="FF28" s="1" t="n">
+        <v>162.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -14988,6 +15075,9 @@
       <c r="FE29" s="1" t="n">
         <v>166</v>
       </c>
+      <c r="FF29" s="2" t="n">
+        <v>120.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -15473,6 +15563,9 @@
       <c r="FE30" s="1" t="n">
         <v>202.4</v>
       </c>
+      <c r="FF30" s="3" t="n">
+        <v>139.9</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -15958,6 +16051,9 @@
       <c r="FE31" s="1" t="n">
         <v>150.4</v>
       </c>
+      <c r="FF31" s="2" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -16443,6 +16539,9 @@
       <c r="FE32" s="1" t="n">
         <v>146</v>
       </c>
+      <c r="FF32" s="3" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -16928,6 +17027,9 @@
       <c r="FE33" s="1" t="n">
         <v>147</v>
       </c>
+      <c r="FF33" s="3" t="n">
+        <v>134.5</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -17413,6 +17515,9 @@
       <c r="FE34" s="1" t="n">
         <v>147.7</v>
       </c>
+      <c r="FF34" s="1" t="n">
+        <v>174.6</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -17898,6 +18003,9 @@
       <c r="FE35" s="1" t="n">
         <v>167.6</v>
       </c>
+      <c r="FF35" s="1" t="n">
+        <v>192.8</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -18383,6 +18491,9 @@
       <c r="FE36" s="1" t="n">
         <v>164.6</v>
       </c>
+      <c r="FF36" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -18868,6 +18979,9 @@
       <c r="FE37" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="FF37" s="1" t="n">
+        <v>142.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -19353,6 +19467,9 @@
       <c r="FE38" s="2" t="n">
         <v>120.3</v>
       </c>
+      <c r="FF38" s="1" t="n">
+        <v>233.5</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -19838,6 +19955,9 @@
       <c r="FE39" s="1" t="n">
         <v>152.4</v>
       </c>
+      <c r="FF39" s="1" t="n">
+        <v>148.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -20323,6 +20443,9 @@
       <c r="FE40" s="1" t="n">
         <v>181.6</v>
       </c>
+      <c r="FF40" s="3" t="n">
+        <v>134.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -20808,6 +20931,9 @@
       <c r="FE41" s="1" t="n">
         <v>146.2</v>
       </c>
+      <c r="FF41" s="1" t="n">
+        <v>147.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -21293,6 +21419,9 @@
       <c r="FE42" s="2" t="n">
         <v>121.2</v>
       </c>
+      <c r="FF42" s="3" t="n">
+        <v>134.8</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -21778,6 +21907,9 @@
       <c r="FE43" s="1" t="n">
         <v>186.4</v>
       </c>
+      <c r="FF43" s="1" t="n">
+        <v>170.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -22263,6 +22395,9 @@
       <c r="FE44" s="1" t="n">
         <v>213.8</v>
       </c>
+      <c r="FF44" s="1" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -22748,6 +22883,9 @@
       <c r="FE45" s="1" t="n">
         <v>146.9</v>
       </c>
+      <c r="FF45" s="1" t="n">
+        <v>162.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -23233,6 +23371,9 @@
       <c r="FE46" s="1" t="n">
         <v>149.1</v>
       </c>
+      <c r="FF46" s="1" t="n">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -23718,6 +23859,9 @@
       <c r="FE47" s="1" t="n">
         <v>283.2</v>
       </c>
+      <c r="FF47" s="1" t="n">
+        <v>169.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -24203,6 +24347,9 @@
       <c r="FE48" s="1" t="n">
         <v>170.5</v>
       </c>
+      <c r="FF48" s="1" t="n">
+        <v>184.6</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -24688,6 +24835,9 @@
       <c r="FE49" s="1" t="n">
         <v>140.2</v>
       </c>
+      <c r="FF49" s="1" t="n">
+        <v>205.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -25173,6 +25323,9 @@
       <c r="FE50" s="1" t="n">
         <v>207.1</v>
       </c>
+      <c r="FF50" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -25657,6 +25810,9 @@
       </c>
       <c r="FE51" s="1" t="n">
         <v>205.1</v>
+      </c>
+      <c r="FF51" s="1" t="n">
+        <v>167.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FF51"/>
+  <dimension ref="A1:FG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +601,7 @@
     <col width="12" customWidth="1" min="160" max="160"/>
     <col width="12" customWidth="1" min="161" max="161"/>
     <col width="12" customWidth="1" min="162" max="162"/>
+    <col width="12" customWidth="1" min="163" max="163"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1414,6 +1415,11 @@
           <t>2025/02/17</t>
         </is>
       </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/18</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1902,6 +1908,9 @@
       <c r="FF2" s="1" t="n">
         <v>153.2</v>
       </c>
+      <c r="FG2" s="1" t="n">
+        <v>163.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2390,6 +2399,9 @@
       <c r="FF3" s="1" t="n">
         <v>157.2</v>
       </c>
+      <c r="FG3" s="1" t="n">
+        <v>155.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2878,6 +2890,9 @@
       <c r="FF4" s="3" t="n">
         <v>138.9</v>
       </c>
+      <c r="FG4" s="1" t="n">
+        <v>195.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3366,6 +3381,9 @@
       <c r="FF5" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="FG5" s="1" t="n">
+        <v>146.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3854,6 +3872,9 @@
       <c r="FF6" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="FG6" s="1" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4342,6 +4363,9 @@
       <c r="FF7" s="3" t="n">
         <v>135.5</v>
       </c>
+      <c r="FG7" s="3" t="n">
+        <v>130.2</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4830,6 +4854,9 @@
       <c r="FF8" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="FG8" s="2" t="n">
+        <v>124.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5318,6 +5345,9 @@
       <c r="FF9" s="1" t="n">
         <v>164</v>
       </c>
+      <c r="FG9" s="1" t="n">
+        <v>150.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5806,6 +5836,9 @@
       <c r="FF10" s="3" t="n">
         <v>134</v>
       </c>
+      <c r="FG10" s="3" t="n">
+        <v>138.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6294,6 +6327,9 @@
       <c r="FF11" s="3" t="n">
         <v>133.2</v>
       </c>
+      <c r="FG11" s="2" t="n">
+        <v>117.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6782,6 +6818,9 @@
       <c r="FF12" s="3" t="n">
         <v>127.8</v>
       </c>
+      <c r="FG12" s="1" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7270,6 +7309,9 @@
       <c r="FF13" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="FG13" s="3" t="n">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7758,6 +7800,9 @@
       <c r="FF14" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="FG14" s="1" t="n">
+        <v>177.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8246,6 +8291,9 @@
       <c r="FF15" s="1" t="n">
         <v>142.6</v>
       </c>
+      <c r="FG15" s="3" t="n">
+        <v>135.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8734,6 +8782,9 @@
       <c r="FF16" s="1" t="n">
         <v>201.7</v>
       </c>
+      <c r="FG16" s="1" t="n">
+        <v>166.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9222,6 +9273,9 @@
       <c r="FF17" s="1" t="n">
         <v>187.4</v>
       </c>
+      <c r="FG17" s="1" t="n">
+        <v>175.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9710,6 +9764,9 @@
       <c r="FF18" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="FG18" s="3" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10198,6 +10255,9 @@
       <c r="FF19" s="1" t="n">
         <v>167.2</v>
       </c>
+      <c r="FG19" s="1" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -10686,6 +10746,9 @@
       <c r="FF20" s="1" t="n">
         <v>151.5</v>
       </c>
+      <c r="FG20" s="1" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11174,6 +11237,9 @@
       <c r="FF21" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="FG21" s="3" t="n">
+        <v>134.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -11662,6 +11728,9 @@
       <c r="FF22" s="3" t="n">
         <v>125.9</v>
       </c>
+      <c r="FG22" s="1" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12150,6 +12219,9 @@
       <c r="FF23" s="3" t="n">
         <v>132.9</v>
       </c>
+      <c r="FG23" s="2" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -12638,6 +12710,9 @@
       <c r="FF24" s="1" t="n">
         <v>153.5</v>
       </c>
+      <c r="FG24" s="3" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13126,6 +13201,9 @@
       <c r="FF25" s="1" t="n">
         <v>150.6</v>
       </c>
+      <c r="FG25" s="1" t="n">
+        <v>158.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -13614,6 +13692,9 @@
       <c r="FF26" s="1" t="n">
         <v>151.8</v>
       </c>
+      <c r="FG26" s="1" t="n">
+        <v>167.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14102,6 +14183,9 @@
       <c r="FF27" s="1" t="n">
         <v>143.1</v>
       </c>
+      <c r="FG27" s="1" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -14590,6 +14674,9 @@
       <c r="FF28" s="1" t="n">
         <v>162.8</v>
       </c>
+      <c r="FG28" s="1" t="n">
+        <v>154.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -15078,6 +15165,9 @@
       <c r="FF29" s="2" t="n">
         <v>120.3</v>
       </c>
+      <c r="FG29" s="1" t="n">
+        <v>157.7</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -15566,6 +15656,9 @@
       <c r="FF30" s="3" t="n">
         <v>139.9</v>
       </c>
+      <c r="FG30" s="3" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -16054,6 +16147,9 @@
       <c r="FF31" s="2" t="n">
         <v>121.6</v>
       </c>
+      <c r="FG31" s="1" t="n">
+        <v>173.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -16542,6 +16638,9 @@
       <c r="FF32" s="3" t="n">
         <v>133.9</v>
       </c>
+      <c r="FG32" s="2" t="n">
+        <v>121.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -17030,6 +17129,9 @@
       <c r="FF33" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="FG33" s="1" t="n">
+        <v>585.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -17518,6 +17620,9 @@
       <c r="FF34" s="1" t="n">
         <v>174.6</v>
       </c>
+      <c r="FG34" s="1" t="n">
+        <v>147.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -18006,6 +18111,9 @@
       <c r="FF35" s="1" t="n">
         <v>192.8</v>
       </c>
+      <c r="FG35" s="1" t="n">
+        <v>195.1</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -18494,6 +18602,9 @@
       <c r="FF36" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="FG36" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -18982,6 +19093,9 @@
       <c r="FF37" s="1" t="n">
         <v>142.1</v>
       </c>
+      <c r="FG37" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -19470,6 +19584,9 @@
       <c r="FF38" s="1" t="n">
         <v>233.5</v>
       </c>
+      <c r="FG38" s="3" t="n">
+        <v>129.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -19958,6 +20075,9 @@
       <c r="FF39" s="1" t="n">
         <v>148.5</v>
       </c>
+      <c r="FG39" s="1" t="n">
+        <v>273.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -20446,6 +20566,9 @@
       <c r="FF40" s="3" t="n">
         <v>134.4</v>
       </c>
+      <c r="FG40" s="1" t="n">
+        <v>180.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -20934,6 +21057,9 @@
       <c r="FF41" s="1" t="n">
         <v>147.6</v>
       </c>
+      <c r="FG41" s="1" t="n">
+        <v>146.1</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -21422,6 +21548,9 @@
       <c r="FF42" s="3" t="n">
         <v>134.8</v>
       </c>
+      <c r="FG42" s="1" t="n">
+        <v>168.3</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -21910,6 +22039,9 @@
       <c r="FF43" s="1" t="n">
         <v>170.2</v>
       </c>
+      <c r="FG43" s="1" t="n">
+        <v>202.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -22398,6 +22530,9 @@
       <c r="FF44" s="1" t="n">
         <v>188.7</v>
       </c>
+      <c r="FG44" s="1" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -22886,6 +23021,9 @@
       <c r="FF45" s="1" t="n">
         <v>162.2</v>
       </c>
+      <c r="FG45" s="1" t="n">
+        <v>237.3</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -23374,6 +23512,9 @@
       <c r="FF46" s="1" t="n">
         <v>144.2</v>
       </c>
+      <c r="FG46" s="1" t="n">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -23862,6 +24003,9 @@
       <c r="FF47" s="1" t="n">
         <v>169.1</v>
       </c>
+      <c r="FG47" s="1" t="n">
+        <v>202.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -24350,6 +24494,9 @@
       <c r="FF48" s="1" t="n">
         <v>184.6</v>
       </c>
+      <c r="FG48" s="1" t="n">
+        <v>218.8</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -24838,6 +24985,9 @@
       <c r="FF49" s="1" t="n">
         <v>205.2</v>
       </c>
+      <c r="FG49" s="1" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -25326,6 +25476,9 @@
       <c r="FF50" s="1" t="n">
         <v>143.3</v>
       </c>
+      <c r="FG50" s="3" t="n">
+        <v>139.1</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -25813,6 +25966,9 @@
       </c>
       <c r="FF51" s="1" t="n">
         <v>167.7</v>
+      </c>
+      <c r="FG51" s="1" t="n">
+        <v>177.5</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FG51"/>
+  <dimension ref="A1:FH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,6 +602,7 @@
     <col width="12" customWidth="1" min="161" max="161"/>
     <col width="12" customWidth="1" min="162" max="162"/>
     <col width="12" customWidth="1" min="163" max="163"/>
+    <col width="12" customWidth="1" min="164" max="164"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1420,6 +1421,11 @@
           <t>2025/02/18</t>
         </is>
       </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/19</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1911,6 +1917,9 @@
       <c r="FG2" s="1" t="n">
         <v>163.9</v>
       </c>
+      <c r="FH2" s="1" t="n">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2402,6 +2411,9 @@
       <c r="FG3" s="1" t="n">
         <v>155.1</v>
       </c>
+      <c r="FH3" s="3" t="n">
+        <v>126.6</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2893,6 +2905,9 @@
       <c r="FG4" s="1" t="n">
         <v>195.6</v>
       </c>
+      <c r="FH4" s="1" t="n">
+        <v>141.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3384,6 +3399,9 @@
       <c r="FG5" s="1" t="n">
         <v>146.5</v>
       </c>
+      <c r="FH5" s="1" t="n">
+        <v>185.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3875,6 +3893,9 @@
       <c r="FG6" s="1" t="n">
         <v>208</v>
       </c>
+      <c r="FH6" s="3" t="n">
+        <v>134.5</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4366,6 +4387,9 @@
       <c r="FG7" s="3" t="n">
         <v>130.2</v>
       </c>
+      <c r="FH7" s="1" t="n">
+        <v>176.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4857,6 +4881,9 @@
       <c r="FG8" s="2" t="n">
         <v>124.4</v>
       </c>
+      <c r="FH8" s="3" t="n">
+        <v>127.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5348,6 +5375,9 @@
       <c r="FG9" s="1" t="n">
         <v>150.2</v>
       </c>
+      <c r="FH9" s="1" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5839,6 +5869,9 @@
       <c r="FG10" s="3" t="n">
         <v>138.4</v>
       </c>
+      <c r="FH10" s="1" t="n">
+        <v>178.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6330,6 +6363,9 @@
       <c r="FG11" s="2" t="n">
         <v>117.4</v>
       </c>
+      <c r="FH11" s="1" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6821,6 +6857,9 @@
       <c r="FG12" s="1" t="n">
         <v>189.3</v>
       </c>
+      <c r="FH12" s="1" t="n">
+        <v>181.9</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7312,6 +7351,9 @@
       <c r="FG13" s="3" t="n">
         <v>127.4</v>
       </c>
+      <c r="FH13" s="3" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7803,6 +7845,9 @@
       <c r="FG14" s="1" t="n">
         <v>177.5</v>
       </c>
+      <c r="FH14" s="1" t="n">
+        <v>222.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8294,6 +8339,9 @@
       <c r="FG15" s="3" t="n">
         <v>135.2</v>
       </c>
+      <c r="FH15" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8785,6 +8833,9 @@
       <c r="FG16" s="1" t="n">
         <v>166.7</v>
       </c>
+      <c r="FH16" s="1" t="n">
+        <v>301.8</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9276,6 +9327,9 @@
       <c r="FG17" s="1" t="n">
         <v>175.3</v>
       </c>
+      <c r="FH17" s="2" t="n">
+        <v>123.2</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9767,6 +9821,9 @@
       <c r="FG18" s="3" t="n">
         <v>126.5</v>
       </c>
+      <c r="FH18" s="3" t="n">
+        <v>139.2</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10258,6 +10315,9 @@
       <c r="FG19" s="1" t="n">
         <v>172</v>
       </c>
+      <c r="FH19" s="1" t="n">
+        <v>172.2</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -10749,6 +10809,9 @@
       <c r="FG20" s="1" t="n">
         <v>189.3</v>
       </c>
+      <c r="FH20" s="2" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11240,6 +11303,9 @@
       <c r="FG21" s="3" t="n">
         <v>134.1</v>
       </c>
+      <c r="FH21" s="1" t="n">
+        <v>185.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -11731,6 +11797,9 @@
       <c r="FG22" s="1" t="n">
         <v>179</v>
       </c>
+      <c r="FH22" s="1" t="n">
+        <v>140.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12222,6 +12291,9 @@
       <c r="FG23" s="2" t="n">
         <v>87</v>
       </c>
+      <c r="FH23" s="1" t="n">
+        <v>206.9</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -12713,6 +12785,9 @@
       <c r="FG24" s="3" t="n">
         <v>139.5</v>
       </c>
+      <c r="FH24" s="1" t="n">
+        <v>155.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13204,6 +13279,9 @@
       <c r="FG25" s="1" t="n">
         <v>158.1</v>
       </c>
+      <c r="FH25" s="1" t="n">
+        <v>179.1</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -13695,6 +13773,9 @@
       <c r="FG26" s="1" t="n">
         <v>167.1</v>
       </c>
+      <c r="FH26" s="1" t="n">
+        <v>235.7</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14186,6 +14267,9 @@
       <c r="FG27" s="1" t="n">
         <v>167</v>
       </c>
+      <c r="FH27" s="1" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -14677,6 +14761,9 @@
       <c r="FG28" s="1" t="n">
         <v>154.1</v>
       </c>
+      <c r="FH28" s="1" t="n">
+        <v>148.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -15168,6 +15255,9 @@
       <c r="FG29" s="1" t="n">
         <v>157.7</v>
       </c>
+      <c r="FH29" s="1" t="n">
+        <v>183.5</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -15659,6 +15749,9 @@
       <c r="FG30" s="3" t="n">
         <v>130.5</v>
       </c>
+      <c r="FH30" s="1" t="n">
+        <v>184.4</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -16150,6 +16243,9 @@
       <c r="FG31" s="1" t="n">
         <v>173.6</v>
       </c>
+      <c r="FH31" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -16641,6 +16737,9 @@
       <c r="FG32" s="2" t="n">
         <v>121.9</v>
       </c>
+      <c r="FH32" s="1" t="n">
+        <v>317.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -17132,6 +17231,9 @@
       <c r="FG33" s="1" t="n">
         <v>585.3</v>
       </c>
+      <c r="FH33" s="2" t="n">
+        <v>119.6</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -17623,6 +17725,9 @@
       <c r="FG34" s="1" t="n">
         <v>147.3</v>
       </c>
+      <c r="FH34" s="2" t="n">
+        <v>111.8</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -18114,6 +18219,9 @@
       <c r="FG35" s="1" t="n">
         <v>195.1</v>
       </c>
+      <c r="FH35" s="1" t="n">
+        <v>156.7</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -18605,6 +18713,9 @@
       <c r="FG36" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="FH36" s="1" t="n">
+        <v>343.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -19096,6 +19207,9 @@
       <c r="FG37" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="FH37" s="3" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -19587,6 +19701,9 @@
       <c r="FG38" s="3" t="n">
         <v>129.9</v>
       </c>
+      <c r="FH38" s="1" t="n">
+        <v>144.7</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -20078,6 +20195,9 @@
       <c r="FG39" s="1" t="n">
         <v>273.7</v>
       </c>
+      <c r="FH39" s="1" t="n">
+        <v>211.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -20569,6 +20689,9 @@
       <c r="FG40" s="1" t="n">
         <v>180.3</v>
       </c>
+      <c r="FH40" s="1" t="n">
+        <v>169.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -21060,6 +21183,9 @@
       <c r="FG41" s="1" t="n">
         <v>146.1</v>
       </c>
+      <c r="FH41" s="1" t="n">
+        <v>202.2</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -21551,6 +21677,9 @@
       <c r="FG42" s="1" t="n">
         <v>168.3</v>
       </c>
+      <c r="FH42" s="1" t="n">
+        <v>160.3</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -22042,6 +22171,9 @@
       <c r="FG43" s="1" t="n">
         <v>202.1</v>
       </c>
+      <c r="FH43" s="1" t="n">
+        <v>156.7</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -22533,6 +22665,9 @@
       <c r="FG44" s="1" t="n">
         <v>166</v>
       </c>
+      <c r="FH44" s="1" t="n">
+        <v>225.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -23024,6 +23159,9 @@
       <c r="FG45" s="1" t="n">
         <v>237.3</v>
       </c>
+      <c r="FH45" s="1" t="n">
+        <v>178.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -23515,6 +23653,9 @@
       <c r="FG46" s="1" t="n">
         <v>167.6</v>
       </c>
+      <c r="FH46" s="1" t="n">
+        <v>267.2</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -24006,6 +24147,9 @@
       <c r="FG47" s="1" t="n">
         <v>202.2</v>
       </c>
+      <c r="FH47" s="3" t="n">
+        <v>131.2</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -24497,6 +24641,9 @@
       <c r="FG48" s="1" t="n">
         <v>218.8</v>
       </c>
+      <c r="FH48" s="1" t="n">
+        <v>168.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -24988,6 +25135,9 @@
       <c r="FG49" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="FH49" s="1" t="n">
+        <v>148.2</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -25479,6 +25629,9 @@
       <c r="FG50" s="3" t="n">
         <v>139.1</v>
       </c>
+      <c r="FH50" s="1" t="n">
+        <v>246.8</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -25969,6 +26122,9 @@
       </c>
       <c r="FG51" s="1" t="n">
         <v>177.5</v>
+      </c>
+      <c r="FH51" s="3" t="n">
+        <v>130.1</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FH51"/>
+  <dimension ref="A1:FI51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,7 @@
     <col width="12" customWidth="1" min="162" max="162"/>
     <col width="12" customWidth="1" min="163" max="163"/>
     <col width="12" customWidth="1" min="164" max="164"/>
+    <col width="12" customWidth="1" min="165" max="165"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1426,6 +1427,11 @@
           <t>2025/02/19</t>
         </is>
       </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/20</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1920,6 +1926,9 @@
       <c r="FH2" s="1" t="n">
         <v>140.7</v>
       </c>
+      <c r="FI2" s="1" t="n">
+        <v>164.1</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2414,6 +2423,9 @@
       <c r="FH3" s="3" t="n">
         <v>126.6</v>
       </c>
+      <c r="FI3" s="1" t="n">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2908,6 +2920,9 @@
       <c r="FH4" s="1" t="n">
         <v>141.6</v>
       </c>
+      <c r="FI4" s="1" t="n">
+        <v>179.9</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3402,6 +3417,9 @@
       <c r="FH5" s="1" t="n">
         <v>185.9</v>
       </c>
+      <c r="FI5" s="1" t="n">
+        <v>153.5</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3896,6 +3914,9 @@
       <c r="FH6" s="3" t="n">
         <v>134.5</v>
       </c>
+      <c r="FI6" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4390,6 +4411,9 @@
       <c r="FH7" s="1" t="n">
         <v>176.7</v>
       </c>
+      <c r="FI7" s="3" t="n">
+        <v>133.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4884,6 +4908,9 @@
       <c r="FH8" s="3" t="n">
         <v>127.5</v>
       </c>
+      <c r="FI8" s="1" t="n">
+        <v>269.8</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5378,6 +5405,9 @@
       <c r="FH9" s="1" t="n">
         <v>311</v>
       </c>
+      <c r="FI9" s="1" t="n">
+        <v>159.5</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5872,6 +5902,9 @@
       <c r="FH10" s="1" t="n">
         <v>178.4</v>
       </c>
+      <c r="FI10" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6366,6 +6399,9 @@
       <c r="FH11" s="1" t="n">
         <v>156.6</v>
       </c>
+      <c r="FI11" s="3" t="n">
+        <v>133.6</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6860,6 +6896,9 @@
       <c r="FH12" s="1" t="n">
         <v>181.9</v>
       </c>
+      <c r="FI12" s="1" t="n">
+        <v>264.6</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7354,6 +7393,9 @@
       <c r="FH13" s="3" t="n">
         <v>133</v>
       </c>
+      <c r="FI13" s="3" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7848,6 +7890,9 @@
       <c r="FH14" s="1" t="n">
         <v>222.9</v>
       </c>
+      <c r="FI14" s="1" t="n">
+        <v>145.5</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8342,6 +8387,9 @@
       <c r="FH15" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="FI15" s="1" t="n">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8836,6 +8884,9 @@
       <c r="FH16" s="1" t="n">
         <v>301.8</v>
       </c>
+      <c r="FI16" s="1" t="n">
+        <v>175.8</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9330,6 +9381,9 @@
       <c r="FH17" s="2" t="n">
         <v>123.2</v>
       </c>
+      <c r="FI17" s="1" t="n">
+        <v>191.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9824,6 +9878,9 @@
       <c r="FH18" s="3" t="n">
         <v>139.2</v>
       </c>
+      <c r="FI18" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10318,6 +10375,9 @@
       <c r="FH19" s="1" t="n">
         <v>172.2</v>
       </c>
+      <c r="FI19" s="1" t="n">
+        <v>183.5</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -10812,6 +10872,9 @@
       <c r="FH20" s="2" t="n">
         <v>124</v>
       </c>
+      <c r="FI20" s="3" t="n">
+        <v>129.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11306,6 +11369,9 @@
       <c r="FH21" s="1" t="n">
         <v>185.8</v>
       </c>
+      <c r="FI21" s="3" t="n">
+        <v>133.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -11800,6 +11866,9 @@
       <c r="FH22" s="1" t="n">
         <v>140.7</v>
       </c>
+      <c r="FI22" s="1" t="n">
+        <v>219.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12294,6 +12363,9 @@
       <c r="FH23" s="1" t="n">
         <v>206.9</v>
       </c>
+      <c r="FI23" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -12788,6 +12860,9 @@
       <c r="FH24" s="1" t="n">
         <v>155.7</v>
       </c>
+      <c r="FI24" s="1" t="n">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13282,6 +13357,9 @@
       <c r="FH25" s="1" t="n">
         <v>179.1</v>
       </c>
+      <c r="FI25" s="1" t="n">
+        <v>173.3</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -13776,6 +13854,9 @@
       <c r="FH26" s="1" t="n">
         <v>235.7</v>
       </c>
+      <c r="FI26" s="2" t="n">
+        <v>112.2</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14270,6 +14351,9 @@
       <c r="FH27" s="1" t="n">
         <v>164.3</v>
       </c>
+      <c r="FI27" s="3" t="n">
+        <v>138.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -14764,6 +14848,9 @@
       <c r="FH28" s="1" t="n">
         <v>148.3</v>
       </c>
+      <c r="FI28" s="3" t="n">
+        <v>135.1</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -15258,6 +15345,9 @@
       <c r="FH29" s="1" t="n">
         <v>183.5</v>
       </c>
+      <c r="FI29" s="3" t="n">
+        <v>133.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -15752,6 +15842,9 @@
       <c r="FH30" s="1" t="n">
         <v>184.4</v>
       </c>
+      <c r="FI30" s="1" t="n">
+        <v>168.2</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -16246,6 +16339,9 @@
       <c r="FH31" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="FI31" s="1" t="n">
+        <v>193.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -16740,6 +16836,9 @@
       <c r="FH32" s="1" t="n">
         <v>317.3</v>
       </c>
+      <c r="FI32" s="1" t="n">
+        <v>161.6</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -17234,6 +17333,9 @@
       <c r="FH33" s="2" t="n">
         <v>119.6</v>
       </c>
+      <c r="FI33" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -17728,6 +17830,9 @@
       <c r="FH34" s="2" t="n">
         <v>111.8</v>
       </c>
+      <c r="FI34" s="1" t="n">
+        <v>217.4</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -18222,6 +18327,9 @@
       <c r="FH35" s="1" t="n">
         <v>156.7</v>
       </c>
+      <c r="FI35" s="1" t="n">
+        <v>194.9</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -18716,6 +18824,9 @@
       <c r="FH36" s="1" t="n">
         <v>343.5</v>
       </c>
+      <c r="FI36" s="1" t="n">
+        <v>207.5</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -19210,6 +19321,9 @@
       <c r="FH37" s="3" t="n">
         <v>134.9</v>
       </c>
+      <c r="FI37" s="1" t="n">
+        <v>145.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -19704,6 +19818,9 @@
       <c r="FH38" s="1" t="n">
         <v>144.7</v>
       </c>
+      <c r="FI38" s="1" t="n">
+        <v>184.9</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -20198,6 +20315,9 @@
       <c r="FH39" s="1" t="n">
         <v>211.6</v>
       </c>
+      <c r="FI39" s="1" t="n">
+        <v>176.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -20692,6 +20812,9 @@
       <c r="FH40" s="1" t="n">
         <v>169.8</v>
       </c>
+      <c r="FI40" s="1" t="n">
+        <v>153.3</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -21186,6 +21309,9 @@
       <c r="FH41" s="1" t="n">
         <v>202.2</v>
       </c>
+      <c r="FI41" s="1" t="n">
+        <v>162.3</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -21680,6 +21806,9 @@
       <c r="FH42" s="1" t="n">
         <v>160.3</v>
       </c>
+      <c r="FI42" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -22174,6 +22303,9 @@
       <c r="FH43" s="1" t="n">
         <v>156.7</v>
       </c>
+      <c r="FI43" s="1" t="n">
+        <v>294.9</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -22668,6 +22800,9 @@
       <c r="FH44" s="1" t="n">
         <v>225.1</v>
       </c>
+      <c r="FI44" s="1" t="n">
+        <v>195.7</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -23162,6 +23297,9 @@
       <c r="FH45" s="1" t="n">
         <v>178.9</v>
       </c>
+      <c r="FI45" s="1" t="n">
+        <v>152.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -23656,6 +23794,9 @@
       <c r="FH46" s="1" t="n">
         <v>267.2</v>
       </c>
+      <c r="FI46" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -24150,6 +24291,9 @@
       <c r="FH47" s="3" t="n">
         <v>131.2</v>
       </c>
+      <c r="FI47" s="1" t="n">
+        <v>146.5</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -24644,6 +24788,9 @@
       <c r="FH48" s="1" t="n">
         <v>168.2</v>
       </c>
+      <c r="FI48" s="1" t="n">
+        <v>245.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -25138,6 +25285,9 @@
       <c r="FH49" s="1" t="n">
         <v>148.2</v>
       </c>
+      <c r="FI49" s="1" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -25632,6 +25782,9 @@
       <c r="FH50" s="1" t="n">
         <v>246.8</v>
       </c>
+      <c r="FI50" s="1" t="n">
+        <v>201.1</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -26125,6 +26278,9 @@
       </c>
       <c r="FH51" s="3" t="n">
         <v>130.1</v>
+      </c>
+      <c r="FI51" s="1" t="n">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FI51"/>
+  <dimension ref="A1:FJ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +604,7 @@
     <col width="12" customWidth="1" min="163" max="163"/>
     <col width="12" customWidth="1" min="164" max="164"/>
     <col width="12" customWidth="1" min="165" max="165"/>
+    <col width="12" customWidth="1" min="166" max="166"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1432,6 +1433,11 @@
           <t>2025/02/20</t>
         </is>
       </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/21</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1929,6 +1935,9 @@
       <c r="FI2" s="1" t="n">
         <v>164.1</v>
       </c>
+      <c r="FJ2" s="1" t="n">
+        <v>190.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2426,6 +2435,9 @@
       <c r="FI3" s="1" t="n">
         <v>152.4</v>
       </c>
+      <c r="FJ3" s="1" t="n">
+        <v>170.1</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2923,6 +2935,9 @@
       <c r="FI4" s="1" t="n">
         <v>179.9</v>
       </c>
+      <c r="FJ4" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3420,6 +3435,9 @@
       <c r="FI5" s="1" t="n">
         <v>153.5</v>
       </c>
+      <c r="FJ5" s="1" t="n">
+        <v>216.9</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3917,6 +3935,9 @@
       <c r="FI6" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="FJ6" s="1" t="n">
+        <v>252.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4414,6 +4435,9 @@
       <c r="FI7" s="3" t="n">
         <v>133.1</v>
       </c>
+      <c r="FJ7" s="1" t="n">
+        <v>183.9</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4911,6 +4935,9 @@
       <c r="FI8" s="1" t="n">
         <v>269.8</v>
       </c>
+      <c r="FJ8" s="2" t="n">
+        <v>123.4</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5408,6 +5435,9 @@
       <c r="FI9" s="1" t="n">
         <v>159.5</v>
       </c>
+      <c r="FJ9" s="3" t="n">
+        <v>133.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5905,6 +5935,9 @@
       <c r="FI10" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="FJ10" s="1" t="n">
+        <v>199.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6402,6 +6435,9 @@
       <c r="FI11" s="3" t="n">
         <v>133.6</v>
       </c>
+      <c r="FJ11" s="1" t="n">
+        <v>147.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6899,6 +6935,9 @@
       <c r="FI12" s="1" t="n">
         <v>264.6</v>
       </c>
+      <c r="FJ12" s="3" t="n">
+        <v>132.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7396,6 +7435,9 @@
       <c r="FI13" s="3" t="n">
         <v>135</v>
       </c>
+      <c r="FJ13" s="1" t="n">
+        <v>193.9</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7893,6 +7935,9 @@
       <c r="FI14" s="1" t="n">
         <v>145.5</v>
       </c>
+      <c r="FJ14" s="1" t="n">
+        <v>163.3</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8390,6 +8435,9 @@
       <c r="FI15" s="1" t="n">
         <v>167.6</v>
       </c>
+      <c r="FJ15" s="1" t="n">
+        <v>172.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8887,6 +8935,9 @@
       <c r="FI16" s="1" t="n">
         <v>175.8</v>
       </c>
+      <c r="FJ16" s="1" t="n">
+        <v>159.2</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9384,6 +9435,9 @@
       <c r="FI17" s="1" t="n">
         <v>191.4</v>
       </c>
+      <c r="FJ17" s="1" t="n">
+        <v>195.1</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9881,6 +9935,9 @@
       <c r="FI18" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="FJ18" s="1" t="n">
+        <v>167.6</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10378,6 +10435,9 @@
       <c r="FI19" s="1" t="n">
         <v>183.5</v>
       </c>
+      <c r="FJ19" s="1" t="n">
+        <v>153.7</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -10875,6 +10935,9 @@
       <c r="FI20" s="3" t="n">
         <v>129.7</v>
       </c>
+      <c r="FJ20" s="1" t="n">
+        <v>197.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11372,6 +11435,9 @@
       <c r="FI21" s="3" t="n">
         <v>133.8</v>
       </c>
+      <c r="FJ21" s="2" t="n">
+        <v>117.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -11869,6 +11935,9 @@
       <c r="FI22" s="1" t="n">
         <v>219.4</v>
       </c>
+      <c r="FJ22" s="1" t="n">
+        <v>184.7</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12366,6 +12435,9 @@
       <c r="FI23" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="FJ23" s="1" t="n">
+        <v>181.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -12863,6 +12935,9 @@
       <c r="FI24" s="1" t="n">
         <v>156.6</v>
       </c>
+      <c r="FJ24" s="1" t="n">
+        <v>145.5</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13360,6 +13435,9 @@
       <c r="FI25" s="1" t="n">
         <v>173.3</v>
       </c>
+      <c r="FJ25" s="1" t="n">
+        <v>147.9</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -13857,6 +13935,9 @@
       <c r="FI26" s="2" t="n">
         <v>112.2</v>
       </c>
+      <c r="FJ26" s="1" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14354,6 +14435,9 @@
       <c r="FI27" s="3" t="n">
         <v>138.1</v>
       </c>
+      <c r="FJ27" s="3" t="n">
+        <v>139.7</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -14851,6 +14935,9 @@
       <c r="FI28" s="3" t="n">
         <v>135.1</v>
       </c>
+      <c r="FJ28" s="1" t="n">
+        <v>213.8</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -15348,6 +15435,9 @@
       <c r="FI29" s="3" t="n">
         <v>133.3</v>
       </c>
+      <c r="FJ29" s="1" t="n">
+        <v>154.3</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -15845,6 +15935,9 @@
       <c r="FI30" s="1" t="n">
         <v>168.2</v>
       </c>
+      <c r="FJ30" s="1" t="n">
+        <v>206.5</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -16342,6 +16435,9 @@
       <c r="FI31" s="1" t="n">
         <v>193.5</v>
       </c>
+      <c r="FJ31" s="2" t="n">
+        <v>119.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -16839,6 +16935,9 @@
       <c r="FI32" s="1" t="n">
         <v>161.6</v>
       </c>
+      <c r="FJ32" s="1" t="n">
+        <v>246.1</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -17336,6 +17435,9 @@
       <c r="FI33" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="FJ33" s="1" t="n">
+        <v>167.4</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -17833,6 +17935,9 @@
       <c r="FI34" s="1" t="n">
         <v>217.4</v>
       </c>
+      <c r="FJ34" s="1" t="n">
+        <v>166.3</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -18330,6 +18435,9 @@
       <c r="FI35" s="1" t="n">
         <v>194.9</v>
       </c>
+      <c r="FJ35" s="1" t="n">
+        <v>172.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -18827,6 +18935,9 @@
       <c r="FI36" s="1" t="n">
         <v>207.5</v>
       </c>
+      <c r="FJ36" s="1" t="n">
+        <v>143.4</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -19324,6 +19435,9 @@
       <c r="FI37" s="1" t="n">
         <v>145.3</v>
       </c>
+      <c r="FJ37" s="1" t="n">
+        <v>165.8</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -19821,6 +19935,9 @@
       <c r="FI38" s="1" t="n">
         <v>184.9</v>
       </c>
+      <c r="FJ38" s="1" t="n">
+        <v>208.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -20318,6 +20435,9 @@
       <c r="FI39" s="1" t="n">
         <v>176.3</v>
       </c>
+      <c r="FJ39" s="1" t="n">
+        <v>161.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -20815,6 +20935,9 @@
       <c r="FI40" s="1" t="n">
         <v>153.3</v>
       </c>
+      <c r="FJ40" s="1" t="n">
+        <v>196.9</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -21312,6 +21435,9 @@
       <c r="FI41" s="1" t="n">
         <v>162.3</v>
       </c>
+      <c r="FJ41" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -21809,6 +21935,9 @@
       <c r="FI42" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="FJ42" s="1" t="n">
+        <v>169.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -22306,6 +22435,9 @@
       <c r="FI43" s="1" t="n">
         <v>294.9</v>
       </c>
+      <c r="FJ43" s="1" t="n">
+        <v>146.1</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -22803,6 +22935,9 @@
       <c r="FI44" s="1" t="n">
         <v>195.7</v>
       </c>
+      <c r="FJ44" s="1" t="n">
+        <v>154.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -23300,6 +23435,9 @@
       <c r="FI45" s="1" t="n">
         <v>152.9</v>
       </c>
+      <c r="FJ45" s="1" t="n">
+        <v>149.2</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -23797,6 +23935,9 @@
       <c r="FI46" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="FJ46" s="1" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -24294,6 +24435,9 @@
       <c r="FI47" s="1" t="n">
         <v>146.5</v>
       </c>
+      <c r="FJ47" s="1" t="n">
+        <v>209.3</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -24791,6 +24935,9 @@
       <c r="FI48" s="1" t="n">
         <v>245.4</v>
       </c>
+      <c r="FJ48" s="3" t="n">
+        <v>129.2</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -25288,6 +25435,9 @@
       <c r="FI49" s="1" t="n">
         <v>209</v>
       </c>
+      <c r="FJ49" s="1" t="n">
+        <v>217.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -25785,6 +25935,9 @@
       <c r="FI50" s="1" t="n">
         <v>201.1</v>
       </c>
+      <c r="FJ50" s="1" t="n">
+        <v>154.6</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -26281,6 +26434,9 @@
       </c>
       <c r="FI51" s="1" t="n">
         <v>162</v>
+      </c>
+      <c r="FJ51" s="3" t="n">
+        <v>134.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FJ51"/>
+  <dimension ref="A1:FK51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +605,7 @@
     <col width="12" customWidth="1" min="164" max="164"/>
     <col width="12" customWidth="1" min="165" max="165"/>
     <col width="12" customWidth="1" min="166" max="166"/>
+    <col width="12" customWidth="1" min="167" max="167"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1438,6 +1439,11 @@
           <t>2025/02/21</t>
         </is>
       </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/22</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1938,6 +1944,9 @@
       <c r="FJ2" s="1" t="n">
         <v>190.9</v>
       </c>
+      <c r="FK2" s="1" t="n">
+        <v>175.3</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2438,6 +2447,9 @@
       <c r="FJ3" s="1" t="n">
         <v>170.1</v>
       </c>
+      <c r="FK3" s="1" t="n">
+        <v>153.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2938,6 +2950,9 @@
       <c r="FJ4" s="1" t="n">
         <v>156.8</v>
       </c>
+      <c r="FK4" s="3" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3438,6 +3453,9 @@
       <c r="FJ5" s="1" t="n">
         <v>216.9</v>
       </c>
+      <c r="FK5" s="1" t="n">
+        <v>167.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3938,6 +3956,9 @@
       <c r="FJ6" s="1" t="n">
         <v>252.2</v>
       </c>
+      <c r="FK6" s="3" t="n">
+        <v>126.8</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4438,6 +4459,9 @@
       <c r="FJ7" s="1" t="n">
         <v>183.9</v>
       </c>
+      <c r="FK7" s="1" t="n">
+        <v>156.3</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4938,6 +4962,9 @@
       <c r="FJ8" s="2" t="n">
         <v>123.4</v>
       </c>
+      <c r="FK8" s="1" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5438,6 +5465,9 @@
       <c r="FJ9" s="3" t="n">
         <v>133.7</v>
       </c>
+      <c r="FK9" s="1" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5938,6 +5968,9 @@
       <c r="FJ10" s="1" t="n">
         <v>199.4</v>
       </c>
+      <c r="FK10" s="1" t="n">
+        <v>149.9</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6438,6 +6471,9 @@
       <c r="FJ11" s="1" t="n">
         <v>147.9</v>
       </c>
+      <c r="FK11" s="3" t="n">
+        <v>139.5</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6938,6 +6974,9 @@
       <c r="FJ12" s="3" t="n">
         <v>132.5</v>
       </c>
+      <c r="FK12" s="1" t="n">
+        <v>143.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7438,6 +7477,9 @@
       <c r="FJ13" s="1" t="n">
         <v>193.9</v>
       </c>
+      <c r="FK13" s="3" t="n">
+        <v>131.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7938,6 +7980,9 @@
       <c r="FJ14" s="1" t="n">
         <v>163.3</v>
       </c>
+      <c r="FK14" s="1" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8438,6 +8483,9 @@
       <c r="FJ15" s="1" t="n">
         <v>172.2</v>
       </c>
+      <c r="FK15" s="1" t="n">
+        <v>160.7</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8938,6 +8986,9 @@
       <c r="FJ16" s="1" t="n">
         <v>159.2</v>
       </c>
+      <c r="FK16" s="1" t="n">
+        <v>176.4</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9438,6 +9489,9 @@
       <c r="FJ17" s="1" t="n">
         <v>195.1</v>
       </c>
+      <c r="FK17" s="1" t="n">
+        <v>143.3</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9938,6 +9992,9 @@
       <c r="FJ18" s="1" t="n">
         <v>167.6</v>
       </c>
+      <c r="FK18" s="1" t="n">
+        <v>180.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10438,6 +10495,9 @@
       <c r="FJ19" s="1" t="n">
         <v>153.7</v>
       </c>
+      <c r="FK19" s="1" t="n">
+        <v>145.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -10938,6 +10998,9 @@
       <c r="FJ20" s="1" t="n">
         <v>197.6</v>
       </c>
+      <c r="FK20" s="1" t="n">
+        <v>144.6</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11438,6 +11501,9 @@
       <c r="FJ21" s="2" t="n">
         <v>117.7</v>
       </c>
+      <c r="FK21" s="3" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -11938,6 +12004,9 @@
       <c r="FJ22" s="1" t="n">
         <v>184.7</v>
       </c>
+      <c r="FK22" s="1" t="n">
+        <v>157.4</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12438,6 +12507,9 @@
       <c r="FJ23" s="1" t="n">
         <v>181.6</v>
       </c>
+      <c r="FK23" s="1" t="n">
+        <v>168.6</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -12938,6 +13010,9 @@
       <c r="FJ24" s="1" t="n">
         <v>145.5</v>
       </c>
+      <c r="FK24" s="1" t="n">
+        <v>207.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13438,6 +13513,9 @@
       <c r="FJ25" s="1" t="n">
         <v>147.9</v>
       </c>
+      <c r="FK25" s="1" t="n">
+        <v>161.2</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -13938,6 +14016,9 @@
       <c r="FJ26" s="1" t="n">
         <v>162</v>
       </c>
+      <c r="FK26" s="1" t="n">
+        <v>230.5</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14438,6 +14519,9 @@
       <c r="FJ27" s="3" t="n">
         <v>139.7</v>
       </c>
+      <c r="FK27" s="1" t="n">
+        <v>144.2</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -14938,6 +15022,9 @@
       <c r="FJ28" s="1" t="n">
         <v>213.8</v>
       </c>
+      <c r="FK28" s="1" t="n">
+        <v>198.6</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -15438,6 +15525,9 @@
       <c r="FJ29" s="1" t="n">
         <v>154.3</v>
       </c>
+      <c r="FK29" s="1" t="n">
+        <v>153.1</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -15938,6 +16028,9 @@
       <c r="FJ30" s="1" t="n">
         <v>206.5</v>
       </c>
+      <c r="FK30" s="1" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -16438,6 +16531,9 @@
       <c r="FJ31" s="2" t="n">
         <v>119.1</v>
       </c>
+      <c r="FK31" s="1" t="n">
+        <v>144.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -16938,6 +17034,9 @@
       <c r="FJ32" s="1" t="n">
         <v>246.1</v>
       </c>
+      <c r="FK32" s="1" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -17438,6 +17537,9 @@
       <c r="FJ33" s="1" t="n">
         <v>167.4</v>
       </c>
+      <c r="FK33" s="1" t="n">
+        <v>181.7</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -17938,6 +18040,9 @@
       <c r="FJ34" s="1" t="n">
         <v>166.3</v>
       </c>
+      <c r="FK34" s="2" t="n">
+        <v>102.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -18438,6 +18543,9 @@
       <c r="FJ35" s="1" t="n">
         <v>172.2</v>
       </c>
+      <c r="FK35" s="3" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -18938,6 +19046,9 @@
       <c r="FJ36" s="1" t="n">
         <v>143.4</v>
       </c>
+      <c r="FK36" s="1" t="n">
+        <v>160.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -19438,6 +19549,9 @@
       <c r="FJ37" s="1" t="n">
         <v>165.8</v>
       </c>
+      <c r="FK37" s="1" t="n">
+        <v>160.1</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -19938,6 +20052,9 @@
       <c r="FJ38" s="1" t="n">
         <v>208.3</v>
       </c>
+      <c r="FK38" s="1" t="n">
+        <v>171.1</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -20438,6 +20555,9 @@
       <c r="FJ39" s="1" t="n">
         <v>161.7</v>
       </c>
+      <c r="FK39" s="1" t="n">
+        <v>213.3</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -20938,6 +21058,9 @@
       <c r="FJ40" s="1" t="n">
         <v>196.9</v>
       </c>
+      <c r="FK40" s="1" t="n">
+        <v>163.7</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -21438,6 +21561,9 @@
       <c r="FJ41" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="FK41" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -21938,6 +22064,9 @@
       <c r="FJ42" s="1" t="n">
         <v>169.2</v>
       </c>
+      <c r="FK42" s="1" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -22438,6 +22567,9 @@
       <c r="FJ43" s="1" t="n">
         <v>146.1</v>
       </c>
+      <c r="FK43" s="2" t="n">
+        <v>122.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -22938,6 +23070,9 @@
       <c r="FJ44" s="1" t="n">
         <v>154.1</v>
       </c>
+      <c r="FK44" s="1" t="n">
+        <v>190.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -23438,6 +23573,9 @@
       <c r="FJ45" s="1" t="n">
         <v>149.2</v>
       </c>
+      <c r="FK45" s="1" t="n">
+        <v>150.5</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -23938,6 +24076,9 @@
       <c r="FJ46" s="1" t="n">
         <v>153</v>
       </c>
+      <c r="FK46" s="1" t="n">
+        <v>154.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -24438,6 +24579,9 @@
       <c r="FJ47" s="1" t="n">
         <v>209.3</v>
       </c>
+      <c r="FK47" s="2" t="n">
+        <v>115.7</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -24938,6 +25082,9 @@
       <c r="FJ48" s="3" t="n">
         <v>129.2</v>
       </c>
+      <c r="FK48" s="1" t="n">
+        <v>179.9</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -25438,6 +25585,9 @@
       <c r="FJ49" s="1" t="n">
         <v>217.6</v>
       </c>
+      <c r="FK49" s="1" t="n">
+        <v>150.1</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -25938,6 +26088,9 @@
       <c r="FJ50" s="1" t="n">
         <v>154.6</v>
       </c>
+      <c r="FK50" s="3" t="n">
+        <v>138.3</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -26437,6 +26590,9 @@
       </c>
       <c r="FJ51" s="3" t="n">
         <v>134.7</v>
+      </c>
+      <c r="FK51" s="3" t="n">
+        <v>126.7</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FK51"/>
+  <dimension ref="A1:FL51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,6 +606,7 @@
     <col width="12" customWidth="1" min="165" max="165"/>
     <col width="12" customWidth="1" min="166" max="166"/>
     <col width="12" customWidth="1" min="167" max="167"/>
+    <col width="12" customWidth="1" min="168" max="168"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1444,6 +1445,11 @@
           <t>2025/02/22</t>
         </is>
       </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/23</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1947,6 +1953,9 @@
       <c r="FK2" s="1" t="n">
         <v>175.3</v>
       </c>
+      <c r="FL2" s="1" t="n">
+        <v>204.2</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2450,6 +2459,9 @@
       <c r="FK3" s="1" t="n">
         <v>153.3</v>
       </c>
+      <c r="FL3" s="2" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2953,6 +2965,9 @@
       <c r="FK4" s="3" t="n">
         <v>126.5</v>
       </c>
+      <c r="FL4" s="1" t="n">
+        <v>140.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3456,6 +3471,9 @@
       <c r="FK5" s="1" t="n">
         <v>167.4</v>
       </c>
+      <c r="FL5" s="1" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3959,6 +3977,9 @@
       <c r="FK6" s="3" t="n">
         <v>126.8</v>
       </c>
+      <c r="FL6" s="1" t="n">
+        <v>163.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4462,6 +4483,9 @@
       <c r="FK7" s="1" t="n">
         <v>156.3</v>
       </c>
+      <c r="FL7" s="1" t="n">
+        <v>164.3</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4965,6 +4989,9 @@
       <c r="FK8" s="1" t="n">
         <v>188.9</v>
       </c>
+      <c r="FL8" s="1" t="n">
+        <v>184.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5468,6 +5495,9 @@
       <c r="FK9" s="1" t="n">
         <v>152</v>
       </c>
+      <c r="FL9" s="1" t="n">
+        <v>140.2</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -5971,6 +6001,9 @@
       <c r="FK10" s="1" t="n">
         <v>149.9</v>
       </c>
+      <c r="FL10" s="3" t="n">
+        <v>133.5</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6474,6 +6507,9 @@
       <c r="FK11" s="3" t="n">
         <v>139.5</v>
       </c>
+      <c r="FL11" s="2" t="n">
+        <v>111.3</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -6977,6 +7013,9 @@
       <c r="FK12" s="1" t="n">
         <v>143.5</v>
       </c>
+      <c r="FL12" s="1" t="n">
+        <v>158.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7480,6 +7519,9 @@
       <c r="FK13" s="3" t="n">
         <v>131.5</v>
       </c>
+      <c r="FL13" s="1" t="n">
+        <v>146.5</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -7983,6 +8025,9 @@
       <c r="FK14" s="1" t="n">
         <v>140.8</v>
       </c>
+      <c r="FL14" s="1" t="n">
+        <v>193.1</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8486,6 +8531,9 @@
       <c r="FK15" s="1" t="n">
         <v>160.7</v>
       </c>
+      <c r="FL15" s="1" t="n">
+        <v>253.6</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -8989,6 +9037,9 @@
       <c r="FK16" s="1" t="n">
         <v>176.4</v>
       </c>
+      <c r="FL16" s="2" t="n">
+        <v>120.1</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9492,6 +9543,9 @@
       <c r="FK17" s="1" t="n">
         <v>143.3</v>
       </c>
+      <c r="FL17" s="1" t="n">
+        <v>172.5</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -9995,6 +10049,9 @@
       <c r="FK18" s="1" t="n">
         <v>180.8</v>
       </c>
+      <c r="FL18" s="1" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10498,6 +10555,9 @@
       <c r="FK19" s="1" t="n">
         <v>145.6</v>
       </c>
+      <c r="FL19" s="2" t="n">
+        <v>112.2</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -11001,6 +11061,9 @@
       <c r="FK20" s="1" t="n">
         <v>144.6</v>
       </c>
+      <c r="FL20" s="2" t="n">
+        <v>123.1</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11504,6 +11567,9 @@
       <c r="FK21" s="3" t="n">
         <v>129.8</v>
       </c>
+      <c r="FL21" s="1" t="n">
+        <v>183.2</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -12007,6 +12073,9 @@
       <c r="FK22" s="1" t="n">
         <v>157.4</v>
       </c>
+      <c r="FL22" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12510,6 +12579,9 @@
       <c r="FK23" s="1" t="n">
         <v>168.6</v>
       </c>
+      <c r="FL23" s="1" t="n">
+        <v>161.4</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -13013,6 +13085,9 @@
       <c r="FK24" s="1" t="n">
         <v>207.4</v>
       </c>
+      <c r="FL24" s="1" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13516,6 +13591,9 @@
       <c r="FK25" s="1" t="n">
         <v>161.2</v>
       </c>
+      <c r="FL25" s="1" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -14019,6 +14097,9 @@
       <c r="FK26" s="1" t="n">
         <v>230.5</v>
       </c>
+      <c r="FL26" s="1" t="n">
+        <v>153.3</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14522,6 +14603,9 @@
       <c r="FK27" s="1" t="n">
         <v>144.2</v>
       </c>
+      <c r="FL27" s="1" t="n">
+        <v>148.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -15025,6 +15109,9 @@
       <c r="FK28" s="1" t="n">
         <v>198.6</v>
       </c>
+      <c r="FL28" s="1" t="n">
+        <v>141.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -15528,6 +15615,9 @@
       <c r="FK29" s="1" t="n">
         <v>153.1</v>
       </c>
+      <c r="FL29" s="3" t="n">
+        <v>134.4</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -16031,6 +16121,9 @@
       <c r="FK30" s="1" t="n">
         <v>167</v>
       </c>
+      <c r="FL30" s="1" t="n">
+        <v>176.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -16534,6 +16627,9 @@
       <c r="FK31" s="1" t="n">
         <v>144.5</v>
       </c>
+      <c r="FL31" s="2" t="n">
+        <v>121.6</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -17037,6 +17133,9 @@
       <c r="FK32" s="1" t="n">
         <v>161</v>
       </c>
+      <c r="FL32" s="1" t="n">
+        <v>185.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -17540,6 +17639,9 @@
       <c r="FK33" s="1" t="n">
         <v>181.7</v>
       </c>
+      <c r="FL33" s="3" t="n">
+        <v>130.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -18043,6 +18145,9 @@
       <c r="FK34" s="2" t="n">
         <v>102.2</v>
       </c>
+      <c r="FL34" s="1" t="n">
+        <v>140.1</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -18546,6 +18651,9 @@
       <c r="FK35" s="3" t="n">
         <v>132.2</v>
       </c>
+      <c r="FL35" s="1" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -19049,6 +19157,9 @@
       <c r="FK36" s="1" t="n">
         <v>160.8</v>
       </c>
+      <c r="FL36" s="1" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -19552,6 +19663,9 @@
       <c r="FK37" s="1" t="n">
         <v>160.1</v>
       </c>
+      <c r="FL37" s="2" t="n">
+        <v>119.7</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -20055,6 +20169,9 @@
       <c r="FK38" s="1" t="n">
         <v>171.1</v>
       </c>
+      <c r="FL38" s="1" t="n">
+        <v>197.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -20558,6 +20675,9 @@
       <c r="FK39" s="1" t="n">
         <v>213.3</v>
       </c>
+      <c r="FL39" s="3" t="n">
+        <v>137.4</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -21061,6 +21181,9 @@
       <c r="FK40" s="1" t="n">
         <v>163.7</v>
       </c>
+      <c r="FL40" s="1" t="n">
+        <v>212.1</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -21564,6 +21687,9 @@
       <c r="FK41" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="FL41" s="2" t="n">
+        <v>104.6</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -22067,6 +22193,9 @@
       <c r="FK42" s="1" t="n">
         <v>160</v>
       </c>
+      <c r="FL42" s="1" t="n">
+        <v>171.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -22570,6 +22699,9 @@
       <c r="FK43" s="2" t="n">
         <v>122.2</v>
       </c>
+      <c r="FL43" s="2" t="n">
+        <v>119.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -23073,6 +23205,9 @@
       <c r="FK44" s="1" t="n">
         <v>190.8</v>
       </c>
+      <c r="FL44" s="1" t="n">
+        <v>224.1</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -23576,6 +23711,9 @@
       <c r="FK45" s="1" t="n">
         <v>150.5</v>
       </c>
+      <c r="FL45" s="1" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -24079,6 +24217,9 @@
       <c r="FK46" s="1" t="n">
         <v>154.4</v>
       </c>
+      <c r="FL46" s="3" t="n">
+        <v>135.3</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -24582,6 +24723,9 @@
       <c r="FK47" s="2" t="n">
         <v>115.7</v>
       </c>
+      <c r="FL47" s="3" t="n">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -25085,6 +25229,9 @@
       <c r="FK48" s="1" t="n">
         <v>179.9</v>
       </c>
+      <c r="FL48" s="1" t="n">
+        <v>152.7</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -25588,6 +25735,9 @@
       <c r="FK49" s="1" t="n">
         <v>150.1</v>
       </c>
+      <c r="FL49" s="1" t="n">
+        <v>194.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -26091,6 +26241,9 @@
       <c r="FK50" s="3" t="n">
         <v>138.3</v>
       </c>
+      <c r="FL50" s="1" t="n">
+        <v>177.5</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -26593,6 +26746,9 @@
       </c>
       <c r="FK51" s="3" t="n">
         <v>126.7</v>
+      </c>
+      <c r="FL51" s="2" t="n">
+        <v>108.2</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FL51"/>
+  <dimension ref="A1:FM51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,6 +607,7 @@
     <col width="12" customWidth="1" min="166" max="166"/>
     <col width="12" customWidth="1" min="167" max="167"/>
     <col width="12" customWidth="1" min="168" max="168"/>
+    <col width="12" customWidth="1" min="169" max="169"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1450,6 +1451,11 @@
           <t>2025/02/23</t>
         </is>
       </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/24</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1956,6 +1962,9 @@
       <c r="FL2" s="1" t="n">
         <v>204.2</v>
       </c>
+      <c r="FM2" s="1" t="n">
+        <v>186.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2462,6 +2471,9 @@
       <c r="FL3" s="2" t="n">
         <v>114.3</v>
       </c>
+      <c r="FM3" s="1" t="n">
+        <v>170.2</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2968,6 +2980,9 @@
       <c r="FL4" s="1" t="n">
         <v>140.2</v>
       </c>
+      <c r="FM4" s="1" t="n">
+        <v>171.2</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3474,6 +3489,9 @@
       <c r="FL5" s="1" t="n">
         <v>184</v>
       </c>
+      <c r="FM5" s="2" t="n">
+        <v>122.4</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -3980,6 +3998,9 @@
       <c r="FL6" s="1" t="n">
         <v>163.9</v>
       </c>
+      <c r="FM6" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4486,6 +4507,9 @@
       <c r="FL7" s="1" t="n">
         <v>164.3</v>
       </c>
+      <c r="FM7" s="1" t="n">
+        <v>175.4</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -4992,6 +5016,9 @@
       <c r="FL8" s="1" t="n">
         <v>184.2</v>
       </c>
+      <c r="FM8" s="1" t="n">
+        <v>169.1</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5498,6 +5525,9 @@
       <c r="FL9" s="1" t="n">
         <v>140.2</v>
       </c>
+      <c r="FM9" s="1" t="n">
+        <v>265.7</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -6004,6 +6034,9 @@
       <c r="FL10" s="3" t="n">
         <v>133.5</v>
       </c>
+      <c r="FM10" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6510,6 +6543,9 @@
       <c r="FL11" s="2" t="n">
         <v>111.3</v>
       </c>
+      <c r="FM11" s="1" t="n">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -7016,6 +7052,9 @@
       <c r="FL12" s="1" t="n">
         <v>158.7</v>
       </c>
+      <c r="FM12" s="3" t="n">
+        <v>139.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7522,6 +7561,9 @@
       <c r="FL13" s="1" t="n">
         <v>146.5</v>
       </c>
+      <c r="FM13" s="1" t="n">
+        <v>236.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -8028,6 +8070,9 @@
       <c r="FL14" s="1" t="n">
         <v>193.1</v>
       </c>
+      <c r="FM14" s="1" t="n">
+        <v>147.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8534,6 +8579,9 @@
       <c r="FL15" s="1" t="n">
         <v>253.6</v>
       </c>
+      <c r="FM15" s="1" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -9040,6 +9088,9 @@
       <c r="FL16" s="2" t="n">
         <v>120.1</v>
       </c>
+      <c r="FM16" s="3" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9546,6 +9597,9 @@
       <c r="FL17" s="1" t="n">
         <v>172.5</v>
       </c>
+      <c r="FM17" s="1" t="n">
+        <v>169.9</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -10052,6 +10106,9 @@
       <c r="FL18" s="1" t="n">
         <v>182</v>
       </c>
+      <c r="FM18" s="1" t="n">
+        <v>190.8</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10558,6 +10615,9 @@
       <c r="FL19" s="2" t="n">
         <v>112.2</v>
       </c>
+      <c r="FM19" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -11064,6 +11124,9 @@
       <c r="FL20" s="2" t="n">
         <v>123.1</v>
       </c>
+      <c r="FM20" s="1" t="n">
+        <v>184.7</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11570,6 +11633,9 @@
       <c r="FL21" s="1" t="n">
         <v>183.2</v>
       </c>
+      <c r="FM21" s="1" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -12076,6 +12142,9 @@
       <c r="FL22" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="FM22" s="2" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12582,6 +12651,9 @@
       <c r="FL23" s="1" t="n">
         <v>161.4</v>
       </c>
+      <c r="FM23" s="3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -13088,6 +13160,9 @@
       <c r="FL24" s="1" t="n">
         <v>145.4</v>
       </c>
+      <c r="FM24" s="1" t="n">
+        <v>198.8</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13594,6 +13669,9 @@
       <c r="FL25" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="FM25" s="3" t="n">
+        <v>139.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -14100,6 +14178,9 @@
       <c r="FL26" s="1" t="n">
         <v>153.3</v>
       </c>
+      <c r="FM26" s="1" t="n">
+        <v>140.8</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14606,6 +14687,9 @@
       <c r="FL27" s="1" t="n">
         <v>148.6</v>
       </c>
+      <c r="FM27" s="1" t="n">
+        <v>152.4</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -15112,6 +15196,9 @@
       <c r="FL28" s="1" t="n">
         <v>141.3</v>
       </c>
+      <c r="FM28" s="1" t="n">
+        <v>141.4</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -15618,6 +15705,9 @@
       <c r="FL29" s="3" t="n">
         <v>134.4</v>
       </c>
+      <c r="FM29" s="2" t="n">
+        <v>107.2</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -16124,6 +16214,9 @@
       <c r="FL30" s="1" t="n">
         <v>176.1</v>
       </c>
+      <c r="FM30" s="1" t="n">
+        <v>162.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -16630,6 +16723,9 @@
       <c r="FL31" s="2" t="n">
         <v>121.6</v>
       </c>
+      <c r="FM31" s="1" t="n">
+        <v>230.1</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -17136,6 +17232,9 @@
       <c r="FL32" s="1" t="n">
         <v>185.4</v>
       </c>
+      <c r="FM32" s="1" t="n">
+        <v>192.9</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -17642,6 +17741,9 @@
       <c r="FL33" s="3" t="n">
         <v>130.2</v>
       </c>
+      <c r="FM33" s="1" t="n">
+        <v>171.2</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -18148,6 +18250,9 @@
       <c r="FL34" s="1" t="n">
         <v>140.1</v>
       </c>
+      <c r="FM34" s="3" t="n">
+        <v>132.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -18654,6 +18759,9 @@
       <c r="FL35" s="1" t="n">
         <v>170</v>
       </c>
+      <c r="FM35" s="1" t="n">
+        <v>160.2</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -19160,6 +19268,9 @@
       <c r="FL36" s="1" t="n">
         <v>154.2</v>
       </c>
+      <c r="FM36" s="1" t="n">
+        <v>150.7</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -19666,6 +19777,9 @@
       <c r="FL37" s="2" t="n">
         <v>119.7</v>
       </c>
+      <c r="FM37" s="1" t="n">
+        <v>217.3</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -20172,6 +20286,9 @@
       <c r="FL38" s="1" t="n">
         <v>197.6</v>
       </c>
+      <c r="FM38" s="1" t="n">
+        <v>218.6</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -20678,6 +20795,9 @@
       <c r="FL39" s="3" t="n">
         <v>137.4</v>
       </c>
+      <c r="FM39" s="1" t="n">
+        <v>262.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -21184,6 +21304,9 @@
       <c r="FL40" s="1" t="n">
         <v>212.1</v>
       </c>
+      <c r="FM40" s="1" t="n">
+        <v>149.6</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -21690,6 +21813,9 @@
       <c r="FL41" s="2" t="n">
         <v>104.6</v>
       </c>
+      <c r="FM41" s="1" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -22196,6 +22322,9 @@
       <c r="FL42" s="1" t="n">
         <v>171.9</v>
       </c>
+      <c r="FM42" s="1" t="n">
+        <v>140.4</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -22702,6 +22831,9 @@
       <c r="FL43" s="2" t="n">
         <v>119.2</v>
       </c>
+      <c r="FM43" s="1" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -23208,6 +23340,9 @@
       <c r="FL44" s="1" t="n">
         <v>224.1</v>
       </c>
+      <c r="FM44" s="3" t="n">
+        <v>139.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -23714,6 +23849,9 @@
       <c r="FL45" s="1" t="n">
         <v>189.1</v>
       </c>
+      <c r="FM45" s="3" t="n">
+        <v>134.3</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -24220,6 +24358,9 @@
       <c r="FL46" s="3" t="n">
         <v>135.3</v>
       </c>
+      <c r="FM46" s="1" t="n">
+        <v>189.5</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -24726,6 +24867,9 @@
       <c r="FL47" s="3" t="n">
         <v>130.8</v>
       </c>
+      <c r="FM47" s="1" t="n">
+        <v>147.4</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -25232,6 +25376,9 @@
       <c r="FL48" s="1" t="n">
         <v>152.7</v>
       </c>
+      <c r="FM48" s="1" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -25738,6 +25885,9 @@
       <c r="FL49" s="1" t="n">
         <v>194.6</v>
       </c>
+      <c r="FM49" s="1" t="n">
+        <v>150.6</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -26244,6 +26394,9 @@
       <c r="FL50" s="1" t="n">
         <v>177.5</v>
       </c>
+      <c r="FM50" s="1" t="n">
+        <v>298.5</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -26749,6 +26902,9 @@
       </c>
       <c r="FL51" s="2" t="n">
         <v>108.2</v>
+      </c>
+      <c r="FM51" s="1" t="n">
+        <v>164.8</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FM51"/>
+  <dimension ref="A1:FN51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +608,7 @@
     <col width="12" customWidth="1" min="167" max="167"/>
     <col width="12" customWidth="1" min="168" max="168"/>
     <col width="12" customWidth="1" min="169" max="169"/>
+    <col width="12" customWidth="1" min="170" max="170"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1456,6 +1457,11 @@
           <t>2025/02/24</t>
         </is>
       </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/25</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1965,6 +1971,9 @@
       <c r="FM2" s="1" t="n">
         <v>186.9</v>
       </c>
+      <c r="FN2" s="1" t="n">
+        <v>146.7</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2474,6 +2483,9 @@
       <c r="FM3" s="1" t="n">
         <v>170.2</v>
       </c>
+      <c r="FN3" s="2" t="n">
+        <v>108.3</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2983,6 +2995,9 @@
       <c r="FM4" s="1" t="n">
         <v>171.2</v>
       </c>
+      <c r="FN4" s="1" t="n">
+        <v>158.3</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3492,6 +3507,9 @@
       <c r="FM5" s="2" t="n">
         <v>122.4</v>
       </c>
+      <c r="FN5" s="1" t="n">
+        <v>183.1</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -4001,6 +4019,9 @@
       <c r="FM6" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="FN6" s="1" t="n">
+        <v>165.2</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4510,6 +4531,9 @@
       <c r="FM7" s="1" t="n">
         <v>175.4</v>
       </c>
+      <c r="FN7" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -5019,6 +5043,9 @@
       <c r="FM8" s="1" t="n">
         <v>169.1</v>
       </c>
+      <c r="FN8" s="1" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5528,6 +5555,9 @@
       <c r="FM9" s="1" t="n">
         <v>265.7</v>
       </c>
+      <c r="FN9" s="1" t="n">
+        <v>176.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -6037,6 +6067,9 @@
       <c r="FM10" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="FN10" s="1" t="n">
+        <v>169.6</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6546,6 +6579,9 @@
       <c r="FM11" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="FN11" s="3" t="n">
+        <v>130.9</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -7055,6 +7091,9 @@
       <c r="FM12" s="3" t="n">
         <v>139.7</v>
       </c>
+      <c r="FN12" s="1" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7564,6 +7603,9 @@
       <c r="FM13" s="1" t="n">
         <v>236.3</v>
       </c>
+      <c r="FN13" s="1" t="n">
+        <v>190.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -8073,6 +8115,9 @@
       <c r="FM14" s="1" t="n">
         <v>147.9</v>
       </c>
+      <c r="FN14" s="1" t="n">
+        <v>213.9</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8582,6 +8627,9 @@
       <c r="FM15" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="FN15" s="3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -9091,6 +9139,9 @@
       <c r="FM16" s="3" t="n">
         <v>130</v>
       </c>
+      <c r="FN16" s="1" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9600,6 +9651,9 @@
       <c r="FM17" s="1" t="n">
         <v>169.9</v>
       </c>
+      <c r="FN17" s="1" t="n">
+        <v>174.9</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -10109,6 +10163,9 @@
       <c r="FM18" s="1" t="n">
         <v>190.8</v>
       </c>
+      <c r="FN18" s="1" t="n">
+        <v>178.3</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10618,6 +10675,9 @@
       <c r="FM19" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="FN19" s="1" t="n">
+        <v>191.9</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -11127,6 +11187,9 @@
       <c r="FM20" s="1" t="n">
         <v>184.7</v>
       </c>
+      <c r="FN20" s="3" t="n">
+        <v>131.9</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11636,6 +11699,9 @@
       <c r="FM21" s="1" t="n">
         <v>160.4</v>
       </c>
+      <c r="FN21" s="1" t="n">
+        <v>204.1</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -12145,6 +12211,9 @@
       <c r="FM22" s="2" t="n">
         <v>111</v>
       </c>
+      <c r="FN22" s="3" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12654,6 +12723,9 @@
       <c r="FM23" s="3" t="n">
         <v>137</v>
       </c>
+      <c r="FN23" s="1" t="n">
+        <v>171.7</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -13163,6 +13235,9 @@
       <c r="FM24" s="1" t="n">
         <v>198.8</v>
       </c>
+      <c r="FN24" s="1" t="n">
+        <v>179.7</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13672,6 +13747,9 @@
       <c r="FM25" s="3" t="n">
         <v>139.7</v>
       </c>
+      <c r="FN25" s="1" t="n">
+        <v>180.6</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -14181,6 +14259,9 @@
       <c r="FM26" s="1" t="n">
         <v>140.8</v>
       </c>
+      <c r="FN26" s="2" t="n">
+        <v>124.9</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14690,6 +14771,9 @@
       <c r="FM27" s="1" t="n">
         <v>152.4</v>
       </c>
+      <c r="FN27" s="1" t="n">
+        <v>233.1</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -15199,6 +15283,9 @@
       <c r="FM28" s="1" t="n">
         <v>141.4</v>
       </c>
+      <c r="FN28" s="3" t="n">
+        <v>129.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -15708,6 +15795,9 @@
       <c r="FM29" s="2" t="n">
         <v>107.2</v>
       </c>
+      <c r="FN29" s="3" t="n">
+        <v>136.8</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -16217,6 +16307,9 @@
       <c r="FM30" s="1" t="n">
         <v>162.1</v>
       </c>
+      <c r="FN30" s="1" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -16726,6 +16819,9 @@
       <c r="FM31" s="1" t="n">
         <v>230.1</v>
       </c>
+      <c r="FN31" s="1" t="n">
+        <v>183.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -17235,6 +17331,9 @@
       <c r="FM32" s="1" t="n">
         <v>192.9</v>
       </c>
+      <c r="FN32" s="3" t="n">
+        <v>126.7</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -17744,6 +17843,9 @@
       <c r="FM33" s="1" t="n">
         <v>171.2</v>
       </c>
+      <c r="FN33" s="1" t="n">
+        <v>149.1</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -18253,6 +18355,9 @@
       <c r="FM34" s="3" t="n">
         <v>132.2</v>
       </c>
+      <c r="FN34" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -18762,6 +18867,9 @@
       <c r="FM35" s="1" t="n">
         <v>160.2</v>
       </c>
+      <c r="FN35" s="2" t="n">
+        <v>118.3</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -19271,6 +19379,9 @@
       <c r="FM36" s="1" t="n">
         <v>150.7</v>
       </c>
+      <c r="FN36" s="1" t="n">
+        <v>198.3</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -19780,6 +19891,9 @@
       <c r="FM37" s="1" t="n">
         <v>217.3</v>
       </c>
+      <c r="FN37" s="1" t="n">
+        <v>148.4</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -20289,6 +20403,9 @@
       <c r="FM38" s="1" t="n">
         <v>218.6</v>
       </c>
+      <c r="FN38" s="1" t="n">
+        <v>175.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -20798,6 +20915,9 @@
       <c r="FM39" s="1" t="n">
         <v>262.5</v>
       </c>
+      <c r="FN39" s="1" t="n">
+        <v>227.6</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -21307,6 +21427,9 @@
       <c r="FM40" s="1" t="n">
         <v>149.6</v>
       </c>
+      <c r="FN40" s="1" t="n">
+        <v>194.8</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -21816,6 +21939,9 @@
       <c r="FM41" s="1" t="n">
         <v>140.3</v>
       </c>
+      <c r="FN41" s="3" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -22325,6 +22451,9 @@
       <c r="FM42" s="1" t="n">
         <v>140.4</v>
       </c>
+      <c r="FN42" s="2" t="n">
+        <v>122.2</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -22834,6 +22963,9 @@
       <c r="FM43" s="1" t="n">
         <v>158</v>
       </c>
+      <c r="FN43" s="1" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -23343,6 +23475,9 @@
       <c r="FM44" s="3" t="n">
         <v>139.8</v>
       </c>
+      <c r="FN44" s="1" t="n">
+        <v>176.2</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -23852,6 +23987,9 @@
       <c r="FM45" s="3" t="n">
         <v>134.3</v>
       </c>
+      <c r="FN45" s="1" t="n">
+        <v>155.3</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -24361,6 +24499,9 @@
       <c r="FM46" s="1" t="n">
         <v>189.5</v>
       </c>
+      <c r="FN46" s="1" t="n">
+        <v>214.4</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -24870,6 +25011,9 @@
       <c r="FM47" s="1" t="n">
         <v>147.4</v>
       </c>
+      <c r="FN47" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -25379,6 +25523,9 @@
       <c r="FM48" s="1" t="n">
         <v>156.1</v>
       </c>
+      <c r="FN48" s="1" t="n">
+        <v>213.5</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -25888,6 +26035,9 @@
       <c r="FM49" s="1" t="n">
         <v>150.6</v>
       </c>
+      <c r="FN49" s="3" t="n">
+        <v>134.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -26397,6 +26547,9 @@
       <c r="FM50" s="1" t="n">
         <v>298.5</v>
       </c>
+      <c r="FN50" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -26905,6 +27058,9 @@
       </c>
       <c r="FM51" s="1" t="n">
         <v>164.8</v>
+      </c>
+      <c r="FN51" s="1" t="n">
+        <v>182.3</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FN51"/>
+  <dimension ref="A1:FO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,7 @@
     <col width="12" customWidth="1" min="168" max="168"/>
     <col width="12" customWidth="1" min="169" max="169"/>
     <col width="12" customWidth="1" min="170" max="170"/>
+    <col width="12" customWidth="1" min="171" max="171"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1462,6 +1463,11 @@
           <t>2025/02/25</t>
         </is>
       </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/26</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1974,6 +1980,9 @@
       <c r="FN2" s="1" t="n">
         <v>146.7</v>
       </c>
+      <c r="FO2" s="1" t="n">
+        <v>155.9</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2486,6 +2495,9 @@
       <c r="FN3" s="2" t="n">
         <v>108.3</v>
       </c>
+      <c r="FO3" s="3" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -2998,6 +3010,9 @@
       <c r="FN4" s="1" t="n">
         <v>158.3</v>
       </c>
+      <c r="FO4" s="3" t="n">
+        <v>134.1</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3510,6 +3525,9 @@
       <c r="FN5" s="1" t="n">
         <v>183.1</v>
       </c>
+      <c r="FO5" s="1" t="n">
+        <v>178.8</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -4022,6 +4040,9 @@
       <c r="FN6" s="1" t="n">
         <v>165.2</v>
       </c>
+      <c r="FO6" s="3" t="n">
+        <v>132.4</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4534,6 +4555,9 @@
       <c r="FN7" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="FO7" s="3" t="n">
+        <v>125.7</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -5046,6 +5070,9 @@
       <c r="FN8" s="1" t="n">
         <v>154</v>
       </c>
+      <c r="FO8" s="1" t="n">
+        <v>142.5</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5558,6 +5585,9 @@
       <c r="FN9" s="1" t="n">
         <v>176.8</v>
       </c>
+      <c r="FO9" s="1" t="n">
+        <v>149.8</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -6070,6 +6100,9 @@
       <c r="FN10" s="1" t="n">
         <v>169.6</v>
       </c>
+      <c r="FO10" s="3" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6582,6 +6615,9 @@
       <c r="FN11" s="3" t="n">
         <v>130.9</v>
       </c>
+      <c r="FO11" s="1" t="n">
+        <v>199.4</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -7094,6 +7130,9 @@
       <c r="FN12" s="1" t="n">
         <v>185</v>
       </c>
+      <c r="FO12" s="3" t="n">
+        <v>127.7</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7606,6 +7645,9 @@
       <c r="FN13" s="1" t="n">
         <v>190.3</v>
       </c>
+      <c r="FO13" s="1" t="n">
+        <v>231.3</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -8118,6 +8160,9 @@
       <c r="FN14" s="1" t="n">
         <v>213.9</v>
       </c>
+      <c r="FO14" s="2" t="n">
+        <v>112.4</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8630,6 +8675,9 @@
       <c r="FN15" s="3" t="n">
         <v>126</v>
       </c>
+      <c r="FO15" s="1" t="n">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -9142,6 +9190,9 @@
       <c r="FN16" s="1" t="n">
         <v>159</v>
       </c>
+      <c r="FO16" s="1" t="n">
+        <v>167.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9654,6 +9705,9 @@
       <c r="FN17" s="1" t="n">
         <v>174.9</v>
       </c>
+      <c r="FO17" s="1" t="n">
+        <v>267.4</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -10166,6 +10220,9 @@
       <c r="FN18" s="1" t="n">
         <v>178.3</v>
       </c>
+      <c r="FO18" s="3" t="n">
+        <v>137.1</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10678,6 +10735,9 @@
       <c r="FN19" s="1" t="n">
         <v>191.9</v>
       </c>
+      <c r="FO19" s="1" t="n">
+        <v>193.6</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -11190,6 +11250,9 @@
       <c r="FN20" s="3" t="n">
         <v>131.9</v>
       </c>
+      <c r="FO20" s="2" t="n">
+        <v>110.4</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11702,6 +11765,9 @@
       <c r="FN21" s="1" t="n">
         <v>204.1</v>
       </c>
+      <c r="FO21" s="2" t="n">
+        <v>116.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -12214,6 +12280,9 @@
       <c r="FN22" s="3" t="n">
         <v>137</v>
       </c>
+      <c r="FO22" s="2" t="n">
+        <v>121.9</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12726,6 +12795,9 @@
       <c r="FN23" s="1" t="n">
         <v>171.7</v>
       </c>
+      <c r="FO23" s="2" t="n">
+        <v>119.8</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -13238,6 +13310,9 @@
       <c r="FN24" s="1" t="n">
         <v>179.7</v>
       </c>
+      <c r="FO24" s="1" t="n">
+        <v>172.9</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13750,6 +13825,9 @@
       <c r="FN25" s="1" t="n">
         <v>180.6</v>
       </c>
+      <c r="FO25" s="1" t="n">
+        <v>158.7</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -14262,6 +14340,9 @@
       <c r="FN26" s="2" t="n">
         <v>124.9</v>
       </c>
+      <c r="FO26" s="2" t="n">
+        <v>124.1</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14774,6 +14855,9 @@
       <c r="FN27" s="1" t="n">
         <v>233.1</v>
       </c>
+      <c r="FO27" s="1" t="n">
+        <v>143.6</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -15286,6 +15370,9 @@
       <c r="FN28" s="3" t="n">
         <v>129.3</v>
       </c>
+      <c r="FO28" s="1" t="n">
+        <v>297.5</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -15798,6 +15885,9 @@
       <c r="FN29" s="3" t="n">
         <v>136.8</v>
       </c>
+      <c r="FO29" s="1" t="n">
+        <v>247.6</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -16310,6 +16400,9 @@
       <c r="FN30" s="1" t="n">
         <v>190</v>
       </c>
+      <c r="FO30" s="1" t="n">
+        <v>165.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -16822,6 +16915,9 @@
       <c r="FN31" s="1" t="n">
         <v>183.4</v>
       </c>
+      <c r="FO31" s="1" t="n">
+        <v>175.5</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -17334,6 +17430,9 @@
       <c r="FN32" s="3" t="n">
         <v>126.7</v>
       </c>
+      <c r="FO32" s="1" t="n">
+        <v>151.3</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -17846,6 +17945,9 @@
       <c r="FN33" s="1" t="n">
         <v>149.1</v>
       </c>
+      <c r="FO33" s="1" t="n">
+        <v>278.3</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -18358,6 +18460,9 @@
       <c r="FN34" s="1" t="n">
         <v>153.4</v>
       </c>
+      <c r="FO34" s="1" t="n">
+        <v>155.2</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -18870,6 +18975,9 @@
       <c r="FN35" s="2" t="n">
         <v>118.3</v>
       </c>
+      <c r="FO35" s="1" t="n">
+        <v>340</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -19382,6 +19490,9 @@
       <c r="FN36" s="1" t="n">
         <v>198.3</v>
       </c>
+      <c r="FO36" s="3" t="n">
+        <v>131.8</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -19894,6 +20005,9 @@
       <c r="FN37" s="1" t="n">
         <v>148.4</v>
       </c>
+      <c r="FO37" s="1" t="n">
+        <v>155.6</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -20406,6 +20520,9 @@
       <c r="FN38" s="1" t="n">
         <v>175.3</v>
       </c>
+      <c r="FO38" s="1" t="n">
+        <v>140.3</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -20918,6 +21035,9 @@
       <c r="FN39" s="1" t="n">
         <v>227.6</v>
       </c>
+      <c r="FO39" s="1" t="n">
+        <v>157.5</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -21430,6 +21550,9 @@
       <c r="FN40" s="1" t="n">
         <v>194.8</v>
       </c>
+      <c r="FO40" s="3" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -21942,6 +22065,9 @@
       <c r="FN41" s="3" t="n">
         <v>129.8</v>
       </c>
+      <c r="FO41" s="1" t="n">
+        <v>164.7</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -22454,6 +22580,9 @@
       <c r="FN42" s="2" t="n">
         <v>122.2</v>
       </c>
+      <c r="FO42" s="1" t="n">
+        <v>158.9</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -22966,6 +23095,9 @@
       <c r="FN43" s="1" t="n">
         <v>212</v>
       </c>
+      <c r="FO43" s="2" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -23478,6 +23610,9 @@
       <c r="FN44" s="1" t="n">
         <v>176.2</v>
       </c>
+      <c r="FO44" s="1" t="n">
+        <v>181.8</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -23990,6 +24125,9 @@
       <c r="FN45" s="1" t="n">
         <v>155.3</v>
       </c>
+      <c r="FO45" s="1" t="n">
+        <v>217.6</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -24502,6 +24640,9 @@
       <c r="FN46" s="1" t="n">
         <v>214.4</v>
       </c>
+      <c r="FO46" s="1" t="n">
+        <v>158.6</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -25014,6 +25155,9 @@
       <c r="FN47" s="1" t="n">
         <v>148</v>
       </c>
+      <c r="FO47" s="1" t="n">
+        <v>166.8</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -25526,6 +25670,9 @@
       <c r="FN48" s="1" t="n">
         <v>213.5</v>
       </c>
+      <c r="FO48" s="1" t="n">
+        <v>151.4</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -26038,6 +26185,9 @@
       <c r="FN49" s="3" t="n">
         <v>134.3</v>
       </c>
+      <c r="FO49" s="1" t="n">
+        <v>181.5</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -26550,6 +26700,9 @@
       <c r="FN50" s="1" t="n">
         <v>141.7</v>
       </c>
+      <c r="FO50" s="1" t="n">
+        <v>220.5</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -27061,6 +27214,9 @@
       </c>
       <c r="FN51" s="1" t="n">
         <v>182.3</v>
+      </c>
+      <c r="FO51" s="1" t="n">
+        <v>156.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FO51"/>
+  <dimension ref="A1:FP51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,6 +610,7 @@
     <col width="12" customWidth="1" min="169" max="169"/>
     <col width="12" customWidth="1" min="170" max="170"/>
     <col width="12" customWidth="1" min="171" max="171"/>
+    <col width="12" customWidth="1" min="172" max="172"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -1468,6 +1469,11 @@
           <t>2025/02/26</t>
         </is>
       </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>2025/02/27</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="1" t="n">
@@ -1983,6 +1989,9 @@
       <c r="FO2" s="1" t="n">
         <v>155.9</v>
       </c>
+      <c r="FP2" s="1" t="n">
+        <v>178.8</v>
+      </c>
     </row>
     <row r="3" ht="20" customHeight="1">
       <c r="A3" s="1" t="n">
@@ -2498,6 +2507,9 @@
       <c r="FO3" s="3" t="n">
         <v>128.5</v>
       </c>
+      <c r="FP3" s="1" t="n">
+        <v>191.4</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1">
       <c r="A4" s="1" t="n">
@@ -3013,6 +3025,9 @@
       <c r="FO4" s="3" t="n">
         <v>134.1</v>
       </c>
+      <c r="FP4" s="1" t="n">
+        <v>177.6</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" s="1" t="n">
@@ -3528,6 +3543,9 @@
       <c r="FO5" s="1" t="n">
         <v>178.8</v>
       </c>
+      <c r="FP5" s="1" t="n">
+        <v>201.6</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" s="1" t="n">
@@ -4043,6 +4061,9 @@
       <c r="FO6" s="3" t="n">
         <v>132.4</v>
       </c>
+      <c r="FP6" s="1" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" s="1" t="n">
@@ -4558,6 +4579,9 @@
       <c r="FO7" s="3" t="n">
         <v>125.7</v>
       </c>
+      <c r="FP7" s="1" t="n">
+        <v>141.1</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" s="1" t="n">
@@ -5073,6 +5097,9 @@
       <c r="FO8" s="1" t="n">
         <v>142.5</v>
       </c>
+      <c r="FP8" s="3" t="n">
+        <v>139.2</v>
+      </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" s="1" t="n">
@@ -5588,6 +5615,9 @@
       <c r="FO9" s="1" t="n">
         <v>149.8</v>
       </c>
+      <c r="FP9" s="2" t="n">
+        <v>124.9</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" s="1" t="n">
@@ -6103,6 +6133,9 @@
       <c r="FO10" s="3" t="n">
         <v>129.8</v>
       </c>
+      <c r="FP10" s="1" t="n">
+        <v>168.4</v>
+      </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="1" t="n">
@@ -6618,6 +6651,9 @@
       <c r="FO11" s="1" t="n">
         <v>199.4</v>
       </c>
+      <c r="FP11" s="1" t="n">
+        <v>167.2</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" s="1" t="n">
@@ -7133,6 +7169,9 @@
       <c r="FO12" s="3" t="n">
         <v>127.7</v>
       </c>
+      <c r="FP12" s="1" t="n">
+        <v>153.5</v>
+      </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" s="1" t="n">
@@ -7648,6 +7687,9 @@
       <c r="FO13" s="1" t="n">
         <v>231.3</v>
       </c>
+      <c r="FP13" s="1" t="n">
+        <v>219.2</v>
+      </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" s="1" t="n">
@@ -8163,6 +8205,9 @@
       <c r="FO14" s="2" t="n">
         <v>112.4</v>
       </c>
+      <c r="FP14" s="1" t="n">
+        <v>191.3</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" s="1" t="n">
@@ -8678,6 +8723,9 @@
       <c r="FO15" s="1" t="n">
         <v>147.5</v>
       </c>
+      <c r="FP15" s="1" t="n">
+        <v>174.5</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1">
       <c r="A16" s="1" t="n">
@@ -9193,6 +9241,9 @@
       <c r="FO16" s="1" t="n">
         <v>167.7</v>
       </c>
+      <c r="FP16" s="1" t="n">
+        <v>168.7</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1">
       <c r="A17" s="1" t="n">
@@ -9708,6 +9759,9 @@
       <c r="FO17" s="1" t="n">
         <v>267.4</v>
       </c>
+      <c r="FP17" s="2" t="n">
+        <v>120.6</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1">
       <c r="A18" s="1" t="n">
@@ -10223,6 +10277,9 @@
       <c r="FO18" s="3" t="n">
         <v>137.1</v>
       </c>
+      <c r="FP18" s="1" t="n">
+        <v>170.1</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1">
       <c r="A19" s="1" t="n">
@@ -10738,6 +10795,9 @@
       <c r="FO19" s="1" t="n">
         <v>193.6</v>
       </c>
+      <c r="FP19" s="2" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1">
       <c r="A20" s="1" t="n">
@@ -11253,6 +11313,9 @@
       <c r="FO20" s="2" t="n">
         <v>110.4</v>
       </c>
+      <c r="FP20" s="1" t="n">
+        <v>155.8</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1">
       <c r="A21" s="1" t="n">
@@ -11768,6 +11831,9 @@
       <c r="FO21" s="2" t="n">
         <v>116.7</v>
       </c>
+      <c r="FP21" s="1" t="n">
+        <v>165.7</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1">
       <c r="A22" s="1" t="n">
@@ -12283,6 +12349,9 @@
       <c r="FO22" s="2" t="n">
         <v>121.9</v>
       </c>
+      <c r="FP22" s="1" t="n">
+        <v>156.8</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1">
       <c r="A23" s="1" t="n">
@@ -12798,6 +12867,9 @@
       <c r="FO23" s="2" t="n">
         <v>119.8</v>
       </c>
+      <c r="FP23" s="1" t="n">
+        <v>166.5</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1">
       <c r="A24" s="1" t="n">
@@ -13313,6 +13385,9 @@
       <c r="FO24" s="1" t="n">
         <v>172.9</v>
       </c>
+      <c r="FP24" s="1" t="n">
+        <v>174.6</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1">
       <c r="A25" s="1" t="n">
@@ -13828,6 +13903,9 @@
       <c r="FO25" s="1" t="n">
         <v>158.7</v>
       </c>
+      <c r="FP25" s="1" t="n">
+        <v>153.4</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1">
       <c r="A26" s="1" t="n">
@@ -14343,6 +14421,9 @@
       <c r="FO26" s="2" t="n">
         <v>124.1</v>
       </c>
+      <c r="FP26" s="1" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="27" ht="20" customHeight="1">
       <c r="A27" s="1" t="n">
@@ -14858,6 +14939,9 @@
       <c r="FO27" s="1" t="n">
         <v>143.6</v>
       </c>
+      <c r="FP27" s="1" t="n">
+        <v>147.7</v>
+      </c>
     </row>
     <row r="28" ht="20" customHeight="1">
       <c r="A28" s="1" t="n">
@@ -15373,6 +15457,9 @@
       <c r="FO28" s="1" t="n">
         <v>297.5</v>
       </c>
+      <c r="FP28" s="1" t="n">
+        <v>189.3</v>
+      </c>
     </row>
     <row r="29" ht="20" customHeight="1">
       <c r="A29" s="1" t="n">
@@ -15888,6 +15975,9 @@
       <c r="FO29" s="1" t="n">
         <v>247.6</v>
       </c>
+      <c r="FP29" s="1" t="n">
+        <v>156.7</v>
+      </c>
     </row>
     <row r="30" ht="20" customHeight="1">
       <c r="A30" s="1" t="n">
@@ -16403,6 +16493,9 @@
       <c r="FO30" s="1" t="n">
         <v>165.1</v>
       </c>
+      <c r="FP30" s="1" t="n">
+        <v>153.1</v>
+      </c>
     </row>
     <row r="31" ht="20" customHeight="1">
       <c r="A31" s="1" t="n">
@@ -16918,6 +17011,9 @@
       <c r="FO31" s="1" t="n">
         <v>175.5</v>
       </c>
+      <c r="FP31" s="1" t="n">
+        <v>196.4</v>
+      </c>
     </row>
     <row r="32" ht="20" customHeight="1">
       <c r="A32" s="1" t="n">
@@ -17433,6 +17529,9 @@
       <c r="FO32" s="1" t="n">
         <v>151.3</v>
       </c>
+      <c r="FP32" s="1" t="n">
+        <v>163.4</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1">
       <c r="A33" s="1" t="n">
@@ -17948,6 +18047,9 @@
       <c r="FO33" s="1" t="n">
         <v>278.3</v>
       </c>
+      <c r="FP33" s="3" t="n">
+        <v>133.9</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1">
       <c r="A34" s="1" t="n">
@@ -18463,6 +18565,9 @@
       <c r="FO34" s="1" t="n">
         <v>155.2</v>
       </c>
+      <c r="FP34" s="2" t="n">
+        <v>112.6</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1">
       <c r="A35" s="1" t="n">
@@ -18978,6 +19083,9 @@
       <c r="FO35" s="1" t="n">
         <v>340</v>
       </c>
+      <c r="FP35" s="1" t="n">
+        <v>155.4</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1">
       <c r="A36" s="1" t="n">
@@ -19493,6 +19601,9 @@
       <c r="FO36" s="3" t="n">
         <v>131.8</v>
       </c>
+      <c r="FP36" s="3" t="n">
+        <v>130.9</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1">
       <c r="A37" s="1" t="n">
@@ -20008,6 +20119,9 @@
       <c r="FO37" s="1" t="n">
         <v>155.6</v>
       </c>
+      <c r="FP37" s="1" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1">
       <c r="A38" s="1" t="n">
@@ -20523,6 +20637,9 @@
       <c r="FO38" s="1" t="n">
         <v>140.3</v>
       </c>
+      <c r="FP38" s="1" t="n">
+        <v>163.8</v>
+      </c>
     </row>
     <row r="39" ht="20" customHeight="1">
       <c r="A39" s="1" t="n">
@@ -21038,6 +21155,9 @@
       <c r="FO39" s="1" t="n">
         <v>157.5</v>
       </c>
+      <c r="FP39" s="3" t="n">
+        <v>131.7</v>
+      </c>
     </row>
     <row r="40" ht="20" customHeight="1">
       <c r="A40" s="1" t="n">
@@ -21553,6 +21673,9 @@
       <c r="FO40" s="3" t="n">
         <v>126.4</v>
       </c>
+      <c r="FP40" s="1" t="n">
+        <v>146.6</v>
+      </c>
     </row>
     <row r="41" ht="20" customHeight="1">
       <c r="A41" s="1" t="n">
@@ -22068,6 +22191,9 @@
       <c r="FO41" s="1" t="n">
         <v>164.7</v>
       </c>
+      <c r="FP41" s="1" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="42" ht="20" customHeight="1">
       <c r="A42" s="1" t="n">
@@ -22583,6 +22709,9 @@
       <c r="FO42" s="1" t="n">
         <v>158.9</v>
       </c>
+      <c r="FP42" s="3" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="43" ht="20" customHeight="1">
       <c r="A43" s="1" t="n">
@@ -23098,6 +23227,9 @@
       <c r="FO43" s="2" t="n">
         <v>87.3</v>
       </c>
+      <c r="FP43" s="1" t="n">
+        <v>226.2</v>
+      </c>
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="A44" s="1" t="n">
@@ -23613,6 +23745,9 @@
       <c r="FO44" s="1" t="n">
         <v>181.8</v>
       </c>
+      <c r="FP44" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="45" ht="20" customHeight="1">
       <c r="A45" s="1" t="n">
@@ -24128,6 +24263,9 @@
       <c r="FO45" s="1" t="n">
         <v>217.6</v>
       </c>
+      <c r="FP45" s="1" t="n">
+        <v>172.9</v>
+      </c>
     </row>
     <row r="46" ht="20" customHeight="1">
       <c r="A46" s="1" t="n">
@@ -24643,6 +24781,9 @@
       <c r="FO46" s="1" t="n">
         <v>158.6</v>
       </c>
+      <c r="FP46" s="1" t="n">
+        <v>163.7</v>
+      </c>
     </row>
     <row r="47" ht="20" customHeight="1">
       <c r="A47" s="1" t="n">
@@ -25158,6 +25299,9 @@
       <c r="FO47" s="1" t="n">
         <v>166.8</v>
       </c>
+      <c r="FP47" s="1" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="48" ht="20" customHeight="1">
       <c r="A48" s="1" t="n">
@@ -25673,6 +25817,9 @@
       <c r="FO48" s="1" t="n">
         <v>151.4</v>
       </c>
+      <c r="FP48" s="1" t="n">
+        <v>152.6</v>
+      </c>
     </row>
     <row r="49" ht="20" customHeight="1">
       <c r="A49" s="1" t="n">
@@ -26188,6 +26335,9 @@
       <c r="FO49" s="1" t="n">
         <v>181.5</v>
       </c>
+      <c r="FP49" s="2" t="n">
+        <v>123.3</v>
+      </c>
     </row>
     <row r="50" ht="20" customHeight="1">
       <c r="A50" s="1" t="n">
@@ -26703,6 +26853,9 @@
       <c r="FO50" s="1" t="n">
         <v>220.5</v>
       </c>
+      <c r="FP50" s="1" t="n">
+        <v>141.7</v>
+      </c>
     </row>
     <row r="51" ht="20" customHeight="1">
       <c r="A51" s="1" t="n">
@@ -27217,6 +27370,9 @@
       </c>
       <c r="FO51" s="1" t="n">
         <v>156.4</v>
+      </c>
+      <c r="FP51" s="1" t="n">
+        <v>142.4</v>
       </c>
     </row>
   </sheetData>

--- a/マイジャグラーV_塗りつぶし済み.xlsx
+++ b/マイジャグラーV_塗りつぶし済み.xlsx
@@ -431,7 +431,7 @@
     <outlinePr su